--- a/documentation/DataAndAPIMatchAware.xlsx
+++ b/documentation/DataAndAPIMatchAware.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="459">
   <si>
     <t>USER</t>
   </si>
@@ -587,9 +587,6 @@
     <t>Result</t>
   </si>
   <si>
-    <t>Access</t>
-  </si>
-  <si>
     <t>GET</t>
   </si>
   <si>
@@ -656,33 +653,9 @@
     <t>log in using a facbook account</t>
   </si>
   <si>
-    <t>/user-role</t>
-  </si>
-  <si>
-    <t>Retrieve all user roles</t>
-  </si>
-  <si>
-    <t>/user-role/:user-roleId</t>
-  </si>
-  <si>
     <t>retrieve by ID</t>
   </si>
   <si>
-    <t>Update user role by ID</t>
-  </si>
-  <si>
-    <t>/user-role/:user_roleId</t>
-  </si>
-  <si>
-    <t>Delete user role by ID</t>
-  </si>
-  <si>
-    <t>Create user role</t>
-  </si>
-  <si>
-    <t>Delete all user roles</t>
-  </si>
-  <si>
     <t>/role</t>
   </si>
   <si>
@@ -716,12 +689,6 @@
     <t>Get all users in a club</t>
   </si>
   <si>
-    <t>/user/findByTeam/:teamId</t>
-  </si>
-  <si>
-    <t>Get all users on a team</t>
-  </si>
-  <si>
     <t>/user/findByRefereeAssignor/:userId</t>
   </si>
   <si>
@@ -755,16 +722,688 @@
     <t>Delete team by ID</t>
   </si>
   <si>
-    <t>/team/findByUser/:userId</t>
-  </si>
-  <si>
-    <t>Retrieve all teams for a user</t>
-  </si>
-  <si>
-    <t>/team/findByClub/:clubId</t>
-  </si>
-  <si>
-    <t>Retrieve all teams in a club</t>
+    <t>/team/findByQuery</t>
+  </si>
+  <si>
+    <t>Retrieve all teams based on parameters</t>
+  </si>
+  <si>
+    <t>/club</t>
+  </si>
+  <si>
+    <t>Retrieve all clubs</t>
+  </si>
+  <si>
+    <t>Delete all clubs</t>
+  </si>
+  <si>
+    <t>Create club</t>
+  </si>
+  <si>
+    <t>Retrieve clubs by user ID</t>
+  </si>
+  <si>
+    <t>/club/:clubId</t>
+  </si>
+  <si>
+    <t>Update club by ID</t>
+  </si>
+  <si>
+    <t>Delete club by ID</t>
+  </si>
+  <si>
+    <t>/club_member</t>
+  </si>
+  <si>
+    <t>TEAM_PLAYER</t>
+  </si>
+  <si>
+    <t>/team_player</t>
+  </si>
+  <si>
+    <t>/team_coach</t>
+  </si>
+  <si>
+    <t>TEAM_COACH</t>
+  </si>
+  <si>
+    <t>/league</t>
+  </si>
+  <si>
+    <t>/league/:leagueId</t>
+  </si>
+  <si>
+    <t>Retrieve all leagues</t>
+  </si>
+  <si>
+    <t>Delete all leagues</t>
+  </si>
+  <si>
+    <t>Create league</t>
+  </si>
+  <si>
+    <t>Update league by ID</t>
+  </si>
+  <si>
+    <t>Delete league by ID</t>
+  </si>
+  <si>
+    <t>LEAGUE_TEAM</t>
+  </si>
+  <si>
+    <t>/league_team</t>
+  </si>
+  <si>
+    <t>Add team to league</t>
+  </si>
+  <si>
+    <t>/league_type</t>
+  </si>
+  <si>
+    <t>/league_type/:league_typeId</t>
+  </si>
+  <si>
+    <t>Retrieve all league types</t>
+  </si>
+  <si>
+    <t>Delete all league types</t>
+  </si>
+  <si>
+    <t>Create league type</t>
+  </si>
+  <si>
+    <t>Update league type by ID</t>
+  </si>
+  <si>
+    <t>Delete league type by ID</t>
+  </si>
+  <si>
+    <t>/age_group</t>
+  </si>
+  <si>
+    <t>/age_group/:age_groupId</t>
+  </si>
+  <si>
+    <t>Retrieve all age groups</t>
+  </si>
+  <si>
+    <t>Delete all age groups</t>
+  </si>
+  <si>
+    <t>Create age group</t>
+  </si>
+  <si>
+    <t>Update age group by ID</t>
+  </si>
+  <si>
+    <t>Delete age group by ID</t>
+  </si>
+  <si>
+    <t>RULE</t>
+  </si>
+  <si>
+    <t>/rule</t>
+  </si>
+  <si>
+    <t>/rule/:ruleId</t>
+  </si>
+  <si>
+    <t>Retrieve all rules</t>
+  </si>
+  <si>
+    <t>Delete all rules</t>
+  </si>
+  <si>
+    <t>Create rule</t>
+  </si>
+  <si>
+    <t>Update rule by ID</t>
+  </si>
+  <si>
+    <t>Delete rule by ID</t>
+  </si>
+  <si>
+    <t>/reschedule_rule</t>
+  </si>
+  <si>
+    <t>/reschedule_rule/:reschedule_ruleId</t>
+  </si>
+  <si>
+    <t>Retrieve all reschedule rules</t>
+  </si>
+  <si>
+    <t>Delete all reschedule rules</t>
+  </si>
+  <si>
+    <t>Create reschedule rule</t>
+  </si>
+  <si>
+    <t>Update reschedule rule by ID</t>
+  </si>
+  <si>
+    <t>Delete reschedule rule by ID</t>
+  </si>
+  <si>
+    <t>/access_request</t>
+  </si>
+  <si>
+    <t>/access_request/:access_requestId</t>
+  </si>
+  <si>
+    <t>Retrieve all access requests</t>
+  </si>
+  <si>
+    <t>Delete all access requests</t>
+  </si>
+  <si>
+    <t>Create access request</t>
+  </si>
+  <si>
+    <t>Update access request by ID</t>
+  </si>
+  <si>
+    <t>Delete access request by ID</t>
+  </si>
+  <si>
+    <t>/access_request/findByStatus/:status</t>
+  </si>
+  <si>
+    <t>Retrieve all access requests in the specified status</t>
+  </si>
+  <si>
+    <t>/access_request/findByReviewer/:userId</t>
+  </si>
+  <si>
+    <t>Retrieve all access requests pending acknowledgement by the specified user</t>
+  </si>
+  <si>
+    <t>/facility</t>
+  </si>
+  <si>
+    <t>/facility/:facilityId</t>
+  </si>
+  <si>
+    <t>Create facility</t>
+  </si>
+  <si>
+    <t>Update facility by ID</t>
+  </si>
+  <si>
+    <t>Delete facility by ID</t>
+  </si>
+  <si>
+    <t>/field</t>
+  </si>
+  <si>
+    <t>Create field</t>
+  </si>
+  <si>
+    <t>/field/:fieldId</t>
+  </si>
+  <si>
+    <t>Update field by ID</t>
+  </si>
+  <si>
+    <t>Delete field by ID</t>
+  </si>
+  <si>
+    <t>Retrieve all facilities</t>
+  </si>
+  <si>
+    <t>Delete all facilities</t>
+  </si>
+  <si>
+    <t>Retrieve all fields</t>
+  </si>
+  <si>
+    <t>Delete all fields</t>
+  </si>
+  <si>
+    <t>/field/findAvailableByQuery</t>
+  </si>
+  <si>
+    <t>Retrieve all available fields based on provided query parameters</t>
+  </si>
+  <si>
+    <t>/field_size</t>
+  </si>
+  <si>
+    <t>/field_size/:field_sizeId</t>
+  </si>
+  <si>
+    <t>Retrieve all field sizes</t>
+  </si>
+  <si>
+    <t>Delete all field sizes</t>
+  </si>
+  <si>
+    <t>Create field size</t>
+  </si>
+  <si>
+    <t>Update field size by ID</t>
+  </si>
+  <si>
+    <t>Delete field size by ID</t>
+  </si>
+  <si>
+    <t>/organization</t>
+  </si>
+  <si>
+    <t>/organization/:organizationId</t>
+  </si>
+  <si>
+    <t>Retrieve all organizations</t>
+  </si>
+  <si>
+    <t>Delete all organizations</t>
+  </si>
+  <si>
+    <t>Create organization</t>
+  </si>
+  <si>
+    <t>Update organization by ID</t>
+  </si>
+  <si>
+    <t>Delete organization by ID</t>
+  </si>
+  <si>
+    <t>Access Role</t>
+  </si>
+  <si>
+    <t>EVENT_TYPE</t>
+  </si>
+  <si>
+    <t>/event_type</t>
+  </si>
+  <si>
+    <t>/event_type/:event_typeId</t>
+  </si>
+  <si>
+    <t>Retrieve all event types</t>
+  </si>
+  <si>
+    <t>Delete all event types</t>
+  </si>
+  <si>
+    <t>Create event type</t>
+  </si>
+  <si>
+    <t>Update event type by ID</t>
+  </si>
+  <si>
+    <t>Delete event type by ID</t>
+  </si>
+  <si>
+    <t>/event</t>
+  </si>
+  <si>
+    <t>/event/:eventId</t>
+  </si>
+  <si>
+    <t>Retrieve all events</t>
+  </si>
+  <si>
+    <t>Delete all events</t>
+  </si>
+  <si>
+    <t>Create event</t>
+  </si>
+  <si>
+    <t>Update event by ID</t>
+  </si>
+  <si>
+    <t>Delete event by ID</t>
+  </si>
+  <si>
+    <t>/event/findByTeam/:teamId</t>
+  </si>
+  <si>
+    <t>Retrieve all events for a team</t>
+  </si>
+  <si>
+    <t>/event/findByReferee/:userId</t>
+  </si>
+  <si>
+    <t>Retrieve all events for a referee</t>
+  </si>
+  <si>
+    <t>/event/findByTrainer/:userId</t>
+  </si>
+  <si>
+    <t>Retrieve all events for a trainer</t>
+  </si>
+  <si>
+    <t>/event/findByStatus/:status</t>
+  </si>
+  <si>
+    <t>Retrieve all events with the provided status</t>
+  </si>
+  <si>
+    <t>/change_request</t>
+  </si>
+  <si>
+    <t>/change_request/:change_requestId</t>
+  </si>
+  <si>
+    <t>Retrieve all change requests</t>
+  </si>
+  <si>
+    <t>Delete all change requests</t>
+  </si>
+  <si>
+    <t>Create change request</t>
+  </si>
+  <si>
+    <t>Update change request by ID</t>
+  </si>
+  <si>
+    <t>Delete change request by ID</t>
+  </si>
+  <si>
+    <t>/change_request/findByApprover/:userId</t>
+  </si>
+  <si>
+    <t>/change_request/findBySubmitter/:userId</t>
+  </si>
+  <si>
+    <t>Retrieve all change requests for an approver</t>
+  </si>
+  <si>
+    <t>/notification</t>
+  </si>
+  <si>
+    <t>/notification/:notificationId</t>
+  </si>
+  <si>
+    <t>Retrieve all notifications</t>
+  </si>
+  <si>
+    <t>Delete all notifications</t>
+  </si>
+  <si>
+    <t>Create notification</t>
+  </si>
+  <si>
+    <t>Update notification by ID</t>
+  </si>
+  <si>
+    <t>Delete notification by ID</t>
+  </si>
+  <si>
+    <t>/notification/findByRecipient/:userId</t>
+  </si>
+  <si>
+    <t>Retrieve all notifications for this user</t>
+  </si>
+  <si>
+    <t>/message</t>
+  </si>
+  <si>
+    <t>Retrieve all messages</t>
+  </si>
+  <si>
+    <t>Delete all messages</t>
+  </si>
+  <si>
+    <t>Create message</t>
+  </si>
+  <si>
+    <t>/message/:messageId</t>
+  </si>
+  <si>
+    <t>Update message by ID</t>
+  </si>
+  <si>
+    <t>Delete message by ID</t>
+  </si>
+  <si>
+    <t>/message/findByRecipient/:userId</t>
+  </si>
+  <si>
+    <t>Retrieve all messages for this user</t>
+  </si>
+  <si>
+    <t>MESSAGE</t>
+  </si>
+  <si>
+    <t>Retrieve league by ID</t>
+  </si>
+  <si>
+    <t>Retrieve league type by ID</t>
+  </si>
+  <si>
+    <t>Retrieve age group by ID</t>
+  </si>
+  <si>
+    <t>Retrieve rule by ID</t>
+  </si>
+  <si>
+    <t>Retrieve reschedule rule by ID</t>
+  </si>
+  <si>
+    <t>Retrieve access request by ID</t>
+  </si>
+  <si>
+    <t>Retrieve field by ID</t>
+  </si>
+  <si>
+    <t>Retrieve field size by ID</t>
+  </si>
+  <si>
+    <t>Retrieve organization by ID</t>
+  </si>
+  <si>
+    <t>Retrieve event type by ID</t>
+  </si>
+  <si>
+    <t>Retrieve event by ID</t>
+  </si>
+  <si>
+    <t>Retrieve change request by ID</t>
+  </si>
+  <si>
+    <t>Retrieve notification by ID</t>
+  </si>
+  <si>
+    <t>Retrieve message by ID</t>
+  </si>
+  <si>
+    <t>/user_settings</t>
+  </si>
+  <si>
+    <t>/user_settings/:user_settingsId</t>
+  </si>
+  <si>
+    <t>Retrieve all user settings</t>
+  </si>
+  <si>
+    <t>Delete all user settings</t>
+  </si>
+  <si>
+    <t>Create user setting</t>
+  </si>
+  <si>
+    <t>Retrieve user setting by ID</t>
+  </si>
+  <si>
+    <t>Update user setting by ID</t>
+  </si>
+  <si>
+    <t>Delete user setting by ID</t>
+  </si>
+  <si>
+    <t>/user_settings/findByUser/:userId</t>
+  </si>
+  <si>
+    <t>USER_INVITE</t>
+  </si>
+  <si>
+    <t>/user_invite</t>
+  </si>
+  <si>
+    <t>/user_invite/:user_inviteId</t>
+  </si>
+  <si>
+    <t>Retrieve user invite by ID</t>
+  </si>
+  <si>
+    <t>Update user invite by ID</t>
+  </si>
+  <si>
+    <t>Delete user invite by ID</t>
+  </si>
+  <si>
+    <t>Retrieve all user invites</t>
+  </si>
+  <si>
+    <t>Delete all user invites</t>
+  </si>
+  <si>
+    <t>Create user invites</t>
+  </si>
+  <si>
+    <t>/user_invite/findByKey/:inviteKey</t>
+  </si>
+  <si>
+    <t>Retrieve invite by key</t>
+  </si>
+  <si>
+    <t>Add role to user</t>
+  </si>
+  <si>
+    <t>Retrieve all roles for user</t>
+  </si>
+  <si>
+    <t>Remove all roles for user</t>
+  </si>
+  <si>
+    <t>/user_role</t>
+  </si>
+  <si>
+    <t>/user_role/:userId</t>
+  </si>
+  <si>
+    <t>/user_role/:userId/:roleId</t>
+  </si>
+  <si>
+    <t>Remove specified role from user</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>/club_member/:clubId</t>
+  </si>
+  <si>
+    <t>Remove user from club</t>
+  </si>
+  <si>
+    <t>/club_member/:userId</t>
+  </si>
+  <si>
+    <t>Add user to club</t>
+  </si>
+  <si>
+    <t>Retrieve all clubs user belongs to</t>
+  </si>
+  <si>
+    <t>Retrieve all user members of club</t>
+  </si>
+  <si>
+    <t>/team_player/:teamId</t>
+  </si>
+  <si>
+    <t>Retrieve all players on team</t>
+  </si>
+  <si>
+    <t>/team_player/:userId</t>
+  </si>
+  <si>
+    <t>Remove player from team</t>
+  </si>
+  <si>
+    <t>Add player to team</t>
+  </si>
+  <si>
+    <t>Retrieve all teams player belongs to</t>
+  </si>
+  <si>
+    <t>/team_player/getRosterSize/:teamId</t>
+  </si>
+  <si>
+    <t>Get a count of all players associated with a team</t>
+  </si>
+  <si>
+    <t>/team_coach/:teamId</t>
+  </si>
+  <si>
+    <t>Retrieve all coaches on a team</t>
+  </si>
+  <si>
+    <t>Remove coach from team</t>
+  </si>
+  <si>
+    <t>Add coach to team</t>
+  </si>
+  <si>
+    <t>/team_coach/:coachId</t>
+  </si>
+  <si>
+    <t>Retrieve all teams associated with coach</t>
+  </si>
+  <si>
+    <t>Retrieve all teams in league</t>
+  </si>
+  <si>
+    <t>/league_team/:leagueId</t>
+  </si>
+  <si>
+    <t>/league_team/:teamId</t>
+  </si>
+  <si>
+    <t>Retrieve all leagues team plays in</t>
+  </si>
+  <si>
+    <t>Remove team from league</t>
+  </si>
+  <si>
+    <t>Retrieve facility by ID</t>
+  </si>
+  <si>
+    <t>/organization/:clubId</t>
+  </si>
+  <si>
+    <t>Retrieve all organizations working for the provided club</t>
+  </si>
+  <si>
+    <t>/message/findByEvent/:eventId</t>
+  </si>
+  <si>
+    <t>Retrieve all messages for this event</t>
+  </si>
+  <si>
+    <t>Returned</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>/user_role/:roleId</t>
+  </si>
+  <si>
+    <t>Retrieve all users in role</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>Retrieve user settings for this user</t>
   </si>
 </sst>
 </file>
@@ -866,7 +1505,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1303,11 +1942,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1484,14 +2162,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1520,44 +2202,75 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1876,8 +2589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W71"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1915,35 +2628,28 @@
     </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="76"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="67"/>
-      <c r="M3" s="65" t="s">
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="73"/>
+      <c r="M3" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="67"/>
-      <c r="S3" s="65" t="s">
-        <v>174</v>
-      </c>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="67"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="73"/>
     </row>
     <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="36" t="s">
@@ -1991,21 +2697,6 @@
       <c r="Q4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="S4" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="T4" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="U4" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="V4" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="W4" s="19" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
@@ -2051,21 +2742,6 @@
         <v>22</v>
       </c>
       <c r="Q5" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="U5" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="W5" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2105,17 +2781,6 @@
       <c r="Q6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="T6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="U6" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="V6" s="8"/>
-      <c r="W6" s="24"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
@@ -2151,15 +2816,6 @@
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="24"/>
-      <c r="S7" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="T7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="U7" s="21"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="24"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
@@ -2193,15 +2849,6 @@
       </c>
       <c r="P8" s="8"/>
       <c r="Q8" s="24"/>
-      <c r="S8" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="U8" s="21"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="24"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="38" t="s">
@@ -2233,17 +2880,8 @@
       </c>
       <c r="P9" s="8"/>
       <c r="Q9" s="24"/>
-      <c r="S9" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="T9" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="U9" s="21"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="24"/>
-    </row>
-    <row r="10" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>82</v>
       </c>
@@ -2277,15 +2915,6 @@
       </c>
       <c r="P10" s="12"/>
       <c r="Q10" s="24"/>
-      <c r="S10" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="T10" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="U10" s="22"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="25"/>
     </row>
     <row r="11" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="38" t="s">
@@ -2359,13 +2988,13 @@
       <c r="C13" s="21"/>
       <c r="D13" s="8"/>
       <c r="E13" s="24"/>
-      <c r="G13" s="65" t="s">
+      <c r="G13" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="67"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="73"/>
       <c r="M13" s="10" t="s">
         <v>48</v>
       </c>
@@ -2517,13 +3146,13 @@
         <v>165</v>
       </c>
       <c r="E18" s="24"/>
-      <c r="G18" s="65" t="s">
+      <c r="G18" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="67"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="73"/>
       <c r="M18" s="10" t="s">
         <v>54</v>
       </c>
@@ -2664,20 +3293,20 @@
       <c r="W22" s="51"/>
     </row>
     <row r="23" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="64"/>
-      <c r="G23" s="71" t="s">
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="82"/>
+      <c r="G23" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="73"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="79"/>
       <c r="M23" s="10" t="s">
         <v>59</v>
       </c>
@@ -2842,13 +3471,13 @@
       <c r="W27" s="51"/>
     </row>
     <row r="28" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="64"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="82"/>
       <c r="G28" s="13" t="s">
         <v>12</v>
       </c>
@@ -2878,13 +3507,13 @@
       <c r="E29" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="65" t="s">
+      <c r="M29" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="N29" s="66"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="66"/>
-      <c r="Q29" s="67"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="73"/>
       <c r="W29" s="51"/>
     </row>
     <row r="30" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2903,13 +3532,13 @@
       <c r="E30" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G30" s="65" t="s">
+      <c r="G30" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="67"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="73"/>
       <c r="M30" s="17" t="s">
         <v>1</v>
       </c>
@@ -3191,13 +3820,13 @@
       <c r="Q39" s="9"/>
     </row>
     <row r="40" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="65" t="s">
+      <c r="A40" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="B40" s="66"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="67"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="73"/>
       <c r="F40" s="16"/>
       <c r="G40" s="10" t="s">
         <v>32</v>
@@ -3271,13 +3900,13 @@
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="9"/>
-      <c r="M42" s="65" t="s">
+      <c r="M42" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="N42" s="66"/>
-      <c r="O42" s="66"/>
-      <c r="P42" s="66"/>
-      <c r="Q42" s="67"/>
+      <c r="N42" s="72"/>
+      <c r="O42" s="72"/>
+      <c r="P42" s="72"/>
+      <c r="Q42" s="73"/>
     </row>
     <row r="43" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
@@ -3420,13 +4049,13 @@
       <c r="Q47" s="9"/>
     </row>
     <row r="48" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G48" s="68" t="s">
+      <c r="G48" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="69"/>
-      <c r="I48" s="69"/>
-      <c r="J48" s="69"/>
-      <c r="K48" s="70"/>
+      <c r="H48" s="75"/>
+      <c r="I48" s="75"/>
+      <c r="J48" s="75"/>
+      <c r="K48" s="76"/>
       <c r="M48" s="10" t="s">
         <v>67</v>
       </c>
@@ -3438,13 +4067,13 @@
       <c r="Q48" s="9"/>
     </row>
     <row r="49" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="65" t="s">
+      <c r="A49" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="66"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="67"/>
+      <c r="B49" s="72"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="73"/>
       <c r="G49" s="17" t="s">
         <v>1</v>
       </c>
@@ -3614,22 +4243,22 @@
       <c r="E56" s="15"/>
     </row>
     <row r="57" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G57" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="H57" s="69"/>
-      <c r="I57" s="69"/>
-      <c r="J57" s="69"/>
-      <c r="K57" s="70"/>
+      <c r="G57" s="71" t="s">
+        <v>174</v>
+      </c>
+      <c r="H57" s="72"/>
+      <c r="I57" s="72"/>
+      <c r="J57" s="72"/>
+      <c r="K57" s="73"/>
     </row>
     <row r="58" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="65" t="s">
+      <c r="A58" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="B58" s="66"/>
-      <c r="C58" s="66"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="67"/>
+      <c r="B58" s="72"/>
+      <c r="C58" s="72"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="73"/>
       <c r="G58" s="17" t="s">
         <v>1</v>
       </c>
@@ -3665,7 +4294,7 @@
       <c r="G59" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H59" s="6" t="s">
+      <c r="H59" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I59" s="20" t="s">
@@ -3691,10 +4320,10 @@
       <c r="D60" s="6"/>
       <c r="E60" s="28"/>
       <c r="G60" s="10" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="I60" s="21" t="s">
         <v>5</v>
@@ -3715,47 +4344,43 @@
       <c r="D61" s="8"/>
       <c r="E61" s="29"/>
       <c r="G61" s="10" t="s">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I61" s="27" t="s">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" s="21"/>
       <c r="J61" s="8"/>
-      <c r="K61" s="9"/>
+      <c r="K61" s="24"/>
     </row>
     <row r="62" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G62" s="10" t="s">
-        <v>93</v>
+        <v>176</v>
       </c>
       <c r="H62" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I62" s="27" t="s">
-        <v>5</v>
-      </c>
+      <c r="I62" s="21"/>
       <c r="J62" s="8"/>
-      <c r="K62" s="9"/>
+      <c r="K62" s="24"/>
     </row>
     <row r="63" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="65" t="s">
+      <c r="A63" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="B63" s="66"/>
-      <c r="C63" s="66"/>
-      <c r="D63" s="66"/>
-      <c r="E63" s="67"/>
+      <c r="B63" s="72"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="73"/>
       <c r="G63" s="10" t="s">
-        <v>104</v>
+        <v>178</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I63" s="27"/>
+        <v>161</v>
+      </c>
+      <c r="I63" s="21"/>
       <c r="J63" s="8"/>
-      <c r="K63" s="9"/>
+      <c r="K63" s="24"/>
     </row>
     <row r="64" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="17" t="s">
@@ -3773,19 +4398,17 @@
       <c r="E64" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G64" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="H64" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I64" s="27"/>
-      <c r="J64" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="K64" s="9"/>
-    </row>
-    <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G64" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="I64" s="22"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="25"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>104</v>
       </c>
@@ -3797,19 +4420,8 @@
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="28"/>
-      <c r="G65" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="H65" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="I65" s="39"/>
-      <c r="J65" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="K65" s="15"/>
-    </row>
-    <row r="66" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="13" t="s">
         <v>108</v>
       </c>
@@ -3822,17 +4434,17 @@
       <c r="D66" s="14"/>
       <c r="E66" s="40"/>
     </row>
-    <row r="67" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="68" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="65" t="s">
+    <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="68" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="B68" s="66"/>
-      <c r="C68" s="66"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="67"/>
-    </row>
-    <row r="69" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="72"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="73"/>
+    </row>
+    <row r="69" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="17" t="s">
         <v>1</v>
       </c>
@@ -3849,7 +4461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>104</v>
       </c>
@@ -3862,7 +4474,7 @@
       <c r="D70" s="6"/>
       <c r="E70" s="28"/>
     </row>
-    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="13" t="s">
         <v>110</v>
       </c>
@@ -3876,26 +4488,25 @@
       <c r="E71" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="18">
+    <mergeCell ref="G57:K57"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="M29:Q29"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M42:Q42"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="G3:K3"/>
     <mergeCell ref="A68:E68"/>
     <mergeCell ref="G18:K18"/>
     <mergeCell ref="G13:K13"/>
     <mergeCell ref="A49:E49"/>
     <mergeCell ref="A58:E58"/>
     <mergeCell ref="G48:K48"/>
-    <mergeCell ref="G57:K57"/>
     <mergeCell ref="G30:K30"/>
     <mergeCell ref="G23:K23"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="A40:E40"/>
-    <mergeCell ref="S3:W3"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="M29:Q29"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="M42:Q42"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="G3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3907,7 +4518,7 @@
   <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3922,13 +4533,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="70"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="76"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
@@ -4042,13 +4653,13 @@
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="70"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="76"/>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
@@ -4102,13 +4713,13 @@
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="70"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="76"/>
     </row>
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
@@ -4359,13 +4970,13 @@
       <c r="E37" s="30"/>
     </row>
     <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="68" t="s">
+      <c r="A38" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="70"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="76"/>
     </row>
     <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="17" t="s">
@@ -4471,13 +5082,13 @@
     </row>
     <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="68" t="s">
+      <c r="A47" s="74" t="s">
         <v>156</v>
       </c>
-      <c r="B47" s="69"/>
-      <c r="C47" s="69"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="70"/>
+      <c r="B47" s="75"/>
+      <c r="C47" s="75"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="76"/>
     </row>
     <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
@@ -4600,13 +5211,13 @@
     </row>
     <row r="57" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="58" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="68" t="s">
+      <c r="A58" s="74" t="s">
         <v>179</v>
       </c>
-      <c r="B58" s="69"/>
-      <c r="C58" s="69"/>
-      <c r="D58" s="69"/>
-      <c r="E58" s="70"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="75"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="76"/>
     </row>
     <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
@@ -4688,13 +5299,13 @@
     </row>
     <row r="65" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="62" t="s">
+      <c r="A66" s="80" t="s">
         <v>168</v>
       </c>
-      <c r="B66" s="63"/>
-      <c r="C66" s="63"/>
-      <c r="D66" s="63"/>
-      <c r="E66" s="64"/>
+      <c r="B66" s="81"/>
+      <c r="C66" s="81"/>
+      <c r="D66" s="81"/>
+      <c r="E66" s="82"/>
     </row>
     <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="48" t="s">
@@ -4756,13 +5367,13 @@
     </row>
     <row r="71" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="72" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="62" t="s">
+      <c r="A72" s="80" t="s">
         <v>180</v>
       </c>
-      <c r="B72" s="63"/>
-      <c r="C72" s="63"/>
-      <c r="D72" s="63"/>
-      <c r="E72" s="64"/>
+      <c r="B72" s="81"/>
+      <c r="C72" s="81"/>
+      <c r="D72" s="81"/>
+      <c r="E72" s="82"/>
     </row>
     <row r="73" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="17" t="s">
@@ -4809,7 +5420,9 @@
         <v>5</v>
       </c>
       <c r="D75" s="8"/>
-      <c r="E75" s="24"/>
+      <c r="E75" s="24" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
@@ -4896,10 +5509,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="83" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="75"/>
+      <c r="B1" s="84"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
@@ -4967,718 +5580,3518 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:H171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F179" sqref="F179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="91" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.33203125" style="70" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" style="70" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.77734375" style="70" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="102" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="78"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="79" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="104"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="85" t="s">
         <v>182</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="98" t="s">
+        <v>453</v>
+      </c>
+      <c r="C2" s="98" t="s">
+        <v>454</v>
+      </c>
+      <c r="D2" s="86" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="E2" s="86" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="F2" s="86" t="s">
         <v>185</v>
       </c>
-      <c r="E2" s="81" t="s">
+      <c r="G2" s="86" t="s">
+        <v>326</v>
+      </c>
+      <c r="H2" s="87" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="99">
+        <v>404</v>
+      </c>
+      <c r="D3" s="62" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="82" t="s">
+      <c r="E3" s="64" t="s">
+        <v>285</v>
+      </c>
+      <c r="F3" s="63" t="s">
+        <v>287</v>
+      </c>
+      <c r="G3" s="63"/>
+      <c r="H3" s="95" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="99"/>
+      <c r="D4" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>285</v>
+      </c>
+      <c r="F4" s="63" t="s">
+        <v>289</v>
+      </c>
+      <c r="G4" s="63"/>
+      <c r="H4" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="88"/>
+      <c r="C5" s="99">
+        <v>404</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="64" t="s">
+        <v>285</v>
+      </c>
+      <c r="F5" s="63" t="s">
+        <v>288</v>
+      </c>
+      <c r="G5" s="63"/>
+      <c r="H5" s="95" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="99">
+        <v>404</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" s="64" t="s">
+        <v>286</v>
+      </c>
+      <c r="F6" s="63" t="s">
+        <v>384</v>
+      </c>
+      <c r="G6" s="63"/>
+      <c r="H6" s="95"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="99">
+        <v>404</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>286</v>
+      </c>
+      <c r="F7" s="63" t="s">
+        <v>290</v>
+      </c>
+      <c r="G7" s="63"/>
+      <c r="H7" s="95"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="88"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>286</v>
+      </c>
+      <c r="F8" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="G8" s="63"/>
+      <c r="H8" s="95"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="89" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="89" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="100"/>
+      <c r="D9" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" s="64" t="s">
+        <v>294</v>
+      </c>
+      <c r="F9" s="65" t="s">
+        <v>295</v>
+      </c>
+      <c r="G9" s="63"/>
+      <c r="H9" s="94"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="89" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="89" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="100"/>
+      <c r="D10" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>292</v>
+      </c>
+      <c r="F10" s="65" t="s">
+        <v>293</v>
+      </c>
+      <c r="G10" s="63"/>
+      <c r="H10" s="94"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="99"/>
+      <c r="D11" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" s="64" t="s">
+        <v>263</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>265</v>
+      </c>
+      <c r="G11" s="63"/>
+      <c r="H11" s="95"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="99"/>
+      <c r="D12" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="64" t="s">
+        <v>263</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="G12" s="63"/>
+      <c r="H12" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="88"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" s="64" t="s">
+        <v>263</v>
+      </c>
+      <c r="F13" s="63" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13" s="63"/>
+      <c r="H13" s="95"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="99"/>
+      <c r="D14" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E14" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="F14" s="63" t="s">
+        <v>381</v>
+      </c>
+      <c r="G14" s="63"/>
+      <c r="H14" s="95"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="99"/>
+      <c r="D15" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>268</v>
+      </c>
+      <c r="G15" s="63"/>
+      <c r="H15" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="88"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E16" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="F16" s="63" t="s">
+        <v>269</v>
+      </c>
+      <c r="G16" s="63"/>
+      <c r="H16" s="95"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="99"/>
+      <c r="D17" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E17" s="64" t="s">
+        <v>350</v>
+      </c>
+      <c r="F17" s="63" t="s">
+        <v>352</v>
+      </c>
+      <c r="G17" s="63"/>
+      <c r="H17" s="95" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="99"/>
+      <c r="D18" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="E18" s="64" t="s">
+        <v>350</v>
+      </c>
+      <c r="F18" s="63" t="s">
+        <v>354</v>
+      </c>
+      <c r="G18" s="63"/>
+      <c r="H18" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="88"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E19" s="64" t="s">
+        <v>350</v>
+      </c>
+      <c r="F19" s="63" t="s">
+        <v>353</v>
+      </c>
+      <c r="G19" s="63"/>
+      <c r="H19" s="95" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="99"/>
+      <c r="D20" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E20" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="F20" s="63" t="s">
+        <v>390</v>
+      </c>
+      <c r="G20" s="63"/>
+      <c r="H20" s="95"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="99"/>
+      <c r="D21" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E21" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="F21" s="63" t="s">
+        <v>355</v>
+      </c>
+      <c r="G21" s="63"/>
+      <c r="H21" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" s="88"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E22" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="F22" s="63" t="s">
+        <v>356</v>
+      </c>
+      <c r="G22" s="63"/>
+      <c r="H22" s="95"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="99"/>
+      <c r="D23" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" s="64" t="s">
+        <v>357</v>
+      </c>
+      <c r="F23" s="63" t="s">
+        <v>359</v>
+      </c>
+      <c r="G23" s="63"/>
+      <c r="H23" s="95"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="99"/>
+      <c r="D24" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" s="64" t="s">
+        <v>358</v>
+      </c>
+      <c r="F24" s="63" t="s">
+        <v>359</v>
+      </c>
+      <c r="G24" s="63"/>
+      <c r="H24" s="95"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="99"/>
+      <c r="D25" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E25" s="64" t="s">
+        <v>233</v>
+      </c>
+      <c r="F25" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="G25" s="63"/>
+      <c r="H25" s="95"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="99"/>
+      <c r="D26" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="E26" s="64" t="s">
+        <v>233</v>
+      </c>
+      <c r="F26" s="63" t="s">
+        <v>236</v>
+      </c>
+      <c r="G26" s="63"/>
+      <c r="H26" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="88"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E27" s="64" t="s">
+        <v>233</v>
+      </c>
+      <c r="F27" s="63" t="s">
+        <v>235</v>
+      </c>
+      <c r="G27" s="63"/>
+      <c r="H27" s="95"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="99"/>
+      <c r="D28" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" s="64" t="s">
+        <v>238</v>
+      </c>
+      <c r="F28" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="G28" s="63"/>
+      <c r="H28" s="95"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="99"/>
+      <c r="D29" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E29" s="64" t="s">
+        <v>238</v>
+      </c>
+      <c r="F29" s="63" t="s">
+        <v>239</v>
+      </c>
+      <c r="G29" s="63"/>
+      <c r="H29" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="88"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E30" s="64" t="s">
+        <v>238</v>
+      </c>
+      <c r="F30" s="63" t="s">
+        <v>240</v>
+      </c>
+      <c r="G30" s="63"/>
+      <c r="H30" s="95"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="99"/>
+      <c r="D31" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="E31" s="64" t="s">
+        <v>241</v>
+      </c>
+      <c r="F31" s="63" t="s">
+        <v>426</v>
+      </c>
+      <c r="G31" s="63"/>
+      <c r="H31" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="88"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E32" s="64" t="s">
+        <v>241</v>
+      </c>
+      <c r="F32" s="63" t="s">
+        <v>424</v>
+      </c>
+      <c r="G32" s="63"/>
+      <c r="H32" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="C33" s="99"/>
+      <c r="D33" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E33" s="64" t="s">
+        <v>423</v>
+      </c>
+      <c r="F33" s="63" t="s">
+        <v>428</v>
+      </c>
+      <c r="G33" s="63"/>
+      <c r="H33" s="95"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="99"/>
+      <c r="D34" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E34" s="64" t="s">
+        <v>425</v>
+      </c>
+      <c r="F34" s="63" t="s">
+        <v>427</v>
+      </c>
+      <c r="G34" s="63"/>
+      <c r="H34" s="95"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="99"/>
+      <c r="D35" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E35" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="F35" s="63" t="s">
+        <v>337</v>
+      </c>
+      <c r="G35" s="63"/>
+      <c r="H35" s="95" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="99"/>
+      <c r="D36" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="E36" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="F36" s="63" t="s">
+        <v>339</v>
+      </c>
+      <c r="G36" s="63"/>
+      <c r="H36" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="88"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E37" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="F37" s="63" t="s">
+        <v>338</v>
+      </c>
+      <c r="G37" s="63"/>
+      <c r="H37" s="95" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="99"/>
+      <c r="D38" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E38" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="F38" s="63" t="s">
+        <v>389</v>
+      </c>
+      <c r="G38" s="63"/>
+      <c r="H38" s="95"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="99"/>
+      <c r="D39" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E39" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="F39" s="63" t="s">
+        <v>340</v>
+      </c>
+      <c r="G39" s="63"/>
+      <c r="H39" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="88"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E40" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="F40" s="63" t="s">
+        <v>341</v>
+      </c>
+      <c r="G40" s="63"/>
+      <c r="H40" s="95"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="89" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" s="89" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="100"/>
+      <c r="D41" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E41" s="64" t="s">
+        <v>344</v>
+      </c>
+      <c r="F41" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="G41" s="63"/>
+      <c r="H41" s="94"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="99"/>
+      <c r="D42" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E42" s="64" t="s">
+        <v>348</v>
+      </c>
+      <c r="F42" s="63" t="s">
+        <v>349</v>
+      </c>
+      <c r="G42" s="63"/>
+      <c r="H42" s="95"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="89" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="89" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="100"/>
+      <c r="D43" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E43" s="64" t="s">
+        <v>342</v>
+      </c>
+      <c r="F43" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="G43" s="63"/>
+      <c r="H43" s="94"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="89" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" s="89" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="100"/>
+      <c r="D44" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E44" s="64" t="s">
+        <v>346</v>
+      </c>
+      <c r="F44" s="65" t="s">
+        <v>347</v>
+      </c>
+      <c r="G44" s="63"/>
+      <c r="H44" s="94"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="88" t="s">
+        <v>327</v>
+      </c>
+      <c r="B45" s="88" t="s">
+        <v>327</v>
+      </c>
+      <c r="C45" s="99"/>
+      <c r="D45" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E45" s="64" t="s">
+        <v>328</v>
+      </c>
+      <c r="F45" s="63" t="s">
+        <v>330</v>
+      </c>
+      <c r="G45" s="63"/>
+      <c r="H45" s="95"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="88" t="s">
+        <v>327</v>
+      </c>
+      <c r="B46" s="88" t="s">
+        <v>327</v>
+      </c>
+      <c r="C46" s="99"/>
+      <c r="D46" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="E46" s="64" t="s">
+        <v>328</v>
+      </c>
+      <c r="F46" s="63" t="s">
+        <v>332</v>
+      </c>
+      <c r="G46" s="63"/>
+      <c r="H46" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="88" t="s">
+        <v>327</v>
+      </c>
+      <c r="B47" s="88"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E47" s="64" t="s">
+        <v>328</v>
+      </c>
+      <c r="F47" s="63" t="s">
+        <v>331</v>
+      </c>
+      <c r="G47" s="63"/>
+      <c r="H47" s="95"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="88" t="s">
+        <v>327</v>
+      </c>
+      <c r="B48" s="88" t="s">
+        <v>327</v>
+      </c>
+      <c r="C48" s="99"/>
+      <c r="D48" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E48" s="64" t="s">
+        <v>329</v>
+      </c>
+      <c r="F48" s="63" t="s">
+        <v>388</v>
+      </c>
+      <c r="G48" s="63"/>
+      <c r="H48" s="95"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="88" t="s">
+        <v>327</v>
+      </c>
+      <c r="B49" s="88" t="s">
+        <v>327</v>
+      </c>
+      <c r="C49" s="99"/>
+      <c r="D49" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E49" s="64" t="s">
+        <v>329</v>
+      </c>
+      <c r="F49" s="63" t="s">
+        <v>333</v>
+      </c>
+      <c r="G49" s="63"/>
+      <c r="H49" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="88" t="s">
+        <v>327</v>
+      </c>
+      <c r="B50" s="88"/>
+      <c r="C50" s="99"/>
+      <c r="D50" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E50" s="64" t="s">
+        <v>329</v>
+      </c>
+      <c r="F50" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="G50" s="63"/>
+      <c r="H50" s="95"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="99"/>
+      <c r="D51" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E51" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="F51" s="63" t="s">
+        <v>306</v>
+      </c>
+      <c r="G51" s="63"/>
+      <c r="H51" s="95" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="99"/>
+      <c r="D52" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="E52" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="F52" s="63" t="s">
+        <v>298</v>
+      </c>
+      <c r="G52" s="63"/>
+      <c r="H52" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="88"/>
+      <c r="C53" s="99"/>
+      <c r="D53" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E53" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="F53" s="63" t="s">
+        <v>307</v>
+      </c>
+      <c r="G53" s="63"/>
+      <c r="H53" s="95" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="99"/>
+      <c r="D54" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E54" s="64" t="s">
+        <v>297</v>
+      </c>
+      <c r="F54" s="63" t="s">
+        <v>448</v>
+      </c>
+      <c r="G54" s="63"/>
+      <c r="H54" s="95"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" s="99"/>
+      <c r="D55" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E55" s="64" t="s">
+        <v>297</v>
+      </c>
+      <c r="F55" s="63" t="s">
+        <v>299</v>
+      </c>
+      <c r="G55" s="63"/>
+      <c r="H55" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="88"/>
+      <c r="C56" s="99"/>
+      <c r="D56" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E56" s="64" t="s">
+        <v>297</v>
+      </c>
+      <c r="F56" s="63" t="s">
+        <v>300</v>
+      </c>
+      <c r="G56" s="63"/>
+      <c r="H56" s="95"/>
+    </row>
+    <row r="57" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="99"/>
+      <c r="D57" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E57" s="64" t="s">
+        <v>301</v>
+      </c>
+      <c r="F57" s="63" t="s">
+        <v>308</v>
+      </c>
+      <c r="G57" s="63"/>
+      <c r="H57" s="95" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="99"/>
+      <c r="D58" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="E58" s="64" t="s">
+        <v>301</v>
+      </c>
+      <c r="F58" s="63" t="s">
+        <v>302</v>
+      </c>
+      <c r="G58" s="63"/>
+      <c r="H58" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" s="88"/>
+      <c r="C59" s="99"/>
+      <c r="D59" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E59" s="64" t="s">
+        <v>301</v>
+      </c>
+      <c r="F59" s="63" t="s">
+        <v>309</v>
+      </c>
+      <c r="G59" s="63"/>
+      <c r="H59" s="95" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="99"/>
+      <c r="D60" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E60" s="64" t="s">
+        <v>303</v>
+      </c>
+      <c r="F60" s="63" t="s">
+        <v>385</v>
+      </c>
+      <c r="G60" s="63"/>
+      <c r="H60" s="95"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="99"/>
+      <c r="D61" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E61" s="64" t="s">
+        <v>303</v>
+      </c>
+      <c r="F61" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="G61" s="63"/>
+      <c r="H61" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="88"/>
+      <c r="C62" s="99"/>
+      <c r="D62" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E62" s="64" t="s">
+        <v>303</v>
+      </c>
+      <c r="F62" s="63" t="s">
+        <v>305</v>
+      </c>
+      <c r="G62" s="63"/>
+      <c r="H62" s="95"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="100"/>
+      <c r="D63" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E63" s="64" t="s">
+        <v>310</v>
+      </c>
+      <c r="F63" s="65" t="s">
+        <v>311</v>
+      </c>
+      <c r="G63" s="63"/>
+      <c r="H63" s="94" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" s="99"/>
+      <c r="D64" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E64" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="F64" s="63" t="s">
+        <v>314</v>
+      </c>
+      <c r="G64" s="63"/>
+      <c r="H64" s="95"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" s="99"/>
+      <c r="D65" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="E65" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="F65" s="63" t="s">
+        <v>316</v>
+      </c>
+      <c r="G65" s="63"/>
+      <c r="H65" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="88"/>
+      <c r="C66" s="99"/>
+      <c r="D66" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E66" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="F66" s="63" t="s">
+        <v>315</v>
+      </c>
+      <c r="G66" s="63"/>
+      <c r="H66" s="95"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="99"/>
+      <c r="D67" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E67" s="64" t="s">
+        <v>313</v>
+      </c>
+      <c r="F67" s="63" t="s">
+        <v>386</v>
+      </c>
+      <c r="G67" s="63"/>
+      <c r="H67" s="95"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="B68" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="99"/>
+      <c r="D68" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E68" s="64" t="s">
+        <v>313</v>
+      </c>
+      <c r="F68" s="63" t="s">
+        <v>317</v>
+      </c>
+      <c r="G68" s="63"/>
+      <c r="H68" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69" s="88"/>
+      <c r="C69" s="99"/>
+      <c r="D69" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E69" s="64" t="s">
+        <v>313</v>
+      </c>
+      <c r="F69" s="63" t="s">
+        <v>318</v>
+      </c>
+      <c r="G69" s="63"/>
+      <c r="H69" s="95"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="99"/>
+      <c r="D70" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E70" s="64" t="s">
+        <v>246</v>
+      </c>
+      <c r="F70" s="63" t="s">
+        <v>248</v>
+      </c>
+      <c r="G70" s="63"/>
+      <c r="H70" s="95"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="99"/>
+      <c r="D71" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="E71" s="64" t="s">
+        <v>246</v>
+      </c>
+      <c r="F71" s="63" t="s">
+        <v>250</v>
+      </c>
+      <c r="G71" s="63"/>
+      <c r="H71" s="95"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" s="88"/>
+      <c r="C72" s="99"/>
+      <c r="D72" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E72" s="64" t="s">
+        <v>246</v>
+      </c>
+      <c r="F72" s="63" t="s">
+        <v>249</v>
+      </c>
+      <c r="G72" s="63"/>
+      <c r="H72" s="95"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="99"/>
+      <c r="D73" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E73" s="64" t="s">
+        <v>247</v>
+      </c>
+      <c r="F73" s="63" t="s">
+        <v>379</v>
+      </c>
+      <c r="G73" s="63"/>
+      <c r="H73" s="95"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="99"/>
+      <c r="D74" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E74" s="64" t="s">
+        <v>247</v>
+      </c>
+      <c r="F74" s="63" t="s">
+        <v>251</v>
+      </c>
+      <c r="G74" s="63"/>
+      <c r="H74" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="88"/>
+      <c r="C75" s="99"/>
+      <c r="D75" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E75" s="64" t="s">
+        <v>247</v>
+      </c>
+      <c r="F75" s="63" t="s">
+        <v>252</v>
+      </c>
+      <c r="G75" s="63"/>
+      <c r="H75" s="95"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="B76" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="C76" s="99"/>
+      <c r="D76" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="E76" s="64" t="s">
+        <v>254</v>
+      </c>
+      <c r="F76" s="63" t="s">
+        <v>255</v>
+      </c>
+      <c r="G76" s="97"/>
+      <c r="H76" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="B77" s="88"/>
+      <c r="C77" s="99"/>
+      <c r="D77" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E77" s="64" t="s">
+        <v>254</v>
+      </c>
+      <c r="F77" s="63" t="s">
+        <v>447</v>
+      </c>
+      <c r="G77" s="97"/>
+      <c r="H77" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="B78" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="C78" s="99"/>
+      <c r="D78" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E78" s="64" t="s">
+        <v>444</v>
+      </c>
+      <c r="F78" s="63" t="s">
+        <v>443</v>
+      </c>
+      <c r="G78" s="97"/>
+      <c r="H78" s="95"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="B79" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="99"/>
+      <c r="D79" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E79" s="64" t="s">
+        <v>445</v>
+      </c>
+      <c r="F79" s="63" t="s">
+        <v>446</v>
+      </c>
+      <c r="G79" s="97"/>
+      <c r="H79" s="95"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="B80" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="C80" s="99"/>
+      <c r="D80" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E80" s="64" t="s">
+        <v>256</v>
+      </c>
+      <c r="F80" s="63" t="s">
+        <v>258</v>
+      </c>
+      <c r="G80" s="63"/>
+      <c r="H80" s="95"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="B81" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="C81" s="99"/>
+      <c r="D81" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="E81" s="64" t="s">
+        <v>256</v>
+      </c>
+      <c r="F81" s="63" t="s">
+        <v>260</v>
+      </c>
+      <c r="G81" s="63"/>
+      <c r="H81" s="95"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82" s="88"/>
+      <c r="C82" s="99"/>
+      <c r="D82" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E82" s="64" t="s">
+        <v>256</v>
+      </c>
+      <c r="F82" s="63" t="s">
+        <v>259</v>
+      </c>
+      <c r="G82" s="63"/>
+      <c r="H82" s="95"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="B83" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="C83" s="99"/>
+      <c r="D83" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E83" s="64" t="s">
+        <v>257</v>
+      </c>
+      <c r="F83" s="63" t="s">
+        <v>380</v>
+      </c>
+      <c r="G83" s="63"/>
+      <c r="H83" s="95"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="B84" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="C84" s="99"/>
+      <c r="D84" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E84" s="64" t="s">
+        <v>257</v>
+      </c>
+      <c r="F84" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="G84" s="63"/>
+      <c r="H84" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="B85" s="88"/>
+      <c r="C85" s="99"/>
+      <c r="D85" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E85" s="64" t="s">
+        <v>257</v>
+      </c>
+      <c r="F85" s="63" t="s">
+        <v>262</v>
+      </c>
+      <c r="G85" s="63"/>
+      <c r="H85" s="95"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="88" t="s">
+        <v>378</v>
+      </c>
+      <c r="B86" s="88" t="s">
+        <v>378</v>
+      </c>
+      <c r="C86" s="99"/>
+      <c r="D86" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E86" s="64" t="s">
+        <v>369</v>
+      </c>
+      <c r="F86" s="63" t="s">
+        <v>370</v>
+      </c>
+      <c r="G86" s="63"/>
+      <c r="H86" s="95" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="88" t="s">
+        <v>378</v>
+      </c>
+      <c r="B87" s="88" t="s">
+        <v>378</v>
+      </c>
+      <c r="C87" s="99"/>
+      <c r="D87" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="E87" s="64" t="s">
+        <v>369</v>
+      </c>
+      <c r="F87" s="63" t="s">
+        <v>372</v>
+      </c>
+      <c r="G87" s="63"/>
+      <c r="H87" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="88" t="s">
+        <v>378</v>
+      </c>
+      <c r="B88" s="88"/>
+      <c r="C88" s="99"/>
+      <c r="D88" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E88" s="64" t="s">
+        <v>369</v>
+      </c>
+      <c r="F88" s="63" t="s">
+        <v>371</v>
+      </c>
+      <c r="G88" s="63"/>
+      <c r="H88" s="95"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="88" t="s">
+        <v>378</v>
+      </c>
+      <c r="B89" s="88" t="s">
+        <v>378</v>
+      </c>
+      <c r="C89" s="99"/>
+      <c r="D89" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E89" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="F89" s="63" t="s">
+        <v>392</v>
+      </c>
+      <c r="G89" s="63"/>
+      <c r="H89" s="95"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="88" t="s">
+        <v>378</v>
+      </c>
+      <c r="B90" s="88" t="s">
+        <v>378</v>
+      </c>
+      <c r="C90" s="99"/>
+      <c r="D90" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E90" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="F90" s="63" t="s">
+        <v>374</v>
+      </c>
+      <c r="G90" s="63"/>
+      <c r="H90" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="88" t="s">
+        <v>378</v>
+      </c>
+      <c r="B91" s="88"/>
+      <c r="C91" s="99"/>
+      <c r="D91" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E91" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="F91" s="63" t="s">
+        <v>375</v>
+      </c>
+      <c r="G91" s="63"/>
+      <c r="H91" s="95"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="88" t="s">
+        <v>378</v>
+      </c>
+      <c r="B92" s="88" t="s">
+        <v>378</v>
+      </c>
+      <c r="C92" s="99"/>
+      <c r="D92" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E92" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="F92" s="63" t="s">
+        <v>452</v>
+      </c>
+      <c r="G92" s="63"/>
+      <c r="H92" s="95"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="88" t="s">
+        <v>378</v>
+      </c>
+      <c r="B93" s="88" t="s">
+        <v>378</v>
+      </c>
+      <c r="C93" s="99"/>
+      <c r="D93" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E93" s="64" t="s">
+        <v>376</v>
+      </c>
+      <c r="F93" s="63" t="s">
+        <v>377</v>
+      </c>
+      <c r="G93" s="63"/>
+      <c r="H93" s="95"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="B94" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="C94" s="99"/>
+      <c r="D94" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E94" s="64" t="s">
+        <v>360</v>
+      </c>
+      <c r="F94" s="63" t="s">
+        <v>362</v>
+      </c>
+      <c r="G94" s="63"/>
+      <c r="H94" s="95" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="B95" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="C95" s="99"/>
+      <c r="D95" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="E95" s="64" t="s">
+        <v>360</v>
+      </c>
+      <c r="F95" s="63" t="s">
+        <v>364</v>
+      </c>
+      <c r="G95" s="63"/>
+      <c r="H95" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="B96" s="88"/>
+      <c r="C96" s="99"/>
+      <c r="D96" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E96" s="64" t="s">
+        <v>360</v>
+      </c>
+      <c r="F96" s="63" t="s">
+        <v>363</v>
+      </c>
+      <c r="G96" s="63"/>
+      <c r="H96" s="95" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="B97" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="C97" s="99"/>
+      <c r="D97" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E97" s="64" t="s">
+        <v>361</v>
+      </c>
+      <c r="F97" s="63" t="s">
+        <v>391</v>
+      </c>
+      <c r="G97" s="63"/>
+      <c r="H97" s="95"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="B98" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="C98" s="99"/>
+      <c r="D98" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E98" s="64" t="s">
+        <v>361</v>
+      </c>
+      <c r="F98" s="63" t="s">
+        <v>365</v>
+      </c>
+      <c r="G98" s="63"/>
+      <c r="H98" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="B99" s="88"/>
+      <c r="C99" s="99"/>
+      <c r="D99" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E99" s="64" t="s">
+        <v>361</v>
+      </c>
+      <c r="F99" s="63" t="s">
+        <v>366</v>
+      </c>
+      <c r="G99" s="63"/>
+      <c r="H99" s="95"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="B100" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="C100" s="99"/>
+      <c r="D100" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E100" s="64" t="s">
+        <v>367</v>
+      </c>
+      <c r="F100" s="63" t="s">
+        <v>368</v>
+      </c>
+      <c r="G100" s="63"/>
+      <c r="H100" s="95"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="B101" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="C101" s="99"/>
+      <c r="D101" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E101" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="F101" s="63" t="s">
+        <v>321</v>
+      </c>
+      <c r="G101" s="63"/>
+      <c r="H101" s="95"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="B102" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="C102" s="99"/>
+      <c r="D102" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="E102" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="F102" s="63" t="s">
+        <v>323</v>
+      </c>
+      <c r="G102" s="63"/>
+      <c r="H102" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="B103" s="88"/>
+      <c r="C103" s="99"/>
+      <c r="D103" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E103" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="F103" s="63" t="s">
+        <v>322</v>
+      </c>
+      <c r="G103" s="63"/>
+      <c r="H103" s="95"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="B104" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="C104" s="99"/>
+      <c r="D104" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E104" s="64" t="s">
+        <v>449</v>
+      </c>
+      <c r="F104" s="63" t="s">
+        <v>450</v>
+      </c>
+      <c r="G104" s="63"/>
+      <c r="H104" s="95"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="B105" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="C105" s="99"/>
+      <c r="D105" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E105" s="64" t="s">
+        <v>320</v>
+      </c>
+      <c r="F105" s="63" t="s">
+        <v>387</v>
+      </c>
+      <c r="G105" s="63"/>
+      <c r="H105" s="95"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="B106" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="C106" s="99"/>
+      <c r="D106" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E106" s="64" t="s">
+        <v>320</v>
+      </c>
+      <c r="F106" s="63" t="s">
+        <v>324</v>
+      </c>
+      <c r="G106" s="63"/>
+      <c r="H106" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="B107" s="88"/>
+      <c r="C107" s="99"/>
+      <c r="D107" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E107" s="64" t="s">
+        <v>320</v>
+      </c>
+      <c r="F107" s="63" t="s">
+        <v>325</v>
+      </c>
+      <c r="G107" s="63"/>
+      <c r="H107" s="95"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="B108" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" s="99"/>
+      <c r="D108" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E108" s="64" t="s">
+        <v>278</v>
+      </c>
+      <c r="F108" s="63" t="s">
+        <v>280</v>
+      </c>
+      <c r="G108" s="63"/>
+      <c r="H108" s="95"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109" s="99"/>
+      <c r="D109" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="E109" s="64" t="s">
+        <v>278</v>
+      </c>
+      <c r="F109" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="G109" s="63"/>
+      <c r="H109" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="B110" s="88"/>
+      <c r="C110" s="99"/>
+      <c r="D110" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E110" s="64" t="s">
+        <v>278</v>
+      </c>
+      <c r="F110" s="63" t="s">
+        <v>281</v>
+      </c>
+      <c r="G110" s="63"/>
+      <c r="H110" s="95"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="B111" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111" s="99"/>
+      <c r="D111" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E111" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="F111" s="63" t="s">
+        <v>383</v>
+      </c>
+      <c r="G111" s="63"/>
+      <c r="H111" s="95"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" s="99"/>
+      <c r="D112" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E112" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="F112" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="G112" s="63"/>
+      <c r="H112" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="B113" s="88"/>
+      <c r="C113" s="99"/>
+      <c r="D113" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E113" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="F113" s="63" t="s">
+        <v>284</v>
+      </c>
+      <c r="G113" s="63"/>
+      <c r="H113" s="95"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="88" t="s">
+        <v>93</v>
+      </c>
+      <c r="B114" s="88" t="s">
+        <v>93</v>
+      </c>
+      <c r="C114" s="99"/>
+      <c r="D114" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E114" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="F114" s="63" t="s">
+        <v>210</v>
+      </c>
+      <c r="G114" s="63"/>
+      <c r="H114" s="95"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="88" t="s">
+        <v>93</v>
+      </c>
+      <c r="B115" s="88" t="s">
+        <v>93</v>
+      </c>
+      <c r="C115" s="99"/>
+      <c r="D115" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="E115" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="F115" s="63" t="s">
+        <v>212</v>
+      </c>
+      <c r="G115" s="63"/>
+      <c r="H115" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="88" t="s">
+        <v>93</v>
+      </c>
+      <c r="B116" s="88"/>
+      <c r="C116" s="99"/>
+      <c r="D116" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E116" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="F116" s="63" t="s">
+        <v>211</v>
+      </c>
+      <c r="G116" s="63"/>
+      <c r="H116" s="95"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="88" t="s">
+        <v>93</v>
+      </c>
+      <c r="B117" s="88" t="s">
+        <v>93</v>
+      </c>
+      <c r="C117" s="99"/>
+      <c r="D117" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E117" s="64" t="s">
+        <v>214</v>
+      </c>
+      <c r="F117" s="63" t="s">
+        <v>215</v>
+      </c>
+      <c r="G117" s="63"/>
+      <c r="H117" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="88" t="s">
+        <v>93</v>
+      </c>
+      <c r="B118" s="88"/>
+      <c r="C118" s="99"/>
+      <c r="D118" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E118" s="64" t="s">
+        <v>214</v>
+      </c>
+      <c r="F118" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="G118" s="63"/>
+      <c r="H118" s="95"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="88" t="s">
+        <v>93</v>
+      </c>
+      <c r="B119" s="88" t="s">
+        <v>93</v>
+      </c>
+      <c r="C119" s="99"/>
+      <c r="D119" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E119" s="64" t="s">
+        <v>213</v>
+      </c>
+      <c r="F119" s="63" t="s">
+        <v>216</v>
+      </c>
+      <c r="G119" s="63"/>
+      <c r="H119" s="95"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="88" t="s">
+        <v>270</v>
+      </c>
+      <c r="B120" s="88" t="s">
+        <v>270</v>
+      </c>
+      <c r="C120" s="99"/>
+      <c r="D120" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E120" s="64" t="s">
+        <v>271</v>
+      </c>
+      <c r="F120" s="63" t="s">
+        <v>273</v>
+      </c>
+      <c r="G120" s="63"/>
+      <c r="H120" s="95" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="88" t="s">
+        <v>270</v>
+      </c>
+      <c r="B121" s="88" t="s">
+        <v>270</v>
+      </c>
+      <c r="C121" s="99"/>
+      <c r="D121" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="E121" s="64" t="s">
+        <v>271</v>
+      </c>
+      <c r="F121" s="63" t="s">
+        <v>275</v>
+      </c>
+      <c r="G121" s="63"/>
+      <c r="H121" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" s="88" t="s">
+        <v>270</v>
+      </c>
+      <c r="B122" s="88"/>
+      <c r="C122" s="99"/>
+      <c r="D122" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E122" s="64" t="s">
+        <v>271</v>
+      </c>
+      <c r="F122" s="63" t="s">
+        <v>274</v>
+      </c>
+      <c r="G122" s="63"/>
+      <c r="H122" s="95" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" s="88" t="s">
+        <v>270</v>
+      </c>
+      <c r="B123" s="88" t="s">
+        <v>270</v>
+      </c>
+      <c r="C123" s="99"/>
+      <c r="D123" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E123" s="64" t="s">
+        <v>272</v>
+      </c>
+      <c r="F123" s="63" t="s">
+        <v>382</v>
+      </c>
+      <c r="G123" s="63"/>
+      <c r="H123" s="95"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" s="88" t="s">
+        <v>270</v>
+      </c>
+      <c r="B124" s="88" t="s">
+        <v>270</v>
+      </c>
+      <c r="C124" s="99"/>
+      <c r="D124" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E124" s="64" t="s">
+        <v>272</v>
+      </c>
+      <c r="F124" s="63" t="s">
+        <v>276</v>
+      </c>
+      <c r="G124" s="63"/>
+      <c r="H124" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" s="88" t="s">
+        <v>270</v>
+      </c>
+      <c r="B125" s="88"/>
+      <c r="C125" s="99"/>
+      <c r="D125" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E125" s="64" t="s">
+        <v>272</v>
+      </c>
+      <c r="F125" s="63" t="s">
+        <v>277</v>
+      </c>
+      <c r="G125" s="63"/>
+      <c r="H125" s="95"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="B126" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="C126" s="99"/>
+      <c r="D126" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E126" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="F126" s="63" t="s">
+        <v>225</v>
+      </c>
+      <c r="G126" s="63"/>
+      <c r="H126" s="95" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="B127" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="C127" s="99"/>
+      <c r="D127" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="E127" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="F127" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="G127" s="63"/>
+      <c r="H127" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="B128" s="88"/>
+      <c r="C128" s="99"/>
+      <c r="D128" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E128" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="F128" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="G128" s="63"/>
+      <c r="H128" s="95" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="B129" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="C129" s="99"/>
+      <c r="D129" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E129" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="F129" s="63" t="s">
+        <v>208</v>
+      </c>
+      <c r="G129" s="63"/>
+      <c r="H129" s="95"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="B130" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="C130" s="99"/>
+      <c r="D130" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E130" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="F130" s="63" t="s">
+        <v>229</v>
+      </c>
+      <c r="G130" s="63"/>
+      <c r="H130" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="B131" s="88"/>
+      <c r="C131" s="99"/>
+      <c r="D131" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E131" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="F131" s="63" t="s">
+        <v>230</v>
+      </c>
+      <c r="G131" s="63"/>
+      <c r="H131" s="95"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="B132" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="C132" s="99"/>
+      <c r="D132" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E132" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="F132" s="63" t="s">
+        <v>232</v>
+      </c>
+      <c r="G132" s="63"/>
+      <c r="H132" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" s="88" t="s">
+        <v>245</v>
+      </c>
+      <c r="B133" s="88" t="s">
+        <v>245</v>
+      </c>
+      <c r="C133" s="99"/>
+      <c r="D133" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="E133" s="64" t="s">
+        <v>244</v>
+      </c>
+      <c r="F133" s="63" t="s">
+        <v>440</v>
+      </c>
+      <c r="G133" s="63"/>
+      <c r="H133" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" s="88" t="s">
+        <v>245</v>
+      </c>
+      <c r="B134" s="88"/>
+      <c r="C134" s="99"/>
+      <c r="D134" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E134" s="64" t="s">
+        <v>244</v>
+      </c>
+      <c r="F134" s="63" t="s">
+        <v>439</v>
+      </c>
+      <c r="G134" s="63"/>
+      <c r="H134" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" s="88" t="s">
+        <v>245</v>
+      </c>
+      <c r="B135" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="C135" s="99"/>
+      <c r="D135" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E135" s="64" t="s">
+        <v>441</v>
+      </c>
+      <c r="F135" s="63" t="s">
+        <v>442</v>
+      </c>
+      <c r="G135" s="63"/>
+      <c r="H135" s="95"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" s="88" t="s">
+        <v>245</v>
+      </c>
+      <c r="B136" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C136" s="99"/>
+      <c r="D136" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E136" s="64" t="s">
+        <v>437</v>
+      </c>
+      <c r="F136" s="63" t="s">
+        <v>438</v>
+      </c>
+      <c r="G136" s="63"/>
+      <c r="H136" s="95"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" s="88" t="s">
+        <v>242</v>
+      </c>
+      <c r="B137" s="88" t="s">
+        <v>242</v>
+      </c>
+      <c r="C137" s="99"/>
+      <c r="D137" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="E137" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="F137" s="63" t="s">
+        <v>433</v>
+      </c>
+      <c r="G137" s="63"/>
+      <c r="H137" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" s="88" t="s">
+        <v>242</v>
+      </c>
+      <c r="B138" s="88"/>
+      <c r="C138" s="99"/>
+      <c r="D138" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E138" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="F138" s="63" t="s">
+        <v>432</v>
+      </c>
+      <c r="G138" s="63"/>
+      <c r="H138" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" s="88" t="s">
+        <v>242</v>
+      </c>
+      <c r="B139" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C139" s="99"/>
+      <c r="D139" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E139" s="64" t="s">
+        <v>429</v>
+      </c>
+      <c r="F139" s="63" t="s">
+        <v>430</v>
+      </c>
+      <c r="G139" s="63"/>
+      <c r="H139" s="95"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" s="88" t="s">
+        <v>242</v>
+      </c>
+      <c r="B140" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="C140" s="99"/>
+      <c r="D140" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E140" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="F140" s="63" t="s">
+        <v>434</v>
+      </c>
+      <c r="G140" s="63"/>
+      <c r="H140" s="95"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" s="88" t="s">
+        <v>242</v>
+      </c>
+      <c r="B141" s="88" t="s">
+        <v>457</v>
+      </c>
+      <c r="C141" s="99"/>
+      <c r="D141" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E141" s="64" t="s">
+        <v>435</v>
+      </c>
+      <c r="F141" s="63" t="s">
+        <v>436</v>
+      </c>
+      <c r="G141" s="63"/>
+      <c r="H141" s="95"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C142" s="99"/>
+      <c r="D142" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E142" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="F142" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="G142" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="H142" s="94" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C143" s="99"/>
+      <c r="D143" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E143" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="F143" s="65" t="s">
+        <v>197</v>
+      </c>
+      <c r="G143" s="67" t="s">
+        <v>193</v>
+      </c>
+      <c r="H143" s="94"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C144" s="99"/>
+      <c r="D144" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E144" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="F144" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="G144" s="67" t="s">
+        <v>193</v>
+      </c>
+      <c r="H144" s="94" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" s="88"/>
+      <c r="C145" s="99"/>
+      <c r="D145" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E145" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="F145" s="65" t="s">
+        <v>199</v>
+      </c>
+      <c r="G145" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="H145" s="94"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C146" s="99"/>
+      <c r="D146" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="E146" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="F146" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="G146" s="68" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="85" t="s">
-        <v>195</v>
-      </c>
-      <c r="D3" s="86" t="s">
-        <v>196</v>
-      </c>
-      <c r="E3" s="87" t="s">
+      <c r="H146" s="94" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C147" s="99"/>
+      <c r="D147" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E147" s="64" t="s">
+        <v>218</v>
+      </c>
+      <c r="F147" s="65" t="s">
+        <v>219</v>
+      </c>
+      <c r="G147" s="68"/>
+      <c r="H147" s="94"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B148" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C148" s="99"/>
+      <c r="D148" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E148" s="64" t="s">
+        <v>222</v>
+      </c>
+      <c r="F148" s="65" t="s">
+        <v>223</v>
+      </c>
+      <c r="G148" s="68"/>
+      <c r="H148" s="94"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C149" s="99"/>
+      <c r="D149" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E149" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="F149" s="65" t="s">
+        <v>221</v>
+      </c>
+      <c r="G149" s="68"/>
+      <c r="H149" s="94"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B150" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C150" s="99"/>
+      <c r="D150" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="E150" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="F150" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="G150" s="68" t="s">
+        <v>187</v>
+      </c>
+      <c r="H150" s="94" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" s="88"/>
+      <c r="C151" s="99"/>
+      <c r="D151" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="E151" s="64" t="s">
+        <v>204</v>
+      </c>
+      <c r="F151" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="G151" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="H151" s="94"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C152" s="99"/>
+      <c r="D152" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="E152" s="64" t="s">
+        <v>200</v>
+      </c>
+      <c r="F152" s="65" t="s">
+        <v>201</v>
+      </c>
+      <c r="G152" s="68" t="s">
+        <v>187</v>
+      </c>
+      <c r="H152" s="94" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153" s="88" t="s">
+        <v>402</v>
+      </c>
+      <c r="B153" s="88" t="s">
+        <v>402</v>
+      </c>
+      <c r="C153" s="99"/>
+      <c r="D153" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E153" s="64" t="s">
+        <v>403</v>
+      </c>
+      <c r="F153" s="63" t="s">
+        <v>408</v>
+      </c>
+      <c r="G153" s="63"/>
+      <c r="H153" s="95"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" s="88" t="s">
+        <v>402</v>
+      </c>
+      <c r="B154" s="88" t="s">
+        <v>402</v>
+      </c>
+      <c r="C154" s="99"/>
+      <c r="D154" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="E154" s="64" t="s">
+        <v>403</v>
+      </c>
+      <c r="F154" s="63" t="s">
+        <v>410</v>
+      </c>
+      <c r="G154" s="63"/>
+      <c r="H154" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" s="88" t="s">
+        <v>402</v>
+      </c>
+      <c r="B155" s="88"/>
+      <c r="C155" s="99"/>
+      <c r="D155" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E155" s="64" t="s">
+        <v>403</v>
+      </c>
+      <c r="F155" s="63" t="s">
+        <v>409</v>
+      </c>
+      <c r="G155" s="63"/>
+      <c r="H155" s="95"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" s="88" t="s">
+        <v>402</v>
+      </c>
+      <c r="B156" s="88" t="s">
+        <v>402</v>
+      </c>
+      <c r="C156" s="99"/>
+      <c r="D156" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E156" s="64" t="s">
+        <v>404</v>
+      </c>
+      <c r="F156" s="63" t="s">
+        <v>405</v>
+      </c>
+      <c r="G156" s="63"/>
+      <c r="H156" s="95"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" s="88" t="s">
+        <v>402</v>
+      </c>
+      <c r="B157" s="88" t="s">
+        <v>402</v>
+      </c>
+      <c r="C157" s="99"/>
+      <c r="D157" s="62" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
+      <c r="E157" s="64" t="s">
+        <v>404</v>
+      </c>
+      <c r="F157" s="63" t="s">
+        <v>406</v>
+      </c>
+      <c r="G157" s="63"/>
+      <c r="H157" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" s="88" t="s">
+        <v>402</v>
+      </c>
+      <c r="B158" s="88"/>
+      <c r="C158" s="99"/>
+      <c r="D158" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E158" s="64" t="s">
+        <v>404</v>
+      </c>
+      <c r="F158" s="63" t="s">
+        <v>407</v>
+      </c>
+      <c r="G158" s="63"/>
+      <c r="H158" s="95"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" s="88" t="s">
+        <v>402</v>
+      </c>
+      <c r="B159" s="88" t="s">
+        <v>402</v>
+      </c>
+      <c r="C159" s="99"/>
+      <c r="D159" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E159" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="F159" s="63" t="s">
+        <v>412</v>
+      </c>
+      <c r="G159" s="63"/>
+      <c r="H159" s="95"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B160" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="C160" s="99"/>
+      <c r="D160" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="E160" s="64" t="s">
+        <v>416</v>
+      </c>
+      <c r="F160" s="63" t="s">
+        <v>413</v>
+      </c>
+      <c r="G160" s="63"/>
+      <c r="H160" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B161" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="82" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4" s="85" t="s">
-        <v>197</v>
-      </c>
-      <c r="D4" s="86" t="s">
-        <v>198</v>
-      </c>
-      <c r="E4" s="88" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="82" t="s">
-        <v>193</v>
-      </c>
-      <c r="C5" s="85" t="s">
-        <v>197</v>
-      </c>
-      <c r="D5" s="86" t="s">
-        <v>199</v>
-      </c>
-      <c r="E5" s="88" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="82" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="85" t="s">
-        <v>197</v>
-      </c>
-      <c r="D6" s="86" t="s">
-        <v>200</v>
-      </c>
-      <c r="E6" s="87" t="s">
+      <c r="C161" s="99"/>
+      <c r="D161" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E161" s="64" t="s">
+        <v>455</v>
+      </c>
+      <c r="F161" s="63" t="s">
+        <v>456</v>
+      </c>
+      <c r="G161" s="63"/>
+      <c r="H161" s="95"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B162" s="88" t="s">
+        <v>93</v>
+      </c>
+      <c r="C162" s="99"/>
+      <c r="D162" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E162" s="64" t="s">
+        <v>417</v>
+      </c>
+      <c r="F162" s="63" t="s">
+        <v>414</v>
+      </c>
+      <c r="G162" s="63"/>
+      <c r="H162" s="95"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B163" s="88"/>
+      <c r="C163" s="99"/>
+      <c r="D163" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E163" s="64" t="s">
+        <v>417</v>
+      </c>
+      <c r="F163" s="63" t="s">
+        <v>415</v>
+      </c>
+      <c r="G163" s="63"/>
+      <c r="H163" s="95"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B164" s="88"/>
+      <c r="C164" s="99"/>
+      <c r="D164" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E164" s="64" t="s">
+        <v>418</v>
+      </c>
+      <c r="F164" s="63" t="s">
+        <v>419</v>
+      </c>
+      <c r="G164" s="63"/>
+      <c r="H164" s="95"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="B165" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="C165" s="99"/>
+      <c r="D165" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E165" s="64" t="s">
+        <v>393</v>
+      </c>
+      <c r="F165" s="63" t="s">
+        <v>395</v>
+      </c>
+      <c r="G165" s="63"/>
+      <c r="H165" s="95"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="B166" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="C166" s="99"/>
+      <c r="D166" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="E166" s="64" t="s">
+        <v>393</v>
+      </c>
+      <c r="F166" s="63" t="s">
+        <v>397</v>
+      </c>
+      <c r="G166" s="63"/>
+      <c r="H166" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167" s="88"/>
+      <c r="C167" s="99"/>
+      <c r="D167" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E167" s="64" t="s">
+        <v>393</v>
+      </c>
+      <c r="F167" s="63" t="s">
+        <v>396</v>
+      </c>
+      <c r="G167" s="63"/>
+      <c r="H167" s="95"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="C168" s="99"/>
+      <c r="D168" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E168" s="64" t="s">
+        <v>394</v>
+      </c>
+      <c r="F168" s="63" t="s">
+        <v>398</v>
+      </c>
+      <c r="G168" s="63"/>
+      <c r="H168" s="95"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="C169" s="99"/>
+      <c r="D169" s="62" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="82" t="s">
-        <v>189</v>
-      </c>
-      <c r="C7" s="85" t="s">
-        <v>207</v>
-      </c>
-      <c r="D7" s="86" t="s">
-        <v>208</v>
-      </c>
-      <c r="E7" s="89" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="82" t="s">
-        <v>189</v>
-      </c>
-      <c r="C8" s="85" t="s">
-        <v>203</v>
-      </c>
-      <c r="D8" s="86" t="s">
-        <v>204</v>
-      </c>
-      <c r="E8" s="89" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="82" t="s">
-        <v>189</v>
-      </c>
-      <c r="C9" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="D9" s="86" t="s">
-        <v>206</v>
-      </c>
-      <c r="E9" s="90" t="s">
+      <c r="E169" s="64" t="s">
+        <v>394</v>
+      </c>
+      <c r="F169" s="63" t="s">
+        <v>399</v>
+      </c>
+      <c r="G169" s="63"/>
+      <c r="H169" s="95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="B170" s="88"/>
+      <c r="C170" s="99"/>
+      <c r="D170" s="62" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="82" t="s">
-        <v>189</v>
-      </c>
-      <c r="C10" s="85" t="s">
-        <v>201</v>
-      </c>
-      <c r="D10" s="86" t="s">
-        <v>202</v>
-      </c>
-      <c r="E10" s="89" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="82" t="s">
-        <v>187</v>
-      </c>
-      <c r="C11" s="85" t="s">
-        <v>227</v>
-      </c>
-      <c r="D11" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="E11" s="89"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="82" t="s">
-        <v>187</v>
-      </c>
-      <c r="C12" s="85" t="s">
-        <v>229</v>
-      </c>
-      <c r="D12" s="86" t="s">
-        <v>230</v>
-      </c>
-      <c r="E12" s="89"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="82" t="s">
-        <v>187</v>
-      </c>
-      <c r="C13" s="85" t="s">
-        <v>231</v>
-      </c>
-      <c r="D13" s="86" t="s">
-        <v>232</v>
-      </c>
-      <c r="E13" s="89"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="82" t="s">
-        <v>187</v>
-      </c>
-      <c r="C14" s="85" t="s">
-        <v>233</v>
-      </c>
-      <c r="D14" s="86" t="s">
-        <v>234</v>
-      </c>
-      <c r="E14" s="89"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="83"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="82" t="s">
-        <v>187</v>
-      </c>
-      <c r="C16" s="85" t="s">
-        <v>209</v>
-      </c>
-      <c r="D16" s="84" t="s">
-        <v>210</v>
-      </c>
-      <c r="E16" s="84"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="82" t="s">
-        <v>191</v>
-      </c>
-      <c r="C17" s="85" t="s">
-        <v>209</v>
-      </c>
-      <c r="D17" s="84" t="s">
-        <v>217</v>
-      </c>
-      <c r="E17" s="84"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="82" t="s">
-        <v>189</v>
-      </c>
-      <c r="C18" s="85" t="s">
-        <v>209</v>
-      </c>
-      <c r="D18" s="84" t="s">
-        <v>216</v>
-      </c>
-      <c r="E18" s="84"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="82" t="s">
-        <v>187</v>
-      </c>
-      <c r="C19" s="85" t="s">
-        <v>211</v>
-      </c>
-      <c r="D19" s="84" t="s">
-        <v>212</v>
-      </c>
-      <c r="E19" s="84"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="82" t="s">
-        <v>193</v>
-      </c>
-      <c r="C20" s="85" t="s">
-        <v>211</v>
-      </c>
-      <c r="D20" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="E20" s="84"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="82" t="s">
-        <v>191</v>
-      </c>
-      <c r="C21" s="85" t="s">
-        <v>214</v>
-      </c>
-      <c r="D21" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="E21" s="84"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="83"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="82" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" s="82" t="s">
-        <v>187</v>
-      </c>
-      <c r="C23" s="85" t="s">
-        <v>218</v>
-      </c>
-      <c r="D23" s="84" t="s">
-        <v>219</v>
-      </c>
-      <c r="E23" s="84"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="82" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" s="82" t="s">
-        <v>191</v>
-      </c>
-      <c r="C24" s="85" t="s">
-        <v>218</v>
-      </c>
-      <c r="D24" s="84" t="s">
-        <v>220</v>
-      </c>
-      <c r="E24" s="84"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="82" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25" s="82" t="s">
-        <v>189</v>
-      </c>
-      <c r="C25" s="85" t="s">
-        <v>218</v>
-      </c>
-      <c r="D25" s="84" t="s">
-        <v>221</v>
-      </c>
-      <c r="E25" s="84"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="82" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" s="82" t="s">
-        <v>187</v>
-      </c>
-      <c r="C26" s="85" t="s">
-        <v>222</v>
-      </c>
-      <c r="D26" s="84" t="s">
-        <v>225</v>
-      </c>
-      <c r="E26" s="84"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="82" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" s="82" t="s">
-        <v>193</v>
-      </c>
-      <c r="C27" s="85" t="s">
-        <v>223</v>
-      </c>
-      <c r="D27" s="84" t="s">
-        <v>224</v>
-      </c>
-      <c r="E27" s="84"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="82" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="82" t="s">
-        <v>191</v>
-      </c>
-      <c r="C28" s="85" t="s">
-        <v>223</v>
-      </c>
-      <c r="D28" s="84" t="s">
-        <v>226</v>
-      </c>
-      <c r="E28" s="84"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="82"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="B30" s="82" t="s">
-        <v>187</v>
-      </c>
-      <c r="C30" s="85" t="s">
-        <v>235</v>
-      </c>
-      <c r="D30" s="84" t="s">
-        <v>236</v>
-      </c>
-      <c r="E30" s="84"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="B31" s="82" t="s">
-        <v>191</v>
-      </c>
-      <c r="C31" s="85" t="s">
-        <v>235</v>
-      </c>
-      <c r="D31" s="84" t="s">
-        <v>237</v>
-      </c>
-      <c r="E31" s="84"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="B32" s="82" t="s">
-        <v>189</v>
-      </c>
-      <c r="C32" s="85" t="s">
-        <v>235</v>
-      </c>
-      <c r="D32" s="84" t="s">
-        <v>238</v>
-      </c>
-      <c r="E32" s="84"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="B33" s="82" t="s">
-        <v>187</v>
-      </c>
-      <c r="C33" s="85" t="s">
-        <v>239</v>
-      </c>
-      <c r="D33" s="84" t="s">
-        <v>212</v>
-      </c>
-      <c r="E33" s="84"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="B34" s="82" t="s">
-        <v>193</v>
-      </c>
-      <c r="C34" s="85" t="s">
-        <v>239</v>
-      </c>
-      <c r="D34" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="E34" s="84"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35" s="82" t="s">
-        <v>191</v>
-      </c>
-      <c r="C35" s="85" t="s">
-        <v>239</v>
-      </c>
-      <c r="D35" s="84" t="s">
-        <v>241</v>
-      </c>
-      <c r="E35" s="84"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36" s="82" t="s">
-        <v>187</v>
-      </c>
-      <c r="C36" s="85" t="s">
-        <v>242</v>
-      </c>
-      <c r="D36" s="84" t="s">
-        <v>243</v>
-      </c>
-      <c r="E36" s="84"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="B37" s="82" t="s">
-        <v>187</v>
-      </c>
-      <c r="C37" s="85" t="s">
-        <v>244</v>
-      </c>
-      <c r="D37" s="84" t="s">
-        <v>245</v>
-      </c>
-      <c r="E37" s="84"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="82"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="84"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="82"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="82"/>
-      <c r="B40" s="82"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="84"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="82"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="84"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="82"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="84"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="82"/>
-      <c r="B43" s="82"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="84"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="82"/>
-      <c r="B44" s="82"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="84"/>
-      <c r="E44" s="84"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="82"/>
-      <c r="B45" s="82"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="84"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="82"/>
-      <c r="B46" s="82"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="82"/>
-      <c r="B47" s="82"/>
-      <c r="C47" s="85"/>
-      <c r="D47" s="84"/>
-      <c r="E47" s="84"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="82"/>
-      <c r="B48" s="82"/>
-      <c r="C48" s="85"/>
-      <c r="D48" s="84"/>
-      <c r="E48" s="84"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="82"/>
-      <c r="B49" s="82"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="84"/>
-      <c r="E49" s="84"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="82"/>
-      <c r="B50" s="82"/>
-      <c r="C50" s="85"/>
-      <c r="D50" s="84"/>
-      <c r="E50" s="84"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="82"/>
-      <c r="B51" s="82"/>
-      <c r="C51" s="85"/>
-      <c r="D51" s="84"/>
-      <c r="E51" s="84"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="82"/>
-      <c r="B52" s="82"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="84"/>
-      <c r="E52" s="84"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="82"/>
-      <c r="B53" s="82"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="84"/>
-      <c r="E53" s="84"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="82"/>
-      <c r="B54" s="82"/>
-      <c r="C54" s="85"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="82"/>
-      <c r="B55" s="82"/>
-      <c r="C55" s="85"/>
-      <c r="D55" s="84"/>
-      <c r="E55" s="84"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="82"/>
-      <c r="B56" s="82"/>
-      <c r="C56" s="85"/>
-      <c r="D56" s="84"/>
-      <c r="E56" s="84"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="82"/>
-      <c r="B57" s="82"/>
-      <c r="C57" s="85"/>
-      <c r="D57" s="84"/>
-      <c r="E57" s="84"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="82"/>
-      <c r="B58" s="82"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="84"/>
-      <c r="E58" s="84"/>
+      <c r="E170" s="64" t="s">
+        <v>394</v>
+      </c>
+      <c r="F170" s="63" t="s">
+        <v>400</v>
+      </c>
+      <c r="G170" s="63"/>
+      <c r="H170" s="95"/>
+    </row>
+    <row r="171" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="90" t="s">
+        <v>168</v>
+      </c>
+      <c r="B171" s="90" t="s">
+        <v>168</v>
+      </c>
+      <c r="C171" s="101"/>
+      <c r="D171" s="91" t="s">
+        <v>186</v>
+      </c>
+      <c r="E171" s="92" t="s">
+        <v>401</v>
+      </c>
+      <c r="F171" s="93" t="s">
+        <v>458</v>
+      </c>
+      <c r="G171" s="93"/>
+      <c r="H171" s="96"/>
     </row>
   </sheetData>
-  <sortState ref="A3:E10">
-    <sortCondition ref="C3:C10"/>
+  <sortState ref="A3:H171">
+    <sortCondition ref="E3:E171"/>
+    <sortCondition ref="D3:D171" customList="GET,PUT,POST,DELETE"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentation/DataAndAPIMatchAware.xlsx
+++ b/documentation/DataAndAPIMatchAware.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16212" windowHeight="9060" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16212" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UserEntities" sheetId="1" r:id="rId1"/>
     <sheet name="CommunicationEntities" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
     <sheet name="Routing" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="453">
   <si>
     <t>USER</t>
   </si>
@@ -590,27 +591,15 @@
     <t>GET</t>
   </si>
   <si>
-    <t>Any User</t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
-    <t>Auth User</t>
-  </si>
-  <si>
     <t>DELETE</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
     <t>PUT</t>
   </si>
   <si>
-    <t>Owner or Admin</t>
-  </si>
-  <si>
     <t>/user</t>
   </si>
   <si>
@@ -1007,9 +996,6 @@
     <t>Delete organization by ID</t>
   </si>
   <si>
-    <t>Access Role</t>
-  </si>
-  <si>
     <t>EVENT_TYPE</t>
   </si>
   <si>
@@ -1389,9 +1375,6 @@
   </si>
   <si>
     <t>Returned</t>
-  </si>
-  <si>
-    <t>Error</t>
   </si>
   <si>
     <t>/user_role/:roleId</t>
@@ -1449,7 +1432,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1480,32 +1463,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="37">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1792,37 +1751,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1955,37 +1883,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2113,28 +2015,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2146,20 +2048,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2168,53 +2070,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2249,29 +2105,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2589,8 +2472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W71"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2628,28 +2511,28 @@
     </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="76"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="85"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="71" t="s">
+      <c r="G3" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="73"/>
-      <c r="M3" s="71" t="s">
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="82"/>
+      <c r="M3" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="73"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="82"/>
     </row>
     <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="36" t="s">
@@ -2988,13 +2871,13 @@
       <c r="C13" s="21"/>
       <c r="D13" s="8"/>
       <c r="E13" s="24"/>
-      <c r="G13" s="71" t="s">
+      <c r="G13" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="73"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="82"/>
       <c r="M13" s="10" t="s">
         <v>48</v>
       </c>
@@ -3146,13 +3029,13 @@
         <v>165</v>
       </c>
       <c r="E18" s="24"/>
-      <c r="G18" s="71" t="s">
+      <c r="G18" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="73"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="82"/>
       <c r="M18" s="10" t="s">
         <v>54</v>
       </c>
@@ -3293,20 +3176,20 @@
       <c r="W22" s="51"/>
     </row>
     <row r="23" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="82"/>
-      <c r="G23" s="77" t="s">
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="88"/>
+      <c r="G23" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="79"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="85"/>
       <c r="M23" s="10" t="s">
         <v>59</v>
       </c>
@@ -3471,13 +3354,13 @@
       <c r="W27" s="51"/>
     </row>
     <row r="28" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="80" t="s">
+      <c r="A28" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="81"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="82"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="88"/>
       <c r="G28" s="13" t="s">
         <v>12</v>
       </c>
@@ -3507,13 +3390,13 @@
       <c r="E29" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="71" t="s">
+      <c r="M29" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="N29" s="72"/>
-      <c r="O29" s="72"/>
-      <c r="P29" s="72"/>
-      <c r="Q29" s="73"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="81"/>
+      <c r="P29" s="81"/>
+      <c r="Q29" s="82"/>
       <c r="W29" s="51"/>
     </row>
     <row r="30" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3532,13 +3415,13 @@
       <c r="E30" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G30" s="71" t="s">
+      <c r="G30" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="73"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="82"/>
       <c r="M30" s="17" t="s">
         <v>1</v>
       </c>
@@ -3820,13 +3703,13 @@
       <c r="Q39" s="9"/>
     </row>
     <row r="40" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="71" t="s">
+      <c r="A40" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="B40" s="72"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="73"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="82"/>
       <c r="F40" s="16"/>
       <c r="G40" s="10" t="s">
         <v>32</v>
@@ -3900,13 +3783,13 @@
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="9"/>
-      <c r="M42" s="71" t="s">
+      <c r="M42" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="N42" s="72"/>
-      <c r="O42" s="72"/>
-      <c r="P42" s="72"/>
-      <c r="Q42" s="73"/>
+      <c r="N42" s="81"/>
+      <c r="O42" s="81"/>
+      <c r="P42" s="81"/>
+      <c r="Q42" s="82"/>
     </row>
     <row r="43" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
@@ -4049,13 +3932,13 @@
       <c r="Q47" s="9"/>
     </row>
     <row r="48" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G48" s="74" t="s">
+      <c r="G48" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="75"/>
-      <c r="I48" s="75"/>
-      <c r="J48" s="75"/>
-      <c r="K48" s="76"/>
+      <c r="H48" s="84"/>
+      <c r="I48" s="84"/>
+      <c r="J48" s="84"/>
+      <c r="K48" s="85"/>
       <c r="M48" s="10" t="s">
         <v>67</v>
       </c>
@@ -4067,13 +3950,13 @@
       <c r="Q48" s="9"/>
     </row>
     <row r="49" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="71" t="s">
+      <c r="A49" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="72"/>
-      <c r="C49" s="72"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="73"/>
+      <c r="B49" s="81"/>
+      <c r="C49" s="81"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="82"/>
       <c r="G49" s="17" t="s">
         <v>1</v>
       </c>
@@ -4243,22 +4126,22 @@
       <c r="E56" s="15"/>
     </row>
     <row r="57" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G57" s="71" t="s">
+      <c r="G57" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="H57" s="72"/>
-      <c r="I57" s="72"/>
-      <c r="J57" s="72"/>
-      <c r="K57" s="73"/>
+      <c r="H57" s="81"/>
+      <c r="I57" s="81"/>
+      <c r="J57" s="81"/>
+      <c r="K57" s="82"/>
     </row>
     <row r="58" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="71" t="s">
+      <c r="A58" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="B58" s="72"/>
-      <c r="C58" s="72"/>
-      <c r="D58" s="72"/>
-      <c r="E58" s="73"/>
+      <c r="B58" s="81"/>
+      <c r="C58" s="81"/>
+      <c r="D58" s="81"/>
+      <c r="E58" s="82"/>
       <c r="G58" s="17" t="s">
         <v>1</v>
       </c>
@@ -4365,13 +4248,13 @@
       <c r="K62" s="24"/>
     </row>
     <row r="63" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="71" t="s">
+      <c r="A63" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="B63" s="72"/>
-      <c r="C63" s="72"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="73"/>
+      <c r="B63" s="81"/>
+      <c r="C63" s="81"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="82"/>
       <c r="G63" s="10" t="s">
         <v>178</v>
       </c>
@@ -4436,13 +4319,13 @@
     </row>
     <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="68" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="71" t="s">
+      <c r="A68" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="B68" s="72"/>
-      <c r="C68" s="72"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="73"/>
+      <c r="B68" s="81"/>
+      <c r="C68" s="81"/>
+      <c r="D68" s="81"/>
+      <c r="E68" s="82"/>
     </row>
     <row r="69" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="17" t="s">
@@ -4489,13 +4372,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="G57:K57"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="M29:Q29"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="M42:Q42"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="G3:K3"/>
     <mergeCell ref="A68:E68"/>
     <mergeCell ref="G18:K18"/>
     <mergeCell ref="G13:K13"/>
@@ -4507,6 +4383,13 @@
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="A40:E40"/>
+    <mergeCell ref="G57:K57"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="M29:Q29"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M42:Q42"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="G3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4517,8 +4400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4533,13 +4416,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="76"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="85"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
@@ -4653,13 +4536,13 @@
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="76"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="85"/>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
@@ -4713,13 +4596,13 @@
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="74" t="s">
+      <c r="A16" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="76"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="85"/>
     </row>
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
@@ -4970,13 +4853,13 @@
       <c r="E37" s="30"/>
     </row>
     <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="74" t="s">
-        <v>147</v>
-      </c>
-      <c r="B38" s="75"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="76"/>
+      <c r="A38" s="83" t="s">
+        <v>163</v>
+      </c>
+      <c r="B38" s="84"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="85"/>
     </row>
     <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="17" t="s">
@@ -5082,13 +4965,13 @@
     </row>
     <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="74" t="s">
+      <c r="A47" s="83" t="s">
         <v>156</v>
       </c>
-      <c r="B47" s="75"/>
-      <c r="C47" s="75"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="76"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="85"/>
     </row>
     <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
@@ -5211,13 +5094,13 @@
     </row>
     <row r="57" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="58" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="74" t="s">
+      <c r="A58" s="83" t="s">
         <v>179</v>
       </c>
-      <c r="B58" s="75"/>
-      <c r="C58" s="75"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="76"/>
+      <c r="B58" s="84"/>
+      <c r="C58" s="84"/>
+      <c r="D58" s="84"/>
+      <c r="E58" s="85"/>
     </row>
     <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
@@ -5299,13 +5182,13 @@
     </row>
     <row r="65" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="80" t="s">
+      <c r="A66" s="86" t="s">
         <v>168</v>
       </c>
-      <c r="B66" s="81"/>
-      <c r="C66" s="81"/>
-      <c r="D66" s="81"/>
-      <c r="E66" s="82"/>
+      <c r="B66" s="87"/>
+      <c r="C66" s="87"/>
+      <c r="D66" s="87"/>
+      <c r="E66" s="88"/>
     </row>
     <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="48" t="s">
@@ -5367,13 +5250,13 @@
     </row>
     <row r="71" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="72" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="80" t="s">
+      <c r="A72" s="86" t="s">
         <v>180</v>
       </c>
-      <c r="B72" s="81"/>
-      <c r="C72" s="81"/>
-      <c r="D72" s="81"/>
-      <c r="E72" s="82"/>
+      <c r="B72" s="87"/>
+      <c r="C72" s="87"/>
+      <c r="D72" s="87"/>
+      <c r="E72" s="88"/>
     </row>
     <row r="73" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="17" t="s">
@@ -5509,10 +5392,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="89" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="84"/>
+      <c r="B1" s="90"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
@@ -5580,3517 +5463,3351 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H171"/>
+  <dimension ref="A1:G171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F179" sqref="F179"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="C165" sqref="C165:G171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="17.33203125" style="70" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.109375" style="70" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="63.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.77734375" style="70" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="66" customWidth="1"/>
+    <col min="7" max="7" width="7.77734375" style="66" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="102" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="91" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="104"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="85" t="s">
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="93"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="B2" s="98" t="s">
-        <v>453</v>
-      </c>
-      <c r="C2" s="98" t="s">
-        <v>454</v>
-      </c>
-      <c r="D2" s="86" t="s">
+      <c r="C2" s="68" t="s">
         <v>183</v>
       </c>
-      <c r="E2" s="86" t="s">
+      <c r="D2" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="F2" s="86" t="s">
+      <c r="E2" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="G2" s="86" t="s">
+      <c r="F2" s="79" t="s">
+        <v>448</v>
+      </c>
+      <c r="G2" s="69" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>281</v>
+      </c>
+      <c r="E3" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="F3" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="77" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>281</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>285</v>
+      </c>
+      <c r="F4" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>281</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>284</v>
+      </c>
+      <c r="F5" s="70"/>
+      <c r="G5" s="77" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>282</v>
+      </c>
+      <c r="E6" s="63" t="s">
+        <v>379</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="77"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>282</v>
+      </c>
+      <c r="E7" s="63" t="s">
+        <v>286</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="77"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>282</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>287</v>
+      </c>
+      <c r="F8" s="70"/>
+      <c r="G8" s="77"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="F9" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="76"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>288</v>
+      </c>
+      <c r="E10" s="65" t="s">
+        <v>289</v>
+      </c>
+      <c r="F10" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="76"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>259</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="F11" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="77"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>259</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>263</v>
+      </c>
+      <c r="F12" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>259</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>262</v>
+      </c>
+      <c r="F13" s="70"/>
+      <c r="G13" s="77"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>260</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>376</v>
+      </c>
+      <c r="F14" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="77"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>260</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="F15" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>260</v>
+      </c>
+      <c r="E16" s="63" t="s">
+        <v>265</v>
+      </c>
+      <c r="F16" s="70"/>
+      <c r="G16" s="77"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>345</v>
+      </c>
+      <c r="E17" s="63" t="s">
+        <v>347</v>
+      </c>
+      <c r="F17" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" s="77" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" s="64" t="s">
+        <v>345</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>349</v>
+      </c>
+      <c r="F18" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="64" t="s">
+        <v>345</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>348</v>
+      </c>
+      <c r="F19" s="70"/>
+      <c r="G19" s="77" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" s="64" t="s">
+        <v>346</v>
+      </c>
+      <c r="E20" s="63" t="s">
+        <v>385</v>
+      </c>
+      <c r="F20" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" s="77"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="D21" s="64" t="s">
+        <v>346</v>
+      </c>
+      <c r="E21" s="63" t="s">
+        <v>350</v>
+      </c>
+      <c r="F21" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="G21" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" s="64" t="s">
+        <v>346</v>
+      </c>
+      <c r="E22" s="63" t="s">
+        <v>351</v>
+      </c>
+      <c r="F22" s="70"/>
+      <c r="G22" s="77"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D23" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="E23" s="63" t="s">
+        <v>354</v>
+      </c>
+      <c r="F23" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="G23" s="77"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D24" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="E24" s="63" t="s">
+        <v>354</v>
+      </c>
+      <c r="F24" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="G24" s="77"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25" s="64" t="s">
+        <v>229</v>
+      </c>
+      <c r="E25" s="63" t="s">
+        <v>230</v>
+      </c>
+      <c r="F25" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="77"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" s="64" t="s">
+        <v>229</v>
+      </c>
+      <c r="E26" s="63" t="s">
+        <v>232</v>
+      </c>
+      <c r="F26" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27" s="64" t="s">
+        <v>229</v>
+      </c>
+      <c r="E27" s="63" t="s">
+        <v>231</v>
+      </c>
+      <c r="F27" s="70"/>
+      <c r="G27" s="77"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D28" s="64" t="s">
+        <v>234</v>
+      </c>
+      <c r="E28" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="F28" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" s="77"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="D29" s="64" t="s">
+        <v>234</v>
+      </c>
+      <c r="E29" s="63" t="s">
+        <v>235</v>
+      </c>
+      <c r="F29" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" s="64" t="s">
+        <v>234</v>
+      </c>
+      <c r="E30" s="63" t="s">
+        <v>236</v>
+      </c>
+      <c r="F30" s="70"/>
+      <c r="G30" s="77"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D31" s="64" t="s">
+        <v>237</v>
+      </c>
+      <c r="E31" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="F31" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="G31" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D32" s="64" t="s">
+        <v>237</v>
+      </c>
+      <c r="E32" s="63" t="s">
+        <v>419</v>
+      </c>
+      <c r="F32" s="70"/>
+      <c r="G32" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" s="64" t="s">
+        <v>418</v>
+      </c>
+      <c r="E33" s="63" t="s">
+        <v>423</v>
+      </c>
+      <c r="F33" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="77"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D34" s="64" t="s">
+        <v>420</v>
+      </c>
+      <c r="E34" s="63" t="s">
+        <v>422</v>
+      </c>
+      <c r="F34" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" s="77"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" s="64" t="s">
+        <v>330</v>
+      </c>
+      <c r="E35" s="63" t="s">
+        <v>332</v>
+      </c>
+      <c r="F35" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" s="77" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36" s="64" t="s">
+        <v>330</v>
+      </c>
+      <c r="E36" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="F36" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="G36" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D37" s="64" t="s">
+        <v>330</v>
+      </c>
+      <c r="E37" s="63" t="s">
+        <v>333</v>
+      </c>
+      <c r="F37" s="70"/>
+      <c r="G37" s="77" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D38" s="64" t="s">
+        <v>331</v>
+      </c>
+      <c r="E38" s="63" t="s">
+        <v>384</v>
+      </c>
+      <c r="F38" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" s="77"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="D39" s="64" t="s">
+        <v>331</v>
+      </c>
+      <c r="E39" s="63" t="s">
+        <v>335</v>
+      </c>
+      <c r="F39" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="G39" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D40" s="64" t="s">
+        <v>331</v>
+      </c>
+      <c r="E40" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="F40" s="70"/>
+      <c r="G40" s="77"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" s="64" t="s">
+        <v>339</v>
+      </c>
+      <c r="E41" s="65" t="s">
+        <v>340</v>
+      </c>
+      <c r="F41" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="G41" s="76"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D42" s="64" t="s">
+        <v>343</v>
+      </c>
+      <c r="E42" s="63" t="s">
+        <v>344</v>
+      </c>
+      <c r="F42" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="G42" s="77"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D43" s="64" t="s">
+        <v>337</v>
+      </c>
+      <c r="E43" s="65" t="s">
+        <v>338</v>
+      </c>
+      <c r="F43" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="G43" s="76"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D44" s="64" t="s">
+        <v>341</v>
+      </c>
+      <c r="E44" s="65" t="s">
+        <v>342</v>
+      </c>
+      <c r="F44" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="G44" s="76"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="70" t="s">
+        <v>322</v>
+      </c>
+      <c r="C45" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D45" s="64" t="s">
+        <v>323</v>
+      </c>
+      <c r="E45" s="63" t="s">
+        <v>325</v>
+      </c>
+      <c r="F45" s="70" t="s">
+        <v>322</v>
+      </c>
+      <c r="G45" s="77"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="70" t="s">
+        <v>322</v>
+      </c>
+      <c r="C46" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46" s="64" t="s">
+        <v>323</v>
+      </c>
+      <c r="E46" s="63" t="s">
+        <v>327</v>
+      </c>
+      <c r="F46" s="70" t="s">
+        <v>322</v>
+      </c>
+      <c r="G46" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="70" t="s">
+        <v>322</v>
+      </c>
+      <c r="C47" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D47" s="64" t="s">
+        <v>323</v>
+      </c>
+      <c r="E47" s="63" t="s">
         <v>326</v>
       </c>
-      <c r="H2" s="87" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="88" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="88" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="99">
+      <c r="F47" s="70"/>
+      <c r="G47" s="77"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="70" t="s">
+        <v>322</v>
+      </c>
+      <c r="C48" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D48" s="64" t="s">
+        <v>324</v>
+      </c>
+      <c r="E48" s="63" t="s">
+        <v>383</v>
+      </c>
+      <c r="F48" s="70" t="s">
+        <v>322</v>
+      </c>
+      <c r="G48" s="77"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="70" t="s">
+        <v>322</v>
+      </c>
+      <c r="C49" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="D49" s="64" t="s">
+        <v>324</v>
+      </c>
+      <c r="E49" s="63" t="s">
+        <v>328</v>
+      </c>
+      <c r="F49" s="70" t="s">
+        <v>322</v>
+      </c>
+      <c r="G49" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="70" t="s">
+        <v>322</v>
+      </c>
+      <c r="C50" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D50" s="64" t="s">
+        <v>324</v>
+      </c>
+      <c r="E50" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="F50" s="70"/>
+      <c r="G50" s="77"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D51" s="64" t="s">
+        <v>292</v>
+      </c>
+      <c r="E51" s="63" t="s">
+        <v>302</v>
+      </c>
+      <c r="F51" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="G51" s="77" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D52" s="64" t="s">
+        <v>292</v>
+      </c>
+      <c r="E52" s="63" t="s">
+        <v>294</v>
+      </c>
+      <c r="F52" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="G52" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D53" s="64" t="s">
+        <v>292</v>
+      </c>
+      <c r="E53" s="63" t="s">
+        <v>303</v>
+      </c>
+      <c r="F53" s="70"/>
+      <c r="G53" s="77" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D54" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="E54" s="63" t="s">
+        <v>443</v>
+      </c>
+      <c r="F54" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="G54" s="77"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="D55" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="E55" s="63" t="s">
+        <v>295</v>
+      </c>
+      <c r="F55" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="G55" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D56" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="E56" s="63" t="s">
+        <v>296</v>
+      </c>
+      <c r="F56" s="70"/>
+      <c r="G56" s="77"/>
+    </row>
+    <row r="57" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D57" s="64" t="s">
+        <v>297</v>
+      </c>
+      <c r="E57" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="F57" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="G57" s="77" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D58" s="64" t="s">
+        <v>297</v>
+      </c>
+      <c r="E58" s="63" t="s">
+        <v>298</v>
+      </c>
+      <c r="F58" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="G58" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D59" s="64" t="s">
+        <v>297</v>
+      </c>
+      <c r="E59" s="63" t="s">
+        <v>305</v>
+      </c>
+      <c r="F59" s="70"/>
+      <c r="G59" s="77" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D60" s="64" t="s">
+        <v>299</v>
+      </c>
+      <c r="E60" s="63" t="s">
+        <v>380</v>
+      </c>
+      <c r="F60" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="G60" s="77"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="D61" s="64" t="s">
+        <v>299</v>
+      </c>
+      <c r="E61" s="63" t="s">
+        <v>300</v>
+      </c>
+      <c r="F61" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="G61" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D62" s="64" t="s">
+        <v>299</v>
+      </c>
+      <c r="E62" s="63" t="s">
+        <v>301</v>
+      </c>
+      <c r="F62" s="70"/>
+      <c r="G62" s="77"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D63" s="64" t="s">
+        <v>306</v>
+      </c>
+      <c r="E63" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="F63" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="G63" s="76" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D64" s="64" t="s">
+        <v>308</v>
+      </c>
+      <c r="E64" s="63" t="s">
+        <v>310</v>
+      </c>
+      <c r="F64" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="G64" s="77"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D65" s="64" t="s">
+        <v>308</v>
+      </c>
+      <c r="E65" s="63" t="s">
+        <v>312</v>
+      </c>
+      <c r="F65" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="G65" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D66" s="64" t="s">
+        <v>308</v>
+      </c>
+      <c r="E66" s="63" t="s">
+        <v>311</v>
+      </c>
+      <c r="F66" s="70"/>
+      <c r="G66" s="77"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D67" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="E67" s="63" t="s">
+        <v>381</v>
+      </c>
+      <c r="F67" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="G67" s="77"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="D68" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="E68" s="63" t="s">
+        <v>313</v>
+      </c>
+      <c r="F68" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="G68" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D69" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="E69" s="63" t="s">
+        <v>314</v>
+      </c>
+      <c r="F69" s="70"/>
+      <c r="G69" s="77"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D70" s="64" t="s">
+        <v>242</v>
+      </c>
+      <c r="E70" s="63" t="s">
+        <v>244</v>
+      </c>
+      <c r="F70" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="77"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D71" s="64" t="s">
+        <v>242</v>
+      </c>
+      <c r="E71" s="63" t="s">
+        <v>246</v>
+      </c>
+      <c r="F71" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="77"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D72" s="64" t="s">
+        <v>242</v>
+      </c>
+      <c r="E72" s="63" t="s">
+        <v>245</v>
+      </c>
+      <c r="F72" s="70"/>
+      <c r="G72" s="77"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D73" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="E73" s="63" t="s">
+        <v>374</v>
+      </c>
+      <c r="F73" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="77"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="D74" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="E74" s="63" t="s">
+        <v>247</v>
+      </c>
+      <c r="F74" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D75" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="E75" s="63" t="s">
+        <v>248</v>
+      </c>
+      <c r="F75" s="70"/>
+      <c r="G75" s="77"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="C76" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D76" s="64" t="s">
+        <v>250</v>
+      </c>
+      <c r="E76" s="63" t="s">
+        <v>251</v>
+      </c>
+      <c r="F76" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G76" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="C77" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D77" s="64" t="s">
+        <v>250</v>
+      </c>
+      <c r="E77" s="63" t="s">
+        <v>442</v>
+      </c>
+      <c r="F77" s="70"/>
+      <c r="G77" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="C78" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D78" s="64" t="s">
+        <v>439</v>
+      </c>
+      <c r="E78" s="63" t="s">
+        <v>438</v>
+      </c>
+      <c r="F78" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="G78" s="77"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="C79" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D79" s="64" t="s">
+        <v>440</v>
+      </c>
+      <c r="E79" s="63" t="s">
+        <v>441</v>
+      </c>
+      <c r="F79" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="77"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="C80" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D80" s="64" t="s">
+        <v>252</v>
+      </c>
+      <c r="E80" s="63" t="s">
+        <v>254</v>
+      </c>
+      <c r="F80" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="G80" s="77"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="C81" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D81" s="64" t="s">
+        <v>252</v>
+      </c>
+      <c r="E81" s="63" t="s">
+        <v>256</v>
+      </c>
+      <c r="F81" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="G81" s="77"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="C82" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D82" s="64" t="s">
+        <v>252</v>
+      </c>
+      <c r="E82" s="63" t="s">
+        <v>255</v>
+      </c>
+      <c r="F82" s="70"/>
+      <c r="G82" s="77"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="C83" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D83" s="64" t="s">
+        <v>253</v>
+      </c>
+      <c r="E83" s="63" t="s">
+        <v>375</v>
+      </c>
+      <c r="F83" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="G83" s="77"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="C84" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="D84" s="64" t="s">
+        <v>253</v>
+      </c>
+      <c r="E84" s="63" t="s">
+        <v>257</v>
+      </c>
+      <c r="F84" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="G84" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="C85" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D85" s="64" t="s">
+        <v>253</v>
+      </c>
+      <c r="E85" s="63" t="s">
+        <v>258</v>
+      </c>
+      <c r="F85" s="70"/>
+      <c r="G85" s="77"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="70" t="s">
+        <v>373</v>
+      </c>
+      <c r="C86" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D86" s="64" t="s">
+        <v>364</v>
+      </c>
+      <c r="E86" s="63" t="s">
+        <v>365</v>
+      </c>
+      <c r="F86" s="70" t="s">
+        <v>373</v>
+      </c>
+      <c r="G86" s="77" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="70" t="s">
+        <v>373</v>
+      </c>
+      <c r="C87" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D87" s="64" t="s">
+        <v>364</v>
+      </c>
+      <c r="E87" s="63" t="s">
+        <v>367</v>
+      </c>
+      <c r="F87" s="70" t="s">
+        <v>373</v>
+      </c>
+      <c r="G87" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="70" t="s">
+        <v>373</v>
+      </c>
+      <c r="C88" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D88" s="64" t="s">
+        <v>364</v>
+      </c>
+      <c r="E88" s="63" t="s">
+        <v>366</v>
+      </c>
+      <c r="F88" s="70"/>
+      <c r="G88" s="77"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="70" t="s">
+        <v>373</v>
+      </c>
+      <c r="C89" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D89" s="64" t="s">
+        <v>368</v>
+      </c>
+      <c r="E89" s="63" t="s">
+        <v>387</v>
+      </c>
+      <c r="F89" s="70" t="s">
+        <v>373</v>
+      </c>
+      <c r="G89" s="77"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="70" t="s">
+        <v>373</v>
+      </c>
+      <c r="C90" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="D90" s="64" t="s">
+        <v>368</v>
+      </c>
+      <c r="E90" s="63" t="s">
+        <v>369</v>
+      </c>
+      <c r="F90" s="70" t="s">
+        <v>373</v>
+      </c>
+      <c r="G90" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="70" t="s">
+        <v>373</v>
+      </c>
+      <c r="C91" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D91" s="64" t="s">
+        <v>368</v>
+      </c>
+      <c r="E91" s="63" t="s">
+        <v>370</v>
+      </c>
+      <c r="F91" s="70"/>
+      <c r="G91" s="77"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="70" t="s">
+        <v>373</v>
+      </c>
+      <c r="C92" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D92" s="64" t="s">
+        <v>446</v>
+      </c>
+      <c r="E92" s="63" t="s">
+        <v>447</v>
+      </c>
+      <c r="F92" s="70" t="s">
+        <v>373</v>
+      </c>
+      <c r="G92" s="77"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="70" t="s">
+        <v>373</v>
+      </c>
+      <c r="C93" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D93" s="64" t="s">
+        <v>371</v>
+      </c>
+      <c r="E93" s="63" t="s">
+        <v>372</v>
+      </c>
+      <c r="F93" s="70" t="s">
+        <v>373</v>
+      </c>
+      <c r="G93" s="77"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="C94" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D94" s="64" t="s">
+        <v>355</v>
+      </c>
+      <c r="E94" s="63" t="s">
+        <v>357</v>
+      </c>
+      <c r="F94" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="G94" s="77" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="C95" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D95" s="64" t="s">
+        <v>355</v>
+      </c>
+      <c r="E95" s="63" t="s">
+        <v>359</v>
+      </c>
+      <c r="F95" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="G95" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="C96" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D96" s="64" t="s">
+        <v>355</v>
+      </c>
+      <c r="E96" s="63" t="s">
+        <v>358</v>
+      </c>
+      <c r="F96" s="70"/>
+      <c r="G96" s="77" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="C97" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D97" s="64" t="s">
+        <v>356</v>
+      </c>
+      <c r="E97" s="63" t="s">
+        <v>386</v>
+      </c>
+      <c r="F97" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="G97" s="77"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="C98" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="D98" s="64" t="s">
+        <v>356</v>
+      </c>
+      <c r="E98" s="63" t="s">
+        <v>360</v>
+      </c>
+      <c r="F98" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="G98" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="C99" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D99" s="64" t="s">
+        <v>356</v>
+      </c>
+      <c r="E99" s="63" t="s">
+        <v>361</v>
+      </c>
+      <c r="F99" s="70"/>
+      <c r="G99" s="77"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="C100" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D100" s="64" t="s">
+        <v>362</v>
+      </c>
+      <c r="E100" s="63" t="s">
+        <v>363</v>
+      </c>
+      <c r="F100" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="G100" s="77"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="C101" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D101" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="E101" s="63" t="s">
+        <v>317</v>
+      </c>
+      <c r="F101" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="G101" s="77"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="C102" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D102" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="E102" s="63" t="s">
+        <v>319</v>
+      </c>
+      <c r="F102" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="G102" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="C103" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D103" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="E103" s="63" t="s">
+        <v>318</v>
+      </c>
+      <c r="F103" s="70"/>
+      <c r="G103" s="77"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="C104" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D104" s="64" t="s">
+        <v>444</v>
+      </c>
+      <c r="E104" s="63" t="s">
+        <v>445</v>
+      </c>
+      <c r="F104" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="G104" s="77"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="C105" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D105" s="64" t="s">
+        <v>316</v>
+      </c>
+      <c r="E105" s="63" t="s">
+        <v>382</v>
+      </c>
+      <c r="F105" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="G105" s="77"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="C106" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="D106" s="64" t="s">
+        <v>316</v>
+      </c>
+      <c r="E106" s="63" t="s">
+        <v>320</v>
+      </c>
+      <c r="F106" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="G106" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="C107" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D107" s="64" t="s">
+        <v>316</v>
+      </c>
+      <c r="E107" s="63" t="s">
+        <v>321</v>
+      </c>
+      <c r="F107" s="70"/>
+      <c r="G107" s="77"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D108" s="64" t="s">
+        <v>274</v>
+      </c>
+      <c r="E108" s="63" t="s">
+        <v>276</v>
+      </c>
+      <c r="F108" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="G108" s="77"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D109" s="64" t="s">
+        <v>274</v>
+      </c>
+      <c r="E109" s="63" t="s">
+        <v>278</v>
+      </c>
+      <c r="F109" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="G109" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D110" s="64" t="s">
+        <v>274</v>
+      </c>
+      <c r="E110" s="63" t="s">
+        <v>277</v>
+      </c>
+      <c r="F110" s="70"/>
+      <c r="G110" s="77"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D111" s="64" t="s">
+        <v>275</v>
+      </c>
+      <c r="E111" s="63" t="s">
+        <v>378</v>
+      </c>
+      <c r="F111" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="G111" s="77"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="D112" s="64" t="s">
+        <v>275</v>
+      </c>
+      <c r="E112" s="63" t="s">
+        <v>279</v>
+      </c>
+      <c r="F112" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="G112" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D113" s="64" t="s">
+        <v>275</v>
+      </c>
+      <c r="E113" s="63" t="s">
+        <v>280</v>
+      </c>
+      <c r="F113" s="70"/>
+      <c r="G113" s="77"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="C114" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D114" s="64" t="s">
+        <v>205</v>
+      </c>
+      <c r="E114" s="63" t="s">
+        <v>206</v>
+      </c>
+      <c r="F114" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="G114" s="77"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="C115" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D115" s="64" t="s">
+        <v>205</v>
+      </c>
+      <c r="E115" s="63" t="s">
+        <v>208</v>
+      </c>
+      <c r="F115" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="G115" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="C116" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D116" s="64" t="s">
+        <v>205</v>
+      </c>
+      <c r="E116" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="F116" s="70"/>
+      <c r="G116" s="77"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="C117" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="D117" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="E117" s="63" t="s">
+        <v>211</v>
+      </c>
+      <c r="F117" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="G117" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="C118" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D118" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="E118" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="F118" s="70"/>
+      <c r="G118" s="77"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="C119" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D119" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="E119" s="63" t="s">
+        <v>212</v>
+      </c>
+      <c r="F119" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="G119" s="77"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="70" t="s">
+        <v>266</v>
+      </c>
+      <c r="C120" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D120" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="E120" s="63" t="s">
+        <v>269</v>
+      </c>
+      <c r="F120" s="70" t="s">
+        <v>266</v>
+      </c>
+      <c r="G120" s="77" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="70" t="s">
+        <v>266</v>
+      </c>
+      <c r="C121" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D121" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="E121" s="63" t="s">
+        <v>271</v>
+      </c>
+      <c r="F121" s="70" t="s">
+        <v>266</v>
+      </c>
+      <c r="G121" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="70" t="s">
+        <v>266</v>
+      </c>
+      <c r="C122" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D122" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="E122" s="63" t="s">
+        <v>270</v>
+      </c>
+      <c r="F122" s="70"/>
+      <c r="G122" s="77" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="70" t="s">
+        <v>266</v>
+      </c>
+      <c r="C123" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D123" s="64" t="s">
+        <v>268</v>
+      </c>
+      <c r="E123" s="63" t="s">
+        <v>377</v>
+      </c>
+      <c r="F123" s="70" t="s">
+        <v>266</v>
+      </c>
+      <c r="G123" s="77"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="70" t="s">
+        <v>266</v>
+      </c>
+      <c r="C124" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="D124" s="64" t="s">
+        <v>268</v>
+      </c>
+      <c r="E124" s="63" t="s">
+        <v>272</v>
+      </c>
+      <c r="F124" s="70" t="s">
+        <v>266</v>
+      </c>
+      <c r="G124" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" s="70" t="s">
+        <v>266</v>
+      </c>
+      <c r="C125" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D125" s="64" t="s">
+        <v>268</v>
+      </c>
+      <c r="E125" s="63" t="s">
+        <v>273</v>
+      </c>
+      <c r="F125" s="70"/>
+      <c r="G125" s="77"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="C126" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D126" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="E126" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="F126" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="G126" s="77" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="C127" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D127" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="E127" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="F127" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="G127" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="C128" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D128" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="E128" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="F128" s="70"/>
+      <c r="G128" s="77" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="C129" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D129" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="E129" s="63" t="s">
+        <v>204</v>
+      </c>
+      <c r="F129" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="G129" s="77"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="C130" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="D130" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="E130" s="63" t="s">
+        <v>225</v>
+      </c>
+      <c r="F130" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="G130" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="C131" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D131" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="E131" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="F131" s="70"/>
+      <c r="G131" s="77"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="C132" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D132" s="64" t="s">
+        <v>227</v>
+      </c>
+      <c r="E132" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="F132" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="G132" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" s="70" t="s">
+        <v>241</v>
+      </c>
+      <c r="C133" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D133" s="64" t="s">
+        <v>240</v>
+      </c>
+      <c r="E133" s="63" t="s">
+        <v>435</v>
+      </c>
+      <c r="F133" s="70" t="s">
+        <v>241</v>
+      </c>
+      <c r="G133" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" s="70" t="s">
+        <v>241</v>
+      </c>
+      <c r="C134" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D134" s="64" t="s">
+        <v>240</v>
+      </c>
+      <c r="E134" s="63" t="s">
+        <v>434</v>
+      </c>
+      <c r="F134" s="70"/>
+      <c r="G134" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" s="70" t="s">
+        <v>241</v>
+      </c>
+      <c r="C135" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D135" s="64" t="s">
+        <v>436</v>
+      </c>
+      <c r="E135" s="63" t="s">
+        <v>437</v>
+      </c>
+      <c r="F135" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="G135" s="77"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" s="70" t="s">
+        <v>241</v>
+      </c>
+      <c r="C136" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D136" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="E136" s="63" t="s">
+        <v>433</v>
+      </c>
+      <c r="F136" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="G136" s="77"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" s="70" t="s">
+        <v>238</v>
+      </c>
+      <c r="C137" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D137" s="64" t="s">
+        <v>239</v>
+      </c>
+      <c r="E137" s="63" t="s">
+        <v>428</v>
+      </c>
+      <c r="F137" s="70" t="s">
+        <v>238</v>
+      </c>
+      <c r="G137" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" s="70" t="s">
+        <v>238</v>
+      </c>
+      <c r="C138" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D138" s="64" t="s">
+        <v>239</v>
+      </c>
+      <c r="E138" s="63" t="s">
+        <v>427</v>
+      </c>
+      <c r="F138" s="70"/>
+      <c r="G138" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" s="70" t="s">
+        <v>238</v>
+      </c>
+      <c r="C139" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D139" s="64" t="s">
+        <v>424</v>
+      </c>
+      <c r="E139" s="63" t="s">
+        <v>425</v>
+      </c>
+      <c r="F139" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="G139" s="77"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" s="70" t="s">
+        <v>238</v>
+      </c>
+      <c r="C140" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D140" s="64" t="s">
+        <v>426</v>
+      </c>
+      <c r="E140" s="63" t="s">
+        <v>429</v>
+      </c>
+      <c r="F140" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="G140" s="77"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" s="70" t="s">
+        <v>238</v>
+      </c>
+      <c r="C141" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D141" s="64" t="s">
+        <v>430</v>
+      </c>
+      <c r="E141" s="63" t="s">
+        <v>431</v>
+      </c>
+      <c r="F141" s="70" t="s">
+        <v>451</v>
+      </c>
+      <c r="G141" s="77"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C142" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D142" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="E142" s="65" t="s">
+        <v>191</v>
+      </c>
+      <c r="F142" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="G142" s="76" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C143" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D143" s="64" t="s">
+        <v>192</v>
+      </c>
+      <c r="E143" s="65" t="s">
+        <v>193</v>
+      </c>
+      <c r="F143" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="G143" s="76"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C144" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="D144" s="64" t="s">
+        <v>192</v>
+      </c>
+      <c r="E144" s="65" t="s">
+        <v>194</v>
+      </c>
+      <c r="F144" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="G144" s="76" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C145" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D145" s="64" t="s">
+        <v>192</v>
+      </c>
+      <c r="E145" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="F145" s="70"/>
+      <c r="G145" s="76"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C146" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D146" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="E146" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="F146" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="G146" s="76" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C147" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D147" s="64" t="s">
+        <v>214</v>
+      </c>
+      <c r="E147" s="65" t="s">
+        <v>215</v>
+      </c>
+      <c r="F147" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="G147" s="76"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C148" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D148" s="64" t="s">
+        <v>218</v>
+      </c>
+      <c r="E148" s="65" t="s">
+        <v>219</v>
+      </c>
+      <c r="F148" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="G148" s="76"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C149" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D149" s="64" t="s">
+        <v>216</v>
+      </c>
+      <c r="E149" s="65" t="s">
+        <v>217</v>
+      </c>
+      <c r="F149" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="G149" s="76"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C150" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D150" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="E150" s="65" t="s">
+        <v>199</v>
+      </c>
+      <c r="F150" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="G150" s="76" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C151" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D151" s="64" t="s">
+        <v>200</v>
+      </c>
+      <c r="E151" s="65" t="s">
+        <v>201</v>
+      </c>
+      <c r="F151" s="70"/>
+      <c r="G151" s="76"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C152" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D152" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="E152" s="65" t="s">
+        <v>197</v>
+      </c>
+      <c r="F152" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="G152" s="76" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" s="70" t="s">
+        <v>397</v>
+      </c>
+      <c r="C153" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D153" s="64" t="s">
+        <v>398</v>
+      </c>
+      <c r="E153" s="63" t="s">
+        <v>403</v>
+      </c>
+      <c r="F153" s="70" t="s">
+        <v>397</v>
+      </c>
+      <c r="G153" s="77"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" s="70" t="s">
+        <v>397</v>
+      </c>
+      <c r="C154" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D154" s="64" t="s">
+        <v>398</v>
+      </c>
+      <c r="E154" s="63" t="s">
+        <v>405</v>
+      </c>
+      <c r="F154" s="70" t="s">
+        <v>397</v>
+      </c>
+      <c r="G154" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" s="70" t="s">
+        <v>397</v>
+      </c>
+      <c r="C155" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D155" s="64" t="s">
+        <v>398</v>
+      </c>
+      <c r="E155" s="63" t="s">
         <v>404</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="F155" s="70"/>
+      <c r="G155" s="77"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" s="70" t="s">
+        <v>397</v>
+      </c>
+      <c r="C156" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="E3" s="64" t="s">
-        <v>285</v>
-      </c>
-      <c r="F3" s="63" t="s">
-        <v>287</v>
-      </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="95" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="88" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" s="88" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="99"/>
-      <c r="D4" s="62" t="s">
+      <c r="D156" s="64" t="s">
+        <v>399</v>
+      </c>
+      <c r="E156" s="63" t="s">
+        <v>400</v>
+      </c>
+      <c r="F156" s="70" t="s">
+        <v>397</v>
+      </c>
+      <c r="G156" s="77"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157" s="70" t="s">
+        <v>397</v>
+      </c>
+      <c r="C157" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="D157" s="64" t="s">
+        <v>399</v>
+      </c>
+      <c r="E157" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="F157" s="70" t="s">
+        <v>397</v>
+      </c>
+      <c r="G157" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" s="70" t="s">
+        <v>397</v>
+      </c>
+      <c r="C158" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="E4" s="64" t="s">
-        <v>285</v>
-      </c>
-      <c r="F4" s="63" t="s">
-        <v>289</v>
-      </c>
-      <c r="G4" s="63"/>
-      <c r="H4" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="88" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="99">
-        <v>404</v>
-      </c>
-      <c r="D5" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E5" s="64" t="s">
-        <v>285</v>
-      </c>
-      <c r="F5" s="63" t="s">
-        <v>288</v>
-      </c>
-      <c r="G5" s="63"/>
-      <c r="H5" s="95" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="88" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="88" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="99">
-        <v>404</v>
-      </c>
-      <c r="D6" s="62" t="s">
+      <c r="D158" s="64" t="s">
+        <v>399</v>
+      </c>
+      <c r="E158" s="63" t="s">
+        <v>402</v>
+      </c>
+      <c r="F158" s="70"/>
+      <c r="G158" s="77"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159" s="70" t="s">
+        <v>397</v>
+      </c>
+      <c r="C159" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="E6" s="64" t="s">
-        <v>286</v>
-      </c>
-      <c r="F6" s="63" t="s">
-        <v>384</v>
-      </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="95"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="88" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" s="88" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="99">
-        <v>404</v>
-      </c>
-      <c r="D7" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E7" s="64" t="s">
-        <v>286</v>
-      </c>
-      <c r="F7" s="63" t="s">
-        <v>290</v>
-      </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="95"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="88" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E8" s="64" t="s">
-        <v>286</v>
-      </c>
-      <c r="F8" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="G8" s="63"/>
-      <c r="H8" s="95"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="89" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="89" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="62" t="s">
+      <c r="D159" s="64" t="s">
+        <v>406</v>
+      </c>
+      <c r="E159" s="63" t="s">
+        <v>407</v>
+      </c>
+      <c r="F159" s="70" t="s">
+        <v>397</v>
+      </c>
+      <c r="G159" s="77"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="C160" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D160" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="E160" s="63" t="s">
+        <v>408</v>
+      </c>
+      <c r="F160" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="G160" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="C161" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="E9" s="64" t="s">
-        <v>294</v>
-      </c>
-      <c r="F9" s="65" t="s">
-        <v>295</v>
-      </c>
-      <c r="G9" s="63"/>
-      <c r="H9" s="94"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="89" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" s="89" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="100"/>
-      <c r="D10" s="62" t="s">
+      <c r="D161" s="64" t="s">
+        <v>449</v>
+      </c>
+      <c r="E161" s="63" t="s">
+        <v>450</v>
+      </c>
+      <c r="F161" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="G161" s="77"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="C162" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="E10" s="64" t="s">
-        <v>292</v>
-      </c>
-      <c r="F10" s="65" t="s">
-        <v>293</v>
-      </c>
-      <c r="G10" s="63"/>
-      <c r="H10" s="94"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="88" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="88" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="62" t="s">
+      <c r="D162" s="64" t="s">
+        <v>412</v>
+      </c>
+      <c r="E162" s="63" t="s">
+        <v>409</v>
+      </c>
+      <c r="F162" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="G162" s="77"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="C163" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D163" s="64" t="s">
+        <v>412</v>
+      </c>
+      <c r="E163" s="63" t="s">
+        <v>410</v>
+      </c>
+      <c r="F163" s="70"/>
+      <c r="G163" s="77"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="C164" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D164" s="64" t="s">
+        <v>413</v>
+      </c>
+      <c r="E164" s="63" t="s">
+        <v>414</v>
+      </c>
+      <c r="F164" s="70"/>
+      <c r="G164" s="77"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="C165" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="64" t="s">
-        <v>263</v>
-      </c>
-      <c r="F11" s="63" t="s">
-        <v>265</v>
-      </c>
-      <c r="G11" s="63"/>
-      <c r="H11" s="95"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="88" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="88" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="62" t="s">
+      <c r="D165" s="64" t="s">
+        <v>388</v>
+      </c>
+      <c r="E165" s="63" t="s">
+        <v>390</v>
+      </c>
+      <c r="F165" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="G165" s="77"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="C166" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D166" s="64" t="s">
+        <v>388</v>
+      </c>
+      <c r="E166" s="63" t="s">
+        <v>392</v>
+      </c>
+      <c r="F166" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="G166" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="C167" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="E12" s="64" t="s">
-        <v>263</v>
-      </c>
-      <c r="F12" s="63" t="s">
-        <v>267</v>
-      </c>
-      <c r="G12" s="63"/>
-      <c r="H12" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="88" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E13" s="64" t="s">
-        <v>263</v>
-      </c>
-      <c r="F13" s="63" t="s">
-        <v>266</v>
-      </c>
-      <c r="G13" s="63"/>
-      <c r="H13" s="95"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="88" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="88" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="62" t="s">
+      <c r="D167" s="64" t="s">
+        <v>388</v>
+      </c>
+      <c r="E167" s="63" t="s">
+        <v>391</v>
+      </c>
+      <c r="F167" s="70"/>
+      <c r="G167" s="77"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="C168" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="E14" s="64" t="s">
-        <v>264</v>
-      </c>
-      <c r="F14" s="63" t="s">
-        <v>381</v>
-      </c>
-      <c r="G14" s="63"/>
-      <c r="H14" s="95"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="88" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="88" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E15" s="64" t="s">
-        <v>264</v>
-      </c>
-      <c r="F15" s="63" t="s">
-        <v>268</v>
-      </c>
-      <c r="G15" s="63"/>
-      <c r="H15" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="88" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="88"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E16" s="64" t="s">
-        <v>264</v>
-      </c>
-      <c r="F16" s="63" t="s">
-        <v>269</v>
-      </c>
-      <c r="G16" s="63"/>
-      <c r="H16" s="95"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="88" t="s">
-        <v>147</v>
-      </c>
-      <c r="B17" s="88" t="s">
-        <v>147</v>
-      </c>
-      <c r="C17" s="99"/>
-      <c r="D17" s="62" t="s">
+      <c r="D168" s="64" t="s">
+        <v>389</v>
+      </c>
+      <c r="E168" s="63" t="s">
+        <v>393</v>
+      </c>
+      <c r="F168" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="G168" s="77"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="C169" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="D169" s="64" t="s">
+        <v>389</v>
+      </c>
+      <c r="E169" s="63" t="s">
+        <v>394</v>
+      </c>
+      <c r="F169" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="G169" s="77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="C170" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D170" s="64" t="s">
+        <v>389</v>
+      </c>
+      <c r="E170" s="63" t="s">
+        <v>395</v>
+      </c>
+      <c r="F170" s="70"/>
+      <c r="G170" s="77"/>
+    </row>
+    <row r="171" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="C171" s="73" t="s">
         <v>186</v>
       </c>
-      <c r="E17" s="64" t="s">
-        <v>350</v>
-      </c>
-      <c r="F17" s="63" t="s">
-        <v>352</v>
-      </c>
-      <c r="G17" s="63"/>
-      <c r="H17" s="95" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="88" t="s">
-        <v>147</v>
-      </c>
-      <c r="B18" s="88" t="s">
-        <v>147</v>
-      </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="62" t="s">
+      <c r="D171" s="74" t="s">
+        <v>396</v>
+      </c>
+      <c r="E171" s="75" t="s">
+        <v>452</v>
+      </c>
+      <c r="F171" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="G171" s="78"/>
+    </row>
+  </sheetData>
+  <sortState ref="A3:G171">
+    <sortCondition ref="D3:D171"/>
+    <sortCondition ref="C3:C171" customList="GET,PUT,POST,DELETE"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="A1:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="68" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="79" t="s">
+        <v>448</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="94" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>388</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2" s="96" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" s="97"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="94" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>388</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="D3" s="96" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="97" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="94" t="s">
         <v>188</v>
       </c>
-      <c r="E18" s="64" t="s">
-        <v>350</v>
-      </c>
-      <c r="F18" s="63" t="s">
-        <v>354</v>
-      </c>
-      <c r="G18" s="63"/>
-      <c r="H18" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="88" t="s">
-        <v>147</v>
-      </c>
-      <c r="B19" s="88"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E19" s="64" t="s">
-        <v>350</v>
-      </c>
-      <c r="F19" s="63" t="s">
-        <v>353</v>
-      </c>
-      <c r="G19" s="63"/>
-      <c r="H19" s="95" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="88" t="s">
-        <v>147</v>
-      </c>
-      <c r="B20" s="88" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20" s="99"/>
-      <c r="D20" s="62" t="s">
+      <c r="B4" s="95" t="s">
+        <v>388</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="D4" s="96"/>
+      <c r="E4" s="97"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="94" t="s">
         <v>186</v>
       </c>
-      <c r="E20" s="64" t="s">
-        <v>351</v>
-      </c>
-      <c r="F20" s="63" t="s">
-        <v>390</v>
-      </c>
-      <c r="G20" s="63"/>
-      <c r="H20" s="95"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="88" t="s">
-        <v>147</v>
-      </c>
-      <c r="B21" s="88" t="s">
-        <v>147</v>
-      </c>
-      <c r="C21" s="99"/>
-      <c r="D21" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E21" s="64" t="s">
-        <v>351</v>
-      </c>
-      <c r="F21" s="63" t="s">
-        <v>355</v>
-      </c>
-      <c r="G21" s="63"/>
-      <c r="H21" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="88" t="s">
-        <v>147</v>
-      </c>
-      <c r="B22" s="88"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E22" s="64" t="s">
-        <v>351</v>
-      </c>
-      <c r="F22" s="63" t="s">
-        <v>356</v>
-      </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="95"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="88" t="s">
-        <v>147</v>
-      </c>
-      <c r="B23" s="88" t="s">
-        <v>147</v>
-      </c>
-      <c r="C23" s="99"/>
-      <c r="D23" s="62" t="s">
+      <c r="B5" s="95" t="s">
+        <v>389</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="D5" s="96" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" s="97"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="94" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="95" t="s">
+        <v>389</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="D6" s="96" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="97" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="94" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="95" t="s">
+        <v>389</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="D7" s="96"/>
+      <c r="E7" s="97"/>
+    </row>
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="94" t="s">
         <v>186</v>
       </c>
-      <c r="E23" s="64" t="s">
-        <v>357</v>
-      </c>
-      <c r="F23" s="63" t="s">
-        <v>359</v>
-      </c>
-      <c r="G23" s="63"/>
-      <c r="H23" s="95"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="88" t="s">
-        <v>147</v>
-      </c>
-      <c r="B24" s="88" t="s">
-        <v>147</v>
-      </c>
-      <c r="C24" s="99"/>
-      <c r="D24" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E24" s="64" t="s">
-        <v>358</v>
-      </c>
-      <c r="F24" s="63" t="s">
-        <v>359</v>
-      </c>
-      <c r="G24" s="63"/>
-      <c r="H24" s="95"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="99"/>
-      <c r="D25" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E25" s="64" t="s">
-        <v>233</v>
-      </c>
-      <c r="F25" s="63" t="s">
-        <v>234</v>
-      </c>
-      <c r="G25" s="63"/>
-      <c r="H25" s="95"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="99"/>
-      <c r="D26" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="E26" s="64" t="s">
-        <v>233</v>
-      </c>
-      <c r="F26" s="63" t="s">
-        <v>236</v>
-      </c>
-      <c r="G26" s="63"/>
-      <c r="H26" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" s="88"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E27" s="64" t="s">
-        <v>233</v>
-      </c>
-      <c r="F27" s="63" t="s">
-        <v>235</v>
-      </c>
-      <c r="G27" s="63"/>
-      <c r="H27" s="95"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="B28" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" s="99"/>
-      <c r="D28" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E28" s="64" t="s">
-        <v>238</v>
-      </c>
-      <c r="F28" s="63" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="63"/>
-      <c r="H28" s="95"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="B29" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="99"/>
-      <c r="D29" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E29" s="64" t="s">
-        <v>238</v>
-      </c>
-      <c r="F29" s="63" t="s">
-        <v>239</v>
-      </c>
-      <c r="G29" s="63"/>
-      <c r="H29" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30" s="88"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E30" s="64" t="s">
-        <v>238</v>
-      </c>
-      <c r="F30" s="63" t="s">
-        <v>240</v>
-      </c>
-      <c r="G30" s="63"/>
-      <c r="H30" s="95"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="88" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" s="88" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="99"/>
-      <c r="D31" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="E31" s="64" t="s">
-        <v>241</v>
-      </c>
-      <c r="F31" s="63" t="s">
-        <v>426</v>
-      </c>
-      <c r="G31" s="63"/>
-      <c r="H31" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="88" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32" s="88"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E32" s="64" t="s">
-        <v>241</v>
-      </c>
-      <c r="F32" s="63" t="s">
-        <v>424</v>
-      </c>
-      <c r="G32" s="63"/>
-      <c r="H32" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="88" t="s">
-        <v>106</v>
-      </c>
-      <c r="B33" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="99"/>
-      <c r="D33" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E33" s="64" t="s">
-        <v>423</v>
-      </c>
-      <c r="F33" s="63" t="s">
-        <v>428</v>
-      </c>
-      <c r="G33" s="63"/>
-      <c r="H33" s="95"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="88" t="s">
-        <v>106</v>
-      </c>
-      <c r="B34" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="99"/>
-      <c r="D34" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E34" s="64" t="s">
-        <v>425</v>
-      </c>
-      <c r="F34" s="63" t="s">
-        <v>427</v>
-      </c>
-      <c r="G34" s="63"/>
-      <c r="H34" s="95"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="88" t="s">
-        <v>121</v>
-      </c>
-      <c r="B35" s="88" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="99"/>
-      <c r="D35" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E35" s="64" t="s">
-        <v>335</v>
-      </c>
-      <c r="F35" s="63" t="s">
-        <v>337</v>
-      </c>
-      <c r="G35" s="63"/>
-      <c r="H35" s="95" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="88" t="s">
-        <v>121</v>
-      </c>
-      <c r="B36" s="88" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" s="99"/>
-      <c r="D36" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="E36" s="64" t="s">
-        <v>335</v>
-      </c>
-      <c r="F36" s="63" t="s">
-        <v>339</v>
-      </c>
-      <c r="G36" s="63"/>
-      <c r="H36" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="88" t="s">
-        <v>121</v>
-      </c>
-      <c r="B37" s="88"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E37" s="64" t="s">
-        <v>335</v>
-      </c>
-      <c r="F37" s="63" t="s">
-        <v>338</v>
-      </c>
-      <c r="G37" s="63"/>
-      <c r="H37" s="95" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="88" t="s">
-        <v>121</v>
-      </c>
-      <c r="B38" s="88" t="s">
-        <v>121</v>
-      </c>
-      <c r="C38" s="99"/>
-      <c r="D38" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E38" s="64" t="s">
-        <v>336</v>
-      </c>
-      <c r="F38" s="63" t="s">
-        <v>389</v>
-      </c>
-      <c r="G38" s="63"/>
-      <c r="H38" s="95"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="88" t="s">
-        <v>121</v>
-      </c>
-      <c r="B39" s="88" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" s="99"/>
-      <c r="D39" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E39" s="64" t="s">
-        <v>336</v>
-      </c>
-      <c r="F39" s="63" t="s">
-        <v>340</v>
-      </c>
-      <c r="G39" s="63"/>
-      <c r="H39" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="88" t="s">
-        <v>121</v>
-      </c>
-      <c r="B40" s="88"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E40" s="64" t="s">
-        <v>336</v>
-      </c>
-      <c r="F40" s="63" t="s">
-        <v>341</v>
-      </c>
-      <c r="G40" s="63"/>
-      <c r="H40" s="95"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="89" t="s">
-        <v>121</v>
-      </c>
-      <c r="B41" s="89" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41" s="100"/>
-      <c r="D41" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E41" s="64" t="s">
-        <v>344</v>
-      </c>
-      <c r="F41" s="65" t="s">
-        <v>345</v>
-      </c>
-      <c r="G41" s="63"/>
-      <c r="H41" s="94"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="88" t="s">
-        <v>121</v>
-      </c>
-      <c r="B42" s="88" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42" s="99"/>
-      <c r="D42" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E42" s="64" t="s">
-        <v>348</v>
-      </c>
-      <c r="F42" s="63" t="s">
-        <v>349</v>
-      </c>
-      <c r="G42" s="63"/>
-      <c r="H42" s="95"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="89" t="s">
-        <v>121</v>
-      </c>
-      <c r="B43" s="89" t="s">
-        <v>121</v>
-      </c>
-      <c r="C43" s="100"/>
-      <c r="D43" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E43" s="64" t="s">
-        <v>342</v>
-      </c>
-      <c r="F43" s="65" t="s">
-        <v>343</v>
-      </c>
-      <c r="G43" s="63"/>
-      <c r="H43" s="94"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="89" t="s">
-        <v>121</v>
-      </c>
-      <c r="B44" s="89" t="s">
-        <v>121</v>
-      </c>
-      <c r="C44" s="100"/>
-      <c r="D44" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E44" s="64" t="s">
-        <v>346</v>
-      </c>
-      <c r="F44" s="65" t="s">
-        <v>347</v>
-      </c>
-      <c r="G44" s="63"/>
-      <c r="H44" s="94"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="88" t="s">
-        <v>327</v>
-      </c>
-      <c r="B45" s="88" t="s">
-        <v>327</v>
-      </c>
-      <c r="C45" s="99"/>
-      <c r="D45" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E45" s="64" t="s">
-        <v>328</v>
-      </c>
-      <c r="F45" s="63" t="s">
-        <v>330</v>
-      </c>
-      <c r="G45" s="63"/>
-      <c r="H45" s="95"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="88" t="s">
-        <v>327</v>
-      </c>
-      <c r="B46" s="88" t="s">
-        <v>327</v>
-      </c>
-      <c r="C46" s="99"/>
-      <c r="D46" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="E46" s="64" t="s">
-        <v>328</v>
-      </c>
-      <c r="F46" s="63" t="s">
-        <v>332</v>
-      </c>
-      <c r="G46" s="63"/>
-      <c r="H46" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="88" t="s">
-        <v>327</v>
-      </c>
-      <c r="B47" s="88"/>
-      <c r="C47" s="99"/>
-      <c r="D47" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E47" s="64" t="s">
-        <v>328</v>
-      </c>
-      <c r="F47" s="63" t="s">
-        <v>331</v>
-      </c>
-      <c r="G47" s="63"/>
-      <c r="H47" s="95"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="88" t="s">
-        <v>327</v>
-      </c>
-      <c r="B48" s="88" t="s">
-        <v>327</v>
-      </c>
-      <c r="C48" s="99"/>
-      <c r="D48" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E48" s="64" t="s">
-        <v>329</v>
-      </c>
-      <c r="F48" s="63" t="s">
-        <v>388</v>
-      </c>
-      <c r="G48" s="63"/>
-      <c r="H48" s="95"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="88" t="s">
-        <v>327</v>
-      </c>
-      <c r="B49" s="88" t="s">
-        <v>327</v>
-      </c>
-      <c r="C49" s="99"/>
-      <c r="D49" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E49" s="64" t="s">
-        <v>329</v>
-      </c>
-      <c r="F49" s="63" t="s">
-        <v>333</v>
-      </c>
-      <c r="G49" s="63"/>
-      <c r="H49" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="88" t="s">
-        <v>327</v>
-      </c>
-      <c r="B50" s="88"/>
-      <c r="C50" s="99"/>
-      <c r="D50" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E50" s="64" t="s">
-        <v>329</v>
-      </c>
-      <c r="F50" s="63" t="s">
-        <v>334</v>
-      </c>
-      <c r="G50" s="63"/>
-      <c r="H50" s="95"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="B51" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="C51" s="99"/>
-      <c r="D51" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E51" s="64" t="s">
-        <v>296</v>
-      </c>
-      <c r="F51" s="63" t="s">
-        <v>306</v>
-      </c>
-      <c r="G51" s="63"/>
-      <c r="H51" s="95" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="B52" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="C52" s="99"/>
-      <c r="D52" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="E52" s="64" t="s">
-        <v>296</v>
-      </c>
-      <c r="F52" s="63" t="s">
-        <v>298</v>
-      </c>
-      <c r="G52" s="63"/>
-      <c r="H52" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="B53" s="88"/>
-      <c r="C53" s="99"/>
-      <c r="D53" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E53" s="64" t="s">
-        <v>296</v>
-      </c>
-      <c r="F53" s="63" t="s">
-        <v>307</v>
-      </c>
-      <c r="G53" s="63"/>
-      <c r="H53" s="95" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="B54" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="C54" s="99"/>
-      <c r="D54" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E54" s="64" t="s">
-        <v>297</v>
-      </c>
-      <c r="F54" s="63" t="s">
-        <v>448</v>
-      </c>
-      <c r="G54" s="63"/>
-      <c r="H54" s="95"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="B55" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="C55" s="99"/>
-      <c r="D55" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E55" s="64" t="s">
-        <v>297</v>
-      </c>
-      <c r="F55" s="63" t="s">
-        <v>299</v>
-      </c>
-      <c r="G55" s="63"/>
-      <c r="H55" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="B56" s="88"/>
-      <c r="C56" s="99"/>
-      <c r="D56" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E56" s="64" t="s">
-        <v>297</v>
-      </c>
-      <c r="F56" s="63" t="s">
-        <v>300</v>
-      </c>
-      <c r="G56" s="63"/>
-      <c r="H56" s="95"/>
-    </row>
-    <row r="57" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="B57" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="C57" s="99"/>
-      <c r="D57" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E57" s="64" t="s">
-        <v>301</v>
-      </c>
-      <c r="F57" s="63" t="s">
-        <v>308</v>
-      </c>
-      <c r="G57" s="63"/>
-      <c r="H57" s="95" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="B58" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="C58" s="99"/>
-      <c r="D58" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="E58" s="64" t="s">
-        <v>301</v>
-      </c>
-      <c r="F58" s="63" t="s">
-        <v>302</v>
-      </c>
-      <c r="G58" s="63"/>
-      <c r="H58" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="B59" s="88"/>
-      <c r="C59" s="99"/>
-      <c r="D59" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E59" s="64" t="s">
-        <v>301</v>
-      </c>
-      <c r="F59" s="63" t="s">
-        <v>309</v>
-      </c>
-      <c r="G59" s="63"/>
-      <c r="H59" s="95" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="B60" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="C60" s="99"/>
-      <c r="D60" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E60" s="64" t="s">
-        <v>303</v>
-      </c>
-      <c r="F60" s="63" t="s">
-        <v>385</v>
-      </c>
-      <c r="G60" s="63"/>
-      <c r="H60" s="95"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="B61" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" s="99"/>
-      <c r="D61" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E61" s="64" t="s">
-        <v>303</v>
-      </c>
-      <c r="F61" s="63" t="s">
-        <v>304</v>
-      </c>
-      <c r="G61" s="63"/>
-      <c r="H61" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="B62" s="88"/>
-      <c r="C62" s="99"/>
-      <c r="D62" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E62" s="64" t="s">
-        <v>303</v>
-      </c>
-      <c r="F62" s="63" t="s">
-        <v>305</v>
-      </c>
-      <c r="G62" s="63"/>
-      <c r="H62" s="95"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="89" t="s">
-        <v>69</v>
-      </c>
-      <c r="B63" s="89" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63" s="100"/>
-      <c r="D63" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E63" s="64" t="s">
-        <v>310</v>
-      </c>
-      <c r="F63" s="65" t="s">
-        <v>311</v>
-      </c>
-      <c r="G63" s="63"/>
-      <c r="H63" s="94" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="C64" s="99"/>
-      <c r="D64" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E64" s="64" t="s">
-        <v>312</v>
-      </c>
-      <c r="F64" s="63" t="s">
-        <v>314</v>
-      </c>
-      <c r="G64" s="63"/>
-      <c r="H64" s="95"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="C65" s="99"/>
-      <c r="D65" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="E65" s="64" t="s">
-        <v>312</v>
-      </c>
-      <c r="F65" s="63" t="s">
-        <v>316</v>
-      </c>
-      <c r="G65" s="63"/>
-      <c r="H65" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" s="88"/>
-      <c r="C66" s="99"/>
-      <c r="D66" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E66" s="64" t="s">
-        <v>312</v>
-      </c>
-      <c r="F66" s="63" t="s">
-        <v>315</v>
-      </c>
-      <c r="G66" s="63"/>
-      <c r="H66" s="95"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="B67" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="C67" s="99"/>
-      <c r="D67" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E67" s="64" t="s">
-        <v>313</v>
-      </c>
-      <c r="F67" s="63" t="s">
-        <v>386</v>
-      </c>
-      <c r="G67" s="63"/>
-      <c r="H67" s="95"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="B68" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="C68" s="99"/>
-      <c r="D68" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E68" s="64" t="s">
-        <v>313</v>
-      </c>
-      <c r="F68" s="63" t="s">
-        <v>317</v>
-      </c>
-      <c r="G68" s="63"/>
-      <c r="H68" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="B69" s="88"/>
-      <c r="C69" s="99"/>
-      <c r="D69" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E69" s="64" t="s">
-        <v>313</v>
-      </c>
-      <c r="F69" s="63" t="s">
-        <v>318</v>
-      </c>
-      <c r="G69" s="63"/>
-      <c r="H69" s="95"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="B70" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70" s="99"/>
-      <c r="D70" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E70" s="64" t="s">
-        <v>246</v>
-      </c>
-      <c r="F70" s="63" t="s">
-        <v>248</v>
-      </c>
-      <c r="G70" s="63"/>
-      <c r="H70" s="95"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="B71" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" s="99"/>
-      <c r="D71" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="E71" s="64" t="s">
-        <v>246</v>
-      </c>
-      <c r="F71" s="63" t="s">
-        <v>250</v>
-      </c>
-      <c r="G71" s="63"/>
-      <c r="H71" s="95"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="B72" s="88"/>
-      <c r="C72" s="99"/>
-      <c r="D72" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E72" s="64" t="s">
-        <v>246</v>
-      </c>
-      <c r="F72" s="63" t="s">
-        <v>249</v>
-      </c>
-      <c r="G72" s="63"/>
-      <c r="H72" s="95"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="B73" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" s="99"/>
-      <c r="D73" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E73" s="64" t="s">
-        <v>247</v>
-      </c>
-      <c r="F73" s="63" t="s">
-        <v>379</v>
-      </c>
-      <c r="G73" s="63"/>
-      <c r="H73" s="95"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="B74" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="C74" s="99"/>
-      <c r="D74" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E74" s="64" t="s">
-        <v>247</v>
-      </c>
-      <c r="F74" s="63" t="s">
-        <v>251</v>
-      </c>
-      <c r="G74" s="63"/>
-      <c r="H74" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="B75" s="88"/>
-      <c r="C75" s="99"/>
-      <c r="D75" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E75" s="64" t="s">
-        <v>247</v>
-      </c>
-      <c r="F75" s="63" t="s">
-        <v>252</v>
-      </c>
-      <c r="G75" s="63"/>
-      <c r="H75" s="95"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="88" t="s">
-        <v>253</v>
-      </c>
-      <c r="B76" s="88" t="s">
-        <v>253</v>
-      </c>
-      <c r="C76" s="99"/>
-      <c r="D76" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="E76" s="64" t="s">
-        <v>254</v>
-      </c>
-      <c r="F76" s="63" t="s">
-        <v>255</v>
-      </c>
-      <c r="G76" s="97"/>
-      <c r="H76" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="88" t="s">
-        <v>253</v>
-      </c>
-      <c r="B77" s="88"/>
-      <c r="C77" s="99"/>
-      <c r="D77" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E77" s="64" t="s">
-        <v>254</v>
-      </c>
-      <c r="F77" s="63" t="s">
-        <v>447</v>
-      </c>
-      <c r="G77" s="97"/>
-      <c r="H77" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="88" t="s">
-        <v>253</v>
-      </c>
-      <c r="B78" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="C78" s="99"/>
-      <c r="D78" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E78" s="64" t="s">
-        <v>444</v>
-      </c>
-      <c r="F78" s="63" t="s">
-        <v>443</v>
-      </c>
-      <c r="G78" s="97"/>
-      <c r="H78" s="95"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="88" t="s">
-        <v>253</v>
-      </c>
-      <c r="B79" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79" s="99"/>
-      <c r="D79" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E79" s="64" t="s">
-        <v>445</v>
-      </c>
-      <c r="F79" s="63" t="s">
-        <v>446</v>
-      </c>
-      <c r="G79" s="97"/>
-      <c r="H79" s="95"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="88" t="s">
-        <v>111</v>
-      </c>
-      <c r="B80" s="88" t="s">
-        <v>111</v>
-      </c>
-      <c r="C80" s="99"/>
-      <c r="D80" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E80" s="64" t="s">
-        <v>256</v>
-      </c>
-      <c r="F80" s="63" t="s">
-        <v>258</v>
-      </c>
-      <c r="G80" s="63"/>
-      <c r="H80" s="95"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="88" t="s">
-        <v>111</v>
-      </c>
-      <c r="B81" s="88" t="s">
-        <v>111</v>
-      </c>
-      <c r="C81" s="99"/>
-      <c r="D81" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="E81" s="64" t="s">
-        <v>256</v>
-      </c>
-      <c r="F81" s="63" t="s">
-        <v>260</v>
-      </c>
-      <c r="G81" s="63"/>
-      <c r="H81" s="95"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="88" t="s">
-        <v>111</v>
-      </c>
-      <c r="B82" s="88"/>
-      <c r="C82" s="99"/>
-      <c r="D82" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E82" s="64" t="s">
-        <v>256</v>
-      </c>
-      <c r="F82" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="G82" s="63"/>
-      <c r="H82" s="95"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="88" t="s">
-        <v>111</v>
-      </c>
-      <c r="B83" s="88" t="s">
-        <v>111</v>
-      </c>
-      <c r="C83" s="99"/>
-      <c r="D83" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E83" s="64" t="s">
-        <v>257</v>
-      </c>
-      <c r="F83" s="63" t="s">
-        <v>380</v>
-      </c>
-      <c r="G83" s="63"/>
-      <c r="H83" s="95"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="88" t="s">
-        <v>111</v>
-      </c>
-      <c r="B84" s="88" t="s">
-        <v>111</v>
-      </c>
-      <c r="C84" s="99"/>
-      <c r="D84" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E84" s="64" t="s">
-        <v>257</v>
-      </c>
-      <c r="F84" s="63" t="s">
-        <v>261</v>
-      </c>
-      <c r="G84" s="63"/>
-      <c r="H84" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="88" t="s">
-        <v>111</v>
-      </c>
-      <c r="B85" s="88"/>
-      <c r="C85" s="99"/>
-      <c r="D85" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E85" s="64" t="s">
-        <v>257</v>
-      </c>
-      <c r="F85" s="63" t="s">
-        <v>262</v>
-      </c>
-      <c r="G85" s="63"/>
-      <c r="H85" s="95"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="88" t="s">
-        <v>378</v>
-      </c>
-      <c r="B86" s="88" t="s">
-        <v>378</v>
-      </c>
-      <c r="C86" s="99"/>
-      <c r="D86" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E86" s="64" t="s">
-        <v>369</v>
-      </c>
-      <c r="F86" s="63" t="s">
-        <v>370</v>
-      </c>
-      <c r="G86" s="63"/>
-      <c r="H86" s="95" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="88" t="s">
-        <v>378</v>
-      </c>
-      <c r="B87" s="88" t="s">
-        <v>378</v>
-      </c>
-      <c r="C87" s="99"/>
-      <c r="D87" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="E87" s="64" t="s">
-        <v>369</v>
-      </c>
-      <c r="F87" s="63" t="s">
-        <v>372</v>
-      </c>
-      <c r="G87" s="63"/>
-      <c r="H87" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="88" t="s">
-        <v>378</v>
-      </c>
-      <c r="B88" s="88"/>
-      <c r="C88" s="99"/>
-      <c r="D88" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E88" s="64" t="s">
-        <v>369</v>
-      </c>
-      <c r="F88" s="63" t="s">
-        <v>371</v>
-      </c>
-      <c r="G88" s="63"/>
-      <c r="H88" s="95"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="88" t="s">
-        <v>378</v>
-      </c>
-      <c r="B89" s="88" t="s">
-        <v>378</v>
-      </c>
-      <c r="C89" s="99"/>
-      <c r="D89" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E89" s="64" t="s">
-        <v>373</v>
-      </c>
-      <c r="F89" s="63" t="s">
-        <v>392</v>
-      </c>
-      <c r="G89" s="63"/>
-      <c r="H89" s="95"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="88" t="s">
-        <v>378</v>
-      </c>
-      <c r="B90" s="88" t="s">
-        <v>378</v>
-      </c>
-      <c r="C90" s="99"/>
-      <c r="D90" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E90" s="64" t="s">
-        <v>373</v>
-      </c>
-      <c r="F90" s="63" t="s">
-        <v>374</v>
-      </c>
-      <c r="G90" s="63"/>
-      <c r="H90" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="88" t="s">
-        <v>378</v>
-      </c>
-      <c r="B91" s="88"/>
-      <c r="C91" s="99"/>
-      <c r="D91" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E91" s="64" t="s">
-        <v>373</v>
-      </c>
-      <c r="F91" s="63" t="s">
-        <v>375</v>
-      </c>
-      <c r="G91" s="63"/>
-      <c r="H91" s="95"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="88" t="s">
-        <v>378</v>
-      </c>
-      <c r="B92" s="88" t="s">
-        <v>378</v>
-      </c>
-      <c r="C92" s="99"/>
-      <c r="D92" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E92" s="64" t="s">
-        <v>451</v>
-      </c>
-      <c r="F92" s="63" t="s">
+      <c r="B8" s="95" t="s">
+        <v>396</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="G92" s="63"/>
-      <c r="H92" s="95"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="88" t="s">
-        <v>378</v>
-      </c>
-      <c r="B93" s="88" t="s">
-        <v>378</v>
-      </c>
-      <c r="C93" s="99"/>
-      <c r="D93" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E93" s="64" t="s">
-        <v>376</v>
-      </c>
-      <c r="F93" s="63" t="s">
-        <v>377</v>
-      </c>
-      <c r="G93" s="63"/>
-      <c r="H93" s="95"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="88" t="s">
-        <v>156</v>
-      </c>
-      <c r="B94" s="88" t="s">
-        <v>156</v>
-      </c>
-      <c r="C94" s="99"/>
-      <c r="D94" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E94" s="64" t="s">
-        <v>360</v>
-      </c>
-      <c r="F94" s="63" t="s">
-        <v>362</v>
-      </c>
-      <c r="G94" s="63"/>
-      <c r="H94" s="95" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="88" t="s">
-        <v>156</v>
-      </c>
-      <c r="B95" s="88" t="s">
-        <v>156</v>
-      </c>
-      <c r="C95" s="99"/>
-      <c r="D95" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="E95" s="64" t="s">
-        <v>360</v>
-      </c>
-      <c r="F95" s="63" t="s">
-        <v>364</v>
-      </c>
-      <c r="G95" s="63"/>
-      <c r="H95" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="88" t="s">
-        <v>156</v>
-      </c>
-      <c r="B96" s="88"/>
-      <c r="C96" s="99"/>
-      <c r="D96" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E96" s="64" t="s">
-        <v>360</v>
-      </c>
-      <c r="F96" s="63" t="s">
-        <v>363</v>
-      </c>
-      <c r="G96" s="63"/>
-      <c r="H96" s="95" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="88" t="s">
-        <v>156</v>
-      </c>
-      <c r="B97" s="88" t="s">
-        <v>156</v>
-      </c>
-      <c r="C97" s="99"/>
-      <c r="D97" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E97" s="64" t="s">
-        <v>361</v>
-      </c>
-      <c r="F97" s="63" t="s">
-        <v>391</v>
-      </c>
-      <c r="G97" s="63"/>
-      <c r="H97" s="95"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="88" t="s">
-        <v>156</v>
-      </c>
-      <c r="B98" s="88" t="s">
-        <v>156</v>
-      </c>
-      <c r="C98" s="99"/>
-      <c r="D98" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E98" s="64" t="s">
-        <v>361</v>
-      </c>
-      <c r="F98" s="63" t="s">
-        <v>365</v>
-      </c>
-      <c r="G98" s="63"/>
-      <c r="H98" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="88" t="s">
-        <v>156</v>
-      </c>
-      <c r="B99" s="88"/>
-      <c r="C99" s="99"/>
-      <c r="D99" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E99" s="64" t="s">
-        <v>361</v>
-      </c>
-      <c r="F99" s="63" t="s">
-        <v>366</v>
-      </c>
-      <c r="G99" s="63"/>
-      <c r="H99" s="95"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="88" t="s">
-        <v>156</v>
-      </c>
-      <c r="B100" s="88" t="s">
-        <v>156</v>
-      </c>
-      <c r="C100" s="99"/>
-      <c r="D100" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E100" s="64" t="s">
-        <v>367</v>
-      </c>
-      <c r="F100" s="63" t="s">
-        <v>368</v>
-      </c>
-      <c r="G100" s="63"/>
-      <c r="H100" s="95"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="B101" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="C101" s="99"/>
-      <c r="D101" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E101" s="64" t="s">
-        <v>319</v>
-      </c>
-      <c r="F101" s="63" t="s">
-        <v>321</v>
-      </c>
-      <c r="G101" s="63"/>
-      <c r="H101" s="95"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="B102" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="C102" s="99"/>
-      <c r="D102" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="E102" s="64" t="s">
-        <v>319</v>
-      </c>
-      <c r="F102" s="63" t="s">
-        <v>323</v>
-      </c>
-      <c r="G102" s="63"/>
-      <c r="H102" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="B103" s="88"/>
-      <c r="C103" s="99"/>
-      <c r="D103" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E103" s="64" t="s">
-        <v>319</v>
-      </c>
-      <c r="F103" s="63" t="s">
-        <v>322</v>
-      </c>
-      <c r="G103" s="63"/>
-      <c r="H103" s="95"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="B104" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="C104" s="99"/>
-      <c r="D104" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E104" s="64" t="s">
-        <v>449</v>
-      </c>
-      <c r="F104" s="63" t="s">
-        <v>450</v>
-      </c>
-      <c r="G104" s="63"/>
-      <c r="H104" s="95"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="B105" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="C105" s="99"/>
-      <c r="D105" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E105" s="64" t="s">
-        <v>320</v>
-      </c>
-      <c r="F105" s="63" t="s">
-        <v>387</v>
-      </c>
-      <c r="G105" s="63"/>
-      <c r="H105" s="95"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="B106" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="C106" s="99"/>
-      <c r="D106" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E106" s="64" t="s">
-        <v>320</v>
-      </c>
-      <c r="F106" s="63" t="s">
-        <v>324</v>
-      </c>
-      <c r="G106" s="63"/>
-      <c r="H106" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="B107" s="88"/>
-      <c r="C107" s="99"/>
-      <c r="D107" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E107" s="64" t="s">
-        <v>320</v>
-      </c>
-      <c r="F107" s="63" t="s">
-        <v>325</v>
-      </c>
-      <c r="G107" s="63"/>
-      <c r="H107" s="95"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="B108" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="C108" s="99"/>
-      <c r="D108" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E108" s="64" t="s">
-        <v>278</v>
-      </c>
-      <c r="F108" s="63" t="s">
-        <v>280</v>
-      </c>
-      <c r="G108" s="63"/>
-      <c r="H108" s="95"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="B109" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="C109" s="99"/>
-      <c r="D109" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="E109" s="64" t="s">
-        <v>278</v>
-      </c>
-      <c r="F109" s="63" t="s">
-        <v>282</v>
-      </c>
-      <c r="G109" s="63"/>
-      <c r="H109" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="B110" s="88"/>
-      <c r="C110" s="99"/>
-      <c r="D110" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E110" s="64" t="s">
-        <v>278</v>
-      </c>
-      <c r="F110" s="63" t="s">
-        <v>281</v>
-      </c>
-      <c r="G110" s="63"/>
-      <c r="H110" s="95"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="B111" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="C111" s="99"/>
-      <c r="D111" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E111" s="64" t="s">
-        <v>279</v>
-      </c>
-      <c r="F111" s="63" t="s">
-        <v>383</v>
-      </c>
-      <c r="G111" s="63"/>
-      <c r="H111" s="95"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="B112" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="C112" s="99"/>
-      <c r="D112" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E112" s="64" t="s">
-        <v>279</v>
-      </c>
-      <c r="F112" s="63" t="s">
-        <v>283</v>
-      </c>
-      <c r="G112" s="63"/>
-      <c r="H112" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="B113" s="88"/>
-      <c r="C113" s="99"/>
-      <c r="D113" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E113" s="64" t="s">
-        <v>279</v>
-      </c>
-      <c r="F113" s="63" t="s">
-        <v>284</v>
-      </c>
-      <c r="G113" s="63"/>
-      <c r="H113" s="95"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="B114" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="C114" s="99"/>
-      <c r="D114" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E114" s="64" t="s">
-        <v>209</v>
-      </c>
-      <c r="F114" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="G114" s="63"/>
-      <c r="H114" s="95"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="B115" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="C115" s="99"/>
-      <c r="D115" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="E115" s="64" t="s">
-        <v>209</v>
-      </c>
-      <c r="F115" s="63" t="s">
-        <v>212</v>
-      </c>
-      <c r="G115" s="63"/>
-      <c r="H115" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="B116" s="88"/>
-      <c r="C116" s="99"/>
-      <c r="D116" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E116" s="64" t="s">
-        <v>209</v>
-      </c>
-      <c r="F116" s="63" t="s">
-        <v>211</v>
-      </c>
-      <c r="G116" s="63"/>
-      <c r="H116" s="95"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="B117" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="C117" s="99"/>
-      <c r="D117" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E117" s="64" t="s">
-        <v>214</v>
-      </c>
-      <c r="F117" s="63" t="s">
-        <v>215</v>
-      </c>
-      <c r="G117" s="63"/>
-      <c r="H117" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="B118" s="88"/>
-      <c r="C118" s="99"/>
-      <c r="D118" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E118" s="64" t="s">
-        <v>214</v>
-      </c>
-      <c r="F118" s="63" t="s">
-        <v>217</v>
-      </c>
-      <c r="G118" s="63"/>
-      <c r="H118" s="95"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="B119" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="C119" s="99"/>
-      <c r="D119" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E119" s="64" t="s">
-        <v>213</v>
-      </c>
-      <c r="F119" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="G119" s="63"/>
-      <c r="H119" s="95"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="88" t="s">
-        <v>270</v>
-      </c>
-      <c r="B120" s="88" t="s">
-        <v>270</v>
-      </c>
-      <c r="C120" s="99"/>
-      <c r="D120" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E120" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="F120" s="63" t="s">
-        <v>273</v>
-      </c>
-      <c r="G120" s="63"/>
-      <c r="H120" s="95" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="88" t="s">
-        <v>270</v>
-      </c>
-      <c r="B121" s="88" t="s">
-        <v>270</v>
-      </c>
-      <c r="C121" s="99"/>
-      <c r="D121" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="E121" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="F121" s="63" t="s">
-        <v>275</v>
-      </c>
-      <c r="G121" s="63"/>
-      <c r="H121" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="88" t="s">
-        <v>270</v>
-      </c>
-      <c r="B122" s="88"/>
-      <c r="C122" s="99"/>
-      <c r="D122" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E122" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="F122" s="63" t="s">
-        <v>274</v>
-      </c>
-      <c r="G122" s="63"/>
-      <c r="H122" s="95" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="88" t="s">
-        <v>270</v>
-      </c>
-      <c r="B123" s="88" t="s">
-        <v>270</v>
-      </c>
-      <c r="C123" s="99"/>
-      <c r="D123" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E123" s="64" t="s">
-        <v>272</v>
-      </c>
-      <c r="F123" s="63" t="s">
-        <v>382</v>
-      </c>
-      <c r="G123" s="63"/>
-      <c r="H123" s="95"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="88" t="s">
-        <v>270</v>
-      </c>
-      <c r="B124" s="88" t="s">
-        <v>270</v>
-      </c>
-      <c r="C124" s="99"/>
-      <c r="D124" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E124" s="64" t="s">
-        <v>272</v>
-      </c>
-      <c r="F124" s="63" t="s">
-        <v>276</v>
-      </c>
-      <c r="G124" s="63"/>
-      <c r="H124" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="88" t="s">
-        <v>270</v>
-      </c>
-      <c r="B125" s="88"/>
-      <c r="C125" s="99"/>
-      <c r="D125" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E125" s="64" t="s">
-        <v>272</v>
-      </c>
-      <c r="F125" s="63" t="s">
-        <v>277</v>
-      </c>
-      <c r="G125" s="63"/>
-      <c r="H125" s="95"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="B126" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="C126" s="99"/>
-      <c r="D126" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E126" s="64" t="s">
-        <v>224</v>
-      </c>
-      <c r="F126" s="63" t="s">
-        <v>225</v>
-      </c>
-      <c r="G126" s="63"/>
-      <c r="H126" s="95" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="B127" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="C127" s="99"/>
-      <c r="D127" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="E127" s="64" t="s">
-        <v>224</v>
-      </c>
-      <c r="F127" s="63" t="s">
-        <v>227</v>
-      </c>
-      <c r="G127" s="63"/>
-      <c r="H127" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="B128" s="88"/>
-      <c r="C128" s="99"/>
-      <c r="D128" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E128" s="64" t="s">
-        <v>224</v>
-      </c>
-      <c r="F128" s="63" t="s">
-        <v>226</v>
-      </c>
-      <c r="G128" s="63"/>
-      <c r="H128" s="95" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="B129" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="C129" s="99"/>
-      <c r="D129" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E129" s="64" t="s">
-        <v>228</v>
-      </c>
-      <c r="F129" s="63" t="s">
-        <v>208</v>
-      </c>
-      <c r="G129" s="63"/>
-      <c r="H129" s="95"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="B130" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="C130" s="99"/>
-      <c r="D130" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E130" s="64" t="s">
-        <v>228</v>
-      </c>
-      <c r="F130" s="63" t="s">
-        <v>229</v>
-      </c>
-      <c r="G130" s="63"/>
-      <c r="H130" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="B131" s="88"/>
-      <c r="C131" s="99"/>
-      <c r="D131" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E131" s="64" t="s">
-        <v>228</v>
-      </c>
-      <c r="F131" s="63" t="s">
-        <v>230</v>
-      </c>
-      <c r="G131" s="63"/>
-      <c r="H131" s="95"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="B132" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="C132" s="99"/>
-      <c r="D132" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E132" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="F132" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="G132" s="63"/>
-      <c r="H132" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" s="88" t="s">
-        <v>245</v>
-      </c>
-      <c r="B133" s="88" t="s">
-        <v>245</v>
-      </c>
-      <c r="C133" s="99"/>
-      <c r="D133" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="E133" s="64" t="s">
-        <v>244</v>
-      </c>
-      <c r="F133" s="63" t="s">
-        <v>440</v>
-      </c>
-      <c r="G133" s="63"/>
-      <c r="H133" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="88" t="s">
-        <v>245</v>
-      </c>
-      <c r="B134" s="88"/>
-      <c r="C134" s="99"/>
-      <c r="D134" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E134" s="64" t="s">
-        <v>244</v>
-      </c>
-      <c r="F134" s="63" t="s">
-        <v>439</v>
-      </c>
-      <c r="G134" s="63"/>
-      <c r="H134" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" s="88" t="s">
-        <v>245</v>
-      </c>
-      <c r="B135" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="C135" s="99"/>
-      <c r="D135" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E135" s="64" t="s">
-        <v>441</v>
-      </c>
-      <c r="F135" s="63" t="s">
-        <v>442</v>
-      </c>
-      <c r="G135" s="63"/>
-      <c r="H135" s="95"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" s="88" t="s">
-        <v>245</v>
-      </c>
-      <c r="B136" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="C136" s="99"/>
-      <c r="D136" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E136" s="64" t="s">
-        <v>437</v>
-      </c>
-      <c r="F136" s="63" t="s">
-        <v>438</v>
-      </c>
-      <c r="G136" s="63"/>
-      <c r="H136" s="95"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137" s="88" t="s">
-        <v>242</v>
-      </c>
-      <c r="B137" s="88" t="s">
-        <v>242</v>
-      </c>
-      <c r="C137" s="99"/>
-      <c r="D137" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="E137" s="64" t="s">
-        <v>243</v>
-      </c>
-      <c r="F137" s="63" t="s">
-        <v>433</v>
-      </c>
-      <c r="G137" s="63"/>
-      <c r="H137" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138" s="88" t="s">
-        <v>242</v>
-      </c>
-      <c r="B138" s="88"/>
-      <c r="C138" s="99"/>
-      <c r="D138" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E138" s="64" t="s">
-        <v>243</v>
-      </c>
-      <c r="F138" s="63" t="s">
-        <v>432</v>
-      </c>
-      <c r="G138" s="63"/>
-      <c r="H138" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" s="88" t="s">
-        <v>242</v>
-      </c>
-      <c r="B139" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="C139" s="99"/>
-      <c r="D139" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E139" s="64" t="s">
-        <v>429</v>
-      </c>
-      <c r="F139" s="63" t="s">
-        <v>430</v>
-      </c>
-      <c r="G139" s="63"/>
-      <c r="H139" s="95"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" s="88" t="s">
-        <v>242</v>
-      </c>
-      <c r="B140" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="C140" s="99"/>
-      <c r="D140" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E140" s="64" t="s">
-        <v>431</v>
-      </c>
-      <c r="F140" s="63" t="s">
-        <v>434</v>
-      </c>
-      <c r="G140" s="63"/>
-      <c r="H140" s="95"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141" s="88" t="s">
-        <v>242</v>
-      </c>
-      <c r="B141" s="88" t="s">
-        <v>457</v>
-      </c>
-      <c r="C141" s="99"/>
-      <c r="D141" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E141" s="64" t="s">
-        <v>435</v>
-      </c>
-      <c r="F141" s="63" t="s">
-        <v>436</v>
-      </c>
-      <c r="G141" s="63"/>
-      <c r="H141" s="95"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B142" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="C142" s="99"/>
-      <c r="D142" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E142" s="64" t="s">
-        <v>194</v>
-      </c>
-      <c r="F142" s="65" t="s">
-        <v>195</v>
-      </c>
-      <c r="G142" s="66" t="s">
-        <v>191</v>
-      </c>
-      <c r="H142" s="94" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A143" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B143" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="C143" s="99"/>
-      <c r="D143" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E143" s="64" t="s">
-        <v>196</v>
-      </c>
-      <c r="F143" s="65" t="s">
-        <v>197</v>
-      </c>
-      <c r="G143" s="67" t="s">
-        <v>193</v>
-      </c>
-      <c r="H143" s="94"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A144" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B144" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="C144" s="99"/>
-      <c r="D144" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E144" s="64" t="s">
-        <v>196</v>
-      </c>
-      <c r="F144" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="G144" s="67" t="s">
-        <v>193</v>
-      </c>
-      <c r="H144" s="94" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B145" s="88"/>
-      <c r="C145" s="99"/>
-      <c r="D145" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E145" s="64" t="s">
-        <v>196</v>
-      </c>
-      <c r="F145" s="65" t="s">
-        <v>199</v>
-      </c>
-      <c r="G145" s="66" t="s">
-        <v>191</v>
-      </c>
-      <c r="H145" s="94"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B146" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="C146" s="99"/>
-      <c r="D146" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="E146" s="64" t="s">
-        <v>206</v>
-      </c>
-      <c r="F146" s="65" t="s">
-        <v>207</v>
-      </c>
-      <c r="G146" s="68" t="s">
-        <v>187</v>
-      </c>
-      <c r="H146" s="94" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A147" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B147" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="C147" s="99"/>
-      <c r="D147" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E147" s="64" t="s">
-        <v>218</v>
-      </c>
-      <c r="F147" s="65" t="s">
-        <v>219</v>
-      </c>
-      <c r="G147" s="68"/>
-      <c r="H147" s="94"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A148" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B148" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="C148" s="99"/>
-      <c r="D148" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E148" s="64" t="s">
-        <v>222</v>
-      </c>
-      <c r="F148" s="65" t="s">
-        <v>223</v>
-      </c>
-      <c r="G148" s="68"/>
-      <c r="H148" s="94"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A149" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B149" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="C149" s="99"/>
-      <c r="D149" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E149" s="64" t="s">
-        <v>220</v>
-      </c>
-      <c r="F149" s="65" t="s">
-        <v>221</v>
-      </c>
-      <c r="G149" s="68"/>
-      <c r="H149" s="94"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A150" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B150" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="C150" s="99"/>
-      <c r="D150" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="E150" s="64" t="s">
-        <v>202</v>
-      </c>
-      <c r="F150" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="G150" s="68" t="s">
-        <v>187</v>
-      </c>
-      <c r="H150" s="94" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A151" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B151" s="88"/>
-      <c r="C151" s="99"/>
-      <c r="D151" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="E151" s="64" t="s">
-        <v>204</v>
-      </c>
-      <c r="F151" s="65" t="s">
-        <v>205</v>
-      </c>
-      <c r="G151" s="69" t="s">
-        <v>189</v>
-      </c>
-      <c r="H151" s="94"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A152" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B152" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="C152" s="99"/>
-      <c r="D152" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="E152" s="64" t="s">
-        <v>200</v>
-      </c>
-      <c r="F152" s="65" t="s">
-        <v>201</v>
-      </c>
-      <c r="G152" s="68" t="s">
-        <v>187</v>
-      </c>
-      <c r="H152" s="94" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A153" s="88" t="s">
-        <v>402</v>
-      </c>
-      <c r="B153" s="88" t="s">
-        <v>402</v>
-      </c>
-      <c r="C153" s="99"/>
-      <c r="D153" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E153" s="64" t="s">
-        <v>403</v>
-      </c>
-      <c r="F153" s="63" t="s">
-        <v>408</v>
-      </c>
-      <c r="G153" s="63"/>
-      <c r="H153" s="95"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A154" s="88" t="s">
-        <v>402</v>
-      </c>
-      <c r="B154" s="88" t="s">
-        <v>402</v>
-      </c>
-      <c r="C154" s="99"/>
-      <c r="D154" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="E154" s="64" t="s">
-        <v>403</v>
-      </c>
-      <c r="F154" s="63" t="s">
-        <v>410</v>
-      </c>
-      <c r="G154" s="63"/>
-      <c r="H154" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A155" s="88" t="s">
-        <v>402</v>
-      </c>
-      <c r="B155" s="88"/>
-      <c r="C155" s="99"/>
-      <c r="D155" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E155" s="64" t="s">
-        <v>403</v>
-      </c>
-      <c r="F155" s="63" t="s">
-        <v>409</v>
-      </c>
-      <c r="G155" s="63"/>
-      <c r="H155" s="95"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A156" s="88" t="s">
-        <v>402</v>
-      </c>
-      <c r="B156" s="88" t="s">
-        <v>402</v>
-      </c>
-      <c r="C156" s="99"/>
-      <c r="D156" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E156" s="64" t="s">
-        <v>404</v>
-      </c>
-      <c r="F156" s="63" t="s">
-        <v>405</v>
-      </c>
-      <c r="G156" s="63"/>
-      <c r="H156" s="95"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A157" s="88" t="s">
-        <v>402</v>
-      </c>
-      <c r="B157" s="88" t="s">
-        <v>402</v>
-      </c>
-      <c r="C157" s="99"/>
-      <c r="D157" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E157" s="64" t="s">
-        <v>404</v>
-      </c>
-      <c r="F157" s="63" t="s">
-        <v>406</v>
-      </c>
-      <c r="G157" s="63"/>
-      <c r="H157" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A158" s="88" t="s">
-        <v>402</v>
-      </c>
-      <c r="B158" s="88"/>
-      <c r="C158" s="99"/>
-      <c r="D158" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E158" s="64" t="s">
-        <v>404</v>
-      </c>
-      <c r="F158" s="63" t="s">
-        <v>407</v>
-      </c>
-      <c r="G158" s="63"/>
-      <c r="H158" s="95"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A159" s="88" t="s">
-        <v>402</v>
-      </c>
-      <c r="B159" s="88" t="s">
-        <v>402</v>
-      </c>
-      <c r="C159" s="99"/>
-      <c r="D159" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E159" s="64" t="s">
-        <v>411</v>
-      </c>
-      <c r="F159" s="63" t="s">
-        <v>412</v>
-      </c>
-      <c r="G159" s="63"/>
-      <c r="H159" s="95"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A160" s="88" t="s">
-        <v>88</v>
-      </c>
-      <c r="B160" s="88" t="s">
-        <v>88</v>
-      </c>
-      <c r="C160" s="99"/>
-      <c r="D160" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="E160" s="64" t="s">
-        <v>416</v>
-      </c>
-      <c r="F160" s="63" t="s">
-        <v>413</v>
-      </c>
-      <c r="G160" s="63"/>
-      <c r="H160" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A161" s="88" t="s">
-        <v>88</v>
-      </c>
-      <c r="B161" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="C161" s="99"/>
-      <c r="D161" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E161" s="64" t="s">
-        <v>455</v>
-      </c>
-      <c r="F161" s="63" t="s">
-        <v>456</v>
-      </c>
-      <c r="G161" s="63"/>
-      <c r="H161" s="95"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A162" s="88" t="s">
-        <v>88</v>
-      </c>
-      <c r="B162" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="C162" s="99"/>
-      <c r="D162" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E162" s="64" t="s">
-        <v>417</v>
-      </c>
-      <c r="F162" s="63" t="s">
-        <v>414</v>
-      </c>
-      <c r="G162" s="63"/>
-      <c r="H162" s="95"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A163" s="88" t="s">
-        <v>88</v>
-      </c>
-      <c r="B163" s="88"/>
-      <c r="C163" s="99"/>
-      <c r="D163" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E163" s="64" t="s">
-        <v>417</v>
-      </c>
-      <c r="F163" s="63" t="s">
-        <v>415</v>
-      </c>
-      <c r="G163" s="63"/>
-      <c r="H163" s="95"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A164" s="88" t="s">
-        <v>88</v>
-      </c>
-      <c r="B164" s="88"/>
-      <c r="C164" s="99"/>
-      <c r="D164" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E164" s="64" t="s">
-        <v>418</v>
-      </c>
-      <c r="F164" s="63" t="s">
-        <v>419</v>
-      </c>
-      <c r="G164" s="63"/>
-      <c r="H164" s="95"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A165" s="88" t="s">
+      <c r="D8" s="96" t="s">
         <v>168</v>
       </c>
-      <c r="B165" s="88" t="s">
-        <v>168</v>
-      </c>
-      <c r="C165" s="99"/>
-      <c r="D165" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E165" s="64" t="s">
-        <v>393</v>
-      </c>
-      <c r="F165" s="63" t="s">
-        <v>395</v>
-      </c>
-      <c r="G165" s="63"/>
-      <c r="H165" s="95"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A166" s="88" t="s">
-        <v>168</v>
-      </c>
-      <c r="B166" s="88" t="s">
-        <v>168</v>
-      </c>
-      <c r="C166" s="99"/>
-      <c r="D166" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="E166" s="64" t="s">
-        <v>393</v>
-      </c>
-      <c r="F166" s="63" t="s">
-        <v>397</v>
-      </c>
-      <c r="G166" s="63"/>
-      <c r="H166" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A167" s="88" t="s">
-        <v>168</v>
-      </c>
-      <c r="B167" s="88"/>
-      <c r="C167" s="99"/>
-      <c r="D167" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E167" s="64" t="s">
-        <v>393</v>
-      </c>
-      <c r="F167" s="63" t="s">
-        <v>396</v>
-      </c>
-      <c r="G167" s="63"/>
-      <c r="H167" s="95"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A168" s="88" t="s">
-        <v>168</v>
-      </c>
-      <c r="B168" s="88" t="s">
-        <v>168</v>
-      </c>
-      <c r="C168" s="99"/>
-      <c r="D168" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E168" s="64" t="s">
-        <v>394</v>
-      </c>
-      <c r="F168" s="63" t="s">
-        <v>398</v>
-      </c>
-      <c r="G168" s="63"/>
-      <c r="H168" s="95"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A169" s="88" t="s">
-        <v>168</v>
-      </c>
-      <c r="B169" s="88" t="s">
-        <v>168</v>
-      </c>
-      <c r="C169" s="99"/>
-      <c r="D169" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E169" s="64" t="s">
-        <v>394</v>
-      </c>
-      <c r="F169" s="63" t="s">
-        <v>399</v>
-      </c>
-      <c r="G169" s="63"/>
-      <c r="H169" s="95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A170" s="88" t="s">
-        <v>168</v>
-      </c>
-      <c r="B170" s="88"/>
-      <c r="C170" s="99"/>
-      <c r="D170" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E170" s="64" t="s">
-        <v>394</v>
-      </c>
-      <c r="F170" s="63" t="s">
-        <v>400</v>
-      </c>
-      <c r="G170" s="63"/>
-      <c r="H170" s="95"/>
-    </row>
-    <row r="171" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="90" t="s">
-        <v>168</v>
-      </c>
-      <c r="B171" s="90" t="s">
-        <v>168</v>
-      </c>
-      <c r="C171" s="101"/>
-      <c r="D171" s="91" t="s">
-        <v>186</v>
-      </c>
-      <c r="E171" s="92" t="s">
-        <v>401</v>
-      </c>
-      <c r="F171" s="93" t="s">
-        <v>458</v>
-      </c>
-      <c r="G171" s="93"/>
-      <c r="H171" s="96"/>
+      <c r="E8" s="97"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="94"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="97"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="94"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="97"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="94"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="97"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="94"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="97"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="94"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="97"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="94"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="97"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="94"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="97"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="94"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="97"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="94"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="97"/>
     </row>
   </sheetData>
-  <sortState ref="A3:H171">
-    <sortCondition ref="E3:E171"/>
-    <sortCondition ref="D3:D171" customList="GET,PUT,POST,DELETE"/>
-  </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/documentation/DataAndAPIMatchAware.xlsx
+++ b/documentation/DataAndAPIMatchAware.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\match-aware\documentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16212" windowHeight="9060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="UserEntities" sheetId="1" r:id="rId1"/>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="468">
   <si>
     <t>USER</t>
   </si>
@@ -372,9 +367,6 @@
     <t>FINE</t>
   </si>
   <si>
-    <t>numeric</t>
-  </si>
-  <si>
     <t>ACCESS_REQUEST</t>
   </si>
   <si>
@@ -552,9 +544,6 @@
     <t>MOBILE</t>
   </si>
   <si>
-    <t>ORGANIZAZTION</t>
-  </si>
-  <si>
     <t>SHORT_NAME</t>
   </si>
   <si>
@@ -1387,12 +1376,63 @@
   </si>
   <si>
     <t>Retrieve user settings for this user</t>
+  </si>
+  <si>
+    <t>CHANGE_REQUESTS</t>
+  </si>
+  <si>
+    <t>FACILITIES</t>
+  </si>
+  <si>
+    <t>FIELDS</t>
+  </si>
+  <si>
+    <t>FIELD_SIZES</t>
+  </si>
+  <si>
+    <t>LEAGUES</t>
+  </si>
+  <si>
+    <t>LEAGUE_TYPES</t>
+  </si>
+  <si>
+    <t>NOTIFICATIONS</t>
+  </si>
+  <si>
+    <t>ORGANIZAZTIONS</t>
+  </si>
+  <si>
+    <t>RESCHEDULE_RULES</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>ROLES</t>
+  </si>
+  <si>
+    <t>TEAMS</t>
+  </si>
+  <si>
+    <t>USERS</t>
+  </si>
+  <si>
+    <t>USER_ROLES</t>
+  </si>
+  <si>
+    <t>AGE_GROUPS</t>
+  </si>
+  <si>
+    <t>CLUBS</t>
+  </si>
+  <si>
+    <t>CLUB_MEMBERS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1887,7 +1927,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2108,6 +2148,21 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2141,20 +2196,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2462,7 +2505,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2470,71 +2513,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W71"/>
+  <dimension ref="A1:W64"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23:K28"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P60" sqref="P60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.5546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.5546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="27.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="32.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.5546875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="17.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.5703125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85"/>
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="90" t="s">
+        <v>463</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="92"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="82"/>
-      <c r="M3" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="82"/>
-    </row>
-    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G3" s="87" t="s">
+        <v>455</v>
+      </c>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="89"/>
+      <c r="M3" s="87" t="s">
+        <v>452</v>
+      </c>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="89"/>
+    </row>
+    <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
         <v>1</v>
       </c>
@@ -2581,7 +2624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
         <v>16</v>
       </c>
@@ -2628,7 +2671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>78</v>
       </c>
@@ -2665,7 +2708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>79</v>
       </c>
@@ -2678,7 +2721,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="24"/>
       <c r="G7" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>3</v>
@@ -2689,7 +2732,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="24"/>
       <c r="M7" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>3</v>
@@ -2700,7 +2743,7 @@
       <c r="P7" s="8"/>
       <c r="Q7" s="24"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>80</v>
       </c>
@@ -2733,7 +2776,7 @@
       <c r="P8" s="8"/>
       <c r="Q8" s="24"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>81</v>
       </c>
@@ -2764,7 +2807,7 @@
       <c r="P9" s="8"/>
       <c r="Q9" s="24"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>82</v>
       </c>
@@ -2799,7 +2842,7 @@
       <c r="P10" s="12"/>
       <c r="Q10" s="24"/>
     </row>
-    <row r="11" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="38" t="s">
         <v>83</v>
       </c>
@@ -2834,7 +2877,7 @@
       <c r="U11" s="51"/>
       <c r="W11" s="51"/>
     </row>
-    <row r="12" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="38" t="s">
         <v>43</v>
       </c>
@@ -2861,7 +2904,7 @@
       <c r="U12" s="51"/>
       <c r="W12" s="51"/>
     </row>
-    <row r="13" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="s">
         <v>44</v>
       </c>
@@ -2871,13 +2914,13 @@
       <c r="C13" s="21"/>
       <c r="D13" s="8"/>
       <c r="E13" s="24"/>
-      <c r="G13" s="80" t="s">
+      <c r="G13" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="82"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="89"/>
       <c r="M13" s="10" t="s">
         <v>48</v>
       </c>
@@ -2890,7 +2933,7 @@
       <c r="U13" s="51"/>
       <c r="W13" s="51"/>
     </row>
-    <row r="14" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="38" t="s">
         <v>45</v>
       </c>
@@ -2927,7 +2970,7 @@
       <c r="U14" s="51"/>
       <c r="W14" s="51"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>84</v>
       </c>
@@ -2960,7 +3003,7 @@
       <c r="U15" s="51"/>
       <c r="W15" s="51"/>
     </row>
-    <row r="16" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="38" t="s">
         <v>46</v>
       </c>
@@ -2993,7 +3036,7 @@
       <c r="U16" s="51"/>
       <c r="W16" s="51"/>
     </row>
-    <row r="17" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>85</v>
       </c>
@@ -3017,25 +3060,25 @@
       <c r="U17" s="51"/>
       <c r="W17" s="51"/>
     </row>
-    <row r="18" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E18" s="24"/>
-      <c r="G18" s="80" t="s">
-        <v>111</v>
-      </c>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="82"/>
+      <c r="G18" s="87" t="s">
+        <v>456</v>
+      </c>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="89"/>
       <c r="M18" s="10" t="s">
         <v>54</v>
       </c>
@@ -3048,16 +3091,16 @@
       <c r="U18" s="51"/>
       <c r="W18" s="51"/>
     </row>
-    <row r="19" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E19" s="24"/>
       <c r="G19" s="48" t="s">
@@ -3087,7 +3130,7 @@
       <c r="U19" s="51"/>
       <c r="W19" s="51"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>86</v>
       </c>
@@ -3124,7 +3167,7 @@
       <c r="U20" s="51"/>
       <c r="W20" s="51"/>
     </row>
-    <row r="21" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>87</v>
       </c>
@@ -3157,7 +3200,7 @@
       <c r="U21" s="51"/>
       <c r="W21" s="51"/>
     </row>
-    <row r="22" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G22" s="16"/>
       <c r="H22" s="41"/>
       <c r="I22" s="30"/>
@@ -3175,21 +3218,21 @@
       <c r="U22" s="51"/>
       <c r="W22" s="51"/>
     </row>
-    <row r="23" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="88"/>
-      <c r="G23" s="83" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="85"/>
+    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="93" t="s">
+        <v>464</v>
+      </c>
+      <c r="B23" s="94"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="95"/>
+      <c r="G23" s="90" t="s">
+        <v>465</v>
+      </c>
+      <c r="H23" s="91"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="92"/>
       <c r="M23" s="10" t="s">
         <v>59</v>
       </c>
@@ -3202,7 +3245,7 @@
       <c r="U23" s="51"/>
       <c r="W23" s="51"/>
     </row>
-    <row r="24" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>1</v>
       </c>
@@ -3245,7 +3288,7 @@
       <c r="U24" s="51"/>
       <c r="W24" s="51"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>91</v>
       </c>
@@ -3286,7 +3329,7 @@
       <c r="U25" s="51"/>
       <c r="W25" s="51"/>
     </row>
-    <row r="26" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>92</v>
       </c>
@@ -3323,7 +3366,7 @@
       <c r="U26" s="51"/>
       <c r="W26" s="51"/>
     </row>
-    <row r="27" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -3353,14 +3396,14 @@
       <c r="Q27" s="9"/>
       <c r="W27" s="51"/>
     </row>
-    <row r="28" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="86" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="87"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="88"/>
+    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="93" t="s">
+        <v>461</v>
+      </c>
+      <c r="B28" s="94"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="95"/>
       <c r="G28" s="13" t="s">
         <v>12</v>
       </c>
@@ -3374,7 +3417,7 @@
       <c r="K28" s="25"/>
       <c r="W28" s="51"/>
     </row>
-    <row r="29" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>1</v>
       </c>
@@ -3390,16 +3433,16 @@
       <c r="E29" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="80" t="s">
-        <v>69</v>
-      </c>
-      <c r="N29" s="81"/>
-      <c r="O29" s="81"/>
-      <c r="P29" s="81"/>
-      <c r="Q29" s="82"/>
+      <c r="M29" s="87" t="s">
+        <v>453</v>
+      </c>
+      <c r="N29" s="88"/>
+      <c r="O29" s="88"/>
+      <c r="P29" s="88"/>
+      <c r="Q29" s="89"/>
       <c r="W29" s="51"/>
     </row>
-    <row r="30" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>16</v>
       </c>
@@ -3415,13 +3458,13 @@
       <c r="E30" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G30" s="80" t="s">
+      <c r="G30" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="81"/>
-      <c r="K30" s="82"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="89"/>
       <c r="M30" s="17" t="s">
         <v>1</v>
       </c>
@@ -3438,7 +3481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>12</v>
       </c>
@@ -3485,7 +3528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -3516,7 +3559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -3545,7 +3588,7 @@
       <c r="P33" s="8"/>
       <c r="Q33" s="29"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -3574,7 +3617,7 @@
       <c r="P34" s="8"/>
       <c r="Q34" s="29"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -3601,7 +3644,7 @@
       <c r="P35" s="8"/>
       <c r="Q35" s="9"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -3628,7 +3671,7 @@
       <c r="P36" s="8"/>
       <c r="Q36" s="9"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -3655,7 +3698,7 @@
       <c r="P37" s="8"/>
       <c r="Q37" s="9"/>
     </row>
-    <row r="38" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -3682,7 +3725,7 @@
       <c r="P38" s="8"/>
       <c r="Q38" s="9"/>
     </row>
-    <row r="39" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G39" s="10" t="s">
         <v>31</v>
       </c>
@@ -3702,14 +3745,14 @@
       <c r="P39" s="8"/>
       <c r="Q39" s="9"/>
     </row>
-    <row r="40" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="80" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" s="81"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="82"/>
+    <row r="40" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="87" t="s">
+        <v>462</v>
+      </c>
+      <c r="B40" s="88"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="89"/>
       <c r="F40" s="16"/>
       <c r="G40" s="10" t="s">
         <v>32</v>
@@ -3732,7 +3775,7 @@
       </c>
       <c r="Q40" s="15"/>
     </row>
-    <row r="41" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
         <v>1</v>
       </c>
@@ -3758,7 +3801,7 @@
       <c r="J41" s="8"/>
       <c r="K41" s="9"/>
     </row>
-    <row r="42" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>16</v>
       </c>
@@ -3783,15 +3826,15 @@
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="9"/>
-      <c r="M42" s="80" t="s">
-        <v>64</v>
-      </c>
-      <c r="N42" s="81"/>
-      <c r="O42" s="81"/>
-      <c r="P42" s="81"/>
-      <c r="Q42" s="82"/>
-    </row>
-    <row r="43" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M42" s="87" t="s">
+        <v>454</v>
+      </c>
+      <c r="N42" s="88"/>
+      <c r="O42" s="88"/>
+      <c r="P42" s="88"/>
+      <c r="Q42" s="89"/>
+    </row>
+    <row r="43" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>12</v>
       </c>
@@ -3830,12 +3873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A44" s="10"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="29"/>
+    <row r="44" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G44" s="10" t="s">
         <v>36</v>
       </c>
@@ -3861,12 +3899,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A45" s="10"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="9"/>
+    <row r="45" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="87" t="s">
+        <v>466</v>
+      </c>
+      <c r="B45" s="88"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="88"/>
+      <c r="E45" s="89"/>
       <c r="G45" s="10" t="s">
         <v>37</v>
       </c>
@@ -3890,12 +3930,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="10"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="9"/>
+    <row r="46" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="G46" s="13" t="s">
         <v>38</v>
       </c>
@@ -3915,12 +3965,22 @@
       <c r="P46" s="8"/>
       <c r="Q46" s="29"/>
     </row>
-    <row r="47" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="13"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="15"/>
+    <row r="47" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>5</v>
+      </c>
       <c r="M47" s="10" t="s">
         <v>66</v>
       </c>
@@ -3931,14 +3991,25 @@
       <c r="P47" s="8"/>
       <c r="Q47" s="9"/>
     </row>
-    <row r="48" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G48" s="83" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" s="84"/>
-      <c r="I48" s="84"/>
-      <c r="J48" s="84"/>
-      <c r="K48" s="85"/>
+    <row r="48" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="29"/>
+      <c r="G48" s="90" t="s">
+        <v>459</v>
+      </c>
+      <c r="H48" s="91"/>
+      <c r="I48" s="91"/>
+      <c r="J48" s="91"/>
+      <c r="K48" s="92"/>
       <c r="M48" s="10" t="s">
         <v>67</v>
       </c>
@@ -3949,14 +4020,18 @@
       <c r="P48" s="8"/>
       <c r="Q48" s="9"/>
     </row>
-    <row r="49" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="80" t="s">
-        <v>105</v>
-      </c>
-      <c r="B49" s="81"/>
-      <c r="C49" s="81"/>
-      <c r="D49" s="81"/>
-      <c r="E49" s="82"/>
+    <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="14"/>
+      <c r="E49" s="40"/>
       <c r="G49" s="17" t="s">
         <v>1</v>
       </c>
@@ -3982,22 +4057,7 @@
       <c r="P49" s="14"/>
       <c r="Q49" s="15"/>
     </row>
-    <row r="50" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>8</v>
-      </c>
+    <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G50" s="4" t="s">
         <v>16</v>
       </c>
@@ -4014,22 +4074,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C51" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E51" s="28" t="s">
-        <v>5</v>
-      </c>
+    <row r="51" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="87" t="s">
+        <v>467</v>
+      </c>
+      <c r="B51" s="88"/>
+      <c r="C51" s="88"/>
+      <c r="D51" s="88"/>
+      <c r="E51" s="89"/>
       <c r="G51" s="10" t="s">
         <v>40</v>
       </c>
@@ -4042,18 +4094,22 @@
       <c r="J51" s="8"/>
       <c r="K51" s="24"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="29"/>
+    <row r="52" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="G52" s="10" t="s">
         <v>41</v>
       </c>
@@ -4066,18 +4122,18 @@
       </c>
       <c r="K52" s="24"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="29"/>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="28"/>
       <c r="G53" s="10"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -4086,12 +4142,18 @@
       </c>
       <c r="K53" s="24"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A54" s="10"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>5</v>
+      </c>
       <c r="D54" s="8"/>
-      <c r="E54" s="9"/>
+      <c r="E54" s="29"/>
       <c r="G54" s="10"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
@@ -4100,48 +4162,64 @@
       </c>
       <c r="K54" s="24"/>
     </row>
-    <row r="55" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="10"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="9"/>
+    <row r="55" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G55" s="13" t="s">
         <v>113</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>114</v>
+        <v>460</v>
       </c>
       <c r="I55" s="14"/>
-      <c r="J55" s="22">
+      <c r="J55" s="98">
         <v>0</v>
       </c>
       <c r="K55" s="25"/>
     </row>
-    <row r="56" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="13"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="15"/>
-    </row>
-    <row r="57" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G57" s="80" t="s">
-        <v>174</v>
-      </c>
-      <c r="H57" s="81"/>
-      <c r="I57" s="81"/>
-      <c r="J57" s="81"/>
-      <c r="K57" s="82"/>
-    </row>
-    <row r="58" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="80" t="s">
-        <v>106</v>
-      </c>
-      <c r="B58" s="81"/>
-      <c r="C58" s="81"/>
-      <c r="D58" s="81"/>
-      <c r="E58" s="82"/>
+    <row r="56" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="88"/>
+      <c r="C56" s="88"/>
+      <c r="D56" s="88"/>
+      <c r="E56" s="89"/>
+    </row>
+    <row r="57" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="87" t="s">
+        <v>458</v>
+      </c>
+      <c r="H57" s="88"/>
+      <c r="I57" s="88"/>
+      <c r="J57" s="88"/>
+      <c r="K57" s="89"/>
+    </row>
+    <row r="58" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="6"/>
+      <c r="E58" s="28"/>
       <c r="G58" s="17" t="s">
         <v>1</v>
       </c>
@@ -4158,22 +4236,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>8</v>
-      </c>
+    <row r="59" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="14"/>
+      <c r="E59" s="40"/>
       <c r="G59" s="4" t="s">
         <v>16</v>
       </c>
@@ -4190,18 +4264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="28"/>
+    <row r="60" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G60" s="10" t="s">
         <v>12</v>
       </c>
@@ -4214,20 +4277,16 @@
       <c r="J60" s="8"/>
       <c r="K60" s="24"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A61" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C61" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="29"/>
+    <row r="61" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" s="88"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="88"/>
+      <c r="E61" s="89"/>
       <c r="G61" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H61" s="8" t="s">
         <v>3</v>
@@ -4236,9 +4295,24 @@
       <c r="J61" s="8"/>
       <c r="K61" s="24"/>
     </row>
-    <row r="62" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="G62" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H62" s="8" t="s">
         <v>21</v>
@@ -4247,136 +4321,62 @@
       <c r="J62" s="8"/>
       <c r="K62" s="24"/>
     </row>
-    <row r="63" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="80" t="s">
-        <v>107</v>
-      </c>
-      <c r="B63" s="81"/>
-      <c r="C63" s="81"/>
-      <c r="D63" s="81"/>
-      <c r="E63" s="82"/>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="28"/>
       <c r="G63" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I63" s="21"/>
       <c r="J63" s="8"/>
       <c r="K63" s="24"/>
     </row>
-    <row r="64" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" s="19" t="s">
-        <v>8</v>
-      </c>
+    <row r="64" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="14"/>
+      <c r="E64" s="40"/>
       <c r="G64" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H64" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I64" s="22"/>
       <c r="J64" s="14"/>
       <c r="K64" s="25"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C65" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" s="6"/>
-      <c r="E65" s="28"/>
-    </row>
-    <row r="66" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C66" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" s="14"/>
-      <c r="E66" s="40"/>
-    </row>
-    <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="68" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="80" t="s">
-        <v>109</v>
-      </c>
-      <c r="B68" s="81"/>
-      <c r="C68" s="81"/>
-      <c r="D68" s="81"/>
-      <c r="E68" s="82"/>
-    </row>
-    <row r="69" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D69" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E69" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C70" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" s="6"/>
-      <c r="E70" s="28"/>
-    </row>
-    <row r="71" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B71" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C71" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71" s="14"/>
-      <c r="E71" s="40"/>
-    </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="M29:Q29"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M42:Q42"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="A61:E61"/>
     <mergeCell ref="G18:K18"/>
     <mergeCell ref="G13:K13"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A51:E51"/>
     <mergeCell ref="G48:K48"/>
     <mergeCell ref="G30:K30"/>
     <mergeCell ref="G23:K23"/>
@@ -4384,12 +4384,7 @@
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="A40:E40"/>
     <mergeCell ref="G57:K57"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="M29:Q29"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="M42:Q42"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="A56:E56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4400,31 +4395,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:E45"/>
+    <sheetView topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:E70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" style="51" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="51" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="51" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="51" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="83" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="85"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="92"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -4441,7 +4436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -4458,7 +4453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
@@ -4471,7 +4466,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="24"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>105</v>
       </c>
@@ -4484,7 +4479,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="24"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>93</v>
       </c>
@@ -4497,7 +4492,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="24"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>104</v>
       </c>
@@ -4508,43 +4503,43 @@
       <c r="D7" s="8"/>
       <c r="E7" s="24"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
         <v>117</v>
-      </c>
-      <c r="E8" s="24"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
-        <v>118</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="90" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="25"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="83" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="85"/>
-    </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="92"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>1</v>
       </c>
@@ -4561,7 +4556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
@@ -4578,7 +4573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
@@ -4594,17 +4589,17 @@
       </c>
       <c r="G14" s="53"/>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="83" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16" s="84"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="85"/>
-    </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="90" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="92"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>1</v>
       </c>
@@ -4621,7 +4616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -4638,7 +4633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>12</v>
       </c>
@@ -4649,7 +4644,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>14</v>
       </c>
@@ -4662,9 +4657,9 @@
       <c r="D20" s="8"/>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>21</v>
@@ -4673,9 +4668,9 @@
       <c r="D21" s="8"/>
       <c r="E21" s="24"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>21</v>
@@ -4684,7 +4679,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="24"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>10</v>
       </c>
@@ -4695,21 +4690,21 @@
       <c r="D23" s="8"/>
       <c r="E23" s="24"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>128</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E24" s="24"/>
       <c r="I24" s="52"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>13</v>
       </c>
@@ -4720,7 +4715,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>11</v>
       </c>
@@ -4731,9 +4726,9 @@
       <c r="D26" s="8"/>
       <c r="E26" s="24"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>21</v>
@@ -4742,20 +4737,20 @@
       <c r="D27" s="8"/>
       <c r="E27" s="24"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="8"/>
       <c r="E28" s="24"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>3</v>
@@ -4764,18 +4759,18 @@
       <c r="D29" s="8"/>
       <c r="E29" s="24"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="8"/>
       <c r="E30" s="24"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>69</v>
       </c>
@@ -4786,9 +4781,9 @@
       <c r="D31" s="8"/>
       <c r="E31" s="24"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>28</v>
@@ -4797,20 +4792,20 @@
       <c r="D32" s="8"/>
       <c r="E32" s="24"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="C33" s="21"/>
       <c r="D33" s="8"/>
       <c r="E33" s="24"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>3</v>
@@ -4821,9 +4816,9 @@
       </c>
       <c r="E34" s="24"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="60" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B35" s="54" t="s">
         <v>21</v>
@@ -4832,36 +4827,36 @@
       <c r="D35" s="54"/>
       <c r="E35" s="61"/>
     </row>
-    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="22"/>
       <c r="D36" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E36" s="25"/>
     </row>
-    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="30"/>
       <c r="D37" s="16"/>
       <c r="E37" s="30"/>
     </row>
-    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="83" t="s">
-        <v>163</v>
-      </c>
-      <c r="B38" s="84"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="85"/>
-    </row>
-    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="90" t="s">
+        <v>451</v>
+      </c>
+      <c r="B38" s="91"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="92"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
         <v>1</v>
       </c>
@@ -4878,7 +4873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>16</v>
       </c>
@@ -4895,9 +4890,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>21</v>
@@ -4908,9 +4903,9 @@
       <c r="D41" s="8"/>
       <c r="E41" s="24"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>21</v>
@@ -4921,9 +4916,9 @@
       <c r="D42" s="8"/>
       <c r="E42" s="24"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B43" s="54" t="s">
         <v>3</v>
@@ -4934,9 +4929,9 @@
       </c>
       <c r="E43" s="61"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="60" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B44" s="54" t="s">
         <v>21</v>
@@ -4947,9 +4942,9 @@
       <c r="D44" s="54"/>
       <c r="E44" s="61"/>
     </row>
-    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>21</v>
@@ -4960,20 +4955,20 @@
       <c r="D45" s="14"/>
       <c r="E45" s="25"/>
       <c r="G45" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="83" t="s">
-        <v>156</v>
-      </c>
-      <c r="B47" s="84"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="84"/>
-      <c r="E47" s="85"/>
-    </row>
-    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="90" t="s">
+        <v>457</v>
+      </c>
+      <c r="B47" s="91"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="91"/>
+      <c r="E47" s="92"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
         <v>1</v>
       </c>
@@ -4990,7 +4985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>16</v>
       </c>
@@ -5007,9 +5002,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>3</v>
@@ -5022,7 +5017,7 @@
       </c>
       <c r="E50" s="24"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>14</v>
       </c>
@@ -5037,9 +5032,9 @@
       </c>
       <c r="E51" s="24"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>21</v>
@@ -5048,9 +5043,9 @@
       <c r="D52" s="8"/>
       <c r="E52" s="24"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>3</v>
@@ -5059,20 +5054,20 @@
       <c r="D53" s="8"/>
       <c r="E53" s="24"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C54" s="21"/>
       <c r="D54" s="8"/>
       <c r="E54" s="24"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>21</v>
@@ -5081,9 +5076,9 @@
       <c r="D55" s="8"/>
       <c r="E55" s="24"/>
     </row>
-    <row r="56" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>21</v>
@@ -5092,17 +5087,17 @@
       <c r="D56" s="14"/>
       <c r="E56" s="25"/>
     </row>
-    <row r="57" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="83" t="s">
-        <v>179</v>
-      </c>
-      <c r="B58" s="84"/>
-      <c r="C58" s="84"/>
-      <c r="D58" s="84"/>
-      <c r="E58" s="85"/>
-    </row>
-    <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="B58" s="91"/>
+      <c r="C58" s="91"/>
+      <c r="D58" s="91"/>
+      <c r="E58" s="92"/>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="17" t="s">
         <v>1</v>
       </c>
@@ -5119,7 +5114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>16</v>
       </c>
@@ -5136,9 +5131,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>21</v>
@@ -5147,9 +5142,9 @@
       <c r="D61" s="8"/>
       <c r="E61" s="24"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>3</v>
@@ -5158,9 +5153,9 @@
       <c r="D62" s="8"/>
       <c r="E62" s="24"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>21</v>
@@ -5169,9 +5164,9 @@
       <c r="D63" s="8"/>
       <c r="E63" s="24"/>
     </row>
-    <row r="64" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>21</v>
@@ -5180,17 +5175,17 @@
       <c r="D64" s="14"/>
       <c r="E64" s="25"/>
     </row>
-    <row r="65" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="66" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="86" t="s">
-        <v>168</v>
-      </c>
-      <c r="B66" s="87"/>
-      <c r="C66" s="87"/>
-      <c r="D66" s="87"/>
-      <c r="E66" s="88"/>
-    </row>
-    <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="93" t="s">
+        <v>167</v>
+      </c>
+      <c r="B66" s="94"/>
+      <c r="C66" s="94"/>
+      <c r="D66" s="94"/>
+      <c r="E66" s="95"/>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="48" t="s">
         <v>1</v>
       </c>
@@ -5207,7 +5202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="43" t="s">
         <v>16</v>
       </c>
@@ -5224,7 +5219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>0</v>
       </c>
@@ -5235,9 +5230,9 @@
       <c r="D69" s="8"/>
       <c r="E69" s="24"/>
     </row>
-    <row r="70" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>3</v>
@@ -5248,17 +5243,17 @@
       </c>
       <c r="E70" s="25"/>
     </row>
-    <row r="71" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="72" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="86" t="s">
-        <v>180</v>
-      </c>
-      <c r="B72" s="87"/>
-      <c r="C72" s="87"/>
-      <c r="D72" s="87"/>
-      <c r="E72" s="88"/>
-    </row>
-    <row r="73" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="93" t="s">
+        <v>178</v>
+      </c>
+      <c r="B72" s="94"/>
+      <c r="C72" s="94"/>
+      <c r="D72" s="94"/>
+      <c r="E72" s="95"/>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="17" t="s">
         <v>1</v>
       </c>
@@ -5275,7 +5270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>16</v>
       </c>
@@ -5292,12 +5287,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B75" s="8" t="s">
         <v>170</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>171</v>
       </c>
       <c r="C75" s="21" t="s">
         <v>5</v>
@@ -5307,9 +5302,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>3</v>
@@ -5318,9 +5313,9 @@
       <c r="D76" s="8"/>
       <c r="E76" s="24"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>3</v>
@@ -5329,7 +5324,7 @@
       <c r="D77" s="8"/>
       <c r="E77" s="24"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>93</v>
       </c>
@@ -5342,9 +5337,9 @@
       <c r="D78" s="8"/>
       <c r="E78" s="24"/>
     </row>
-    <row r="79" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B79" s="14" t="s">
         <v>3</v>
@@ -5383,74 +5378,74 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" s="90"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="96" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="97"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="57" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="57" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="56" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="56" t="s">
+      <c r="B5" s="57" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="57" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="56" t="s">
+      <c r="B6" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="57" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="56" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="56" t="s">
+      <c r="B7" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="B7" s="57" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="58" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="58" t="s">
+      <c r="B8" s="59" t="s">
         <v>138</v>
-      </c>
-      <c r="B8" s="59" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -5469,3129 +5464,3129 @@
       <selection activeCell="C165" sqref="C165:G171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="66" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="63.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="66" customWidth="1"/>
-    <col min="7" max="7" width="7.77734375" style="66" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="66" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="66" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="91" t="s">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="80" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="93"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
+      <c r="D2" s="68" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="E2" s="68" t="s">
         <v>183</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="F2" s="79" t="s">
+        <v>446</v>
+      </c>
+      <c r="G2" s="69" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="D3" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="E3" s="63" t="s">
+        <v>281</v>
+      </c>
+      <c r="F3" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="77" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="79" t="s">
-        <v>448</v>
-      </c>
-      <c r="G2" s="69" t="s">
+      <c r="D4" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="F4" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="77" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="62" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D3" s="64" t="s">
-        <v>281</v>
-      </c>
-      <c r="E3" s="63" t="s">
-        <v>283</v>
-      </c>
-      <c r="F3" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="G3" s="77" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="D4" s="64" t="s">
-        <v>281</v>
-      </c>
-      <c r="E4" s="63" t="s">
-        <v>285</v>
-      </c>
-      <c r="F4" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="G4" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="62" t="s">
-        <v>188</v>
-      </c>
       <c r="D5" s="64" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E5" s="63" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F5" s="70"/>
       <c r="G5" s="77" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>280</v>
+      </c>
+      <c r="E6" s="63" t="s">
+        <v>377</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="77"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>280</v>
+      </c>
+      <c r="E7" s="63" t="s">
+        <v>284</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="77"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D6" s="64" t="s">
-        <v>282</v>
-      </c>
-      <c r="E6" s="63" t="s">
-        <v>379</v>
-      </c>
-      <c r="F6" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="G6" s="77"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="62" t="s">
-        <v>189</v>
-      </c>
-      <c r="D7" s="64" t="s">
-        <v>282</v>
-      </c>
-      <c r="E7" s="63" t="s">
-        <v>286</v>
-      </c>
-      <c r="F7" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="G7" s="77"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="62" t="s">
-        <v>188</v>
-      </c>
       <c r="D8" s="64" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E8" s="63" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F8" s="70"/>
       <c r="G8" s="77"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="71" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C9" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E9" s="65" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F9" s="71" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G9" s="76"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="71" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D10" s="64" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E10" s="65" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F10" s="71" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G10" s="76"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="70" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D11" s="64" t="s">
+        <v>257</v>
+      </c>
+      <c r="E11" s="63" t="s">
         <v>259</v>
-      </c>
-      <c r="E11" s="63" t="s">
-        <v>261</v>
       </c>
       <c r="F11" s="70" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="77"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="70" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E12" s="63" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F12" s="70" t="s">
         <v>18</v>
       </c>
       <c r="G12" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="70" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E13" s="63" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F13" s="70"/>
       <c r="G13" s="77"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="70" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E14" s="63" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F14" s="70" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="77"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="70" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D15" s="64" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F15" s="70" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="70" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="62" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D16" s="64" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E16" s="63" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F16" s="70"/>
       <c r="G16" s="77"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C17" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>343</v>
+      </c>
+      <c r="E17" s="63" t="s">
+        <v>345</v>
+      </c>
+      <c r="F17" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" s="77" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="D18" s="64" t="s">
+        <v>343</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>347</v>
+      </c>
+      <c r="F18" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" s="77" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D17" s="64" t="s">
-        <v>345</v>
-      </c>
-      <c r="E17" s="63" t="s">
-        <v>347</v>
-      </c>
-      <c r="F17" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="G17" s="77" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="C18" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="D18" s="64" t="s">
-        <v>345</v>
-      </c>
-      <c r="E18" s="63" t="s">
-        <v>349</v>
-      </c>
-      <c r="F18" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="G18" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="C19" s="62" t="s">
-        <v>188</v>
-      </c>
       <c r="D19" s="64" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E19" s="63" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F19" s="70"/>
       <c r="G19" s="77" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C20" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="D20" s="64" t="s">
+        <v>344</v>
+      </c>
+      <c r="E20" s="63" t="s">
+        <v>383</v>
+      </c>
+      <c r="F20" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="G20" s="77"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="64" t="s">
+        <v>344</v>
+      </c>
+      <c r="E21" s="63" t="s">
+        <v>348</v>
+      </c>
+      <c r="F21" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" s="77" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D20" s="64" t="s">
-        <v>346</v>
-      </c>
-      <c r="E20" s="63" t="s">
-        <v>385</v>
-      </c>
-      <c r="F20" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="G20" s="77"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="C21" s="62" t="s">
-        <v>189</v>
-      </c>
-      <c r="D21" s="64" t="s">
-        <v>346</v>
-      </c>
-      <c r="E21" s="63" t="s">
-        <v>350</v>
-      </c>
-      <c r="F21" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="G21" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="C22" s="62" t="s">
-        <v>188</v>
-      </c>
       <c r="D22" s="64" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E22" s="63" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F22" s="70"/>
       <c r="G22" s="77"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C23" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D23" s="64" t="s">
+        <v>350</v>
+      </c>
+      <c r="E23" s="63" t="s">
         <v>352</v>
       </c>
-      <c r="E23" s="63" t="s">
-        <v>354</v>
-      </c>
       <c r="F23" s="70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G23" s="77"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C24" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D24" s="64" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E24" s="63" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F24" s="70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G24" s="77"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="70" t="s">
         <v>105</v>
       </c>
       <c r="C25" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D25" s="64" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E25" s="63" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F25" s="70" t="s">
         <v>105</v>
       </c>
       <c r="G25" s="77"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="70" t="s">
         <v>105</v>
       </c>
       <c r="C26" s="62" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D26" s="64" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E26" s="63" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F26" s="70" t="s">
         <v>105</v>
       </c>
       <c r="G26" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="70" t="s">
         <v>105</v>
       </c>
       <c r="C27" s="62" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D27" s="64" t="s">
+        <v>227</v>
+      </c>
+      <c r="E27" s="63" t="s">
         <v>229</v>
-      </c>
-      <c r="E27" s="63" t="s">
-        <v>231</v>
       </c>
       <c r="F27" s="70"/>
       <c r="G27" s="77"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="70" t="s">
         <v>105</v>
       </c>
       <c r="C28" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D28" s="64" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E28" s="63" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F28" s="70" t="s">
         <v>105</v>
       </c>
       <c r="G28" s="77"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="70" t="s">
         <v>105</v>
       </c>
       <c r="C29" s="62" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D29" s="64" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E29" s="63" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F29" s="70" t="s">
         <v>105</v>
       </c>
       <c r="G29" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="70" t="s">
         <v>105</v>
       </c>
       <c r="C30" s="62" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D30" s="64" t="s">
+        <v>232</v>
+      </c>
+      <c r="E30" s="63" t="s">
         <v>234</v>
-      </c>
-      <c r="E30" s="63" t="s">
-        <v>236</v>
       </c>
       <c r="F30" s="70"/>
       <c r="G30" s="77"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="70" t="s">
         <v>106</v>
       </c>
       <c r="C31" s="62" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D31" s="64" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E31" s="63" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F31" s="70" t="s">
         <v>106</v>
       </c>
       <c r="G31" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="70" t="s">
         <v>106</v>
       </c>
       <c r="C32" s="62" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D32" s="64" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E32" s="63" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F32" s="70"/>
       <c r="G32" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="70" t="s">
         <v>106</v>
       </c>
       <c r="C33" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D33" s="64" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E33" s="63" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F33" s="70" t="s">
         <v>0</v>
       </c>
       <c r="G33" s="77"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="70" t="s">
         <v>106</v>
       </c>
       <c r="C34" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D34" s="64" t="s">
+        <v>418</v>
+      </c>
+      <c r="E34" s="63" t="s">
         <v>420</v>
-      </c>
-      <c r="E34" s="63" t="s">
-        <v>422</v>
       </c>
       <c r="F34" s="70" t="s">
         <v>105</v>
       </c>
       <c r="G34" s="77"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C35" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="D35" s="64" t="s">
+        <v>328</v>
+      </c>
+      <c r="E35" s="63" t="s">
+        <v>330</v>
+      </c>
+      <c r="F35" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="G35" s="77" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="D36" s="64" t="s">
+        <v>328</v>
+      </c>
+      <c r="E36" s="63" t="s">
+        <v>332</v>
+      </c>
+      <c r="F36" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="G36" s="77" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D35" s="64" t="s">
-        <v>330</v>
-      </c>
-      <c r="E35" s="63" t="s">
-        <v>332</v>
-      </c>
-      <c r="F35" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="G35" s="77" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="D36" s="64" t="s">
-        <v>330</v>
-      </c>
-      <c r="E36" s="63" t="s">
-        <v>334</v>
-      </c>
-      <c r="F36" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="G36" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" s="62" t="s">
-        <v>188</v>
-      </c>
       <c r="D37" s="64" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E37" s="63" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F37" s="70"/>
       <c r="G37" s="77" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C38" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="D38" s="64" t="s">
+        <v>329</v>
+      </c>
+      <c r="E38" s="63" t="s">
+        <v>382</v>
+      </c>
+      <c r="F38" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="G38" s="77"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D39" s="64" t="s">
+        <v>329</v>
+      </c>
+      <c r="E39" s="63" t="s">
+        <v>333</v>
+      </c>
+      <c r="F39" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="G39" s="77" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D38" s="64" t="s">
-        <v>331</v>
-      </c>
-      <c r="E38" s="63" t="s">
-        <v>384</v>
-      </c>
-      <c r="F38" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="G38" s="77"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" s="62" t="s">
-        <v>189</v>
-      </c>
-      <c r="D39" s="64" t="s">
-        <v>331</v>
-      </c>
-      <c r="E39" s="63" t="s">
-        <v>335</v>
-      </c>
-      <c r="F39" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="G39" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40" s="62" t="s">
-        <v>188</v>
-      </c>
       <c r="D40" s="64" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E40" s="63" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F40" s="70"/>
       <c r="G40" s="77"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="71" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C41" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="D41" s="64" t="s">
+        <v>337</v>
+      </c>
+      <c r="E41" s="65" t="s">
+        <v>338</v>
+      </c>
+      <c r="F41" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="G41" s="76"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="D42" s="64" t="s">
+        <v>341</v>
+      </c>
+      <c r="E42" s="63" t="s">
+        <v>342</v>
+      </c>
+      <c r="F42" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="G42" s="77"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="D43" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="E43" s="65" t="s">
+        <v>336</v>
+      </c>
+      <c r="F43" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="G43" s="76"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="D44" s="64" t="s">
+        <v>339</v>
+      </c>
+      <c r="E44" s="65" t="s">
+        <v>340</v>
+      </c>
+      <c r="F44" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="G44" s="76"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="70" t="s">
+        <v>320</v>
+      </c>
+      <c r="C45" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="D45" s="64" t="s">
+        <v>321</v>
+      </c>
+      <c r="E45" s="63" t="s">
+        <v>323</v>
+      </c>
+      <c r="F45" s="70" t="s">
+        <v>320</v>
+      </c>
+      <c r="G45" s="77"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="70" t="s">
+        <v>320</v>
+      </c>
+      <c r="C46" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="D46" s="64" t="s">
+        <v>321</v>
+      </c>
+      <c r="E46" s="63" t="s">
+        <v>325</v>
+      </c>
+      <c r="F46" s="70" t="s">
+        <v>320</v>
+      </c>
+      <c r="G46" s="77" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="70" t="s">
+        <v>320</v>
+      </c>
+      <c r="C47" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D41" s="64" t="s">
-        <v>339</v>
-      </c>
-      <c r="E41" s="65" t="s">
-        <v>340</v>
-      </c>
-      <c r="F41" s="71" t="s">
-        <v>121</v>
-      </c>
-      <c r="G41" s="76"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="D42" s="64" t="s">
-        <v>343</v>
-      </c>
-      <c r="E42" s="63" t="s">
-        <v>344</v>
-      </c>
-      <c r="F42" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="G42" s="77"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="71" t="s">
-        <v>121</v>
-      </c>
-      <c r="C43" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="D43" s="64" t="s">
-        <v>337</v>
-      </c>
-      <c r="E43" s="65" t="s">
-        <v>338</v>
-      </c>
-      <c r="F43" s="71" t="s">
-        <v>121</v>
-      </c>
-      <c r="G43" s="76"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="71" t="s">
-        <v>121</v>
-      </c>
-      <c r="C44" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="D44" s="64" t="s">
-        <v>341</v>
-      </c>
-      <c r="E44" s="65" t="s">
-        <v>342</v>
-      </c>
-      <c r="F44" s="71" t="s">
-        <v>121</v>
-      </c>
-      <c r="G44" s="76"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="70" t="s">
-        <v>322</v>
-      </c>
-      <c r="C45" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="D45" s="64" t="s">
-        <v>323</v>
-      </c>
-      <c r="E45" s="63" t="s">
-        <v>325</v>
-      </c>
-      <c r="F45" s="70" t="s">
-        <v>322</v>
-      </c>
-      <c r="G45" s="77"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="70" t="s">
-        <v>322</v>
-      </c>
-      <c r="C46" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="D46" s="64" t="s">
-        <v>323</v>
-      </c>
-      <c r="E46" s="63" t="s">
-        <v>327</v>
-      </c>
-      <c r="F46" s="70" t="s">
-        <v>322</v>
-      </c>
-      <c r="G46" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="70" t="s">
-        <v>322</v>
-      </c>
-      <c r="C47" s="62" t="s">
-        <v>188</v>
-      </c>
       <c r="D47" s="64" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E47" s="63" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F47" s="70"/>
       <c r="G47" s="77"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="70" t="s">
+        <v>320</v>
+      </c>
+      <c r="C48" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="D48" s="64" t="s">
         <v>322</v>
       </c>
-      <c r="C48" s="62" t="s">
+      <c r="E48" s="63" t="s">
+        <v>381</v>
+      </c>
+      <c r="F48" s="70" t="s">
+        <v>320</v>
+      </c>
+      <c r="G48" s="77"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="70" t="s">
+        <v>320</v>
+      </c>
+      <c r="C49" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D49" s="64" t="s">
+        <v>322</v>
+      </c>
+      <c r="E49" s="63" t="s">
+        <v>326</v>
+      </c>
+      <c r="F49" s="70" t="s">
+        <v>320</v>
+      </c>
+      <c r="G49" s="77" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="70" t="s">
+        <v>320</v>
+      </c>
+      <c r="C50" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D48" s="64" t="s">
-        <v>324</v>
-      </c>
-      <c r="E48" s="63" t="s">
-        <v>383</v>
-      </c>
-      <c r="F48" s="70" t="s">
+      <c r="D50" s="64" t="s">
         <v>322</v>
       </c>
-      <c r="G48" s="77"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="70" t="s">
-        <v>322</v>
-      </c>
-      <c r="C49" s="62" t="s">
-        <v>189</v>
-      </c>
-      <c r="D49" s="64" t="s">
-        <v>324</v>
-      </c>
-      <c r="E49" s="63" t="s">
-        <v>328</v>
-      </c>
-      <c r="F49" s="70" t="s">
-        <v>322</v>
-      </c>
-      <c r="G49" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="70" t="s">
-        <v>322</v>
-      </c>
-      <c r="C50" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="D50" s="64" t="s">
-        <v>324</v>
-      </c>
       <c r="E50" s="63" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F50" s="70"/>
       <c r="G50" s="77"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="70" t="s">
         <v>42</v>
       </c>
       <c r="C51" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D51" s="64" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E51" s="63" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F51" s="70" t="s">
         <v>42</v>
       </c>
       <c r="G51" s="77" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="70" t="s">
         <v>42</v>
       </c>
       <c r="C52" s="62" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D52" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="E52" s="63" t="s">
         <v>292</v>
-      </c>
-      <c r="E52" s="63" t="s">
-        <v>294</v>
       </c>
       <c r="F52" s="70" t="s">
         <v>42</v>
       </c>
       <c r="G52" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="70" t="s">
         <v>42</v>
       </c>
       <c r="C53" s="62" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D53" s="64" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E53" s="63" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F53" s="70"/>
       <c r="G53" s="77" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="70" t="s">
         <v>42</v>
       </c>
       <c r="C54" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D54" s="64" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E54" s="63" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F54" s="70" t="s">
         <v>42</v>
       </c>
       <c r="G54" s="77"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="70" t="s">
         <v>42</v>
       </c>
       <c r="C55" s="62" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D55" s="64" t="s">
+        <v>291</v>
+      </c>
+      <c r="E55" s="63" t="s">
         <v>293</v>
-      </c>
-      <c r="E55" s="63" t="s">
-        <v>295</v>
       </c>
       <c r="F55" s="70" t="s">
         <v>42</v>
       </c>
       <c r="G55" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="70" t="s">
         <v>42</v>
       </c>
       <c r="C56" s="62" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D56" s="64" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E56" s="63" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F56" s="70"/>
       <c r="G56" s="77"/>
     </row>
-    <row r="57" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="70" t="s">
         <v>69</v>
       </c>
       <c r="C57" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D57" s="64" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E57" s="63" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F57" s="70" t="s">
         <v>69</v>
       </c>
       <c r="G57" s="77" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="70" t="s">
         <v>69</v>
       </c>
       <c r="C58" s="62" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D58" s="64" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E58" s="63" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F58" s="70" t="s">
         <v>69</v>
       </c>
       <c r="G58" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="70" t="s">
         <v>69</v>
       </c>
       <c r="C59" s="62" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D59" s="64" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E59" s="63" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F59" s="70"/>
       <c r="G59" s="77" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="70" t="s">
         <v>69</v>
       </c>
       <c r="C60" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D60" s="64" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E60" s="63" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F60" s="70" t="s">
         <v>69</v>
       </c>
       <c r="G60" s="77"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="70" t="s">
         <v>69</v>
       </c>
       <c r="C61" s="62" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D61" s="64" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E61" s="63" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F61" s="70" t="s">
         <v>69</v>
       </c>
       <c r="G61" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="70" t="s">
         <v>69</v>
       </c>
       <c r="C62" s="62" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D62" s="64" t="s">
+        <v>297</v>
+      </c>
+      <c r="E62" s="63" t="s">
         <v>299</v>
-      </c>
-      <c r="E62" s="63" t="s">
-        <v>301</v>
       </c>
       <c r="F62" s="70"/>
       <c r="G62" s="77"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="71" t="s">
         <v>69</v>
       </c>
       <c r="C63" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D63" s="64" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E63" s="65" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F63" s="71" t="s">
         <v>69</v>
       </c>
       <c r="G63" s="76" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="70" t="s">
         <v>64</v>
       </c>
       <c r="C64" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D64" s="64" t="s">
+        <v>306</v>
+      </c>
+      <c r="E64" s="63" t="s">
         <v>308</v>
-      </c>
-      <c r="E64" s="63" t="s">
-        <v>310</v>
       </c>
       <c r="F64" s="70" t="s">
         <v>64</v>
       </c>
       <c r="G64" s="77"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="70" t="s">
         <v>64</v>
       </c>
       <c r="C65" s="62" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D65" s="64" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E65" s="63" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F65" s="70" t="s">
         <v>64</v>
       </c>
       <c r="G65" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="70" t="s">
         <v>64</v>
       </c>
       <c r="C66" s="62" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D66" s="64" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E66" s="63" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F66" s="70"/>
       <c r="G66" s="77"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="70" t="s">
         <v>64</v>
       </c>
       <c r="C67" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D67" s="64" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E67" s="63" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F67" s="70" t="s">
         <v>64</v>
       </c>
       <c r="G67" s="77"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="70" t="s">
         <v>64</v>
       </c>
       <c r="C68" s="62" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D68" s="64" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E68" s="63" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F68" s="70" t="s">
         <v>64</v>
       </c>
       <c r="G68" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="70" t="s">
         <v>64</v>
       </c>
       <c r="C69" s="62" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D69" s="64" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E69" s="63" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F69" s="70"/>
       <c r="G69" s="77"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="70" t="s">
         <v>10</v>
       </c>
       <c r="C70" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D70" s="64" t="s">
+        <v>240</v>
+      </c>
+      <c r="E70" s="63" t="s">
         <v>242</v>
-      </c>
-      <c r="E70" s="63" t="s">
-        <v>244</v>
       </c>
       <c r="F70" s="70" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="77"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="70" t="s">
         <v>10</v>
       </c>
       <c r="C71" s="62" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D71" s="64" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E71" s="63" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F71" s="70" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="77"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="70" t="s">
         <v>10</v>
       </c>
       <c r="C72" s="62" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D72" s="64" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E72" s="63" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F72" s="70"/>
       <c r="G72" s="77"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="70" t="s">
         <v>10</v>
       </c>
       <c r="C73" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D73" s="64" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E73" s="63" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F73" s="70" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="77"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="70" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="62" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D74" s="64" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E74" s="63" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F74" s="70" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="70" t="s">
         <v>10</v>
       </c>
       <c r="C75" s="62" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D75" s="64" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E75" s="63" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F75" s="70"/>
       <c r="G75" s="77"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="70" t="s">
+        <v>247</v>
+      </c>
+      <c r="C76" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="D76" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="E76" s="63" t="s">
         <v>249</v>
       </c>
-      <c r="C76" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="D76" s="64" t="s">
-        <v>250</v>
-      </c>
-      <c r="E76" s="63" t="s">
-        <v>251</v>
-      </c>
       <c r="F76" s="70" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G76" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="70" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C77" s="62" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D77" s="64" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E77" s="63" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F77" s="70"/>
       <c r="G77" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="70" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C78" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D78" s="64" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E78" s="63" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F78" s="70" t="s">
         <v>104</v>
       </c>
       <c r="G78" s="77"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="70" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C79" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D79" s="64" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E79" s="63" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F79" s="70" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="77"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="70" t="s">
         <v>111</v>
       </c>
       <c r="C80" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D80" s="64" t="s">
+        <v>250</v>
+      </c>
+      <c r="E80" s="63" t="s">
         <v>252</v>
-      </c>
-      <c r="E80" s="63" t="s">
-        <v>254</v>
       </c>
       <c r="F80" s="70" t="s">
         <v>111</v>
       </c>
       <c r="G80" s="77"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="70" t="s">
         <v>111</v>
       </c>
       <c r="C81" s="62" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D81" s="64" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E81" s="63" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F81" s="70" t="s">
         <v>111</v>
       </c>
       <c r="G81" s="77"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="70" t="s">
         <v>111</v>
       </c>
       <c r="C82" s="62" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D82" s="64" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E82" s="63" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F82" s="70"/>
       <c r="G82" s="77"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="70" t="s">
         <v>111</v>
       </c>
       <c r="C83" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D83" s="64" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E83" s="63" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F83" s="70" t="s">
         <v>111</v>
       </c>
       <c r="G83" s="77"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="70" t="s">
         <v>111</v>
       </c>
       <c r="C84" s="62" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D84" s="64" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E84" s="63" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F84" s="70" t="s">
         <v>111</v>
       </c>
       <c r="G84" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="70" t="s">
         <v>111</v>
       </c>
       <c r="C85" s="62" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D85" s="64" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E85" s="63" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F85" s="70"/>
       <c r="G85" s="77"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="70" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C86" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="D86" s="64" t="s">
+        <v>362</v>
+      </c>
+      <c r="E86" s="63" t="s">
+        <v>363</v>
+      </c>
+      <c r="F86" s="70" t="s">
+        <v>371</v>
+      </c>
+      <c r="G86" s="77" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="70" t="s">
+        <v>371</v>
+      </c>
+      <c r="C87" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="D87" s="64" t="s">
+        <v>362</v>
+      </c>
+      <c r="E87" s="63" t="s">
+        <v>365</v>
+      </c>
+      <c r="F87" s="70" t="s">
+        <v>371</v>
+      </c>
+      <c r="G87" s="77" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="70" t="s">
+        <v>371</v>
+      </c>
+      <c r="C88" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D86" s="64" t="s">
+      <c r="D88" s="64" t="s">
+        <v>362</v>
+      </c>
+      <c r="E88" s="63" t="s">
         <v>364</v>
-      </c>
-      <c r="E86" s="63" t="s">
-        <v>365</v>
-      </c>
-      <c r="F86" s="70" t="s">
-        <v>373</v>
-      </c>
-      <c r="G86" s="77" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="70" t="s">
-        <v>373</v>
-      </c>
-      <c r="C87" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="D87" s="64" t="s">
-        <v>364</v>
-      </c>
-      <c r="E87" s="63" t="s">
-        <v>367</v>
-      </c>
-      <c r="F87" s="70" t="s">
-        <v>373</v>
-      </c>
-      <c r="G87" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="70" t="s">
-        <v>373</v>
-      </c>
-      <c r="C88" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="D88" s="64" t="s">
-        <v>364</v>
-      </c>
-      <c r="E88" s="63" t="s">
-        <v>366</v>
       </c>
       <c r="F88" s="70"/>
       <c r="G88" s="77"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="70" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C89" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="D89" s="64" t="s">
+        <v>366</v>
+      </c>
+      <c r="E89" s="63" t="s">
+        <v>385</v>
+      </c>
+      <c r="F89" s="70" t="s">
+        <v>371</v>
+      </c>
+      <c r="G89" s="77"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="70" t="s">
+        <v>371</v>
+      </c>
+      <c r="C90" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D90" s="64" t="s">
+        <v>366</v>
+      </c>
+      <c r="E90" s="63" t="s">
+        <v>367</v>
+      </c>
+      <c r="F90" s="70" t="s">
+        <v>371</v>
+      </c>
+      <c r="G90" s="77" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="70" t="s">
+        <v>371</v>
+      </c>
+      <c r="C91" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D89" s="64" t="s">
+      <c r="D91" s="64" t="s">
+        <v>366</v>
+      </c>
+      <c r="E91" s="63" t="s">
         <v>368</v>
-      </c>
-      <c r="E89" s="63" t="s">
-        <v>387</v>
-      </c>
-      <c r="F89" s="70" t="s">
-        <v>373</v>
-      </c>
-      <c r="G89" s="77"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" s="70" t="s">
-        <v>373</v>
-      </c>
-      <c r="C90" s="62" t="s">
-        <v>189</v>
-      </c>
-      <c r="D90" s="64" t="s">
-        <v>368</v>
-      </c>
-      <c r="E90" s="63" t="s">
-        <v>369</v>
-      </c>
-      <c r="F90" s="70" t="s">
-        <v>373</v>
-      </c>
-      <c r="G90" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="70" t="s">
-        <v>373</v>
-      </c>
-      <c r="C91" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="D91" s="64" t="s">
-        <v>368</v>
-      </c>
-      <c r="E91" s="63" t="s">
-        <v>370</v>
       </c>
       <c r="F91" s="70"/>
       <c r="G91" s="77"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="70" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C92" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="D92" s="64" t="s">
+        <v>444</v>
+      </c>
+      <c r="E92" s="63" t="s">
+        <v>445</v>
+      </c>
+      <c r="F92" s="70" t="s">
+        <v>371</v>
+      </c>
+      <c r="G92" s="77"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="70" t="s">
+        <v>371</v>
+      </c>
+      <c r="C93" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="D93" s="64" t="s">
+        <v>369</v>
+      </c>
+      <c r="E93" s="63" t="s">
+        <v>370</v>
+      </c>
+      <c r="F93" s="70" t="s">
+        <v>371</v>
+      </c>
+      <c r="G93" s="77"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="C94" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="D94" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="E94" s="63" t="s">
+        <v>355</v>
+      </c>
+      <c r="F94" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="G94" s="77" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="C95" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="D95" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="E95" s="63" t="s">
+        <v>357</v>
+      </c>
+      <c r="F95" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="G95" s="77" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="C96" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D92" s="64" t="s">
-        <v>446</v>
-      </c>
-      <c r="E92" s="63" t="s">
-        <v>447</v>
-      </c>
-      <c r="F92" s="70" t="s">
-        <v>373</v>
-      </c>
-      <c r="G92" s="77"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" s="70" t="s">
-        <v>373</v>
-      </c>
-      <c r="C93" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="D93" s="64" t="s">
-        <v>371</v>
-      </c>
-      <c r="E93" s="63" t="s">
-        <v>372</v>
-      </c>
-      <c r="F93" s="70" t="s">
-        <v>373</v>
-      </c>
-      <c r="G93" s="77"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" s="70" t="s">
-        <v>156</v>
-      </c>
-      <c r="C94" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="D94" s="64" t="s">
-        <v>355</v>
-      </c>
-      <c r="E94" s="63" t="s">
-        <v>357</v>
-      </c>
-      <c r="F94" s="70" t="s">
-        <v>156</v>
-      </c>
-      <c r="G94" s="77" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="70" t="s">
-        <v>156</v>
-      </c>
-      <c r="C95" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="D95" s="64" t="s">
-        <v>355</v>
-      </c>
-      <c r="E95" s="63" t="s">
-        <v>359</v>
-      </c>
-      <c r="F95" s="70" t="s">
-        <v>156</v>
-      </c>
-      <c r="G95" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="70" t="s">
-        <v>156</v>
-      </c>
-      <c r="C96" s="62" t="s">
-        <v>188</v>
-      </c>
       <c r="D96" s="64" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E96" s="63" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F96" s="70"/>
       <c r="G96" s="77" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="70" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C97" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="D97" s="64" t="s">
+        <v>354</v>
+      </c>
+      <c r="E97" s="63" t="s">
+        <v>384</v>
+      </c>
+      <c r="F97" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="G97" s="77"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="C98" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D98" s="64" t="s">
+        <v>354</v>
+      </c>
+      <c r="E98" s="63" t="s">
+        <v>358</v>
+      </c>
+      <c r="F98" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="G98" s="77" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="C99" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D97" s="64" t="s">
-        <v>356</v>
-      </c>
-      <c r="E97" s="63" t="s">
-        <v>386</v>
-      </c>
-      <c r="F97" s="70" t="s">
-        <v>156</v>
-      </c>
-      <c r="G97" s="77"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="70" t="s">
-        <v>156</v>
-      </c>
-      <c r="C98" s="62" t="s">
-        <v>189</v>
-      </c>
-      <c r="D98" s="64" t="s">
-        <v>356</v>
-      </c>
-      <c r="E98" s="63" t="s">
-        <v>360</v>
-      </c>
-      <c r="F98" s="70" t="s">
-        <v>156</v>
-      </c>
-      <c r="G98" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" s="70" t="s">
-        <v>156</v>
-      </c>
-      <c r="C99" s="62" t="s">
-        <v>188</v>
-      </c>
       <c r="D99" s="64" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E99" s="63" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F99" s="70"/>
       <c r="G99" s="77"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="70" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C100" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="D100" s="64" t="s">
+        <v>360</v>
+      </c>
+      <c r="E100" s="63" t="s">
+        <v>361</v>
+      </c>
+      <c r="F100" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="G100" s="77"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="C101" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="D101" s="64" t="s">
+        <v>313</v>
+      </c>
+      <c r="E101" s="63" t="s">
+        <v>315</v>
+      </c>
+      <c r="F101" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="G101" s="77"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="C102" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="D102" s="64" t="s">
+        <v>313</v>
+      </c>
+      <c r="E102" s="63" t="s">
+        <v>317</v>
+      </c>
+      <c r="F102" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="G102" s="77" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="C103" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D100" s="64" t="s">
-        <v>362</v>
-      </c>
-      <c r="E100" s="63" t="s">
-        <v>363</v>
-      </c>
-      <c r="F100" s="70" t="s">
-        <v>156</v>
-      </c>
-      <c r="G100" s="77"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="C101" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="D101" s="64" t="s">
-        <v>315</v>
-      </c>
-      <c r="E101" s="63" t="s">
-        <v>317</v>
-      </c>
-      <c r="F101" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="G101" s="77"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="C102" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="D102" s="64" t="s">
-        <v>315</v>
-      </c>
-      <c r="E102" s="63" t="s">
-        <v>319</v>
-      </c>
-      <c r="F102" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="G102" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="C103" s="62" t="s">
-        <v>188</v>
-      </c>
       <c r="D103" s="64" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E103" s="63" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F103" s="70"/>
       <c r="G103" s="77"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C104" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="D104" s="64" t="s">
+        <v>442</v>
+      </c>
+      <c r="E104" s="63" t="s">
+        <v>443</v>
+      </c>
+      <c r="F104" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="G104" s="77"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="C105" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="D105" s="64" t="s">
+        <v>314</v>
+      </c>
+      <c r="E105" s="63" t="s">
+        <v>380</v>
+      </c>
+      <c r="F105" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="G105" s="77"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="C106" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D106" s="64" t="s">
+        <v>314</v>
+      </c>
+      <c r="E106" s="63" t="s">
+        <v>318</v>
+      </c>
+      <c r="F106" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="G106" s="77" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="C107" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D104" s="64" t="s">
-        <v>444</v>
-      </c>
-      <c r="E104" s="63" t="s">
-        <v>445</v>
-      </c>
-      <c r="F104" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="G104" s="77"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="C105" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="D105" s="64" t="s">
-        <v>316</v>
-      </c>
-      <c r="E105" s="63" t="s">
-        <v>382</v>
-      </c>
-      <c r="F105" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="G105" s="77"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="C106" s="62" t="s">
-        <v>189</v>
-      </c>
-      <c r="D106" s="64" t="s">
-        <v>316</v>
-      </c>
-      <c r="E106" s="63" t="s">
-        <v>320</v>
-      </c>
-      <c r="F106" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="G106" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="C107" s="62" t="s">
-        <v>188</v>
-      </c>
       <c r="D107" s="64" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E107" s="63" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F107" s="70"/>
       <c r="G107" s="77"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="70" t="s">
         <v>17</v>
       </c>
       <c r="C108" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D108" s="64" t="s">
+        <v>272</v>
+      </c>
+      <c r="E108" s="63" t="s">
         <v>274</v>
-      </c>
-      <c r="E108" s="63" t="s">
-        <v>276</v>
       </c>
       <c r="F108" s="70" t="s">
         <v>17</v>
       </c>
       <c r="G108" s="77"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="70" t="s">
         <v>17</v>
       </c>
       <c r="C109" s="62" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D109" s="64" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E109" s="63" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F109" s="70" t="s">
         <v>17</v>
       </c>
       <c r="G109" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="70" t="s">
         <v>17</v>
       </c>
       <c r="C110" s="62" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D110" s="64" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E110" s="63" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F110" s="70"/>
       <c r="G110" s="77"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="70" t="s">
         <v>17</v>
       </c>
       <c r="C111" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D111" s="64" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E111" s="63" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F111" s="70" t="s">
         <v>17</v>
       </c>
       <c r="G111" s="77"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="70" t="s">
         <v>17</v>
       </c>
       <c r="C112" s="62" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D112" s="64" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E112" s="63" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F112" s="70" t="s">
         <v>17</v>
       </c>
       <c r="G112" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="70" t="s">
         <v>17</v>
       </c>
       <c r="C113" s="62" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D113" s="64" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E113" s="63" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F113" s="70"/>
       <c r="G113" s="77"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="70" t="s">
         <v>93</v>
       </c>
       <c r="C114" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D114" s="64" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E114" s="63" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F114" s="70" t="s">
         <v>93</v>
       </c>
       <c r="G114" s="77"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="70" t="s">
         <v>93</v>
       </c>
       <c r="C115" s="62" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D115" s="64" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E115" s="63" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F115" s="70" t="s">
         <v>93</v>
       </c>
       <c r="G115" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="70" t="s">
         <v>93</v>
       </c>
       <c r="C116" s="62" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D116" s="64" t="s">
+        <v>203</v>
+      </c>
+      <c r="E116" s="63" t="s">
         <v>205</v>
-      </c>
-      <c r="E116" s="63" t="s">
-        <v>207</v>
       </c>
       <c r="F116" s="70"/>
       <c r="G116" s="77"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="70" t="s">
         <v>93</v>
       </c>
       <c r="C117" s="62" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D117" s="64" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E117" s="63" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F117" s="70" t="s">
         <v>93</v>
       </c>
       <c r="G117" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="70" t="s">
         <v>93</v>
       </c>
       <c r="C118" s="62" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D118" s="64" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E118" s="63" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F118" s="70"/>
       <c r="G118" s="77"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="70" t="s">
         <v>93</v>
       </c>
       <c r="C119" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D119" s="64" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E119" s="63" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F119" s="70" t="s">
         <v>93</v>
       </c>
       <c r="G119" s="77"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="70" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C120" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="D120" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="E120" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="F120" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="G120" s="77" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="C121" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="D121" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="E121" s="63" t="s">
+        <v>269</v>
+      </c>
+      <c r="F121" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="G121" s="77" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="C122" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D120" s="64" t="s">
-        <v>267</v>
-      </c>
-      <c r="E120" s="63" t="s">
-        <v>269</v>
-      </c>
-      <c r="F120" s="70" t="s">
-        <v>266</v>
-      </c>
-      <c r="G120" s="77" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" s="70" t="s">
-        <v>266</v>
-      </c>
-      <c r="C121" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="D121" s="64" t="s">
-        <v>267</v>
-      </c>
-      <c r="E121" s="63" t="s">
-        <v>271</v>
-      </c>
-      <c r="F121" s="70" t="s">
-        <v>266</v>
-      </c>
-      <c r="G121" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" s="70" t="s">
-        <v>266</v>
-      </c>
-      <c r="C122" s="62" t="s">
-        <v>188</v>
-      </c>
       <c r="D122" s="64" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E122" s="63" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F122" s="70"/>
       <c r="G122" s="77" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="C123" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="D123" s="64" t="s">
         <v>266</v>
       </c>
-      <c r="C123" s="62" t="s">
+      <c r="E123" s="63" t="s">
+        <v>375</v>
+      </c>
+      <c r="F123" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="G123" s="77"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="C124" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D124" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="E124" s="63" t="s">
+        <v>270</v>
+      </c>
+      <c r="F124" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="G124" s="77" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="C125" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D123" s="64" t="s">
-        <v>268</v>
-      </c>
-      <c r="E123" s="63" t="s">
-        <v>377</v>
-      </c>
-      <c r="F123" s="70" t="s">
+      <c r="D125" s="64" t="s">
         <v>266</v>
       </c>
-      <c r="G123" s="77"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" s="70" t="s">
-        <v>266</v>
-      </c>
-      <c r="C124" s="62" t="s">
-        <v>189</v>
-      </c>
-      <c r="D124" s="64" t="s">
-        <v>268</v>
-      </c>
-      <c r="E124" s="63" t="s">
-        <v>272</v>
-      </c>
-      <c r="F124" s="70" t="s">
-        <v>266</v>
-      </c>
-      <c r="G124" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="70" t="s">
-        <v>266</v>
-      </c>
-      <c r="C125" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="D125" s="64" t="s">
-        <v>268</v>
-      </c>
       <c r="E125" s="63" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F125" s="70"/>
       <c r="G125" s="77"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="70" t="s">
         <v>104</v>
       </c>
       <c r="C126" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D126" s="64" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E126" s="63" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F126" s="70" t="s">
         <v>104</v>
       </c>
       <c r="G126" s="77" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="70" t="s">
         <v>104</v>
       </c>
       <c r="C127" s="62" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D127" s="64" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E127" s="63" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F127" s="70" t="s">
         <v>104</v>
       </c>
       <c r="G127" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="70" t="s">
         <v>104</v>
       </c>
       <c r="C128" s="62" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D128" s="64" t="s">
+        <v>218</v>
+      </c>
+      <c r="E128" s="63" t="s">
         <v>220</v>
-      </c>
-      <c r="E128" s="63" t="s">
-        <v>222</v>
       </c>
       <c r="F128" s="70"/>
       <c r="G128" s="77" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="70" t="s">
         <v>104</v>
       </c>
       <c r="C129" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D129" s="64" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E129" s="63" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F129" s="70" t="s">
         <v>104</v>
       </c>
       <c r="G129" s="77"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="70" t="s">
         <v>104</v>
       </c>
       <c r="C130" s="62" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D130" s="64" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E130" s="63" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F130" s="70" t="s">
         <v>104</v>
       </c>
       <c r="G130" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="70" t="s">
         <v>104</v>
       </c>
       <c r="C131" s="62" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D131" s="64" t="s">
+        <v>222</v>
+      </c>
+      <c r="E131" s="63" t="s">
         <v>224</v>
-      </c>
-      <c r="E131" s="63" t="s">
-        <v>226</v>
       </c>
       <c r="F131" s="70"/>
       <c r="G131" s="77"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="70" t="s">
         <v>104</v>
       </c>
       <c r="C132" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D132" s="64" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E132" s="63" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F132" s="70" t="s">
         <v>104</v>
       </c>
       <c r="G132" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="70" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C133" s="62" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D133" s="64" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E133" s="63" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F133" s="70" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G133" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="70" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C134" s="62" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D134" s="64" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E134" s="63" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F134" s="70"/>
       <c r="G134" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="70" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C135" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D135" s="64" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E135" s="63" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F135" s="70" t="s">
         <v>104</v>
       </c>
       <c r="G135" s="77"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="70" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C136" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D136" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E136" s="63" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F136" s="70" t="s">
         <v>0</v>
       </c>
       <c r="G136" s="77"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="70" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C137" s="62" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D137" s="64" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E137" s="63" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F137" s="70" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G137" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="70" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C138" s="62" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D138" s="64" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E138" s="63" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F138" s="70"/>
       <c r="G138" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="70" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C139" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D139" s="64" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E139" s="63" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F139" s="70" t="s">
         <v>0</v>
       </c>
       <c r="G139" s="77"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="70" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C140" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D140" s="64" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E140" s="63" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F140" s="70" t="s">
         <v>104</v>
       </c>
       <c r="G140" s="77"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="70" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C141" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D141" s="64" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E141" s="63" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F141" s="70" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G141" s="77"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="70" t="s">
         <v>0</v>
       </c>
       <c r="C142" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D142" s="64" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E142" s="65" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F142" s="70" t="s">
         <v>0</v>
       </c>
       <c r="G142" s="76" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="70" t="s">
         <v>0</v>
       </c>
       <c r="C143" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D143" s="64" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E143" s="65" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F143" s="70" t="s">
         <v>0</v>
       </c>
       <c r="G143" s="76"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="70" t="s">
         <v>0</v>
       </c>
       <c r="C144" s="62" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D144" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="E144" s="65" t="s">
         <v>192</v>
-      </c>
-      <c r="E144" s="65" t="s">
-        <v>194</v>
       </c>
       <c r="F144" s="70" t="s">
         <v>0</v>
       </c>
       <c r="G144" s="76" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="70" t="s">
         <v>0</v>
       </c>
       <c r="C145" s="62" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D145" s="64" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E145" s="65" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F145" s="70"/>
       <c r="G145" s="76"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="70" t="s">
         <v>0</v>
       </c>
       <c r="C146" s="62" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D146" s="64" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E146" s="65" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F146" s="70" t="s">
         <v>0</v>
       </c>
       <c r="G146" s="76" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="70" t="s">
         <v>0</v>
       </c>
       <c r="C147" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D147" s="64" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E147" s="65" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F147" s="70" t="s">
         <v>0</v>
       </c>
       <c r="G147" s="76"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="70" t="s">
         <v>0</v>
       </c>
       <c r="C148" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D148" s="64" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E148" s="65" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F148" s="70" t="s">
         <v>0</v>
       </c>
       <c r="G148" s="76"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="70" t="s">
         <v>0</v>
       </c>
       <c r="C149" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D149" s="64" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E149" s="65" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F149" s="70" t="s">
         <v>0</v>
       </c>
       <c r="G149" s="76"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="70" t="s">
         <v>0</v>
       </c>
       <c r="C150" s="62" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D150" s="64" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E150" s="65" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F150" s="70" t="s">
         <v>0</v>
       </c>
       <c r="G150" s="76" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="70" t="s">
         <v>0</v>
       </c>
       <c r="C151" s="62" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D151" s="64" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E151" s="65" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F151" s="70"/>
       <c r="G151" s="76"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="70" t="s">
         <v>0</v>
       </c>
       <c r="C152" s="62" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D152" s="64" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E152" s="65" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F152" s="70" t="s">
         <v>0</v>
       </c>
       <c r="G152" s="76" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="70" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C153" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="D153" s="64" t="s">
+        <v>396</v>
+      </c>
+      <c r="E153" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="F153" s="70" t="s">
+        <v>395</v>
+      </c>
+      <c r="G153" s="77"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="70" t="s">
+        <v>395</v>
+      </c>
+      <c r="C154" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="D154" s="64" t="s">
+        <v>396</v>
+      </c>
+      <c r="E154" s="63" t="s">
+        <v>403</v>
+      </c>
+      <c r="F154" s="70" t="s">
+        <v>395</v>
+      </c>
+      <c r="G154" s="77" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="70" t="s">
+        <v>395</v>
+      </c>
+      <c r="C155" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D153" s="64" t="s">
-        <v>398</v>
-      </c>
-      <c r="E153" s="63" t="s">
-        <v>403</v>
-      </c>
-      <c r="F153" s="70" t="s">
-        <v>397</v>
-      </c>
-      <c r="G153" s="77"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A154" s="70" t="s">
-        <v>397</v>
-      </c>
-      <c r="C154" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="D154" s="64" t="s">
-        <v>398</v>
-      </c>
-      <c r="E154" s="63" t="s">
-        <v>405</v>
-      </c>
-      <c r="F154" s="70" t="s">
-        <v>397</v>
-      </c>
-      <c r="G154" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" s="70" t="s">
-        <v>397</v>
-      </c>
-      <c r="C155" s="62" t="s">
-        <v>188</v>
-      </c>
       <c r="D155" s="64" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E155" s="63" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F155" s="70"/>
       <c r="G155" s="77"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="70" t="s">
+        <v>395</v>
+      </c>
+      <c r="C156" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="D156" s="64" t="s">
         <v>397</v>
       </c>
-      <c r="C156" s="62" t="s">
+      <c r="E156" s="63" t="s">
+        <v>398</v>
+      </c>
+      <c r="F156" s="70" t="s">
+        <v>395</v>
+      </c>
+      <c r="G156" s="77"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="70" t="s">
+        <v>395</v>
+      </c>
+      <c r="C157" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D157" s="64" t="s">
+        <v>397</v>
+      </c>
+      <c r="E157" s="63" t="s">
+        <v>399</v>
+      </c>
+      <c r="F157" s="70" t="s">
+        <v>395</v>
+      </c>
+      <c r="G157" s="77" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="70" t="s">
+        <v>395</v>
+      </c>
+      <c r="C158" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D156" s="64" t="s">
-        <v>399</v>
-      </c>
-      <c r="E156" s="63" t="s">
+      <c r="D158" s="64" t="s">
+        <v>397</v>
+      </c>
+      <c r="E158" s="63" t="s">
         <v>400</v>
-      </c>
-      <c r="F156" s="70" t="s">
-        <v>397</v>
-      </c>
-      <c r="G156" s="77"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A157" s="70" t="s">
-        <v>397</v>
-      </c>
-      <c r="C157" s="62" t="s">
-        <v>189</v>
-      </c>
-      <c r="D157" s="64" t="s">
-        <v>399</v>
-      </c>
-      <c r="E157" s="63" t="s">
-        <v>401</v>
-      </c>
-      <c r="F157" s="70" t="s">
-        <v>397</v>
-      </c>
-      <c r="G157" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A158" s="70" t="s">
-        <v>397</v>
-      </c>
-      <c r="C158" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="D158" s="64" t="s">
-        <v>399</v>
-      </c>
-      <c r="E158" s="63" t="s">
-        <v>402</v>
       </c>
       <c r="F158" s="70"/>
       <c r="G158" s="77"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="70" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C159" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D159" s="64" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E159" s="63" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F159" s="70" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G159" s="77"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="70" t="s">
         <v>88</v>
       </c>
       <c r="C160" s="62" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D160" s="64" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E160" s="63" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F160" s="70" t="s">
         <v>88</v>
       </c>
       <c r="G160" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="70" t="s">
         <v>88</v>
       </c>
       <c r="C161" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D161" s="64" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E161" s="63" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F161" s="70" t="s">
         <v>0</v>
       </c>
       <c r="G161" s="77"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="70" t="s">
         <v>88</v>
       </c>
       <c r="C162" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D162" s="64" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E162" s="63" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F162" s="70" t="s">
         <v>93</v>
       </c>
       <c r="G162" s="77"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="70" t="s">
         <v>88</v>
       </c>
       <c r="C163" s="62" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D163" s="64" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E163" s="63" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F163" s="70"/>
       <c r="G163" s="77"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="70" t="s">
         <v>88</v>
       </c>
       <c r="C164" s="62" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D164" s="64" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E164" s="63" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F164" s="70"/>
       <c r="G164" s="77"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="70" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C165" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="D165" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="E165" s="63" t="s">
+        <v>388</v>
+      </c>
+      <c r="F165" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="G165" s="77"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="C166" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="D166" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="E166" s="63" t="s">
+        <v>390</v>
+      </c>
+      <c r="F166" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="G166" s="77" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="C167" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D165" s="64" t="s">
-        <v>388</v>
-      </c>
-      <c r="E165" s="63" t="s">
-        <v>390</v>
-      </c>
-      <c r="F165" s="70" t="s">
-        <v>168</v>
-      </c>
-      <c r="G165" s="77"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A166" s="70" t="s">
-        <v>168</v>
-      </c>
-      <c r="C166" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="D166" s="64" t="s">
-        <v>388</v>
-      </c>
-      <c r="E166" s="63" t="s">
-        <v>392</v>
-      </c>
-      <c r="F166" s="70" t="s">
-        <v>168</v>
-      </c>
-      <c r="G166" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A167" s="70" t="s">
-        <v>168</v>
-      </c>
-      <c r="C167" s="62" t="s">
-        <v>188</v>
-      </c>
       <c r="D167" s="64" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E167" s="63" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F167" s="70"/>
       <c r="G167" s="77"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="70" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C168" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="D168" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="E168" s="63" t="s">
+        <v>391</v>
+      </c>
+      <c r="F168" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="G168" s="77"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="C169" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D169" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="E169" s="63" t="s">
+        <v>392</v>
+      </c>
+      <c r="F169" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="G169" s="77" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="C170" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D168" s="64" t="s">
-        <v>389</v>
-      </c>
-      <c r="E168" s="63" t="s">
+      <c r="D170" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="E170" s="63" t="s">
         <v>393</v>
-      </c>
-      <c r="F168" s="70" t="s">
-        <v>168</v>
-      </c>
-      <c r="G168" s="77"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A169" s="70" t="s">
-        <v>168</v>
-      </c>
-      <c r="C169" s="62" t="s">
-        <v>189</v>
-      </c>
-      <c r="D169" s="64" t="s">
-        <v>389</v>
-      </c>
-      <c r="E169" s="63" t="s">
-        <v>394</v>
-      </c>
-      <c r="F169" s="70" t="s">
-        <v>168</v>
-      </c>
-      <c r="G169" s="77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A170" s="70" t="s">
-        <v>168</v>
-      </c>
-      <c r="C170" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="D170" s="64" t="s">
-        <v>389</v>
-      </c>
-      <c r="E170" s="63" t="s">
-        <v>395</v>
       </c>
       <c r="F170" s="70"/>
       <c r="G170" s="77"/>
     </row>
-    <row r="171" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="72" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C171" s="73" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D171" s="74" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E171" s="75" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F171" s="72" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G171" s="78"/>
     </row>
@@ -8613,199 +8608,199 @@
       <selection activeCell="E8" sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="68" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="68" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="D1" s="79" t="s">
+        <v>446</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="83" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="B2" s="84" t="s">
+        <v>386</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2" s="85" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="86"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="83" t="s">
         <v>185</v>
       </c>
-      <c r="D1" s="79" t="s">
-        <v>448</v>
-      </c>
-      <c r="E1" s="69" t="s">
+      <c r="B3" s="84" t="s">
+        <v>386</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="D3" s="85" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="86" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="94" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="83" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="95" t="s">
-        <v>388</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="D2" s="96" t="s">
-        <v>168</v>
-      </c>
-      <c r="E2" s="97"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="94" t="s">
+      <c r="B4" s="84" t="s">
+        <v>386</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="D4" s="85"/>
+      <c r="E4" s="86"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="83" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="84" t="s">
+        <v>387</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="D5" s="85" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="86"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="83" t="s">
         <v>187</v>
       </c>
-      <c r="B3" s="95" t="s">
-        <v>388</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="B6" s="84" t="s">
+        <v>387</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="D3" s="96" t="s">
-        <v>168</v>
-      </c>
-      <c r="E3" s="97" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="94" t="s">
-        <v>188</v>
-      </c>
-      <c r="B4" s="95" t="s">
-        <v>388</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="D4" s="96"/>
-      <c r="E4" s="97"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="94" t="s">
+      <c r="D6" s="85" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="86" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="83" t="s">
         <v>186</v>
       </c>
-      <c r="B5" s="95" t="s">
-        <v>389</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="B7" s="84" t="s">
+        <v>387</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="D5" s="96" t="s">
-        <v>168</v>
-      </c>
-      <c r="E5" s="97"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="94" t="s">
-        <v>189</v>
-      </c>
-      <c r="B6" s="95" t="s">
-        <v>389</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="D7" s="85"/>
+      <c r="E7" s="86"/>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="83" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" s="84" t="s">
         <v>394</v>
       </c>
-      <c r="D6" s="96" t="s">
-        <v>168</v>
-      </c>
-      <c r="E6" s="97" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="94" t="s">
-        <v>188</v>
-      </c>
-      <c r="B7" s="95" t="s">
-        <v>389</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="D7" s="96"/>
-      <c r="E7" s="97"/>
-    </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="94" t="s">
-        <v>186</v>
-      </c>
-      <c r="B8" s="95" t="s">
-        <v>396</v>
-      </c>
       <c r="C8" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="D8" s="96" t="s">
-        <v>168</v>
-      </c>
-      <c r="E8" s="97"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="94"/>
-      <c r="B9" s="95"/>
+        <v>450</v>
+      </c>
+      <c r="D8" s="85" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="86"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="83"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="97"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="94"/>
-      <c r="B10" s="95"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="86"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="83"/>
+      <c r="B10" s="84"/>
       <c r="C10" s="12"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="97"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="94"/>
-      <c r="B11" s="95"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="86"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="83"/>
+      <c r="B11" s="84"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="97"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="94"/>
-      <c r="B12" s="95"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="86"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="83"/>
+      <c r="B12" s="84"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="97"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="94"/>
-      <c r="B13" s="95"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="86"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="83"/>
+      <c r="B13" s="84"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="97"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="94"/>
-      <c r="B14" s="95"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="86"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="83"/>
+      <c r="B14" s="84"/>
       <c r="C14" s="12"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="97"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="94"/>
-      <c r="B15" s="95"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="86"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="83"/>
+      <c r="B15" s="84"/>
       <c r="C15" s="12"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="97"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="94"/>
-      <c r="B16" s="95"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="86"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="83"/>
+      <c r="B16" s="84"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="97"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="94"/>
-      <c r="B17" s="95"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="86"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="83"/>
+      <c r="B17" s="84"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="97"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="86"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documentation/DataAndAPIMatchAware.xlsx
+++ b/documentation/DataAndAPIMatchAware.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="9060" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="UserEntities" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,9 @@
     <sheet name="Routing" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Routing!$A$1:$G$171</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="471">
   <si>
     <t>USER</t>
   </si>
@@ -1427,13 +1430,22 @@
   </si>
   <si>
     <t>CLUB_MEMBERS</t>
+  </si>
+  <si>
+    <t>Access</t>
+  </si>
+  <si>
+    <t>CLUB ADMIN</t>
+  </si>
+  <si>
+    <t>AUTH USER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1471,8 +1483,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1503,8 +1523,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1923,11 +1961,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2163,6 +2210,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2195,9 +2265,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2515,7 +2582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="P60" sqref="P60"/>
     </sheetView>
   </sheetViews>
@@ -2554,28 +2621,28 @@
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="99" t="s">
         <v>463</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="92"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="101"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="87" t="s">
+      <c r="G3" s="96" t="s">
         <v>455</v>
       </c>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="89"/>
-      <c r="M3" s="87" t="s">
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="98"/>
+      <c r="M3" s="96" t="s">
         <v>452</v>
       </c>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="89"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="98"/>
     </row>
     <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
@@ -2914,13 +2981,13 @@
       <c r="C13" s="21"/>
       <c r="D13" s="8"/>
       <c r="E13" s="24"/>
-      <c r="G13" s="87" t="s">
+      <c r="G13" s="96" t="s">
         <v>112</v>
       </c>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="89"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="98"/>
       <c r="M13" s="10" t="s">
         <v>48</v>
       </c>
@@ -3072,13 +3139,13 @@
         <v>164</v>
       </c>
       <c r="E18" s="24"/>
-      <c r="G18" s="87" t="s">
+      <c r="G18" s="96" t="s">
         <v>456</v>
       </c>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="89"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="98"/>
       <c r="M18" s="10" t="s">
         <v>54</v>
       </c>
@@ -3219,20 +3286,20 @@
       <c r="W22" s="51"/>
     </row>
     <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="93" t="s">
+      <c r="A23" s="102" t="s">
         <v>464</v>
       </c>
-      <c r="B23" s="94"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="95"/>
-      <c r="G23" s="90" t="s">
+      <c r="B23" s="103"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="104"/>
+      <c r="G23" s="99" t="s">
         <v>465</v>
       </c>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="92"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="101"/>
       <c r="M23" s="10" t="s">
         <v>59</v>
       </c>
@@ -3397,13 +3464,13 @@
       <c r="W27" s="51"/>
     </row>
     <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="93" t="s">
+      <c r="A28" s="102" t="s">
         <v>461</v>
       </c>
-      <c r="B28" s="94"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="95"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="104"/>
       <c r="G28" s="13" t="s">
         <v>12</v>
       </c>
@@ -3433,13 +3500,13 @@
       <c r="E29" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="87" t="s">
+      <c r="M29" s="96" t="s">
         <v>453</v>
       </c>
-      <c r="N29" s="88"/>
-      <c r="O29" s="88"/>
-      <c r="P29" s="88"/>
-      <c r="Q29" s="89"/>
+      <c r="N29" s="97"/>
+      <c r="O29" s="97"/>
+      <c r="P29" s="97"/>
+      <c r="Q29" s="98"/>
       <c r="W29" s="51"/>
     </row>
     <row r="30" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3458,13 +3525,13 @@
       <c r="E30" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G30" s="87" t="s">
+      <c r="G30" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="89"/>
+      <c r="H30" s="97"/>
+      <c r="I30" s="97"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="98"/>
       <c r="M30" s="17" t="s">
         <v>1</v>
       </c>
@@ -3746,13 +3813,13 @@
       <c r="Q39" s="9"/>
     </row>
     <row r="40" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="87" t="s">
+      <c r="A40" s="96" t="s">
         <v>462</v>
       </c>
-      <c r="B40" s="88"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="89"/>
+      <c r="B40" s="97"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="98"/>
       <c r="F40" s="16"/>
       <c r="G40" s="10" t="s">
         <v>32</v>
@@ -3826,13 +3893,13 @@
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="9"/>
-      <c r="M42" s="87" t="s">
+      <c r="M42" s="96" t="s">
         <v>454</v>
       </c>
-      <c r="N42" s="88"/>
-      <c r="O42" s="88"/>
-      <c r="P42" s="88"/>
-      <c r="Q42" s="89"/>
+      <c r="N42" s="97"/>
+      <c r="O42" s="97"/>
+      <c r="P42" s="97"/>
+      <c r="Q42" s="98"/>
     </row>
     <row r="43" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
@@ -3900,13 +3967,13 @@
       </c>
     </row>
     <row r="45" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="87" t="s">
+      <c r="A45" s="96" t="s">
         <v>466</v>
       </c>
-      <c r="B45" s="88"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="89"/>
+      <c r="B45" s="97"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="97"/>
+      <c r="E45" s="98"/>
       <c r="G45" s="10" t="s">
         <v>37</v>
       </c>
@@ -4003,13 +4070,13 @@
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="29"/>
-      <c r="G48" s="90" t="s">
+      <c r="G48" s="99" t="s">
         <v>459</v>
       </c>
-      <c r="H48" s="91"/>
-      <c r="I48" s="91"/>
-      <c r="J48" s="91"/>
-      <c r="K48" s="92"/>
+      <c r="H48" s="100"/>
+      <c r="I48" s="100"/>
+      <c r="J48" s="100"/>
+      <c r="K48" s="101"/>
       <c r="M48" s="10" t="s">
         <v>67</v>
       </c>
@@ -4075,13 +4142,13 @@
       </c>
     </row>
     <row r="51" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="87" t="s">
+      <c r="A51" s="96" t="s">
         <v>467</v>
       </c>
-      <c r="B51" s="88"/>
-      <c r="C51" s="88"/>
-      <c r="D51" s="88"/>
-      <c r="E51" s="89"/>
+      <c r="B51" s="97"/>
+      <c r="C51" s="97"/>
+      <c r="D51" s="97"/>
+      <c r="E51" s="98"/>
       <c r="G51" s="10" t="s">
         <v>40</v>
       </c>
@@ -4170,19 +4237,19 @@
         <v>460</v>
       </c>
       <c r="I55" s="14"/>
-      <c r="J55" s="98">
+      <c r="J55" s="87">
         <v>0</v>
       </c>
       <c r="K55" s="25"/>
     </row>
     <row r="56" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="87" t="s">
+      <c r="A56" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="B56" s="88"/>
-      <c r="C56" s="88"/>
-      <c r="D56" s="88"/>
-      <c r="E56" s="89"/>
+      <c r="B56" s="97"/>
+      <c r="C56" s="97"/>
+      <c r="D56" s="97"/>
+      <c r="E56" s="98"/>
     </row>
     <row r="57" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="17" t="s">
@@ -4200,13 +4267,13 @@
       <c r="E57" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G57" s="87" t="s">
+      <c r="G57" s="96" t="s">
         <v>458</v>
       </c>
-      <c r="H57" s="88"/>
-      <c r="I57" s="88"/>
-      <c r="J57" s="88"/>
-      <c r="K57" s="89"/>
+      <c r="H57" s="97"/>
+      <c r="I57" s="97"/>
+      <c r="J57" s="97"/>
+      <c r="K57" s="98"/>
     </row>
     <row r="58" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
@@ -4278,13 +4345,13 @@
       <c r="K60" s="24"/>
     </row>
     <row r="61" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="87" t="s">
+      <c r="A61" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="B61" s="88"/>
-      <c r="C61" s="88"/>
-      <c r="D61" s="88"/>
-      <c r="E61" s="89"/>
+      <c r="B61" s="97"/>
+      <c r="C61" s="97"/>
+      <c r="D61" s="97"/>
+      <c r="E61" s="98"/>
       <c r="G61" s="10" t="s">
         <v>173</v>
       </c>
@@ -4411,13 +4478,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="99" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="92"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="101"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
@@ -4531,13 +4598,13 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="99" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="92"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="101"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
@@ -4591,13 +4658,13 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="92"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="101"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
@@ -4848,13 +4915,13 @@
       <c r="E37" s="30"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="90" t="s">
+      <c r="A38" s="99" t="s">
         <v>451</v>
       </c>
-      <c r="B38" s="91"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="91"/>
-      <c r="E38" s="92"/>
+      <c r="B38" s="100"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="101"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
@@ -4960,13 +5027,13 @@
     </row>
     <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="90" t="s">
+      <c r="A47" s="99" t="s">
         <v>457</v>
       </c>
-      <c r="B47" s="91"/>
-      <c r="C47" s="91"/>
-      <c r="D47" s="91"/>
-      <c r="E47" s="92"/>
+      <c r="B47" s="100"/>
+      <c r="C47" s="100"/>
+      <c r="D47" s="100"/>
+      <c r="E47" s="101"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
@@ -5089,13 +5156,13 @@
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="90" t="s">
+      <c r="A58" s="99" t="s">
         <v>177</v>
       </c>
-      <c r="B58" s="91"/>
-      <c r="C58" s="91"/>
-      <c r="D58" s="91"/>
-      <c r="E58" s="92"/>
+      <c r="B58" s="100"/>
+      <c r="C58" s="100"/>
+      <c r="D58" s="100"/>
+      <c r="E58" s="101"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="17" t="s">
@@ -5177,13 +5244,13 @@
     </row>
     <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="93" t="s">
+      <c r="A66" s="102" t="s">
         <v>167</v>
       </c>
-      <c r="B66" s="94"/>
-      <c r="C66" s="94"/>
-      <c r="D66" s="94"/>
-      <c r="E66" s="95"/>
+      <c r="B66" s="103"/>
+      <c r="C66" s="103"/>
+      <c r="D66" s="103"/>
+      <c r="E66" s="104"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="48" t="s">
@@ -5245,13 +5312,13 @@
     </row>
     <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="93" t="s">
+      <c r="A72" s="102" t="s">
         <v>178</v>
       </c>
-      <c r="B72" s="94"/>
-      <c r="C72" s="94"/>
-      <c r="D72" s="94"/>
-      <c r="E72" s="95"/>
+      <c r="B72" s="103"/>
+      <c r="C72" s="103"/>
+      <c r="D72" s="103"/>
+      <c r="E72" s="104"/>
     </row>
     <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="17" t="s">
@@ -5387,10 +5454,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="105" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="106"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
@@ -5458,69 +5525,76 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G171"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="C165" sqref="C165:G171"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" style="66" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="63.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="66" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="66" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="66" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="80" t="s">
         <v>179</v>
       </c>
+      <c r="B1" s="81"/>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
       <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
+      <c r="F1" s="82"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
         <v>180</v>
       </c>
+      <c r="B2" s="68" t="s">
+        <v>181</v>
+      </c>
       <c r="C2" s="68" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D2" s="68" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="68" t="s">
         <v>183</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="E2" s="79" t="s">
         <v>446</v>
       </c>
-      <c r="G2" s="69" t="s">
+      <c r="F2" s="69" t="s">
         <v>413</v>
+      </c>
+      <c r="G2" s="88" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="B3" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="C3" s="64" t="s">
         <v>279</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="D3" s="63" t="s">
         <v>281</v>
       </c>
-      <c r="F3" s="70" t="s">
+      <c r="E3" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="77" t="s">
+      <c r="F3" s="77" t="s">
         <v>414</v>
       </c>
     </row>
@@ -5528,19 +5602,19 @@
       <c r="A4" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="B4" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="C4" s="64" t="s">
         <v>279</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="D4" s="63" t="s">
         <v>283</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="E4" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="F4" s="77" t="s">
         <v>415</v>
       </c>
     </row>
@@ -5548,17 +5622,17 @@
       <c r="A5" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="B5" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="C5" s="64" t="s">
         <v>279</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="D5" s="63" t="s">
         <v>282</v>
       </c>
-      <c r="F5" s="70"/>
-      <c r="G5" s="77" t="s">
+      <c r="E5" s="70"/>
+      <c r="F5" s="77" t="s">
         <v>414</v>
       </c>
     </row>
@@ -5566,125 +5640,125 @@
       <c r="A6" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="B6" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="C6" s="64" t="s">
         <v>280</v>
       </c>
-      <c r="E6" s="63" t="s">
+      <c r="D6" s="63" t="s">
         <v>377</v>
       </c>
-      <c r="F6" s="70" t="s">
+      <c r="E6" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="77"/>
+      <c r="F6" s="77"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="B7" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="C7" s="64" t="s">
         <v>280</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="D7" s="63" t="s">
         <v>284</v>
       </c>
-      <c r="F7" s="70" t="s">
+      <c r="E7" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="G7" s="77"/>
+      <c r="F7" s="77"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="B8" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="C8" s="64" t="s">
         <v>280</v>
       </c>
-      <c r="E8" s="63" t="s">
+      <c r="D8" s="63" t="s">
         <v>285</v>
       </c>
-      <c r="F8" s="70"/>
-      <c r="G8" s="77"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="77"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="B9" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="C9" s="64" t="s">
         <v>288</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="D9" s="65" t="s">
         <v>289</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="E9" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="G9" s="76"/>
+      <c r="F9" s="76"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="B10" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="C10" s="64" t="s">
         <v>286</v>
       </c>
-      <c r="E10" s="65" t="s">
+      <c r="D10" s="65" t="s">
         <v>287</v>
       </c>
-      <c r="F10" s="71" t="s">
+      <c r="E10" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="G10" s="76"/>
+      <c r="F10" s="76"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="B11" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="C11" s="64" t="s">
         <v>257</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="D11" s="63" t="s">
         <v>259</v>
       </c>
-      <c r="F11" s="70" t="s">
+      <c r="E11" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="77"/>
+      <c r="F11" s="77"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="B12" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="C12" s="64" t="s">
         <v>257</v>
       </c>
-      <c r="E12" s="63" t="s">
+      <c r="D12" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="F12" s="70" t="s">
+      <c r="E12" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="77" t="s">
+      <c r="F12" s="77" t="s">
         <v>415</v>
       </c>
     </row>
@@ -5692,53 +5766,53 @@
       <c r="A13" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="B13" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="C13" s="64" t="s">
         <v>257</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="D13" s="63" t="s">
         <v>260</v>
       </c>
-      <c r="F13" s="70"/>
-      <c r="G13" s="77"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="77"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="B14" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="C14" s="64" t="s">
         <v>258</v>
       </c>
-      <c r="E14" s="63" t="s">
+      <c r="D14" s="63" t="s">
         <v>374</v>
       </c>
-      <c r="F14" s="70" t="s">
+      <c r="E14" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="77"/>
+      <c r="F14" s="77"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="B15" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="C15" s="64" t="s">
         <v>258</v>
       </c>
-      <c r="E15" s="63" t="s">
+      <c r="D15" s="63" t="s">
         <v>262</v>
       </c>
-      <c r="F15" s="70" t="s">
+      <c r="E15" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="77" t="s">
+      <c r="F15" s="77" t="s">
         <v>415</v>
       </c>
     </row>
@@ -5746,1769 +5820,1769 @@
       <c r="A16" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="62" t="s">
+      <c r="B16" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D16" s="64" t="s">
+      <c r="C16" s="64" t="s">
         <v>258</v>
       </c>
-      <c r="E16" s="63" t="s">
+      <c r="D16" s="63" t="s">
         <v>263</v>
       </c>
-      <c r="F16" s="70"/>
-      <c r="G16" s="77"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16" s="70"/>
+      <c r="F16" s="77"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="B17" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="C17" s="64" t="s">
         <v>343</v>
       </c>
-      <c r="E17" s="63" t="s">
+      <c r="D17" s="63" t="s">
         <v>345</v>
       </c>
-      <c r="F17" s="70" t="s">
+      <c r="E17" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="G17" s="77" t="s">
+      <c r="F17" s="77" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="C18" s="62" t="s">
+      <c r="B18" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D18" s="64" t="s">
+      <c r="C18" s="64" t="s">
         <v>343</v>
       </c>
-      <c r="E18" s="63" t="s">
+      <c r="D18" s="63" t="s">
         <v>347</v>
       </c>
-      <c r="F18" s="70" t="s">
+      <c r="E18" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="G18" s="77" t="s">
+      <c r="F18" s="77" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="B19" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D19" s="64" t="s">
+      <c r="C19" s="64" t="s">
         <v>343</v>
       </c>
-      <c r="E19" s="63" t="s">
+      <c r="D19" s="63" t="s">
         <v>346</v>
       </c>
-      <c r="F19" s="70"/>
-      <c r="G19" s="77" t="s">
+      <c r="E19" s="70"/>
+      <c r="F19" s="77" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="B20" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D20" s="64" t="s">
+      <c r="C20" s="64" t="s">
         <v>344</v>
       </c>
-      <c r="E20" s="63" t="s">
+      <c r="D20" s="63" t="s">
         <v>383</v>
       </c>
-      <c r="F20" s="70" t="s">
+      <c r="E20" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="G20" s="77"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="77"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="B21" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D21" s="64" t="s">
+      <c r="C21" s="64" t="s">
         <v>344</v>
       </c>
-      <c r="E21" s="63" t="s">
+      <c r="D21" s="63" t="s">
         <v>348</v>
       </c>
-      <c r="F21" s="70" t="s">
+      <c r="E21" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="G21" s="77" t="s">
+      <c r="F21" s="77" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="B22" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D22" s="64" t="s">
+      <c r="C22" s="64" t="s">
         <v>344</v>
       </c>
-      <c r="E22" s="63" t="s">
+      <c r="D22" s="63" t="s">
         <v>349</v>
       </c>
-      <c r="F22" s="70"/>
-      <c r="G22" s="77"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E22" s="70"/>
+      <c r="F22" s="77"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="C23" s="62" t="s">
+      <c r="B23" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D23" s="64" t="s">
+      <c r="C23" s="64" t="s">
         <v>350</v>
       </c>
-      <c r="E23" s="63" t="s">
+      <c r="D23" s="63" t="s">
         <v>352</v>
       </c>
-      <c r="F23" s="70" t="s">
+      <c r="E23" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="G23" s="77"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F23" s="77"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="B24" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D24" s="64" t="s">
+      <c r="C24" s="64" t="s">
         <v>351</v>
       </c>
-      <c r="E24" s="63" t="s">
+      <c r="D24" s="63" t="s">
         <v>352</v>
       </c>
-      <c r="F24" s="70" t="s">
+      <c r="E24" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="G24" s="77"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F24" s="77"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="62" t="s">
+      <c r="B25" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D25" s="64" t="s">
+      <c r="C25" s="64" t="s">
         <v>227</v>
       </c>
-      <c r="E25" s="63" t="s">
+      <c r="D25" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="F25" s="70" t="s">
+      <c r="E25" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="G25" s="77"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F25" s="77"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="B26" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D26" s="64" t="s">
+      <c r="C26" s="64" t="s">
         <v>227</v>
       </c>
-      <c r="E26" s="63" t="s">
+      <c r="D26" s="63" t="s">
         <v>230</v>
       </c>
-      <c r="F26" s="70" t="s">
+      <c r="E26" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="G26" s="77" t="s">
+      <c r="F26" s="77" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="B27" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D27" s="64" t="s">
+      <c r="C27" s="64" t="s">
         <v>227</v>
       </c>
-      <c r="E27" s="63" t="s">
+      <c r="D27" s="63" t="s">
         <v>229</v>
       </c>
-      <c r="F27" s="70"/>
-      <c r="G27" s="77"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E27" s="70"/>
+      <c r="F27" s="77"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="62" t="s">
+      <c r="B28" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D28" s="64" t="s">
+      <c r="C28" s="64" t="s">
         <v>232</v>
       </c>
-      <c r="E28" s="63" t="s">
+      <c r="D28" s="63" t="s">
         <v>231</v>
       </c>
-      <c r="F28" s="70" t="s">
+      <c r="E28" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="G28" s="77"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F28" s="77"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="B29" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D29" s="64" t="s">
+      <c r="C29" s="64" t="s">
         <v>232</v>
       </c>
-      <c r="E29" s="63" t="s">
+      <c r="D29" s="63" t="s">
         <v>233</v>
       </c>
-      <c r="F29" s="70" t="s">
+      <c r="E29" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="G29" s="77" t="s">
+      <c r="F29" s="77" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="62" t="s">
+      <c r="B30" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D30" s="64" t="s">
+      <c r="C30" s="64" t="s">
         <v>232</v>
       </c>
-      <c r="E30" s="63" t="s">
+      <c r="D30" s="63" t="s">
         <v>234</v>
       </c>
-      <c r="F30" s="70"/>
-      <c r="G30" s="77"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E30" s="70"/>
+      <c r="F30" s="77"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="B31" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D31" s="64" t="s">
+      <c r="C31" s="64" t="s">
         <v>235</v>
       </c>
-      <c r="E31" s="63" t="s">
+      <c r="D31" s="63" t="s">
         <v>419</v>
       </c>
-      <c r="F31" s="70" t="s">
+      <c r="E31" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="G31" s="77" t="s">
+      <c r="F31" s="77" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="62" t="s">
+      <c r="B32" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D32" s="64" t="s">
+      <c r="C32" s="64" t="s">
         <v>235</v>
       </c>
-      <c r="E32" s="63" t="s">
+      <c r="D32" s="63" t="s">
         <v>417</v>
       </c>
-      <c r="F32" s="70"/>
-      <c r="G32" s="77" t="s">
+      <c r="E32" s="70"/>
+      <c r="F32" s="77" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="62" t="s">
+      <c r="B33" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D33" s="64" t="s">
+      <c r="C33" s="64" t="s">
         <v>416</v>
       </c>
-      <c r="E33" s="63" t="s">
+      <c r="D33" s="63" t="s">
         <v>421</v>
       </c>
-      <c r="F33" s="70" t="s">
+      <c r="E33" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="G33" s="77"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F33" s="77"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="62" t="s">
+      <c r="B34" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D34" s="64" t="s">
+      <c r="C34" s="64" t="s">
         <v>418</v>
       </c>
-      <c r="E34" s="63" t="s">
+      <c r="D34" s="63" t="s">
         <v>420</v>
       </c>
-      <c r="F34" s="70" t="s">
+      <c r="E34" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="G34" s="77"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F34" s="77"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="C35" s="62" t="s">
+      <c r="B35" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D35" s="64" t="s">
+      <c r="C35" s="64" t="s">
         <v>328</v>
       </c>
-      <c r="E35" s="63" t="s">
+      <c r="D35" s="63" t="s">
         <v>330</v>
       </c>
-      <c r="F35" s="70" t="s">
+      <c r="E35" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="G35" s="77" t="s">
+      <c r="F35" s="77" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="62" t="s">
+      <c r="B36" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D36" s="64" t="s">
+      <c r="C36" s="64" t="s">
         <v>328</v>
       </c>
-      <c r="E36" s="63" t="s">
+      <c r="D36" s="63" t="s">
         <v>332</v>
       </c>
-      <c r="F36" s="70" t="s">
+      <c r="E36" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="G36" s="77" t="s">
+      <c r="F36" s="77" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="C37" s="62" t="s">
+      <c r="B37" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D37" s="64" t="s">
+      <c r="C37" s="64" t="s">
         <v>328</v>
       </c>
-      <c r="E37" s="63" t="s">
+      <c r="D37" s="63" t="s">
         <v>331</v>
       </c>
-      <c r="F37" s="70"/>
-      <c r="G37" s="77" t="s">
+      <c r="E37" s="70"/>
+      <c r="F37" s="77" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="C38" s="62" t="s">
+      <c r="B38" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D38" s="64" t="s">
+      <c r="C38" s="64" t="s">
         <v>329</v>
       </c>
-      <c r="E38" s="63" t="s">
+      <c r="D38" s="63" t="s">
         <v>382</v>
       </c>
-      <c r="F38" s="70" t="s">
+      <c r="E38" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="G38" s="77"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F38" s="77"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="C39" s="62" t="s">
+      <c r="B39" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D39" s="64" t="s">
+      <c r="C39" s="64" t="s">
         <v>329</v>
       </c>
-      <c r="E39" s="63" t="s">
+      <c r="D39" s="63" t="s">
         <v>333</v>
       </c>
-      <c r="F39" s="70" t="s">
+      <c r="E39" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="G39" s="77" t="s">
+      <c r="F39" s="77" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="C40" s="62" t="s">
+      <c r="B40" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D40" s="64" t="s">
+      <c r="C40" s="64" t="s">
         <v>329</v>
       </c>
-      <c r="E40" s="63" t="s">
+      <c r="D40" s="63" t="s">
         <v>334</v>
       </c>
-      <c r="F40" s="70"/>
-      <c r="G40" s="77"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E40" s="70"/>
+      <c r="F40" s="77"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="62" t="s">
+      <c r="B41" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D41" s="64" t="s">
+      <c r="C41" s="64" t="s">
         <v>337</v>
       </c>
-      <c r="E41" s="65" t="s">
+      <c r="D41" s="65" t="s">
         <v>338</v>
       </c>
-      <c r="F41" s="71" t="s">
+      <c r="E41" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="G41" s="76"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F41" s="76"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="C42" s="62" t="s">
+      <c r="B42" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D42" s="64" t="s">
+      <c r="C42" s="64" t="s">
         <v>341</v>
       </c>
-      <c r="E42" s="63" t="s">
+      <c r="D42" s="63" t="s">
         <v>342</v>
       </c>
-      <c r="F42" s="70" t="s">
+      <c r="E42" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="G42" s="77"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F42" s="77"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="62" t="s">
+      <c r="B43" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D43" s="64" t="s">
+      <c r="C43" s="64" t="s">
         <v>335</v>
       </c>
-      <c r="E43" s="65" t="s">
+      <c r="D43" s="65" t="s">
         <v>336</v>
       </c>
-      <c r="F43" s="71" t="s">
+      <c r="E43" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="G43" s="76"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F43" s="76"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="C44" s="62" t="s">
+      <c r="B44" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D44" s="64" t="s">
+      <c r="C44" s="64" t="s">
         <v>339</v>
       </c>
-      <c r="E44" s="65" t="s">
+      <c r="D44" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="F44" s="71" t="s">
+      <c r="E44" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="G44" s="76"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F44" s="76"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="70" t="s">
         <v>320</v>
       </c>
-      <c r="C45" s="62" t="s">
+      <c r="B45" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D45" s="64" t="s">
+      <c r="C45" s="64" t="s">
         <v>321</v>
       </c>
-      <c r="E45" s="63" t="s">
+      <c r="D45" s="63" t="s">
         <v>323</v>
       </c>
-      <c r="F45" s="70" t="s">
+      <c r="E45" s="70" t="s">
         <v>320</v>
       </c>
-      <c r="G45" s="77"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F45" s="77"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="70" t="s">
         <v>320</v>
       </c>
-      <c r="C46" s="62" t="s">
+      <c r="B46" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D46" s="64" t="s">
+      <c r="C46" s="64" t="s">
         <v>321</v>
       </c>
-      <c r="E46" s="63" t="s">
+      <c r="D46" s="63" t="s">
         <v>325</v>
       </c>
-      <c r="F46" s="70" t="s">
+      <c r="E46" s="70" t="s">
         <v>320</v>
       </c>
-      <c r="G46" s="77" t="s">
+      <c r="F46" s="77" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="70" t="s">
         <v>320</v>
       </c>
-      <c r="C47" s="62" t="s">
+      <c r="B47" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D47" s="64" t="s">
+      <c r="C47" s="64" t="s">
         <v>321</v>
       </c>
-      <c r="E47" s="63" t="s">
+      <c r="D47" s="63" t="s">
         <v>324</v>
       </c>
-      <c r="F47" s="70"/>
-      <c r="G47" s="77"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E47" s="70"/>
+      <c r="F47" s="77"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="70" t="s">
         <v>320</v>
       </c>
-      <c r="C48" s="62" t="s">
+      <c r="B48" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D48" s="64" t="s">
+      <c r="C48" s="64" t="s">
         <v>322</v>
       </c>
-      <c r="E48" s="63" t="s">
+      <c r="D48" s="63" t="s">
         <v>381</v>
       </c>
-      <c r="F48" s="70" t="s">
+      <c r="E48" s="70" t="s">
         <v>320</v>
       </c>
-      <c r="G48" s="77"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F48" s="77"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="70" t="s">
         <v>320</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="B49" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D49" s="64" t="s">
+      <c r="C49" s="64" t="s">
         <v>322</v>
       </c>
-      <c r="E49" s="63" t="s">
+      <c r="D49" s="63" t="s">
         <v>326</v>
       </c>
-      <c r="F49" s="70" t="s">
+      <c r="E49" s="70" t="s">
         <v>320</v>
       </c>
-      <c r="G49" s="77" t="s">
+      <c r="F49" s="77" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="70" t="s">
         <v>320</v>
       </c>
-      <c r="C50" s="62" t="s">
+      <c r="B50" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D50" s="64" t="s">
+      <c r="C50" s="64" t="s">
         <v>322</v>
       </c>
-      <c r="E50" s="63" t="s">
+      <c r="D50" s="63" t="s">
         <v>327</v>
       </c>
-      <c r="F50" s="70"/>
-      <c r="G50" s="77"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E50" s="70"/>
+      <c r="F50" s="77"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="62" t="s">
+      <c r="B51" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D51" s="64" t="s">
+      <c r="C51" s="64" t="s">
         <v>290</v>
       </c>
-      <c r="E51" s="63" t="s">
+      <c r="D51" s="63" t="s">
         <v>300</v>
       </c>
-      <c r="F51" s="70" t="s">
+      <c r="E51" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="G51" s="77" t="s">
+      <c r="F51" s="77" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="62" t="s">
+      <c r="B52" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D52" s="64" t="s">
+      <c r="C52" s="64" t="s">
         <v>290</v>
       </c>
-      <c r="E52" s="63" t="s">
+      <c r="D52" s="63" t="s">
         <v>292</v>
       </c>
-      <c r="F52" s="70" t="s">
+      <c r="E52" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="G52" s="77" t="s">
+      <c r="F52" s="77" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="C53" s="62" t="s">
+      <c r="B53" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D53" s="64" t="s">
+      <c r="C53" s="64" t="s">
         <v>290</v>
       </c>
-      <c r="E53" s="63" t="s">
+      <c r="D53" s="63" t="s">
         <v>301</v>
       </c>
-      <c r="F53" s="70"/>
-      <c r="G53" s="77" t="s">
+      <c r="E53" s="70"/>
+      <c r="F53" s="77" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="62" t="s">
+      <c r="B54" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D54" s="64" t="s">
+      <c r="C54" s="64" t="s">
         <v>291</v>
       </c>
-      <c r="E54" s="63" t="s">
+      <c r="D54" s="63" t="s">
         <v>441</v>
       </c>
-      <c r="F54" s="70" t="s">
+      <c r="E54" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="G54" s="77"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F54" s="77"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="62" t="s">
+      <c r="B55" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D55" s="64" t="s">
+      <c r="C55" s="64" t="s">
         <v>291</v>
       </c>
-      <c r="E55" s="63" t="s">
+      <c r="D55" s="63" t="s">
         <v>293</v>
       </c>
-      <c r="F55" s="70" t="s">
+      <c r="E55" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="G55" s="77" t="s">
+      <c r="F55" s="77" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="C56" s="62" t="s">
+      <c r="B56" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D56" s="64" t="s">
+      <c r="C56" s="64" t="s">
         <v>291</v>
       </c>
-      <c r="E56" s="63" t="s">
+      <c r="D56" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="F56" s="70"/>
-      <c r="G56" s="77"/>
-    </row>
-    <row r="57" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E56" s="70"/>
+      <c r="F56" s="77"/>
+    </row>
+    <row r="57" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="62" t="s">
+      <c r="B57" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D57" s="64" t="s">
+      <c r="C57" s="64" t="s">
         <v>295</v>
       </c>
-      <c r="E57" s="63" t="s">
+      <c r="D57" s="63" t="s">
         <v>302</v>
       </c>
-      <c r="F57" s="70" t="s">
+      <c r="E57" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="G57" s="77" t="s">
+      <c r="F57" s="77" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="C58" s="62" t="s">
+      <c r="B58" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D58" s="64" t="s">
+      <c r="C58" s="64" t="s">
         <v>295</v>
       </c>
-      <c r="E58" s="63" t="s">
+      <c r="D58" s="63" t="s">
         <v>296</v>
       </c>
-      <c r="F58" s="70" t="s">
+      <c r="E58" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="G58" s="77" t="s">
+      <c r="F58" s="77" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="62" t="s">
+      <c r="B59" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D59" s="64" t="s">
+      <c r="C59" s="64" t="s">
         <v>295</v>
       </c>
-      <c r="E59" s="63" t="s">
+      <c r="D59" s="63" t="s">
         <v>303</v>
       </c>
-      <c r="F59" s="70"/>
-      <c r="G59" s="77" t="s">
+      <c r="E59" s="70"/>
+      <c r="F59" s="77" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="C60" s="62" t="s">
+      <c r="B60" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D60" s="64" t="s">
+      <c r="C60" s="64" t="s">
         <v>297</v>
       </c>
-      <c r="E60" s="63" t="s">
+      <c r="D60" s="63" t="s">
         <v>378</v>
       </c>
-      <c r="F60" s="70" t="s">
+      <c r="E60" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="G60" s="77"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F60" s="77"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="62" t="s">
+      <c r="B61" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D61" s="64" t="s">
+      <c r="C61" s="64" t="s">
         <v>297</v>
       </c>
-      <c r="E61" s="63" t="s">
+      <c r="D61" s="63" t="s">
         <v>298</v>
       </c>
-      <c r="F61" s="70" t="s">
+      <c r="E61" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="G61" s="77" t="s">
+      <c r="F61" s="77" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="62" t="s">
+      <c r="B62" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D62" s="64" t="s">
+      <c r="C62" s="64" t="s">
         <v>297</v>
       </c>
-      <c r="E62" s="63" t="s">
+      <c r="D62" s="63" t="s">
         <v>299</v>
       </c>
-      <c r="F62" s="70"/>
-      <c r="G62" s="77"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E62" s="70"/>
+      <c r="F62" s="77"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="C63" s="62" t="s">
+      <c r="B63" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D63" s="64" t="s">
+      <c r="C63" s="64" t="s">
         <v>304</v>
       </c>
-      <c r="E63" s="65" t="s">
+      <c r="D63" s="65" t="s">
         <v>305</v>
       </c>
-      <c r="F63" s="71" t="s">
+      <c r="E63" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="G63" s="76" t="s">
+      <c r="F63" s="76" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="62" t="s">
+      <c r="B64" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D64" s="64" t="s">
+      <c r="C64" s="64" t="s">
         <v>306</v>
       </c>
-      <c r="E64" s="63" t="s">
+      <c r="D64" s="63" t="s">
         <v>308</v>
       </c>
-      <c r="F64" s="70" t="s">
+      <c r="E64" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="G64" s="77"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F64" s="77"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="C65" s="62" t="s">
+      <c r="B65" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D65" s="64" t="s">
+      <c r="C65" s="64" t="s">
         <v>306</v>
       </c>
-      <c r="E65" s="63" t="s">
+      <c r="D65" s="63" t="s">
         <v>310</v>
       </c>
-      <c r="F65" s="70" t="s">
+      <c r="E65" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="G65" s="77" t="s">
+      <c r="F65" s="77" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="62" t="s">
+      <c r="B66" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D66" s="64" t="s">
+      <c r="C66" s="64" t="s">
         <v>306</v>
       </c>
-      <c r="E66" s="63" t="s">
+      <c r="D66" s="63" t="s">
         <v>309</v>
       </c>
-      <c r="F66" s="70"/>
-      <c r="G66" s="77"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E66" s="70"/>
+      <c r="F66" s="77"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="C67" s="62" t="s">
+      <c r="B67" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D67" s="64" t="s">
+      <c r="C67" s="64" t="s">
         <v>307</v>
       </c>
-      <c r="E67" s="63" t="s">
+      <c r="D67" s="63" t="s">
         <v>379</v>
       </c>
-      <c r="F67" s="70" t="s">
+      <c r="E67" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="G67" s="77"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F67" s="77"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="C68" s="62" t="s">
+      <c r="B68" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D68" s="64" t="s">
+      <c r="C68" s="64" t="s">
         <v>307</v>
       </c>
-      <c r="E68" s="63" t="s">
+      <c r="D68" s="63" t="s">
         <v>311</v>
       </c>
-      <c r="F68" s="70" t="s">
+      <c r="E68" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="G68" s="77" t="s">
+      <c r="F68" s="77" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="C69" s="62" t="s">
+      <c r="B69" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D69" s="64" t="s">
+      <c r="C69" s="64" t="s">
         <v>307</v>
       </c>
-      <c r="E69" s="63" t="s">
+      <c r="D69" s="63" t="s">
         <v>312</v>
       </c>
-      <c r="F69" s="70"/>
-      <c r="G69" s="77"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E69" s="70"/>
+      <c r="F69" s="77"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="62" t="s">
+      <c r="B70" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D70" s="64" t="s">
+      <c r="C70" s="64" t="s">
         <v>240</v>
       </c>
-      <c r="E70" s="63" t="s">
+      <c r="D70" s="63" t="s">
         <v>242</v>
       </c>
-      <c r="F70" s="70" t="s">
+      <c r="E70" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="G70" s="77"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F70" s="77"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C71" s="62" t="s">
+      <c r="B71" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D71" s="64" t="s">
+      <c r="C71" s="64" t="s">
         <v>240</v>
       </c>
-      <c r="E71" s="63" t="s">
+      <c r="D71" s="63" t="s">
         <v>244</v>
       </c>
-      <c r="F71" s="70" t="s">
+      <c r="E71" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="G71" s="77"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F71" s="77"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C72" s="62" t="s">
+      <c r="B72" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D72" s="64" t="s">
+      <c r="C72" s="64" t="s">
         <v>240</v>
       </c>
-      <c r="E72" s="63" t="s">
+      <c r="D72" s="63" t="s">
         <v>243</v>
       </c>
-      <c r="F72" s="70"/>
-      <c r="G72" s="77"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E72" s="70"/>
+      <c r="F72" s="77"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C73" s="62" t="s">
+      <c r="B73" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D73" s="64" t="s">
+      <c r="C73" s="64" t="s">
         <v>241</v>
       </c>
-      <c r="E73" s="63" t="s">
+      <c r="D73" s="63" t="s">
         <v>372</v>
       </c>
-      <c r="F73" s="70" t="s">
+      <c r="E73" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="G73" s="77"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F73" s="77"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C74" s="62" t="s">
+      <c r="B74" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D74" s="64" t="s">
+      <c r="C74" s="64" t="s">
         <v>241</v>
       </c>
-      <c r="E74" s="63" t="s">
+      <c r="D74" s="63" t="s">
         <v>245</v>
       </c>
-      <c r="F74" s="70" t="s">
+      <c r="E74" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="G74" s="77" t="s">
+      <c r="F74" s="77" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C75" s="62" t="s">
+      <c r="B75" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D75" s="64" t="s">
+      <c r="C75" s="64" t="s">
         <v>241</v>
       </c>
-      <c r="E75" s="63" t="s">
+      <c r="D75" s="63" t="s">
         <v>246</v>
       </c>
-      <c r="F75" s="70"/>
-      <c r="G75" s="77"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E75" s="70"/>
+      <c r="F75" s="77"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="70" t="s">
         <v>247</v>
       </c>
-      <c r="C76" s="62" t="s">
+      <c r="B76" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D76" s="64" t="s">
+      <c r="C76" s="64" t="s">
         <v>248</v>
       </c>
-      <c r="E76" s="63" t="s">
+      <c r="D76" s="63" t="s">
         <v>249</v>
       </c>
-      <c r="F76" s="70" t="s">
+      <c r="E76" s="70" t="s">
         <v>247</v>
       </c>
-      <c r="G76" s="77" t="s">
+      <c r="F76" s="77" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="70" t="s">
         <v>247</v>
       </c>
-      <c r="C77" s="62" t="s">
+      <c r="B77" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D77" s="64" t="s">
+      <c r="C77" s="64" t="s">
         <v>248</v>
       </c>
-      <c r="E77" s="63" t="s">
+      <c r="D77" s="63" t="s">
         <v>440</v>
       </c>
-      <c r="F77" s="70"/>
-      <c r="G77" s="77" t="s">
+      <c r="E77" s="70"/>
+      <c r="F77" s="77" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="70" t="s">
         <v>247</v>
       </c>
-      <c r="C78" s="62" t="s">
+      <c r="B78" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D78" s="64" t="s">
+      <c r="C78" s="64" t="s">
         <v>437</v>
       </c>
-      <c r="E78" s="63" t="s">
+      <c r="D78" s="63" t="s">
         <v>436</v>
       </c>
-      <c r="F78" s="70" t="s">
+      <c r="E78" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="G78" s="77"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F78" s="77"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="70" t="s">
         <v>247</v>
       </c>
-      <c r="C79" s="62" t="s">
+      <c r="B79" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D79" s="64" t="s">
+      <c r="C79" s="64" t="s">
         <v>438</v>
       </c>
-      <c r="E79" s="63" t="s">
+      <c r="D79" s="63" t="s">
         <v>439</v>
       </c>
-      <c r="F79" s="70" t="s">
+      <c r="E79" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="G79" s="77"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F79" s="77"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="C80" s="62" t="s">
+      <c r="B80" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D80" s="64" t="s">
+      <c r="C80" s="64" t="s">
         <v>250</v>
       </c>
-      <c r="E80" s="63" t="s">
+      <c r="D80" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="F80" s="70" t="s">
+      <c r="E80" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="G80" s="77"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F80" s="77"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="C81" s="62" t="s">
+      <c r="B81" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D81" s="64" t="s">
+      <c r="C81" s="64" t="s">
         <v>250</v>
       </c>
-      <c r="E81" s="63" t="s">
+      <c r="D81" s="63" t="s">
         <v>254</v>
       </c>
-      <c r="F81" s="70" t="s">
+      <c r="E81" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="G81" s="77"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F81" s="77"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="C82" s="62" t="s">
+      <c r="B82" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D82" s="64" t="s">
+      <c r="C82" s="64" t="s">
         <v>250</v>
       </c>
-      <c r="E82" s="63" t="s">
+      <c r="D82" s="63" t="s">
         <v>253</v>
       </c>
-      <c r="F82" s="70"/>
-      <c r="G82" s="77"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E82" s="70"/>
+      <c r="F82" s="77"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="C83" s="62" t="s">
+      <c r="B83" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D83" s="64" t="s">
+      <c r="C83" s="64" t="s">
         <v>251</v>
       </c>
-      <c r="E83" s="63" t="s">
+      <c r="D83" s="63" t="s">
         <v>373</v>
       </c>
-      <c r="F83" s="70" t="s">
+      <c r="E83" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="G83" s="77"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F83" s="77"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="C84" s="62" t="s">
+      <c r="B84" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D84" s="64" t="s">
+      <c r="C84" s="64" t="s">
         <v>251</v>
       </c>
-      <c r="E84" s="63" t="s">
+      <c r="D84" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F84" s="70" t="s">
+      <c r="E84" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="G84" s="77" t="s">
+      <c r="F84" s="77" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="C85" s="62" t="s">
+      <c r="B85" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D85" s="64" t="s">
+      <c r="C85" s="64" t="s">
         <v>251</v>
       </c>
-      <c r="E85" s="63" t="s">
+      <c r="D85" s="63" t="s">
         <v>256</v>
       </c>
-      <c r="F85" s="70"/>
-      <c r="G85" s="77"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E85" s="70"/>
+      <c r="F85" s="77"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="70" t="s">
         <v>371</v>
       </c>
-      <c r="C86" s="62" t="s">
+      <c r="B86" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D86" s="64" t="s">
+      <c r="C86" s="64" t="s">
         <v>362</v>
       </c>
-      <c r="E86" s="63" t="s">
+      <c r="D86" s="63" t="s">
         <v>363</v>
       </c>
-      <c r="F86" s="70" t="s">
+      <c r="E86" s="70" t="s">
         <v>371</v>
       </c>
-      <c r="G86" s="77" t="s">
+      <c r="F86" s="77" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="70" t="s">
         <v>371</v>
       </c>
-      <c r="C87" s="62" t="s">
+      <c r="B87" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D87" s="64" t="s">
+      <c r="C87" s="64" t="s">
         <v>362</v>
       </c>
-      <c r="E87" s="63" t="s">
+      <c r="D87" s="63" t="s">
         <v>365</v>
       </c>
-      <c r="F87" s="70" t="s">
+      <c r="E87" s="70" t="s">
         <v>371</v>
       </c>
-      <c r="G87" s="77" t="s">
+      <c r="F87" s="77" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="70" t="s">
         <v>371</v>
       </c>
-      <c r="C88" s="62" t="s">
+      <c r="B88" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D88" s="64" t="s">
+      <c r="C88" s="64" t="s">
         <v>362</v>
       </c>
-      <c r="E88" s="63" t="s">
+      <c r="D88" s="63" t="s">
         <v>364</v>
       </c>
-      <c r="F88" s="70"/>
-      <c r="G88" s="77"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E88" s="70"/>
+      <c r="F88" s="77"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="70" t="s">
         <v>371</v>
       </c>
-      <c r="C89" s="62" t="s">
+      <c r="B89" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D89" s="64" t="s">
+      <c r="C89" s="64" t="s">
         <v>366</v>
       </c>
-      <c r="E89" s="63" t="s">
+      <c r="D89" s="63" t="s">
         <v>385</v>
       </c>
-      <c r="F89" s="70" t="s">
+      <c r="E89" s="70" t="s">
         <v>371</v>
       </c>
-      <c r="G89" s="77"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F89" s="77"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="70" t="s">
         <v>371</v>
       </c>
-      <c r="C90" s="62" t="s">
+      <c r="B90" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D90" s="64" t="s">
+      <c r="C90" s="64" t="s">
         <v>366</v>
       </c>
-      <c r="E90" s="63" t="s">
+      <c r="D90" s="63" t="s">
         <v>367</v>
       </c>
-      <c r="F90" s="70" t="s">
+      <c r="E90" s="70" t="s">
         <v>371</v>
       </c>
-      <c r="G90" s="77" t="s">
+      <c r="F90" s="77" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="70" t="s">
         <v>371</v>
       </c>
-      <c r="C91" s="62" t="s">
+      <c r="B91" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D91" s="64" t="s">
+      <c r="C91" s="64" t="s">
         <v>366</v>
       </c>
-      <c r="E91" s="63" t="s">
+      <c r="D91" s="63" t="s">
         <v>368</v>
       </c>
-      <c r="F91" s="70"/>
-      <c r="G91" s="77"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E91" s="70"/>
+      <c r="F91" s="77"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="70" t="s">
         <v>371</v>
       </c>
-      <c r="C92" s="62" t="s">
+      <c r="B92" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D92" s="64" t="s">
+      <c r="C92" s="64" t="s">
         <v>444</v>
       </c>
-      <c r="E92" s="63" t="s">
+      <c r="D92" s="63" t="s">
         <v>445</v>
       </c>
-      <c r="F92" s="70" t="s">
+      <c r="E92" s="70" t="s">
         <v>371</v>
       </c>
-      <c r="G92" s="77"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F92" s="77"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="70" t="s">
         <v>371</v>
       </c>
-      <c r="C93" s="62" t="s">
+      <c r="B93" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D93" s="64" t="s">
+      <c r="C93" s="64" t="s">
         <v>369</v>
       </c>
-      <c r="E93" s="63" t="s">
+      <c r="D93" s="63" t="s">
         <v>370</v>
       </c>
-      <c r="F93" s="70" t="s">
+      <c r="E93" s="70" t="s">
         <v>371</v>
       </c>
-      <c r="G93" s="77"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F93" s="77"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="C94" s="62" t="s">
+      <c r="B94" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D94" s="64" t="s">
+      <c r="C94" s="64" t="s">
         <v>353</v>
       </c>
-      <c r="E94" s="63" t="s">
+      <c r="D94" s="63" t="s">
         <v>355</v>
       </c>
-      <c r="F94" s="70" t="s">
+      <c r="E94" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="G94" s="77" t="s">
+      <c r="F94" s="77" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="C95" s="62" t="s">
+      <c r="B95" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D95" s="64" t="s">
+      <c r="C95" s="64" t="s">
         <v>353</v>
       </c>
-      <c r="E95" s="63" t="s">
+      <c r="D95" s="63" t="s">
         <v>357</v>
       </c>
-      <c r="F95" s="70" t="s">
+      <c r="E95" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="G95" s="77" t="s">
+      <c r="F95" s="77" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="C96" s="62" t="s">
+      <c r="B96" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D96" s="64" t="s">
+      <c r="C96" s="64" t="s">
         <v>353</v>
       </c>
-      <c r="E96" s="63" t="s">
+      <c r="D96" s="63" t="s">
         <v>356</v>
       </c>
-      <c r="F96" s="70"/>
-      <c r="G96" s="77" t="s">
+      <c r="E96" s="70"/>
+      <c r="F96" s="77" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="C97" s="62" t="s">
+      <c r="B97" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D97" s="64" t="s">
+      <c r="C97" s="64" t="s">
         <v>354</v>
       </c>
-      <c r="E97" s="63" t="s">
+      <c r="D97" s="63" t="s">
         <v>384</v>
       </c>
-      <c r="F97" s="70" t="s">
+      <c r="E97" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="G97" s="77"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F97" s="77"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="C98" s="62" t="s">
+      <c r="B98" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D98" s="64" t="s">
+      <c r="C98" s="64" t="s">
         <v>354</v>
       </c>
-      <c r="E98" s="63" t="s">
+      <c r="D98" s="63" t="s">
         <v>358</v>
       </c>
-      <c r="F98" s="70" t="s">
+      <c r="E98" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="G98" s="77" t="s">
+      <c r="F98" s="77" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="C99" s="62" t="s">
+      <c r="B99" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D99" s="64" t="s">
+      <c r="C99" s="64" t="s">
         <v>354</v>
       </c>
-      <c r="E99" s="63" t="s">
+      <c r="D99" s="63" t="s">
         <v>359</v>
       </c>
-      <c r="F99" s="70"/>
-      <c r="G99" s="77"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E99" s="70"/>
+      <c r="F99" s="77"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="C100" s="62" t="s">
+      <c r="B100" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D100" s="64" t="s">
+      <c r="C100" s="64" t="s">
         <v>360</v>
       </c>
-      <c r="E100" s="63" t="s">
+      <c r="D100" s="63" t="s">
         <v>361</v>
       </c>
-      <c r="F100" s="70" t="s">
+      <c r="E100" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="G100" s="77"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F100" s="77"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="C101" s="62" t="s">
+      <c r="B101" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D101" s="64" t="s">
+      <c r="C101" s="64" t="s">
         <v>313</v>
       </c>
-      <c r="E101" s="63" t="s">
+      <c r="D101" s="63" t="s">
         <v>315</v>
       </c>
-      <c r="F101" s="70" t="s">
+      <c r="E101" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="G101" s="77"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F101" s="77"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="C102" s="62" t="s">
+      <c r="B102" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D102" s="64" t="s">
+      <c r="C102" s="64" t="s">
         <v>313</v>
       </c>
-      <c r="E102" s="63" t="s">
+      <c r="D102" s="63" t="s">
         <v>317</v>
       </c>
-      <c r="F102" s="70" t="s">
+      <c r="E102" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="G102" s="77" t="s">
+      <c r="F102" s="77" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="C103" s="62" t="s">
+      <c r="B103" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D103" s="64" t="s">
+      <c r="C103" s="64" t="s">
         <v>313</v>
       </c>
-      <c r="E103" s="63" t="s">
+      <c r="D103" s="63" t="s">
         <v>316</v>
       </c>
-      <c r="F103" s="70"/>
-      <c r="G103" s="77"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E103" s="70"/>
+      <c r="F103" s="77"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="C104" s="62" t="s">
+      <c r="B104" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D104" s="64" t="s">
+      <c r="C104" s="64" t="s">
         <v>442</v>
       </c>
-      <c r="E104" s="63" t="s">
+      <c r="D104" s="63" t="s">
         <v>443</v>
       </c>
-      <c r="F104" s="70" t="s">
+      <c r="E104" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="G104" s="77"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F104" s="77"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="C105" s="62" t="s">
+      <c r="B105" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D105" s="64" t="s">
+      <c r="C105" s="64" t="s">
         <v>314</v>
       </c>
-      <c r="E105" s="63" t="s">
+      <c r="D105" s="63" t="s">
         <v>380</v>
       </c>
-      <c r="F105" s="70" t="s">
+      <c r="E105" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="G105" s="77"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F105" s="77"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="C106" s="62" t="s">
+      <c r="B106" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D106" s="64" t="s">
+      <c r="C106" s="64" t="s">
         <v>314</v>
       </c>
-      <c r="E106" s="63" t="s">
+      <c r="D106" s="63" t="s">
         <v>318</v>
       </c>
-      <c r="F106" s="70" t="s">
+      <c r="E106" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="G106" s="77" t="s">
+      <c r="F106" s="77" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="C107" s="62" t="s">
+      <c r="B107" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D107" s="64" t="s">
+      <c r="C107" s="64" t="s">
         <v>314</v>
       </c>
-      <c r="E107" s="63" t="s">
+      <c r="D107" s="63" t="s">
         <v>319</v>
       </c>
-      <c r="F107" s="70"/>
-      <c r="G107" s="77"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E107" s="70"/>
+      <c r="F107" s="77"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C108" s="62" t="s">
+      <c r="B108" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D108" s="64" t="s">
+      <c r="C108" s="64" t="s">
         <v>272</v>
       </c>
-      <c r="E108" s="63" t="s">
+      <c r="D108" s="63" t="s">
         <v>274</v>
       </c>
-      <c r="F108" s="70" t="s">
+      <c r="E108" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="G108" s="77"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F108" s="77"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C109" s="62" t="s">
+      <c r="B109" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D109" s="64" t="s">
+      <c r="C109" s="64" t="s">
         <v>272</v>
       </c>
-      <c r="E109" s="63" t="s">
+      <c r="D109" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="F109" s="70" t="s">
+      <c r="E109" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="G109" s="77" t="s">
+      <c r="F109" s="77" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C110" s="62" t="s">
+      <c r="B110" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D110" s="64" t="s">
+      <c r="C110" s="64" t="s">
         <v>272</v>
       </c>
-      <c r="E110" s="63" t="s">
+      <c r="D110" s="63" t="s">
         <v>275</v>
       </c>
-      <c r="F110" s="70"/>
-      <c r="G110" s="77"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E110" s="70"/>
+      <c r="F110" s="77"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C111" s="62" t="s">
+      <c r="B111" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D111" s="64" t="s">
+      <c r="C111" s="64" t="s">
         <v>273</v>
       </c>
-      <c r="E111" s="63" t="s">
+      <c r="D111" s="63" t="s">
         <v>376</v>
       </c>
-      <c r="F111" s="70" t="s">
+      <c r="E111" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="G111" s="77"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F111" s="77"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C112" s="62" t="s">
+      <c r="B112" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D112" s="64" t="s">
+      <c r="C112" s="64" t="s">
         <v>273</v>
       </c>
-      <c r="E112" s="63" t="s">
+      <c r="D112" s="63" t="s">
         <v>277</v>
       </c>
-      <c r="F112" s="70" t="s">
+      <c r="E112" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="G112" s="77" t="s">
+      <c r="F112" s="77" t="s">
         <v>415</v>
       </c>
     </row>
@@ -7516,89 +7590,98 @@
       <c r="A113" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C113" s="62" t="s">
+      <c r="B113" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D113" s="64" t="s">
+      <c r="C113" s="64" t="s">
         <v>273</v>
       </c>
-      <c r="E113" s="63" t="s">
+      <c r="D113" s="63" t="s">
         <v>278</v>
       </c>
-      <c r="F113" s="70"/>
-      <c r="G113" s="77"/>
+      <c r="E113" s="70"/>
+      <c r="F113" s="77"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="C114" s="62" t="s">
+      <c r="B114" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D114" s="64" t="s">
+      <c r="C114" s="64" t="s">
         <v>203</v>
       </c>
-      <c r="E114" s="63" t="s">
+      <c r="D114" s="63" t="s">
         <v>204</v>
       </c>
-      <c r="F114" s="70" t="s">
+      <c r="E114" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="G114" s="77"/>
+      <c r="F114" s="77"/>
+      <c r="G114" s="89" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="C115" s="62" t="s">
+      <c r="B115" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D115" s="64" t="s">
+      <c r="C115" s="64" t="s">
         <v>203</v>
       </c>
-      <c r="E115" s="63" t="s">
+      <c r="D115" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="F115" s="70" t="s">
+      <c r="E115" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="G115" s="77" t="s">
+      <c r="F115" s="77" t="s">
         <v>415</v>
+      </c>
+      <c r="G115" s="90" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="C116" s="62" t="s">
+      <c r="B116" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D116" s="64" t="s">
+      <c r="C116" s="64" t="s">
         <v>203</v>
       </c>
-      <c r="E116" s="63" t="s">
+      <c r="D116" s="63" t="s">
         <v>205</v>
       </c>
-      <c r="F116" s="70"/>
-      <c r="G116" s="77"/>
+      <c r="E116" s="70"/>
+      <c r="F116" s="77"/>
+      <c r="G116" s="90" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="C117" s="62" t="s">
+      <c r="B117" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D117" s="64" t="s">
+      <c r="C117" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="E117" s="63" t="s">
+      <c r="D117" s="63" t="s">
         <v>209</v>
       </c>
-      <c r="F117" s="70" t="s">
+      <c r="E117" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="G117" s="77" t="s">
+      <c r="F117" s="77" t="s">
         <v>415</v>
       </c>
     </row>
@@ -7606,53 +7689,53 @@
       <c r="A118" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="C118" s="62" t="s">
+      <c r="B118" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D118" s="64" t="s">
+      <c r="C118" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="E118" s="63" t="s">
+      <c r="D118" s="63" t="s">
         <v>211</v>
       </c>
-      <c r="F118" s="70"/>
-      <c r="G118" s="77"/>
+      <c r="E118" s="70"/>
+      <c r="F118" s="77"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="C119" s="62" t="s">
+      <c r="B119" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D119" s="64" t="s">
+      <c r="C119" s="64" t="s">
         <v>207</v>
       </c>
-      <c r="E119" s="63" t="s">
+      <c r="D119" s="63" t="s">
         <v>210</v>
       </c>
-      <c r="F119" s="70" t="s">
+      <c r="E119" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="G119" s="77"/>
+      <c r="F119" s="77"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="70" t="s">
         <v>264</v>
       </c>
-      <c r="C120" s="62" t="s">
+      <c r="B120" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D120" s="64" t="s">
+      <c r="C120" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="E120" s="63" t="s">
+      <c r="D120" s="63" t="s">
         <v>267</v>
       </c>
-      <c r="F120" s="70" t="s">
+      <c r="E120" s="70" t="s">
         <v>264</v>
       </c>
-      <c r="G120" s="77" t="s">
+      <c r="F120" s="77" t="s">
         <v>414</v>
       </c>
     </row>
@@ -7660,19 +7743,19 @@
       <c r="A121" s="70" t="s">
         <v>264</v>
       </c>
-      <c r="C121" s="62" t="s">
+      <c r="B121" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D121" s="64" t="s">
+      <c r="C121" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="E121" s="63" t="s">
+      <c r="D121" s="63" t="s">
         <v>269</v>
       </c>
-      <c r="F121" s="70" t="s">
+      <c r="E121" s="70" t="s">
         <v>264</v>
       </c>
-      <c r="G121" s="77" t="s">
+      <c r="F121" s="77" t="s">
         <v>415</v>
       </c>
     </row>
@@ -7680,17 +7763,17 @@
       <c r="A122" s="70" t="s">
         <v>264</v>
       </c>
-      <c r="C122" s="62" t="s">
+      <c r="B122" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D122" s="64" t="s">
+      <c r="C122" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="E122" s="63" t="s">
+      <c r="D122" s="63" t="s">
         <v>268</v>
       </c>
-      <c r="F122" s="70"/>
-      <c r="G122" s="77" t="s">
+      <c r="E122" s="70"/>
+      <c r="F122" s="77" t="s">
         <v>414</v>
       </c>
     </row>
@@ -7698,37 +7781,37 @@
       <c r="A123" s="70" t="s">
         <v>264</v>
       </c>
-      <c r="C123" s="62" t="s">
+      <c r="B123" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D123" s="64" t="s">
+      <c r="C123" s="64" t="s">
         <v>266</v>
       </c>
-      <c r="E123" s="63" t="s">
+      <c r="D123" s="63" t="s">
         <v>375</v>
       </c>
-      <c r="F123" s="70" t="s">
+      <c r="E123" s="70" t="s">
         <v>264</v>
       </c>
-      <c r="G123" s="77"/>
+      <c r="F123" s="77"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="70" t="s">
         <v>264</v>
       </c>
-      <c r="C124" s="62" t="s">
+      <c r="B124" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D124" s="64" t="s">
+      <c r="C124" s="64" t="s">
         <v>266</v>
       </c>
-      <c r="E124" s="63" t="s">
+      <c r="D124" s="63" t="s">
         <v>270</v>
       </c>
-      <c r="F124" s="70" t="s">
+      <c r="E124" s="70" t="s">
         <v>264</v>
       </c>
-      <c r="G124" s="77" t="s">
+      <c r="F124" s="77" t="s">
         <v>415</v>
       </c>
     </row>
@@ -7736,35 +7819,35 @@
       <c r="A125" s="70" t="s">
         <v>264</v>
       </c>
-      <c r="C125" s="62" t="s">
+      <c r="B125" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D125" s="64" t="s">
+      <c r="C125" s="64" t="s">
         <v>266</v>
       </c>
-      <c r="E125" s="63" t="s">
+      <c r="D125" s="63" t="s">
         <v>271</v>
       </c>
-      <c r="F125" s="70"/>
-      <c r="G125" s="77"/>
+      <c r="E125" s="70"/>
+      <c r="F125" s="77"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="C126" s="62" t="s">
+      <c r="B126" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D126" s="64" t="s">
+      <c r="C126" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="E126" s="63" t="s">
+      <c r="D126" s="63" t="s">
         <v>219</v>
       </c>
-      <c r="F126" s="70" t="s">
+      <c r="E126" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="G126" s="77" t="s">
+      <c r="F126" s="77" t="s">
         <v>414</v>
       </c>
     </row>
@@ -7772,19 +7855,19 @@
       <c r="A127" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="C127" s="62" t="s">
+      <c r="B127" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D127" s="64" t="s">
+      <c r="C127" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="E127" s="63" t="s">
+      <c r="D127" s="63" t="s">
         <v>221</v>
       </c>
-      <c r="F127" s="70" t="s">
+      <c r="E127" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="G127" s="77" t="s">
+      <c r="F127" s="77" t="s">
         <v>415</v>
       </c>
     </row>
@@ -7792,17 +7875,17 @@
       <c r="A128" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="C128" s="62" t="s">
+      <c r="B128" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D128" s="64" t="s">
+      <c r="C128" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="E128" s="63" t="s">
+      <c r="D128" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="F128" s="70"/>
-      <c r="G128" s="77" t="s">
+      <c r="E128" s="70"/>
+      <c r="F128" s="77" t="s">
         <v>414</v>
       </c>
     </row>
@@ -7810,37 +7893,37 @@
       <c r="A129" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="C129" s="62" t="s">
+      <c r="B129" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D129" s="64" t="s">
+      <c r="C129" s="64" t="s">
         <v>222</v>
       </c>
-      <c r="E129" s="63" t="s">
+      <c r="D129" s="63" t="s">
         <v>202</v>
       </c>
-      <c r="F129" s="70" t="s">
+      <c r="E129" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="G129" s="77"/>
+      <c r="F129" s="77"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="C130" s="62" t="s">
+      <c r="B130" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D130" s="64" t="s">
+      <c r="C130" s="64" t="s">
         <v>222</v>
       </c>
-      <c r="E130" s="63" t="s">
+      <c r="D130" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="F130" s="70" t="s">
+      <c r="E130" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="G130" s="77" t="s">
+      <c r="F130" s="77" t="s">
         <v>415</v>
       </c>
     </row>
@@ -7848,35 +7931,35 @@
       <c r="A131" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="C131" s="62" t="s">
+      <c r="B131" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D131" s="64" t="s">
+      <c r="C131" s="64" t="s">
         <v>222</v>
       </c>
-      <c r="E131" s="63" t="s">
+      <c r="D131" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="F131" s="70"/>
-      <c r="G131" s="77"/>
+      <c r="E131" s="70"/>
+      <c r="F131" s="77"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="C132" s="62" t="s">
+      <c r="B132" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D132" s="64" t="s">
+      <c r="C132" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="E132" s="63" t="s">
+      <c r="D132" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="F132" s="70" t="s">
+      <c r="E132" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="G132" s="77" t="s">
+      <c r="F132" s="77" t="s">
         <v>415</v>
       </c>
     </row>
@@ -7884,19 +7967,19 @@
       <c r="A133" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="C133" s="62" t="s">
+      <c r="B133" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D133" s="64" t="s">
+      <c r="C133" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="E133" s="63" t="s">
+      <c r="D133" s="63" t="s">
         <v>433</v>
       </c>
-      <c r="F133" s="70" t="s">
+      <c r="E133" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="G133" s="77" t="s">
+      <c r="F133" s="77" t="s">
         <v>415</v>
       </c>
     </row>
@@ -7904,17 +7987,17 @@
       <c r="A134" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="C134" s="62" t="s">
+      <c r="B134" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D134" s="64" t="s">
+      <c r="C134" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="E134" s="63" t="s">
+      <c r="D134" s="63" t="s">
         <v>432</v>
       </c>
-      <c r="F134" s="70"/>
-      <c r="G134" s="77" t="s">
+      <c r="E134" s="70"/>
+      <c r="F134" s="77" t="s">
         <v>415</v>
       </c>
     </row>
@@ -7922,55 +8005,55 @@
       <c r="A135" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="C135" s="62" t="s">
+      <c r="B135" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D135" s="64" t="s">
+      <c r="C135" s="64" t="s">
         <v>434</v>
       </c>
-      <c r="E135" s="63" t="s">
+      <c r="D135" s="63" t="s">
         <v>435</v>
       </c>
-      <c r="F135" s="70" t="s">
+      <c r="E135" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="G135" s="77"/>
+      <c r="F135" s="77"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="C136" s="62" t="s">
+      <c r="B136" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D136" s="64" t="s">
+      <c r="C136" s="64" t="s">
         <v>430</v>
       </c>
-      <c r="E136" s="63" t="s">
+      <c r="D136" s="63" t="s">
         <v>431</v>
       </c>
-      <c r="F136" s="70" t="s">
+      <c r="E136" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="G136" s="77"/>
+      <c r="F136" s="77"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="70" t="s">
         <v>236</v>
       </c>
-      <c r="C137" s="62" t="s">
+      <c r="B137" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D137" s="64" t="s">
+      <c r="C137" s="64" t="s">
         <v>237</v>
       </c>
-      <c r="E137" s="63" t="s">
+      <c r="D137" s="63" t="s">
         <v>426</v>
       </c>
-      <c r="F137" s="70" t="s">
+      <c r="E137" s="70" t="s">
         <v>236</v>
       </c>
-      <c r="G137" s="77" t="s">
+      <c r="F137" s="77" t="s">
         <v>415</v>
       </c>
     </row>
@@ -7978,17 +8061,17 @@
       <c r="A138" s="70" t="s">
         <v>236</v>
       </c>
-      <c r="C138" s="62" t="s">
+      <c r="B138" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D138" s="64" t="s">
+      <c r="C138" s="64" t="s">
         <v>237</v>
       </c>
-      <c r="E138" s="63" t="s">
+      <c r="D138" s="63" t="s">
         <v>425</v>
       </c>
-      <c r="F138" s="70"/>
-      <c r="G138" s="77" t="s">
+      <c r="E138" s="70"/>
+      <c r="F138" s="77" t="s">
         <v>415</v>
       </c>
     </row>
@@ -7996,607 +8079,610 @@
       <c r="A139" s="70" t="s">
         <v>236</v>
       </c>
-      <c r="C139" s="62" t="s">
+      <c r="B139" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D139" s="64" t="s">
+      <c r="C139" s="64" t="s">
         <v>422</v>
       </c>
-      <c r="E139" s="63" t="s">
+      <c r="D139" s="63" t="s">
         <v>423</v>
       </c>
-      <c r="F139" s="70" t="s">
+      <c r="E139" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="G139" s="77"/>
+      <c r="F139" s="77"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="70" t="s">
         <v>236</v>
       </c>
-      <c r="C140" s="62" t="s">
+      <c r="B140" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D140" s="64" t="s">
+      <c r="C140" s="64" t="s">
         <v>424</v>
       </c>
-      <c r="E140" s="63" t="s">
+      <c r="D140" s="63" t="s">
         <v>427</v>
       </c>
-      <c r="F140" s="70" t="s">
+      <c r="E140" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="G140" s="77"/>
+      <c r="F140" s="77"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="70" t="s">
         <v>236</v>
       </c>
-      <c r="C141" s="62" t="s">
+      <c r="B141" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D141" s="64" t="s">
+      <c r="C141" s="64" t="s">
         <v>428</v>
       </c>
-      <c r="E141" s="63" t="s">
+      <c r="D141" s="63" t="s">
         <v>429</v>
       </c>
-      <c r="F141" s="70" t="s">
+      <c r="E141" s="70" t="s">
         <v>449</v>
       </c>
-      <c r="G141" s="77"/>
+      <c r="F141" s="77"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C142" s="62" t="s">
+      <c r="B142" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D142" s="64" t="s">
+      <c r="C142" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="E142" s="65" t="s">
+      <c r="D142" s="65" t="s">
         <v>189</v>
       </c>
-      <c r="F142" s="70" t="s">
+      <c r="E142" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="G142" s="76" t="s">
+      <c r="F142" s="76" t="s">
         <v>414</v>
+      </c>
+      <c r="G142" s="90" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C143" s="62" t="s">
+      <c r="B143" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D143" s="64" t="s">
+      <c r="C143" s="64" t="s">
         <v>190</v>
       </c>
-      <c r="E143" s="65" t="s">
+      <c r="D143" s="65" t="s">
         <v>191</v>
       </c>
-      <c r="F143" s="70" t="s">
+      <c r="E143" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="G143" s="76"/>
+      <c r="F143" s="76"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C144" s="62" t="s">
+      <c r="B144" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D144" s="64" t="s">
+      <c r="C144" s="64" t="s">
         <v>190</v>
       </c>
-      <c r="E144" s="65" t="s">
+      <c r="D144" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="F144" s="70" t="s">
+      <c r="E144" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="G144" s="76" t="s">
+      <c r="F144" s="76" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C145" s="62" t="s">
+      <c r="B145" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D145" s="64" t="s">
+      <c r="C145" s="64" t="s">
         <v>190</v>
       </c>
-      <c r="E145" s="65" t="s">
+      <c r="D145" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="F145" s="70"/>
-      <c r="G145" s="76"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E145" s="70"/>
+      <c r="F145" s="76"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C146" s="62" t="s">
+      <c r="B146" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D146" s="64" t="s">
+      <c r="C146" s="64" t="s">
         <v>200</v>
       </c>
-      <c r="E146" s="65" t="s">
+      <c r="D146" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="F146" s="70" t="s">
+      <c r="E146" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="G146" s="76" t="s">
+      <c r="F146" s="76" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C147" s="62" t="s">
+      <c r="B147" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D147" s="64" t="s">
+      <c r="C147" s="64" t="s">
         <v>212</v>
       </c>
-      <c r="E147" s="65" t="s">
+      <c r="D147" s="65" t="s">
         <v>213</v>
       </c>
-      <c r="F147" s="70" t="s">
+      <c r="E147" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="G147" s="76"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F147" s="76"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C148" s="62" t="s">
+      <c r="B148" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D148" s="64" t="s">
+      <c r="C148" s="64" t="s">
         <v>216</v>
       </c>
-      <c r="E148" s="65" t="s">
+      <c r="D148" s="65" t="s">
         <v>217</v>
       </c>
-      <c r="F148" s="70" t="s">
+      <c r="E148" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="G148" s="76"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F148" s="76"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C149" s="62" t="s">
+      <c r="B149" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D149" s="64" t="s">
+      <c r="C149" s="64" t="s">
         <v>214</v>
       </c>
-      <c r="E149" s="65" t="s">
+      <c r="D149" s="65" t="s">
         <v>215</v>
       </c>
-      <c r="F149" s="70" t="s">
+      <c r="E149" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="G149" s="76"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F149" s="76"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C150" s="62" t="s">
+      <c r="B150" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D150" s="64" t="s">
+      <c r="C150" s="64" t="s">
         <v>196</v>
       </c>
-      <c r="E150" s="65" t="s">
+      <c r="D150" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="F150" s="70" t="s">
+      <c r="E150" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="G150" s="76" t="s">
+      <c r="F150" s="76" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C151" s="62" t="s">
+      <c r="B151" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D151" s="64" t="s">
+      <c r="C151" s="64" t="s">
         <v>198</v>
       </c>
-      <c r="E151" s="65" t="s">
+      <c r="D151" s="65" t="s">
         <v>199</v>
       </c>
-      <c r="F151" s="70"/>
-      <c r="G151" s="76"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E151" s="70"/>
+      <c r="F151" s="76"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C152" s="62" t="s">
+      <c r="B152" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D152" s="64" t="s">
+      <c r="C152" s="64" t="s">
         <v>194</v>
       </c>
-      <c r="E152" s="65" t="s">
+      <c r="D152" s="65" t="s">
         <v>195</v>
       </c>
-      <c r="F152" s="70" t="s">
+      <c r="E152" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="G152" s="76" t="s">
+      <c r="F152" s="76" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="70" t="s">
         <v>395</v>
       </c>
-      <c r="C153" s="62" t="s">
+      <c r="B153" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D153" s="64" t="s">
+      <c r="C153" s="64" t="s">
         <v>396</v>
       </c>
-      <c r="E153" s="63" t="s">
+      <c r="D153" s="63" t="s">
         <v>401</v>
       </c>
-      <c r="F153" s="70" t="s">
+      <c r="E153" s="70" t="s">
         <v>395</v>
       </c>
-      <c r="G153" s="77"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F153" s="77"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="70" t="s">
         <v>395</v>
       </c>
-      <c r="C154" s="62" t="s">
+      <c r="B154" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D154" s="64" t="s">
+      <c r="C154" s="64" t="s">
         <v>396</v>
       </c>
-      <c r="E154" s="63" t="s">
+      <c r="D154" s="63" t="s">
         <v>403</v>
       </c>
-      <c r="F154" s="70" t="s">
+      <c r="E154" s="70" t="s">
         <v>395</v>
       </c>
-      <c r="G154" s="77" t="s">
+      <c r="F154" s="77" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="70" t="s">
         <v>395</v>
       </c>
-      <c r="C155" s="62" t="s">
+      <c r="B155" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D155" s="64" t="s">
+      <c r="C155" s="64" t="s">
         <v>396</v>
       </c>
-      <c r="E155" s="63" t="s">
+      <c r="D155" s="63" t="s">
         <v>402</v>
       </c>
-      <c r="F155" s="70"/>
-      <c r="G155" s="77"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E155" s="70"/>
+      <c r="F155" s="77"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="70" t="s">
         <v>395</v>
       </c>
-      <c r="C156" s="62" t="s">
+      <c r="B156" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D156" s="64" t="s">
+      <c r="C156" s="64" t="s">
         <v>397</v>
       </c>
-      <c r="E156" s="63" t="s">
+      <c r="D156" s="63" t="s">
         <v>398</v>
       </c>
-      <c r="F156" s="70" t="s">
+      <c r="E156" s="70" t="s">
         <v>395</v>
       </c>
-      <c r="G156" s="77"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F156" s="77"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="70" t="s">
         <v>395</v>
       </c>
-      <c r="C157" s="62" t="s">
+      <c r="B157" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D157" s="64" t="s">
+      <c r="C157" s="64" t="s">
         <v>397</v>
       </c>
-      <c r="E157" s="63" t="s">
+      <c r="D157" s="63" t="s">
         <v>399</v>
       </c>
-      <c r="F157" s="70" t="s">
+      <c r="E157" s="70" t="s">
         <v>395</v>
       </c>
-      <c r="G157" s="77" t="s">
+      <c r="F157" s="77" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="70" t="s">
         <v>395</v>
       </c>
-      <c r="C158" s="62" t="s">
+      <c r="B158" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D158" s="64" t="s">
+      <c r="C158" s="64" t="s">
         <v>397</v>
       </c>
-      <c r="E158" s="63" t="s">
+      <c r="D158" s="63" t="s">
         <v>400</v>
       </c>
-      <c r="F158" s="70"/>
-      <c r="G158" s="77"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E158" s="70"/>
+      <c r="F158" s="77"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="70" t="s">
         <v>395</v>
       </c>
-      <c r="C159" s="62" t="s">
+      <c r="B159" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D159" s="64" t="s">
+      <c r="C159" s="64" t="s">
         <v>404</v>
       </c>
-      <c r="E159" s="63" t="s">
+      <c r="D159" s="63" t="s">
         <v>405</v>
       </c>
-      <c r="F159" s="70" t="s">
+      <c r="E159" s="70" t="s">
         <v>395</v>
       </c>
-      <c r="G159" s="77"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="70" t="s">
+      <c r="F159" s="77"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="C160" s="62" t="s">
+      <c r="B160" s="92" t="s">
         <v>185</v>
       </c>
-      <c r="D160" s="64" t="s">
+      <c r="C160" s="93" t="s">
         <v>409</v>
       </c>
-      <c r="E160" s="63" t="s">
+      <c r="D160" s="94" t="s">
         <v>406</v>
       </c>
-      <c r="F160" s="70" t="s">
+      <c r="E160" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="G160" s="77" t="s">
+      <c r="F160" s="95" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="70" t="s">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="C161" s="62" t="s">
+      <c r="B161" s="92" t="s">
         <v>184</v>
       </c>
-      <c r="D161" s="64" t="s">
+      <c r="C161" s="93" t="s">
         <v>447</v>
       </c>
-      <c r="E161" s="63" t="s">
+      <c r="D161" s="94" t="s">
         <v>448</v>
       </c>
-      <c r="F161" s="70" t="s">
+      <c r="E161" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="G161" s="77"/>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="70" t="s">
+      <c r="F161" s="95"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="C162" s="62" t="s">
+      <c r="B162" s="92" t="s">
         <v>184</v>
       </c>
-      <c r="D162" s="64" t="s">
+      <c r="C162" s="93" t="s">
         <v>410</v>
       </c>
-      <c r="E162" s="63" t="s">
+      <c r="D162" s="94" t="s">
         <v>407</v>
       </c>
-      <c r="F162" s="70" t="s">
+      <c r="E162" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="G162" s="77"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="70" t="s">
+      <c r="F162" s="95"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="C163" s="62" t="s">
+      <c r="B163" s="92" t="s">
         <v>186</v>
       </c>
-      <c r="D163" s="64" t="s">
+      <c r="C163" s="93" t="s">
         <v>410</v>
       </c>
-      <c r="E163" s="63" t="s">
+      <c r="D163" s="94" t="s">
         <v>408</v>
       </c>
-      <c r="F163" s="70"/>
-      <c r="G163" s="77"/>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="70" t="s">
+      <c r="E163" s="91"/>
+      <c r="F163" s="95"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="C164" s="62" t="s">
+      <c r="B164" s="92" t="s">
         <v>186</v>
       </c>
-      <c r="D164" s="64" t="s">
+      <c r="C164" s="93" t="s">
         <v>411</v>
       </c>
-      <c r="E164" s="63" t="s">
+      <c r="D164" s="94" t="s">
         <v>412</v>
       </c>
-      <c r="F164" s="70"/>
-      <c r="G164" s="77"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E164" s="91"/>
+      <c r="F164" s="95"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="C165" s="62" t="s">
+      <c r="B165" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D165" s="64" t="s">
+      <c r="C165" s="64" t="s">
         <v>386</v>
       </c>
-      <c r="E165" s="63" t="s">
+      <c r="D165" s="63" t="s">
         <v>388</v>
       </c>
-      <c r="F165" s="70" t="s">
+      <c r="E165" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="G165" s="77"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F165" s="77"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="C166" s="62" t="s">
+      <c r="B166" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D166" s="64" t="s">
+      <c r="C166" s="64" t="s">
         <v>386</v>
       </c>
-      <c r="E166" s="63" t="s">
+      <c r="D166" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="F166" s="70" t="s">
+      <c r="E166" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="G166" s="77" t="s">
+      <c r="F166" s="77" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="C167" s="62" t="s">
+      <c r="B167" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D167" s="64" t="s">
+      <c r="C167" s="64" t="s">
         <v>386</v>
       </c>
-      <c r="E167" s="63" t="s">
+      <c r="D167" s="63" t="s">
         <v>389</v>
       </c>
-      <c r="F167" s="70"/>
-      <c r="G167" s="77"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E167" s="70"/>
+      <c r="F167" s="77"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="C168" s="62" t="s">
+      <c r="B168" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D168" s="64" t="s">
+      <c r="C168" s="64" t="s">
         <v>387</v>
       </c>
-      <c r="E168" s="63" t="s">
+      <c r="D168" s="63" t="s">
         <v>391</v>
       </c>
-      <c r="F168" s="70" t="s">
+      <c r="E168" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="G168" s="77"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F168" s="77"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="C169" s="62" t="s">
+      <c r="B169" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D169" s="64" t="s">
+      <c r="C169" s="64" t="s">
         <v>387</v>
       </c>
-      <c r="E169" s="63" t="s">
+      <c r="D169" s="63" t="s">
         <v>392</v>
       </c>
-      <c r="F169" s="70" t="s">
+      <c r="E169" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="G169" s="77" t="s">
+      <c r="F169" s="77" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="C170" s="62" t="s">
+      <c r="B170" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D170" s="64" t="s">
+      <c r="C170" s="64" t="s">
         <v>387</v>
       </c>
-      <c r="E170" s="63" t="s">
+      <c r="D170" s="63" t="s">
         <v>393</v>
       </c>
-      <c r="F170" s="70"/>
-      <c r="G170" s="77"/>
-    </row>
-    <row r="171" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E170" s="70"/>
+      <c r="F170" s="77"/>
+    </row>
+    <row r="171" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="72" t="s">
         <v>167</v>
       </c>
-      <c r="C171" s="73" t="s">
+      <c r="B171" s="73" t="s">
         <v>184</v>
       </c>
-      <c r="D171" s="74" t="s">
+      <c r="C171" s="74" t="s">
         <v>394</v>
       </c>
-      <c r="E171" s="75" t="s">
+      <c r="D171" s="75" t="s">
         <v>450</v>
       </c>
-      <c r="F171" s="72" t="s">
+      <c r="E171" s="72" t="s">
         <v>167</v>
       </c>
-      <c r="G171" s="78"/>
+      <c r="F171" s="78"/>
     </row>
   </sheetData>
   <sortState ref="A3:G171">
-    <sortCondition ref="D3:D171"/>
-    <sortCondition ref="C3:C171" customList="GET,PUT,POST,DELETE"/>
+    <sortCondition ref="C3:C171"/>
+    <sortCondition ref="B3:B171" customList="GET,PUT,POST,DELETE"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="56" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/documentation/DataAndAPIMatchAware.xlsx
+++ b/documentation/DataAndAPIMatchAware.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="9060" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="UserEntities" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="472">
   <si>
     <t>USER</t>
   </si>
@@ -1439,6 +1439,9 @@
   </si>
   <si>
     <t>AUTH USER</t>
+  </si>
+  <si>
+    <t>GENDER</t>
   </si>
 </sst>
 </file>
@@ -1974,7 +1977,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2265,6 +2268,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2572,7 +2581,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2580,10 +2589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W64"/>
+  <dimension ref="A1:W66"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P60" sqref="P60"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3902,19 +3911,17 @@
       <c r="Q42" s="98"/>
     </row>
     <row r="43" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="29" t="s">
-        <v>5</v>
-      </c>
+      <c r="C43" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="46"/>
+      <c r="E43" s="108"/>
       <c r="G43" s="10" t="s">
         <v>35</v>
       </c>
@@ -3940,7 +3947,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="29"/>
       <c r="G44" s="10" t="s">
         <v>36</v>
       </c>
@@ -3966,14 +3984,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="96" t="s">
-        <v>466</v>
-      </c>
-      <c r="B45" s="97"/>
-      <c r="C45" s="97"/>
-      <c r="D45" s="97"/>
-      <c r="E45" s="98"/>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="29"/>
       <c r="G45" s="10" t="s">
         <v>37</v>
       </c>
@@ -3998,21 +4020,6 @@
       </c>
     </row>
     <row r="46" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>8</v>
-      </c>
       <c r="G46" s="13" t="s">
         <v>38</v>
       </c>
@@ -4033,21 +4040,13 @@
       <c r="Q46" s="29"/>
     </row>
     <row r="47" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" s="28" t="s">
-        <v>5</v>
-      </c>
+      <c r="A47" s="96" t="s">
+        <v>466</v>
+      </c>
+      <c r="B47" s="97"/>
+      <c r="C47" s="97"/>
+      <c r="D47" s="97"/>
+      <c r="E47" s="98"/>
       <c r="M47" s="10" t="s">
         <v>66</v>
       </c>
@@ -4059,17 +4058,21 @@
       <c r="Q47" s="9"/>
     </row>
     <row r="48" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="29"/>
+      <c r="A48" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="G48" s="99" t="s">
         <v>459</v>
       </c>
@@ -4088,17 +4091,21 @@
       <c r="Q48" s="9"/>
     </row>
     <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="14"/>
-      <c r="E49" s="40"/>
+      <c r="A49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>5</v>
+      </c>
       <c r="G49" s="17" t="s">
         <v>1</v>
       </c>
@@ -4124,7 +4131,18 @@
       <c r="P49" s="14"/>
       <c r="Q49" s="15"/>
     </row>
-    <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="29"/>
       <c r="G50" s="4" t="s">
         <v>16</v>
       </c>
@@ -4142,13 +4160,17 @@
       </c>
     </row>
     <row r="51" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="96" t="s">
-        <v>467</v>
-      </c>
-      <c r="B51" s="97"/>
-      <c r="C51" s="97"/>
-      <c r="D51" s="97"/>
-      <c r="E51" s="98"/>
+      <c r="A51" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="14"/>
+      <c r="E51" s="40"/>
       <c r="G51" s="10" t="s">
         <v>40</v>
       </c>
@@ -4162,21 +4184,6 @@
       <c r="K51" s="24"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="19" t="s">
-        <v>8</v>
-      </c>
       <c r="G52" s="10" t="s">
         <v>41</v>
       </c>
@@ -4189,18 +4196,14 @@
       </c>
       <c r="K52" s="24"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="28"/>
+    <row r="53" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="96" t="s">
+        <v>467</v>
+      </c>
+      <c r="B53" s="97"/>
+      <c r="C53" s="97"/>
+      <c r="D53" s="97"/>
+      <c r="E53" s="98"/>
       <c r="G53" s="10"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -4209,18 +4212,22 @@
       </c>
       <c r="K53" s="24"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="29"/>
+    <row r="54" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="G54" s="10"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
@@ -4230,6 +4237,17 @@
       <c r="K54" s="24"/>
     </row>
     <row r="55" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="28"/>
       <c r="G55" s="13" t="s">
         <v>113</v>
       </c>
@@ -4243,30 +4261,19 @@
       <c r="K55" s="25"/>
     </row>
     <row r="56" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="96" t="s">
-        <v>107</v>
-      </c>
-      <c r="B56" s="97"/>
-      <c r="C56" s="97"/>
-      <c r="D56" s="97"/>
-      <c r="E56" s="98"/>
+      <c r="A56" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="29"/>
     </row>
     <row r="57" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>8</v>
-      </c>
       <c r="G57" s="96" t="s">
         <v>458</v>
       </c>
@@ -4276,17 +4283,13 @@
       <c r="K57" s="98"/>
     </row>
     <row r="58" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C58" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="28"/>
+      <c r="A58" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" s="97"/>
+      <c r="C58" s="97"/>
+      <c r="D58" s="97"/>
+      <c r="E58" s="98"/>
       <c r="G58" s="17" t="s">
         <v>1</v>
       </c>
@@ -4304,17 +4307,21 @@
       </c>
     </row>
     <row r="59" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C59" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="14"/>
-      <c r="E59" s="40"/>
+      <c r="A59" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="G59" s="4" t="s">
         <v>16</v>
       </c>
@@ -4331,7 +4338,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="6"/>
+      <c r="E60" s="28"/>
       <c r="G60" s="10" t="s">
         <v>12</v>
       </c>
@@ -4345,13 +4363,17 @@
       <c r="K60" s="24"/>
     </row>
     <row r="61" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="96" t="s">
-        <v>109</v>
-      </c>
-      <c r="B61" s="97"/>
-      <c r="C61" s="97"/>
-      <c r="D61" s="97"/>
-      <c r="E61" s="98"/>
+      <c r="A61" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="14"/>
+      <c r="E61" s="40"/>
       <c r="G61" s="10" t="s">
         <v>173</v>
       </c>
@@ -4363,21 +4385,6 @@
       <c r="K61" s="24"/>
     </row>
     <row r="62" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B62" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="19" t="s">
-        <v>8</v>
-      </c>
       <c r="G62" s="10" t="s">
         <v>174</v>
       </c>
@@ -4388,18 +4395,14 @@
       <c r="J62" s="8"/>
       <c r="K62" s="24"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C63" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="28"/>
+    <row r="63" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="96" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" s="97"/>
+      <c r="C63" s="97"/>
+      <c r="D63" s="97"/>
+      <c r="E63" s="98"/>
       <c r="G63" s="10" t="s">
         <v>176</v>
       </c>
@@ -4411,17 +4414,21 @@
       <c r="K63" s="24"/>
     </row>
     <row r="64" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C64" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" s="14"/>
-      <c r="E64" s="40"/>
+      <c r="A64" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="G64" s="13" t="s">
         <v>175</v>
       </c>
@@ -4432,18 +4439,39 @@
       <c r="J64" s="14"/>
       <c r="K64" s="25"/>
     </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="6"/>
+      <c r="E65" s="28"/>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="14"/>
+      <c r="E66" s="40"/>
+    </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="M29:Q29"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="M42:Q42"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A63:E63"/>
     <mergeCell ref="G18:K18"/>
     <mergeCell ref="G13:K13"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A53:E53"/>
     <mergeCell ref="G48:K48"/>
     <mergeCell ref="G30:K30"/>
     <mergeCell ref="G23:K23"/>
@@ -4451,7 +4479,12 @@
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="A40:E40"/>
     <mergeCell ref="G57:K57"/>
-    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="M29:Q29"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M42:Q42"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="G3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5530,7 +5563,7 @@
   </sheetPr>
   <dimension ref="A1:G171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:G171"/>
     </sheetView>
   </sheetViews>

--- a/documentation/DataAndAPIMatchAware.xlsx
+++ b/documentation/DataAndAPIMatchAware.xlsx
@@ -14,7 +14,7 @@
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Routing!$A$1:$G$171</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Routing!$A$1:$G$173</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="472">
   <si>
     <t>USER</t>
   </si>
@@ -328,9 +328,6 @@
     <t>'REFEREE',</t>
   </si>
   <si>
-    <t>PARENT_PLAYER']</t>
-  </si>
-  <si>
     <t>['FORFEIT',</t>
   </si>
   <si>
@@ -349,18 +346,9 @@
     <t>CLUB_MEMBER</t>
   </si>
   <si>
-    <t>TEAM_PLAYERS</t>
-  </si>
-  <si>
     <t>PLAYER</t>
   </si>
   <si>
-    <t>TEAM_COACHES</t>
-  </si>
-  <si>
-    <t>COACH</t>
-  </si>
-  <si>
     <t>LEAGUE_TYPE</t>
   </si>
   <si>
@@ -736,18 +724,6 @@
     <t>/club_member</t>
   </si>
   <si>
-    <t>TEAM_PLAYER</t>
-  </si>
-  <si>
-    <t>/team_player</t>
-  </si>
-  <si>
-    <t>/team_coach</t>
-  </si>
-  <si>
-    <t>TEAM_COACH</t>
-  </si>
-  <si>
     <t>/league</t>
   </si>
   <si>
@@ -1294,48 +1270,9 @@
     <t>Retrieve all user members of club</t>
   </si>
   <si>
-    <t>/team_player/:teamId</t>
-  </si>
-  <si>
-    <t>Retrieve all players on team</t>
-  </si>
-  <si>
-    <t>/team_player/:userId</t>
-  </si>
-  <si>
-    <t>Remove player from team</t>
-  </si>
-  <si>
-    <t>Add player to team</t>
-  </si>
-  <si>
-    <t>Retrieve all teams player belongs to</t>
-  </si>
-  <si>
-    <t>/team_player/getRosterSize/:teamId</t>
-  </si>
-  <si>
     <t>Get a count of all players associated with a team</t>
   </si>
   <si>
-    <t>/team_coach/:teamId</t>
-  </si>
-  <si>
-    <t>Retrieve all coaches on a team</t>
-  </si>
-  <si>
-    <t>Remove coach from team</t>
-  </si>
-  <si>
-    <t>Add coach to team</t>
-  </si>
-  <si>
-    <t>/team_coach/:coachId</t>
-  </si>
-  <si>
-    <t>Retrieve all teams associated with coach</t>
-  </si>
-  <si>
     <t>Retrieve all teams in league</t>
   </si>
   <si>
@@ -1375,9 +1312,6 @@
     <t>Retrieve all users in role</t>
   </si>
   <si>
-    <t>INTEGER</t>
-  </si>
-  <si>
     <t>Retrieve user settings for this user</t>
   </si>
   <si>
@@ -1442,13 +1376,79 @@
   </si>
   <si>
     <t>GENDER</t>
+  </si>
+  <si>
+    <t>TEAM_MEMBER</t>
+  </si>
+  <si>
+    <t>/team_members</t>
+  </si>
+  <si>
+    <t>Retrieve all team members</t>
+  </si>
+  <si>
+    <t>Add member to team</t>
+  </si>
+  <si>
+    <t>Remove all members from all teams</t>
+  </si>
+  <si>
+    <t>Remove member from team by ID</t>
+  </si>
+  <si>
+    <t>/team_members/:userId/:teamId</t>
+  </si>
+  <si>
+    <t>Retrieve all teams associated with member</t>
+  </si>
+  <si>
+    <t>Retrieve all members on a team</t>
+  </si>
+  <si>
+    <t>/team_members/getRosterSize/:teamId</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Remove all members from team by ID</t>
+  </si>
+  <si>
+    <t>/team_members/findTeamsMembers/:teamId</t>
+  </si>
+  <si>
+    <t>/team_members/findMembersTeams/:userId</t>
+  </si>
+  <si>
+    <t>/team_members/:teamMemberId</t>
+  </si>
+  <si>
+    <t>Retrieve team member by ID</t>
+  </si>
+  <si>
+    <t>Update team member by ID</t>
+  </si>
+  <si>
+    <t>Remove team member by ID</t>
+  </si>
+  <si>
+    <t>/team_members/removeAllMembers/:teamId</t>
+  </si>
+  <si>
+    <t>PARENT'</t>
+  </si>
+  <si>
+    <t>PLAYER']</t>
+  </si>
+  <si>
+    <t>TEAM_MEMBERS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1490,6 +1490,12 @@
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1977,7 +1983,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2236,6 +2242,12 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2269,12 +2281,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2581,7 +2599,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2589,10 +2607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W66"/>
+  <dimension ref="A1:W64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2630,28 +2648,28 @@
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="99" t="s">
-        <v>463</v>
-      </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="101"/>
+      <c r="A3" s="101" t="s">
+        <v>441</v>
+      </c>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="103"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="96" t="s">
-        <v>455</v>
-      </c>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="98"/>
-      <c r="M3" s="96" t="s">
-        <v>452</v>
-      </c>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="98"/>
+      <c r="G3" s="98" t="s">
+        <v>433</v>
+      </c>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="100"/>
+      <c r="M3" s="98" t="s">
+        <v>430</v>
+      </c>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="100"/>
     </row>
     <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
@@ -2797,7 +2815,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="24"/>
       <c r="G7" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>3</v>
@@ -2808,7 +2826,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="24"/>
       <c r="M7" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>3</v>
@@ -2841,10 +2859,10 @@
       <c r="J8" s="8"/>
       <c r="K8" s="24"/>
       <c r="M8" s="10" t="s">
-        <v>43</v>
+        <v>172</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="O8" s="21" t="s">
         <v>5</v>
@@ -2872,7 +2890,7 @@
       <c r="J9" s="8"/>
       <c r="K9" s="24"/>
       <c r="M9" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>3</v>
@@ -2907,7 +2925,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="24"/>
       <c r="M10" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N10" s="8" t="s">
         <v>3</v>
@@ -2915,7 +2933,7 @@
       <c r="O10" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="P10" s="12"/>
+      <c r="P10" s="8"/>
       <c r="Q10" s="24"/>
     </row>
     <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2940,7 +2958,7 @@
       <c r="J11" s="14"/>
       <c r="K11" s="25"/>
       <c r="M11" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N11" s="8" t="s">
         <v>3</v>
@@ -2948,7 +2966,7 @@
       <c r="O11" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="P11" s="8"/>
+      <c r="P11" s="12"/>
       <c r="Q11" s="24"/>
       <c r="U11" s="51"/>
       <c r="W11" s="51"/>
@@ -2969,14 +2987,16 @@
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
       <c r="M12" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="O12" s="8"/>
+      <c r="O12" s="21" t="s">
+        <v>5</v>
+      </c>
       <c r="P12" s="8"/>
-      <c r="Q12" s="9"/>
+      <c r="Q12" s="24"/>
       <c r="U12" s="51"/>
       <c r="W12" s="51"/>
     </row>
@@ -2990,18 +3010,18 @@
       <c r="C13" s="21"/>
       <c r="D13" s="8"/>
       <c r="E13" s="24"/>
-      <c r="G13" s="96" t="s">
-        <v>112</v>
-      </c>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="98"/>
+      <c r="G13" s="98" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="100"/>
       <c r="M13" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
@@ -3035,7 +3055,7 @@
         <v>8</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N14" s="8" t="s">
         <v>49</v>
@@ -3068,7 +3088,7 @@
       <c r="J15" s="46"/>
       <c r="K15" s="47"/>
       <c r="M15" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N15" s="8" t="s">
         <v>49</v>
@@ -3090,7 +3110,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="24"/>
       <c r="G16" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H16" s="42" t="s">
         <v>21</v>
@@ -3101,7 +3121,7 @@
       <c r="J16" s="14"/>
       <c r="K16" s="25"/>
       <c r="M16" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N16" s="8" t="s">
         <v>49</v>
@@ -3125,7 +3145,7 @@
       </c>
       <c r="E17" s="24"/>
       <c r="M17" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N17" s="8" t="s">
         <v>49</v>
@@ -3138,25 +3158,25 @@
     </row>
     <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E18" s="24"/>
-      <c r="G18" s="96" t="s">
-        <v>456</v>
-      </c>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="98"/>
+      <c r="G18" s="98" t="s">
+        <v>434</v>
+      </c>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="100"/>
       <c r="M18" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N18" s="8" t="s">
         <v>49</v>
@@ -3169,14 +3189,14 @@
     </row>
     <row r="19" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E19" s="24"/>
       <c r="G19" s="48" t="s">
@@ -3195,7 +3215,7 @@
         <v>8</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N19" s="8" t="s">
         <v>49</v>
@@ -3232,7 +3252,7 @@
         <v>5</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N20" s="8" t="s">
         <v>49</v>
@@ -3265,7 +3285,7 @@
       <c r="J21" s="14"/>
       <c r="K21" s="25"/>
       <c r="M21" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N21" s="8" t="s">
         <v>49</v>
@@ -3283,7 +3303,7 @@
       <c r="J22" s="16"/>
       <c r="K22" s="30"/>
       <c r="M22" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N22" s="8" t="s">
         <v>49</v>
@@ -3295,22 +3315,22 @@
       <c r="W22" s="51"/>
     </row>
     <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="102" t="s">
-        <v>464</v>
-      </c>
-      <c r="B23" s="103"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="104"/>
-      <c r="G23" s="99" t="s">
-        <v>465</v>
-      </c>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="101"/>
+      <c r="A23" s="104" t="s">
+        <v>442</v>
+      </c>
+      <c r="B23" s="105"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="106"/>
+      <c r="G23" s="101" t="s">
+        <v>443</v>
+      </c>
+      <c r="H23" s="102"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="103"/>
       <c r="M23" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N23" s="8" t="s">
         <v>49</v>
@@ -3353,7 +3373,7 @@
         <v>8</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N24" s="8" t="s">
         <v>49</v>
@@ -3394,7 +3414,7 @@
         <v>5</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N25" s="8" t="s">
         <v>49</v>
@@ -3431,7 +3451,7 @@
       <c r="J26" s="8"/>
       <c r="K26" s="24"/>
       <c r="M26" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N26" s="8" t="s">
         <v>49</v>
@@ -3462,10 +3482,10 @@
       </c>
       <c r="K27" s="24"/>
       <c r="M27" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
@@ -3473,13 +3493,13 @@
       <c r="W27" s="51"/>
     </row>
     <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="102" t="s">
-        <v>461</v>
-      </c>
-      <c r="B28" s="103"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="104"/>
+      <c r="A28" s="104" t="s">
+        <v>439</v>
+      </c>
+      <c r="B28" s="105"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="106"/>
       <c r="G28" s="13" t="s">
         <v>12</v>
       </c>
@@ -3491,6 +3511,15 @@
       </c>
       <c r="J28" s="14"/>
       <c r="K28" s="25"/>
+      <c r="M28" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="9"/>
       <c r="W28" s="51"/>
     </row>
     <row r="29" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3509,13 +3538,6 @@
       <c r="E29" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="96" t="s">
-        <v>453</v>
-      </c>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="98"/>
       <c r="W29" s="51"/>
     </row>
     <row r="30" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3534,28 +3556,20 @@
       <c r="E30" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G30" s="96" t="s">
+      <c r="G30" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="97"/>
-      <c r="I30" s="97"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="98"/>
-      <c r="M30" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="N30" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="O30" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="P30" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q30" s="19" t="s">
-        <v>8</v>
-      </c>
+      <c r="H30" s="99"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="100"/>
+      <c r="M30" s="98" t="s">
+        <v>431</v>
+      </c>
+      <c r="N30" s="99"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="99"/>
+      <c r="Q30" s="100"/>
     </row>
     <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
@@ -3588,20 +3602,20 @@
       <c r="K31" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N31" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O31" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q31" s="28" t="s">
-        <v>5</v>
+      <c r="M31" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="N31" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="O31" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="P31" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q31" s="19" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
@@ -3621,17 +3635,19 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="7"/>
-      <c r="M32" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N32" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="29" t="s">
+      <c r="M32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O32" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q32" s="28" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3653,16 +3669,18 @@
       <c r="J33" s="8"/>
       <c r="K33" s="9"/>
       <c r="M33" s="10" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="O33" s="27" t="s">
         <v>5</v>
       </c>
       <c r="P33" s="8"/>
-      <c r="Q33" s="29"/>
+      <c r="Q33" s="29" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
@@ -3682,7 +3700,7 @@
       <c r="J34" s="8"/>
       <c r="K34" s="9"/>
       <c r="M34" s="10" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="N34" s="8" t="s">
         <v>21</v>
@@ -3711,14 +3729,16 @@
       <c r="J35" s="8"/>
       <c r="K35" s="9"/>
       <c r="M35" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="O35" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="O35" s="27" t="s">
+        <v>5</v>
+      </c>
       <c r="P35" s="8"/>
-      <c r="Q35" s="9"/>
+      <c r="Q35" s="29"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
@@ -3738,10 +3758,10 @@
       <c r="J36" s="8"/>
       <c r="K36" s="9"/>
       <c r="M36" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
@@ -3765,23 +3785,23 @@
       <c r="J37" s="8"/>
       <c r="K37" s="9"/>
       <c r="M37" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
       <c r="Q37" s="9"/>
     </row>
-    <row r="38" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="E38" s="15"/>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="E38" s="9"/>
       <c r="G38" s="10" t="s">
         <v>30</v>
       </c>
@@ -3792,7 +3812,7 @@
       <c r="J38" s="8"/>
       <c r="K38" s="9"/>
       <c r="M38" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N38" s="8" t="s">
         <v>28</v>
@@ -3802,6 +3822,13 @@
       <c r="Q38" s="9"/>
     </row>
     <row r="39" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="33" t="s">
+        <v>470</v>
+      </c>
+      <c r="E39" s="15"/>
       <c r="G39" s="10" t="s">
         <v>31</v>
       </c>
@@ -3812,7 +3839,7 @@
       <c r="J39" s="8"/>
       <c r="K39" s="9"/>
       <c r="M39" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="N39" s="8" t="s">
         <v>28</v>
@@ -3822,13 +3849,6 @@
       <c r="Q39" s="9"/>
     </row>
     <row r="40" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="96" t="s">
-        <v>462</v>
-      </c>
-      <c r="B40" s="97"/>
-      <c r="C40" s="97"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="98"/>
       <c r="F40" s="16"/>
       <c r="G40" s="10" t="s">
         <v>32</v>
@@ -3839,34 +3859,24 @@
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="9"/>
-      <c r="M40" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="N40" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q40" s="15"/>
+      <c r="M40" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="9"/>
     </row>
     <row r="41" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>8</v>
-      </c>
+      <c r="A41" s="98" t="s">
+        <v>440</v>
+      </c>
+      <c r="B41" s="99"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="100"/>
       <c r="G41" s="10" t="s">
         <v>33</v>
       </c>
@@ -3876,22 +3886,33 @@
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="9"/>
+      <c r="M41" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="N41" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q41" s="15"/>
     </row>
     <row r="42" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E42" s="28" t="s">
-        <v>5</v>
+      <c r="A42" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>8</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>34</v>
@@ -3902,26 +3923,23 @@
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="9"/>
-      <c r="M42" s="96" t="s">
-        <v>454</v>
-      </c>
-      <c r="N42" s="97"/>
-      <c r="O42" s="97"/>
-      <c r="P42" s="97"/>
-      <c r="Q42" s="98"/>
     </row>
     <row r="43" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="107" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="46"/>
-      <c r="E43" s="108"/>
+      <c r="A43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>5</v>
+      </c>
       <c r="G43" s="10" t="s">
         <v>35</v>
       </c>
@@ -3931,34 +3949,26 @@
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="9"/>
-      <c r="M43" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="N43" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="O43" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="P43" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q43" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="29"/>
+      <c r="M43" s="98" t="s">
+        <v>432</v>
+      </c>
+      <c r="N43" s="99"/>
+      <c r="O43" s="99"/>
+      <c r="P43" s="99"/>
+      <c r="Q43" s="100"/>
+    </row>
+    <row r="44" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="46"/>
+      <c r="E44" s="97"/>
       <c r="G44" s="10" t="s">
         <v>36</v>
       </c>
@@ -3968,25 +3978,25 @@
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="9"/>
-      <c r="M44" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N44" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O44" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q44" s="28" t="s">
-        <v>5</v>
+      <c r="M44" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="N44" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="O44" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="P44" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q44" s="19" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>18</v>
+        <v>449</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>21</v>
@@ -4005,21 +4015,34 @@
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="9"/>
-      <c r="M45" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N45" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="O45" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="29" t="s">
+      <c r="M45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O45" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q45" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="29"/>
       <c r="G46" s="13" t="s">
         <v>38</v>
       </c>
@@ -4030,58 +4053,47 @@
       <c r="J46" s="14"/>
       <c r="K46" s="15"/>
       <c r="M46" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M47" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="N46" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O46" s="27"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="29"/>
-    </row>
-    <row r="47" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="96" t="s">
-        <v>466</v>
-      </c>
-      <c r="B47" s="97"/>
-      <c r="C47" s="97"/>
-      <c r="D47" s="97"/>
-      <c r="E47" s="98"/>
-      <c r="M47" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="N47" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="O47" s="8"/>
+      <c r="O47" s="27"/>
       <c r="P47" s="8"/>
-      <c r="Q47" s="9"/>
+      <c r="Q47" s="29"/>
     </row>
     <row r="48" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="99" t="s">
-        <v>459</v>
-      </c>
-      <c r="H48" s="100"/>
-      <c r="I48" s="100"/>
-      <c r="J48" s="100"/>
-      <c r="K48" s="101"/>
+      <c r="A48" s="98" t="s">
+        <v>444</v>
+      </c>
+      <c r="B48" s="99"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="99"/>
+      <c r="E48" s="100"/>
+      <c r="G48" s="101" t="s">
+        <v>437</v>
+      </c>
+      <c r="H48" s="102"/>
+      <c r="I48" s="102"/>
+      <c r="J48" s="102"/>
+      <c r="K48" s="103"/>
       <c r="M48" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N48" s="8" t="s">
         <v>20</v>
@@ -4091,20 +4103,20 @@
       <c r="Q48" s="9"/>
     </row>
     <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E49" s="28" t="s">
-        <v>5</v>
+      <c r="A49" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>8</v>
       </c>
       <c r="G49" s="17" t="s">
         <v>1</v>
@@ -4121,28 +4133,32 @@
       <c r="K49" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M49" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="N49" s="14" t="s">
+      <c r="M49" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="N49" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="15"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="29"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="9"/>
+    </row>
+    <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>5</v>
+      </c>
       <c r="G50" s="4" t="s">
         <v>16</v>
       </c>
@@ -4158,19 +4174,28 @@
       <c r="K50" s="23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="B51" s="14" t="s">
+      <c r="M50" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="N50" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="15"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="14"/>
-      <c r="E51" s="40"/>
+      <c r="C51" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="29"/>
       <c r="G51" s="10" t="s">
         <v>40</v>
       </c>
@@ -4184,6 +4209,17 @@
       <c r="K51" s="24"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="14"/>
+      <c r="E52" s="40"/>
       <c r="G52" s="10" t="s">
         <v>41</v>
       </c>
@@ -4192,67 +4228,56 @@
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K52" s="24"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="96" t="s">
-        <v>467</v>
-      </c>
-      <c r="B53" s="97"/>
-      <c r="C53" s="97"/>
-      <c r="D53" s="97"/>
-      <c r="E53" s="98"/>
       <c r="G53" s="10"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K53" s="24"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>8</v>
-      </c>
+      <c r="A54" s="98" t="s">
+        <v>445</v>
+      </c>
+      <c r="B54" s="99"/>
+      <c r="C54" s="99"/>
+      <c r="D54" s="99"/>
+      <c r="E54" s="100"/>
       <c r="G54" s="10"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
       <c r="J54" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K54" s="24"/>
     </row>
     <row r="55" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="28"/>
+      <c r="A55" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="G55" s="13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="I55" s="14"/>
       <c r="J55" s="87">
@@ -4261,35 +4286,39 @@
       <c r="K55" s="25"/>
     </row>
     <row r="56" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="28"/>
+    </row>
+    <row r="57" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B57" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="29"/>
-    </row>
-    <row r="57" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G57" s="96" t="s">
-        <v>458</v>
-      </c>
-      <c r="H57" s="97"/>
-      <c r="I57" s="97"/>
-      <c r="J57" s="97"/>
-      <c r="K57" s="98"/>
+      <c r="C57" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="29"/>
+      <c r="G57" s="98" t="s">
+        <v>436</v>
+      </c>
+      <c r="H57" s="99"/>
+      <c r="I57" s="99"/>
+      <c r="J57" s="99"/>
+      <c r="K57" s="100"/>
     </row>
     <row r="58" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="96" t="s">
-        <v>107</v>
-      </c>
-      <c r="B58" s="97"/>
-      <c r="C58" s="97"/>
-      <c r="D58" s="97"/>
-      <c r="E58" s="98"/>
       <c r="G58" s="17" t="s">
         <v>1</v>
       </c>
@@ -4307,21 +4336,13 @@
       </c>
     </row>
     <row r="59" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>8</v>
-      </c>
+      <c r="A59" s="98" t="s">
+        <v>471</v>
+      </c>
+      <c r="B59" s="99"/>
+      <c r="C59" s="99"/>
+      <c r="D59" s="99"/>
+      <c r="E59" s="100"/>
       <c r="G59" s="4" t="s">
         <v>16</v>
       </c>
@@ -4338,18 +4359,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="28"/>
+    <row r="60" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="G60" s="10" t="s">
         <v>12</v>
       </c>
@@ -4362,20 +4387,20 @@
       <c r="J60" s="8"/>
       <c r="K60" s="24"/>
     </row>
-    <row r="61" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B61" s="14" t="s">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="14"/>
-      <c r="E61" s="40"/>
+      <c r="C61" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="6"/>
+      <c r="E61" s="28"/>
       <c r="G61" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H61" s="8" t="s">
         <v>3</v>
@@ -4384,9 +4409,20 @@
       <c r="J61" s="8"/>
       <c r="K61" s="24"/>
     </row>
-    <row r="62" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="29"/>
       <c r="G62" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H62" s="8" t="s">
         <v>21</v>
@@ -4396,95 +4432,57 @@
       <c r="K62" s="24"/>
     </row>
     <row r="63" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="96" t="s">
-        <v>109</v>
-      </c>
-      <c r="B63" s="97"/>
-      <c r="C63" s="97"/>
-      <c r="D63" s="97"/>
-      <c r="E63" s="98"/>
+      <c r="A63" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="14"/>
+      <c r="E63" s="40"/>
       <c r="G63" s="10" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I63" s="21"/>
       <c r="J63" s="8"/>
       <c r="K63" s="24"/>
     </row>
     <row r="64" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" s="19" t="s">
-        <v>8</v>
-      </c>
       <c r="G64" s="13" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H64" s="14" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I64" s="22"/>
       <c r="J64" s="14"/>
       <c r="K64" s="25"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C65" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" s="6"/>
-      <c r="E65" s="28"/>
-    </row>
-    <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C66" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" s="14"/>
-      <c r="E66" s="40"/>
-    </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A63:E63"/>
+  <mergeCells count="17">
+    <mergeCell ref="M30:Q30"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M43:Q43"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="G3:K3"/>
     <mergeCell ref="G18:K18"/>
     <mergeCell ref="G13:K13"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A54:E54"/>
     <mergeCell ref="G48:K48"/>
     <mergeCell ref="G30:K30"/>
     <mergeCell ref="G23:K23"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A41:E41"/>
     <mergeCell ref="G57:K57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="M29:Q29"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="M42:Q42"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="A59:E59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4511,13 +4509,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="101"/>
+      <c r="A1" s="101" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="103"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
@@ -4568,7 +4566,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>21</v>
@@ -4594,7 +4592,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>21</v>
@@ -4605,39 +4603,39 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E8" s="24"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E9" s="25"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="99" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="101"/>
+      <c r="A11" s="101" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="103"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
@@ -4691,13 +4689,13 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="99" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="101"/>
+      <c r="A16" s="101" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="103"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
@@ -4759,7 +4757,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>21</v>
@@ -4770,7 +4768,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>21</v>
@@ -4792,14 +4790,14 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E24" s="24"/>
       <c r="I24" s="52"/>
@@ -4828,7 +4826,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>21</v>
@@ -4839,10 +4837,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="8"/>
@@ -4850,7 +4848,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>3</v>
@@ -4861,10 +4859,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="8"/>
@@ -4883,7 +4881,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>28</v>
@@ -4894,10 +4892,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C33" s="21"/>
       <c r="D33" s="8"/>
@@ -4905,7 +4903,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>3</v>
@@ -4918,7 +4916,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="60" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B35" s="54" t="s">
         <v>21</v>
@@ -4929,14 +4927,14 @@
     </row>
     <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="22"/>
       <c r="D36" s="14" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E36" s="25"/>
     </row>
@@ -4948,13 +4946,13 @@
       <c r="E37" s="30"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="99" t="s">
-        <v>451</v>
-      </c>
-      <c r="B38" s="100"/>
-      <c r="C38" s="100"/>
-      <c r="D38" s="100"/>
-      <c r="E38" s="101"/>
+      <c r="A38" s="101" t="s">
+        <v>429</v>
+      </c>
+      <c r="B38" s="102"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="103"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
@@ -4992,7 +4990,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>21</v>
@@ -5005,7 +5003,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>21</v>
@@ -5018,7 +5016,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="60" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B43" s="54" t="s">
         <v>3</v>
@@ -5031,7 +5029,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="60" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B44" s="54" t="s">
         <v>21</v>
@@ -5044,7 +5042,7 @@
     </row>
     <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>21</v>
@@ -5055,18 +5053,18 @@
       <c r="D45" s="14"/>
       <c r="E45" s="25"/>
       <c r="G45" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="99" t="s">
-        <v>457</v>
-      </c>
-      <c r="B47" s="100"/>
-      <c r="C47" s="100"/>
-      <c r="D47" s="100"/>
-      <c r="E47" s="101"/>
+      <c r="A47" s="101" t="s">
+        <v>435</v>
+      </c>
+      <c r="B47" s="102"/>
+      <c r="C47" s="102"/>
+      <c r="D47" s="102"/>
+      <c r="E47" s="103"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
@@ -5104,7 +5102,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>3</v>
@@ -5134,7 +5132,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>21</v>
@@ -5145,7 +5143,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>3</v>
@@ -5156,10 +5154,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C54" s="21"/>
       <c r="D54" s="8"/>
@@ -5167,7 +5165,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>21</v>
@@ -5178,7 +5176,7 @@
     </row>
     <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>21</v>
@@ -5189,13 +5187,13 @@
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="99" t="s">
-        <v>177</v>
-      </c>
-      <c r="B58" s="100"/>
-      <c r="C58" s="100"/>
-      <c r="D58" s="100"/>
-      <c r="E58" s="101"/>
+      <c r="A58" s="101" t="s">
+        <v>173</v>
+      </c>
+      <c r="B58" s="102"/>
+      <c r="C58" s="102"/>
+      <c r="D58" s="102"/>
+      <c r="E58" s="103"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="17" t="s">
@@ -5233,7 +5231,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>21</v>
@@ -5244,7 +5242,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>3</v>
@@ -5255,7 +5253,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>21</v>
@@ -5266,7 +5264,7 @@
     </row>
     <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>21</v>
@@ -5277,13 +5275,13 @@
     </row>
     <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="102" t="s">
-        <v>167</v>
-      </c>
-      <c r="B66" s="103"/>
-      <c r="C66" s="103"/>
-      <c r="D66" s="103"/>
-      <c r="E66" s="104"/>
+      <c r="A66" s="104" t="s">
+        <v>163</v>
+      </c>
+      <c r="B66" s="105"/>
+      <c r="C66" s="105"/>
+      <c r="D66" s="105"/>
+      <c r="E66" s="106"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="48" t="s">
@@ -5332,7 +5330,7 @@
     </row>
     <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="13" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>3</v>
@@ -5345,13 +5343,13 @@
     </row>
     <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="102" t="s">
-        <v>178</v>
-      </c>
-      <c r="B72" s="103"/>
-      <c r="C72" s="103"/>
-      <c r="D72" s="103"/>
-      <c r="E72" s="104"/>
+      <c r="A72" s="104" t="s">
+        <v>174</v>
+      </c>
+      <c r="B72" s="105"/>
+      <c r="C72" s="105"/>
+      <c r="D72" s="105"/>
+      <c r="E72" s="106"/>
     </row>
     <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="17" t="s">
@@ -5389,10 +5387,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C75" s="21" t="s">
         <v>5</v>
@@ -5404,7 +5402,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>3</v>
@@ -5415,7 +5413,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>3</v>
@@ -5439,7 +5437,7 @@
     </row>
     <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B79" s="14" t="s">
         <v>3</v>
@@ -5487,65 +5485,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="106"/>
+      <c r="A1" s="107" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="108"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="56" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="56" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="56" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="56" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="56" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="58" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -5561,17 +5559,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G171"/>
+  <dimension ref="A1:G173"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G171"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143:F143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" style="66" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="63.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" style="66" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" style="66" bestFit="1" customWidth="1"/>
@@ -5580,7 +5578,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="80" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B1" s="81"/>
       <c r="C1" s="81"/>
@@ -5590,170 +5588,170 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B2" s="68" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C2" s="68" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D2" s="68" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E2" s="79" t="s">
+        <v>425</v>
+      </c>
+      <c r="F2" s="69" t="s">
+        <v>405</v>
+      </c>
+      <c r="G2" s="88" t="s">
         <v>446</v>
-      </c>
-      <c r="F2" s="69" t="s">
-        <v>413</v>
-      </c>
-      <c r="G2" s="88" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="70" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C3" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D3" s="63" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E3" s="70" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F3" s="77" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="70" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B4" s="62" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D4" s="63" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E4" s="70" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F4" s="77" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="70" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D5" s="63" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E5" s="70"/>
       <c r="F5" s="77" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B6" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D6" s="63" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="E6" s="70" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F6" s="77"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="70" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C7" s="64" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D7" s="63" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E7" s="70" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F7" s="77"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D8" s="63" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="E8" s="70"/>
       <c r="F8" s="77"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="71" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C9" s="64" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D9" s="65" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E9" s="71" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F9" s="76"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="71" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D10" s="65" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E10" s="71" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F10" s="76"/>
     </row>
@@ -5762,13 +5760,13 @@
         <v>18</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E11" s="70" t="s">
         <v>18</v>
@@ -5780,19 +5778,19 @@
         <v>18</v>
       </c>
       <c r="B12" s="62" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C12" s="64" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D12" s="63" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E12" s="70" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="77" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -5800,13 +5798,13 @@
         <v>18</v>
       </c>
       <c r="B13" s="62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C13" s="64" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D13" s="63" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E13" s="70"/>
       <c r="F13" s="77"/>
@@ -5816,13 +5814,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="E14" s="70" t="s">
         <v>18</v>
@@ -5834,19 +5832,19 @@
         <v>18</v>
       </c>
       <c r="B15" s="62" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C15" s="64" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E15" s="70" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="77" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -5854,323 +5852,323 @@
         <v>18</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C16" s="64" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D16" s="63" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E16" s="70"/>
       <c r="F16" s="77"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="70" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C17" s="64" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D17" s="63" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="E17" s="70" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F17" s="77" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="70" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B18" s="62" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C18" s="64" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D18" s="63" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E18" s="70" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F18" s="77" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="70" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D19" s="63" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E19" s="70"/>
       <c r="F19" s="77" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C20" s="64" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D20" s="63" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E20" s="70" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F20" s="77"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="70" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B21" s="62" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C21" s="64" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D21" s="63" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E21" s="70" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F21" s="77" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C22" s="64" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D22" s="63" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E22" s="70"/>
       <c r="F22" s="77"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="70" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B23" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C23" s="64" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D23" s="63" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E23" s="70" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F23" s="77"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="70" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B24" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C24" s="64" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D24" s="63" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E24" s="70" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F24" s="77"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C25" s="64" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D25" s="63" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E25" s="70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F25" s="77"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B26" s="62" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C26" s="64" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D26" s="63" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E26" s="70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F26" s="77" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C27" s="64" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D27" s="63" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E27" s="70"/>
       <c r="F27" s="77"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B28" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C28" s="64" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D28" s="63" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E28" s="70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F28" s="77"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B29" s="62" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C29" s="64" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D29" s="63" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E29" s="70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F29" s="77" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B30" s="62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C30" s="64" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D30" s="63" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E30" s="70"/>
       <c r="F30" s="77"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B31" s="62" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C31" s="64" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D31" s="63" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E31" s="70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F31" s="77" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B32" s="62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C32" s="64" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D32" s="63" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="E32" s="70"/>
       <c r="F32" s="77" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B33" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C33" s="64" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="D33" s="63" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E33" s="70" t="s">
         <v>0</v>
@@ -6179,310 +6177,310 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B34" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C34" s="64" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="D34" s="63" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="E34" s="70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F34" s="77"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="70" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B35" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C35" s="64" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D35" s="63" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E35" s="70" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F35" s="77" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="70" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B36" s="62" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C36" s="64" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D36" s="63" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="E36" s="70" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F36" s="77" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="70" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B37" s="62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C37" s="64" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D37" s="63" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="E37" s="70"/>
       <c r="F37" s="77" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="70" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B38" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C38" s="64" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D38" s="63" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="E38" s="70" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F38" s="77"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="70" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B39" s="62" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C39" s="64" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D39" s="63" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="E39" s="70" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F39" s="77" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="70" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B40" s="62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C40" s="64" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D40" s="63" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="E40" s="70"/>
       <c r="F40" s="77"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="71" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B41" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C41" s="64" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D41" s="65" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E41" s="71" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F41" s="76"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="70" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B42" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C42" s="64" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D42" s="63" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="E42" s="70" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F42" s="77"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="71" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B43" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C43" s="64" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D43" s="65" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="E43" s="71" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F43" s="76"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="71" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B44" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C44" s="64" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D44" s="65" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="E44" s="71" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F44" s="76"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="70" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B45" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C45" s="64" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D45" s="63" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E45" s="70" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="F45" s="77"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="70" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B46" s="62" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C46" s="64" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D46" s="63" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="E46" s="70" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="F46" s="77" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="70" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B47" s="62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C47" s="64" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D47" s="63" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E47" s="70"/>
       <c r="F47" s="77"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="70" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B48" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C48" s="64" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D48" s="63" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="E48" s="70" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="F48" s="77"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="70" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B49" s="62" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C49" s="64" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D49" s="63" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E49" s="70" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="F49" s="77" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="70" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B50" s="62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C50" s="64" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D50" s="63" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="E50" s="70"/>
       <c r="F50" s="77"/>
@@ -6492,19 +6490,19 @@
         <v>42</v>
       </c>
       <c r="B51" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C51" s="64" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D51" s="63" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E51" s="70" t="s">
         <v>42</v>
       </c>
       <c r="F51" s="77" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -6512,19 +6510,19 @@
         <v>42</v>
       </c>
       <c r="B52" s="62" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C52" s="64" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D52" s="63" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E52" s="70" t="s">
         <v>42</v>
       </c>
       <c r="F52" s="77" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -6532,17 +6530,17 @@
         <v>42</v>
       </c>
       <c r="B53" s="62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C53" s="64" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D53" s="63" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="E53" s="70"/>
       <c r="F53" s="77" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -6550,13 +6548,13 @@
         <v>42</v>
       </c>
       <c r="B54" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C54" s="64" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D54" s="63" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="E54" s="70" t="s">
         <v>42</v>
@@ -6568,19 +6566,19 @@
         <v>42</v>
       </c>
       <c r="B55" s="62" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C55" s="64" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D55" s="63" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="E55" s="70" t="s">
         <v>42</v>
       </c>
       <c r="F55" s="77" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -6588,13 +6586,13 @@
         <v>42</v>
       </c>
       <c r="B56" s="62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C56" s="64" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D56" s="63" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E56" s="70"/>
       <c r="F56" s="77"/>
@@ -6604,19 +6602,19 @@
         <v>69</v>
       </c>
       <c r="B57" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C57" s="64" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D57" s="63" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E57" s="70" t="s">
         <v>69</v>
       </c>
       <c r="F57" s="77" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -6624,19 +6622,19 @@
         <v>69</v>
       </c>
       <c r="B58" s="62" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C58" s="64" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D58" s="63" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="E58" s="70" t="s">
         <v>69</v>
       </c>
       <c r="F58" s="77" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -6644,17 +6642,17 @@
         <v>69</v>
       </c>
       <c r="B59" s="62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C59" s="64" t="s">
+        <v>287</v>
+      </c>
+      <c r="D59" s="63" t="s">
         <v>295</v>
-      </c>
-      <c r="D59" s="63" t="s">
-        <v>303</v>
       </c>
       <c r="E59" s="70"/>
       <c r="F59" s="77" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -6662,13 +6660,13 @@
         <v>69</v>
       </c>
       <c r="B60" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C60" s="64" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D60" s="63" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="E60" s="70" t="s">
         <v>69</v>
@@ -6680,19 +6678,19 @@
         <v>69</v>
       </c>
       <c r="B61" s="62" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C61" s="64" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D61" s="63" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="E61" s="70" t="s">
         <v>69</v>
       </c>
       <c r="F61" s="77" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -6700,13 +6698,13 @@
         <v>69</v>
       </c>
       <c r="B62" s="62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C62" s="64" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D62" s="63" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="E62" s="70"/>
       <c r="F62" s="77"/>
@@ -6716,19 +6714,19 @@
         <v>69</v>
       </c>
       <c r="B63" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C63" s="64" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D63" s="65" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="E63" s="71" t="s">
         <v>69</v>
       </c>
       <c r="F63" s="76" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -6736,13 +6734,13 @@
         <v>64</v>
       </c>
       <c r="B64" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C64" s="64" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D64" s="63" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="E64" s="70" t="s">
         <v>64</v>
@@ -6754,19 +6752,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="62" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C65" s="64" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D65" s="63" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="E65" s="70" t="s">
         <v>64</v>
       </c>
       <c r="F65" s="77" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -6774,13 +6772,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C66" s="64" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D66" s="63" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="E66" s="70"/>
       <c r="F66" s="77"/>
@@ -6790,13 +6788,13 @@
         <v>64</v>
       </c>
       <c r="B67" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C67" s="64" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D67" s="63" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E67" s="70" t="s">
         <v>64</v>
@@ -6808,19 +6806,19 @@
         <v>64</v>
       </c>
       <c r="B68" s="62" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C68" s="64" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D68" s="63" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E68" s="70" t="s">
         <v>64</v>
       </c>
       <c r="F68" s="77" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -6828,13 +6826,13 @@
         <v>64</v>
       </c>
       <c r="B69" s="62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C69" s="64" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D69" s="63" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E69" s="70"/>
       <c r="F69" s="77"/>
@@ -6844,13 +6842,13 @@
         <v>10</v>
       </c>
       <c r="B70" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C70" s="64" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D70" s="63" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E70" s="70" t="s">
         <v>10</v>
@@ -6862,13 +6860,13 @@
         <v>10</v>
       </c>
       <c r="B71" s="62" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C71" s="64" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D71" s="63" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E71" s="70" t="s">
         <v>10</v>
@@ -6880,13 +6878,13 @@
         <v>10</v>
       </c>
       <c r="B72" s="62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C72" s="64" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D72" s="63" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E72" s="70"/>
       <c r="F72" s="77"/>
@@ -6896,13 +6894,13 @@
         <v>10</v>
       </c>
       <c r="B73" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C73" s="64" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D73" s="63" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E73" s="70" t="s">
         <v>10</v>
@@ -6914,19 +6912,19 @@
         <v>10</v>
       </c>
       <c r="B74" s="62" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C74" s="64" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D74" s="63" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E74" s="70" t="s">
         <v>10</v>
       </c>
       <c r="F74" s="77" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -6934,85 +6932,85 @@
         <v>10</v>
       </c>
       <c r="B75" s="62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C75" s="64" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D75" s="63" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E75" s="70"/>
       <c r="F75" s="77"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="70" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B76" s="62" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C76" s="64" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D76" s="63" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E76" s="70" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F76" s="77" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="70" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B77" s="62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C77" s="64" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D77" s="63" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="E77" s="70"/>
       <c r="F77" s="77" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="70" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B78" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C78" s="64" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="D78" s="63" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="E78" s="70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F78" s="77"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="70" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B79" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C79" s="64" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="D79" s="63" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="E79" s="70" t="s">
         <v>10</v>
@@ -7021,508 +7019,508 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="70" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B80" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C80" s="64" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D80" s="63" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E80" s="70" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F80" s="77"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="70" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B81" s="62" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C81" s="64" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D81" s="63" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E81" s="70" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F81" s="77"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="70" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B82" s="62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C82" s="64" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D82" s="63" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E82" s="70"/>
       <c r="F82" s="77"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="70" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B83" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C83" s="64" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D83" s="63" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="E83" s="70" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F83" s="77"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="70" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B84" s="62" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C84" s="64" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D84" s="63" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E84" s="70" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F84" s="77" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="70" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B85" s="62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C85" s="64" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D85" s="63" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E85" s="70"/>
       <c r="F85" s="77"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="70" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B86" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C86" s="64" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D86" s="63" t="s">
+        <v>355</v>
+      </c>
+      <c r="E86" s="70" t="s">
         <v>363</v>
       </c>
-      <c r="E86" s="70" t="s">
-        <v>371</v>
-      </c>
       <c r="F86" s="77" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="70" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B87" s="62" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C87" s="64" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D87" s="63" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E87" s="70" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F87" s="77" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="70" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B88" s="62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C88" s="64" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D88" s="63" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E88" s="70"/>
       <c r="F88" s="77"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="70" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B89" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C89" s="64" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D89" s="63" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E89" s="70" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F89" s="77"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="70" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B90" s="62" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C90" s="64" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D90" s="63" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="E90" s="70" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F90" s="77" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="70" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B91" s="62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C91" s="64" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D91" s="63" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E91" s="70"/>
       <c r="F91" s="77"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="70" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B92" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C92" s="64" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="D92" s="63" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="E92" s="70" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F92" s="77"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="70" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B93" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C93" s="64" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="D93" s="63" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="E93" s="70" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F93" s="77"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="70" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B94" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C94" s="64" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D94" s="63" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="E94" s="70" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F94" s="77" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="70" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B95" s="62" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C95" s="64" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D95" s="63" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="E95" s="70" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F95" s="77" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="70" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B96" s="62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C96" s="64" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D96" s="63" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="E96" s="70"/>
       <c r="F96" s="77" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="70" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B97" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C97" s="64" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D97" s="63" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="E97" s="70" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F97" s="77"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="70" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B98" s="62" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C98" s="64" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D98" s="63" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="E98" s="70" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F98" s="77" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="70" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B99" s="62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C99" s="64" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D99" s="63" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E99" s="70"/>
       <c r="F99" s="77"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="70" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B100" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C100" s="64" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D100" s="63" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="E100" s="70" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F100" s="77"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="70" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B101" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C101" s="64" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D101" s="63" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="E101" s="70" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F101" s="77"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="70" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B102" s="62" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C102" s="64" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D102" s="63" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="E102" s="70" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F102" s="77" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="70" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B103" s="62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C103" s="64" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D103" s="63" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E103" s="70"/>
       <c r="F103" s="77"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="70" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B104" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C104" s="64" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="D104" s="63" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="E104" s="70" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F104" s="77"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="70" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B105" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C105" s="64" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D105" s="63" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="E105" s="70" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F105" s="77"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="70" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B106" s="62" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C106" s="64" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D106" s="63" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="E106" s="70" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F106" s="77" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="70" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B107" s="62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C107" s="64" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D107" s="63" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="E107" s="70"/>
       <c r="F107" s="77"/>
@@ -7532,13 +7530,13 @@
         <v>17</v>
       </c>
       <c r="B108" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C108" s="64" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D108" s="63" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E108" s="70" t="s">
         <v>17</v>
@@ -7550,19 +7548,19 @@
         <v>17</v>
       </c>
       <c r="B109" s="62" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C109" s="64" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D109" s="63" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="E109" s="70" t="s">
         <v>17</v>
       </c>
       <c r="F109" s="77" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -7570,13 +7568,13 @@
         <v>17</v>
       </c>
       <c r="B110" s="62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C110" s="64" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D110" s="63" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E110" s="70"/>
       <c r="F110" s="77"/>
@@ -7586,13 +7584,13 @@
         <v>17</v>
       </c>
       <c r="B111" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C111" s="64" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D111" s="63" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E111" s="70" t="s">
         <v>17</v>
@@ -7604,19 +7602,19 @@
         <v>17</v>
       </c>
       <c r="B112" s="62" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C112" s="64" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D112" s="63" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="E112" s="70" t="s">
         <v>17</v>
       </c>
       <c r="F112" s="77" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -7624,13 +7622,13 @@
         <v>17</v>
       </c>
       <c r="B113" s="62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C113" s="64" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D113" s="63" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E113" s="70"/>
       <c r="F113" s="77"/>
@@ -7640,20 +7638,20 @@
         <v>93</v>
       </c>
       <c r="B114" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C114" s="64" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D114" s="63" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E114" s="70" t="s">
         <v>93</v>
       </c>
       <c r="F114" s="77"/>
       <c r="G114" s="89" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -7661,22 +7659,22 @@
         <v>93</v>
       </c>
       <c r="B115" s="62" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C115" s="64" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D115" s="63" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E115" s="70" t="s">
         <v>93</v>
       </c>
       <c r="F115" s="77" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="G115" s="90" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -7684,18 +7682,18 @@
         <v>93</v>
       </c>
       <c r="B116" s="62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C116" s="64" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D116" s="63" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E116" s="70"/>
       <c r="F116" s="77"/>
       <c r="G116" s="90" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -7703,19 +7701,19 @@
         <v>93</v>
       </c>
       <c r="B117" s="62" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C117" s="64" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D117" s="63" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E117" s="70" t="s">
         <v>93</v>
       </c>
       <c r="F117" s="77" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -7723,13 +7721,13 @@
         <v>93</v>
       </c>
       <c r="B118" s="62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C118" s="64" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D118" s="63" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E118" s="70"/>
       <c r="F118" s="77"/>
@@ -7739,13 +7737,13 @@
         <v>93</v>
       </c>
       <c r="B119" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C119" s="64" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D119" s="63" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E119" s="70" t="s">
         <v>93</v>
@@ -7754,453 +7752,440 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="70" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B120" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C120" s="64" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D120" s="63" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E120" s="70" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F120" s="77" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="70" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B121" s="62" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C121" s="64" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D121" s="63" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E121" s="70" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F121" s="77" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="70" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B122" s="62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C122" s="64" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D122" s="63" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E122" s="70"/>
       <c r="F122" s="77" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="70" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B123" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C123" s="64" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D123" s="63" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="E123" s="70" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F123" s="77"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="70" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B124" s="62" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C124" s="64" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D124" s="63" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E124" s="70" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F124" s="77" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="70" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B125" s="62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C125" s="64" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D125" s="63" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="E125" s="70"/>
       <c r="F125" s="77"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B126" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C126" s="64" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D126" s="63" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E126" s="70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F126" s="77" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B127" s="62" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C127" s="64" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D127" s="63" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E127" s="70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F127" s="77" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B128" s="62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C128" s="64" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D128" s="63" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E128" s="70"/>
       <c r="F128" s="77" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B129" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C129" s="64" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D129" s="63" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E129" s="70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F129" s="77"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B130" s="62" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C130" s="64" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D130" s="63" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E130" s="70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F130" s="77" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B131" s="62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C131" s="64" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D131" s="63" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E131" s="70"/>
       <c r="F131" s="77"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B132" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C132" s="64" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D132" s="63" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E132" s="70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F132" s="77" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="70" t="s">
-        <v>239</v>
-      </c>
-      <c r="B133" s="62" t="s">
-        <v>185</v>
-      </c>
-      <c r="C133" s="64" t="s">
-        <v>238</v>
-      </c>
-      <c r="D133" s="63" t="s">
-        <v>433</v>
-      </c>
-      <c r="E133" s="70" t="s">
-        <v>239</v>
-      </c>
-      <c r="F133" s="77" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="70" t="s">
-        <v>239</v>
-      </c>
-      <c r="B134" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="C134" s="64" t="s">
-        <v>238</v>
-      </c>
-      <c r="D134" s="63" t="s">
-        <v>432</v>
-      </c>
-      <c r="E134" s="70"/>
-      <c r="F134" s="77" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="70" t="s">
-        <v>239</v>
-      </c>
-      <c r="B135" s="62" t="s">
-        <v>184</v>
-      </c>
-      <c r="C135" s="64" t="s">
-        <v>434</v>
-      </c>
-      <c r="D135" s="63" t="s">
-        <v>435</v>
-      </c>
-      <c r="E135" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="F135" s="77"/>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="109" t="s">
+        <v>450</v>
+      </c>
+      <c r="B133" s="110" t="s">
+        <v>180</v>
+      </c>
+      <c r="C133" s="111" t="s">
+        <v>451</v>
+      </c>
+      <c r="D133" s="112" t="s">
+        <v>452</v>
+      </c>
+      <c r="E133" s="109" t="s">
+        <v>450</v>
+      </c>
+      <c r="F133" s="113"/>
+    </row>
+    <row r="134" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="109" t="s">
+        <v>450</v>
+      </c>
+      <c r="B134" s="110" t="s">
+        <v>181</v>
+      </c>
+      <c r="C134" s="111" t="s">
+        <v>451</v>
+      </c>
+      <c r="D134" s="112" t="s">
+        <v>453</v>
+      </c>
+      <c r="E134" s="109" t="s">
+        <v>450</v>
+      </c>
+      <c r="F134" s="113" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="109" t="s">
+        <v>450</v>
+      </c>
+      <c r="B135" s="110" t="s">
+        <v>182</v>
+      </c>
+      <c r="C135" s="111" t="s">
+        <v>451</v>
+      </c>
+      <c r="D135" s="112" t="s">
+        <v>454</v>
+      </c>
+      <c r="E135" s="109"/>
+      <c r="F135" s="113"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="70" t="s">
-        <v>239</v>
+      <c r="A136" s="109" t="s">
+        <v>450</v>
       </c>
       <c r="B136" s="62" t="s">
-        <v>184</v>
-      </c>
-      <c r="C136" s="64" t="s">
-        <v>430</v>
-      </c>
-      <c r="D136" s="63" t="s">
-        <v>431</v>
+        <v>180</v>
+      </c>
+      <c r="C136" s="111" t="s">
+        <v>464</v>
+      </c>
+      <c r="D136" s="65" t="s">
+        <v>465</v>
       </c>
       <c r="E136" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="F136" s="77"/>
+        <v>450</v>
+      </c>
+      <c r="F136" s="76"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="70" t="s">
-        <v>236</v>
+      <c r="A137" s="109" t="s">
+        <v>450</v>
       </c>
       <c r="B137" s="62" t="s">
-        <v>185</v>
-      </c>
-      <c r="C137" s="64" t="s">
-        <v>237</v>
-      </c>
-      <c r="D137" s="63" t="s">
-        <v>426</v>
+        <v>183</v>
+      </c>
+      <c r="C137" s="111" t="s">
+        <v>464</v>
+      </c>
+      <c r="D137" s="65" t="s">
+        <v>466</v>
       </c>
       <c r="E137" s="70" t="s">
-        <v>236</v>
-      </c>
-      <c r="F137" s="77" t="s">
-        <v>415</v>
+        <v>450</v>
+      </c>
+      <c r="F137" s="76" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="70" t="s">
-        <v>236</v>
+      <c r="A138" s="109" t="s">
+        <v>450</v>
       </c>
       <c r="B138" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="C138" s="64" t="s">
-        <v>237</v>
-      </c>
-      <c r="D138" s="63" t="s">
-        <v>425</v>
+        <v>182</v>
+      </c>
+      <c r="C138" s="111" t="s">
+        <v>464</v>
+      </c>
+      <c r="D138" s="65" t="s">
+        <v>467</v>
       </c>
       <c r="E138" s="70"/>
-      <c r="F138" s="77" t="s">
-        <v>415</v>
-      </c>
+      <c r="F138" s="76"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="70" t="s">
-        <v>236</v>
+        <v>450</v>
       </c>
       <c r="B139" s="62" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C139" s="64" t="s">
-        <v>422</v>
-      </c>
-      <c r="D139" s="63" t="s">
-        <v>423</v>
-      </c>
-      <c r="E139" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="F139" s="77"/>
+        <v>456</v>
+      </c>
+      <c r="D139" s="65" t="s">
+        <v>455</v>
+      </c>
+      <c r="E139" s="70"/>
+      <c r="F139" s="76"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="70" t="s">
-        <v>236</v>
+        <v>450</v>
       </c>
       <c r="B140" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C140" s="64" t="s">
-        <v>424</v>
-      </c>
-      <c r="D140" s="63" t="s">
-        <v>427</v>
+        <v>463</v>
+      </c>
+      <c r="D140" s="65" t="s">
+        <v>457</v>
       </c>
       <c r="E140" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="F140" s="77"/>
+        <v>103</v>
+      </c>
+      <c r="F140" s="76"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="70" t="s">
-        <v>236</v>
+        <v>450</v>
       </c>
       <c r="B141" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C141" s="64" t="s">
-        <v>428</v>
-      </c>
-      <c r="D141" s="63" t="s">
-        <v>429</v>
+        <v>462</v>
+      </c>
+      <c r="D141" s="65" t="s">
+        <v>458</v>
       </c>
       <c r="E141" s="70" t="s">
-        <v>449</v>
-      </c>
-      <c r="F141" s="77"/>
+        <v>0</v>
+      </c>
+      <c r="F141" s="76"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="70" t="s">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="B142" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C142" s="64" t="s">
-        <v>188</v>
+        <v>459</v>
       </c>
       <c r="D142" s="65" t="s">
-        <v>189</v>
+        <v>414</v>
       </c>
       <c r="E142" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="F142" s="76" t="s">
-        <v>414</v>
-      </c>
-      <c r="G142" s="90" t="s">
-        <v>469</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="F142" s="76"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="70" t="s">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="B143" s="62" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C143" s="64" t="s">
-        <v>190</v>
+        <v>468</v>
       </c>
       <c r="D143" s="65" t="s">
-        <v>191</v>
-      </c>
-      <c r="E143" s="70" t="s">
-        <v>0</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="E143" s="70"/>
       <c r="F143" s="76"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -8208,19 +8193,22 @@
         <v>0</v>
       </c>
       <c r="B144" s="62" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C144" s="64" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D144" s="65" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E144" s="70" t="s">
         <v>0</v>
       </c>
       <c r="F144" s="76" t="s">
-        <v>415</v>
+        <v>406</v>
+      </c>
+      <c r="G144" s="90" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -8228,15 +8216,17 @@
         <v>0</v>
       </c>
       <c r="B145" s="62" t="s">
+        <v>180</v>
+      </c>
+      <c r="C145" s="64" t="s">
         <v>186</v>
       </c>
-      <c r="C145" s="64" t="s">
-        <v>190</v>
-      </c>
       <c r="D145" s="65" t="s">
-        <v>193</v>
-      </c>
-      <c r="E145" s="70"/>
+        <v>187</v>
+      </c>
+      <c r="E145" s="70" t="s">
+        <v>0</v>
+      </c>
       <c r="F145" s="76"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -8244,19 +8234,19 @@
         <v>0</v>
       </c>
       <c r="B146" s="62" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C146" s="64" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="D146" s="65" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="E146" s="70" t="s">
         <v>0</v>
       </c>
       <c r="F146" s="76" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -8264,17 +8254,15 @@
         <v>0</v>
       </c>
       <c r="B147" s="62" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C147" s="64" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="D147" s="65" t="s">
-        <v>213</v>
-      </c>
-      <c r="E147" s="70" t="s">
-        <v>0</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="E147" s="70"/>
       <c r="F147" s="76"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -8282,31 +8270,33 @@
         <v>0</v>
       </c>
       <c r="B148" s="62" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C148" s="64" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="D148" s="65" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="E148" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="F148" s="76"/>
+      <c r="F148" s="76" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="70" t="s">
         <v>0</v>
       </c>
       <c r="B149" s="62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C149" s="64" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D149" s="65" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E149" s="70" t="s">
         <v>0</v>
@@ -8318,35 +8308,35 @@
         <v>0</v>
       </c>
       <c r="B150" s="62" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C150" s="64" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="D150" s="65" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="E150" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="F150" s="76" t="s">
-        <v>415</v>
-      </c>
+      <c r="F150" s="76"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="70" t="s">
         <v>0</v>
       </c>
       <c r="B151" s="62" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C151" s="64" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="D151" s="65" t="s">
-        <v>199</v>
-      </c>
-      <c r="E151" s="70"/>
+        <v>211</v>
+      </c>
+      <c r="E151" s="70" t="s">
+        <v>0</v>
+      </c>
       <c r="F151" s="76"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -8354,217 +8344,219 @@
         <v>0</v>
       </c>
       <c r="B152" s="62" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C152" s="64" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D152" s="65" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E152" s="70" t="s">
         <v>0</v>
       </c>
       <c r="F152" s="76" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="70" t="s">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="B153" s="62" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C153" s="64" t="s">
-        <v>396</v>
-      </c>
-      <c r="D153" s="63" t="s">
-        <v>401</v>
-      </c>
-      <c r="E153" s="70" t="s">
-        <v>395</v>
-      </c>
-      <c r="F153" s="77"/>
+        <v>194</v>
+      </c>
+      <c r="D153" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="E153" s="70"/>
+      <c r="F153" s="76"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="70" t="s">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="B154" s="62" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C154" s="64" t="s">
-        <v>396</v>
-      </c>
-      <c r="D154" s="63" t="s">
-        <v>403</v>
+        <v>190</v>
+      </c>
+      <c r="D154" s="65" t="s">
+        <v>191</v>
       </c>
       <c r="E154" s="70" t="s">
-        <v>395</v>
-      </c>
-      <c r="F154" s="77" t="s">
-        <v>415</v>
+        <v>0</v>
+      </c>
+      <c r="F154" s="76" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="70" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B155" s="62" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C155" s="64" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="D155" s="63" t="s">
-        <v>402</v>
-      </c>
-      <c r="E155" s="70"/>
+        <v>393</v>
+      </c>
+      <c r="E155" s="70" t="s">
+        <v>387</v>
+      </c>
       <c r="F155" s="77"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="70" t="s">
+        <v>387</v>
+      </c>
+      <c r="B156" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="C156" s="64" t="s">
+        <v>388</v>
+      </c>
+      <c r="D156" s="63" t="s">
         <v>395</v>
       </c>
-      <c r="B156" s="62" t="s">
-        <v>184</v>
-      </c>
-      <c r="C156" s="64" t="s">
-        <v>397</v>
-      </c>
-      <c r="D156" s="63" t="s">
-        <v>398</v>
-      </c>
       <c r="E156" s="70" t="s">
-        <v>395</v>
-      </c>
-      <c r="F156" s="77"/>
+        <v>387</v>
+      </c>
+      <c r="F156" s="77" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="70" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B157" s="62" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C157" s="64" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="D157" s="63" t="s">
-        <v>399</v>
-      </c>
-      <c r="E157" s="70" t="s">
-        <v>395</v>
-      </c>
-      <c r="F157" s="77" t="s">
-        <v>415</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="E157" s="70"/>
+      <c r="F157" s="77"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="70" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B158" s="62" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C158" s="64" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="D158" s="63" t="s">
-        <v>400</v>
-      </c>
-      <c r="E158" s="70"/>
+        <v>390</v>
+      </c>
+      <c r="E158" s="70" t="s">
+        <v>387</v>
+      </c>
       <c r="F158" s="77"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="70" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B159" s="62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C159" s="64" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="D159" s="63" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="E159" s="70" t="s">
-        <v>395</v>
-      </c>
-      <c r="F159" s="77"/>
+        <v>387</v>
+      </c>
+      <c r="F159" s="77" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="91" t="s">
-        <v>88</v>
-      </c>
-      <c r="B160" s="92" t="s">
-        <v>185</v>
-      </c>
-      <c r="C160" s="93" t="s">
-        <v>409</v>
-      </c>
-      <c r="D160" s="94" t="s">
-        <v>406</v>
-      </c>
-      <c r="E160" s="91" t="s">
-        <v>88</v>
-      </c>
-      <c r="F160" s="95" t="s">
-        <v>415</v>
-      </c>
+      <c r="A160" s="70" t="s">
+        <v>387</v>
+      </c>
+      <c r="B160" s="62" t="s">
+        <v>182</v>
+      </c>
+      <c r="C160" s="64" t="s">
+        <v>389</v>
+      </c>
+      <c r="D160" s="63" t="s">
+        <v>392</v>
+      </c>
+      <c r="E160" s="70"/>
+      <c r="F160" s="77"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="91" t="s">
-        <v>88</v>
-      </c>
-      <c r="B161" s="92" t="s">
-        <v>184</v>
-      </c>
-      <c r="C161" s="93" t="s">
-        <v>447</v>
-      </c>
-      <c r="D161" s="94" t="s">
-        <v>448</v>
-      </c>
-      <c r="E161" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="F161" s="95"/>
+      <c r="A161" s="70" t="s">
+        <v>387</v>
+      </c>
+      <c r="B161" s="62" t="s">
+        <v>180</v>
+      </c>
+      <c r="C161" s="64" t="s">
+        <v>396</v>
+      </c>
+      <c r="D161" s="63" t="s">
+        <v>397</v>
+      </c>
+      <c r="E161" s="70" t="s">
+        <v>387</v>
+      </c>
+      <c r="F161" s="77"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="91" t="s">
         <v>88</v>
       </c>
       <c r="B162" s="92" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C162" s="93" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D162" s="94" t="s">
+        <v>398</v>
+      </c>
+      <c r="E162" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="F162" s="95" t="s">
         <v>407</v>
       </c>
-      <c r="E162" s="91" t="s">
-        <v>93</v>
-      </c>
-      <c r="F162" s="95"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="91" t="s">
         <v>88</v>
       </c>
       <c r="B163" s="92" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C163" s="93" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="D163" s="94" t="s">
-        <v>408</v>
-      </c>
-      <c r="E163" s="91"/>
+        <v>427</v>
+      </c>
+      <c r="E163" s="91" t="s">
+        <v>0</v>
+      </c>
       <c r="F163" s="95"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -8572,147 +8564,181 @@
         <v>88</v>
       </c>
       <c r="B164" s="92" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C164" s="93" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="D164" s="94" t="s">
-        <v>412</v>
-      </c>
-      <c r="E164" s="91"/>
+        <v>399</v>
+      </c>
+      <c r="E164" s="91" t="s">
+        <v>93</v>
+      </c>
       <c r="F164" s="95"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="70" t="s">
-        <v>167</v>
-      </c>
-      <c r="B165" s="62" t="s">
-        <v>184</v>
-      </c>
-      <c r="C165" s="64" t="s">
-        <v>386</v>
-      </c>
-      <c r="D165" s="63" t="s">
-        <v>388</v>
-      </c>
-      <c r="E165" s="70" t="s">
-        <v>167</v>
-      </c>
-      <c r="F165" s="77"/>
+      <c r="A165" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="B165" s="92" t="s">
+        <v>182</v>
+      </c>
+      <c r="C165" s="93" t="s">
+        <v>402</v>
+      </c>
+      <c r="D165" s="94" t="s">
+        <v>400</v>
+      </c>
+      <c r="E165" s="91"/>
+      <c r="F165" s="95"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="70" t="s">
-        <v>167</v>
-      </c>
-      <c r="B166" s="62" t="s">
-        <v>185</v>
-      </c>
-      <c r="C166" s="64" t="s">
-        <v>386</v>
-      </c>
-      <c r="D166" s="63" t="s">
-        <v>390</v>
-      </c>
-      <c r="E166" s="70" t="s">
-        <v>167</v>
-      </c>
-      <c r="F166" s="77" t="s">
-        <v>415</v>
-      </c>
+      <c r="A166" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="B166" s="92" t="s">
+        <v>182</v>
+      </c>
+      <c r="C166" s="93" t="s">
+        <v>403</v>
+      </c>
+      <c r="D166" s="94" t="s">
+        <v>404</v>
+      </c>
+      <c r="E166" s="91"/>
+      <c r="F166" s="95"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="70" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B167" s="62" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C167" s="64" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="D167" s="63" t="s">
-        <v>389</v>
-      </c>
-      <c r="E167" s="70"/>
+        <v>380</v>
+      </c>
+      <c r="E167" s="70" t="s">
+        <v>163</v>
+      </c>
       <c r="F167" s="77"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="70" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B168" s="62" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C168" s="64" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="D168" s="63" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="E168" s="70" t="s">
-        <v>167</v>
-      </c>
-      <c r="F168" s="77"/>
+        <v>163</v>
+      </c>
+      <c r="F168" s="77" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="70" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B169" s="62" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C169" s="64" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="D169" s="63" t="s">
-        <v>392</v>
-      </c>
-      <c r="E169" s="70" t="s">
-        <v>167</v>
-      </c>
-      <c r="F169" s="77" t="s">
-        <v>415</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="E169" s="70"/>
+      <c r="F169" s="77"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="70" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B170" s="62" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C170" s="64" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D170" s="63" t="s">
-        <v>393</v>
-      </c>
-      <c r="E170" s="70"/>
+        <v>383</v>
+      </c>
+      <c r="E170" s="70" t="s">
+        <v>163</v>
+      </c>
       <c r="F170" s="77"/>
     </row>
-    <row r="171" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="72" t="s">
-        <v>167</v>
-      </c>
-      <c r="B171" s="73" t="s">
-        <v>184</v>
-      </c>
-      <c r="C171" s="74" t="s">
-        <v>394</v>
-      </c>
-      <c r="D171" s="75" t="s">
-        <v>450</v>
-      </c>
-      <c r="E171" s="72" t="s">
-        <v>167</v>
-      </c>
-      <c r="F171" s="78"/>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="70" t="s">
+        <v>163</v>
+      </c>
+      <c r="B171" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="C171" s="64" t="s">
+        <v>379</v>
+      </c>
+      <c r="D171" s="63" t="s">
+        <v>384</v>
+      </c>
+      <c r="E171" s="70" t="s">
+        <v>163</v>
+      </c>
+      <c r="F171" s="77" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="70" t="s">
+        <v>163</v>
+      </c>
+      <c r="B172" s="62" t="s">
+        <v>182</v>
+      </c>
+      <c r="C172" s="64" t="s">
+        <v>379</v>
+      </c>
+      <c r="D172" s="63" t="s">
+        <v>385</v>
+      </c>
+      <c r="E172" s="70"/>
+      <c r="F172" s="77"/>
+    </row>
+    <row r="173" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="B173" s="73" t="s">
+        <v>180</v>
+      </c>
+      <c r="C173" s="74" t="s">
+        <v>386</v>
+      </c>
+      <c r="D173" s="75" t="s">
+        <v>428</v>
+      </c>
+      <c r="E173" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="F173" s="78"/>
     </row>
   </sheetData>
-  <sortState ref="A3:G171">
-    <sortCondition ref="C3:C171"/>
-    <sortCondition ref="B3:B171" customList="GET,PUT,POST,DELETE"/>
+  <sortState ref="A133:F143">
+    <sortCondition ref="C133:C143"/>
+    <sortCondition ref="B133:B143" customList="GET,PUT,POST,DELETE"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="56" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8738,123 +8764,123 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="68" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B1" s="68" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C1" s="68" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D1" s="79" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="E1" s="69" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="83" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="D2" s="85" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E2" s="86"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B3" s="84" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D3" s="85" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E3" s="86" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="83" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B4" s="84" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="D4" s="85"/>
       <c r="E4" s="86"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="83" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B5" s="84" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D5" s="85" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E5" s="86"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="83" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B6" s="84" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D6" s="85" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E6" s="86" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="83" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B7" s="84" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D7" s="85"/>
       <c r="E7" s="86"/>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="83" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B8" s="84" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="D8" s="85" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E8" s="86"/>
     </row>

--- a/documentation/DataAndAPIMatchAware.xlsx
+++ b/documentation/DataAndAPIMatchAware.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\match-aware\documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16212" windowHeight="9060" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="UserEntities" sheetId="1" r:id="rId1"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="484">
   <si>
     <t>USER</t>
   </si>
@@ -1442,12 +1447,48 @@
   </si>
   <si>
     <t>TEAM_MEMBERS</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Desciprtion</t>
+  </si>
+  <si>
+    <t>AuthenticationService</t>
+  </si>
+  <si>
+    <t>UserService</t>
+  </si>
+  <si>
+    <t>authToken</t>
+  </si>
+  <si>
+    <t>JSON Web Token received upon authentication and used for all transactions with the API from that point forward.</t>
+  </si>
+  <si>
+    <t>loggedIn</t>
+  </si>
+  <si>
+    <t>Indication of whether the user has logged in to the system and been authenticated.  Used in the system to control display of elements selectively.</t>
+  </si>
+  <si>
+    <t>make club and user requred in REST API clubmember</t>
+  </si>
+  <si>
+    <t>ORGANIZATIONS not implemented</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1551,7 +1592,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1979,11 +2020,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2204,21 +2274,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2248,39 +2303,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2293,6 +2315,57 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2599,7 +2672,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2609,69 +2682,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.5703125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="17.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.5546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="27.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.5546875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="101" t="s">
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="100" t="s">
         <v>441</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="102"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="98" t="s">
+      <c r="G3" s="97" t="s">
         <v>433</v>
       </c>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="100"/>
-      <c r="M3" s="98" t="s">
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="99"/>
+      <c r="M3" s="97" t="s">
         <v>430</v>
       </c>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="100"/>
-    </row>
-    <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="99"/>
+    </row>
+    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="36" t="s">
         <v>1</v>
       </c>
@@ -2718,7 +2791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
         <v>16</v>
       </c>
@@ -2765,7 +2838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
         <v>78</v>
       </c>
@@ -2802,7 +2875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
         <v>79</v>
       </c>
@@ -2837,7 +2910,7 @@
       <c r="P7" s="8"/>
       <c r="Q7" s="24"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
         <v>80</v>
       </c>
@@ -2870,7 +2943,7 @@
       <c r="P8" s="8"/>
       <c r="Q8" s="24"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="38" t="s">
         <v>81</v>
       </c>
@@ -2901,7 +2974,7 @@
       <c r="P9" s="8"/>
       <c r="Q9" s="24"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>82</v>
       </c>
@@ -2936,7 +3009,7 @@
       <c r="P10" s="8"/>
       <c r="Q10" s="24"/>
     </row>
-    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="38" t="s">
         <v>83</v>
       </c>
@@ -2971,7 +3044,7 @@
       <c r="U11" s="51"/>
       <c r="W11" s="51"/>
     </row>
-    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="38" t="s">
         <v>43</v>
       </c>
@@ -3000,7 +3073,7 @@
       <c r="U12" s="51"/>
       <c r="W12" s="51"/>
     </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="38" t="s">
         <v>44</v>
       </c>
@@ -3010,13 +3083,13 @@
       <c r="C13" s="21"/>
       <c r="D13" s="8"/>
       <c r="E13" s="24"/>
-      <c r="G13" s="98" t="s">
+      <c r="G13" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="100"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="99"/>
       <c r="M13" s="10" t="s">
         <v>47</v>
       </c>
@@ -3029,7 +3102,7 @@
       <c r="U13" s="51"/>
       <c r="W13" s="51"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="38" t="s">
         <v>45</v>
       </c>
@@ -3066,7 +3139,7 @@
       <c r="U14" s="51"/>
       <c r="W14" s="51"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="38" t="s">
         <v>84</v>
       </c>
@@ -3099,7 +3172,7 @@
       <c r="U15" s="51"/>
       <c r="W15" s="51"/>
     </row>
-    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="38" t="s">
         <v>46</v>
       </c>
@@ -3132,7 +3205,7 @@
       <c r="U16" s="51"/>
       <c r="W16" s="51"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>85</v>
       </c>
@@ -3156,7 +3229,7 @@
       <c r="U17" s="51"/>
       <c r="W17" s="51"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>159</v>
       </c>
@@ -3168,13 +3241,13 @@
         <v>160</v>
       </c>
       <c r="E18" s="24"/>
-      <c r="G18" s="98" t="s">
+      <c r="G18" s="97" t="s">
         <v>434</v>
       </c>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="100"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="99"/>
       <c r="M18" s="10" t="s">
         <v>53</v>
       </c>
@@ -3187,7 +3260,7 @@
       <c r="U18" s="51"/>
       <c r="W18" s="51"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>161</v>
       </c>
@@ -3226,7 +3299,7 @@
       <c r="U19" s="51"/>
       <c r="W19" s="51"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>86</v>
       </c>
@@ -3263,7 +3336,7 @@
       <c r="U20" s="51"/>
       <c r="W20" s="51"/>
     </row>
-    <row r="21" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
         <v>87</v>
       </c>
@@ -3296,7 +3369,7 @@
       <c r="U21" s="51"/>
       <c r="W21" s="51"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G22" s="16"/>
       <c r="H22" s="41"/>
       <c r="I22" s="30"/>
@@ -3314,21 +3387,21 @@
       <c r="U22" s="51"/>
       <c r="W22" s="51"/>
     </row>
-    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="104" t="s">
+    <row r="23" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="103" t="s">
         <v>442</v>
       </c>
-      <c r="B23" s="105"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="106"/>
-      <c r="G23" s="101" t="s">
+      <c r="B23" s="104"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="105"/>
+      <c r="G23" s="100" t="s">
         <v>443</v>
       </c>
-      <c r="H23" s="102"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="102"/>
-      <c r="K23" s="103"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="101"/>
+      <c r="K23" s="102"/>
       <c r="M23" s="10" t="s">
         <v>58</v>
       </c>
@@ -3341,7 +3414,7 @@
       <c r="U23" s="51"/>
       <c r="W23" s="51"/>
     </row>
-    <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
         <v>1</v>
       </c>
@@ -3384,7 +3457,7 @@
       <c r="U24" s="51"/>
       <c r="W24" s="51"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>91</v>
       </c>
@@ -3425,7 +3498,7 @@
       <c r="U25" s="51"/>
       <c r="W25" s="51"/>
     </row>
-    <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
         <v>92</v>
       </c>
@@ -3462,7 +3535,7 @@
       <c r="U26" s="51"/>
       <c r="W26" s="51"/>
     </row>
-    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -3492,14 +3565,14 @@
       <c r="Q27" s="9"/>
       <c r="W27" s="51"/>
     </row>
-    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="104" t="s">
+    <row r="28" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="103" t="s">
         <v>439</v>
       </c>
-      <c r="B28" s="105"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="106"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="105"/>
       <c r="G28" s="13" t="s">
         <v>12</v>
       </c>
@@ -3522,7 +3595,7 @@
       <c r="Q28" s="9"/>
       <c r="W28" s="51"/>
     </row>
-    <row r="29" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
         <v>1</v>
       </c>
@@ -3540,7 +3613,7 @@
       </c>
       <c r="W29" s="51"/>
     </row>
-    <row r="30" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>16</v>
       </c>
@@ -3556,22 +3629,22 @@
       <c r="E30" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G30" s="98" t="s">
+      <c r="G30" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="99"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="100"/>
-      <c r="M30" s="98" t="s">
+      <c r="H30" s="98"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="99"/>
+      <c r="M30" s="97" t="s">
         <v>431</v>
       </c>
-      <c r="N30" s="99"/>
-      <c r="O30" s="99"/>
-      <c r="P30" s="99"/>
-      <c r="Q30" s="100"/>
-    </row>
-    <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N30" s="98"/>
+      <c r="O30" s="98"/>
+      <c r="P30" s="98"/>
+      <c r="Q30" s="99"/>
+    </row>
+    <row r="31" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>12</v>
       </c>
@@ -3618,7 +3691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -3651,7 +3724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -3682,7 +3755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -3711,7 +3784,7 @@
       <c r="P34" s="8"/>
       <c r="Q34" s="29"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -3740,7 +3813,7 @@
       <c r="P35" s="8"/>
       <c r="Q35" s="29"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -3767,7 +3840,7 @@
       <c r="P36" s="8"/>
       <c r="Q36" s="9"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -3794,7 +3867,7 @@
       <c r="P37" s="8"/>
       <c r="Q37" s="9"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -3821,7 +3894,7 @@
       <c r="P38" s="8"/>
       <c r="Q38" s="9"/>
     </row>
-    <row r="39" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -3848,7 +3921,7 @@
       <c r="P39" s="8"/>
       <c r="Q39" s="9"/>
     </row>
-    <row r="40" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F40" s="16"/>
       <c r="G40" s="10" t="s">
         <v>32</v>
@@ -3869,14 +3942,14 @@
       <c r="P40" s="8"/>
       <c r="Q40" s="9"/>
     </row>
-    <row r="41" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="98" t="s">
+    <row r="41" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="97" t="s">
         <v>440</v>
       </c>
-      <c r="B41" s="99"/>
-      <c r="C41" s="99"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="100"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="99"/>
       <c r="G41" s="10" t="s">
         <v>33</v>
       </c>
@@ -3898,7 +3971,7 @@
       </c>
       <c r="Q41" s="15"/>
     </row>
-    <row r="42" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="17" t="s">
         <v>1</v>
       </c>
@@ -3924,7 +3997,7 @@
       <c r="J42" s="8"/>
       <c r="K42" s="9"/>
     </row>
-    <row r="43" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>16</v>
       </c>
@@ -3949,26 +4022,26 @@
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="9"/>
-      <c r="M43" s="98" t="s">
+      <c r="M43" s="97" t="s">
         <v>432</v>
       </c>
-      <c r="N43" s="99"/>
-      <c r="O43" s="99"/>
-      <c r="P43" s="99"/>
-      <c r="Q43" s="100"/>
-    </row>
-    <row r="44" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N43" s="98"/>
+      <c r="O43" s="98"/>
+      <c r="P43" s="98"/>
+      <c r="Q43" s="99"/>
+    </row>
+    <row r="44" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="43" t="s">
         <v>12</v>
       </c>
       <c r="B44" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="96" t="s">
+      <c r="C44" s="89" t="s">
         <v>5</v>
       </c>
       <c r="D44" s="46"/>
-      <c r="E44" s="97"/>
+      <c r="E44" s="90"/>
       <c r="G44" s="10" t="s">
         <v>36</v>
       </c>
@@ -3994,7 +4067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>449</v>
       </c>
@@ -4031,7 +4104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
         <v>18</v>
       </c>
@@ -4066,7 +4139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M47" s="10" t="s">
         <v>65</v>
       </c>
@@ -4077,21 +4150,21 @@
       <c r="P47" s="8"/>
       <c r="Q47" s="29"/>
     </row>
-    <row r="48" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="98" t="s">
+    <row r="48" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="97" t="s">
         <v>444</v>
       </c>
-      <c r="B48" s="99"/>
-      <c r="C48" s="99"/>
-      <c r="D48" s="99"/>
-      <c r="E48" s="100"/>
-      <c r="G48" s="101" t="s">
+      <c r="B48" s="98"/>
+      <c r="C48" s="98"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="99"/>
+      <c r="G48" s="100" t="s">
         <v>437</v>
       </c>
-      <c r="H48" s="102"/>
-      <c r="I48" s="102"/>
-      <c r="J48" s="102"/>
-      <c r="K48" s="103"/>
+      <c r="H48" s="101"/>
+      <c r="I48" s="101"/>
+      <c r="J48" s="101"/>
+      <c r="K48" s="102"/>
       <c r="M48" s="10" t="s">
         <v>66</v>
       </c>
@@ -4102,7 +4175,7 @@
       <c r="P48" s="8"/>
       <c r="Q48" s="9"/>
     </row>
-    <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
         <v>1</v>
       </c>
@@ -4143,7 +4216,7 @@
       <c r="P49" s="8"/>
       <c r="Q49" s="9"/>
     </row>
-    <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>16</v>
       </c>
@@ -4184,7 +4257,7 @@
       <c r="P50" s="14"/>
       <c r="Q50" s="15"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>12</v>
       </c>
@@ -4208,7 +4281,7 @@
       <c r="J51" s="8"/>
       <c r="K51" s="24"/>
     </row>
-    <row r="52" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="13" t="s">
         <v>169</v>
       </c>
@@ -4232,7 +4305,7 @@
       </c>
       <c r="K52" s="24"/>
     </row>
-    <row r="53" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G53" s="10"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -4241,14 +4314,14 @@
       </c>
       <c r="K53" s="24"/>
     </row>
-    <row r="54" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="98" t="s">
+    <row r="54" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="97" t="s">
         <v>445</v>
       </c>
-      <c r="B54" s="99"/>
-      <c r="C54" s="99"/>
-      <c r="D54" s="99"/>
-      <c r="E54" s="100"/>
+      <c r="B54" s="98"/>
+      <c r="C54" s="98"/>
+      <c r="D54" s="98"/>
+      <c r="E54" s="99"/>
       <c r="G54" s="10"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
@@ -4257,7 +4330,7 @@
       </c>
       <c r="K54" s="24"/>
     </row>
-    <row r="55" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
         <v>1</v>
       </c>
@@ -4280,12 +4353,12 @@
         <v>438</v>
       </c>
       <c r="I55" s="14"/>
-      <c r="J55" s="87">
+      <c r="J55" s="80">
         <v>0</v>
       </c>
       <c r="K55" s="25"/>
     </row>
-    <row r="56" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>104</v>
       </c>
@@ -4298,7 +4371,7 @@
       <c r="D56" s="6"/>
       <c r="E56" s="28"/>
     </row>
-    <row r="57" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
         <v>0</v>
       </c>
@@ -4310,15 +4383,15 @@
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="29"/>
-      <c r="G57" s="98" t="s">
+      <c r="G57" s="97" t="s">
         <v>436</v>
       </c>
-      <c r="H57" s="99"/>
-      <c r="I57" s="99"/>
-      <c r="J57" s="99"/>
-      <c r="K57" s="100"/>
-    </row>
-    <row r="58" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H57" s="98"/>
+      <c r="I57" s="98"/>
+      <c r="J57" s="98"/>
+      <c r="K57" s="99"/>
+    </row>
+    <row r="58" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G58" s="17" t="s">
         <v>1</v>
       </c>
@@ -4335,14 +4408,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="98" t="s">
+    <row r="59" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="97" t="s">
         <v>471</v>
       </c>
-      <c r="B59" s="99"/>
-      <c r="C59" s="99"/>
-      <c r="D59" s="99"/>
-      <c r="E59" s="100"/>
+      <c r="B59" s="98"/>
+      <c r="C59" s="98"/>
+      <c r="D59" s="98"/>
+      <c r="E59" s="99"/>
       <c r="G59" s="4" t="s">
         <v>16</v>
       </c>
@@ -4359,7 +4432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="17" t="s">
         <v>1</v>
       </c>
@@ -4387,7 +4460,7 @@
       <c r="J60" s="8"/>
       <c r="K60" s="24"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>103</v>
       </c>
@@ -4409,7 +4482,7 @@
       <c r="J61" s="8"/>
       <c r="K61" s="24"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>106</v>
       </c>
@@ -4431,7 +4504,7 @@
       <c r="J62" s="8"/>
       <c r="K62" s="24"/>
     </row>
-    <row r="63" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="13" t="s">
         <v>93</v>
       </c>
@@ -4453,7 +4526,7 @@
       <c r="J63" s="8"/>
       <c r="K63" s="24"/>
     </row>
-    <row r="64" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G64" s="13" t="s">
         <v>171</v>
       </c>
@@ -4466,13 +4539,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="M30:Q30"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="M43:Q43"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G57:K57"/>
+    <mergeCell ref="A59:E59"/>
     <mergeCell ref="A48:E48"/>
     <mergeCell ref="A54:E54"/>
     <mergeCell ref="G48:K48"/>
@@ -4481,8 +4549,13 @@
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="A41:E41"/>
-    <mergeCell ref="G57:K57"/>
-    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="M30:Q30"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M43:Q43"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="G13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4497,27 +4570,27 @@
       <selection activeCell="A66" sqref="A66:E70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="51" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" style="51" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="51" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="103"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="102"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -4534,7 +4607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -4551,7 +4624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
@@ -4564,7 +4637,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="24"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>104</v>
       </c>
@@ -4577,7 +4650,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="24"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>93</v>
       </c>
@@ -4590,7 +4663,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="24"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>103</v>
       </c>
@@ -4601,7 +4674,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="24"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>111</v>
       </c>
@@ -4614,7 +4687,7 @@
       </c>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>113</v>
       </c>
@@ -4627,17 +4700,17 @@
       </c>
       <c r="E9" s="25"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="101" t="s">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="102"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="103"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="102"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
         <v>1</v>
       </c>
@@ -4654,7 +4727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
@@ -4671,7 +4744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
@@ -4687,17 +4760,17 @@
       </c>
       <c r="G14" s="53"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="101" t="s">
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="103"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="102"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
         <v>1</v>
       </c>
@@ -4714,7 +4787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -4731,7 +4804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>12</v>
       </c>
@@ -4742,7 +4815,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>14</v>
       </c>
@@ -4755,7 +4828,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>118</v>
       </c>
@@ -4766,7 +4839,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="24"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>117</v>
       </c>
@@ -4777,7 +4850,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="24"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>10</v>
       </c>
@@ -4788,7 +4861,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="24"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>122</v>
       </c>
@@ -4802,7 +4875,7 @@
       <c r="E24" s="24"/>
       <c r="I24" s="52"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>13</v>
       </c>
@@ -4813,7 +4886,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>11</v>
       </c>
@@ -4824,7 +4897,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="24"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>135</v>
       </c>
@@ -4835,7 +4908,7 @@
       <c r="D27" s="8"/>
       <c r="E27" s="24"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>136</v>
       </c>
@@ -4846,7 +4919,7 @@
       <c r="D28" s="8"/>
       <c r="E28" s="24"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>121</v>
       </c>
@@ -4857,7 +4930,7 @@
       <c r="D29" s="8"/>
       <c r="E29" s="24"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>137</v>
       </c>
@@ -4868,7 +4941,7 @@
       <c r="D30" s="8"/>
       <c r="E30" s="24"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>69</v>
       </c>
@@ -4879,7 +4952,7 @@
       <c r="D31" s="8"/>
       <c r="E31" s="24"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>150</v>
       </c>
@@ -4890,7 +4963,7 @@
       <c r="D32" s="8"/>
       <c r="E32" s="24"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>119</v>
       </c>
@@ -4901,7 +4974,7 @@
       <c r="D33" s="8"/>
       <c r="E33" s="24"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>113</v>
       </c>
@@ -4914,7 +4987,7 @@
       </c>
       <c r="E34" s="24"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="60" t="s">
         <v>148</v>
       </c>
@@ -4925,7 +4998,7 @@
       <c r="D35" s="54"/>
       <c r="E35" s="61"/>
     </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="13" t="s">
         <v>138</v>
       </c>
@@ -4938,23 +5011,23 @@
       </c>
       <c r="E36" s="25"/>
     </row>
-    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="30"/>
       <c r="D37" s="16"/>
       <c r="E37" s="30"/>
     </row>
-    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="101" t="s">
+    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="100" t="s">
         <v>429</v>
       </c>
-      <c r="B38" s="102"/>
-      <c r="C38" s="102"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="103"/>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="101"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="102"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="17" t="s">
         <v>1</v>
       </c>
@@ -4971,7 +5044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>16</v>
       </c>
@@ -4988,7 +5061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>145</v>
       </c>
@@ -5001,7 +5074,7 @@
       <c r="D41" s="8"/>
       <c r="E41" s="24"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>146</v>
       </c>
@@ -5014,7 +5087,7 @@
       <c r="D42" s="8"/>
       <c r="E42" s="24"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="60" t="s">
         <v>113</v>
       </c>
@@ -5027,7 +5100,7 @@
       </c>
       <c r="E43" s="61"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="60" t="s">
         <v>157</v>
       </c>
@@ -5040,7 +5113,7 @@
       <c r="D44" s="54"/>
       <c r="E44" s="61"/>
     </row>
-    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
         <v>147</v>
       </c>
@@ -5056,17 +5129,17 @@
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="101" t="s">
+    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="100" t="s">
         <v>435</v>
       </c>
-      <c r="B47" s="102"/>
-      <c r="C47" s="102"/>
-      <c r="D47" s="102"/>
-      <c r="E47" s="103"/>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="101"/>
+      <c r="C47" s="101"/>
+      <c r="D47" s="101"/>
+      <c r="E47" s="102"/>
+    </row>
+    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
         <v>1</v>
       </c>
@@ -5083,7 +5156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>16</v>
       </c>
@@ -5100,7 +5173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>113</v>
       </c>
@@ -5115,7 +5188,7 @@
       </c>
       <c r="E50" s="24"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>14</v>
       </c>
@@ -5130,7 +5203,7 @@
       </c>
       <c r="E51" s="24"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>116</v>
       </c>
@@ -5141,7 +5214,7 @@
       <c r="D52" s="8"/>
       <c r="E52" s="24"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>155</v>
       </c>
@@ -5152,7 +5225,7 @@
       <c r="D53" s="8"/>
       <c r="E53" s="24"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>152</v>
       </c>
@@ -5163,7 +5236,7 @@
       <c r="D54" s="8"/>
       <c r="E54" s="24"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>153</v>
       </c>
@@ -5174,7 +5247,7 @@
       <c r="D55" s="8"/>
       <c r="E55" s="24"/>
     </row>
-    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="13" t="s">
         <v>154</v>
       </c>
@@ -5185,17 +5258,17 @@
       <c r="D56" s="14"/>
       <c r="E56" s="25"/>
     </row>
-    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="101" t="s">
+    <row r="57" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="B58" s="102"/>
-      <c r="C58" s="102"/>
-      <c r="D58" s="102"/>
-      <c r="E58" s="103"/>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="101"/>
+      <c r="C58" s="101"/>
+      <c r="D58" s="101"/>
+      <c r="E58" s="102"/>
+    </row>
+    <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
         <v>1</v>
       </c>
@@ -5212,7 +5285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>16</v>
       </c>
@@ -5229,7 +5302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>116</v>
       </c>
@@ -5240,7 +5313,7 @@
       <c r="D61" s="8"/>
       <c r="E61" s="24"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>155</v>
       </c>
@@ -5251,7 +5324,7 @@
       <c r="D62" s="8"/>
       <c r="E62" s="24"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>153</v>
       </c>
@@ -5262,7 +5335,7 @@
       <c r="D63" s="8"/>
       <c r="E63" s="24"/>
     </row>
-    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="13" t="s">
         <v>154</v>
       </c>
@@ -5273,17 +5346,17 @@
       <c r="D64" s="14"/>
       <c r="E64" s="25"/>
     </row>
-    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="104" t="s">
+    <row r="65" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="66" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="103" t="s">
         <v>163</v>
       </c>
-      <c r="B66" s="105"/>
-      <c r="C66" s="105"/>
-      <c r="D66" s="105"/>
-      <c r="E66" s="106"/>
-    </row>
-    <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="104"/>
+      <c r="C66" s="104"/>
+      <c r="D66" s="104"/>
+      <c r="E66" s="105"/>
+    </row>
+    <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="48" t="s">
         <v>1</v>
       </c>
@@ -5300,7 +5373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="43" t="s">
         <v>16</v>
       </c>
@@ -5317,7 +5390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>0</v>
       </c>
@@ -5328,7 +5401,7 @@
       <c r="D69" s="8"/>
       <c r="E69" s="24"/>
     </row>
-    <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="13" t="s">
         <v>164</v>
       </c>
@@ -5341,17 +5414,17 @@
       </c>
       <c r="E70" s="25"/>
     </row>
-    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="104" t="s">
+    <row r="71" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="103" t="s">
         <v>174</v>
       </c>
-      <c r="B72" s="105"/>
-      <c r="C72" s="105"/>
-      <c r="D72" s="105"/>
-      <c r="E72" s="106"/>
-    </row>
-    <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="104"/>
+      <c r="C72" s="104"/>
+      <c r="D72" s="104"/>
+      <c r="E72" s="105"/>
+    </row>
+    <row r="73" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="17" t="s">
         <v>1</v>
       </c>
@@ -5368,7 +5441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>16</v>
       </c>
@@ -5385,7 +5458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
         <v>165</v>
       </c>
@@ -5400,7 +5473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
         <v>167</v>
       </c>
@@ -5411,7 +5484,7 @@
       <c r="D76" s="8"/>
       <c r="E76" s="24"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>168</v>
       </c>
@@ -5422,7 +5495,7 @@
       <c r="D77" s="8"/>
       <c r="E77" s="24"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
         <v>93</v>
       </c>
@@ -5435,7 +5508,7 @@
       <c r="D78" s="8"/>
       <c r="E78" s="24"/>
     </row>
-    <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="13" t="s">
         <v>113</v>
       </c>
@@ -5476,21 +5549,21 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="106" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="108"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="107"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
         <v>139</v>
       </c>
@@ -5498,7 +5571,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="56" t="s">
         <v>125</v>
       </c>
@@ -5506,7 +5579,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="56" t="s">
         <v>128</v>
       </c>
@@ -5514,7 +5587,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="56" t="s">
         <v>127</v>
       </c>
@@ -5522,7 +5595,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="56" t="s">
         <v>129</v>
       </c>
@@ -5530,7 +5603,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="56" t="s">
         <v>131</v>
       </c>
@@ -5538,7 +5611,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="58" t="s">
         <v>133</v>
       </c>
@@ -5561,32 +5634,33 @@
   </sheetPr>
   <dimension ref="A1:G173"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143:F143"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="66" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="66" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="66" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="66" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="108" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="82"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="67" t="s">
         <v>176</v>
       </c>
@@ -5605,11 +5679,11 @@
       <c r="F2" s="69" t="s">
         <v>405</v>
       </c>
-      <c r="G2" s="88" t="s">
+      <c r="G2" s="81" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="70" t="s">
         <v>110</v>
       </c>
@@ -5629,7 +5703,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="70" t="s">
         <v>110</v>
       </c>
@@ -5649,7 +5723,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="70" t="s">
         <v>110</v>
       </c>
@@ -5667,7 +5741,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="70" t="s">
         <v>110</v>
       </c>
@@ -5685,7 +5759,7 @@
       </c>
       <c r="F6" s="77"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="70" t="s">
         <v>110</v>
       </c>
@@ -5703,7 +5777,7 @@
       </c>
       <c r="F7" s="77"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="70" t="s">
         <v>110</v>
       </c>
@@ -5719,7 +5793,7 @@
       <c r="E8" s="70"/>
       <c r="F8" s="77"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="71" t="s">
         <v>110</v>
       </c>
@@ -5737,7 +5811,7 @@
       </c>
       <c r="F9" s="76"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="71" t="s">
         <v>110</v>
       </c>
@@ -5755,7 +5829,7 @@
       </c>
       <c r="F10" s="76"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="70" t="s">
         <v>18</v>
       </c>
@@ -5773,7 +5847,7 @@
       </c>
       <c r="F11" s="77"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="70" t="s">
         <v>18</v>
       </c>
@@ -5793,7 +5867,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="70" t="s">
         <v>18</v>
       </c>
@@ -5809,7 +5883,7 @@
       <c r="E13" s="70"/>
       <c r="F13" s="77"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="70" t="s">
         <v>18</v>
       </c>
@@ -5827,7 +5901,7 @@
       </c>
       <c r="F14" s="77"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="70" t="s">
         <v>18</v>
       </c>
@@ -5847,7 +5921,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="70" t="s">
         <v>18</v>
       </c>
@@ -5863,7 +5937,7 @@
       <c r="E16" s="70"/>
       <c r="F16" s="77"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="70" t="s">
         <v>142</v>
       </c>
@@ -5883,7 +5957,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="70" t="s">
         <v>142</v>
       </c>
@@ -5903,7 +5977,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="70" t="s">
         <v>142</v>
       </c>
@@ -5921,7 +5995,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="70" t="s">
         <v>142</v>
       </c>
@@ -5939,7 +6013,7 @@
       </c>
       <c r="F20" s="77"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="70" t="s">
         <v>142</v>
       </c>
@@ -5959,7 +6033,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="70" t="s">
         <v>142</v>
       </c>
@@ -5975,7 +6049,7 @@
       <c r="E22" s="70"/>
       <c r="F22" s="77"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="70" t="s">
         <v>142</v>
       </c>
@@ -5993,7 +6067,7 @@
       </c>
       <c r="F23" s="77"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="70" t="s">
         <v>142</v>
       </c>
@@ -6011,7 +6085,7 @@
       </c>
       <c r="F24" s="77"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="70" t="s">
         <v>104</v>
       </c>
@@ -6029,7 +6103,7 @@
       </c>
       <c r="F25" s="77"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="70" t="s">
         <v>104</v>
       </c>
@@ -6049,7 +6123,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="70" t="s">
         <v>104</v>
       </c>
@@ -6065,7 +6139,7 @@
       <c r="E27" s="70"/>
       <c r="F27" s="77"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="70" t="s">
         <v>104</v>
       </c>
@@ -6083,7 +6157,7 @@
       </c>
       <c r="F28" s="77"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="70" t="s">
         <v>104</v>
       </c>
@@ -6103,7 +6177,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="70" t="s">
         <v>104</v>
       </c>
@@ -6119,7 +6193,7 @@
       <c r="E30" s="70"/>
       <c r="F30" s="77"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="70" t="s">
         <v>105</v>
       </c>
@@ -6139,7 +6213,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="70" t="s">
         <v>105</v>
       </c>
@@ -6157,7 +6231,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="70" t="s">
         <v>105</v>
       </c>
@@ -6175,7 +6249,7 @@
       </c>
       <c r="F33" s="77"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="70" t="s">
         <v>105</v>
       </c>
@@ -6193,7 +6267,7 @@
       </c>
       <c r="F34" s="77"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="70" t="s">
         <v>116</v>
       </c>
@@ -6213,7 +6287,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="70" t="s">
         <v>116</v>
       </c>
@@ -6233,7 +6307,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="70" t="s">
         <v>116</v>
       </c>
@@ -6251,7 +6325,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="70" t="s">
         <v>116</v>
       </c>
@@ -6269,7 +6343,7 @@
       </c>
       <c r="F38" s="77"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="70" t="s">
         <v>116</v>
       </c>
@@ -6289,7 +6363,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="70" t="s">
         <v>116</v>
       </c>
@@ -6305,7 +6379,7 @@
       <c r="E40" s="70"/>
       <c r="F40" s="77"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="71" t="s">
         <v>116</v>
       </c>
@@ -6323,7 +6397,7 @@
       </c>
       <c r="F41" s="76"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="70" t="s">
         <v>116</v>
       </c>
@@ -6341,7 +6415,7 @@
       </c>
       <c r="F42" s="77"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="71" t="s">
         <v>116</v>
       </c>
@@ -6359,7 +6433,7 @@
       </c>
       <c r="F43" s="76"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="71" t="s">
         <v>116</v>
       </c>
@@ -6377,7 +6451,7 @@
       </c>
       <c r="F44" s="76"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="70" t="s">
         <v>312</v>
       </c>
@@ -6395,7 +6469,7 @@
       </c>
       <c r="F45" s="77"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="70" t="s">
         <v>312</v>
       </c>
@@ -6415,7 +6489,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="70" t="s">
         <v>312</v>
       </c>
@@ -6431,7 +6505,7 @@
       <c r="E47" s="70"/>
       <c r="F47" s="77"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="70" t="s">
         <v>312</v>
       </c>
@@ -6449,7 +6523,7 @@
       </c>
       <c r="F48" s="77"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="70" t="s">
         <v>312</v>
       </c>
@@ -6469,7 +6543,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="70" t="s">
         <v>312</v>
       </c>
@@ -6485,7 +6559,7 @@
       <c r="E50" s="70"/>
       <c r="F50" s="77"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="70" t="s">
         <v>42</v>
       </c>
@@ -6505,7 +6579,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="70" t="s">
         <v>42</v>
       </c>
@@ -6525,7 +6599,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="70" t="s">
         <v>42</v>
       </c>
@@ -6543,7 +6617,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="70" t="s">
         <v>42</v>
       </c>
@@ -6561,7 +6635,7 @@
       </c>
       <c r="F54" s="77"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="70" t="s">
         <v>42</v>
       </c>
@@ -6581,7 +6655,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="70" t="s">
         <v>42</v>
       </c>
@@ -6597,7 +6671,7 @@
       <c r="E56" s="70"/>
       <c r="F56" s="77"/>
     </row>
-    <row r="57" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="70" t="s">
         <v>69</v>
       </c>
@@ -6617,7 +6691,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="70" t="s">
         <v>69</v>
       </c>
@@ -6637,7 +6711,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="70" t="s">
         <v>69</v>
       </c>
@@ -6655,7 +6729,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="70" t="s">
         <v>69</v>
       </c>
@@ -6673,7 +6747,7 @@
       </c>
       <c r="F60" s="77"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="70" t="s">
         <v>69</v>
       </c>
@@ -6693,7 +6767,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="70" t="s">
         <v>69</v>
       </c>
@@ -6709,7 +6783,7 @@
       <c r="E62" s="70"/>
       <c r="F62" s="77"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="71" t="s">
         <v>69</v>
       </c>
@@ -6729,7 +6803,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="70" t="s">
         <v>64</v>
       </c>
@@ -6747,7 +6821,7 @@
       </c>
       <c r="F64" s="77"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="70" t="s">
         <v>64</v>
       </c>
@@ -6767,7 +6841,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="70" t="s">
         <v>64</v>
       </c>
@@ -6783,7 +6857,7 @@
       <c r="E66" s="70"/>
       <c r="F66" s="77"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="70" t="s">
         <v>64</v>
       </c>
@@ -6801,7 +6875,7 @@
       </c>
       <c r="F67" s="77"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="70" t="s">
         <v>64</v>
       </c>
@@ -6821,7 +6895,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="70" t="s">
         <v>64</v>
       </c>
@@ -6837,7 +6911,7 @@
       <c r="E69" s="70"/>
       <c r="F69" s="77"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="70" t="s">
         <v>10</v>
       </c>
@@ -6855,7 +6929,7 @@
       </c>
       <c r="F70" s="77"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="70" t="s">
         <v>10</v>
       </c>
@@ -6873,7 +6947,7 @@
       </c>
       <c r="F71" s="77"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="70" t="s">
         <v>10</v>
       </c>
@@ -6889,7 +6963,7 @@
       <c r="E72" s="70"/>
       <c r="F72" s="77"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="70" t="s">
         <v>10</v>
       </c>
@@ -6907,7 +6981,7 @@
       </c>
       <c r="F73" s="77"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="70" t="s">
         <v>10</v>
       </c>
@@ -6927,7 +7001,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="70" t="s">
         <v>10</v>
       </c>
@@ -6943,7 +7017,7 @@
       <c r="E75" s="70"/>
       <c r="F75" s="77"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="70" t="s">
         <v>239</v>
       </c>
@@ -6963,7 +7037,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="70" t="s">
         <v>239</v>
       </c>
@@ -6981,7 +7055,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="70" t="s">
         <v>239</v>
       </c>
@@ -6999,7 +7073,7 @@
       </c>
       <c r="F78" s="77"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="70" t="s">
         <v>239</v>
       </c>
@@ -7017,7 +7091,7 @@
       </c>
       <c r="F79" s="77"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="70" t="s">
         <v>107</v>
       </c>
@@ -7035,7 +7109,7 @@
       </c>
       <c r="F80" s="77"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="70" t="s">
         <v>107</v>
       </c>
@@ -7053,7 +7127,7 @@
       </c>
       <c r="F81" s="77"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="70" t="s">
         <v>107</v>
       </c>
@@ -7069,7 +7143,7 @@
       <c r="E82" s="70"/>
       <c r="F82" s="77"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="70" t="s">
         <v>107</v>
       </c>
@@ -7087,7 +7161,7 @@
       </c>
       <c r="F83" s="77"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="70" t="s">
         <v>107</v>
       </c>
@@ -7107,7 +7181,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="70" t="s">
         <v>107</v>
       </c>
@@ -7123,7 +7197,7 @@
       <c r="E85" s="70"/>
       <c r="F85" s="77"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="70" t="s">
         <v>363</v>
       </c>
@@ -7143,7 +7217,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="70" t="s">
         <v>363</v>
       </c>
@@ -7163,7 +7237,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="70" t="s">
         <v>363</v>
       </c>
@@ -7179,7 +7253,7 @@
       <c r="E88" s="70"/>
       <c r="F88" s="77"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="70" t="s">
         <v>363</v>
       </c>
@@ -7197,7 +7271,7 @@
       </c>
       <c r="F89" s="77"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="70" t="s">
         <v>363</v>
       </c>
@@ -7217,7 +7291,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="70" t="s">
         <v>363</v>
       </c>
@@ -7233,7 +7307,7 @@
       <c r="E91" s="70"/>
       <c r="F91" s="77"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="70" t="s">
         <v>363</v>
       </c>
@@ -7251,7 +7325,7 @@
       </c>
       <c r="F92" s="77"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="70" t="s">
         <v>363</v>
       </c>
@@ -7269,7 +7343,7 @@
       </c>
       <c r="F93" s="77"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="70" t="s">
         <v>151</v>
       </c>
@@ -7289,7 +7363,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="70" t="s">
         <v>151</v>
       </c>
@@ -7309,7 +7383,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="70" t="s">
         <v>151</v>
       </c>
@@ -7327,7 +7401,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="70" t="s">
         <v>151</v>
       </c>
@@ -7345,7 +7419,7 @@
       </c>
       <c r="F97" s="77"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="70" t="s">
         <v>151</v>
       </c>
@@ -7365,7 +7439,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="70" t="s">
         <v>151</v>
       </c>
@@ -7381,7 +7455,7 @@
       <c r="E99" s="70"/>
       <c r="F99" s="77"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="70" t="s">
         <v>151</v>
       </c>
@@ -7399,7 +7473,7 @@
       </c>
       <c r="F100" s="77"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="70" t="s">
         <v>135</v>
       </c>
@@ -7417,7 +7491,7 @@
       </c>
       <c r="F101" s="77"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="70" t="s">
         <v>135</v>
       </c>
@@ -7437,7 +7511,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="70" t="s">
         <v>135</v>
       </c>
@@ -7453,7 +7527,7 @@
       <c r="E103" s="70"/>
       <c r="F103" s="77"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="70" t="s">
         <v>135</v>
       </c>
@@ -7471,7 +7545,7 @@
       </c>
       <c r="F104" s="77"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="70" t="s">
         <v>135</v>
       </c>
@@ -7489,7 +7563,7 @@
       </c>
       <c r="F105" s="77"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="70" t="s">
         <v>135</v>
       </c>
@@ -7509,7 +7583,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="70" t="s">
         <v>135</v>
       </c>
@@ -7525,7 +7599,7 @@
       <c r="E107" s="70"/>
       <c r="F107" s="77"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="70" t="s">
         <v>17</v>
       </c>
@@ -7543,7 +7617,7 @@
       </c>
       <c r="F108" s="77"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="70" t="s">
         <v>17</v>
       </c>
@@ -7563,7 +7637,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="70" t="s">
         <v>17</v>
       </c>
@@ -7579,7 +7653,7 @@
       <c r="E110" s="70"/>
       <c r="F110" s="77"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="70" t="s">
         <v>17</v>
       </c>
@@ -7597,7 +7671,7 @@
       </c>
       <c r="F111" s="77"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="70" t="s">
         <v>17</v>
       </c>
@@ -7617,7 +7691,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="70" t="s">
         <v>17</v>
       </c>
@@ -7633,7 +7707,7 @@
       <c r="E113" s="70"/>
       <c r="F113" s="77"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="70" t="s">
         <v>93</v>
       </c>
@@ -7650,11 +7724,11 @@
         <v>93</v>
       </c>
       <c r="F114" s="77"/>
-      <c r="G114" s="89" t="s">
+      <c r="G114" s="82" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="70" t="s">
         <v>93</v>
       </c>
@@ -7673,11 +7747,11 @@
       <c r="F115" s="77" t="s">
         <v>407</v>
       </c>
-      <c r="G115" s="90" t="s">
+      <c r="G115" s="83" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="70" t="s">
         <v>93</v>
       </c>
@@ -7692,11 +7766,11 @@
       </c>
       <c r="E116" s="70"/>
       <c r="F116" s="77"/>
-      <c r="G116" s="90" t="s">
+      <c r="G116" s="83" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="70" t="s">
         <v>93</v>
       </c>
@@ -7716,7 +7790,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="70" t="s">
         <v>93</v>
       </c>
@@ -7732,7 +7806,7 @@
       <c r="E118" s="70"/>
       <c r="F118" s="77"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="70" t="s">
         <v>93</v>
       </c>
@@ -7750,7 +7824,7 @@
       </c>
       <c r="F119" s="77"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="70" t="s">
         <v>256</v>
       </c>
@@ -7770,7 +7844,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="70" t="s">
         <v>256</v>
       </c>
@@ -7790,7 +7864,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="70" t="s">
         <v>256</v>
       </c>
@@ -7808,7 +7882,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="70" t="s">
         <v>256</v>
       </c>
@@ -7826,7 +7900,7 @@
       </c>
       <c r="F123" s="77"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="70" t="s">
         <v>256</v>
       </c>
@@ -7846,7 +7920,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="70" t="s">
         <v>256</v>
       </c>
@@ -7862,7 +7936,7 @@
       <c r="E125" s="70"/>
       <c r="F125" s="77"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="70" t="s">
         <v>103</v>
       </c>
@@ -7882,7 +7956,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="70" t="s">
         <v>103</v>
       </c>
@@ -7902,7 +7976,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="70" t="s">
         <v>103</v>
       </c>
@@ -7920,7 +7994,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="70" t="s">
         <v>103</v>
       </c>
@@ -7938,7 +8012,7 @@
       </c>
       <c r="F129" s="77"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="70" t="s">
         <v>103</v>
       </c>
@@ -7958,7 +8032,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="70" t="s">
         <v>103</v>
       </c>
@@ -7974,7 +8048,7 @@
       <c r="E131" s="70"/>
       <c r="F131" s="77"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="70" t="s">
         <v>103</v>
       </c>
@@ -7994,68 +8068,68 @@
         <v>407</v>
       </c>
     </row>
-    <row r="133" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="109" t="s">
+    <row r="133" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="91" t="s">
         <v>450</v>
       </c>
-      <c r="B133" s="110" t="s">
+      <c r="B133" s="92" t="s">
         <v>180</v>
       </c>
-      <c r="C133" s="111" t="s">
+      <c r="C133" s="93" t="s">
         <v>451</v>
       </c>
-      <c r="D133" s="112" t="s">
+      <c r="D133" s="94" t="s">
         <v>452</v>
       </c>
-      <c r="E133" s="109" t="s">
+      <c r="E133" s="91" t="s">
         <v>450</v>
       </c>
-      <c r="F133" s="113"/>
-    </row>
-    <row r="134" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="109" t="s">
+      <c r="F133" s="95"/>
+    </row>
+    <row r="134" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="91" t="s">
         <v>450</v>
       </c>
-      <c r="B134" s="110" t="s">
+      <c r="B134" s="92" t="s">
         <v>181</v>
       </c>
-      <c r="C134" s="111" t="s">
+      <c r="C134" s="93" t="s">
         <v>451</v>
       </c>
-      <c r="D134" s="112" t="s">
+      <c r="D134" s="94" t="s">
         <v>453</v>
       </c>
-      <c r="E134" s="109" t="s">
+      <c r="E134" s="91" t="s">
         <v>450</v>
       </c>
-      <c r="F134" s="113" t="s">
+      <c r="F134" s="95" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="135" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="109" t="s">
+    <row r="135" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="91" t="s">
         <v>450</v>
       </c>
-      <c r="B135" s="110" t="s">
+      <c r="B135" s="92" t="s">
         <v>182</v>
       </c>
-      <c r="C135" s="111" t="s">
+      <c r="C135" s="93" t="s">
         <v>451</v>
       </c>
-      <c r="D135" s="112" t="s">
+      <c r="D135" s="94" t="s">
         <v>454</v>
       </c>
-      <c r="E135" s="109"/>
-      <c r="F135" s="113"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="109" t="s">
+      <c r="E135" s="91"/>
+      <c r="F135" s="95"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" s="91" t="s">
         <v>450</v>
       </c>
       <c r="B136" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="C136" s="111" t="s">
+      <c r="C136" s="93" t="s">
         <v>464</v>
       </c>
       <c r="D136" s="65" t="s">
@@ -8066,14 +8140,14 @@
       </c>
       <c r="F136" s="76"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="109" t="s">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" s="91" t="s">
         <v>450</v>
       </c>
       <c r="B137" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="C137" s="111" t="s">
+      <c r="C137" s="93" t="s">
         <v>464</v>
       </c>
       <c r="D137" s="65" t="s">
@@ -8086,14 +8160,14 @@
         <v>407</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="109" t="s">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" s="91" t="s">
         <v>450</v>
       </c>
       <c r="B138" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="C138" s="111" t="s">
+      <c r="C138" s="93" t="s">
         <v>464</v>
       </c>
       <c r="D138" s="65" t="s">
@@ -8102,7 +8176,7 @@
       <c r="E138" s="70"/>
       <c r="F138" s="76"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="70" t="s">
         <v>450</v>
       </c>
@@ -8118,7 +8192,7 @@
       <c r="E139" s="70"/>
       <c r="F139" s="76"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="70" t="s">
         <v>450</v>
       </c>
@@ -8136,7 +8210,7 @@
       </c>
       <c r="F140" s="76"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="70" t="s">
         <v>450</v>
       </c>
@@ -8154,7 +8228,7 @@
       </c>
       <c r="F141" s="76"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="70" t="s">
         <v>450</v>
       </c>
@@ -8172,7 +8246,7 @@
       </c>
       <c r="F142" s="76"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="70" t="s">
         <v>450</v>
       </c>
@@ -8188,7 +8262,7 @@
       <c r="E143" s="70"/>
       <c r="F143" s="76"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="70" t="s">
         <v>0</v>
       </c>
@@ -8207,11 +8281,11 @@
       <c r="F144" s="76" t="s">
         <v>406</v>
       </c>
-      <c r="G144" s="90" t="s">
+      <c r="G144" s="83" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="70" t="s">
         <v>0</v>
       </c>
@@ -8229,7 +8303,7 @@
       </c>
       <c r="F145" s="76"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="70" t="s">
         <v>0</v>
       </c>
@@ -8249,7 +8323,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="70" t="s">
         <v>0</v>
       </c>
@@ -8265,7 +8339,7 @@
       <c r="E147" s="70"/>
       <c r="F147" s="76"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="70" t="s">
         <v>0</v>
       </c>
@@ -8285,7 +8359,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="70" t="s">
         <v>0</v>
       </c>
@@ -8303,7 +8377,7 @@
       </c>
       <c r="F149" s="76"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="70" t="s">
         <v>0</v>
       </c>
@@ -8321,7 +8395,7 @@
       </c>
       <c r="F150" s="76"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="70" t="s">
         <v>0</v>
       </c>
@@ -8339,7 +8413,7 @@
       </c>
       <c r="F151" s="76"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="70" t="s">
         <v>0</v>
       </c>
@@ -8359,7 +8433,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="70" t="s">
         <v>0</v>
       </c>
@@ -8375,7 +8449,7 @@
       <c r="E153" s="70"/>
       <c r="F153" s="76"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="70" t="s">
         <v>0</v>
       </c>
@@ -8395,7 +8469,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="70" t="s">
         <v>387</v>
       </c>
@@ -8413,7 +8487,7 @@
       </c>
       <c r="F155" s="77"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="70" t="s">
         <v>387</v>
       </c>
@@ -8433,7 +8507,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="70" t="s">
         <v>387</v>
       </c>
@@ -8449,7 +8523,7 @@
       <c r="E157" s="70"/>
       <c r="F157" s="77"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="70" t="s">
         <v>387</v>
       </c>
@@ -8467,7 +8541,7 @@
       </c>
       <c r="F158" s="77"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="70" t="s">
         <v>387</v>
       </c>
@@ -8487,7 +8561,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="70" t="s">
         <v>387</v>
       </c>
@@ -8503,7 +8577,7 @@
       <c r="E160" s="70"/>
       <c r="F160" s="77"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="70" t="s">
         <v>387</v>
       </c>
@@ -8521,95 +8595,95 @@
       </c>
       <c r="F161" s="77"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="91" t="s">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="B162" s="92" t="s">
+      <c r="B162" s="85" t="s">
         <v>181</v>
       </c>
-      <c r="C162" s="93" t="s">
+      <c r="C162" s="86" t="s">
         <v>401</v>
       </c>
-      <c r="D162" s="94" t="s">
+      <c r="D162" s="87" t="s">
         <v>398</v>
       </c>
-      <c r="E162" s="91" t="s">
+      <c r="E162" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="F162" s="95" t="s">
+      <c r="F162" s="88" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="91" t="s">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="B163" s="92" t="s">
+      <c r="B163" s="85" t="s">
         <v>180</v>
       </c>
-      <c r="C163" s="93" t="s">
+      <c r="C163" s="86" t="s">
         <v>426</v>
       </c>
-      <c r="D163" s="94" t="s">
+      <c r="D163" s="87" t="s">
         <v>427</v>
       </c>
-      <c r="E163" s="91" t="s">
+      <c r="E163" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="F163" s="95"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="91" t="s">
+      <c r="F163" s="88"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="B164" s="92" t="s">
+      <c r="B164" s="85" t="s">
         <v>180</v>
       </c>
-      <c r="C164" s="93" t="s">
+      <c r="C164" s="86" t="s">
         <v>402</v>
       </c>
-      <c r="D164" s="94" t="s">
+      <c r="D164" s="87" t="s">
         <v>399</v>
       </c>
-      <c r="E164" s="91" t="s">
+      <c r="E164" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="F164" s="95"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="91" t="s">
+      <c r="F164" s="88"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="B165" s="92" t="s">
+      <c r="B165" s="85" t="s">
         <v>182</v>
       </c>
-      <c r="C165" s="93" t="s">
+      <c r="C165" s="86" t="s">
         <v>402</v>
       </c>
-      <c r="D165" s="94" t="s">
+      <c r="D165" s="87" t="s">
         <v>400</v>
       </c>
-      <c r="E165" s="91"/>
-      <c r="F165" s="95"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="91" t="s">
+      <c r="E165" s="84"/>
+      <c r="F165" s="88"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="B166" s="92" t="s">
+      <c r="B166" s="85" t="s">
         <v>182</v>
       </c>
-      <c r="C166" s="93" t="s">
+      <c r="C166" s="86" t="s">
         <v>403</v>
       </c>
-      <c r="D166" s="94" t="s">
+      <c r="D166" s="87" t="s">
         <v>404</v>
       </c>
-      <c r="E166" s="91"/>
-      <c r="F166" s="95"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E166" s="84"/>
+      <c r="F166" s="88"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="70" t="s">
         <v>163</v>
       </c>
@@ -8627,7 +8701,7 @@
       </c>
       <c r="F167" s="77"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="70" t="s">
         <v>163</v>
       </c>
@@ -8647,7 +8721,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="70" t="s">
         <v>163</v>
       </c>
@@ -8663,7 +8737,7 @@
       <c r="E169" s="70"/>
       <c r="F169" s="77"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="70" t="s">
         <v>163</v>
       </c>
@@ -8681,7 +8755,7 @@
       </c>
       <c r="F170" s="77"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="70" t="s">
         <v>163</v>
       </c>
@@ -8701,7 +8775,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="70" t="s">
         <v>163</v>
       </c>
@@ -8717,7 +8791,7 @@
       <c r="E172" s="70"/>
       <c r="F172" s="77"/>
     </row>
-    <row r="173" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="72" t="s">
         <v>163</v>
       </c>
@@ -8740,6 +8814,9 @@
     <sortCondition ref="C133:C143"/>
     <sortCondition ref="B133:B143" customList="GET,PUT,POST,DELETE"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="56" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -8747,208 +8824,76 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="A1:E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" style="113" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" style="113" customWidth="1"/>
+    <col min="3" max="3" width="29" style="113" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1" s="68" t="s">
-        <v>178</v>
-      </c>
-      <c r="C1" s="68" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1" s="79" t="s">
-        <v>425</v>
-      </c>
-      <c r="E1" s="69" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="84" t="s">
-        <v>378</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="D2" s="85" t="s">
-        <v>163</v>
-      </c>
-      <c r="E2" s="86"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
-        <v>181</v>
-      </c>
-      <c r="B3" s="84" t="s">
-        <v>378</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="D3" s="85" t="s">
-        <v>163</v>
-      </c>
-      <c r="E3" s="86" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>182</v>
-      </c>
-      <c r="B4" s="84" t="s">
-        <v>378</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="D4" s="85"/>
-      <c r="E4" s="86"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="83" t="s">
-        <v>180</v>
-      </c>
-      <c r="B5" s="84" t="s">
-        <v>379</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="D5" s="85" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" s="86"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
-        <v>183</v>
-      </c>
-      <c r="B6" s="84" t="s">
-        <v>379</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="D6" s="85" t="s">
-        <v>163</v>
-      </c>
-      <c r="E6" s="86" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
-        <v>182</v>
-      </c>
-      <c r="B7" s="84" t="s">
-        <v>379</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="D7" s="85"/>
-      <c r="E7" s="86"/>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="83" t="s">
-        <v>180</v>
-      </c>
-      <c r="B8" s="84" t="s">
-        <v>386</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="D8" s="85" t="s">
-        <v>163</v>
-      </c>
-      <c r="E8" s="86"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="83"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="86"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="86"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="83"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="86"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="83"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="86"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="83"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="86"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="83"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="86"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="83"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="83"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="86"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="83"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="86"/>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="110" t="s">
+        <v>472</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="112" t="s">
+        <v>473</v>
+      </c>
+      <c r="B2" s="112" t="s">
+        <v>474</v>
+      </c>
+      <c r="C2" s="112" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="113" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3" s="113" t="s">
+        <v>478</v>
+      </c>
+      <c r="C3" s="113" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="B4" s="113" t="s">
+        <v>480</v>
+      </c>
+      <c r="C4" s="113" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="113" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14" s="113" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15" s="113" t="s">
+        <v>483</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentation/DataAndAPIMatchAware.xlsx
+++ b/documentation/DataAndAPIMatchAware.xlsx
@@ -22,6 +22,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">Routing!$A$1:$G$173</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="485">
   <si>
     <t>USER</t>
   </si>
@@ -1479,10 +1480,13 @@
     <t>Indication of whether the user has logged in to the system and been authenticated.  Used in the system to control display of elements selectively.</t>
   </si>
   <si>
-    <t>make club and user requred in REST API clubmember</t>
-  </si>
-  <si>
-    <t>ORGANIZATIONS not implemented</t>
+    <t>currentUser</t>
+  </si>
+  <si>
+    <t>CoreDataService</t>
+  </si>
+  <si>
+    <t>Functions</t>
   </si>
 </sst>
 </file>
@@ -2315,6 +2319,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2359,12 +2369,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2721,28 +2725,28 @@
     </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="102" t="s">
         <v>441</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="102"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="104"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="97" t="s">
+      <c r="G3" s="99" t="s">
         <v>433</v>
       </c>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="99"/>
-      <c r="M3" s="97" t="s">
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="101"/>
+      <c r="M3" s="99" t="s">
         <v>430</v>
       </c>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="99"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="101"/>
     </row>
     <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="36" t="s">
@@ -3083,13 +3087,13 @@
       <c r="C13" s="21"/>
       <c r="D13" s="8"/>
       <c r="E13" s="24"/>
-      <c r="G13" s="97" t="s">
+      <c r="G13" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="99"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="101"/>
       <c r="M13" s="10" t="s">
         <v>47</v>
       </c>
@@ -3241,13 +3245,13 @@
         <v>160</v>
       </c>
       <c r="E18" s="24"/>
-      <c r="G18" s="97" t="s">
+      <c r="G18" s="99" t="s">
         <v>434</v>
       </c>
-      <c r="H18" s="98"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="99"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="101"/>
       <c r="M18" s="10" t="s">
         <v>53</v>
       </c>
@@ -3388,20 +3392,20 @@
       <c r="W22" s="51"/>
     </row>
     <row r="23" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="103" t="s">
+      <c r="A23" s="105" t="s">
         <v>442</v>
       </c>
-      <c r="B23" s="104"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="105"/>
-      <c r="G23" s="100" t="s">
+      <c r="B23" s="106"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="107"/>
+      <c r="G23" s="102" t="s">
         <v>443</v>
       </c>
-      <c r="H23" s="101"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="102"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="104"/>
       <c r="M23" s="10" t="s">
         <v>58</v>
       </c>
@@ -3566,13 +3570,13 @@
       <c r="W27" s="51"/>
     </row>
     <row r="28" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="103" t="s">
+      <c r="A28" s="105" t="s">
         <v>439</v>
       </c>
-      <c r="B28" s="104"/>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="105"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="107"/>
       <c r="G28" s="13" t="s">
         <v>12</v>
       </c>
@@ -3629,20 +3633,20 @@
       <c r="E30" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G30" s="97" t="s">
+      <c r="G30" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="98"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="99"/>
-      <c r="M30" s="97" t="s">
+      <c r="H30" s="100"/>
+      <c r="I30" s="100"/>
+      <c r="J30" s="100"/>
+      <c r="K30" s="101"/>
+      <c r="M30" s="99" t="s">
         <v>431</v>
       </c>
-      <c r="N30" s="98"/>
-      <c r="O30" s="98"/>
-      <c r="P30" s="98"/>
-      <c r="Q30" s="99"/>
+      <c r="N30" s="100"/>
+      <c r="O30" s="100"/>
+      <c r="P30" s="100"/>
+      <c r="Q30" s="101"/>
     </row>
     <row r="31" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
@@ -3943,13 +3947,13 @@
       <c r="Q40" s="9"/>
     </row>
     <row r="41" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="97" t="s">
+      <c r="A41" s="99" t="s">
         <v>440</v>
       </c>
-      <c r="B41" s="98"/>
-      <c r="C41" s="98"/>
-      <c r="D41" s="98"/>
-      <c r="E41" s="99"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="101"/>
       <c r="G41" s="10" t="s">
         <v>33</v>
       </c>
@@ -4022,13 +4026,13 @@
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="9"/>
-      <c r="M43" s="97" t="s">
+      <c r="M43" s="99" t="s">
         <v>432</v>
       </c>
-      <c r="N43" s="98"/>
-      <c r="O43" s="98"/>
-      <c r="P43" s="98"/>
-      <c r="Q43" s="99"/>
+      <c r="N43" s="100"/>
+      <c r="O43" s="100"/>
+      <c r="P43" s="100"/>
+      <c r="Q43" s="101"/>
     </row>
     <row r="44" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="43" t="s">
@@ -4151,20 +4155,20 @@
       <c r="Q47" s="29"/>
     </row>
     <row r="48" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="97" t="s">
+      <c r="A48" s="99" t="s">
         <v>444</v>
       </c>
-      <c r="B48" s="98"/>
-      <c r="C48" s="98"/>
-      <c r="D48" s="98"/>
-      <c r="E48" s="99"/>
-      <c r="G48" s="100" t="s">
+      <c r="B48" s="100"/>
+      <c r="C48" s="100"/>
+      <c r="D48" s="100"/>
+      <c r="E48" s="101"/>
+      <c r="G48" s="102" t="s">
         <v>437</v>
       </c>
-      <c r="H48" s="101"/>
-      <c r="I48" s="101"/>
-      <c r="J48" s="101"/>
-      <c r="K48" s="102"/>
+      <c r="H48" s="103"/>
+      <c r="I48" s="103"/>
+      <c r="J48" s="103"/>
+      <c r="K48" s="104"/>
       <c r="M48" s="10" t="s">
         <v>66</v>
       </c>
@@ -4315,13 +4319,13 @@
       <c r="K53" s="24"/>
     </row>
     <row r="54" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="97" t="s">
+      <c r="A54" s="99" t="s">
         <v>445</v>
       </c>
-      <c r="B54" s="98"/>
-      <c r="C54" s="98"/>
-      <c r="D54" s="98"/>
-      <c r="E54" s="99"/>
+      <c r="B54" s="100"/>
+      <c r="C54" s="100"/>
+      <c r="D54" s="100"/>
+      <c r="E54" s="101"/>
       <c r="G54" s="10"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
@@ -4383,13 +4387,13 @@
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="29"/>
-      <c r="G57" s="97" t="s">
+      <c r="G57" s="99" t="s">
         <v>436</v>
       </c>
-      <c r="H57" s="98"/>
-      <c r="I57" s="98"/>
-      <c r="J57" s="98"/>
-      <c r="K57" s="99"/>
+      <c r="H57" s="100"/>
+      <c r="I57" s="100"/>
+      <c r="J57" s="100"/>
+      <c r="K57" s="101"/>
     </row>
     <row r="58" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G58" s="17" t="s">
@@ -4409,13 +4413,13 @@
       </c>
     </row>
     <row r="59" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="97" t="s">
+      <c r="A59" s="99" t="s">
         <v>471</v>
       </c>
-      <c r="B59" s="98"/>
-      <c r="C59" s="98"/>
-      <c r="D59" s="98"/>
-      <c r="E59" s="99"/>
+      <c r="B59" s="100"/>
+      <c r="C59" s="100"/>
+      <c r="D59" s="100"/>
+      <c r="E59" s="101"/>
       <c r="G59" s="4" t="s">
         <v>16</v>
       </c>
@@ -4544,11 +4548,6 @@
     <mergeCell ref="A48:E48"/>
     <mergeCell ref="A54:E54"/>
     <mergeCell ref="G48:K48"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A41:E41"/>
     <mergeCell ref="M30:Q30"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="M43:Q43"/>
@@ -4556,6 +4555,11 @@
     <mergeCell ref="G3:K3"/>
     <mergeCell ref="G18:K18"/>
     <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A41:E41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4582,13 +4586,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="102" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="102"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="104"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
@@ -4702,13 +4706,13 @@
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="102" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="102"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="104"/>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
@@ -4762,13 +4766,13 @@
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="102"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="104"/>
     </row>
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
@@ -5019,13 +5023,13 @@
       <c r="E37" s="30"/>
     </row>
     <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100" t="s">
+      <c r="A38" s="102" t="s">
         <v>429</v>
       </c>
-      <c r="B38" s="101"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="101"/>
-      <c r="E38" s="102"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="103"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="104"/>
     </row>
     <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="17" t="s">
@@ -5131,13 +5135,13 @@
     </row>
     <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="100" t="s">
+      <c r="A47" s="102" t="s">
         <v>435</v>
       </c>
-      <c r="B47" s="101"/>
-      <c r="C47" s="101"/>
-      <c r="D47" s="101"/>
-      <c r="E47" s="102"/>
+      <c r="B47" s="103"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="103"/>
+      <c r="E47" s="104"/>
     </row>
     <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
@@ -5260,13 +5264,13 @@
     </row>
     <row r="57" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="58" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="100" t="s">
+      <c r="A58" s="102" t="s">
         <v>173</v>
       </c>
-      <c r="B58" s="101"/>
-      <c r="C58" s="101"/>
-      <c r="D58" s="101"/>
-      <c r="E58" s="102"/>
+      <c r="B58" s="103"/>
+      <c r="C58" s="103"/>
+      <c r="D58" s="103"/>
+      <c r="E58" s="104"/>
     </row>
     <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
@@ -5348,13 +5352,13 @@
     </row>
     <row r="65" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="103" t="s">
+      <c r="A66" s="105" t="s">
         <v>163</v>
       </c>
-      <c r="B66" s="104"/>
-      <c r="C66" s="104"/>
-      <c r="D66" s="104"/>
-      <c r="E66" s="105"/>
+      <c r="B66" s="106"/>
+      <c r="C66" s="106"/>
+      <c r="D66" s="106"/>
+      <c r="E66" s="107"/>
     </row>
     <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="48" t="s">
@@ -5416,13 +5420,13 @@
     </row>
     <row r="71" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="72" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="103" t="s">
+      <c r="A72" s="105" t="s">
         <v>174</v>
       </c>
-      <c r="B72" s="104"/>
-      <c r="C72" s="104"/>
-      <c r="D72" s="104"/>
-      <c r="E72" s="105"/>
+      <c r="B72" s="106"/>
+      <c r="C72" s="106"/>
+      <c r="D72" s="106"/>
+      <c r="E72" s="107"/>
     </row>
     <row r="73" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="17" t="s">
@@ -5558,10 +5562,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="107"/>
+      <c r="B1" s="109"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
@@ -5650,15 +5654,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="110" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="67" t="s">
@@ -8824,74 +8828,93 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E8" sqref="E8:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19" style="113" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" style="113" customWidth="1"/>
-    <col min="3" max="3" width="29" style="113" customWidth="1"/>
+    <col min="1" max="1" width="19" style="98" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" style="98" customWidth="1"/>
+    <col min="3" max="3" width="29" style="98" customWidth="1"/>
+    <col min="5" max="5" width="19" style="98" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" style="98" customWidth="1"/>
+    <col min="7" max="7" width="29" style="98" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="110" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="112" t="s">
         <v>472</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="112" t="s">
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="E1" s="112" t="s">
+        <v>472</v>
+      </c>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="97" t="s">
         <v>473</v>
       </c>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="97" t="s">
         <v>474</v>
       </c>
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="97" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="113" t="s">
+      <c r="E2" s="97" t="s">
+        <v>473</v>
+      </c>
+      <c r="F2" s="97" t="s">
+        <v>484</v>
+      </c>
+      <c r="G2" s="97" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="98" t="s">
         <v>476</v>
       </c>
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="98" t="s">
         <v>478</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="98" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="B4" s="113" t="s">
+      <c r="E3" s="98" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="B4" s="98" t="s">
         <v>480</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="98" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="113" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="98" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C14" s="113" t="s">
+      <c r="B8" s="98" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C15" s="113" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="98" t="s">
         <v>483</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/documentation/DataAndAPIMatchAware.xlsx
+++ b/documentation/DataAndAPIMatchAware.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\match-aware\documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="9060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16212" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entities" sheetId="1" r:id="rId1"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="529">
   <si>
     <t>USER</t>
   </si>
@@ -1624,14 +1629,11 @@
   <si>
     <t>/facilities/deleteAllClosures/:facilityId</t>
   </si>
-  <si>
-    <t>needs fix (due to closure change - still not working entirely, need to save all closures with updated end time)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1677,7 +1679,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1705,12 +1707,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2195,7 +2191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2441,51 +2437,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2566,7 +2517,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2620,6 +2570,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2927,7 +2922,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2937,45 +2932,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E316"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K292" sqref="K292"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-    </row>
-    <row r="2" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+    </row>
+    <row r="2" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="88"/>
       <c r="B2" s="88"/>
       <c r="C2" s="88"/>
       <c r="D2" s="88"/>
       <c r="E2" s="88"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="97" t="s">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="157" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="99"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="159"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
@@ -2992,7 +2987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -3009,7 +3004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -3022,7 +3017,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="21"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>89</v>
       </c>
@@ -3035,7 +3030,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="21"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>81</v>
       </c>
@@ -3048,7 +3043,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="21"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>88</v>
       </c>
@@ -3059,7 +3054,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="21"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>119</v>
       </c>
@@ -3072,7 +3067,7 @@
       </c>
       <c r="E10" s="21"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>94</v>
       </c>
@@ -3085,7 +3080,7 @@
       </c>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="80" t="s">
         <v>134</v>
       </c>
@@ -3096,17 +3091,17 @@
       <c r="D12" s="59"/>
       <c r="E12" s="47"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="97" t="s">
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="157" t="s">
         <v>290</v>
       </c>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="99"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="158"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="159"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>1</v>
       </c>
@@ -3123,7 +3118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -3140,7 +3135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
@@ -3153,7 +3148,7 @@
       <c r="D17" s="5"/>
       <c r="E17" s="21"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
@@ -3166,7 +3161,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="21"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>12</v>
       </c>
@@ -3179,17 +3174,17 @@
       <c r="D19" s="11"/>
       <c r="E19" s="22"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="97" t="s">
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="157" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="99"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="158"/>
+      <c r="C21" s="158"/>
+      <c r="D21" s="158"/>
+      <c r="E21" s="159"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>1</v>
       </c>
@@ -3206,7 +3201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
@@ -3223,7 +3218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>12</v>
       </c>
@@ -3236,7 +3231,7 @@
       <c r="D24" s="5"/>
       <c r="E24" s="21"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>379</v>
       </c>
@@ -3247,7 +3242,7 @@
       <c r="D25" s="5"/>
       <c r="E25" s="21"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>380</v>
       </c>
@@ -3258,17 +3253,17 @@
       <c r="D26" s="11"/>
       <c r="E26" s="22"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="97" t="s">
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="157" t="s">
         <v>279</v>
       </c>
-      <c r="B28" s="98"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="99"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="158"/>
+      <c r="C28" s="158"/>
+      <c r="D28" s="158"/>
+      <c r="E28" s="159"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
         <v>1</v>
       </c>
@@ -3285,7 +3280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>16</v>
       </c>
@@ -3302,7 +3297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>108</v>
       </c>
@@ -3315,7 +3310,7 @@
       <c r="D31" s="5"/>
       <c r="E31" s="21"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>109</v>
       </c>
@@ -3328,7 +3323,7 @@
       <c r="D32" s="5"/>
       <c r="E32" s="21"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>94</v>
       </c>
@@ -3341,7 +3336,7 @@
       </c>
       <c r="E33" s="21"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>119</v>
       </c>
@@ -3354,7 +3349,7 @@
       <c r="D34" s="5"/>
       <c r="E34" s="21"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>110</v>
       </c>
@@ -3367,7 +3362,7 @@
       <c r="D35" s="5"/>
       <c r="E35" s="21"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="80" t="s">
         <v>134</v>
       </c>
@@ -3378,17 +3373,17 @@
       <c r="D36" s="59"/>
       <c r="E36" s="47"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="91" t="s">
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="153" t="s">
         <v>359</v>
       </c>
-      <c r="B38" s="92"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="93"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="154"/>
+      <c r="C38" s="154"/>
+      <c r="D38" s="154"/>
+      <c r="E38" s="155"/>
+    </row>
+    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="14" t="s">
         <v>1</v>
       </c>
@@ -3405,7 +3400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>16</v>
       </c>
@@ -3422,7 +3417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="32" t="s">
         <v>14</v>
       </c>
@@ -3437,7 +3432,7 @@
       </c>
       <c r="E41" s="21"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="32" t="s">
         <v>361</v>
       </c>
@@ -3452,7 +3447,7 @@
       </c>
       <c r="E42" s="21"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="32" t="s">
         <v>363</v>
       </c>
@@ -3467,7 +3462,7 @@
       </c>
       <c r="E43" s="21"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="80" t="s">
         <v>244</v>
       </c>
@@ -3478,17 +3473,17 @@
       <c r="D44" s="59"/>
       <c r="E44" s="47"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="91" t="s">
+    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="153" t="s">
         <v>291</v>
       </c>
-      <c r="B46" s="92"/>
-      <c r="C46" s="92"/>
-      <c r="D46" s="92"/>
-      <c r="E46" s="93"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="154"/>
+      <c r="C46" s="154"/>
+      <c r="D46" s="154"/>
+      <c r="E46" s="155"/>
+    </row>
+    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="14" t="s">
         <v>1</v>
       </c>
@@ -3505,7 +3500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>16</v>
       </c>
@@ -3522,7 +3517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>12</v>
       </c>
@@ -3537,7 +3532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>130</v>
       </c>
@@ -3550,7 +3545,7 @@
       <c r="D50" s="5"/>
       <c r="E50" s="26"/>
     </row>
-    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
         <v>342</v>
       </c>
@@ -3563,17 +3558,17 @@
       </c>
       <c r="E51" s="34"/>
     </row>
-    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="91" t="s">
+    <row r="52" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="153" t="s">
         <v>337</v>
       </c>
-      <c r="B53" s="92"/>
-      <c r="C53" s="92"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="93"/>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="154"/>
+      <c r="C53" s="154"/>
+      <c r="D53" s="154"/>
+      <c r="E53" s="155"/>
+    </row>
+    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="14" t="s">
         <v>1</v>
       </c>
@@ -3590,7 +3585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>16</v>
       </c>
@@ -3607,7 +3602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>338</v>
       </c>
@@ -3620,7 +3615,7 @@
       <c r="D56" s="5"/>
       <c r="E56" s="21"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>81</v>
       </c>
@@ -3633,7 +3628,7 @@
       <c r="D57" s="5"/>
       <c r="E57" s="21"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>344</v>
       </c>
@@ -3646,7 +3641,7 @@
       <c r="D58" s="5"/>
       <c r="E58" s="21"/>
     </row>
-    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="10" t="s">
         <v>339</v>
       </c>
@@ -3659,17 +3654,17 @@
       <c r="D59" s="11"/>
       <c r="E59" s="22"/>
     </row>
-    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="97" t="s">
+    <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="157" t="s">
         <v>97</v>
       </c>
-      <c r="B61" s="98"/>
-      <c r="C61" s="98"/>
-      <c r="D61" s="98"/>
-      <c r="E61" s="99"/>
-    </row>
-    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="158"/>
+      <c r="C61" s="158"/>
+      <c r="D61" s="158"/>
+      <c r="E61" s="159"/>
+    </row>
+    <row r="62" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="14" t="s">
         <v>1</v>
       </c>
@@ -3686,7 +3681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>16</v>
       </c>
@@ -3703,7 +3698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>12</v>
       </c>
@@ -3714,7 +3709,7 @@
       <c r="D64" s="5"/>
       <c r="E64" s="21"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>14</v>
       </c>
@@ -3727,7 +3722,7 @@
       <c r="D65" s="5"/>
       <c r="E65" s="21"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>367</v>
       </c>
@@ -3740,7 +3735,7 @@
       </c>
       <c r="E66" s="21"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>99</v>
       </c>
@@ -3751,7 +3746,7 @@
       <c r="D67" s="5"/>
       <c r="E67" s="21"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>98</v>
       </c>
@@ -3762,7 +3757,7 @@
       <c r="D68" s="5"/>
       <c r="E68" s="21"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>10</v>
       </c>
@@ -3773,7 +3768,7 @@
       <c r="D69" s="5"/>
       <c r="E69" s="21"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>101</v>
       </c>
@@ -3786,7 +3781,7 @@
       </c>
       <c r="E70" s="21"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>13</v>
       </c>
@@ -3797,7 +3792,7 @@
       <c r="D71" s="5"/>
       <c r="E71" s="21"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>11</v>
       </c>
@@ -3808,7 +3803,7 @@
       <c r="D72" s="5"/>
       <c r="E72" s="21"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>103</v>
       </c>
@@ -3819,7 +3814,7 @@
       <c r="D73" s="5"/>
       <c r="E73" s="21"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>104</v>
       </c>
@@ -3832,7 +3827,7 @@
       </c>
       <c r="E74" s="21"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>370</v>
       </c>
@@ -3845,7 +3840,7 @@
       <c r="D75" s="5"/>
       <c r="E75" s="21"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>371</v>
       </c>
@@ -3858,7 +3853,7 @@
       <c r="D76" s="5"/>
       <c r="E76" s="21"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>372</v>
       </c>
@@ -3871,7 +3866,7 @@
       <c r="D77" s="5"/>
       <c r="E77" s="21"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>361</v>
       </c>
@@ -3884,7 +3879,7 @@
       </c>
       <c r="E78" s="21"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>363</v>
       </c>
@@ -3897,7 +3892,7 @@
       </c>
       <c r="E79" s="21"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>100</v>
       </c>
@@ -3912,7 +3907,7 @@
       </c>
       <c r="E80" s="21"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>105</v>
       </c>
@@ -3927,7 +3922,7 @@
       </c>
       <c r="E81" s="21"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>63</v>
       </c>
@@ -3938,7 +3933,7 @@
       <c r="D82" s="5"/>
       <c r="E82" s="21"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
         <v>113</v>
       </c>
@@ -3949,7 +3944,7 @@
       <c r="D83" s="5"/>
       <c r="E83" s="21"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
         <v>94</v>
       </c>
@@ -3962,7 +3957,7 @@
       </c>
       <c r="E84" s="21"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="48" t="s">
         <v>374</v>
       </c>
@@ -3975,7 +3970,7 @@
       </c>
       <c r="E85" s="49"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="48" t="s">
         <v>111</v>
       </c>
@@ -3986,7 +3981,7 @@
       <c r="D86" s="44"/>
       <c r="E86" s="49"/>
     </row>
-    <row r="87" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="10" t="s">
         <v>106</v>
       </c>
@@ -3999,17 +3994,17 @@
       </c>
       <c r="E87" s="22"/>
     </row>
-    <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="97" t="s">
+    <row r="88" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="89" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="157" t="s">
         <v>96</v>
       </c>
-      <c r="B89" s="98"/>
-      <c r="C89" s="98"/>
-      <c r="D89" s="98"/>
-      <c r="E89" s="99"/>
-    </row>
-    <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="158"/>
+      <c r="C89" s="158"/>
+      <c r="D89" s="158"/>
+      <c r="E89" s="159"/>
+    </row>
+    <row r="90" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="14" t="s">
         <v>1</v>
       </c>
@@ -4026,7 +4021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>16</v>
       </c>
@@ -4043,7 +4038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="10" t="s">
         <v>12</v>
       </c>
@@ -4058,17 +4053,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="91" t="s">
+    <row r="93" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="94" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="153" t="s">
         <v>280</v>
       </c>
-      <c r="B94" s="92"/>
-      <c r="C94" s="92"/>
-      <c r="D94" s="92"/>
-      <c r="E94" s="93"/>
-    </row>
-    <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="154"/>
+      <c r="C94" s="154"/>
+      <c r="D94" s="154"/>
+      <c r="E94" s="155"/>
+    </row>
+    <row r="95" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="14" t="s">
         <v>1</v>
       </c>
@@ -4085,7 +4080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>16</v>
       </c>
@@ -4102,7 +4097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="32" t="s">
         <v>12</v>
       </c>
@@ -4117,7 +4112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="32" t="s">
         <v>130</v>
       </c>
@@ -4130,7 +4125,7 @@
       <c r="D98" s="5"/>
       <c r="E98" s="21"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="32" t="s">
         <v>133</v>
       </c>
@@ -4143,7 +4138,7 @@
       <c r="D99" s="5"/>
       <c r="E99" s="21"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="32" t="s">
         <v>281</v>
       </c>
@@ -4154,7 +4149,7 @@
       <c r="D100" s="5"/>
       <c r="E100" s="21"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="32" t="s">
         <v>39</v>
       </c>
@@ -4167,7 +4162,7 @@
       <c r="D101" s="5"/>
       <c r="E101" s="21"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="32" t="s">
         <v>40</v>
       </c>
@@ -4180,7 +4175,7 @@
       <c r="D102" s="5"/>
       <c r="E102" s="21"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="32" t="s">
         <v>41</v>
       </c>
@@ -4193,7 +4188,7 @@
       <c r="D103" s="9"/>
       <c r="E103" s="21"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="32" t="s">
         <v>42</v>
       </c>
@@ -4206,7 +4201,7 @@
       <c r="D104" s="5"/>
       <c r="E104" s="21"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="32" t="s">
         <v>356</v>
       </c>
@@ -4217,7 +4212,7 @@
       <c r="D105" s="5"/>
       <c r="E105" s="6"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="32" t="s">
         <v>357</v>
       </c>
@@ -4228,7 +4223,7 @@
       <c r="D106" s="5"/>
       <c r="E106" s="6"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="32" t="s">
         <v>43</v>
       </c>
@@ -4239,7 +4234,7 @@
       <c r="D107" s="5"/>
       <c r="E107" s="6"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="32" t="s">
         <v>44</v>
       </c>
@@ -4250,7 +4245,7 @@
       <c r="D108" s="5"/>
       <c r="E108" s="6"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="32" t="s">
         <v>45</v>
       </c>
@@ -4261,7 +4256,7 @@
       <c r="D109" s="5"/>
       <c r="E109" s="6"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="32" t="s">
         <v>46</v>
       </c>
@@ -4272,7 +4267,7 @@
       <c r="D110" s="5"/>
       <c r="E110" s="6"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="32" t="s">
         <v>47</v>
       </c>
@@ -4283,7 +4278,7 @@
       <c r="D111" s="5"/>
       <c r="E111" s="6"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="32" t="s">
         <v>48</v>
       </c>
@@ -4294,7 +4289,7 @@
       <c r="D112" s="5"/>
       <c r="E112" s="6"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="32" t="s">
         <v>49</v>
       </c>
@@ -4305,7 +4300,7 @@
       <c r="D113" s="5"/>
       <c r="E113" s="6"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="32" t="s">
         <v>50</v>
       </c>
@@ -4316,7 +4311,7 @@
       <c r="D114" s="5"/>
       <c r="E114" s="6"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="32" t="s">
         <v>51</v>
       </c>
@@ -4327,7 +4322,7 @@
       <c r="D115" s="5"/>
       <c r="E115" s="6"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="32" t="s">
         <v>52</v>
       </c>
@@ -4338,7 +4333,7 @@
       <c r="D116" s="5"/>
       <c r="E116" s="6"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="32" t="s">
         <v>53</v>
       </c>
@@ -4349,7 +4344,7 @@
       <c r="D117" s="5"/>
       <c r="E117" s="6"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="32" t="s">
         <v>54</v>
       </c>
@@ -4360,7 +4355,7 @@
       <c r="D118" s="5"/>
       <c r="E118" s="6"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="32" t="s">
         <v>55</v>
       </c>
@@ -4371,7 +4366,7 @@
       <c r="D119" s="5"/>
       <c r="E119" s="6"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="32" t="s">
         <v>56</v>
       </c>
@@ -4382,7 +4377,7 @@
       <c r="D120" s="5"/>
       <c r="E120" s="6"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="32" t="s">
         <v>57</v>
       </c>
@@ -4393,7 +4388,7 @@
       <c r="D121" s="5"/>
       <c r="E121" s="6"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="32" t="s">
         <v>358</v>
       </c>
@@ -4404,7 +4399,7 @@
       <c r="D122" s="51"/>
       <c r="E122" s="46"/>
     </row>
-    <row r="123" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="80" t="s">
         <v>359</v>
       </c>
@@ -4415,17 +4410,17 @@
       <c r="D123" s="59"/>
       <c r="E123" s="47"/>
     </row>
-    <row r="124" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="125" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="91" t="s">
+    <row r="124" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="125" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="153" t="s">
         <v>281</v>
       </c>
-      <c r="B125" s="92"/>
-      <c r="C125" s="92"/>
-      <c r="D125" s="92"/>
-      <c r="E125" s="93"/>
-    </row>
-    <row r="126" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="154"/>
+      <c r="C125" s="154"/>
+      <c r="D125" s="154"/>
+      <c r="E125" s="155"/>
+    </row>
+    <row r="126" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="14" t="s">
         <v>1</v>
       </c>
@@ -4442,7 +4437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>16</v>
       </c>
@@ -4459,7 +4454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
         <v>12</v>
       </c>
@@ -4474,7 +4469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
         <v>38</v>
       </c>
@@ -4487,7 +4482,7 @@
       <c r="D129" s="5"/>
       <c r="E129" s="26"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
         <v>64</v>
       </c>
@@ -4500,7 +4495,7 @@
       <c r="D130" s="5"/>
       <c r="E130" s="26"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
         <v>65</v>
       </c>
@@ -4511,7 +4506,7 @@
       <c r="D131" s="5"/>
       <c r="E131" s="6"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
         <v>66</v>
       </c>
@@ -4522,7 +4517,7 @@
       <c r="D132" s="5"/>
       <c r="E132" s="6"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
         <v>67</v>
       </c>
@@ -4533,7 +4528,7 @@
       <c r="D133" s="5"/>
       <c r="E133" s="6"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
         <v>68</v>
       </c>
@@ -4544,7 +4539,7 @@
       <c r="D134" s="5"/>
       <c r="E134" s="6"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
         <v>71</v>
       </c>
@@ -4555,7 +4550,7 @@
       <c r="D135" s="5"/>
       <c r="E135" s="6"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
         <v>364</v>
       </c>
@@ -4566,7 +4561,7 @@
       <c r="D136" s="5"/>
       <c r="E136" s="6"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
         <v>69</v>
       </c>
@@ -4579,7 +4574,7 @@
       </c>
       <c r="E137" s="6"/>
     </row>
-    <row r="138" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="80" t="s">
         <v>359</v>
       </c>
@@ -4590,17 +4585,17 @@
       <c r="D138" s="59"/>
       <c r="E138" s="47"/>
     </row>
-    <row r="139" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="140" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="91" t="s">
+    <row r="139" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="140" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="153" t="s">
         <v>381</v>
       </c>
-      <c r="B140" s="92"/>
-      <c r="C140" s="92"/>
-      <c r="D140" s="92"/>
-      <c r="E140" s="93"/>
-    </row>
-    <row r="141" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="154"/>
+      <c r="C140" s="154"/>
+      <c r="D140" s="154"/>
+      <c r="E140" s="155"/>
+    </row>
+    <row r="141" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="14" t="s">
         <v>1</v>
       </c>
@@ -4617,7 +4612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>16</v>
       </c>
@@ -4634,7 +4629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
         <v>63</v>
       </c>
@@ -4645,7 +4640,7 @@
       <c r="D143" s="5"/>
       <c r="E143" s="26"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
         <v>67</v>
       </c>
@@ -4656,7 +4651,7 @@
       <c r="D144" s="5"/>
       <c r="E144" s="6"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
         <v>68</v>
       </c>
@@ -4667,7 +4662,7 @@
       <c r="D145" s="5"/>
       <c r="E145" s="6"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
         <v>71</v>
       </c>
@@ -4678,7 +4673,7 @@
       <c r="D146" s="5"/>
       <c r="E146" s="6"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
         <v>364</v>
       </c>
@@ -4689,7 +4684,7 @@
       <c r="D147" s="5"/>
       <c r="E147" s="6"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
         <v>361</v>
       </c>
@@ -4704,7 +4699,7 @@
       </c>
       <c r="E148" s="21"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
         <v>363</v>
       </c>
@@ -4719,7 +4714,7 @@
       </c>
       <c r="E149" s="21"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
         <v>370</v>
       </c>
@@ -4730,7 +4725,7 @@
       <c r="D150" s="5"/>
       <c r="E150" s="21"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
         <v>371</v>
       </c>
@@ -4741,7 +4736,7 @@
       <c r="D151" s="5"/>
       <c r="E151" s="21"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
         <v>372</v>
       </c>
@@ -4752,7 +4747,7 @@
       <c r="D152" s="5"/>
       <c r="E152" s="21"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
         <v>100</v>
       </c>
@@ -4765,7 +4760,7 @@
       </c>
       <c r="E153" s="21"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="7" t="s">
         <v>105</v>
       </c>
@@ -4778,7 +4773,7 @@
       </c>
       <c r="E154" s="21"/>
     </row>
-    <row r="155" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="10" t="s">
         <v>382</v>
       </c>
@@ -4791,17 +4786,17 @@
       </c>
       <c r="E155" s="12"/>
     </row>
-    <row r="156" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="157" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="91" t="s">
+    <row r="156" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="157" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="153" t="s">
         <v>282</v>
       </c>
-      <c r="B157" s="92"/>
-      <c r="C157" s="92"/>
-      <c r="D157" s="92"/>
-      <c r="E157" s="93"/>
-    </row>
-    <row r="158" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="154"/>
+      <c r="C157" s="154"/>
+      <c r="D157" s="154"/>
+      <c r="E157" s="155"/>
+    </row>
+    <row r="158" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="14" t="s">
         <v>1</v>
       </c>
@@ -4818,7 +4813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>16</v>
       </c>
@@ -4835,7 +4830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="7" t="s">
         <v>12</v>
       </c>
@@ -4850,7 +4845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="7" t="s">
         <v>59</v>
       </c>
@@ -4861,7 +4856,7 @@
       <c r="D161" s="5"/>
       <c r="E161" s="26"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="7" t="s">
         <v>60</v>
       </c>
@@ -4872,7 +4867,7 @@
       <c r="D162" s="5"/>
       <c r="E162" s="6"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
         <v>61</v>
       </c>
@@ -4883,7 +4878,7 @@
       <c r="D163" s="5"/>
       <c r="E163" s="6"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="7" t="s">
         <v>62</v>
       </c>
@@ -4894,7 +4889,7 @@
       <c r="D164" s="5"/>
       <c r="E164" s="6"/>
     </row>
-    <row r="165" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="80" t="s">
         <v>365</v>
       </c>
@@ -4907,17 +4902,17 @@
       </c>
       <c r="E165" s="47"/>
     </row>
-    <row r="166" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="167" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="91" t="s">
+    <row r="166" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="167" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="153" t="s">
         <v>384</v>
       </c>
-      <c r="B167" s="92"/>
-      <c r="C167" s="92"/>
-      <c r="D167" s="92"/>
-      <c r="E167" s="93"/>
-    </row>
-    <row r="168" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="154"/>
+      <c r="C167" s="154"/>
+      <c r="D167" s="154"/>
+      <c r="E167" s="155"/>
+    </row>
+    <row r="168" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="14" t="s">
         <v>1</v>
       </c>
@@ -4934,7 +4929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>16</v>
       </c>
@@ -4951,7 +4946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="7" t="s">
         <v>12</v>
       </c>
@@ -4964,7 +4959,7 @@
       <c r="D170" s="5"/>
       <c r="E170" s="26"/>
     </row>
-    <row r="171" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="10" t="s">
         <v>130</v>
       </c>
@@ -4975,23 +4970,23 @@
       <c r="D171" s="11"/>
       <c r="E171" s="34"/>
     </row>
-    <row r="172" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="13"/>
       <c r="B172" s="13"/>
       <c r="C172" s="89"/>
       <c r="D172" s="13"/>
       <c r="E172" s="89"/>
     </row>
-    <row r="173" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="91" t="s">
+    <row r="173" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="153" t="s">
         <v>283</v>
       </c>
-      <c r="B173" s="92"/>
-      <c r="C173" s="92"/>
-      <c r="D173" s="92"/>
-      <c r="E173" s="93"/>
-    </row>
-    <row r="174" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="154"/>
+      <c r="C173" s="154"/>
+      <c r="D173" s="154"/>
+      <c r="E173" s="155"/>
+    </row>
+    <row r="174" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="14" t="s">
         <v>1</v>
       </c>
@@ -5008,7 +5003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>16</v>
       </c>
@@ -5025,7 +5020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="7" t="s">
         <v>12</v>
       </c>
@@ -5040,7 +5035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="7" t="s">
         <v>130</v>
       </c>
@@ -5053,7 +5048,7 @@
       <c r="D177" s="5"/>
       <c r="E177" s="21"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="7" t="s">
         <v>11</v>
       </c>
@@ -5064,7 +5059,7 @@
       <c r="D178" s="5"/>
       <c r="E178" s="21"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
         <v>13</v>
       </c>
@@ -5075,7 +5070,7 @@
       <c r="D179" s="5"/>
       <c r="E179" s="21"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="7" t="s">
         <v>14</v>
       </c>
@@ -5088,7 +5083,7 @@
       <c r="D180" s="9"/>
       <c r="E180" s="21"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
         <v>345</v>
       </c>
@@ -5101,7 +5096,7 @@
       </c>
       <c r="E181" s="21"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="32" t="s">
         <v>347</v>
       </c>
@@ -5114,7 +5109,7 @@
       </c>
       <c r="E182" s="46"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="32" t="s">
         <v>349</v>
       </c>
@@ -5127,7 +5122,7 @@
       </c>
       <c r="E183" s="46"/>
     </row>
-    <row r="184" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="10" t="s">
         <v>342</v>
       </c>
@@ -5140,17 +5135,17 @@
       </c>
       <c r="E184" s="34"/>
     </row>
-    <row r="185" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="186" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="91" t="s">
+    <row r="185" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="186" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="153" t="s">
         <v>91</v>
       </c>
-      <c r="B186" s="92"/>
-      <c r="C186" s="92"/>
-      <c r="D186" s="92"/>
-      <c r="E186" s="93"/>
-    </row>
-    <row r="187" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B186" s="154"/>
+      <c r="C186" s="154"/>
+      <c r="D186" s="154"/>
+      <c r="E186" s="155"/>
+    </row>
+    <row r="187" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="14" t="s">
         <v>1</v>
       </c>
@@ -5167,7 +5162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>16</v>
       </c>
@@ -5184,7 +5179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
         <v>10</v>
       </c>
@@ -5197,7 +5192,7 @@
       <c r="D189" s="5"/>
       <c r="E189" s="21"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="7" t="s">
         <v>88</v>
       </c>
@@ -5210,7 +5205,7 @@
       <c r="D190" s="5"/>
       <c r="E190" s="21"/>
     </row>
-    <row r="191" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="10" t="s">
         <v>339</v>
       </c>
@@ -5221,17 +5216,17 @@
       <c r="D191" s="11"/>
       <c r="E191" s="22"/>
     </row>
-    <row r="192" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="193" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="91" t="s">
+    <row r="192" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="193" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="153" t="s">
         <v>284</v>
       </c>
-      <c r="B193" s="92"/>
-      <c r="C193" s="92"/>
-      <c r="D193" s="92"/>
-      <c r="E193" s="93"/>
-    </row>
-    <row r="194" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B193" s="154"/>
+      <c r="C193" s="154"/>
+      <c r="D193" s="154"/>
+      <c r="E193" s="155"/>
+    </row>
+    <row r="194" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="41" t="s">
         <v>1</v>
       </c>
@@ -5248,7 +5243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="36" t="s">
         <v>16</v>
       </c>
@@ -5265,7 +5260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="10" t="s">
         <v>12</v>
       </c>
@@ -5280,17 +5275,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="198" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="97" t="s">
+    <row r="197" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="198" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="157" t="s">
         <v>123</v>
       </c>
-      <c r="B198" s="98"/>
-      <c r="C198" s="98"/>
-      <c r="D198" s="98"/>
-      <c r="E198" s="99"/>
-    </row>
-    <row r="199" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B198" s="158"/>
+      <c r="C198" s="158"/>
+      <c r="D198" s="158"/>
+      <c r="E198" s="159"/>
+    </row>
+    <row r="199" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="14" t="s">
         <v>1</v>
       </c>
@@ -5307,7 +5302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>16</v>
       </c>
@@ -5324,7 +5319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="7" t="s">
         <v>12</v>
       </c>
@@ -5337,7 +5332,7 @@
       <c r="D201" s="5"/>
       <c r="E201" s="21"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="7" t="s">
         <v>379</v>
       </c>
@@ -5348,7 +5343,7 @@
       <c r="D202" s="5"/>
       <c r="E202" s="21"/>
     </row>
-    <row r="203" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="10" t="s">
         <v>380</v>
       </c>
@@ -5359,17 +5354,17 @@
       <c r="D203" s="11"/>
       <c r="E203" s="22"/>
     </row>
-    <row r="204" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="205" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="97" t="s">
+    <row r="204" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="205" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="157" t="s">
         <v>134</v>
       </c>
-      <c r="B205" s="98"/>
-      <c r="C205" s="98"/>
-      <c r="D205" s="98"/>
-      <c r="E205" s="99"/>
-    </row>
-    <row r="206" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B205" s="158"/>
+      <c r="C205" s="158"/>
+      <c r="D205" s="158"/>
+      <c r="E205" s="159"/>
+    </row>
+    <row r="206" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="14" t="s">
         <v>1</v>
       </c>
@@ -5386,7 +5381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>16</v>
       </c>
@@ -5403,7 +5398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="7" t="s">
         <v>97</v>
       </c>
@@ -5414,7 +5409,7 @@
       <c r="D208" s="5"/>
       <c r="E208" s="21"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="7" t="s">
         <v>117</v>
       </c>
@@ -5425,7 +5420,7 @@
       <c r="D209" s="5"/>
       <c r="E209" s="21"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="7" t="s">
         <v>115</v>
       </c>
@@ -5436,7 +5431,7 @@
       <c r="D210" s="5"/>
       <c r="E210" s="21"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="7" t="s">
         <v>116</v>
       </c>
@@ -5447,7 +5442,7 @@
       <c r="D211" s="5"/>
       <c r="E211" s="21"/>
     </row>
-    <row r="212" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="80" t="s">
         <v>378</v>
       </c>
@@ -5460,17 +5455,17 @@
       </c>
       <c r="E212" s="47"/>
     </row>
-    <row r="213" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="214" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="97" t="s">
+    <row r="213" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="214" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A214" s="157" t="s">
         <v>285</v>
       </c>
-      <c r="B214" s="98"/>
-      <c r="C214" s="98"/>
-      <c r="D214" s="98"/>
-      <c r="E214" s="99"/>
-    </row>
-    <row r="215" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B214" s="158"/>
+      <c r="C214" s="158"/>
+      <c r="D214" s="158"/>
+      <c r="E214" s="159"/>
+    </row>
+    <row r="215" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="14" t="s">
         <v>1</v>
       </c>
@@ -5487,7 +5482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>16</v>
       </c>
@@ -5504,7 +5499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="7" t="s">
         <v>94</v>
       </c>
@@ -5519,7 +5514,7 @@
       </c>
       <c r="E217" s="21"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="7" t="s">
         <v>14</v>
       </c>
@@ -5534,7 +5529,7 @@
       </c>
       <c r="E218" s="21"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="7" t="s">
         <v>376</v>
       </c>
@@ -5547,7 +5542,7 @@
       </c>
       <c r="E219" s="21"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="7" t="s">
         <v>97</v>
       </c>
@@ -5558,7 +5553,7 @@
       <c r="D220" s="5"/>
       <c r="E220" s="21"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="7" t="s">
         <v>117</v>
       </c>
@@ -5569,7 +5564,7 @@
       <c r="D221" s="5"/>
       <c r="E221" s="21"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="7" t="s">
         <v>115</v>
       </c>
@@ -5580,7 +5575,7 @@
       <c r="D222" s="5"/>
       <c r="E222" s="21"/>
     </row>
-    <row r="223" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="10" t="s">
         <v>116</v>
       </c>
@@ -5591,17 +5586,17 @@
       <c r="D223" s="11"/>
       <c r="E223" s="22"/>
     </row>
-    <row r="224" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="225" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="91" t="s">
+    <row r="224" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="225" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A225" s="153" t="s">
         <v>286</v>
       </c>
-      <c r="B225" s="92"/>
-      <c r="C225" s="92"/>
-      <c r="D225" s="92"/>
-      <c r="E225" s="93"/>
-    </row>
-    <row r="226" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B225" s="154"/>
+      <c r="C225" s="154"/>
+      <c r="D225" s="154"/>
+      <c r="E225" s="155"/>
+    </row>
+    <row r="226" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="14" t="s">
         <v>1</v>
       </c>
@@ -5618,7 +5613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>16</v>
       </c>
@@ -5635,7 +5630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="7" t="s">
         <v>12</v>
       </c>
@@ -5650,7 +5645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="7" t="s">
         <v>130</v>
       </c>
@@ -5663,7 +5658,7 @@
       <c r="D229" s="5"/>
       <c r="E229" s="21"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="7" t="s">
         <v>131</v>
       </c>
@@ -5674,7 +5669,7 @@
       <c r="D230" s="5"/>
       <c r="E230" s="21"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="7" t="s">
         <v>133</v>
       </c>
@@ -5685,7 +5680,7 @@
       <c r="D231" s="5"/>
       <c r="E231" s="21"/>
     </row>
-    <row r="232" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="10" t="s">
         <v>132</v>
       </c>
@@ -5696,17 +5691,17 @@
       <c r="D232" s="11"/>
       <c r="E232" s="22"/>
     </row>
-    <row r="233" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="234" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="94" t="s">
+    <row r="233" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="234" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A234" s="160" t="s">
         <v>287</v>
       </c>
-      <c r="B234" s="95"/>
-      <c r="C234" s="95"/>
-      <c r="D234" s="95"/>
-      <c r="E234" s="96"/>
-    </row>
-    <row r="235" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B234" s="161"/>
+      <c r="C234" s="161"/>
+      <c r="D234" s="161"/>
+      <c r="E234" s="162"/>
+    </row>
+    <row r="235" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" s="14" t="s">
         <v>1</v>
       </c>
@@ -5723,7 +5718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>16</v>
       </c>
@@ -5740,7 +5735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="7" t="s">
         <v>12</v>
       </c>
@@ -5757,7 +5752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="7"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -5766,7 +5761,7 @@
       </c>
       <c r="E238" s="6"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="7"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -5775,7 +5770,7 @@
       </c>
       <c r="E239" s="6"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="7"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -5784,7 +5779,7 @@
       </c>
       <c r="E240" s="6"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="7"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -5793,7 +5788,7 @@
       </c>
       <c r="E241" s="6"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="7"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -5802,7 +5797,7 @@
       </c>
       <c r="E242" s="6"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="7"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -5811,7 +5806,7 @@
       </c>
       <c r="E243" s="6"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="7"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -5820,7 +5815,7 @@
       </c>
       <c r="E244" s="6"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="7"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -5829,7 +5824,7 @@
       </c>
       <c r="E245" s="6"/>
     </row>
-    <row r="246" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="10" t="s">
         <v>389</v>
       </c>
@@ -5842,17 +5837,17 @@
       <c r="D246" s="11"/>
       <c r="E246" s="22"/>
     </row>
-    <row r="247" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="248" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="91" t="s">
+    <row r="247" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="248" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A248" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B248" s="92"/>
-      <c r="C248" s="92"/>
-      <c r="D248" s="92"/>
-      <c r="E248" s="93"/>
-    </row>
-    <row r="249" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B248" s="154"/>
+      <c r="C248" s="154"/>
+      <c r="D248" s="154"/>
+      <c r="E248" s="155"/>
+    </row>
+    <row r="249" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="14" t="s">
         <v>1</v>
       </c>
@@ -5869,7 +5864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>16</v>
       </c>
@@ -5886,7 +5881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="7" t="s">
         <v>10</v>
       </c>
@@ -5899,7 +5894,7 @@
       <c r="D251" s="82"/>
       <c r="E251" s="6"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="7" t="s">
         <v>17</v>
       </c>
@@ -5912,7 +5907,7 @@
       <c r="D252" s="82"/>
       <c r="E252" s="6"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="7" t="s">
         <v>18</v>
       </c>
@@ -5925,7 +5920,7 @@
       </c>
       <c r="E253" s="6"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="7" t="s">
         <v>24</v>
       </c>
@@ -5938,7 +5933,7 @@
       </c>
       <c r="E254" s="6"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="7" t="s">
         <v>354</v>
       </c>
@@ -5951,7 +5946,7 @@
       </c>
       <c r="E255" s="6"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="7" t="s">
         <v>25</v>
       </c>
@@ -5964,7 +5959,7 @@
       </c>
       <c r="E256" s="6"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="7" t="s">
         <v>27</v>
       </c>
@@ -5977,7 +5972,7 @@
       </c>
       <c r="E257" s="6"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="7" t="s">
         <v>28</v>
       </c>
@@ -5990,7 +5985,7 @@
       </c>
       <c r="E258" s="6"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="7" t="s">
         <v>29</v>
       </c>
@@ -6003,7 +5998,7 @@
       </c>
       <c r="E259" s="6"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="7" t="s">
         <v>30</v>
       </c>
@@ -6016,7 +6011,7 @@
       </c>
       <c r="E260" s="6"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="7" t="s">
         <v>31</v>
       </c>
@@ -6029,7 +6024,7 @@
       </c>
       <c r="E261" s="6"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="7" t="s">
         <v>32</v>
       </c>
@@ -6042,7 +6037,7 @@
       </c>
       <c r="E262" s="6"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="7" t="s">
         <v>355</v>
       </c>
@@ -6055,7 +6050,7 @@
       </c>
       <c r="E263" s="6"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="7" t="s">
         <v>33</v>
       </c>
@@ -6068,7 +6063,7 @@
       </c>
       <c r="E264" s="6"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="7" t="s">
         <v>34</v>
       </c>
@@ -6081,7 +6076,7 @@
       </c>
       <c r="E265" s="6"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="7" t="s">
         <v>35</v>
       </c>
@@ -6094,7 +6089,7 @@
       </c>
       <c r="E266" s="6"/>
     </row>
-    <row r="267" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A267" s="10" t="s">
         <v>36</v>
       </c>
@@ -6107,23 +6102,23 @@
       </c>
       <c r="E267" s="12"/>
     </row>
-    <row r="268" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A268" s="81"/>
       <c r="B268" s="81"/>
       <c r="C268" s="81"/>
       <c r="D268" s="81"/>
       <c r="E268" s="81"/>
     </row>
-    <row r="269" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="91" t="s">
+    <row r="269" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A269" s="153" t="s">
         <v>288</v>
       </c>
-      <c r="B269" s="92"/>
-      <c r="C269" s="92"/>
-      <c r="D269" s="92"/>
-      <c r="E269" s="93"/>
-    </row>
-    <row r="270" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B269" s="154"/>
+      <c r="C269" s="154"/>
+      <c r="D269" s="154"/>
+      <c r="E269" s="155"/>
+    </row>
+    <row r="270" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A270" s="14" t="s">
         <v>1</v>
       </c>
@@ -6140,7 +6135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>16</v>
       </c>
@@ -6157,7 +6152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="7" t="s">
         <v>12</v>
       </c>
@@ -6170,7 +6165,7 @@
       <c r="D272" s="5"/>
       <c r="E272" s="26"/>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="7" t="s">
         <v>292</v>
       </c>
@@ -6183,7 +6178,7 @@
       <c r="D273" s="5"/>
       <c r="E273" s="26"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="7" t="s">
         <v>17</v>
       </c>
@@ -6196,7 +6191,7 @@
       <c r="D274" s="5"/>
       <c r="E274" s="26"/>
     </row>
-    <row r="275" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A275" s="80" t="s">
         <v>89</v>
       </c>
@@ -6207,17 +6202,17 @@
       <c r="D275" s="59"/>
       <c r="E275" s="47"/>
     </row>
-    <row r="276" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="277" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="91" t="s">
+    <row r="276" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="277" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A277" s="153" t="s">
         <v>314</v>
       </c>
-      <c r="B277" s="92"/>
-      <c r="C277" s="92"/>
-      <c r="D277" s="92"/>
-      <c r="E277" s="93"/>
-    </row>
-    <row r="278" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B277" s="154"/>
+      <c r="C277" s="154"/>
+      <c r="D277" s="154"/>
+      <c r="E277" s="155"/>
+    </row>
+    <row r="278" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A278" s="14" t="s">
         <v>1</v>
       </c>
@@ -6234,7 +6229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>88</v>
       </c>
@@ -6247,7 +6242,7 @@
       <c r="D279" s="4"/>
       <c r="E279" s="25"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="7" t="s">
         <v>344</v>
       </c>
@@ -6260,7 +6255,7 @@
       <c r="D280" s="5"/>
       <c r="E280" s="26"/>
     </row>
-    <row r="281" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A281" s="10" t="s">
         <v>81</v>
       </c>
@@ -6273,17 +6268,17 @@
       <c r="D281" s="11"/>
       <c r="E281" s="34"/>
     </row>
-    <row r="282" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="283" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A283" s="97" t="s">
+    <row r="282" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="283" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A283" s="157" t="s">
         <v>289</v>
       </c>
-      <c r="B283" s="98"/>
-      <c r="C283" s="98"/>
-      <c r="D283" s="98"/>
-      <c r="E283" s="99"/>
-    </row>
-    <row r="284" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B283" s="158"/>
+      <c r="C283" s="158"/>
+      <c r="D283" s="158"/>
+      <c r="E283" s="159"/>
+    </row>
+    <row r="284" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A284" s="30" t="s">
         <v>1</v>
       </c>
@@ -6300,7 +6295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="31" t="s">
         <v>16</v>
       </c>
@@ -6317,7 +6312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="32" t="s">
         <v>72</v>
       </c>
@@ -6330,7 +6325,7 @@
       <c r="D286" s="5"/>
       <c r="E286" s="21"/>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="32" t="s">
         <v>73</v>
       </c>
@@ -6343,7 +6338,7 @@
       <c r="D287" s="5"/>
       <c r="E287" s="21"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="32" t="s">
         <v>74</v>
       </c>
@@ -6356,7 +6351,7 @@
       <c r="D288" s="5"/>
       <c r="E288" s="21"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="32" t="s">
         <v>75</v>
       </c>
@@ -6369,7 +6364,7 @@
       <c r="D289" s="5"/>
       <c r="E289" s="21"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="32" t="s">
         <v>76</v>
       </c>
@@ -6382,7 +6377,7 @@
       <c r="D290" s="5"/>
       <c r="E290" s="21"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="32" t="s">
         <v>129</v>
       </c>
@@ -6395,7 +6390,7 @@
       <c r="D291" s="5"/>
       <c r="E291" s="21"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="32" t="s">
         <v>340</v>
       </c>
@@ -6408,7 +6403,7 @@
       </c>
       <c r="E292" s="21"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="32" t="s">
         <v>39</v>
       </c>
@@ -6419,7 +6414,7 @@
       <c r="D293" s="5"/>
       <c r="E293" s="21"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="32" t="s">
         <v>40</v>
       </c>
@@ -6430,7 +6425,7 @@
       <c r="D294" s="5"/>
       <c r="E294" s="21"/>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="32" t="s">
         <v>41</v>
       </c>
@@ -6441,7 +6436,7 @@
       <c r="D295" s="5"/>
       <c r="E295" s="21"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="32" t="s">
         <v>77</v>
       </c>
@@ -6452,7 +6447,7 @@
       <c r="D296" s="5"/>
       <c r="E296" s="21"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="32" t="s">
         <v>42</v>
       </c>
@@ -6463,7 +6458,7 @@
       <c r="D297" s="5"/>
       <c r="E297" s="21"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="7" t="s">
         <v>121</v>
       </c>
@@ -6476,7 +6471,7 @@
       </c>
       <c r="E298" s="21"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="7" t="s">
         <v>388</v>
       </c>
@@ -6489,7 +6484,7 @@
       </c>
       <c r="E299" s="21"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="7" t="s">
         <v>78</v>
       </c>
@@ -6500,7 +6495,7 @@
       <c r="D300" s="5"/>
       <c r="E300" s="21"/>
     </row>
-    <row r="301" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A301" s="10" t="s">
         <v>79</v>
       </c>
@@ -6511,17 +6506,17 @@
       <c r="D301" s="11"/>
       <c r="E301" s="22"/>
     </row>
-    <row r="302" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="303" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="91" t="s">
+    <row r="302" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="303" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A303" s="153" t="s">
         <v>135</v>
       </c>
-      <c r="B303" s="92"/>
-      <c r="C303" s="92"/>
-      <c r="D303" s="92"/>
-      <c r="E303" s="93"/>
-    </row>
-    <row r="304" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B303" s="154"/>
+      <c r="C303" s="154"/>
+      <c r="D303" s="154"/>
+      <c r="E303" s="155"/>
+    </row>
+    <row r="304" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A304" s="14" t="s">
         <v>1</v>
       </c>
@@ -6538,7 +6533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>16</v>
       </c>
@@ -6555,7 +6550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="7" t="s">
         <v>127</v>
       </c>
@@ -6570,7 +6565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="7" t="s">
         <v>128</v>
       </c>
@@ -6581,7 +6576,7 @@
       <c r="D307" s="5"/>
       <c r="E307" s="26"/>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="7" t="s">
         <v>129</v>
       </c>
@@ -6594,7 +6589,7 @@
       <c r="D308" s="5"/>
       <c r="E308" s="26"/>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="32" t="s">
         <v>81</v>
       </c>
@@ -6607,7 +6602,7 @@
       <c r="D309" s="51"/>
       <c r="E309" s="46"/>
     </row>
-    <row r="310" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A310" s="80" t="s">
         <v>94</v>
       </c>
@@ -6620,17 +6615,17 @@
       </c>
       <c r="E310" s="47"/>
     </row>
-    <row r="311" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="312" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="91" t="s">
+    <row r="311" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="312" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A312" s="153" t="s">
         <v>125</v>
       </c>
-      <c r="B312" s="92"/>
-      <c r="C312" s="92"/>
-      <c r="D312" s="92"/>
-      <c r="E312" s="93"/>
-    </row>
-    <row r="313" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B312" s="154"/>
+      <c r="C312" s="154"/>
+      <c r="D312" s="154"/>
+      <c r="E312" s="155"/>
+    </row>
+    <row r="313" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A313" s="14" t="s">
         <v>1</v>
       </c>
@@ -6647,7 +6642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
         <v>16</v>
       </c>
@@ -6664,7 +6659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="7" t="s">
         <v>0</v>
       </c>
@@ -6679,7 +6674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A316" s="10" t="s">
         <v>126</v>
       </c>
@@ -6694,6 +6689,28 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A303:E303"/>
+    <mergeCell ref="A312:E312"/>
+    <mergeCell ref="A234:E234"/>
+    <mergeCell ref="A248:E248"/>
+    <mergeCell ref="A269:E269"/>
+    <mergeCell ref="A277:E277"/>
+    <mergeCell ref="A283:E283"/>
+    <mergeCell ref="A193:E193"/>
+    <mergeCell ref="A198:E198"/>
+    <mergeCell ref="A205:E205"/>
+    <mergeCell ref="A214:E214"/>
+    <mergeCell ref="A225:E225"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A173:E173"/>
+    <mergeCell ref="A186:E186"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="A125:E125"/>
     <mergeCell ref="A46:E46"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A14:E14"/>
@@ -6701,28 +6718,6 @@
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="A38:E38"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="A94:E94"/>
-    <mergeCell ref="A125:E125"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="A173:E173"/>
-    <mergeCell ref="A186:E186"/>
-    <mergeCell ref="A193:E193"/>
-    <mergeCell ref="A198:E198"/>
-    <mergeCell ref="A205:E205"/>
-    <mergeCell ref="A214:E214"/>
-    <mergeCell ref="A225:E225"/>
-    <mergeCell ref="A303:E303"/>
-    <mergeCell ref="A312:E312"/>
-    <mergeCell ref="A234:E234"/>
-    <mergeCell ref="A248:E248"/>
-    <mergeCell ref="A269:E269"/>
-    <mergeCell ref="A277:E277"/>
-    <mergeCell ref="A283:E283"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6734,284 +6729,284 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J179"/>
+  <dimension ref="A1:H179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A106" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="54" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="54" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="54" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" style="54" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="54" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="54" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="54" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" style="54" customWidth="1"/>
     <col min="10" max="10" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="163" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="106" t="s">
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="92" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="92" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="92" t="s">
         <v>390</v>
       </c>
-      <c r="E2" s="108" t="s">
+      <c r="E2" s="93" t="s">
         <v>277</v>
       </c>
-      <c r="F2" s="108" t="s">
+      <c r="F2" s="93" t="s">
         <v>397</v>
       </c>
-      <c r="G2" s="108" t="s">
+      <c r="G2" s="93" t="s">
         <v>396</v>
       </c>
-      <c r="H2" s="108" t="s">
+      <c r="H2" s="93" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="121" t="s">
+      <c r="C3" s="106" t="s">
         <v>394</v>
       </c>
-      <c r="D3" s="122" t="s">
+      <c r="D3" s="107" t="s">
         <v>184</v>
       </c>
-      <c r="E3" s="120" t="s">
+      <c r="E3" s="105" t="s">
         <v>395</v>
       </c>
-      <c r="F3" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="120"/>
-      <c r="H3" s="123" t="s">
+      <c r="F3" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="105"/>
+      <c r="H3" s="108" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="124" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="109" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="111" t="s">
         <v>394</v>
       </c>
-      <c r="D4" s="127" t="s">
+      <c r="D4" s="112" t="s">
         <v>186</v>
       </c>
-      <c r="E4" s="125" t="s">
+      <c r="E4" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="128" t="s">
+      <c r="F4" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="113" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="124" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="109" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="125" t="s">
+      <c r="B5" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="126" t="s">
+      <c r="C5" s="111" t="s">
         <v>394</v>
       </c>
-      <c r="D5" s="127" t="s">
+      <c r="D5" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="128"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="124" t="s">
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="113"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="109" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="126" t="s">
+      <c r="C6" s="111" t="s">
         <v>399</v>
       </c>
-      <c r="D6" s="127" t="s">
+      <c r="D6" s="112" t="s">
         <v>249</v>
       </c>
-      <c r="E6" s="125" t="s">
+      <c r="E6" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="128" t="s">
+      <c r="F6" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="113" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="124" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="109" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="126" t="s">
+      <c r="C7" s="111" t="s">
         <v>399</v>
       </c>
-      <c r="D7" s="127" t="s">
+      <c r="D7" s="112" t="s">
         <v>187</v>
       </c>
-      <c r="E7" s="125" t="s">
+      <c r="E7" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="128" t="s">
+      <c r="F7" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="113" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="124" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="109" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="125" t="s">
+      <c r="B8" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="126" t="s">
+      <c r="C8" s="111" t="s">
         <v>399</v>
       </c>
-      <c r="D8" s="127" t="s">
+      <c r="D8" s="112" t="s">
         <v>188</v>
       </c>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="128" t="s">
+      <c r="E8" s="110"/>
+      <c r="F8" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="113" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="124" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="109" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="125" t="s">
+      <c r="B9" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="111" t="s">
         <v>401</v>
       </c>
-      <c r="D9" s="127" t="s">
+      <c r="D9" s="112" t="s">
         <v>190</v>
       </c>
-      <c r="E9" s="125" t="s">
+      <c r="E9" s="110" t="s">
         <v>395</v>
       </c>
-      <c r="F9" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="128" t="s">
+      <c r="F9" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="113" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="134" t="s">
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="119" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="135" t="s">
+      <c r="B10" s="120" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="136" t="s">
+      <c r="C10" s="121" t="s">
         <v>398</v>
       </c>
-      <c r="D10" s="137" t="s">
+      <c r="D10" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="E10" s="135" t="s">
+      <c r="E10" s="120" t="s">
         <v>395</v>
       </c>
-      <c r="F10" s="135" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="135" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="138" t="s">
+      <c r="F10" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="123" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="109" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="111" t="s">
+      <c r="C11" s="96" t="s">
         <v>402</v>
       </c>
-      <c r="D11" s="143" t="s">
+      <c r="D11" s="127" t="s">
         <v>404</v>
       </c>
-      <c r="E11" s="110" t="s">
+      <c r="E11" s="95" t="s">
         <v>405</v>
       </c>
-      <c r="F11" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="110"/>
-      <c r="H11" s="114" t="s">
+      <c r="F11" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="95"/>
+      <c r="H11" s="99" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="55" t="s">
         <v>17</v>
       </c>
@@ -7037,7 +7032,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="55" t="s">
         <v>17</v>
       </c>
@@ -7055,7 +7050,7 @@
       <c r="G13" s="50"/>
       <c r="H13" s="60"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="55" t="s">
         <v>17</v>
       </c>
@@ -7081,7 +7076,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="55" t="s">
         <v>17</v>
       </c>
@@ -7107,251 +7102,251 @@
         <v>411</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="139" t="s">
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="115" t="s">
+      <c r="B16" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="116" t="s">
+      <c r="C16" s="101" t="s">
         <v>403</v>
       </c>
-      <c r="D16" s="117" t="s">
+      <c r="D16" s="102" t="s">
         <v>175</v>
       </c>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="115" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="141" t="s">
+      <c r="E16" s="100"/>
+      <c r="F16" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="126" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="119" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="B17" s="120" t="s">
+      <c r="B17" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="121" t="s">
+      <c r="C17" s="106" t="s">
         <v>406</v>
       </c>
-      <c r="D17" s="122" t="s">
+      <c r="D17" s="107" t="s">
         <v>223</v>
       </c>
-      <c r="E17" s="120" t="s">
+      <c r="E17" s="105" t="s">
         <v>410</v>
       </c>
-      <c r="F17" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="120"/>
-      <c r="H17" s="123" t="s">
+      <c r="F17" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="105"/>
+      <c r="H17" s="108" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="124" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="125" t="s">
+      <c r="B18" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="126" t="s">
+      <c r="C18" s="111" t="s">
         <v>406</v>
       </c>
-      <c r="D18" s="127" t="s">
+      <c r="D18" s="112" t="s">
         <v>225</v>
       </c>
-      <c r="E18" s="125" t="s">
+      <c r="E18" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="128" t="s">
+      <c r="F18" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="113" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="124" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="126" t="s">
+      <c r="C19" s="111" t="s">
         <v>406</v>
       </c>
-      <c r="D19" s="127" t="s">
+      <c r="D19" s="112" t="s">
         <v>224</v>
       </c>
-      <c r="E19" s="125"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="128"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="124" t="s">
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="113"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="125" t="s">
+      <c r="B20" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="C20" s="126" t="s">
+      <c r="C20" s="111" t="s">
         <v>407</v>
       </c>
-      <c r="D20" s="127" t="s">
+      <c r="D20" s="112" t="s">
         <v>255</v>
       </c>
-      <c r="E20" s="125" t="s">
+      <c r="E20" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="F20" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="128" t="s">
+      <c r="F20" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="113" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="124" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="125" t="s">
+      <c r="B21" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="C21" s="126" t="s">
+      <c r="C21" s="111" t="s">
         <v>407</v>
       </c>
-      <c r="D21" s="127" t="s">
+      <c r="D21" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="E21" s="125" t="s">
+      <c r="E21" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="F21" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="128" t="s">
+      <c r="F21" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="113" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="124" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="125" t="s">
+      <c r="B22" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="C22" s="126" t="s">
+      <c r="C22" s="111" t="s">
         <v>407</v>
       </c>
-      <c r="D22" s="127" t="s">
+      <c r="D22" s="112" t="s">
         <v>227</v>
       </c>
-      <c r="E22" s="125"/>
-      <c r="F22" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="128" t="s">
+      <c r="E22" s="110"/>
+      <c r="F22" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="113" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="124" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="B23" s="125" t="s">
+      <c r="B23" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="126" t="s">
+      <c r="C23" s="111" t="s">
         <v>408</v>
       </c>
-      <c r="D23" s="127" t="s">
+      <c r="D23" s="112" t="s">
         <v>228</v>
       </c>
-      <c r="E23" s="125" t="s">
+      <c r="E23" s="110" t="s">
         <v>410</v>
       </c>
-      <c r="F23" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="128" t="s">
+      <c r="F23" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="113" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="134" t="s">
+    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="119" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="120" t="s">
         <v>140</v>
       </c>
-      <c r="C24" s="136" t="s">
+      <c r="C24" s="121" t="s">
         <v>409</v>
       </c>
-      <c r="D24" s="137" t="s">
+      <c r="D24" s="122" t="s">
         <v>228</v>
       </c>
-      <c r="E24" s="135" t="s">
+      <c r="E24" s="120" t="s">
         <v>410</v>
       </c>
-      <c r="F24" s="135" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="135" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="138" t="s">
+      <c r="F24" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="123" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="109" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="94" t="s">
         <v>522</v>
       </c>
-      <c r="B25" s="110" t="s">
+      <c r="B25" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="111" t="s">
+      <c r="C25" s="96" t="s">
         <v>523</v>
       </c>
-      <c r="D25" s="143" t="s">
+      <c r="D25" s="127" t="s">
         <v>525</v>
       </c>
-      <c r="E25" s="110" t="s">
+      <c r="E25" s="95" t="s">
         <v>526</v>
       </c>
-      <c r="F25" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="110"/>
-      <c r="H25" s="114" t="s">
+      <c r="F25" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="95"/>
+      <c r="H25" s="99" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="55" t="s">
         <v>522</v>
       </c>
@@ -7377,7 +7372,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="55" t="s">
         <v>522</v>
       </c>
@@ -7395,7 +7390,7 @@
       <c r="G27" s="50"/>
       <c r="H27" s="60"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="55" t="s">
         <v>522</v>
       </c>
@@ -7421,7 +7416,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="55" t="s">
         <v>522</v>
       </c>
@@ -7447,7 +7442,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="56" t="s">
         <v>522</v>
       </c>
@@ -7457,7 +7452,7 @@
       <c r="C30" s="58" t="s">
         <v>524</v>
       </c>
-      <c r="D30" s="113" t="s">
+      <c r="D30" s="98" t="s">
         <v>161</v>
       </c>
       <c r="E30" s="57"/>
@@ -7467,547 +7462,547 @@
       <c r="G30" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="H30" s="118" t="s">
+      <c r="H30" s="103" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="149" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="150" t="s">
+      <c r="B31" s="134" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="151" t="s">
+      <c r="C31" s="135" t="s">
         <v>414</v>
       </c>
-      <c r="D31" s="152" t="s">
+      <c r="D31" s="136" t="s">
         <v>412</v>
       </c>
-      <c r="E31" s="150" t="s">
+      <c r="E31" s="134" t="s">
         <v>413</v>
       </c>
-      <c r="F31" s="150" t="s">
-        <v>5</v>
-      </c>
-      <c r="G31" s="150"/>
-      <c r="H31" s="162" t="s">
+      <c r="F31" s="134" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="134"/>
+      <c r="H31" s="146" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="124" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="125" t="s">
+      <c r="B32" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="C32" s="126" t="s">
+      <c r="C32" s="111" t="s">
         <v>414</v>
       </c>
-      <c r="D32" s="127" t="s">
+      <c r="D32" s="112" t="s">
         <v>159</v>
       </c>
-      <c r="E32" s="125" t="s">
+      <c r="E32" s="110" t="s">
         <v>89</v>
       </c>
-      <c r="F32" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="128" t="s">
+      <c r="F32" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="113" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="124" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="125" t="s">
+      <c r="B33" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="C33" s="126" t="s">
+      <c r="C33" s="111" t="s">
         <v>414</v>
       </c>
-      <c r="D33" s="127" t="s">
+      <c r="D33" s="112" t="s">
         <v>158</v>
       </c>
-      <c r="E33" s="125"/>
-      <c r="F33" s="125"/>
-      <c r="G33" s="125"/>
-      <c r="H33" s="128"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="124" t="s">
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="113"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="125" t="s">
+      <c r="B34" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="C34" s="126" t="s">
+      <c r="C34" s="111" t="s">
         <v>415</v>
       </c>
-      <c r="D34" s="127" t="s">
+      <c r="D34" s="112" t="s">
         <v>416</v>
       </c>
-      <c r="E34" s="125" t="s">
+      <c r="E34" s="110" t="s">
         <v>89</v>
       </c>
-      <c r="F34" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G34" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="128" t="s">
+      <c r="F34" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="113" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="124" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="125" t="s">
+      <c r="B35" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="C35" s="126" t="s">
+      <c r="C35" s="111" t="s">
         <v>415</v>
       </c>
-      <c r="D35" s="127" t="s">
+      <c r="D35" s="112" t="s">
         <v>160</v>
       </c>
-      <c r="E35" s="125" t="s">
+      <c r="E35" s="110" t="s">
         <v>89</v>
       </c>
-      <c r="F35" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="128" t="s">
+      <c r="F35" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="113" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="134" t="s">
+    <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="119" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="135" t="s">
+      <c r="B36" s="120" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="136" t="s">
+      <c r="C36" s="121" t="s">
         <v>415</v>
       </c>
-      <c r="D36" s="137" t="s">
+      <c r="D36" s="122" t="s">
         <v>161</v>
       </c>
-      <c r="E36" s="135"/>
-      <c r="F36" s="135" t="s">
-        <v>5</v>
-      </c>
-      <c r="G36" s="135" t="s">
-        <v>5</v>
-      </c>
-      <c r="H36" s="138" t="s">
+      <c r="E36" s="120"/>
+      <c r="F36" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" s="123" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="153" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="137" t="s">
         <v>515</v>
       </c>
-      <c r="B37" s="154" t="s">
+      <c r="B37" s="138" t="s">
         <v>140</v>
       </c>
-      <c r="C37" s="155" t="s">
+      <c r="C37" s="139" t="s">
         <v>519</v>
       </c>
-      <c r="D37" s="156" t="s">
+      <c r="D37" s="140" t="s">
         <v>516</v>
       </c>
-      <c r="E37" s="154" t="s">
+      <c r="E37" s="138" t="s">
         <v>517</v>
       </c>
-      <c r="F37" s="154" t="s">
-        <v>5</v>
-      </c>
-      <c r="G37" s="154"/>
-      <c r="H37" s="157" t="s">
+      <c r="F37" s="138" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="138"/>
+      <c r="H37" s="141" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="163" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="147" t="s">
         <v>515</v>
       </c>
-      <c r="B38" s="158" t="s">
+      <c r="B38" s="142" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="159" t="s">
+      <c r="C38" s="143" t="s">
         <v>519</v>
       </c>
-      <c r="D38" s="160" t="s">
+      <c r="D38" s="144" t="s">
         <v>518</v>
       </c>
-      <c r="E38" s="158" t="s">
+      <c r="E38" s="142" t="s">
         <v>515</v>
       </c>
-      <c r="F38" s="158" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" s="158" t="s">
-        <v>5</v>
-      </c>
-      <c r="H38" s="161" t="s">
+      <c r="F38" s="142" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="142" t="s">
+        <v>5</v>
+      </c>
+      <c r="H38" s="145" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="163" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="147" t="s">
         <v>515</v>
       </c>
-      <c r="B39" s="158" t="s">
+      <c r="B39" s="142" t="s">
         <v>142</v>
       </c>
-      <c r="C39" s="159" t="s">
+      <c r="C39" s="143" t="s">
         <v>519</v>
       </c>
-      <c r="D39" s="160" t="s">
+      <c r="D39" s="144" t="s">
         <v>417</v>
       </c>
-      <c r="E39" s="158"/>
-      <c r="F39" s="158"/>
-      <c r="G39" s="158"/>
-      <c r="H39" s="161"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="163" t="s">
+      <c r="E39" s="142"/>
+      <c r="F39" s="142"/>
+      <c r="G39" s="142"/>
+      <c r="H39" s="145"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="147" t="s">
         <v>515</v>
       </c>
-      <c r="B40" s="158" t="s">
+      <c r="B40" s="142" t="s">
         <v>140</v>
       </c>
-      <c r="C40" s="159" t="s">
+      <c r="C40" s="143" t="s">
         <v>520</v>
       </c>
-      <c r="D40" s="160" t="s">
+      <c r="D40" s="144" t="s">
         <v>514</v>
       </c>
-      <c r="E40" s="158" t="s">
+      <c r="E40" s="142" t="s">
         <v>493</v>
       </c>
-      <c r="F40" s="158" t="s">
-        <v>5</v>
-      </c>
-      <c r="G40" s="158" t="s">
-        <v>5</v>
-      </c>
-      <c r="H40" s="161" t="s">
+      <c r="F40" s="142" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="142" t="s">
+        <v>5</v>
+      </c>
+      <c r="H40" s="145" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="164" t="s">
+    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="148" t="s">
         <v>515</v>
       </c>
-      <c r="B41" s="165" t="s">
+      <c r="B41" s="149" t="s">
         <v>140</v>
       </c>
-      <c r="C41" s="166" t="s">
+      <c r="C41" s="150" t="s">
         <v>521</v>
       </c>
-      <c r="D41" s="167" t="s">
+      <c r="D41" s="151" t="s">
         <v>418</v>
       </c>
-      <c r="E41" s="165" t="s">
+      <c r="E41" s="149" t="s">
         <v>413</v>
       </c>
-      <c r="F41" s="165" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="165" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="168" t="s">
+      <c r="F41" s="149" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="149" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="152" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="149" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="133" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="150" t="s">
+      <c r="B42" s="134" t="s">
         <v>140</v>
       </c>
-      <c r="C42" s="151" t="s">
+      <c r="C42" s="135" t="s">
         <v>419</v>
       </c>
-      <c r="D42" s="152" t="s">
+      <c r="D42" s="136" t="s">
         <v>214</v>
       </c>
-      <c r="E42" s="150" t="s">
+      <c r="E42" s="134" t="s">
         <v>425</v>
       </c>
-      <c r="F42" s="150" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="150"/>
-      <c r="H42" s="162" t="s">
+      <c r="F42" s="134" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="134"/>
+      <c r="H42" s="146" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="124" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="125" t="s">
+      <c r="B43" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="C43" s="126" t="s">
+      <c r="C43" s="111" t="s">
         <v>419</v>
       </c>
-      <c r="D43" s="127" t="s">
+      <c r="D43" s="112" t="s">
         <v>216</v>
       </c>
-      <c r="E43" s="125" t="s">
+      <c r="E43" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="F43" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="128" t="s">
+      <c r="F43" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="113" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="124" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="125" t="s">
+      <c r="B44" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="C44" s="126" t="s">
+      <c r="C44" s="111" t="s">
         <v>419</v>
       </c>
-      <c r="D44" s="127" t="s">
+      <c r="D44" s="112" t="s">
         <v>215</v>
       </c>
-      <c r="E44" s="125"/>
-      <c r="F44" s="125"/>
-      <c r="G44" s="125"/>
-      <c r="H44" s="128"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="124" t="s">
+      <c r="E44" s="110"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="110"/>
+      <c r="H44" s="113"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="125" t="s">
+      <c r="B45" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="C45" s="126" t="s">
+      <c r="C45" s="111" t="s">
         <v>420</v>
       </c>
-      <c r="D45" s="127" t="s">
+      <c r="D45" s="112" t="s">
         <v>254</v>
       </c>
-      <c r="E45" s="125" t="s">
+      <c r="E45" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="F45" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" s="128" t="s">
+      <c r="F45" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="113" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="124" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="125" t="s">
+      <c r="B46" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="C46" s="126" t="s">
+      <c r="C46" s="111" t="s">
         <v>420</v>
       </c>
-      <c r="D46" s="127" t="s">
+      <c r="D46" s="112" t="s">
         <v>217</v>
       </c>
-      <c r="E46" s="125" t="s">
+      <c r="E46" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="F46" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="128" t="s">
+      <c r="F46" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="113" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="124" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="125" t="s">
+      <c r="B47" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="C47" s="126" t="s">
+      <c r="C47" s="111" t="s">
         <v>420</v>
       </c>
-      <c r="D47" s="127" t="s">
+      <c r="D47" s="112" t="s">
         <v>218</v>
       </c>
-      <c r="E47" s="125"/>
-      <c r="F47" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="128" t="s">
+      <c r="E47" s="110"/>
+      <c r="F47" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="113" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="124" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="125" t="s">
+      <c r="B48" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="C48" s="126" t="s">
+      <c r="C48" s="111" t="s">
         <v>421</v>
       </c>
-      <c r="D48" s="127" t="s">
+      <c r="D48" s="112" t="s">
         <v>220</v>
       </c>
-      <c r="E48" s="125" t="s">
+      <c r="E48" s="110" t="s">
         <v>425</v>
       </c>
-      <c r="F48" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="128" t="s">
+      <c r="F48" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="113" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="124" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="B49" s="125" t="s">
+      <c r="B49" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="C49" s="126" t="s">
+      <c r="C49" s="111" t="s">
         <v>422</v>
       </c>
-      <c r="D49" s="127" t="s">
+      <c r="D49" s="112" t="s">
         <v>222</v>
       </c>
-      <c r="E49" s="125" t="s">
+      <c r="E49" s="110" t="s">
         <v>425</v>
       </c>
-      <c r="F49" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="128" t="s">
+      <c r="F49" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="113" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="124" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="B50" s="125" t="s">
+      <c r="B50" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="126" t="s">
+      <c r="C50" s="111" t="s">
         <v>423</v>
       </c>
-      <c r="D50" s="127" t="s">
+      <c r="D50" s="112" t="s">
         <v>219</v>
       </c>
-      <c r="E50" s="125" t="s">
+      <c r="E50" s="110" t="s">
         <v>425</v>
       </c>
-      <c r="F50" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G50" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H50" s="128" t="s">
+      <c r="F50" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H50" s="113" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="134" t="s">
+    <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="119" t="s">
         <v>97</v>
       </c>
-      <c r="B51" s="135" t="s">
+      <c r="B51" s="120" t="s">
         <v>140</v>
       </c>
-      <c r="C51" s="136" t="s">
+      <c r="C51" s="121" t="s">
         <v>424</v>
       </c>
-      <c r="D51" s="137" t="s">
+      <c r="D51" s="122" t="s">
         <v>221</v>
       </c>
-      <c r="E51" s="135" t="s">
+      <c r="E51" s="120" t="s">
         <v>425</v>
       </c>
-      <c r="F51" s="135" t="s">
-        <v>5</v>
-      </c>
-      <c r="G51" s="135" t="s">
-        <v>5</v>
-      </c>
-      <c r="H51" s="138" t="s">
+      <c r="F51" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H51" s="123" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="109" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="94" t="s">
         <v>207</v>
       </c>
-      <c r="B52" s="110" t="s">
+      <c r="B52" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C52" s="111" t="s">
+      <c r="C52" s="96" t="s">
         <v>208</v>
       </c>
-      <c r="D52" s="112" t="s">
+      <c r="D52" s="97" t="s">
         <v>427</v>
       </c>
-      <c r="E52" s="110" t="s">
+      <c r="E52" s="95" t="s">
         <v>426</v>
       </c>
-      <c r="F52" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="110"/>
-      <c r="H52" s="114" t="s">
+      <c r="F52" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="95"/>
+      <c r="H52" s="99" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="55" t="s">
         <v>207</v>
       </c>
@@ -8033,7 +8028,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="55" t="s">
         <v>207</v>
       </c>
@@ -8051,7 +8046,7 @@
       <c r="G54" s="50"/>
       <c r="H54" s="60"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="55" t="s">
         <v>207</v>
       </c>
@@ -8077,7 +8072,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="55" t="s">
         <v>207</v>
       </c>
@@ -8103,306 +8098,303 @@
         <v>411</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="139" t="s">
+    <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="124" t="s">
         <v>207</v>
       </c>
-      <c r="B57" s="115" t="s">
+      <c r="B57" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C57" s="116" t="s">
+      <c r="C57" s="101" t="s">
         <v>209</v>
       </c>
-      <c r="D57" s="140" t="s">
+      <c r="D57" s="125" t="s">
         <v>213</v>
       </c>
-      <c r="E57" s="115"/>
-      <c r="F57" s="115" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="115" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="141" t="s">
+      <c r="E57" s="100"/>
+      <c r="F57" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="126" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="119" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="B58" s="120" t="s">
+      <c r="B58" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C58" s="121" t="s">
+      <c r="C58" s="106" t="s">
         <v>428</v>
       </c>
-      <c r="D58" s="122" t="s">
+      <c r="D58" s="107" t="s">
         <v>430</v>
       </c>
-      <c r="E58" s="120" t="s">
+      <c r="E58" s="105" t="s">
         <v>431</v>
       </c>
-      <c r="F58" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="120"/>
-      <c r="H58" s="123" t="s">
+      <c r="F58" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="105"/>
+      <c r="H58" s="108" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="124" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="B59" s="125" t="s">
+      <c r="B59" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="C59" s="126" t="s">
+      <c r="C59" s="111" t="s">
         <v>428</v>
       </c>
-      <c r="D59" s="127" t="s">
+      <c r="D59" s="112" t="s">
         <v>191</v>
       </c>
-      <c r="E59" s="125" t="s">
+      <c r="E59" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="F59" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="128" t="s">
+      <c r="F59" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="113" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="124" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="B60" s="125" t="s">
+      <c r="B60" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="C60" s="126" t="s">
+      <c r="C60" s="111" t="s">
         <v>428</v>
       </c>
-      <c r="D60" s="127" t="s">
+      <c r="D60" s="112" t="s">
         <v>197</v>
       </c>
-      <c r="E60" s="125"/>
-      <c r="F60" s="125"/>
-      <c r="G60" s="125"/>
-      <c r="H60" s="128"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="124" t="s">
+      <c r="E60" s="110"/>
+      <c r="F60" s="110"/>
+      <c r="G60" s="110"/>
+      <c r="H60" s="113"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="B61" s="125" t="s">
+      <c r="B61" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="C61" s="126" t="s">
+      <c r="C61" s="111" t="s">
         <v>429</v>
       </c>
-      <c r="D61" s="127" t="s">
+      <c r="D61" s="112" t="s">
         <v>274</v>
       </c>
-      <c r="E61" s="125" t="s">
+      <c r="E61" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="F61" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G61" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H61" s="128" t="s">
+      <c r="F61" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H61" s="113" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="124" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="B62" s="125" t="s">
+      <c r="B62" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="C62" s="126" t="s">
+      <c r="C62" s="111" t="s">
         <v>429</v>
       </c>
-      <c r="D62" s="127" t="s">
+      <c r="D62" s="112" t="s">
         <v>192</v>
       </c>
-      <c r="E62" s="125" t="s">
+      <c r="E62" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="F62" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="128" t="s">
+      <c r="F62" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="113" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="124" t="s">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="B63" s="125" t="s">
+      <c r="B63" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="C63" s="126" t="s">
+      <c r="C63" s="111" t="s">
         <v>429</v>
       </c>
-      <c r="D63" s="127" t="s">
+      <c r="D63" s="112" t="s">
         <v>193</v>
       </c>
-      <c r="E63" s="125"/>
-      <c r="F63" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G63" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H63" s="128" t="s">
+      <c r="E63" s="110"/>
+      <c r="F63" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H63" s="113" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="124" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="B64" s="125" t="s">
+      <c r="B64" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="126" t="s">
+      <c r="C64" s="111" t="s">
         <v>432</v>
       </c>
-      <c r="D64" s="127" t="s">
+      <c r="D64" s="112" t="s">
         <v>433</v>
       </c>
-      <c r="E64" s="125" t="s">
+      <c r="E64" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="F64" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G64" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H64" s="128" t="s">
+      <c r="F64" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G64" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H64" s="113" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="124" t="s">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="B65" s="125" t="s">
+      <c r="B65" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="C65" s="126" t="s">
+      <c r="C65" s="111" t="s">
         <v>527</v>
       </c>
-      <c r="D65" s="127" t="s">
+      <c r="D65" s="112" t="s">
         <v>434</v>
       </c>
-      <c r="E65" s="125" t="s">
+      <c r="E65" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="F65" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G65" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H65" s="128" t="s">
+      <c r="F65" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H65" s="113" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="124" t="s">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="B66" s="125" t="s">
+      <c r="B66" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="C66" s="126" t="s">
+      <c r="C66" s="111" t="s">
         <v>528</v>
       </c>
-      <c r="D66" s="127" t="s">
+      <c r="D66" s="112" t="s">
         <v>434</v>
       </c>
-      <c r="E66" s="125" t="s">
+      <c r="E66" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="F66" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" s="128" t="s">
+      <c r="F66" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="113" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="134" t="s">
+    <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="B67" s="135" t="s">
+      <c r="B67" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="C67" s="136" t="s">
+      <c r="C67" s="121" t="s">
         <v>435</v>
       </c>
-      <c r="D67" s="137" t="s">
+      <c r="D67" s="122" t="s">
         <v>436</v>
       </c>
-      <c r="E67" s="135" t="s">
+      <c r="E67" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="F67" s="135" t="s">
-        <v>5</v>
-      </c>
-      <c r="G67" s="135" t="s">
-        <v>5</v>
-      </c>
-      <c r="H67" s="138" t="s">
+      <c r="F67" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G67" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H67" s="123" t="s">
         <v>400</v>
       </c>
-      <c r="J67" s="142" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="109" t="s">
+    </row>
+    <row r="68" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="B68" s="110" t="s">
+      <c r="B68" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C68" s="111" t="s">
+      <c r="C68" s="96" t="s">
         <v>441</v>
       </c>
-      <c r="D68" s="112" t="s">
+      <c r="D68" s="97" t="s">
         <v>438</v>
       </c>
-      <c r="E68" s="110" t="s">
+      <c r="E68" s="95" t="s">
         <v>437</v>
       </c>
-      <c r="F68" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G68" s="110"/>
-      <c r="H68" s="114" t="s">
+      <c r="F68" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G68" s="95"/>
+      <c r="H68" s="99" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="55" t="s">
         <v>63</v>
       </c>
@@ -8428,7 +8420,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="55" t="s">
         <v>63</v>
       </c>
@@ -8446,7 +8438,7 @@
       <c r="G70" s="50"/>
       <c r="H70" s="60"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="55" t="s">
         <v>63</v>
       </c>
@@ -8472,7 +8464,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="55" t="s">
         <v>63</v>
       </c>
@@ -8498,199 +8490,199 @@
         <v>411</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="139" t="s">
+    <row r="73" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="B73" s="115" t="s">
+      <c r="B73" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C73" s="116" t="s">
+      <c r="C73" s="101" t="s">
         <v>442</v>
       </c>
-      <c r="D73" s="140" t="s">
+      <c r="D73" s="125" t="s">
         <v>196</v>
       </c>
-      <c r="E73" s="115"/>
-      <c r="F73" s="115" t="s">
-        <v>5</v>
-      </c>
-      <c r="G73" s="115" t="s">
-        <v>5</v>
-      </c>
-      <c r="H73" s="141" t="s">
+      <c r="E73" s="100"/>
+      <c r="F73" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G73" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H73" s="126" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="119" t="s">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="B74" s="120" t="s">
+      <c r="B74" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C74" s="121" t="s">
+      <c r="C74" s="106" t="s">
         <v>443</v>
       </c>
-      <c r="D74" s="122" t="s">
+      <c r="D74" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="E74" s="120" t="s">
+      <c r="E74" s="105" t="s">
         <v>440</v>
       </c>
-      <c r="F74" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G74" s="120"/>
-      <c r="H74" s="123" t="s">
+      <c r="F74" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G74" s="105"/>
+      <c r="H74" s="108" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="124" t="s">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="B75" s="125" t="s">
+      <c r="B75" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="C75" s="126" t="s">
+      <c r="C75" s="111" t="s">
         <v>443</v>
       </c>
-      <c r="D75" s="127" t="s">
+      <c r="D75" s="112" t="s">
         <v>200</v>
       </c>
-      <c r="E75" s="125" t="s">
+      <c r="E75" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="F75" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G75" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H75" s="128" t="s">
+      <c r="F75" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G75" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H75" s="113" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="124" t="s">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="B76" s="125" t="s">
+      <c r="B76" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="C76" s="126" t="s">
+      <c r="C76" s="111" t="s">
         <v>443</v>
       </c>
-      <c r="D76" s="127" t="s">
+      <c r="D76" s="112" t="s">
         <v>199</v>
       </c>
-      <c r="E76" s="125"/>
-      <c r="F76" s="125"/>
-      <c r="G76" s="125"/>
-      <c r="H76" s="128"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="124" t="s">
+      <c r="E76" s="110"/>
+      <c r="F76" s="110"/>
+      <c r="G76" s="110"/>
+      <c r="H76" s="113"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="B77" s="125" t="s">
+      <c r="B77" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="C77" s="126" t="s">
+      <c r="C77" s="111" t="s">
         <v>444</v>
       </c>
-      <c r="D77" s="127" t="s">
+      <c r="D77" s="112" t="s">
         <v>251</v>
       </c>
-      <c r="E77" s="125" t="s">
+      <c r="E77" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="F77" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G77" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H77" s="128" t="s">
+      <c r="F77" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G77" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H77" s="113" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="124" t="s">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="B78" s="125" t="s">
+      <c r="B78" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="C78" s="126" t="s">
+      <c r="C78" s="111" t="s">
         <v>444</v>
       </c>
-      <c r="D78" s="127" t="s">
+      <c r="D78" s="112" t="s">
         <v>201</v>
       </c>
-      <c r="E78" s="125" t="s">
+      <c r="E78" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="F78" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G78" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H78" s="128" t="s">
+      <c r="F78" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G78" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H78" s="113" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="129" t="s">
+    <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="B79" s="130" t="s">
+      <c r="B79" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="C79" s="131" t="s">
+      <c r="C79" s="116" t="s">
         <v>444</v>
       </c>
-      <c r="D79" s="132" t="s">
+      <c r="D79" s="117" t="s">
         <v>202</v>
       </c>
-      <c r="E79" s="130"/>
-      <c r="F79" s="130" t="s">
-        <v>5</v>
-      </c>
-      <c r="G79" s="130" t="s">
-        <v>5</v>
-      </c>
-      <c r="H79" s="133" t="s">
+      <c r="E79" s="115"/>
+      <c r="F79" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="G79" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="H79" s="118" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="144" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="109" t="s">
+    <row r="80" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="94" t="s">
         <v>292</v>
       </c>
-      <c r="B80" s="110" t="s">
+      <c r="B80" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C80" s="111" t="s">
+      <c r="C80" s="96" t="s">
         <v>445</v>
       </c>
-      <c r="D80" s="143" t="s">
+      <c r="D80" s="127" t="s">
         <v>448</v>
       </c>
-      <c r="E80" s="110" t="s">
+      <c r="E80" s="95" t="s">
         <v>447</v>
       </c>
-      <c r="F80" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G80" s="110"/>
-      <c r="H80" s="114" t="s">
+      <c r="F80" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G80" s="95"/>
+      <c r="H80" s="99" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="144" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="55" t="s">
         <v>292</v>
       </c>
@@ -8716,7 +8708,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="144" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="55" t="s">
         <v>292</v>
       </c>
@@ -8734,7 +8726,7 @@
       <c r="G82" s="50"/>
       <c r="H82" s="60"/>
     </row>
-    <row r="83" spans="1:8" s="144" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="55" t="s">
         <v>292</v>
       </c>
@@ -8760,7 +8752,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="144" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="55" t="s">
         <v>292</v>
       </c>
@@ -8786,199 +8778,199 @@
         <v>411</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="144" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="139" t="s">
+    <row r="85" spans="1:8" s="128" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="124" t="s">
         <v>292</v>
       </c>
-      <c r="B85" s="115" t="s">
+      <c r="B85" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C85" s="116" t="s">
+      <c r="C85" s="101" t="s">
         <v>446</v>
       </c>
-      <c r="D85" s="117" t="s">
+      <c r="D85" s="102" t="s">
         <v>453</v>
       </c>
-      <c r="E85" s="115"/>
-      <c r="F85" s="115" t="s">
-        <v>5</v>
-      </c>
-      <c r="G85" s="115" t="s">
-        <v>5</v>
-      </c>
-      <c r="H85" s="141" t="s">
+      <c r="E85" s="100"/>
+      <c r="F85" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G85" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H85" s="126" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="119" t="s">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B86" s="120" t="s">
+      <c r="B86" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C86" s="121" t="s">
+      <c r="C86" s="106" t="s">
         <v>454</v>
       </c>
-      <c r="D86" s="122" t="s">
+      <c r="D86" s="107" t="s">
         <v>456</v>
       </c>
-      <c r="E86" s="120" t="s">
+      <c r="E86" s="105" t="s">
         <v>467</v>
       </c>
-      <c r="F86" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G86" s="120"/>
-      <c r="H86" s="123" t="s">
+      <c r="F86" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G86" s="105"/>
+      <c r="H86" s="108" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="124" t="s">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="B87" s="125" t="s">
+      <c r="B87" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="C87" s="126" t="s">
+      <c r="C87" s="111" t="s">
         <v>454</v>
       </c>
-      <c r="D87" s="127" t="s">
+      <c r="D87" s="112" t="s">
         <v>163</v>
       </c>
-      <c r="E87" s="125" t="s">
+      <c r="E87" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="F87" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G87" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H87" s="128" t="s">
+      <c r="F87" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G87" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H87" s="113" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="124" t="s">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="125" t="s">
+      <c r="B88" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="C88" s="126" t="s">
+      <c r="C88" s="111" t="s">
         <v>454</v>
       </c>
-      <c r="D88" s="127" t="s">
+      <c r="D88" s="112" t="s">
         <v>162</v>
       </c>
-      <c r="E88" s="125"/>
-      <c r="F88" s="125"/>
-      <c r="G88" s="125"/>
-      <c r="H88" s="128"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="124" t="s">
+      <c r="E88" s="110"/>
+      <c r="F88" s="110"/>
+      <c r="G88" s="110"/>
+      <c r="H88" s="113"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="125" t="s">
+      <c r="B89" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="C89" s="126" t="s">
+      <c r="C89" s="111" t="s">
         <v>455</v>
       </c>
-      <c r="D89" s="127" t="s">
+      <c r="D89" s="112" t="s">
         <v>245</v>
       </c>
-      <c r="E89" s="125" t="s">
+      <c r="E89" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="F89" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="128" t="s">
+      <c r="F89" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="113" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="124" t="s">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="125" t="s">
+      <c r="B90" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="C90" s="126" t="s">
+      <c r="C90" s="111" t="s">
         <v>455</v>
       </c>
-      <c r="D90" s="127" t="s">
+      <c r="D90" s="112" t="s">
         <v>164</v>
       </c>
-      <c r="E90" s="125" t="s">
+      <c r="E90" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="F90" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G90" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H90" s="128" t="s">
+      <c r="F90" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G90" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H90" s="113" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="134" t="s">
+    <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="B91" s="135" t="s">
+      <c r="B91" s="120" t="s">
         <v>142</v>
       </c>
-      <c r="C91" s="136" t="s">
+      <c r="C91" s="121" t="s">
         <v>455</v>
       </c>
-      <c r="D91" s="137" t="s">
+      <c r="D91" s="122" t="s">
         <v>165</v>
       </c>
-      <c r="E91" s="135"/>
-      <c r="F91" s="135" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="135" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="138" t="s">
+      <c r="E91" s="120"/>
+      <c r="F91" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="123" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="109" t="s">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="94" t="s">
         <v>166</v>
       </c>
-      <c r="B92" s="110" t="s">
+      <c r="B92" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C92" s="111" t="s">
+      <c r="C92" s="96" t="s">
         <v>457</v>
       </c>
-      <c r="D92" s="112" t="s">
+      <c r="D92" s="97" t="s">
         <v>458</v>
       </c>
-      <c r="E92" s="110" t="s">
+      <c r="E92" s="95" t="s">
         <v>459</v>
       </c>
-      <c r="F92" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G92" s="110"/>
-      <c r="H92" s="114" t="s">
+      <c r="F92" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G92" s="95"/>
+      <c r="H92" s="99" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="55" t="s">
         <v>166</v>
       </c>
@@ -9004,7 +8996,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="55" t="s">
         <v>166</v>
       </c>
@@ -9022,7 +9014,7 @@
       <c r="G94" s="50"/>
       <c r="H94" s="60"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="55" t="s">
         <v>166</v>
       </c>
@@ -9046,7 +9038,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="55" t="s">
         <v>166</v>
       </c>
@@ -9072,201 +9064,201 @@
         <v>400</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="139" t="s">
+    <row r="97" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="124" t="s">
         <v>166</v>
       </c>
-      <c r="B97" s="115" t="s">
+      <c r="B97" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="C97" s="116" t="s">
+      <c r="C97" s="101" t="s">
         <v>465</v>
       </c>
-      <c r="D97" s="140" t="s">
+      <c r="D97" s="125" t="s">
         <v>466</v>
       </c>
-      <c r="E97" s="115" t="s">
+      <c r="E97" s="100" t="s">
         <v>467</v>
       </c>
-      <c r="F97" s="115" t="s">
-        <v>5</v>
-      </c>
-      <c r="G97" s="115" t="s">
-        <v>5</v>
-      </c>
-      <c r="H97" s="141" t="s">
+      <c r="F97" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G97" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H97" s="126" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="119" t="s">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="B98" s="120" t="s">
+      <c r="B98" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C98" s="121" t="s">
+      <c r="C98" s="106" t="s">
         <v>468</v>
       </c>
-      <c r="D98" s="122" t="s">
+      <c r="D98" s="107" t="s">
         <v>471</v>
       </c>
-      <c r="E98" s="120" t="s">
+      <c r="E98" s="105" t="s">
         <v>470</v>
       </c>
-      <c r="F98" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G98" s="120"/>
-      <c r="H98" s="123" t="s">
+      <c r="F98" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G98" s="105"/>
+      <c r="H98" s="108" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="124" t="s">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="109" t="s">
         <v>90</v>
       </c>
-      <c r="B99" s="125" t="s">
+      <c r="B99" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="C99" s="126" t="s">
+      <c r="C99" s="111" t="s">
         <v>468</v>
       </c>
-      <c r="D99" s="127" t="s">
+      <c r="D99" s="112" t="s">
         <v>169</v>
       </c>
-      <c r="E99" s="125" t="s">
+      <c r="E99" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="F99" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G99" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H99" s="128" t="s">
+      <c r="F99" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G99" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H99" s="113" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="124" t="s">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="109" t="s">
         <v>90</v>
       </c>
-      <c r="B100" s="125" t="s">
+      <c r="B100" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="C100" s="126" t="s">
+      <c r="C100" s="111" t="s">
         <v>468</v>
       </c>
-      <c r="D100" s="127" t="s">
+      <c r="D100" s="112" t="s">
         <v>168</v>
       </c>
-      <c r="E100" s="125"/>
-      <c r="F100" s="125"/>
-      <c r="G100" s="125"/>
-      <c r="H100" s="128"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="124" t="s">
+      <c r="E100" s="110"/>
+      <c r="F100" s="110"/>
+      <c r="G100" s="110"/>
+      <c r="H100" s="113"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="109" t="s">
         <v>90</v>
       </c>
-      <c r="B101" s="125" t="s">
+      <c r="B101" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="C101" s="126" t="s">
+      <c r="C101" s="111" t="s">
         <v>469</v>
       </c>
-      <c r="D101" s="127" t="s">
+      <c r="D101" s="112" t="s">
         <v>246</v>
       </c>
-      <c r="E101" s="125" t="s">
+      <c r="E101" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="F101" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H101" s="128" t="s">
+      <c r="F101" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="113" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="124" t="s">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="109" t="s">
         <v>90</v>
       </c>
-      <c r="B102" s="125" t="s">
+      <c r="B102" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="C102" s="126" t="s">
+      <c r="C102" s="111" t="s">
         <v>469</v>
       </c>
-      <c r="D102" s="127" t="s">
+      <c r="D102" s="112" t="s">
         <v>170</v>
       </c>
-      <c r="E102" s="125" t="s">
+      <c r="E102" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="F102" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="128" t="s">
+      <c r="F102" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="113" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="134" t="s">
+    <row r="103" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="119" t="s">
         <v>90</v>
       </c>
-      <c r="B103" s="135" t="s">
+      <c r="B103" s="120" t="s">
         <v>142</v>
       </c>
-      <c r="C103" s="136" t="s">
+      <c r="C103" s="121" t="s">
         <v>469</v>
       </c>
-      <c r="D103" s="137" t="s">
+      <c r="D103" s="122" t="s">
         <v>171</v>
       </c>
-      <c r="E103" s="135"/>
-      <c r="F103" s="135" t="s">
-        <v>5</v>
-      </c>
-      <c r="G103" s="135" t="s">
-        <v>5</v>
-      </c>
-      <c r="H103" s="138" t="s">
+      <c r="E103" s="120"/>
+      <c r="F103" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G103" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H103" s="123" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="109" t="s">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="94" t="s">
         <v>244</v>
       </c>
-      <c r="B104" s="110" t="s">
+      <c r="B104" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C104" s="111" t="s">
+      <c r="C104" s="96" t="s">
         <v>235</v>
       </c>
-      <c r="D104" s="112" t="s">
+      <c r="D104" s="97" t="s">
         <v>236</v>
       </c>
-      <c r="E104" s="110" t="s">
+      <c r="E104" s="95" t="s">
         <v>472</v>
       </c>
-      <c r="F104" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G104" s="110"/>
-      <c r="H104" s="114" t="s">
+      <c r="F104" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G104" s="95"/>
+      <c r="H104" s="99" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="55" t="s">
         <v>244</v>
       </c>
@@ -9292,7 +9284,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="55" t="s">
         <v>244</v>
       </c>
@@ -9310,7 +9302,7 @@
       <c r="G106" s="50"/>
       <c r="H106" s="60"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="55" t="s">
         <v>244</v>
       </c>
@@ -9336,7 +9328,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="55" t="s">
         <v>244</v>
       </c>
@@ -9362,7 +9354,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="55" t="s">
         <v>244</v>
       </c>
@@ -9386,7 +9378,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="55" t="s">
         <v>244</v>
       </c>
@@ -9412,227 +9404,227 @@
         <v>400</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="139" t="s">
+    <row r="111" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="124" t="s">
         <v>244</v>
       </c>
-      <c r="B111" s="115" t="s">
+      <c r="B111" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="C111" s="116" t="s">
+      <c r="C111" s="101" t="s">
         <v>242</v>
       </c>
-      <c r="D111" s="140" t="s">
+      <c r="D111" s="125" t="s">
         <v>243</v>
       </c>
-      <c r="E111" s="115" t="s">
+      <c r="E111" s="100" t="s">
         <v>472</v>
       </c>
-      <c r="F111" s="115" t="s">
-        <v>5</v>
-      </c>
-      <c r="G111" s="115" t="s">
-        <v>5</v>
-      </c>
-      <c r="H111" s="141" t="s">
+      <c r="F111" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G111" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H111" s="126" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="119" t="s">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="B112" s="120" t="s">
+      <c r="B112" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C112" s="121" t="s">
+      <c r="C112" s="106" t="s">
         <v>474</v>
       </c>
-      <c r="D112" s="122" t="s">
+      <c r="D112" s="107" t="s">
         <v>229</v>
       </c>
-      <c r="E112" s="120" t="s">
+      <c r="E112" s="105" t="s">
         <v>473</v>
       </c>
-      <c r="F112" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G112" s="120"/>
-      <c r="H112" s="123" t="s">
+      <c r="F112" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G112" s="105"/>
+      <c r="H112" s="108" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="124" t="s">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="B113" s="125" t="s">
+      <c r="B113" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="C113" s="126" t="s">
+      <c r="C113" s="111" t="s">
         <v>474</v>
       </c>
-      <c r="D113" s="127" t="s">
+      <c r="D113" s="112" t="s">
         <v>231</v>
       </c>
-      <c r="E113" s="125" t="s">
+      <c r="E113" s="110" t="s">
         <v>114</v>
       </c>
-      <c r="F113" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G113" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H113" s="128" t="s">
+      <c r="F113" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G113" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H113" s="113" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="124" t="s">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="B114" s="125" t="s">
+      <c r="B114" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="C114" s="126" t="s">
+      <c r="C114" s="111" t="s">
         <v>474</v>
       </c>
-      <c r="D114" s="127" t="s">
+      <c r="D114" s="112" t="s">
         <v>230</v>
       </c>
-      <c r="E114" s="125"/>
-      <c r="F114" s="125"/>
-      <c r="G114" s="125"/>
-      <c r="H114" s="128"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="124" t="s">
+      <c r="E114" s="110"/>
+      <c r="F114" s="110"/>
+      <c r="G114" s="110"/>
+      <c r="H114" s="113"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="B115" s="125" t="s">
+      <c r="B115" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="C115" s="126" t="s">
+      <c r="C115" s="111" t="s">
         <v>475</v>
       </c>
-      <c r="D115" s="127" t="s">
+      <c r="D115" s="112" t="s">
         <v>256</v>
       </c>
-      <c r="E115" s="125" t="s">
+      <c r="E115" s="110" t="s">
         <v>114</v>
       </c>
-      <c r="F115" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G115" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H115" s="128" t="s">
+      <c r="F115" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G115" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H115" s="113" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="124" t="s">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="B116" s="125" t="s">
+      <c r="B116" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="C116" s="126" t="s">
+      <c r="C116" s="111" t="s">
         <v>475</v>
       </c>
-      <c r="D116" s="127" t="s">
+      <c r="D116" s="112" t="s">
         <v>232</v>
       </c>
-      <c r="E116" s="125" t="s">
+      <c r="E116" s="110" t="s">
         <v>114</v>
       </c>
-      <c r="F116" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G116" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H116" s="128" t="s">
+      <c r="F116" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G116" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H116" s="113" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="124" t="s">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="B117" s="125" t="s">
+      <c r="B117" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="C117" s="126" t="s">
+      <c r="C117" s="111" t="s">
         <v>475</v>
       </c>
-      <c r="D117" s="127" t="s">
+      <c r="D117" s="112" t="s">
         <v>233</v>
       </c>
-      <c r="E117" s="125"/>
-      <c r="F117" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G117" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H117" s="128" t="s">
+      <c r="E117" s="110"/>
+      <c r="F117" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G117" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H117" s="113" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="134" t="s">
+    <row r="118" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="119" t="s">
         <v>114</v>
       </c>
-      <c r="B118" s="135" t="s">
+      <c r="B118" s="120" t="s">
         <v>140</v>
       </c>
-      <c r="C118" s="136" t="s">
+      <c r="C118" s="121" t="s">
         <v>476</v>
       </c>
-      <c r="D118" s="137" t="s">
+      <c r="D118" s="122" t="s">
         <v>234</v>
       </c>
-      <c r="E118" s="135" t="s">
+      <c r="E118" s="120" t="s">
         <v>473</v>
       </c>
-      <c r="F118" s="135" t="s">
-        <v>5</v>
-      </c>
-      <c r="G118" s="135" t="s">
-        <v>5</v>
-      </c>
-      <c r="H118" s="138" t="s">
+      <c r="F118" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G118" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H118" s="123" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="109" t="s">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="B119" s="110" t="s">
+      <c r="B119" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C119" s="111" t="s">
+      <c r="C119" s="96" t="s">
         <v>479</v>
       </c>
-      <c r="D119" s="112" t="s">
+      <c r="D119" s="97" t="s">
         <v>478</v>
       </c>
-      <c r="E119" s="110" t="s">
+      <c r="E119" s="95" t="s">
         <v>477</v>
       </c>
-      <c r="F119" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G119" s="110"/>
-      <c r="H119" s="114" t="s">
+      <c r="F119" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G119" s="95"/>
+      <c r="H119" s="99" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="55" t="s">
         <v>103</v>
       </c>
@@ -9658,7 +9650,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="55" t="s">
         <v>103</v>
       </c>
@@ -9676,7 +9668,7 @@
       <c r="G121" s="50"/>
       <c r="H121" s="60"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="55" t="s">
         <v>103</v>
       </c>
@@ -9702,7 +9694,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="55" t="s">
         <v>103</v>
       </c>
@@ -9728,7 +9720,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="55" t="s">
         <v>103</v>
       </c>
@@ -9752,7 +9744,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="55" t="s">
         <v>103</v>
       </c>
@@ -9778,201 +9770,201 @@
         <v>400</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="139" t="s">
+    <row r="126" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="124" t="s">
         <v>103</v>
       </c>
-      <c r="B126" s="115" t="s">
+      <c r="B126" s="100" t="s">
         <v>143</v>
       </c>
-      <c r="C126" s="116" t="s">
+      <c r="C126" s="101" t="s">
         <v>483</v>
       </c>
-      <c r="D126" s="140" t="s">
+      <c r="D126" s="125" t="s">
         <v>484</v>
       </c>
-      <c r="E126" s="115" t="s">
+      <c r="E126" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="F126" s="115" t="s">
-        <v>5</v>
-      </c>
-      <c r="G126" s="115" t="s">
-        <v>5</v>
-      </c>
-      <c r="H126" s="141" t="s">
+      <c r="F126" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G126" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H126" s="126" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="119" t="s">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="B127" s="120" t="s">
+      <c r="B127" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C127" s="121" t="s">
+      <c r="C127" s="106" t="s">
         <v>486</v>
       </c>
-      <c r="D127" s="122" t="s">
+      <c r="D127" s="107" t="s">
         <v>488</v>
       </c>
-      <c r="E127" s="120" t="s">
+      <c r="E127" s="105" t="s">
         <v>485</v>
       </c>
-      <c r="F127" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G127" s="120"/>
-      <c r="H127" s="123" t="s">
+      <c r="F127" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G127" s="105"/>
+      <c r="H127" s="108" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="124" t="s">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="B128" s="125" t="s">
+      <c r="B128" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="C128" s="126" t="s">
+      <c r="C128" s="111" t="s">
         <v>486</v>
       </c>
-      <c r="D128" s="127" t="s">
+      <c r="D128" s="112" t="s">
         <v>149</v>
       </c>
-      <c r="E128" s="125" t="s">
+      <c r="E128" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="F128" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G128" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H128" s="128" t="s">
+      <c r="F128" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G128" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H128" s="113" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="124" t="s">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="B129" s="125" t="s">
+      <c r="B129" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="C129" s="126" t="s">
+      <c r="C129" s="111" t="s">
         <v>486</v>
       </c>
-      <c r="D129" s="127" t="s">
+      <c r="D129" s="112" t="s">
         <v>148</v>
       </c>
-      <c r="E129" s="125"/>
-      <c r="F129" s="125"/>
-      <c r="G129" s="125"/>
-      <c r="H129" s="128"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="124" t="s">
+      <c r="E129" s="110"/>
+      <c r="F129" s="110"/>
+      <c r="G129" s="110"/>
+      <c r="H129" s="113"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="B130" s="125" t="s">
+      <c r="B130" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="C130" s="126" t="s">
+      <c r="C130" s="111" t="s">
         <v>487</v>
       </c>
-      <c r="D130" s="127" t="s">
+      <c r="D130" s="112" t="s">
         <v>489</v>
       </c>
-      <c r="E130" s="125" t="s">
+      <c r="E130" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="F130" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G130" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H130" s="128" t="s">
+      <c r="F130" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G130" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H130" s="113" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="124" t="s">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="B131" s="125" t="s">
+      <c r="B131" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="C131" s="126" t="s">
+      <c r="C131" s="111" t="s">
         <v>487</v>
       </c>
-      <c r="D131" s="127" t="s">
+      <c r="D131" s="112" t="s">
         <v>150</v>
       </c>
-      <c r="E131" s="125" t="s">
+      <c r="E131" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="F131" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G131" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H131" s="128" t="s">
+      <c r="F131" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G131" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H131" s="113" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="134" t="s">
+    <row r="132" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="119" t="s">
         <v>81</v>
       </c>
-      <c r="B132" s="135" t="s">
+      <c r="B132" s="120" t="s">
         <v>142</v>
       </c>
-      <c r="C132" s="136" t="s">
+      <c r="C132" s="121" t="s">
         <v>487</v>
       </c>
-      <c r="D132" s="137" t="s">
+      <c r="D132" s="122" t="s">
         <v>151</v>
       </c>
-      <c r="E132" s="135"/>
-      <c r="F132" s="135" t="s">
-        <v>5</v>
-      </c>
-      <c r="G132" s="135" t="s">
-        <v>5</v>
-      </c>
-      <c r="H132" s="138" t="s">
+      <c r="E132" s="120"/>
+      <c r="F132" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G132" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H132" s="123" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="109" t="s">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" s="94" t="s">
         <v>176</v>
       </c>
-      <c r="B133" s="110" t="s">
+      <c r="B133" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C133" s="111" t="s">
+      <c r="C133" s="96" t="s">
         <v>177</v>
       </c>
-      <c r="D133" s="112" t="s">
+      <c r="D133" s="97" t="s">
         <v>179</v>
       </c>
-      <c r="E133" s="110" t="s">
+      <c r="E133" s="95" t="s">
         <v>490</v>
       </c>
-      <c r="F133" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G133" s="110"/>
-      <c r="H133" s="114" t="s">
+      <c r="F133" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G133" s="95"/>
+      <c r="H133" s="99" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="55" t="s">
         <v>176</v>
       </c>
@@ -9998,7 +9990,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="55" t="s">
         <v>176</v>
       </c>
@@ -10016,7 +10008,7 @@
       <c r="G135" s="50"/>
       <c r="H135" s="60"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="55" t="s">
         <v>176</v>
       </c>
@@ -10042,7 +10034,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="55" t="s">
         <v>176</v>
       </c>
@@ -10068,199 +10060,199 @@
         <v>411</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="139" t="s">
+    <row r="138" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="124" t="s">
         <v>176</v>
       </c>
-      <c r="B138" s="115" t="s">
+      <c r="B138" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C138" s="116" t="s">
+      <c r="C138" s="101" t="s">
         <v>178</v>
       </c>
-      <c r="D138" s="140" t="s">
+      <c r="D138" s="125" t="s">
         <v>183</v>
       </c>
-      <c r="E138" s="115"/>
-      <c r="F138" s="115" t="s">
-        <v>5</v>
-      </c>
-      <c r="G138" s="115" t="s">
-        <v>5</v>
-      </c>
-      <c r="H138" s="141" t="s">
+      <c r="E138" s="100"/>
+      <c r="F138" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G138" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H138" s="126" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="119" t="s">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="B139" s="120" t="s">
+      <c r="B139" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C139" s="121" t="s">
+      <c r="C139" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="D139" s="122" t="s">
+      <c r="D139" s="107" t="s">
         <v>491</v>
       </c>
-      <c r="E139" s="120" t="s">
+      <c r="E139" s="105" t="s">
         <v>88</v>
       </c>
-      <c r="F139" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G139" s="120"/>
-      <c r="H139" s="123" t="s">
+      <c r="F139" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G139" s="105"/>
+      <c r="H139" s="108" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="124" t="s">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="B140" s="125" t="s">
+      <c r="B140" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="C140" s="126" t="s">
+      <c r="C140" s="111" t="s">
         <v>152</v>
       </c>
-      <c r="D140" s="127" t="s">
+      <c r="D140" s="112" t="s">
         <v>154</v>
       </c>
-      <c r="E140" s="125" t="s">
+      <c r="E140" s="110" t="s">
         <v>88</v>
       </c>
-      <c r="F140" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G140" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H140" s="128" t="s">
+      <c r="F140" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G140" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H140" s="113" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="124" t="s">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="B141" s="125" t="s">
+      <c r="B141" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="C141" s="126" t="s">
+      <c r="C141" s="111" t="s">
         <v>152</v>
       </c>
-      <c r="D141" s="127" t="s">
+      <c r="D141" s="112" t="s">
         <v>153</v>
       </c>
-      <c r="E141" s="125"/>
-      <c r="F141" s="125"/>
-      <c r="G141" s="125"/>
-      <c r="H141" s="128"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="124" t="s">
+      <c r="E141" s="110"/>
+      <c r="F141" s="110"/>
+      <c r="G141" s="110"/>
+      <c r="H141" s="113"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="B142" s="125" t="s">
+      <c r="B142" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="C142" s="126" t="s">
+      <c r="C142" s="111" t="s">
         <v>155</v>
       </c>
-      <c r="D142" s="127" t="s">
+      <c r="D142" s="112" t="s">
         <v>147</v>
       </c>
-      <c r="E142" s="125" t="s">
+      <c r="E142" s="110" t="s">
         <v>88</v>
       </c>
-      <c r="F142" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G142" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H142" s="128" t="s">
+      <c r="F142" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G142" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H142" s="113" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="124" t="s">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="B143" s="125" t="s">
+      <c r="B143" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="C143" s="126" t="s">
+      <c r="C143" s="111" t="s">
         <v>155</v>
       </c>
-      <c r="D143" s="127" t="s">
+      <c r="D143" s="112" t="s">
         <v>156</v>
       </c>
-      <c r="E143" s="125" t="s">
+      <c r="E143" s="110" t="s">
         <v>88</v>
       </c>
-      <c r="F143" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G143" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H143" s="128" t="s">
+      <c r="F143" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G143" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H143" s="113" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="134" t="s">
+    <row r="144" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="B144" s="135" t="s">
+      <c r="B144" s="120" t="s">
         <v>142</v>
       </c>
-      <c r="C144" s="136" t="s">
+      <c r="C144" s="121" t="s">
         <v>155</v>
       </c>
-      <c r="D144" s="137" t="s">
+      <c r="D144" s="122" t="s">
         <v>157</v>
       </c>
-      <c r="E144" s="135"/>
-      <c r="F144" s="135" t="s">
-        <v>5</v>
-      </c>
-      <c r="G144" s="135" t="s">
-        <v>5</v>
-      </c>
-      <c r="H144" s="138" t="s">
+      <c r="E144" s="120"/>
+      <c r="F144" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G144" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H144" s="123" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="145" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="145" t="s">
+    <row r="145" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="129" t="s">
         <v>293</v>
       </c>
-      <c r="B145" s="146" t="s">
+      <c r="B145" s="130" t="s">
         <v>140</v>
       </c>
-      <c r="C145" s="147" t="s">
+      <c r="C145" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="D145" s="148" t="s">
+      <c r="D145" s="132" t="s">
         <v>295</v>
       </c>
-      <c r="E145" s="146" t="s">
+      <c r="E145" s="130" t="s">
         <v>492</v>
       </c>
-      <c r="F145" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G145" s="110"/>
-      <c r="H145" s="114" t="s">
+      <c r="F145" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G145" s="95"/>
+      <c r="H145" s="99" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="146" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="61" t="s">
         <v>293</v>
       </c>
@@ -10286,7 +10278,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="147" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="61" t="s">
         <v>293</v>
       </c>
@@ -10304,7 +10296,7 @@
       <c r="G147" s="50"/>
       <c r="H147" s="60"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="61" t="s">
         <v>293</v>
       </c>
@@ -10330,7 +10322,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="61" t="s">
         <v>293</v>
       </c>
@@ -10356,7 +10348,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="61" t="s">
         <v>293</v>
       </c>
@@ -10380,7 +10372,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="55" t="s">
         <v>293</v>
       </c>
@@ -10398,7 +10390,7 @@
       <c r="G151" s="50"/>
       <c r="H151" s="60"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="55" t="s">
         <v>293</v>
       </c>
@@ -10424,7 +10416,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="55" t="s">
         <v>293</v>
       </c>
@@ -10450,7 +10442,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="55" t="s">
         <v>293</v>
       </c>
@@ -10470,277 +10462,277 @@
       <c r="G154" s="50"/>
       <c r="H154" s="60"/>
     </row>
-    <row r="155" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="139" t="s">
+    <row r="155" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="124" t="s">
         <v>293</v>
       </c>
-      <c r="B155" s="115" t="s">
+      <c r="B155" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C155" s="116" t="s">
+      <c r="C155" s="101" t="s">
         <v>311</v>
       </c>
-      <c r="D155" s="117" t="s">
+      <c r="D155" s="102" t="s">
         <v>304</v>
       </c>
-      <c r="E155" s="115"/>
-      <c r="F155" s="115"/>
-      <c r="G155" s="115"/>
-      <c r="H155" s="141"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="119" t="s">
+      <c r="E155" s="100"/>
+      <c r="F155" s="100"/>
+      <c r="G155" s="100"/>
+      <c r="H155" s="126"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B156" s="120" t="s">
+      <c r="B156" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C156" s="121" t="s">
+      <c r="C156" s="106" t="s">
         <v>496</v>
       </c>
-      <c r="D156" s="122" t="s">
+      <c r="D156" s="107" t="s">
         <v>494</v>
       </c>
-      <c r="E156" s="120" t="s">
+      <c r="E156" s="105" t="s">
         <v>493</v>
       </c>
-      <c r="F156" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G156" s="120"/>
-      <c r="H156" s="123" t="s">
+      <c r="F156" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G156" s="105"/>
+      <c r="H156" s="108" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="124" t="s">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B157" s="125" t="s">
+      <c r="B157" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="C157" s="126" t="s">
+      <c r="C157" s="111" t="s">
         <v>496</v>
       </c>
-      <c r="D157" s="127" t="s">
+      <c r="D157" s="112" t="s">
         <v>495</v>
       </c>
-      <c r="E157" s="125"/>
-      <c r="F157" s="125"/>
-      <c r="G157" s="125"/>
-      <c r="H157" s="128"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="124" t="s">
+      <c r="E157" s="110"/>
+      <c r="F157" s="110"/>
+      <c r="G157" s="110"/>
+      <c r="H157" s="113"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B158" s="125" t="s">
+      <c r="B158" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="C158" s="126" t="s">
+      <c r="C158" s="111" t="s">
         <v>497</v>
       </c>
-      <c r="D158" s="127" t="s">
+      <c r="D158" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="E158" s="125" t="s">
+      <c r="E158" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="F158" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G158" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H158" s="128" t="s">
+      <c r="F158" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G158" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H158" s="113" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="124" t="s">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B159" s="125" t="s">
+      <c r="B159" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="C159" s="126" t="s">
+      <c r="C159" s="111" t="s">
         <v>497</v>
       </c>
-      <c r="D159" s="127" t="s">
+      <c r="D159" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="E159" s="125" t="s">
+      <c r="E159" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="F159" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G159" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H159" s="128" t="s">
+      <c r="F159" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G159" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H159" s="113" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="124" t="s">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B160" s="125" t="s">
+      <c r="B160" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="C160" s="126" t="s">
+      <c r="C160" s="111" t="s">
         <v>497</v>
       </c>
-      <c r="D160" s="127" t="s">
+      <c r="D160" s="112" t="s">
         <v>146</v>
       </c>
-      <c r="E160" s="125"/>
-      <c r="F160" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G160" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H160" s="128" t="s">
+      <c r="E160" s="110"/>
+      <c r="F160" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G160" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H160" s="113" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="124" t="s">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B161" s="125" t="s">
+      <c r="B161" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="C161" s="126" t="s">
+      <c r="C161" s="111" t="s">
         <v>498</v>
       </c>
-      <c r="D161" s="127" t="s">
+      <c r="D161" s="112" t="s">
         <v>499</v>
       </c>
-      <c r="E161" s="125" t="s">
+      <c r="E161" s="110" t="s">
         <v>493</v>
       </c>
-      <c r="F161" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G161" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H161" s="128" t="s">
+      <c r="F161" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G161" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H161" s="113" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="124" t="s">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B162" s="125" t="s">
+      <c r="B162" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="C162" s="126" t="s">
+      <c r="C162" s="111" t="s">
         <v>500</v>
       </c>
-      <c r="D162" s="127" t="s">
+      <c r="D162" s="112" t="s">
         <v>501</v>
       </c>
-      <c r="E162" s="125" t="s">
+      <c r="E162" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="F162" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G162" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H162" s="128" t="s">
+      <c r="F162" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G162" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H162" s="113" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="124" t="s">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B163" s="125" t="s">
+      <c r="B163" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="C163" s="126" t="s">
+      <c r="C163" s="111" t="s">
         <v>502</v>
       </c>
-      <c r="D163" s="127" t="s">
+      <c r="D163" s="112" t="s">
         <v>503</v>
       </c>
-      <c r="E163" s="125" t="s">
+      <c r="E163" s="110" t="s">
         <v>504</v>
       </c>
-      <c r="F163" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G163" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H163" s="128" t="s">
+      <c r="F163" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G163" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H163" s="113" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="124" t="s">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B164" s="125" t="s">
+      <c r="B164" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="C164" s="126" t="s">
+      <c r="C164" s="111" t="s">
         <v>505</v>
       </c>
-      <c r="D164" s="127" t="s">
+      <c r="D164" s="112" t="s">
         <v>506</v>
       </c>
-      <c r="E164" s="125"/>
-      <c r="F164" s="125"/>
-      <c r="G164" s="125"/>
-      <c r="H164" s="128"/>
-    </row>
-    <row r="165" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="134" t="s">
+      <c r="E164" s="110"/>
+      <c r="F164" s="110"/>
+      <c r="G164" s="110"/>
+      <c r="H164" s="113"/>
+    </row>
+    <row r="165" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B165" s="135"/>
-      <c r="C165" s="136" t="s">
+      <c r="B165" s="120"/>
+      <c r="C165" s="121" t="s">
         <v>497</v>
       </c>
-      <c r="D165" s="137"/>
-      <c r="E165" s="135"/>
-      <c r="F165" s="135"/>
-      <c r="G165" s="135"/>
-      <c r="H165" s="138"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="109" t="s">
+      <c r="D165" s="122"/>
+      <c r="E165" s="120"/>
+      <c r="F165" s="120"/>
+      <c r="G165" s="120"/>
+      <c r="H165" s="123"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166" s="94" t="s">
         <v>264</v>
       </c>
-      <c r="B166" s="110" t="s">
+      <c r="B166" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C166" s="111" t="s">
+      <c r="C166" s="96" t="s">
         <v>508</v>
       </c>
-      <c r="D166" s="112" t="s">
+      <c r="D166" s="97" t="s">
         <v>268</v>
       </c>
-      <c r="E166" s="110" t="s">
+      <c r="E166" s="95" t="s">
         <v>507</v>
       </c>
-      <c r="F166" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G166" s="110"/>
-      <c r="H166" s="114" t="s">
+      <c r="F166" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G166" s="95"/>
+      <c r="H166" s="99" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="55" t="s">
         <v>264</v>
       </c>
@@ -10766,7 +10758,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="55" t="s">
         <v>264</v>
       </c>
@@ -10784,7 +10776,7 @@
       <c r="G168" s="50"/>
       <c r="H168" s="60"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="55" t="s">
         <v>264</v>
       </c>
@@ -10810,7 +10802,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="55" t="s">
         <v>264</v>
       </c>
@@ -10836,7 +10828,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="55" t="s">
         <v>264</v>
       </c>
@@ -10860,199 +10852,199 @@
         <v>400</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="139" t="s">
+    <row r="172" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="124" t="s">
         <v>264</v>
       </c>
-      <c r="B172" s="115" t="s">
+      <c r="B172" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="C172" s="116" t="s">
+      <c r="C172" s="101" t="s">
         <v>509</v>
       </c>
-      <c r="D172" s="140" t="s">
+      <c r="D172" s="125" t="s">
         <v>271</v>
       </c>
-      <c r="E172" s="115" t="s">
+      <c r="E172" s="100" t="s">
         <v>264</v>
       </c>
-      <c r="F172" s="115" t="s">
-        <v>5</v>
-      </c>
-      <c r="G172" s="115" t="s">
-        <v>5</v>
-      </c>
-      <c r="H172" s="141" t="s">
+      <c r="F172" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G172" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H172" s="126" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="119" t="s">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="B173" s="120" t="s">
+      <c r="B173" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C173" s="121" t="s">
+      <c r="C173" s="106" t="s">
         <v>511</v>
       </c>
-      <c r="D173" s="122" t="s">
+      <c r="D173" s="107" t="s">
         <v>258</v>
       </c>
-      <c r="E173" s="120" t="s">
+      <c r="E173" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="F173" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G173" s="120"/>
-      <c r="H173" s="123" t="s">
+      <c r="F173" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G173" s="105"/>
+      <c r="H173" s="108" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="124" t="s">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="B174" s="125" t="s">
+      <c r="B174" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="C174" s="126" t="s">
+      <c r="C174" s="111" t="s">
         <v>511</v>
       </c>
-      <c r="D174" s="127" t="s">
+      <c r="D174" s="112" t="s">
         <v>260</v>
       </c>
-      <c r="E174" s="125" t="s">
+      <c r="E174" s="110" t="s">
         <v>125</v>
       </c>
-      <c r="F174" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G174" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H174" s="128" t="s">
+      <c r="F174" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G174" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H174" s="113" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="124" t="s">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A175" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="B175" s="125" t="s">
+      <c r="B175" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="C175" s="126" t="s">
+      <c r="C175" s="111" t="s">
         <v>511</v>
       </c>
-      <c r="D175" s="127" t="s">
+      <c r="D175" s="112" t="s">
         <v>259</v>
       </c>
-      <c r="E175" s="125"/>
-      <c r="F175" s="125"/>
-      <c r="G175" s="125"/>
-      <c r="H175" s="128"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="124" t="s">
+      <c r="E175" s="110"/>
+      <c r="F175" s="110"/>
+      <c r="G175" s="110"/>
+      <c r="H175" s="113"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="B176" s="125" t="s">
+      <c r="B176" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="C176" s="126" t="s">
+      <c r="C176" s="111" t="s">
         <v>512</v>
       </c>
-      <c r="D176" s="127" t="s">
+      <c r="D176" s="112" t="s">
         <v>261</v>
       </c>
-      <c r="E176" s="125" t="s">
+      <c r="E176" s="110" t="s">
         <v>125</v>
       </c>
-      <c r="F176" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G176" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H176" s="128" t="s">
+      <c r="F176" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G176" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H176" s="113" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="124" t="s">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="B177" s="125" t="s">
+      <c r="B177" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="C177" s="126" t="s">
+      <c r="C177" s="111" t="s">
         <v>512</v>
       </c>
-      <c r="D177" s="127" t="s">
+      <c r="D177" s="112" t="s">
         <v>262</v>
       </c>
-      <c r="E177" s="125" t="s">
+      <c r="E177" s="110" t="s">
         <v>125</v>
       </c>
-      <c r="F177" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G177" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H177" s="128" t="s">
+      <c r="F177" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G177" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H177" s="113" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="124" t="s">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A178" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="B178" s="125" t="s">
+      <c r="B178" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="C178" s="126" t="s">
+      <c r="C178" s="111" t="s">
         <v>512</v>
       </c>
-      <c r="D178" s="127" t="s">
+      <c r="D178" s="112" t="s">
         <v>263</v>
       </c>
-      <c r="E178" s="125"/>
-      <c r="F178" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="G178" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="H178" s="128" t="s">
+      <c r="E178" s="110"/>
+      <c r="F178" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G178" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H178" s="113" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="129" t="s">
+    <row r="179" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="B179" s="130" t="s">
+      <c r="B179" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="C179" s="131" t="s">
+      <c r="C179" s="116" t="s">
         <v>513</v>
       </c>
-      <c r="D179" s="132" t="s">
+      <c r="D179" s="117" t="s">
         <v>278</v>
       </c>
-      <c r="E179" s="130" t="s">
+      <c r="E179" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="F179" s="130" t="s">
-        <v>5</v>
-      </c>
-      <c r="G179" s="130" t="s">
-        <v>5</v>
-      </c>
-      <c r="H179" s="133" t="s">
+      <c r="F179" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="G179" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="H179" s="118" t="s">
         <v>400</v>
       </c>
     </row>
@@ -11077,30 +11069,30 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" style="66" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="66" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" style="66" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" style="66" customWidth="1"/>
+    <col min="3" max="3" width="35.109375" style="66" customWidth="1"/>
+    <col min="4" max="4" width="4.109375" customWidth="1"/>
     <col min="5" max="5" width="21" style="66" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="66" customWidth="1"/>
-    <col min="7" max="7" width="35.140625" style="66" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" style="66" customWidth="1"/>
+    <col min="7" max="7" width="35.109375" style="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="165" t="s">
         <v>315</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="103"/>
-      <c r="E1" s="101" t="s">
+      <c r="B1" s="166"/>
+      <c r="C1" s="167"/>
+      <c r="E1" s="165" t="s">
         <v>315</v>
       </c>
-      <c r="F1" s="102"/>
-      <c r="G1" s="103"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="166"/>
+      <c r="G1" s="167"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="77" t="s">
         <v>316</v>
       </c>
@@ -11120,7 +11112,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="67" t="s">
         <v>319</v>
       </c>
@@ -11136,7 +11128,7 @@
       <c r="F3" s="68"/>
       <c r="G3" s="69"/>
     </row>
-    <row r="4" spans="1:7" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="70"/>
       <c r="B4" s="71" t="s">
         <v>327</v>
@@ -11148,7 +11140,7 @@
       <c r="F4" s="71"/>
       <c r="G4" s="72"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="76"/>
       <c r="B5" s="76"/>
       <c r="C5" s="76"/>
@@ -11156,7 +11148,7 @@
       <c r="F5" s="76"/>
       <c r="G5" s="76"/>
     </row>
-    <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="67" t="s">
         <v>320</v>
       </c>
@@ -11170,7 +11162,7 @@
       <c r="F6" s="68"/>
       <c r="G6" s="69"/>
     </row>
-    <row r="7" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="73"/>
       <c r="B7" s="9" t="s">
         <v>328</v>
@@ -11182,7 +11174,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="74"/>
     </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="73"/>
       <c r="B8" s="9" t="s">
         <v>329</v>
@@ -11194,7 +11186,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="74"/>
     </row>
-    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="73"/>
       <c r="B9" s="9" t="s">
         <v>330</v>
@@ -11206,7 +11198,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="74"/>
     </row>
-    <row r="10" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="70"/>
       <c r="B10" s="71" t="s">
         <v>331</v>
@@ -11218,7 +11210,7 @@
       <c r="F10" s="71"/>
       <c r="G10" s="72"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="76"/>
       <c r="B11" s="76"/>
       <c r="C11" s="76"/>
@@ -11226,7 +11218,7 @@
       <c r="F11" s="76"/>
       <c r="G11" s="76"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="75" t="s">
         <v>325</v>
       </c>
@@ -11236,7 +11228,7 @@
       <c r="F12" s="75"/>
       <c r="G12" s="75"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -11244,7 +11236,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -11252,7 +11244,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -11260,7 +11252,7 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -11268,7 +11260,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -11276,7 +11268,7 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -11284,7 +11276,7 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -11292,7 +11284,7 @@
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -11300,7 +11292,7 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>

--- a/documentation/DataAndAPIMatchAware.xlsx
+++ b/documentation/DataAndAPIMatchAware.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\match-aware\documentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16212" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entities" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="Service Definitions" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Routing!$A$1:$E$179</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Routing!$A$1:$E$181</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="533">
   <si>
     <t>USER</t>
   </si>
@@ -1629,11 +1624,23 @@
   <si>
     <t>/facilities/deleteAllClosures/:facilityId</t>
   </si>
+  <si>
+    <t>/clubs/getClubUsers/:clubId</t>
+  </si>
+  <si>
+    <t>Retrieve all members of the club</t>
+  </si>
+  <si>
+    <t>/club_roles/addMultipleRoles/:userId/:clubId</t>
+  </si>
+  <si>
+    <t>Add multiple roles to the same user and club</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2580,26 +2587,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2922,7 +2929,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2932,45 +2939,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E316"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K292" sqref="K292"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="156" t="s">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="162" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-    </row>
-    <row r="2" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+    </row>
+    <row r="2" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="88"/>
       <c r="B2" s="88"/>
       <c r="C2" s="88"/>
       <c r="D2" s="88"/>
       <c r="E2" s="88"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="157" t="s">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="159" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="159"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="161"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
@@ -2987,7 +2994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -3004,7 +3011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -3017,7 +3024,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="21"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>89</v>
       </c>
@@ -3030,7 +3037,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="21"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>81</v>
       </c>
@@ -3043,7 +3050,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="21"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>88</v>
       </c>
@@ -3054,7 +3061,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="21"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>119</v>
       </c>
@@ -3067,7 +3074,7 @@
       </c>
       <c r="E10" s="21"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>94</v>
       </c>
@@ -3080,7 +3087,7 @@
       </c>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="80" t="s">
         <v>134</v>
       </c>
@@ -3091,17 +3098,17 @@
       <c r="D12" s="59"/>
       <c r="E12" s="47"/>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="157" t="s">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="159" t="s">
         <v>290</v>
       </c>
-      <c r="B14" s="158"/>
-      <c r="C14" s="158"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="159"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="160"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="161"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>1</v>
       </c>
@@ -3118,7 +3125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -3135,7 +3142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
@@ -3148,7 +3155,7 @@
       <c r="D17" s="5"/>
       <c r="E17" s="21"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
@@ -3161,7 +3168,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="21"/>
     </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>12</v>
       </c>
@@ -3174,17 +3181,17 @@
       <c r="D19" s="11"/>
       <c r="E19" s="22"/>
     </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="157" t="s">
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="159" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="158"/>
-      <c r="C21" s="158"/>
-      <c r="D21" s="158"/>
-      <c r="E21" s="159"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="160"/>
+      <c r="C21" s="160"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="161"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>1</v>
       </c>
@@ -3201,7 +3208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
@@ -3218,7 +3225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>12</v>
       </c>
@@ -3231,7 +3238,7 @@
       <c r="D24" s="5"/>
       <c r="E24" s="21"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>379</v>
       </c>
@@ -3242,7 +3249,7 @@
       <c r="D25" s="5"/>
       <c r="E25" s="21"/>
     </row>
-    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>380</v>
       </c>
@@ -3253,17 +3260,17 @@
       <c r="D26" s="11"/>
       <c r="E26" s="22"/>
     </row>
-    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="157" t="s">
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="159" t="s">
         <v>279</v>
       </c>
-      <c r="B28" s="158"/>
-      <c r="C28" s="158"/>
-      <c r="D28" s="158"/>
-      <c r="E28" s="159"/>
-    </row>
-    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="160"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="161"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
         <v>1</v>
       </c>
@@ -3280,7 +3287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>16</v>
       </c>
@@ -3297,7 +3304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>108</v>
       </c>
@@ -3310,7 +3317,7 @@
       <c r="D31" s="5"/>
       <c r="E31" s="21"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>109</v>
       </c>
@@ -3323,7 +3330,7 @@
       <c r="D32" s="5"/>
       <c r="E32" s="21"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>94</v>
       </c>
@@ -3336,7 +3343,7 @@
       </c>
       <c r="E33" s="21"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>119</v>
       </c>
@@ -3349,7 +3356,7 @@
       <c r="D34" s="5"/>
       <c r="E34" s="21"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>110</v>
       </c>
@@ -3362,7 +3369,7 @@
       <c r="D35" s="5"/>
       <c r="E35" s="21"/>
     </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="80" t="s">
         <v>134</v>
       </c>
@@ -3373,8 +3380,8 @@
       <c r="D36" s="59"/>
       <c r="E36" s="47"/>
     </row>
-    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="153" t="s">
         <v>359</v>
       </c>
@@ -3383,7 +3390,7 @@
       <c r="D38" s="154"/>
       <c r="E38" s="155"/>
     </row>
-    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
         <v>1</v>
       </c>
@@ -3400,7 +3407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>16</v>
       </c>
@@ -3417,7 +3424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
         <v>14</v>
       </c>
@@ -3432,7 +3439,7 @@
       </c>
       <c r="E41" s="21"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
         <v>361</v>
       </c>
@@ -3447,7 +3454,7 @@
       </c>
       <c r="E42" s="21"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="32" t="s">
         <v>363</v>
       </c>
@@ -3462,7 +3469,7 @@
       </c>
       <c r="E43" s="21"/>
     </row>
-    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="80" t="s">
         <v>244</v>
       </c>
@@ -3473,8 +3480,8 @@
       <c r="D44" s="59"/>
       <c r="E44" s="47"/>
     </row>
-    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="153" t="s">
         <v>291</v>
       </c>
@@ -3483,7 +3490,7 @@
       <c r="D46" s="154"/>
       <c r="E46" s="155"/>
     </row>
-    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
         <v>1</v>
       </c>
@@ -3500,7 +3507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>16</v>
       </c>
@@ -3517,7 +3524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>12</v>
       </c>
@@ -3532,7 +3539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>130</v>
       </c>
@@ -3545,7 +3552,7 @@
       <c r="D50" s="5"/>
       <c r="E50" s="26"/>
     </row>
-    <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>342</v>
       </c>
@@ -3558,8 +3565,8 @@
       </c>
       <c r="E51" s="34"/>
     </row>
-    <row r="52" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="153" t="s">
         <v>337</v>
       </c>
@@ -3568,7 +3575,7 @@
       <c r="D53" s="154"/>
       <c r="E53" s="155"/>
     </row>
-    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
         <v>1</v>
       </c>
@@ -3585,7 +3592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>16</v>
       </c>
@@ -3602,7 +3609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>338</v>
       </c>
@@ -3615,7 +3622,7 @@
       <c r="D56" s="5"/>
       <c r="E56" s="21"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>81</v>
       </c>
@@ -3628,7 +3635,7 @@
       <c r="D57" s="5"/>
       <c r="E57" s="21"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>344</v>
       </c>
@@ -3641,7 +3648,7 @@
       <c r="D58" s="5"/>
       <c r="E58" s="21"/>
     </row>
-    <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>339</v>
       </c>
@@ -3654,17 +3661,17 @@
       <c r="D59" s="11"/>
       <c r="E59" s="22"/>
     </row>
-    <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="157" t="s">
+    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="159" t="s">
         <v>97</v>
       </c>
-      <c r="B61" s="158"/>
-      <c r="C61" s="158"/>
-      <c r="D61" s="158"/>
-      <c r="E61" s="159"/>
-    </row>
-    <row r="62" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="160"/>
+      <c r="C61" s="160"/>
+      <c r="D61" s="160"/>
+      <c r="E61" s="161"/>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
         <v>1</v>
       </c>
@@ -3681,7 +3688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>16</v>
       </c>
@@ -3698,7 +3705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>12</v>
       </c>
@@ -3709,7 +3716,7 @@
       <c r="D64" s="5"/>
       <c r="E64" s="21"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>14</v>
       </c>
@@ -3722,7 +3729,7 @@
       <c r="D65" s="5"/>
       <c r="E65" s="21"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>367</v>
       </c>
@@ -3735,7 +3742,7 @@
       </c>
       <c r="E66" s="21"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>99</v>
       </c>
@@ -3746,7 +3753,7 @@
       <c r="D67" s="5"/>
       <c r="E67" s="21"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>98</v>
       </c>
@@ -3757,7 +3764,7 @@
       <c r="D68" s="5"/>
       <c r="E68" s="21"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>10</v>
       </c>
@@ -3768,7 +3775,7 @@
       <c r="D69" s="5"/>
       <c r="E69" s="21"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>101</v>
       </c>
@@ -3781,7 +3788,7 @@
       </c>
       <c r="E70" s="21"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>13</v>
       </c>
@@ -3792,7 +3799,7 @@
       <c r="D71" s="5"/>
       <c r="E71" s="21"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>11</v>
       </c>
@@ -3803,7 +3810,7 @@
       <c r="D72" s="5"/>
       <c r="E72" s="21"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>103</v>
       </c>
@@ -3814,7 +3821,7 @@
       <c r="D73" s="5"/>
       <c r="E73" s="21"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>104</v>
       </c>
@@ -3827,7 +3834,7 @@
       </c>
       <c r="E74" s="21"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>370</v>
       </c>
@@ -3840,7 +3847,7 @@
       <c r="D75" s="5"/>
       <c r="E75" s="21"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>371</v>
       </c>
@@ -3853,7 +3860,7 @@
       <c r="D76" s="5"/>
       <c r="E76" s="21"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>372</v>
       </c>
@@ -3866,7 +3873,7 @@
       <c r="D77" s="5"/>
       <c r="E77" s="21"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>361</v>
       </c>
@@ -3879,7 +3886,7 @@
       </c>
       <c r="E78" s="21"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>363</v>
       </c>
@@ -3892,7 +3899,7 @@
       </c>
       <c r="E79" s="21"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>100</v>
       </c>
@@ -3907,7 +3914,7 @@
       </c>
       <c r="E80" s="21"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>105</v>
       </c>
@@ -3922,7 +3929,7 @@
       </c>
       <c r="E81" s="21"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>63</v>
       </c>
@@ -3933,7 +3940,7 @@
       <c r="D82" s="5"/>
       <c r="E82" s="21"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>113</v>
       </c>
@@ -3944,7 +3951,7 @@
       <c r="D83" s="5"/>
       <c r="E83" s="21"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>94</v>
       </c>
@@ -3957,7 +3964,7 @@
       </c>
       <c r="E84" s="21"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="48" t="s">
         <v>374</v>
       </c>
@@ -3970,7 +3977,7 @@
       </c>
       <c r="E85" s="49"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="48" t="s">
         <v>111</v>
       </c>
@@ -3981,7 +3988,7 @@
       <c r="D86" s="44"/>
       <c r="E86" s="49"/>
     </row>
-    <row r="87" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
         <v>106</v>
       </c>
@@ -3994,17 +4001,17 @@
       </c>
       <c r="E87" s="22"/>
     </row>
-    <row r="88" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="89" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="157" t="s">
+    <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="159" t="s">
         <v>96</v>
       </c>
-      <c r="B89" s="158"/>
-      <c r="C89" s="158"/>
-      <c r="D89" s="158"/>
-      <c r="E89" s="159"/>
-    </row>
-    <row r="90" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="160"/>
+      <c r="C89" s="160"/>
+      <c r="D89" s="160"/>
+      <c r="E89" s="161"/>
+    </row>
+    <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="s">
         <v>1</v>
       </c>
@@ -4021,7 +4028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>16</v>
       </c>
@@ -4038,7 +4045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
         <v>12</v>
       </c>
@@ -4053,8 +4060,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="94" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="153" t="s">
         <v>280</v>
       </c>
@@ -4063,7 +4070,7 @@
       <c r="D94" s="154"/>
       <c r="E94" s="155"/>
     </row>
-    <row r="95" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="14" t="s">
         <v>1</v>
       </c>
@@ -4080,7 +4087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>16</v>
       </c>
@@ -4097,7 +4104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="32" t="s">
         <v>12</v>
       </c>
@@ -4112,7 +4119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="32" t="s">
         <v>130</v>
       </c>
@@ -4125,7 +4132,7 @@
       <c r="D98" s="5"/>
       <c r="E98" s="21"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="32" t="s">
         <v>133</v>
       </c>
@@ -4138,7 +4145,7 @@
       <c r="D99" s="5"/>
       <c r="E99" s="21"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="32" t="s">
         <v>281</v>
       </c>
@@ -4149,7 +4156,7 @@
       <c r="D100" s="5"/>
       <c r="E100" s="21"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="32" t="s">
         <v>39</v>
       </c>
@@ -4162,7 +4169,7 @@
       <c r="D101" s="5"/>
       <c r="E101" s="21"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="32" t="s">
         <v>40</v>
       </c>
@@ -4175,7 +4182,7 @@
       <c r="D102" s="5"/>
       <c r="E102" s="21"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="32" t="s">
         <v>41</v>
       </c>
@@ -4188,7 +4195,7 @@
       <c r="D103" s="9"/>
       <c r="E103" s="21"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="32" t="s">
         <v>42</v>
       </c>
@@ -4201,7 +4208,7 @@
       <c r="D104" s="5"/>
       <c r="E104" s="21"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="32" t="s">
         <v>356</v>
       </c>
@@ -4212,7 +4219,7 @@
       <c r="D105" s="5"/>
       <c r="E105" s="6"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="32" t="s">
         <v>357</v>
       </c>
@@ -4223,7 +4230,7 @@
       <c r="D106" s="5"/>
       <c r="E106" s="6"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="32" t="s">
         <v>43</v>
       </c>
@@ -4234,7 +4241,7 @@
       <c r="D107" s="5"/>
       <c r="E107" s="6"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="32" t="s">
         <v>44</v>
       </c>
@@ -4245,7 +4252,7 @@
       <c r="D108" s="5"/>
       <c r="E108" s="6"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="32" t="s">
         <v>45</v>
       </c>
@@ -4256,7 +4263,7 @@
       <c r="D109" s="5"/>
       <c r="E109" s="6"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="32" t="s">
         <v>46</v>
       </c>
@@ -4267,7 +4274,7 @@
       <c r="D110" s="5"/>
       <c r="E110" s="6"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="32" t="s">
         <v>47</v>
       </c>
@@ -4278,7 +4285,7 @@
       <c r="D111" s="5"/>
       <c r="E111" s="6"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="32" t="s">
         <v>48</v>
       </c>
@@ -4289,7 +4296,7 @@
       <c r="D112" s="5"/>
       <c r="E112" s="6"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="32" t="s">
         <v>49</v>
       </c>
@@ -4300,7 +4307,7 @@
       <c r="D113" s="5"/>
       <c r="E113" s="6"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="32" t="s">
         <v>50</v>
       </c>
@@ -4311,7 +4318,7 @@
       <c r="D114" s="5"/>
       <c r="E114" s="6"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="32" t="s">
         <v>51</v>
       </c>
@@ -4322,7 +4329,7 @@
       <c r="D115" s="5"/>
       <c r="E115" s="6"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="32" t="s">
         <v>52</v>
       </c>
@@ -4333,7 +4340,7 @@
       <c r="D116" s="5"/>
       <c r="E116" s="6"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="32" t="s">
         <v>53</v>
       </c>
@@ -4344,7 +4351,7 @@
       <c r="D117" s="5"/>
       <c r="E117" s="6"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="32" t="s">
         <v>54</v>
       </c>
@@ -4355,7 +4362,7 @@
       <c r="D118" s="5"/>
       <c r="E118" s="6"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="32" t="s">
         <v>55</v>
       </c>
@@ -4366,7 +4373,7 @@
       <c r="D119" s="5"/>
       <c r="E119" s="6"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="32" t="s">
         <v>56</v>
       </c>
@@ -4377,7 +4384,7 @@
       <c r="D120" s="5"/>
       <c r="E120" s="6"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="32" t="s">
         <v>57</v>
       </c>
@@ -4388,7 +4395,7 @@
       <c r="D121" s="5"/>
       <c r="E121" s="6"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="32" t="s">
         <v>358</v>
       </c>
@@ -4399,7 +4406,7 @@
       <c r="D122" s="51"/>
       <c r="E122" s="46"/>
     </row>
-    <row r="123" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="80" t="s">
         <v>359</v>
       </c>
@@ -4410,8 +4417,8 @@
       <c r="D123" s="59"/>
       <c r="E123" s="47"/>
     </row>
-    <row r="124" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="125" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="125" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="153" t="s">
         <v>281</v>
       </c>
@@ -4420,7 +4427,7 @@
       <c r="D125" s="154"/>
       <c r="E125" s="155"/>
     </row>
-    <row r="126" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="14" t="s">
         <v>1</v>
       </c>
@@ -4437,7 +4444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>16</v>
       </c>
@@ -4454,7 +4461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>12</v>
       </c>
@@ -4469,7 +4476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>38</v>
       </c>
@@ -4482,7 +4489,7 @@
       <c r="D129" s="5"/>
       <c r="E129" s="26"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>64</v>
       </c>
@@ -4495,7 +4502,7 @@
       <c r="D130" s="5"/>
       <c r="E130" s="26"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>65</v>
       </c>
@@ -4506,7 +4513,7 @@
       <c r="D131" s="5"/>
       <c r="E131" s="6"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>66</v>
       </c>
@@ -4517,7 +4524,7 @@
       <c r="D132" s="5"/>
       <c r="E132" s="6"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>67</v>
       </c>
@@ -4528,7 +4535,7 @@
       <c r="D133" s="5"/>
       <c r="E133" s="6"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>68</v>
       </c>
@@ -4539,7 +4546,7 @@
       <c r="D134" s="5"/>
       <c r="E134" s="6"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>71</v>
       </c>
@@ -4550,7 +4557,7 @@
       <c r="D135" s="5"/>
       <c r="E135" s="6"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>364</v>
       </c>
@@ -4561,7 +4568,7 @@
       <c r="D136" s="5"/>
       <c r="E136" s="6"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>69</v>
       </c>
@@ -4574,7 +4581,7 @@
       </c>
       <c r="E137" s="6"/>
     </row>
-    <row r="138" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="80" t="s">
         <v>359</v>
       </c>
@@ -4585,8 +4592,8 @@
       <c r="D138" s="59"/>
       <c r="E138" s="47"/>
     </row>
-    <row r="139" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="140" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="153" t="s">
         <v>381</v>
       </c>
@@ -4595,7 +4602,7 @@
       <c r="D140" s="154"/>
       <c r="E140" s="155"/>
     </row>
-    <row r="141" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="14" t="s">
         <v>1</v>
       </c>
@@ -4612,7 +4619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>16</v>
       </c>
@@ -4629,7 +4636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>63</v>
       </c>
@@ -4640,7 +4647,7 @@
       <c r="D143" s="5"/>
       <c r="E143" s="26"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>67</v>
       </c>
@@ -4651,7 +4658,7 @@
       <c r="D144" s="5"/>
       <c r="E144" s="6"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>68</v>
       </c>
@@ -4662,7 +4669,7 @@
       <c r="D145" s="5"/>
       <c r="E145" s="6"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>71</v>
       </c>
@@ -4673,7 +4680,7 @@
       <c r="D146" s="5"/>
       <c r="E146" s="6"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>364</v>
       </c>
@@ -4684,7 +4691,7 @@
       <c r="D147" s="5"/>
       <c r="E147" s="6"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>361</v>
       </c>
@@ -4699,7 +4706,7 @@
       </c>
       <c r="E148" s="21"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>363</v>
       </c>
@@ -4714,7 +4721,7 @@
       </c>
       <c r="E149" s="21"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>370</v>
       </c>
@@ -4725,7 +4732,7 @@
       <c r="D150" s="5"/>
       <c r="E150" s="21"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>371</v>
       </c>
@@ -4736,7 +4743,7 @@
       <c r="D151" s="5"/>
       <c r="E151" s="21"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>372</v>
       </c>
@@ -4747,7 +4754,7 @@
       <c r="D152" s="5"/>
       <c r="E152" s="21"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>100</v>
       </c>
@@ -4760,7 +4767,7 @@
       </c>
       <c r="E153" s="21"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>105</v>
       </c>
@@ -4773,7 +4780,7 @@
       </c>
       <c r="E154" s="21"/>
     </row>
-    <row r="155" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="10" t="s">
         <v>382</v>
       </c>
@@ -4786,8 +4793,8 @@
       </c>
       <c r="E155" s="12"/>
     </row>
-    <row r="156" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="157" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="157" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="153" t="s">
         <v>282</v>
       </c>
@@ -4796,7 +4803,7 @@
       <c r="D157" s="154"/>
       <c r="E157" s="155"/>
     </row>
-    <row r="158" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="14" t="s">
         <v>1</v>
       </c>
@@ -4813,7 +4820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>16</v>
       </c>
@@ -4830,7 +4837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>12</v>
       </c>
@@ -4845,7 +4852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>59</v>
       </c>
@@ -4856,7 +4863,7 @@
       <c r="D161" s="5"/>
       <c r="E161" s="26"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>60</v>
       </c>
@@ -4867,7 +4874,7 @@
       <c r="D162" s="5"/>
       <c r="E162" s="6"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>61</v>
       </c>
@@ -4878,7 +4885,7 @@
       <c r="D163" s="5"/>
       <c r="E163" s="6"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>62</v>
       </c>
@@ -4889,7 +4896,7 @@
       <c r="D164" s="5"/>
       <c r="E164" s="6"/>
     </row>
-    <row r="165" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="80" t="s">
         <v>365</v>
       </c>
@@ -4902,8 +4909,8 @@
       </c>
       <c r="E165" s="47"/>
     </row>
-    <row r="166" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="167" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="167" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="153" t="s">
         <v>384</v>
       </c>
@@ -4912,7 +4919,7 @@
       <c r="D167" s="154"/>
       <c r="E167" s="155"/>
     </row>
-    <row r="168" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="14" t="s">
         <v>1</v>
       </c>
@@ -4929,7 +4936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>16</v>
       </c>
@@ -4946,7 +4953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>12</v>
       </c>
@@ -4959,7 +4966,7 @@
       <c r="D170" s="5"/>
       <c r="E170" s="26"/>
     </row>
-    <row r="171" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="10" t="s">
         <v>130</v>
       </c>
@@ -4970,14 +4977,14 @@
       <c r="D171" s="11"/>
       <c r="E171" s="34"/>
     </row>
-    <row r="172" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="13"/>
       <c r="B172" s="13"/>
       <c r="C172" s="89"/>
       <c r="D172" s="13"/>
       <c r="E172" s="89"/>
     </row>
-    <row r="173" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="153" t="s">
         <v>283</v>
       </c>
@@ -4986,7 +4993,7 @@
       <c r="D173" s="154"/>
       <c r="E173" s="155"/>
     </row>
-    <row r="174" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="14" t="s">
         <v>1</v>
       </c>
@@ -5003,7 +5010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>16</v>
       </c>
@@ -5020,7 +5027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>12</v>
       </c>
@@ -5035,7 +5042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>130</v>
       </c>
@@ -5048,7 +5055,7 @@
       <c r="D177" s="5"/>
       <c r="E177" s="21"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>11</v>
       </c>
@@ -5059,7 +5066,7 @@
       <c r="D178" s="5"/>
       <c r="E178" s="21"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>13</v>
       </c>
@@ -5070,7 +5077,7 @@
       <c r="D179" s="5"/>
       <c r="E179" s="21"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>14</v>
       </c>
@@ -5083,7 +5090,7 @@
       <c r="D180" s="9"/>
       <c r="E180" s="21"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>345</v>
       </c>
@@ -5096,7 +5103,7 @@
       </c>
       <c r="E181" s="21"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="32" t="s">
         <v>347</v>
       </c>
@@ -5109,7 +5116,7 @@
       </c>
       <c r="E182" s="46"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="32" t="s">
         <v>349</v>
       </c>
@@ -5122,7 +5129,7 @@
       </c>
       <c r="E183" s="46"/>
     </row>
-    <row r="184" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="10" t="s">
         <v>342</v>
       </c>
@@ -5135,8 +5142,8 @@
       </c>
       <c r="E184" s="34"/>
     </row>
-    <row r="185" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="186" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="186" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="153" t="s">
         <v>91</v>
       </c>
@@ -5145,7 +5152,7 @@
       <c r="D186" s="154"/>
       <c r="E186" s="155"/>
     </row>
-    <row r="187" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="14" t="s">
         <v>1</v>
       </c>
@@ -5162,7 +5169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>16</v>
       </c>
@@ -5179,7 +5186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>10</v>
       </c>
@@ -5192,7 +5199,7 @@
       <c r="D189" s="5"/>
       <c r="E189" s="21"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>88</v>
       </c>
@@ -5205,7 +5212,7 @@
       <c r="D190" s="5"/>
       <c r="E190" s="21"/>
     </row>
-    <row r="191" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="10" t="s">
         <v>339</v>
       </c>
@@ -5216,8 +5223,8 @@
       <c r="D191" s="11"/>
       <c r="E191" s="22"/>
     </row>
-    <row r="192" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="193" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="193" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="153" t="s">
         <v>284</v>
       </c>
@@ -5226,7 +5233,7 @@
       <c r="D193" s="154"/>
       <c r="E193" s="155"/>
     </row>
-    <row r="194" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="41" t="s">
         <v>1</v>
       </c>
@@ -5243,7 +5250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="36" t="s">
         <v>16</v>
       </c>
@@ -5260,7 +5267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="10" t="s">
         <v>12</v>
       </c>
@@ -5275,17 +5282,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="198" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="157" t="s">
+    <row r="197" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="198" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="159" t="s">
         <v>123</v>
       </c>
-      <c r="B198" s="158"/>
-      <c r="C198" s="158"/>
-      <c r="D198" s="158"/>
-      <c r="E198" s="159"/>
-    </row>
-    <row r="199" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B198" s="160"/>
+      <c r="C198" s="160"/>
+      <c r="D198" s="160"/>
+      <c r="E198" s="161"/>
+    </row>
+    <row r="199" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="14" t="s">
         <v>1</v>
       </c>
@@ -5302,7 +5309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>16</v>
       </c>
@@ -5319,7 +5326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>12</v>
       </c>
@@ -5332,7 +5339,7 @@
       <c r="D201" s="5"/>
       <c r="E201" s="21"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>379</v>
       </c>
@@ -5343,7 +5350,7 @@
       <c r="D202" s="5"/>
       <c r="E202" s="21"/>
     </row>
-    <row r="203" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="10" t="s">
         <v>380</v>
       </c>
@@ -5354,17 +5361,17 @@
       <c r="D203" s="11"/>
       <c r="E203" s="22"/>
     </row>
-    <row r="204" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="205" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A205" s="157" t="s">
+    <row r="204" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="205" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="159" t="s">
         <v>134</v>
       </c>
-      <c r="B205" s="158"/>
-      <c r="C205" s="158"/>
-      <c r="D205" s="158"/>
-      <c r="E205" s="159"/>
-    </row>
-    <row r="206" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B205" s="160"/>
+      <c r="C205" s="160"/>
+      <c r="D205" s="160"/>
+      <c r="E205" s="161"/>
+    </row>
+    <row r="206" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="14" t="s">
         <v>1</v>
       </c>
@@ -5381,7 +5388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>16</v>
       </c>
@@ -5398,7 +5405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
         <v>97</v>
       </c>
@@ -5409,7 +5416,7 @@
       <c r="D208" s="5"/>
       <c r="E208" s="21"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>117</v>
       </c>
@@ -5420,7 +5427,7 @@
       <c r="D209" s="5"/>
       <c r="E209" s="21"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
         <v>115</v>
       </c>
@@ -5431,7 +5438,7 @@
       <c r="D210" s="5"/>
       <c r="E210" s="21"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
         <v>116</v>
       </c>
@@ -5442,7 +5449,7 @@
       <c r="D211" s="5"/>
       <c r="E211" s="21"/>
     </row>
-    <row r="212" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="80" t="s">
         <v>378</v>
       </c>
@@ -5455,17 +5462,17 @@
       </c>
       <c r="E212" s="47"/>
     </row>
-    <row r="213" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="214" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A214" s="157" t="s">
+    <row r="213" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="214" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="159" t="s">
         <v>285</v>
       </c>
-      <c r="B214" s="158"/>
-      <c r="C214" s="158"/>
-      <c r="D214" s="158"/>
-      <c r="E214" s="159"/>
-    </row>
-    <row r="215" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B214" s="160"/>
+      <c r="C214" s="160"/>
+      <c r="D214" s="160"/>
+      <c r="E214" s="161"/>
+    </row>
+    <row r="215" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="14" t="s">
         <v>1</v>
       </c>
@@ -5482,7 +5489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>16</v>
       </c>
@@ -5499,7 +5506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>94</v>
       </c>
@@ -5514,7 +5521,7 @@
       </c>
       <c r="E217" s="21"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
         <v>14</v>
       </c>
@@ -5529,7 +5536,7 @@
       </c>
       <c r="E218" s="21"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>376</v>
       </c>
@@ -5542,7 +5549,7 @@
       </c>
       <c r="E219" s="21"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
         <v>97</v>
       </c>
@@ -5553,7 +5560,7 @@
       <c r="D220" s="5"/>
       <c r="E220" s="21"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>117</v>
       </c>
@@ -5564,7 +5571,7 @@
       <c r="D221" s="5"/>
       <c r="E221" s="21"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
         <v>115</v>
       </c>
@@ -5575,7 +5582,7 @@
       <c r="D222" s="5"/>
       <c r="E222" s="21"/>
     </row>
-    <row r="223" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="10" t="s">
         <v>116</v>
       </c>
@@ -5586,8 +5593,8 @@
       <c r="D223" s="11"/>
       <c r="E223" s="22"/>
     </row>
-    <row r="224" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="225" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="225" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="153" t="s">
         <v>286</v>
       </c>
@@ -5596,7 +5603,7 @@
       <c r="D225" s="154"/>
       <c r="E225" s="155"/>
     </row>
-    <row r="226" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="14" t="s">
         <v>1</v>
       </c>
@@ -5613,7 +5620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>16</v>
       </c>
@@ -5630,7 +5637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
         <v>12</v>
       </c>
@@ -5645,7 +5652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>130</v>
       </c>
@@ -5658,7 +5665,7 @@
       <c r="D229" s="5"/>
       <c r="E229" s="21"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
         <v>131</v>
       </c>
@@ -5669,7 +5676,7 @@
       <c r="D230" s="5"/>
       <c r="E230" s="21"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>133</v>
       </c>
@@ -5680,7 +5687,7 @@
       <c r="D231" s="5"/>
       <c r="E231" s="21"/>
     </row>
-    <row r="232" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="10" t="s">
         <v>132</v>
       </c>
@@ -5691,17 +5698,17 @@
       <c r="D232" s="11"/>
       <c r="E232" s="22"/>
     </row>
-    <row r="233" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="234" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A234" s="160" t="s">
+    <row r="233" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="234" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="156" t="s">
         <v>287</v>
       </c>
-      <c r="B234" s="161"/>
-      <c r="C234" s="161"/>
-      <c r="D234" s="161"/>
-      <c r="E234" s="162"/>
-    </row>
-    <row r="235" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B234" s="157"/>
+      <c r="C234" s="157"/>
+      <c r="D234" s="157"/>
+      <c r="E234" s="158"/>
+    </row>
+    <row r="235" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="14" t="s">
         <v>1</v>
       </c>
@@ -5718,7 +5725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>16</v>
       </c>
@@ -5735,7 +5742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
         <v>12</v>
       </c>
@@ -5752,7 +5759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="7"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -5761,7 +5768,7 @@
       </c>
       <c r="E238" s="6"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="7"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -5770,7 +5777,7 @@
       </c>
       <c r="E239" s="6"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="7"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -5779,7 +5786,7 @@
       </c>
       <c r="E240" s="6"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="7"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -5788,7 +5795,7 @@
       </c>
       <c r="E241" s="6"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="7"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -5797,7 +5804,7 @@
       </c>
       <c r="E242" s="6"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="7"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -5806,7 +5813,7 @@
       </c>
       <c r="E243" s="6"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="7"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -5815,7 +5822,7 @@
       </c>
       <c r="E244" s="6"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="7"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -5824,7 +5831,7 @@
       </c>
       <c r="E245" s="6"/>
     </row>
-    <row r="246" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="10" t="s">
         <v>389</v>
       </c>
@@ -5837,8 +5844,8 @@
       <c r="D246" s="11"/>
       <c r="E246" s="22"/>
     </row>
-    <row r="247" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="248" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="248" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="153" t="s">
         <v>15</v>
       </c>
@@ -5847,7 +5854,7 @@
       <c r="D248" s="154"/>
       <c r="E248" s="155"/>
     </row>
-    <row r="249" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="14" t="s">
         <v>1</v>
       </c>
@@ -5864,7 +5871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>16</v>
       </c>
@@ -5881,7 +5888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
         <v>10</v>
       </c>
@@ -5894,7 +5901,7 @@
       <c r="D251" s="82"/>
       <c r="E251" s="6"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
         <v>17</v>
       </c>
@@ -5907,7 +5914,7 @@
       <c r="D252" s="82"/>
       <c r="E252" s="6"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
         <v>18</v>
       </c>
@@ -5920,7 +5927,7 @@
       </c>
       <c r="E253" s="6"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
         <v>24</v>
       </c>
@@ -5933,7 +5940,7 @@
       </c>
       <c r="E254" s="6"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
         <v>354</v>
       </c>
@@ -5946,7 +5953,7 @@
       </c>
       <c r="E255" s="6"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
         <v>25</v>
       </c>
@@ -5959,7 +5966,7 @@
       </c>
       <c r="E256" s="6"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
         <v>27</v>
       </c>
@@ -5972,7 +5979,7 @@
       </c>
       <c r="E257" s="6"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
         <v>28</v>
       </c>
@@ -5985,7 +5992,7 @@
       </c>
       <c r="E258" s="6"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
         <v>29</v>
       </c>
@@ -5998,7 +6005,7 @@
       </c>
       <c r="E259" s="6"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
         <v>30</v>
       </c>
@@ -6011,7 +6018,7 @@
       </c>
       <c r="E260" s="6"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
         <v>31</v>
       </c>
@@ -6024,7 +6031,7 @@
       </c>
       <c r="E261" s="6"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
         <v>32</v>
       </c>
@@ -6037,7 +6044,7 @@
       </c>
       <c r="E262" s="6"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
         <v>355</v>
       </c>
@@ -6050,7 +6057,7 @@
       </c>
       <c r="E263" s="6"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
         <v>33</v>
       </c>
@@ -6063,7 +6070,7 @@
       </c>
       <c r="E264" s="6"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
         <v>34</v>
       </c>
@@ -6076,7 +6083,7 @@
       </c>
       <c r="E265" s="6"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
         <v>35</v>
       </c>
@@ -6089,7 +6096,7 @@
       </c>
       <c r="E266" s="6"/>
     </row>
-    <row r="267" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="10" t="s">
         <v>36</v>
       </c>
@@ -6102,14 +6109,14 @@
       </c>
       <c r="E267" s="12"/>
     </row>
-    <row r="268" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="81"/>
       <c r="B268" s="81"/>
       <c r="C268" s="81"/>
       <c r="D268" s="81"/>
       <c r="E268" s="81"/>
     </row>
-    <row r="269" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="153" t="s">
         <v>288</v>
       </c>
@@ -6118,7 +6125,7 @@
       <c r="D269" s="154"/>
       <c r="E269" s="155"/>
     </row>
-    <row r="270" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="14" t="s">
         <v>1</v>
       </c>
@@ -6135,7 +6142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>16</v>
       </c>
@@ -6152,7 +6159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
         <v>12</v>
       </c>
@@ -6165,7 +6172,7 @@
       <c r="D272" s="5"/>
       <c r="E272" s="26"/>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
         <v>292</v>
       </c>
@@ -6178,7 +6185,7 @@
       <c r="D273" s="5"/>
       <c r="E273" s="26"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
         <v>17</v>
       </c>
@@ -6191,7 +6198,7 @@
       <c r="D274" s="5"/>
       <c r="E274" s="26"/>
     </row>
-    <row r="275" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="80" t="s">
         <v>89</v>
       </c>
@@ -6202,8 +6209,8 @@
       <c r="D275" s="59"/>
       <c r="E275" s="47"/>
     </row>
-    <row r="276" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="277" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="277" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="153" t="s">
         <v>314</v>
       </c>
@@ -6212,7 +6219,7 @@
       <c r="D277" s="154"/>
       <c r="E277" s="155"/>
     </row>
-    <row r="278" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="14" t="s">
         <v>1</v>
       </c>
@@ -6229,7 +6236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>88</v>
       </c>
@@ -6242,7 +6249,7 @@
       <c r="D279" s="4"/>
       <c r="E279" s="25"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
         <v>344</v>
       </c>
@@ -6255,7 +6262,7 @@
       <c r="D280" s="5"/>
       <c r="E280" s="26"/>
     </row>
-    <row r="281" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="10" t="s">
         <v>81</v>
       </c>
@@ -6268,17 +6275,17 @@
       <c r="D281" s="11"/>
       <c r="E281" s="34"/>
     </row>
-    <row r="282" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="283" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A283" s="157" t="s">
+    <row r="282" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="283" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="159" t="s">
         <v>289</v>
       </c>
-      <c r="B283" s="158"/>
-      <c r="C283" s="158"/>
-      <c r="D283" s="158"/>
-      <c r="E283" s="159"/>
-    </row>
-    <row r="284" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B283" s="160"/>
+      <c r="C283" s="160"/>
+      <c r="D283" s="160"/>
+      <c r="E283" s="161"/>
+    </row>
+    <row r="284" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="30" t="s">
         <v>1</v>
       </c>
@@ -6295,7 +6302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="31" t="s">
         <v>16</v>
       </c>
@@ -6312,7 +6319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="32" t="s">
         <v>72</v>
       </c>
@@ -6325,7 +6332,7 @@
       <c r="D286" s="5"/>
       <c r="E286" s="21"/>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="32" t="s">
         <v>73</v>
       </c>
@@ -6338,7 +6345,7 @@
       <c r="D287" s="5"/>
       <c r="E287" s="21"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="32" t="s">
         <v>74</v>
       </c>
@@ -6351,7 +6358,7 @@
       <c r="D288" s="5"/>
       <c r="E288" s="21"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="32" t="s">
         <v>75</v>
       </c>
@@ -6364,7 +6371,7 @@
       <c r="D289" s="5"/>
       <c r="E289" s="21"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="32" t="s">
         <v>76</v>
       </c>
@@ -6377,7 +6384,7 @@
       <c r="D290" s="5"/>
       <c r="E290" s="21"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="32" t="s">
         <v>129</v>
       </c>
@@ -6390,7 +6397,7 @@
       <c r="D291" s="5"/>
       <c r="E291" s="21"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="32" t="s">
         <v>340</v>
       </c>
@@ -6403,7 +6410,7 @@
       </c>
       <c r="E292" s="21"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="32" t="s">
         <v>39</v>
       </c>
@@ -6414,7 +6421,7 @@
       <c r="D293" s="5"/>
       <c r="E293" s="21"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="32" t="s">
         <v>40</v>
       </c>
@@ -6425,7 +6432,7 @@
       <c r="D294" s="5"/>
       <c r="E294" s="21"/>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="32" t="s">
         <v>41</v>
       </c>
@@ -6436,7 +6443,7 @@
       <c r="D295" s="5"/>
       <c r="E295" s="21"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="32" t="s">
         <v>77</v>
       </c>
@@ -6447,7 +6454,7 @@
       <c r="D296" s="5"/>
       <c r="E296" s="21"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="32" t="s">
         <v>42</v>
       </c>
@@ -6458,7 +6465,7 @@
       <c r="D297" s="5"/>
       <c r="E297" s="21"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="7" t="s">
         <v>121</v>
       </c>
@@ -6471,7 +6478,7 @@
       </c>
       <c r="E298" s="21"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="7" t="s">
         <v>388</v>
       </c>
@@ -6484,7 +6491,7 @@
       </c>
       <c r="E299" s="21"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="7" t="s">
         <v>78</v>
       </c>
@@ -6495,7 +6502,7 @@
       <c r="D300" s="5"/>
       <c r="E300" s="21"/>
     </row>
-    <row r="301" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="10" t="s">
         <v>79</v>
       </c>
@@ -6506,8 +6513,8 @@
       <c r="D301" s="11"/>
       <c r="E301" s="22"/>
     </row>
-    <row r="302" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="303" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="303" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="153" t="s">
         <v>135</v>
       </c>
@@ -6516,7 +6523,7 @@
       <c r="D303" s="154"/>
       <c r="E303" s="155"/>
     </row>
-    <row r="304" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="14" t="s">
         <v>1</v>
       </c>
@@ -6533,7 +6540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>16</v>
       </c>
@@ -6550,7 +6557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="7" t="s">
         <v>127</v>
       </c>
@@ -6565,7 +6572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="7" t="s">
         <v>128</v>
       </c>
@@ -6576,7 +6583,7 @@
       <c r="D307" s="5"/>
       <c r="E307" s="26"/>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
         <v>129</v>
       </c>
@@ -6589,7 +6596,7 @@
       <c r="D308" s="5"/>
       <c r="E308" s="26"/>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="32" t="s">
         <v>81</v>
       </c>
@@ -6602,7 +6609,7 @@
       <c r="D309" s="51"/>
       <c r="E309" s="46"/>
     </row>
-    <row r="310" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="80" t="s">
         <v>94</v>
       </c>
@@ -6615,8 +6622,8 @@
       </c>
       <c r="E310" s="47"/>
     </row>
-    <row r="311" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="312" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="312" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="153" t="s">
         <v>125</v>
       </c>
@@ -6625,7 +6632,7 @@
       <c r="D312" s="154"/>
       <c r="E312" s="155"/>
     </row>
-    <row r="313" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="14" t="s">
         <v>1</v>
       </c>
@@ -6642,7 +6649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>16</v>
       </c>
@@ -6659,7 +6666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="7" t="s">
         <v>0</v>
       </c>
@@ -6674,7 +6681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="10" t="s">
         <v>126</v>
       </c>
@@ -6689,6 +6696,28 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="A125:E125"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A173:E173"/>
+    <mergeCell ref="A186:E186"/>
+    <mergeCell ref="A193:E193"/>
+    <mergeCell ref="A198:E198"/>
+    <mergeCell ref="A205:E205"/>
+    <mergeCell ref="A214:E214"/>
+    <mergeCell ref="A225:E225"/>
     <mergeCell ref="A303:E303"/>
     <mergeCell ref="A312:E312"/>
     <mergeCell ref="A234:E234"/>
@@ -6696,28 +6725,6 @@
     <mergeCell ref="A269:E269"/>
     <mergeCell ref="A277:E277"/>
     <mergeCell ref="A283:E283"/>
-    <mergeCell ref="A193:E193"/>
-    <mergeCell ref="A198:E198"/>
-    <mergeCell ref="A205:E205"/>
-    <mergeCell ref="A214:E214"/>
-    <mergeCell ref="A225:E225"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="A173:E173"/>
-    <mergeCell ref="A186:E186"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="A94:E94"/>
-    <mergeCell ref="A125:E125"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6729,26 +6736,26 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H179"/>
+  <dimension ref="A1:H181"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J67" sqref="J67"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="54" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="54" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" style="54" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="54" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" style="54" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="54" customWidth="1"/>
     <col min="10" max="10" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="163" t="s">
         <v>136</v>
       </c>
@@ -6760,7 +6767,7 @@
       <c r="G1" s="164"/>
       <c r="H1" s="164"/>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="91" t="s">
         <v>137</v>
       </c>
@@ -6786,7 +6793,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="104" t="s">
         <v>92</v>
       </c>
@@ -6810,7 +6817,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="109" t="s">
         <v>92</v>
       </c>
@@ -6836,7 +6843,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="109" t="s">
         <v>92</v>
       </c>
@@ -6854,7 +6861,7 @@
       <c r="G5" s="110"/>
       <c r="H5" s="113"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="109" t="s">
         <v>92</v>
       </c>
@@ -6880,7 +6887,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="109" t="s">
         <v>92</v>
       </c>
@@ -6906,7 +6913,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="109" t="s">
         <v>92</v>
       </c>
@@ -6930,7 +6937,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="109" t="s">
         <v>92</v>
       </c>
@@ -6956,7 +6963,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="119" t="s">
         <v>92</v>
       </c>
@@ -6982,7 +6989,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="94" t="s">
         <v>17</v>
       </c>
@@ -7006,7 +7013,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="55" t="s">
         <v>17</v>
       </c>
@@ -7032,7 +7039,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="55" t="s">
         <v>17</v>
       </c>
@@ -7050,7 +7057,7 @@
       <c r="G13" s="50"/>
       <c r="H13" s="60"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="55" t="s">
         <v>17</v>
       </c>
@@ -7076,7 +7083,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="55" t="s">
         <v>17</v>
       </c>
@@ -7102,7 +7109,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="124" t="s">
         <v>17</v>
       </c>
@@ -7126,7 +7133,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="104" t="s">
         <v>107</v>
       </c>
@@ -7150,7 +7157,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="109" t="s">
         <v>107</v>
       </c>
@@ -7176,7 +7183,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="109" t="s">
         <v>107</v>
       </c>
@@ -7194,7 +7201,7 @@
       <c r="G19" s="110"/>
       <c r="H19" s="113"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="109" t="s">
         <v>107</v>
       </c>
@@ -7220,7 +7227,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="109" t="s">
         <v>107</v>
       </c>
@@ -7246,7 +7253,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="109" t="s">
         <v>107</v>
       </c>
@@ -7270,7 +7277,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="109" t="s">
         <v>107</v>
       </c>
@@ -7296,7 +7303,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="119" t="s">
         <v>107</v>
       </c>
@@ -7322,7 +7329,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="94" t="s">
         <v>522</v>
       </c>
@@ -7346,7 +7353,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="55" t="s">
         <v>522</v>
       </c>
@@ -7372,7 +7379,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="55" t="s">
         <v>522</v>
       </c>
@@ -7390,7 +7397,7 @@
       <c r="G27" s="50"/>
       <c r="H27" s="60"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="55" t="s">
         <v>522</v>
       </c>
@@ -7416,7 +7423,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="55" t="s">
         <v>522</v>
       </c>
@@ -7442,7 +7449,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="56" t="s">
         <v>522</v>
       </c>
@@ -7466,7 +7473,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="133" t="s">
         <v>89</v>
       </c>
@@ -7490,7 +7497,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="109" t="s">
         <v>89</v>
       </c>
@@ -7516,7 +7523,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="109" t="s">
         <v>89</v>
       </c>
@@ -7534,7 +7541,7 @@
       <c r="G33" s="110"/>
       <c r="H33" s="113"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="109" t="s">
         <v>89</v>
       </c>
@@ -7560,7 +7567,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="109" t="s">
         <v>89</v>
       </c>
@@ -7586,7 +7593,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="119" t="s">
         <v>89</v>
       </c>
@@ -7610,206 +7617,214 @@
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="137" t="s">
+    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="119" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="120" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="121" t="s">
+        <v>529</v>
+      </c>
+      <c r="D37" s="122" t="s">
+        <v>530</v>
+      </c>
+      <c r="E37" s="120" t="s">
+        <v>493</v>
+      </c>
+      <c r="F37" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" s="123" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="137" t="s">
         <v>515</v>
       </c>
-      <c r="B37" s="138" t="s">
+      <c r="B38" s="138" t="s">
         <v>140</v>
       </c>
-      <c r="C37" s="139" t="s">
+      <c r="C38" s="139" t="s">
         <v>519</v>
       </c>
-      <c r="D37" s="140" t="s">
+      <c r="D38" s="140" t="s">
         <v>516</v>
       </c>
-      <c r="E37" s="138" t="s">
+      <c r="E38" s="138" t="s">
         <v>517</v>
       </c>
-      <c r="F37" s="138" t="s">
-        <v>5</v>
-      </c>
-      <c r="G37" s="138"/>
-      <c r="H37" s="141" t="s">
+      <c r="F38" s="138" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="138"/>
+      <c r="H38" s="141" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="147" t="s">
-        <v>515</v>
-      </c>
-      <c r="B38" s="142" t="s">
-        <v>141</v>
-      </c>
-      <c r="C38" s="143" t="s">
-        <v>519</v>
-      </c>
-      <c r="D38" s="144" t="s">
-        <v>518</v>
-      </c>
-      <c r="E38" s="142" t="s">
-        <v>515</v>
-      </c>
-      <c r="F38" s="142" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" s="142" t="s">
-        <v>5</v>
-      </c>
-      <c r="H38" s="145" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="147" t="s">
         <v>515</v>
       </c>
       <c r="B39" s="142" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C39" s="143" t="s">
         <v>519</v>
       </c>
       <c r="D39" s="144" t="s">
-        <v>417</v>
-      </c>
-      <c r="E39" s="142"/>
-      <c r="F39" s="142"/>
-      <c r="G39" s="142"/>
-      <c r="H39" s="145"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+      <c r="E39" s="142" t="s">
+        <v>515</v>
+      </c>
+      <c r="F39" s="142" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="142" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39" s="145" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="147" t="s">
         <v>515</v>
       </c>
       <c r="B40" s="142" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" s="143" t="s">
+        <v>519</v>
+      </c>
+      <c r="D40" s="144" t="s">
+        <v>417</v>
+      </c>
+      <c r="E40" s="142"/>
+      <c r="F40" s="142"/>
+      <c r="G40" s="142"/>
+      <c r="H40" s="145"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="147" t="s">
+        <v>515</v>
+      </c>
+      <c r="B41" s="142" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="143" t="s">
+        <v>531</v>
+      </c>
+      <c r="D41" s="144" t="s">
+        <v>532</v>
+      </c>
+      <c r="E41" s="142" t="s">
+        <v>517</v>
+      </c>
+      <c r="F41" s="142" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="142" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="145" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="147" t="s">
+        <v>515</v>
+      </c>
+      <c r="B42" s="142" t="s">
         <v>140</v>
       </c>
-      <c r="C40" s="143" t="s">
+      <c r="C42" s="143" t="s">
         <v>520</v>
       </c>
-      <c r="D40" s="144" t="s">
+      <c r="D42" s="144" t="s">
         <v>514</v>
       </c>
-      <c r="E40" s="142" t="s">
+      <c r="E42" s="142" t="s">
         <v>493</v>
       </c>
-      <c r="F40" s="142" t="s">
-        <v>5</v>
-      </c>
-      <c r="G40" s="142" t="s">
-        <v>5</v>
-      </c>
-      <c r="H40" s="145" t="s">
+      <c r="F42" s="142" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="142" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="145" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="148" t="s">
+    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="148" t="s">
         <v>515</v>
       </c>
-      <c r="B41" s="149" t="s">
+      <c r="B43" s="149" t="s">
         <v>140</v>
       </c>
-      <c r="C41" s="150" t="s">
+      <c r="C43" s="150" t="s">
         <v>521</v>
       </c>
-      <c r="D41" s="151" t="s">
+      <c r="D43" s="151" t="s">
         <v>418</v>
       </c>
-      <c r="E41" s="149" t="s">
+      <c r="E43" s="149" t="s">
         <v>413</v>
       </c>
-      <c r="F41" s="149" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="149" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="152" t="s">
+      <c r="F43" s="149" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="149" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="152" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="133" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="133" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="134" t="s">
+      <c r="B44" s="134" t="s">
         <v>140</v>
       </c>
-      <c r="C42" s="135" t="s">
+      <c r="C44" s="135" t="s">
         <v>419</v>
       </c>
-      <c r="D42" s="136" t="s">
+      <c r="D44" s="136" t="s">
         <v>214</v>
       </c>
-      <c r="E42" s="134" t="s">
+      <c r="E44" s="134" t="s">
         <v>425</v>
       </c>
-      <c r="F42" s="134" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="134"/>
-      <c r="H42" s="146" t="s">
+      <c r="F44" s="134" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="134"/>
+      <c r="H44" s="146" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="109" t="s">
-        <v>97</v>
-      </c>
-      <c r="B43" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C43" s="111" t="s">
-        <v>419</v>
-      </c>
-      <c r="D43" s="112" t="s">
-        <v>216</v>
-      </c>
-      <c r="E43" s="110" t="s">
-        <v>97</v>
-      </c>
-      <c r="F43" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="113" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="109" t="s">
-        <v>97</v>
-      </c>
-      <c r="B44" s="110" t="s">
-        <v>142</v>
-      </c>
-      <c r="C44" s="111" t="s">
-        <v>419</v>
-      </c>
-      <c r="D44" s="112" t="s">
-        <v>215</v>
-      </c>
-      <c r="E44" s="110"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="113"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="109" t="s">
         <v>97</v>
       </c>
       <c r="B45" s="110" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C45" s="111" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D45" s="112" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="E45" s="110" t="s">
         <v>97</v>
@@ -7821,49 +7836,43 @@
         <v>5</v>
       </c>
       <c r="H45" s="113" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="109" t="s">
         <v>97</v>
       </c>
       <c r="B46" s="110" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C46" s="111" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D46" s="112" t="s">
-        <v>217</v>
-      </c>
-      <c r="E46" s="110" t="s">
-        <v>97</v>
-      </c>
-      <c r="F46" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="113" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+      <c r="E46" s="110"/>
+      <c r="F46" s="110"/>
+      <c r="G46" s="110"/>
+      <c r="H46" s="113"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="109" t="s">
         <v>97</v>
       </c>
       <c r="B47" s="110" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C47" s="111" t="s">
         <v>420</v>
       </c>
       <c r="D47" s="112" t="s">
-        <v>218</v>
-      </c>
-      <c r="E47" s="110"/>
+        <v>254</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>97</v>
+      </c>
       <c r="F47" s="110" t="s">
         <v>5</v>
       </c>
@@ -7874,21 +7883,21 @@
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="109" t="s">
         <v>97</v>
       </c>
       <c r="B48" s="110" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C48" s="111" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D48" s="112" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E48" s="110" t="s">
-        <v>425</v>
+        <v>97</v>
       </c>
       <c r="F48" s="110" t="s">
         <v>5</v>
@@ -7897,25 +7906,23 @@
         <v>5</v>
       </c>
       <c r="H48" s="113" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="109" t="s">
         <v>97</v>
       </c>
       <c r="B49" s="110" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C49" s="111" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D49" s="112" t="s">
-        <v>222</v>
-      </c>
-      <c r="E49" s="110" t="s">
-        <v>425</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="E49" s="110"/>
       <c r="F49" s="110" t="s">
         <v>5</v>
       </c>
@@ -7926,7 +7933,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="109" t="s">
         <v>97</v>
       </c>
@@ -7934,10 +7941,10 @@
         <v>140</v>
       </c>
       <c r="C50" s="111" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D50" s="112" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E50" s="110" t="s">
         <v>425</v>
@@ -7952,112 +7959,120 @@
         <v>400</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="119" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="B51" s="120" t="s">
+      <c r="B51" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="C51" s="121" t="s">
+      <c r="C51" s="111" t="s">
+        <v>422</v>
+      </c>
+      <c r="D51" s="112" t="s">
+        <v>222</v>
+      </c>
+      <c r="E51" s="110" t="s">
+        <v>425</v>
+      </c>
+      <c r="F51" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H51" s="113" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="110" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" s="111" t="s">
+        <v>423</v>
+      </c>
+      <c r="D52" s="112" t="s">
+        <v>219</v>
+      </c>
+      <c r="E52" s="110" t="s">
+        <v>425</v>
+      </c>
+      <c r="F52" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="113" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="119" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="120" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" s="121" t="s">
         <v>424</v>
       </c>
-      <c r="D51" s="122" t="s">
+      <c r="D53" s="122" t="s">
         <v>221</v>
       </c>
-      <c r="E51" s="120" t="s">
+      <c r="E53" s="120" t="s">
         <v>425</v>
       </c>
-      <c r="F51" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G51" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="H51" s="123" t="s">
+      <c r="F53" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H53" s="123" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="94" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="94" t="s">
         <v>207</v>
       </c>
-      <c r="B52" s="95" t="s">
+      <c r="B54" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C52" s="96" t="s">
+      <c r="C54" s="96" t="s">
         <v>208</v>
       </c>
-      <c r="D52" s="97" t="s">
+      <c r="D54" s="97" t="s">
         <v>427</v>
       </c>
-      <c r="E52" s="95" t="s">
+      <c r="E54" s="95" t="s">
         <v>426</v>
       </c>
-      <c r="F52" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="95"/>
-      <c r="H52" s="99" t="s">
+      <c r="F54" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="95"/>
+      <c r="H54" s="99" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="55" t="s">
-        <v>207</v>
-      </c>
-      <c r="B53" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C53" s="52" t="s">
-        <v>208</v>
-      </c>
-      <c r="D53" s="51" t="s">
-        <v>211</v>
-      </c>
-      <c r="E53" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="F53" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G53" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H53" s="60" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="55" t="s">
-        <v>207</v>
-      </c>
-      <c r="B54" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="C54" s="52" t="s">
-        <v>208</v>
-      </c>
-      <c r="D54" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="E54" s="50"/>
-      <c r="F54" s="50"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="60"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="55" t="s">
         <v>207</v>
       </c>
       <c r="B55" s="50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C55" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D55" s="51" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="E55" s="50" t="s">
         <v>207</v>
@@ -8069,139 +8084,139 @@
         <v>5</v>
       </c>
       <c r="H55" s="60" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="55" t="s">
         <v>207</v>
       </c>
       <c r="B56" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="D56" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="60"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="B57" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="D57" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="E57" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="F57" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="60" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="B58" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="C56" s="52" t="s">
+      <c r="C58" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="D56" s="51" t="s">
+      <c r="D58" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="E56" s="50" t="s">
+      <c r="E58" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="F56" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G56" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H56" s="60" t="s">
+      <c r="F58" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="60" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="124" t="s">
+    <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="124" t="s">
         <v>207</v>
       </c>
-      <c r="B57" s="100" t="s">
+      <c r="B59" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C57" s="101" t="s">
+      <c r="C59" s="101" t="s">
         <v>209</v>
       </c>
-      <c r="D57" s="125" t="s">
+      <c r="D59" s="125" t="s">
         <v>213</v>
       </c>
-      <c r="E57" s="100"/>
-      <c r="F57" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="126" t="s">
+      <c r="E59" s="100"/>
+      <c r="F59" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="126" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="104" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="B58" s="105" t="s">
+      <c r="B60" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C58" s="106" t="s">
+      <c r="C60" s="106" t="s">
         <v>428</v>
       </c>
-      <c r="D58" s="107" t="s">
+      <c r="D60" s="107" t="s">
         <v>430</v>
       </c>
-      <c r="E58" s="105" t="s">
+      <c r="E60" s="105" t="s">
         <v>431</v>
       </c>
-      <c r="F58" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="105"/>
-      <c r="H58" s="108" t="s">
+      <c r="F60" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="105"/>
+      <c r="H60" s="108" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="109" t="s">
-        <v>38</v>
-      </c>
-      <c r="B59" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C59" s="111" t="s">
-        <v>428</v>
-      </c>
-      <c r="D59" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="E59" s="110" t="s">
-        <v>38</v>
-      </c>
-      <c r="F59" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="113" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="109" t="s">
-        <v>38</v>
-      </c>
-      <c r="B60" s="110" t="s">
-        <v>142</v>
-      </c>
-      <c r="C60" s="111" t="s">
-        <v>428</v>
-      </c>
-      <c r="D60" s="112" t="s">
-        <v>197</v>
-      </c>
-      <c r="E60" s="110"/>
-      <c r="F60" s="110"/>
-      <c r="G60" s="110"/>
-      <c r="H60" s="113"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="109" t="s">
         <v>38</v>
       </c>
       <c r="B61" s="110" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C61" s="111" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D61" s="112" t="s">
-        <v>274</v>
+        <v>191</v>
       </c>
       <c r="E61" s="110" t="s">
         <v>38</v>
@@ -8213,49 +8228,43 @@
         <v>5</v>
       </c>
       <c r="H61" s="113" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="109" t="s">
         <v>38</v>
       </c>
       <c r="B62" s="110" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C62" s="111" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D62" s="112" t="s">
-        <v>192</v>
-      </c>
-      <c r="E62" s="110" t="s">
-        <v>38</v>
-      </c>
-      <c r="F62" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="113" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="E62" s="110"/>
+      <c r="F62" s="110"/>
+      <c r="G62" s="110"/>
+      <c r="H62" s="113"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="109" t="s">
         <v>38</v>
       </c>
       <c r="B63" s="110" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C63" s="111" t="s">
         <v>429</v>
       </c>
       <c r="D63" s="112" t="s">
-        <v>193</v>
-      </c>
-      <c r="E63" s="110"/>
+        <v>274</v>
+      </c>
+      <c r="E63" s="110" t="s">
+        <v>38</v>
+      </c>
       <c r="F63" s="110" t="s">
         <v>5</v>
       </c>
@@ -8266,7 +8275,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="109" t="s">
         <v>38</v>
       </c>
@@ -8274,10 +8283,10 @@
         <v>143</v>
       </c>
       <c r="C64" s="111" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D64" s="112" t="s">
-        <v>433</v>
+        <v>192</v>
       </c>
       <c r="E64" s="110" t="s">
         <v>38</v>
@@ -8289,25 +8298,23 @@
         <v>5</v>
       </c>
       <c r="H64" s="113" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="109" t="s">
         <v>38</v>
       </c>
       <c r="B65" s="110" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C65" s="111" t="s">
-        <v>527</v>
+        <v>429</v>
       </c>
       <c r="D65" s="112" t="s">
-        <v>434</v>
-      </c>
-      <c r="E65" s="110" t="s">
-        <v>38</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="E65" s="110"/>
       <c r="F65" s="110" t="s">
         <v>5</v>
       </c>
@@ -8318,7 +8325,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="109" t="s">
         <v>38</v>
       </c>
@@ -8326,10 +8333,10 @@
         <v>143</v>
       </c>
       <c r="C66" s="111" t="s">
-        <v>528</v>
+        <v>432</v>
       </c>
       <c r="D66" s="112" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E66" s="110" t="s">
         <v>38</v>
@@ -8344,112 +8351,120 @@
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="119" t="s">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="B67" s="120" t="s">
+      <c r="B67" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="C67" s="121" t="s">
+      <c r="C67" s="111" t="s">
+        <v>527</v>
+      </c>
+      <c r="D67" s="112" t="s">
+        <v>434</v>
+      </c>
+      <c r="E67" s="110" t="s">
+        <v>38</v>
+      </c>
+      <c r="F67" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G67" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H67" s="113" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="109" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" s="110" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68" s="111" t="s">
+        <v>528</v>
+      </c>
+      <c r="D68" s="112" t="s">
+        <v>434</v>
+      </c>
+      <c r="E68" s="110" t="s">
+        <v>38</v>
+      </c>
+      <c r="F68" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G68" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H68" s="113" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="119" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" s="120" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="121" t="s">
         <v>435</v>
       </c>
-      <c r="D67" s="122" t="s">
+      <c r="D69" s="122" t="s">
         <v>436</v>
       </c>
-      <c r="E67" s="120" t="s">
+      <c r="E69" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="F67" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G67" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="H67" s="123" t="s">
+      <c r="F69" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H69" s="123" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="94" t="s">
+    <row r="70" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="B68" s="95" t="s">
+      <c r="B70" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C68" s="96" t="s">
+      <c r="C70" s="96" t="s">
         <v>441</v>
       </c>
-      <c r="D68" s="97" t="s">
+      <c r="D70" s="97" t="s">
         <v>438</v>
       </c>
-      <c r="E68" s="95" t="s">
+      <c r="E70" s="95" t="s">
         <v>437</v>
       </c>
-      <c r="F68" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="G68" s="95"/>
-      <c r="H68" s="99" t="s">
+      <c r="F70" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G70" s="95"/>
+      <c r="H70" s="99" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="B69" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C69" s="52" t="s">
-        <v>441</v>
-      </c>
-      <c r="D69" s="51" t="s">
-        <v>194</v>
-      </c>
-      <c r="E69" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="F69" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G69" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H69" s="60" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="B70" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="C70" s="52" t="s">
-        <v>441</v>
-      </c>
-      <c r="D70" s="51" t="s">
-        <v>198</v>
-      </c>
-      <c r="E70" s="50"/>
-      <c r="F70" s="50"/>
-      <c r="G70" s="50"/>
-      <c r="H70" s="60"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="55" t="s">
         <v>63</v>
       </c>
       <c r="B71" s="50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C71" s="52" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D71" s="51" t="s">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="E71" s="50" t="s">
         <v>63</v>
@@ -8461,139 +8476,139 @@
         <v>5</v>
       </c>
       <c r="H71" s="60" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="55" t="s">
         <v>63</v>
       </c>
       <c r="B72" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" s="52" t="s">
+        <v>441</v>
+      </c>
+      <c r="D72" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="E72" s="50"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="50"/>
+      <c r="H72" s="60"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73" s="52" t="s">
+        <v>442</v>
+      </c>
+      <c r="D73" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="E73" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="F73" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G73" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H73" s="60" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="C72" s="52" t="s">
+      <c r="C74" s="52" t="s">
         <v>442</v>
       </c>
-      <c r="D72" s="51" t="s">
+      <c r="D74" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="E72" s="50" t="s">
+      <c r="E74" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="F72" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="60" t="s">
+      <c r="F74" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G74" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H74" s="60" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="124" t="s">
+    <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="B73" s="100" t="s">
+      <c r="B75" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C73" s="101" t="s">
+      <c r="C75" s="101" t="s">
         <v>442</v>
       </c>
-      <c r="D73" s="125" t="s">
+      <c r="D75" s="125" t="s">
         <v>196</v>
       </c>
-      <c r="E73" s="100"/>
-      <c r="F73" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="G73" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="H73" s="126" t="s">
+      <c r="E75" s="100"/>
+      <c r="F75" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G75" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H75" s="126" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="104" t="s">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="B74" s="105" t="s">
+      <c r="B76" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C74" s="106" t="s">
+      <c r="C76" s="106" t="s">
         <v>443</v>
       </c>
-      <c r="D74" s="107" t="s">
+      <c r="D76" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="E74" s="105" t="s">
+      <c r="E76" s="105" t="s">
         <v>440</v>
       </c>
-      <c r="F74" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="G74" s="105"/>
-      <c r="H74" s="108" t="s">
+      <c r="F76" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="105"/>
+      <c r="H76" s="108" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="109" t="s">
-        <v>58</v>
-      </c>
-      <c r="B75" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C75" s="111" t="s">
-        <v>443</v>
-      </c>
-      <c r="D75" s="112" t="s">
-        <v>200</v>
-      </c>
-      <c r="E75" s="110" t="s">
-        <v>58</v>
-      </c>
-      <c r="F75" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G75" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H75" s="113" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="109" t="s">
-        <v>58</v>
-      </c>
-      <c r="B76" s="110" t="s">
-        <v>142</v>
-      </c>
-      <c r="C76" s="111" t="s">
-        <v>443</v>
-      </c>
-      <c r="D76" s="112" t="s">
-        <v>199</v>
-      </c>
-      <c r="E76" s="110"/>
-      <c r="F76" s="110"/>
-      <c r="G76" s="110"/>
-      <c r="H76" s="113"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="109" t="s">
         <v>58</v>
       </c>
       <c r="B77" s="110" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C77" s="111" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D77" s="112" t="s">
-        <v>251</v>
+        <v>200</v>
       </c>
       <c r="E77" s="110" t="s">
         <v>58</v>
@@ -8605,139 +8620,139 @@
         <v>5</v>
       </c>
       <c r="H77" s="113" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="109" t="s">
         <v>58</v>
       </c>
       <c r="B78" s="110" t="s">
+        <v>142</v>
+      </c>
+      <c r="C78" s="111" t="s">
+        <v>443</v>
+      </c>
+      <c r="D78" s="112" t="s">
+        <v>199</v>
+      </c>
+      <c r="E78" s="110"/>
+      <c r="F78" s="110"/>
+      <c r="G78" s="110"/>
+      <c r="H78" s="113"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="109" t="s">
+        <v>58</v>
+      </c>
+      <c r="B79" s="110" t="s">
+        <v>140</v>
+      </c>
+      <c r="C79" s="111" t="s">
+        <v>444</v>
+      </c>
+      <c r="D79" s="112" t="s">
+        <v>251</v>
+      </c>
+      <c r="E79" s="110" t="s">
+        <v>58</v>
+      </c>
+      <c r="F79" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G79" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H79" s="113" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="109" t="s">
+        <v>58</v>
+      </c>
+      <c r="B80" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="C78" s="111" t="s">
+      <c r="C80" s="111" t="s">
         <v>444</v>
       </c>
-      <c r="D78" s="112" t="s">
+      <c r="D80" s="112" t="s">
         <v>201</v>
       </c>
-      <c r="E78" s="110" t="s">
+      <c r="E80" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="F78" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G78" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H78" s="113" t="s">
+      <c r="F80" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G80" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H80" s="113" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="114" t="s">
+    <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="B79" s="115" t="s">
+      <c r="B81" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="C79" s="116" t="s">
+      <c r="C81" s="116" t="s">
         <v>444</v>
       </c>
-      <c r="D79" s="117" t="s">
+      <c r="D81" s="117" t="s">
         <v>202</v>
       </c>
-      <c r="E79" s="115"/>
-      <c r="F79" s="115" t="s">
-        <v>5</v>
-      </c>
-      <c r="G79" s="115" t="s">
-        <v>5</v>
-      </c>
-      <c r="H79" s="118" t="s">
+      <c r="E81" s="115"/>
+      <c r="F81" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="118" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="94" t="s">
+    <row r="82" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="94" t="s">
         <v>292</v>
       </c>
-      <c r="B80" s="95" t="s">
+      <c r="B82" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C80" s="96" t="s">
+      <c r="C82" s="96" t="s">
         <v>445</v>
       </c>
-      <c r="D80" s="127" t="s">
+      <c r="D82" s="127" t="s">
         <v>448</v>
       </c>
-      <c r="E80" s="95" t="s">
+      <c r="E82" s="95" t="s">
         <v>447</v>
       </c>
-      <c r="F80" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="G80" s="95"/>
-      <c r="H80" s="99" t="s">
+      <c r="F82" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G82" s="95"/>
+      <c r="H82" s="99" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="55" t="s">
-        <v>292</v>
-      </c>
-      <c r="B81" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C81" s="52" t="s">
-        <v>445</v>
-      </c>
-      <c r="D81" s="53" t="s">
-        <v>449</v>
-      </c>
-      <c r="E81" s="50" t="s">
-        <v>292</v>
-      </c>
-      <c r="F81" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="60" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="55" t="s">
-        <v>292</v>
-      </c>
-      <c r="B82" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="C82" s="52" t="s">
-        <v>445</v>
-      </c>
-      <c r="D82" s="53" t="s">
-        <v>450</v>
-      </c>
-      <c r="E82" s="50"/>
-      <c r="F82" s="50"/>
-      <c r="G82" s="50"/>
-      <c r="H82" s="60"/>
-    </row>
-    <row r="83" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="55" t="s">
         <v>292</v>
       </c>
       <c r="B83" s="50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C83" s="52" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D83" s="53" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E83" s="50" t="s">
         <v>292</v>
@@ -8749,139 +8764,139 @@
         <v>5</v>
       </c>
       <c r="H83" s="60" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="55" t="s">
         <v>292</v>
       </c>
       <c r="B84" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="C84" s="52" t="s">
+        <v>445</v>
+      </c>
+      <c r="D84" s="53" t="s">
+        <v>450</v>
+      </c>
+      <c r="E84" s="50"/>
+      <c r="F84" s="50"/>
+      <c r="G84" s="50"/>
+      <c r="H84" s="60"/>
+    </row>
+    <row r="85" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="B85" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C85" s="52" t="s">
+        <v>446</v>
+      </c>
+      <c r="D85" s="53" t="s">
+        <v>451</v>
+      </c>
+      <c r="E85" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="F85" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G85" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H85" s="60" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="B86" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="C84" s="52" t="s">
+      <c r="C86" s="52" t="s">
         <v>446</v>
       </c>
-      <c r="D84" s="53" t="s">
+      <c r="D86" s="53" t="s">
         <v>452</v>
       </c>
-      <c r="E84" s="50" t="s">
+      <c r="E86" s="50" t="s">
         <v>292</v>
       </c>
-      <c r="F84" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G84" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H84" s="60" t="s">
+      <c r="F86" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G86" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H86" s="60" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="128" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="124" t="s">
+    <row r="87" spans="1:8" s="128" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="124" t="s">
         <v>292</v>
       </c>
-      <c r="B85" s="100" t="s">
+      <c r="B87" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C85" s="101" t="s">
+      <c r="C87" s="101" t="s">
         <v>446</v>
       </c>
-      <c r="D85" s="102" t="s">
+      <c r="D87" s="102" t="s">
         <v>453</v>
       </c>
-      <c r="E85" s="100"/>
-      <c r="F85" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="G85" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="H85" s="126" t="s">
+      <c r="E87" s="100"/>
+      <c r="F87" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G87" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H87" s="126" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="104" t="s">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B86" s="105" t="s">
+      <c r="B88" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C86" s="106" t="s">
+      <c r="C88" s="106" t="s">
         <v>454</v>
       </c>
-      <c r="D86" s="107" t="s">
+      <c r="D88" s="107" t="s">
         <v>456</v>
       </c>
-      <c r="E86" s="105" t="s">
+      <c r="E88" s="105" t="s">
         <v>467</v>
       </c>
-      <c r="F86" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="G86" s="105"/>
-      <c r="H86" s="108" t="s">
+      <c r="F88" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G88" s="105"/>
+      <c r="H88" s="108" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B87" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C87" s="111" t="s">
-        <v>454</v>
-      </c>
-      <c r="D87" s="112" t="s">
-        <v>163</v>
-      </c>
-      <c r="E87" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="F87" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G87" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H87" s="113" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B88" s="110" t="s">
-        <v>142</v>
-      </c>
-      <c r="C88" s="111" t="s">
-        <v>454</v>
-      </c>
-      <c r="D88" s="112" t="s">
-        <v>162</v>
-      </c>
-      <c r="E88" s="110"/>
-      <c r="F88" s="110"/>
-      <c r="G88" s="110"/>
-      <c r="H88" s="113"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="109" t="s">
         <v>10</v>
       </c>
       <c r="B89" s="110" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C89" s="111" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D89" s="112" t="s">
-        <v>245</v>
+        <v>163</v>
       </c>
       <c r="E89" s="110" t="s">
         <v>10</v>
@@ -8893,141 +8908,143 @@
         <v>5</v>
       </c>
       <c r="H89" s="113" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="109" t="s">
         <v>10</v>
       </c>
       <c r="B90" s="110" t="s">
+        <v>142</v>
+      </c>
+      <c r="C90" s="111" t="s">
+        <v>454</v>
+      </c>
+      <c r="D90" s="112" t="s">
+        <v>162</v>
+      </c>
+      <c r="E90" s="110"/>
+      <c r="F90" s="110"/>
+      <c r="G90" s="110"/>
+      <c r="H90" s="113"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91" s="110" t="s">
+        <v>140</v>
+      </c>
+      <c r="C91" s="111" t="s">
+        <v>455</v>
+      </c>
+      <c r="D91" s="112" t="s">
+        <v>245</v>
+      </c>
+      <c r="E91" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="113" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="C90" s="111" t="s">
+      <c r="C92" s="111" t="s">
         <v>455</v>
       </c>
-      <c r="D90" s="112" t="s">
+      <c r="D92" s="112" t="s">
         <v>164</v>
       </c>
-      <c r="E90" s="110" t="s">
+      <c r="E92" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="F90" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G90" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H90" s="113" t="s">
+      <c r="F92" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G92" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H92" s="113" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="119" t="s">
+    <row r="93" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="B91" s="120" t="s">
+      <c r="B93" s="120" t="s">
         <v>142</v>
       </c>
-      <c r="C91" s="121" t="s">
+      <c r="C93" s="121" t="s">
         <v>455</v>
       </c>
-      <c r="D91" s="122" t="s">
+      <c r="D93" s="122" t="s">
         <v>165</v>
       </c>
-      <c r="E91" s="120"/>
-      <c r="F91" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="123" t="s">
+      <c r="E93" s="120"/>
+      <c r="F93" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G93" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H93" s="123" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="94" t="s">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="94" t="s">
         <v>166</v>
       </c>
-      <c r="B92" s="95" t="s">
+      <c r="B94" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C92" s="96" t="s">
+      <c r="C94" s="96" t="s">
         <v>457</v>
       </c>
-      <c r="D92" s="97" t="s">
+      <c r="D94" s="97" t="s">
         <v>458</v>
       </c>
-      <c r="E92" s="95" t="s">
+      <c r="E94" s="95" t="s">
         <v>459</v>
       </c>
-      <c r="F92" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="G92" s="95"/>
-      <c r="H92" s="99" t="s">
+      <c r="F94" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="95"/>
+      <c r="H94" s="99" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="55" t="s">
-        <v>166</v>
-      </c>
-      <c r="B93" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C93" s="52" t="s">
-        <v>457</v>
-      </c>
-      <c r="D93" s="51" t="s">
-        <v>167</v>
-      </c>
-      <c r="E93" s="50" t="s">
-        <v>166</v>
-      </c>
-      <c r="F93" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G93" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H93" s="60" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="55" t="s">
-        <v>166</v>
-      </c>
-      <c r="B94" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="C94" s="52" t="s">
-        <v>457</v>
-      </c>
-      <c r="D94" s="51" t="s">
-        <v>273</v>
-      </c>
-      <c r="E94" s="50"/>
-      <c r="F94" s="50"/>
-      <c r="G94" s="50"/>
-      <c r="H94" s="60"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="55" t="s">
         <v>166</v>
       </c>
       <c r="B95" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C95" s="52" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D95" s="51" t="s">
-        <v>461</v>
-      </c>
-      <c r="E95" s="50"/>
+        <v>167</v>
+      </c>
+      <c r="E95" s="50" t="s">
+        <v>166</v>
+      </c>
       <c r="F95" s="50" t="s">
         <v>5</v>
       </c>
@@ -9035,141 +9052,139 @@
         <v>5</v>
       </c>
       <c r="H95" s="60" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="55" t="s">
         <v>166</v>
       </c>
       <c r="B96" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="C96" s="52" t="s">
+        <v>457</v>
+      </c>
+      <c r="D96" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="E96" s="50"/>
+      <c r="F96" s="50"/>
+      <c r="G96" s="50"/>
+      <c r="H96" s="60"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="B97" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="C97" s="52" t="s">
+        <v>460</v>
+      </c>
+      <c r="D97" s="51" t="s">
+        <v>461</v>
+      </c>
+      <c r="E97" s="50"/>
+      <c r="F97" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G97" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H97" s="60" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="B98" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="C96" s="52" t="s">
+      <c r="C98" s="52" t="s">
         <v>462</v>
       </c>
-      <c r="D96" s="51" t="s">
+      <c r="D98" s="51" t="s">
         <v>464</v>
       </c>
-      <c r="E96" s="50" t="s">
+      <c r="E98" s="50" t="s">
         <v>463</v>
       </c>
-      <c r="F96" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G96" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H96" s="60" t="s">
+      <c r="F98" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G98" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H98" s="60" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="124" t="s">
+    <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="124" t="s">
         <v>166</v>
       </c>
-      <c r="B97" s="100" t="s">
+      <c r="B99" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="C97" s="101" t="s">
+      <c r="C99" s="101" t="s">
         <v>465</v>
       </c>
-      <c r="D97" s="125" t="s">
+      <c r="D99" s="125" t="s">
         <v>466</v>
       </c>
-      <c r="E97" s="100" t="s">
+      <c r="E99" s="100" t="s">
         <v>467</v>
       </c>
-      <c r="F97" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="G97" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="H97" s="126" t="s">
+      <c r="F99" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G99" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H99" s="126" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="104" t="s">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="B98" s="105" t="s">
+      <c r="B100" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C98" s="106" t="s">
+      <c r="C100" s="106" t="s">
         <v>468</v>
       </c>
-      <c r="D98" s="107" t="s">
+      <c r="D100" s="107" t="s">
         <v>471</v>
       </c>
-      <c r="E98" s="105" t="s">
+      <c r="E100" s="105" t="s">
         <v>470</v>
       </c>
-      <c r="F98" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="G98" s="105"/>
-      <c r="H98" s="108" t="s">
+      <c r="F100" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="105"/>
+      <c r="H100" s="108" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="109" t="s">
-        <v>90</v>
-      </c>
-      <c r="B99" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C99" s="111" t="s">
-        <v>468</v>
-      </c>
-      <c r="D99" s="112" t="s">
-        <v>169</v>
-      </c>
-      <c r="E99" s="110" t="s">
-        <v>90</v>
-      </c>
-      <c r="F99" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G99" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H99" s="113" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="109" t="s">
-        <v>90</v>
-      </c>
-      <c r="B100" s="110" t="s">
-        <v>142</v>
-      </c>
-      <c r="C100" s="111" t="s">
-        <v>468</v>
-      </c>
-      <c r="D100" s="112" t="s">
-        <v>168</v>
-      </c>
-      <c r="E100" s="110"/>
-      <c r="F100" s="110"/>
-      <c r="G100" s="110"/>
-      <c r="H100" s="113"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="109" t="s">
         <v>90</v>
       </c>
       <c r="B101" s="110" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C101" s="111" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D101" s="112" t="s">
-        <v>246</v>
+        <v>169</v>
       </c>
       <c r="E101" s="110" t="s">
         <v>90</v>
@@ -9181,139 +9196,139 @@
         <v>5</v>
       </c>
       <c r="H101" s="113" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="109" t="s">
         <v>90</v>
       </c>
       <c r="B102" s="110" t="s">
+        <v>142</v>
+      </c>
+      <c r="C102" s="111" t="s">
+        <v>468</v>
+      </c>
+      <c r="D102" s="112" t="s">
+        <v>168</v>
+      </c>
+      <c r="E102" s="110"/>
+      <c r="F102" s="110"/>
+      <c r="G102" s="110"/>
+      <c r="H102" s="113"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="109" t="s">
+        <v>90</v>
+      </c>
+      <c r="B103" s="110" t="s">
+        <v>140</v>
+      </c>
+      <c r="C103" s="111" t="s">
+        <v>469</v>
+      </c>
+      <c r="D103" s="112" t="s">
+        <v>246</v>
+      </c>
+      <c r="E103" s="110" t="s">
+        <v>90</v>
+      </c>
+      <c r="F103" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G103" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H103" s="113" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="109" t="s">
+        <v>90</v>
+      </c>
+      <c r="B104" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="C102" s="111" t="s">
+      <c r="C104" s="111" t="s">
         <v>469</v>
       </c>
-      <c r="D102" s="112" t="s">
+      <c r="D104" s="112" t="s">
         <v>170</v>
       </c>
-      <c r="E102" s="110" t="s">
+      <c r="E104" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="F102" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="113" t="s">
+      <c r="F104" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G104" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H104" s="113" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="119" t="s">
+    <row r="105" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="119" t="s">
         <v>90</v>
       </c>
-      <c r="B103" s="120" t="s">
+      <c r="B105" s="120" t="s">
         <v>142</v>
       </c>
-      <c r="C103" s="121" t="s">
+      <c r="C105" s="121" t="s">
         <v>469</v>
       </c>
-      <c r="D103" s="122" t="s">
+      <c r="D105" s="122" t="s">
         <v>171</v>
       </c>
-      <c r="E103" s="120"/>
-      <c r="F103" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G103" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="H103" s="123" t="s">
+      <c r="E105" s="120"/>
+      <c r="F105" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G105" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H105" s="123" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="94" t="s">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="94" t="s">
         <v>244</v>
       </c>
-      <c r="B104" s="95" t="s">
+      <c r="B106" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C104" s="96" t="s">
+      <c r="C106" s="96" t="s">
         <v>235</v>
       </c>
-      <c r="D104" s="97" t="s">
+      <c r="D106" s="97" t="s">
         <v>236</v>
       </c>
-      <c r="E104" s="95" t="s">
+      <c r="E106" s="95" t="s">
         <v>472</v>
       </c>
-      <c r="F104" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="G104" s="95"/>
-      <c r="H104" s="99" t="s">
+      <c r="F106" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G106" s="95"/>
+      <c r="H106" s="99" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="55" t="s">
-        <v>244</v>
-      </c>
-      <c r="B105" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C105" s="52" t="s">
-        <v>235</v>
-      </c>
-      <c r="D105" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="E105" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="F105" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G105" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H105" s="60" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="55" t="s">
-        <v>244</v>
-      </c>
-      <c r="B106" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="C106" s="52" t="s">
-        <v>235</v>
-      </c>
-      <c r="D106" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="E106" s="50"/>
-      <c r="F106" s="50"/>
-      <c r="G106" s="50"/>
-      <c r="H106" s="60"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="55" t="s">
         <v>244</v>
       </c>
       <c r="B107" s="50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C107" s="52" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D107" s="51" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="E107" s="50" t="s">
         <v>244</v>
@@ -9325,49 +9340,43 @@
         <v>5</v>
       </c>
       <c r="H107" s="60" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="55" t="s">
         <v>244</v>
       </c>
       <c r="B108" s="50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C108" s="52" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D108" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="E108" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="F108" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G108" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H108" s="60" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+      <c r="E108" s="50"/>
+      <c r="F108" s="50"/>
+      <c r="G108" s="50"/>
+      <c r="H108" s="60"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="55" t="s">
         <v>244</v>
       </c>
       <c r="B109" s="50" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C109" s="52" t="s">
         <v>239</v>
       </c>
       <c r="D109" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="E109" s="50"/>
+        <v>257</v>
+      </c>
+      <c r="E109" s="50" t="s">
+        <v>244</v>
+      </c>
       <c r="F109" s="50" t="s">
         <v>5</v>
       </c>
@@ -9378,138 +9387,144 @@
         <v>400</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="55" t="s">
         <v>244</v>
       </c>
       <c r="B110" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="C110" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="D110" s="51" t="s">
+        <v>240</v>
+      </c>
+      <c r="E110" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="F110" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G110" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H110" s="60" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="B111" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="C111" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="D111" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="E111" s="50"/>
+      <c r="F111" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G111" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H111" s="60" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="B112" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="C110" s="52" t="s">
+      <c r="C112" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="D110" s="51" t="s">
+      <c r="D112" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="E110" s="50" t="s">
+      <c r="E112" s="50" t="s">
         <v>472</v>
       </c>
-      <c r="F110" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G110" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H110" s="60" t="s">
+      <c r="F112" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G112" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H112" s="60" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="124" t="s">
+    <row r="113" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="124" t="s">
         <v>244</v>
       </c>
-      <c r="B111" s="100" t="s">
+      <c r="B113" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="C111" s="101" t="s">
+      <c r="C113" s="101" t="s">
         <v>242</v>
       </c>
-      <c r="D111" s="125" t="s">
+      <c r="D113" s="125" t="s">
         <v>243</v>
       </c>
-      <c r="E111" s="100" t="s">
+      <c r="E113" s="100" t="s">
         <v>472</v>
       </c>
-      <c r="F111" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="G111" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="H111" s="126" t="s">
+      <c r="F113" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G113" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H113" s="126" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="104" t="s">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="B112" s="105" t="s">
+      <c r="B114" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C112" s="106" t="s">
+      <c r="C114" s="106" t="s">
         <v>474</v>
       </c>
-      <c r="D112" s="107" t="s">
+      <c r="D114" s="107" t="s">
         <v>229</v>
       </c>
-      <c r="E112" s="105" t="s">
+      <c r="E114" s="105" t="s">
         <v>473</v>
       </c>
-      <c r="F112" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="G112" s="105"/>
-      <c r="H112" s="108" t="s">
+      <c r="F114" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G114" s="105"/>
+      <c r="H114" s="108" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="109" t="s">
-        <v>114</v>
-      </c>
-      <c r="B113" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C113" s="111" t="s">
-        <v>474</v>
-      </c>
-      <c r="D113" s="112" t="s">
-        <v>231</v>
-      </c>
-      <c r="E113" s="110" t="s">
-        <v>114</v>
-      </c>
-      <c r="F113" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G113" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H113" s="113" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="109" t="s">
-        <v>114</v>
-      </c>
-      <c r="B114" s="110" t="s">
-        <v>142</v>
-      </c>
-      <c r="C114" s="111" t="s">
-        <v>474</v>
-      </c>
-      <c r="D114" s="112" t="s">
-        <v>230</v>
-      </c>
-      <c r="E114" s="110"/>
-      <c r="F114" s="110"/>
-      <c r="G114" s="110"/>
-      <c r="H114" s="113"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="109" t="s">
         <v>114</v>
       </c>
       <c r="B115" s="110" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C115" s="111" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D115" s="112" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="E115" s="110" t="s">
         <v>114</v>
@@ -9521,49 +9536,43 @@
         <v>5</v>
       </c>
       <c r="H115" s="113" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="109" t="s">
         <v>114</v>
       </c>
       <c r="B116" s="110" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C116" s="111" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D116" s="112" t="s">
-        <v>232</v>
-      </c>
-      <c r="E116" s="110" t="s">
-        <v>114</v>
-      </c>
-      <c r="F116" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G116" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H116" s="113" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+      <c r="E116" s="110"/>
+      <c r="F116" s="110"/>
+      <c r="G116" s="110"/>
+      <c r="H116" s="113"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="109" t="s">
         <v>114</v>
       </c>
       <c r="B117" s="110" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C117" s="111" t="s">
         <v>475</v>
       </c>
       <c r="D117" s="112" t="s">
-        <v>233</v>
-      </c>
-      <c r="E117" s="110"/>
+        <v>256</v>
+      </c>
+      <c r="E117" s="110" t="s">
+        <v>114</v>
+      </c>
       <c r="F117" s="110" t="s">
         <v>5</v>
       </c>
@@ -9574,112 +9583,118 @@
         <v>400</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="119" t="s">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="B118" s="120" t="s">
+      <c r="B118" s="110" t="s">
+        <v>143</v>
+      </c>
+      <c r="C118" s="111" t="s">
+        <v>475</v>
+      </c>
+      <c r="D118" s="112" t="s">
+        <v>232</v>
+      </c>
+      <c r="E118" s="110" t="s">
+        <v>114</v>
+      </c>
+      <c r="F118" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G118" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H118" s="113" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="109" t="s">
+        <v>114</v>
+      </c>
+      <c r="B119" s="110" t="s">
+        <v>142</v>
+      </c>
+      <c r="C119" s="111" t="s">
+        <v>475</v>
+      </c>
+      <c r="D119" s="112" t="s">
+        <v>233</v>
+      </c>
+      <c r="E119" s="110"/>
+      <c r="F119" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G119" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H119" s="113" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="119" t="s">
+        <v>114</v>
+      </c>
+      <c r="B120" s="120" t="s">
         <v>140</v>
       </c>
-      <c r="C118" s="121" t="s">
+      <c r="C120" s="121" t="s">
         <v>476</v>
       </c>
-      <c r="D118" s="122" t="s">
+      <c r="D120" s="122" t="s">
         <v>234</v>
       </c>
-      <c r="E118" s="120" t="s">
+      <c r="E120" s="120" t="s">
         <v>473</v>
       </c>
-      <c r="F118" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G118" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="H118" s="123" t="s">
+      <c r="F120" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G120" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H120" s="123" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="94" t="s">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="B119" s="95" t="s">
+      <c r="B121" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C119" s="96" t="s">
+      <c r="C121" s="96" t="s">
         <v>479</v>
       </c>
-      <c r="D119" s="97" t="s">
+      <c r="D121" s="97" t="s">
         <v>478</v>
       </c>
-      <c r="E119" s="95" t="s">
+      <c r="E121" s="95" t="s">
         <v>477</v>
       </c>
-      <c r="F119" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="G119" s="95"/>
-      <c r="H119" s="99" t="s">
+      <c r="F121" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G121" s="95"/>
+      <c r="H121" s="99" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="B120" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C120" s="52" t="s">
-        <v>479</v>
-      </c>
-      <c r="D120" s="51" t="s">
-        <v>204</v>
-      </c>
-      <c r="E120" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="F120" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G120" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H120" s="60" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="B121" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="C121" s="52" t="s">
-        <v>479</v>
-      </c>
-      <c r="D121" s="51" t="s">
-        <v>203</v>
-      </c>
-      <c r="E121" s="50"/>
-      <c r="F121" s="50"/>
-      <c r="G121" s="50"/>
-      <c r="H121" s="60"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="55" t="s">
         <v>103</v>
       </c>
       <c r="B122" s="50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C122" s="52" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D122" s="51" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="E122" s="50" t="s">
         <v>103</v>
@@ -9691,49 +9706,43 @@
         <v>5</v>
       </c>
       <c r="H122" s="60" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="55" t="s">
         <v>103</v>
       </c>
       <c r="B123" s="50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C123" s="52" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D123" s="51" t="s">
-        <v>205</v>
-      </c>
-      <c r="E123" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="F123" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G123" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H123" s="60" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+      <c r="E123" s="50"/>
+      <c r="F123" s="50"/>
+      <c r="G123" s="50"/>
+      <c r="H123" s="60"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="55" t="s">
         <v>103</v>
       </c>
       <c r="B124" s="50" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C124" s="52" t="s">
         <v>480</v>
       </c>
       <c r="D124" s="51" t="s">
-        <v>206</v>
-      </c>
-      <c r="E124" s="50"/>
+        <v>252</v>
+      </c>
+      <c r="E124" s="50" t="s">
+        <v>103</v>
+      </c>
       <c r="F124" s="50" t="s">
         <v>5</v>
       </c>
@@ -9744,138 +9753,144 @@
         <v>400</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="55" t="s">
         <v>103</v>
       </c>
       <c r="B125" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="C125" s="52" t="s">
+        <v>480</v>
+      </c>
+      <c r="D125" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="E125" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="F125" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G125" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H125" s="60" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B126" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="C126" s="52" t="s">
+        <v>480</v>
+      </c>
+      <c r="D126" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="E126" s="50"/>
+      <c r="F126" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G126" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H126" s="60" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B127" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="C125" s="52" t="s">
+      <c r="C127" s="52" t="s">
         <v>481</v>
       </c>
-      <c r="D125" s="51" t="s">
+      <c r="D127" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="E125" s="50" t="s">
+      <c r="E127" s="50" t="s">
         <v>477</v>
       </c>
-      <c r="F125" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G125" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H125" s="60" t="s">
+      <c r="F127" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G127" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H127" s="60" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="124" t="s">
+    <row r="128" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="124" t="s">
         <v>103</v>
       </c>
-      <c r="B126" s="100" t="s">
+      <c r="B128" s="100" t="s">
         <v>143</v>
       </c>
-      <c r="C126" s="101" t="s">
+      <c r="C128" s="101" t="s">
         <v>483</v>
       </c>
-      <c r="D126" s="125" t="s">
+      <c r="D128" s="125" t="s">
         <v>484</v>
       </c>
-      <c r="E126" s="100" t="s">
+      <c r="E128" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="F126" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="G126" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="H126" s="126" t="s">
+      <c r="F128" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G128" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H128" s="126" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="104" t="s">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="B127" s="105" t="s">
+      <c r="B129" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C127" s="106" t="s">
+      <c r="C129" s="106" t="s">
         <v>486</v>
       </c>
-      <c r="D127" s="107" t="s">
+      <c r="D129" s="107" t="s">
         <v>488</v>
       </c>
-      <c r="E127" s="105" t="s">
+      <c r="E129" s="105" t="s">
         <v>485</v>
       </c>
-      <c r="F127" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="G127" s="105"/>
-      <c r="H127" s="108" t="s">
+      <c r="F129" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G129" s="105"/>
+      <c r="H129" s="108" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="109" t="s">
-        <v>81</v>
-      </c>
-      <c r="B128" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C128" s="111" t="s">
-        <v>486</v>
-      </c>
-      <c r="D128" s="112" t="s">
-        <v>149</v>
-      </c>
-      <c r="E128" s="110" t="s">
-        <v>81</v>
-      </c>
-      <c r="F128" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G128" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H128" s="113" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" s="109" t="s">
-        <v>81</v>
-      </c>
-      <c r="B129" s="110" t="s">
-        <v>142</v>
-      </c>
-      <c r="C129" s="111" t="s">
-        <v>486</v>
-      </c>
-      <c r="D129" s="112" t="s">
-        <v>148</v>
-      </c>
-      <c r="E129" s="110"/>
-      <c r="F129" s="110"/>
-      <c r="G129" s="110"/>
-      <c r="H129" s="113"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="109" t="s">
         <v>81</v>
       </c>
       <c r="B130" s="110" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C130" s="111" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D130" s="112" t="s">
-        <v>489</v>
+        <v>149</v>
       </c>
       <c r="E130" s="110" t="s">
         <v>81</v>
@@ -9887,139 +9902,139 @@
         <v>5</v>
       </c>
       <c r="H130" s="113" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="109" t="s">
         <v>81</v>
       </c>
       <c r="B131" s="110" t="s">
+        <v>142</v>
+      </c>
+      <c r="C131" s="111" t="s">
+        <v>486</v>
+      </c>
+      <c r="D131" s="112" t="s">
+        <v>148</v>
+      </c>
+      <c r="E131" s="110"/>
+      <c r="F131" s="110"/>
+      <c r="G131" s="110"/>
+      <c r="H131" s="113"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="109" t="s">
+        <v>81</v>
+      </c>
+      <c r="B132" s="110" t="s">
+        <v>140</v>
+      </c>
+      <c r="C132" s="111" t="s">
+        <v>487</v>
+      </c>
+      <c r="D132" s="112" t="s">
+        <v>489</v>
+      </c>
+      <c r="E132" s="110" t="s">
+        <v>81</v>
+      </c>
+      <c r="F132" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G132" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H132" s="113" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="109" t="s">
+        <v>81</v>
+      </c>
+      <c r="B133" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="C131" s="111" t="s">
+      <c r="C133" s="111" t="s">
         <v>487</v>
       </c>
-      <c r="D131" s="112" t="s">
+      <c r="D133" s="112" t="s">
         <v>150</v>
       </c>
-      <c r="E131" s="110" t="s">
+      <c r="E133" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="F131" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G131" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H131" s="113" t="s">
+      <c r="F133" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G133" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H133" s="113" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="119" t="s">
+    <row r="134" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="119" t="s">
         <v>81</v>
       </c>
-      <c r="B132" s="120" t="s">
+      <c r="B134" s="120" t="s">
         <v>142</v>
       </c>
-      <c r="C132" s="121" t="s">
+      <c r="C134" s="121" t="s">
         <v>487</v>
       </c>
-      <c r="D132" s="122" t="s">
+      <c r="D134" s="122" t="s">
         <v>151</v>
       </c>
-      <c r="E132" s="120"/>
-      <c r="F132" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G132" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="H132" s="123" t="s">
+      <c r="E134" s="120"/>
+      <c r="F134" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G134" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H134" s="123" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" s="94" t="s">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="94" t="s">
         <v>176</v>
       </c>
-      <c r="B133" s="95" t="s">
+      <c r="B135" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C133" s="96" t="s">
+      <c r="C135" s="96" t="s">
         <v>177</v>
       </c>
-      <c r="D133" s="97" t="s">
+      <c r="D135" s="97" t="s">
         <v>179</v>
       </c>
-      <c r="E133" s="95" t="s">
+      <c r="E135" s="95" t="s">
         <v>490</v>
       </c>
-      <c r="F133" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="G133" s="95"/>
-      <c r="H133" s="99" t="s">
+      <c r="F135" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G135" s="95"/>
+      <c r="H135" s="99" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="B134" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C134" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="D134" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="E134" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="F134" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G134" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H134" s="60" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="B135" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="C135" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="D135" s="51" t="s">
-        <v>180</v>
-      </c>
-      <c r="E135" s="50"/>
-      <c r="F135" s="50"/>
-      <c r="G135" s="50"/>
-      <c r="H135" s="60"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="55" t="s">
         <v>176</v>
       </c>
       <c r="B136" s="50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C136" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D136" s="51" t="s">
-        <v>248</v>
+        <v>181</v>
       </c>
       <c r="E136" s="50" t="s">
         <v>176</v>
@@ -10031,139 +10046,139 @@
         <v>5</v>
       </c>
       <c r="H136" s="60" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="55" t="s">
         <v>176</v>
       </c>
       <c r="B137" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="C137" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="D137" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="E137" s="50"/>
+      <c r="F137" s="50"/>
+      <c r="G137" s="50"/>
+      <c r="H137" s="60"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="B138" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C138" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="D138" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="E138" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="F138" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G138" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H138" s="60" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="B139" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="C137" s="52" t="s">
+      <c r="C139" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="D137" s="51" t="s">
+      <c r="D139" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="E137" s="50" t="s">
+      <c r="E139" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="F137" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G137" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H137" s="60" t="s">
+      <c r="F139" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G139" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H139" s="60" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="124" t="s">
+    <row r="140" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="124" t="s">
         <v>176</v>
       </c>
-      <c r="B138" s="100" t="s">
+      <c r="B140" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C138" s="101" t="s">
+      <c r="C140" s="101" t="s">
         <v>178</v>
       </c>
-      <c r="D138" s="125" t="s">
+      <c r="D140" s="125" t="s">
         <v>183</v>
       </c>
-      <c r="E138" s="100"/>
-      <c r="F138" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="G138" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="H138" s="126" t="s">
+      <c r="E140" s="100"/>
+      <c r="F140" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G140" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H140" s="126" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" s="104" t="s">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="B139" s="105" t="s">
+      <c r="B141" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C139" s="106" t="s">
+      <c r="C141" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="D139" s="107" t="s">
+      <c r="D141" s="107" t="s">
         <v>491</v>
       </c>
-      <c r="E139" s="105" t="s">
+      <c r="E141" s="105" t="s">
         <v>88</v>
       </c>
-      <c r="F139" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="G139" s="105"/>
-      <c r="H139" s="108" t="s">
+      <c r="F141" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G141" s="105"/>
+      <c r="H141" s="108" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" s="109" t="s">
-        <v>88</v>
-      </c>
-      <c r="B140" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C140" s="111" t="s">
-        <v>152</v>
-      </c>
-      <c r="D140" s="112" t="s">
-        <v>154</v>
-      </c>
-      <c r="E140" s="110" t="s">
-        <v>88</v>
-      </c>
-      <c r="F140" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G140" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H140" s="113" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141" s="109" t="s">
-        <v>88</v>
-      </c>
-      <c r="B141" s="110" t="s">
-        <v>142</v>
-      </c>
-      <c r="C141" s="111" t="s">
-        <v>152</v>
-      </c>
-      <c r="D141" s="112" t="s">
-        <v>153</v>
-      </c>
-      <c r="E141" s="110"/>
-      <c r="F141" s="110"/>
-      <c r="G141" s="110"/>
-      <c r="H141" s="113"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="109" t="s">
         <v>88</v>
       </c>
       <c r="B142" s="110" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C142" s="111" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D142" s="112" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E142" s="110" t="s">
         <v>88</v>
@@ -10175,141 +10190,141 @@
         <v>5</v>
       </c>
       <c r="H142" s="113" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="109" t="s">
         <v>88</v>
       </c>
       <c r="B143" s="110" t="s">
+        <v>142</v>
+      </c>
+      <c r="C143" s="111" t="s">
+        <v>152</v>
+      </c>
+      <c r="D143" s="112" t="s">
+        <v>153</v>
+      </c>
+      <c r="E143" s="110"/>
+      <c r="F143" s="110"/>
+      <c r="G143" s="110"/>
+      <c r="H143" s="113"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="109" t="s">
+        <v>88</v>
+      </c>
+      <c r="B144" s="110" t="s">
+        <v>140</v>
+      </c>
+      <c r="C144" s="111" t="s">
+        <v>155</v>
+      </c>
+      <c r="D144" s="112" t="s">
+        <v>147</v>
+      </c>
+      <c r="E144" s="110" t="s">
+        <v>88</v>
+      </c>
+      <c r="F144" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G144" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H144" s="113" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="109" t="s">
+        <v>88</v>
+      </c>
+      <c r="B145" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="C143" s="111" t="s">
+      <c r="C145" s="111" t="s">
         <v>155</v>
       </c>
-      <c r="D143" s="112" t="s">
+      <c r="D145" s="112" t="s">
         <v>156</v>
       </c>
-      <c r="E143" s="110" t="s">
+      <c r="E145" s="110" t="s">
         <v>88</v>
       </c>
-      <c r="F143" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G143" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H143" s="113" t="s">
+      <c r="F145" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G145" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H145" s="113" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="119" t="s">
+    <row r="146" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="B144" s="120" t="s">
+      <c r="B146" s="120" t="s">
         <v>142</v>
       </c>
-      <c r="C144" s="121" t="s">
+      <c r="C146" s="121" t="s">
         <v>155</v>
       </c>
-      <c r="D144" s="122" t="s">
+      <c r="D146" s="122" t="s">
         <v>157</v>
       </c>
-      <c r="E144" s="120"/>
-      <c r="F144" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G144" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="H144" s="123" t="s">
+      <c r="E146" s="120"/>
+      <c r="F146" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G146" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H146" s="123" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="145" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="129" t="s">
+    <row r="147" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="129" t="s">
         <v>293</v>
       </c>
-      <c r="B145" s="130" t="s">
+      <c r="B147" s="130" t="s">
         <v>140</v>
       </c>
-      <c r="C145" s="131" t="s">
+      <c r="C147" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="D145" s="132" t="s">
+      <c r="D147" s="132" t="s">
         <v>295</v>
       </c>
-      <c r="E145" s="130" t="s">
+      <c r="E147" s="130" t="s">
         <v>492</v>
       </c>
-      <c r="F145" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="G145" s="95"/>
-      <c r="H145" s="99" t="s">
+      <c r="F147" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G147" s="95"/>
+      <c r="H147" s="99" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="146" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="61" t="s">
-        <v>293</v>
-      </c>
-      <c r="B146" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="C146" s="63" t="s">
-        <v>294</v>
-      </c>
-      <c r="D146" s="64" t="s">
-        <v>296</v>
-      </c>
-      <c r="E146" s="62" t="s">
-        <v>293</v>
-      </c>
-      <c r="F146" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G146" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H146" s="60" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="61" t="s">
-        <v>293</v>
-      </c>
-      <c r="B147" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="C147" s="63" t="s">
-        <v>294</v>
-      </c>
-      <c r="D147" s="64" t="s">
-        <v>297</v>
-      </c>
-      <c r="E147" s="62"/>
-      <c r="F147" s="50"/>
-      <c r="G147" s="50"/>
-      <c r="H147" s="60"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="61" t="s">
         <v>293</v>
       </c>
-      <c r="B148" s="50" t="s">
-        <v>140</v>
+      <c r="B148" s="62" t="s">
+        <v>141</v>
       </c>
       <c r="C148" s="63" t="s">
-        <v>307</v>
-      </c>
-      <c r="D148" s="53" t="s">
-        <v>308</v>
-      </c>
-      <c r="E148" s="50" t="s">
+        <v>294</v>
+      </c>
+      <c r="D148" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="E148" s="62" t="s">
         <v>293</v>
       </c>
       <c r="F148" s="50" t="s">
@@ -10319,49 +10334,43 @@
         <v>5</v>
       </c>
       <c r="H148" s="60" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="61" t="s">
         <v>293</v>
       </c>
-      <c r="B149" s="50" t="s">
-        <v>143</v>
+      <c r="B149" s="62" t="s">
+        <v>142</v>
       </c>
       <c r="C149" s="63" t="s">
-        <v>307</v>
-      </c>
-      <c r="D149" s="53" t="s">
-        <v>309</v>
-      </c>
-      <c r="E149" s="50" t="s">
-        <v>293</v>
-      </c>
-      <c r="F149" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G149" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H149" s="60" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+        <v>294</v>
+      </c>
+      <c r="D149" s="64" t="s">
+        <v>297</v>
+      </c>
+      <c r="E149" s="62"/>
+      <c r="F149" s="50"/>
+      <c r="G149" s="50"/>
+      <c r="H149" s="60"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="61" t="s">
         <v>293</v>
       </c>
       <c r="B150" s="50" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C150" s="63" t="s">
         <v>307</v>
       </c>
       <c r="D150" s="53" t="s">
-        <v>310</v>
-      </c>
-      <c r="E150" s="50"/>
+        <v>308</v>
+      </c>
+      <c r="E150" s="50" t="s">
+        <v>293</v>
+      </c>
       <c r="F150" s="50" t="s">
         <v>5</v>
       </c>
@@ -10372,40 +10381,46 @@
         <v>400</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A151" s="55" t="s">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="61" t="s">
         <v>293</v>
       </c>
       <c r="B151" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="C151" s="63" t="s">
+        <v>307</v>
+      </c>
+      <c r="D151" s="53" t="s">
+        <v>309</v>
+      </c>
+      <c r="E151" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="F151" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G151" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H151" s="60" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="61" t="s">
+        <v>293</v>
+      </c>
+      <c r="B152" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="C151" s="52" t="s">
-        <v>299</v>
-      </c>
-      <c r="D151" s="53" t="s">
-        <v>298</v>
-      </c>
-      <c r="E151" s="50"/>
-      <c r="F151" s="50"/>
-      <c r="G151" s="50"/>
-      <c r="H151" s="60"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A152" s="55" t="s">
-        <v>293</v>
-      </c>
-      <c r="B152" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="C152" s="52" t="s">
-        <v>306</v>
+      <c r="C152" s="63" t="s">
+        <v>307</v>
       </c>
       <c r="D152" s="53" t="s">
-        <v>300</v>
-      </c>
-      <c r="E152" s="50" t="s">
-        <v>463</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="E152" s="50"/>
       <c r="F152" s="50" t="s">
         <v>5</v>
       </c>
@@ -10416,33 +10431,25 @@
         <v>400</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="55" t="s">
         <v>293</v>
       </c>
       <c r="B153" s="50" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C153" s="52" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D153" s="53" t="s">
-        <v>301</v>
-      </c>
-      <c r="E153" s="50" t="s">
-        <v>493</v>
-      </c>
-      <c r="F153" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G153" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H153" s="60" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+      <c r="E153" s="50"/>
+      <c r="F153" s="50"/>
+      <c r="G153" s="50"/>
+      <c r="H153" s="60"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="55" t="s">
         <v>293</v>
       </c>
@@ -10450,144 +10457,146 @@
         <v>140</v>
       </c>
       <c r="C154" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="D154" s="53" t="s">
+        <v>300</v>
+      </c>
+      <c r="E154" s="50" t="s">
+        <v>463</v>
+      </c>
+      <c r="F154" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G154" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H154" s="60" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="B155" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C155" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="D155" s="53" t="s">
+        <v>301</v>
+      </c>
+      <c r="E155" s="50" t="s">
+        <v>493</v>
+      </c>
+      <c r="F155" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G155" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H155" s="60" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="B156" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C156" s="52" t="s">
         <v>302</v>
       </c>
-      <c r="D154" s="53" t="s">
+      <c r="D156" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="E154" s="50" t="s">
+      <c r="E156" s="50" t="s">
         <v>303</v>
       </c>
-      <c r="F154" s="50"/>
-      <c r="G154" s="50"/>
-      <c r="H154" s="60"/>
-    </row>
-    <row r="155" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="124" t="s">
+      <c r="F156" s="50"/>
+      <c r="G156" s="50"/>
+      <c r="H156" s="60"/>
+    </row>
+    <row r="157" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="124" t="s">
         <v>293</v>
       </c>
-      <c r="B155" s="100" t="s">
+      <c r="B157" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C155" s="101" t="s">
+      <c r="C157" s="101" t="s">
         <v>311</v>
       </c>
-      <c r="D155" s="102" t="s">
+      <c r="D157" s="102" t="s">
         <v>304</v>
       </c>
-      <c r="E155" s="100"/>
-      <c r="F155" s="100"/>
-      <c r="G155" s="100"/>
-      <c r="H155" s="126"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A156" s="104" t="s">
+      <c r="E157" s="100"/>
+      <c r="F157" s="100"/>
+      <c r="G157" s="100"/>
+      <c r="H157" s="126"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B156" s="105" t="s">
+      <c r="B158" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C156" s="106" t="s">
+      <c r="C158" s="106" t="s">
         <v>496</v>
       </c>
-      <c r="D156" s="107" t="s">
+      <c r="D158" s="107" t="s">
         <v>494</v>
       </c>
-      <c r="E156" s="105" t="s">
+      <c r="E158" s="105" t="s">
         <v>493</v>
       </c>
-      <c r="F156" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="G156" s="105"/>
-      <c r="H156" s="108" t="s">
+      <c r="F158" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G158" s="105"/>
+      <c r="H158" s="108" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A157" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B157" s="110" t="s">
-        <v>142</v>
-      </c>
-      <c r="C157" s="111" t="s">
-        <v>496</v>
-      </c>
-      <c r="D157" s="112" t="s">
-        <v>495</v>
-      </c>
-      <c r="E157" s="110"/>
-      <c r="F157" s="110"/>
-      <c r="G157" s="110"/>
-      <c r="H157" s="113"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A158" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B158" s="110" t="s">
-        <v>140</v>
-      </c>
-      <c r="C158" s="111" t="s">
-        <v>497</v>
-      </c>
-      <c r="D158" s="112" t="s">
-        <v>144</v>
-      </c>
-      <c r="E158" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="F158" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G158" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H158" s="113" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="109" t="s">
         <v>0</v>
       </c>
       <c r="B159" s="110" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C159" s="111" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D159" s="112" t="s">
-        <v>145</v>
-      </c>
-      <c r="E159" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="F159" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G159" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H159" s="113" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+      <c r="E159" s="110"/>
+      <c r="F159" s="110"/>
+      <c r="G159" s="110"/>
+      <c r="H159" s="113"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="109" t="s">
         <v>0</v>
       </c>
       <c r="B160" s="110" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C160" s="111" t="s">
         <v>497</v>
       </c>
       <c r="D160" s="112" t="s">
-        <v>146</v>
-      </c>
-      <c r="E160" s="110"/>
+        <v>144</v>
+      </c>
+      <c r="E160" s="110" t="s">
+        <v>0</v>
+      </c>
       <c r="F160" s="110" t="s">
         <v>5</v>
       </c>
@@ -10598,21 +10607,21 @@
         <v>400</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="109" t="s">
         <v>0</v>
       </c>
       <c r="B161" s="110" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C161" s="111" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D161" s="112" t="s">
-        <v>499</v>
+        <v>145</v>
       </c>
       <c r="E161" s="110" t="s">
-        <v>493</v>
+        <v>0</v>
       </c>
       <c r="F161" s="110" t="s">
         <v>5</v>
@@ -10621,25 +10630,23 @@
         <v>5</v>
       </c>
       <c r="H161" s="113" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="109" t="s">
         <v>0</v>
       </c>
       <c r="B162" s="110" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C162" s="111" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D162" s="112" t="s">
-        <v>501</v>
-      </c>
-      <c r="E162" s="110" t="s">
-        <v>0</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="E162" s="110"/>
       <c r="F162" s="110" t="s">
         <v>5</v>
       </c>
@@ -10647,24 +10654,24 @@
         <v>5</v>
       </c>
       <c r="H162" s="113" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="109" t="s">
         <v>0</v>
       </c>
       <c r="B163" s="110" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C163" s="111" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D163" s="112" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E163" s="110" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F163" s="110" t="s">
         <v>5</v>
@@ -10673,10 +10680,10 @@
         <v>5</v>
       </c>
       <c r="H163" s="113" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="109" t="s">
         <v>0</v>
       </c>
@@ -10684,110 +10691,118 @@
         <v>141</v>
       </c>
       <c r="C164" s="111" t="s">
+        <v>500</v>
+      </c>
+      <c r="D164" s="112" t="s">
+        <v>501</v>
+      </c>
+      <c r="E164" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="F164" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G164" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H164" s="113" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B165" s="110" t="s">
+        <v>141</v>
+      </c>
+      <c r="C165" s="111" t="s">
+        <v>502</v>
+      </c>
+      <c r="D165" s="112" t="s">
+        <v>503</v>
+      </c>
+      <c r="E165" s="110" t="s">
+        <v>504</v>
+      </c>
+      <c r="F165" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G165" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H165" s="113" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B166" s="110" t="s">
+        <v>141</v>
+      </c>
+      <c r="C166" s="111" t="s">
         <v>505</v>
       </c>
-      <c r="D164" s="112" t="s">
+      <c r="D166" s="112" t="s">
         <v>506</v>
       </c>
-      <c r="E164" s="110"/>
-      <c r="F164" s="110"/>
-      <c r="G164" s="110"/>
-      <c r="H164" s="113"/>
-    </row>
-    <row r="165" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="119" t="s">
+      <c r="E166" s="110"/>
+      <c r="F166" s="110"/>
+      <c r="G166" s="110"/>
+      <c r="H166" s="113"/>
+    </row>
+    <row r="167" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B165" s="120"/>
-      <c r="C165" s="121" t="s">
+      <c r="B167" s="120"/>
+      <c r="C167" s="121" t="s">
         <v>497</v>
       </c>
-      <c r="D165" s="122"/>
-      <c r="E165" s="120"/>
-      <c r="F165" s="120"/>
-      <c r="G165" s="120"/>
-      <c r="H165" s="123"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A166" s="94" t="s">
+      <c r="D167" s="122"/>
+      <c r="E167" s="120"/>
+      <c r="F167" s="120"/>
+      <c r="G167" s="120"/>
+      <c r="H167" s="123"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="94" t="s">
         <v>264</v>
       </c>
-      <c r="B166" s="95" t="s">
+      <c r="B168" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C166" s="96" t="s">
+      <c r="C168" s="96" t="s">
         <v>508</v>
       </c>
-      <c r="D166" s="97" t="s">
+      <c r="D168" s="97" t="s">
         <v>268</v>
       </c>
-      <c r="E166" s="95" t="s">
+      <c r="E168" s="95" t="s">
         <v>507</v>
       </c>
-      <c r="F166" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="G166" s="95"/>
-      <c r="H166" s="99" t="s">
+      <c r="F168" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G168" s="95"/>
+      <c r="H168" s="99" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A167" s="55" t="s">
-        <v>264</v>
-      </c>
-      <c r="B167" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C167" s="52" t="s">
-        <v>508</v>
-      </c>
-      <c r="D167" s="51" t="s">
-        <v>270</v>
-      </c>
-      <c r="E167" s="50" t="s">
-        <v>264</v>
-      </c>
-      <c r="F167" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G167" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H167" s="60" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A168" s="55" t="s">
-        <v>264</v>
-      </c>
-      <c r="B168" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="C168" s="52" t="s">
-        <v>508</v>
-      </c>
-      <c r="D168" s="51" t="s">
-        <v>269</v>
-      </c>
-      <c r="E168" s="50"/>
-      <c r="F168" s="50"/>
-      <c r="G168" s="50"/>
-      <c r="H168" s="60"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="55" t="s">
         <v>264</v>
       </c>
       <c r="B169" s="50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C169" s="52" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D169" s="51" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E169" s="50" t="s">
         <v>264</v>
@@ -10799,49 +10814,43 @@
         <v>5</v>
       </c>
       <c r="H169" s="60" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="55" t="s">
         <v>264</v>
       </c>
       <c r="B170" s="50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C170" s="52" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D170" s="51" t="s">
-        <v>266</v>
-      </c>
-      <c r="E170" s="50" t="s">
-        <v>264</v>
-      </c>
-      <c r="F170" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G170" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H170" s="60" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+      <c r="E170" s="50"/>
+      <c r="F170" s="50"/>
+      <c r="G170" s="50"/>
+      <c r="H170" s="60"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="55" t="s">
         <v>264</v>
       </c>
       <c r="B171" s="50" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C171" s="52" t="s">
         <v>510</v>
       </c>
       <c r="D171" s="51" t="s">
-        <v>267</v>
-      </c>
-      <c r="E171" s="50"/>
+        <v>265</v>
+      </c>
+      <c r="E171" s="50" t="s">
+        <v>264</v>
+      </c>
       <c r="F171" s="50" t="s">
         <v>5</v>
       </c>
@@ -10852,112 +10861,118 @@
         <v>400</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="124" t="s">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="55" t="s">
         <v>264</v>
       </c>
-      <c r="B172" s="100" t="s">
+      <c r="B172" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="C172" s="52" t="s">
+        <v>510</v>
+      </c>
+      <c r="D172" s="51" t="s">
+        <v>266</v>
+      </c>
+      <c r="E172" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="F172" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G172" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H172" s="60" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="55" t="s">
+        <v>264</v>
+      </c>
+      <c r="B173" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="C173" s="52" t="s">
+        <v>510</v>
+      </c>
+      <c r="D173" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="E173" s="50"/>
+      <c r="F173" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G173" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H173" s="60" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="124" t="s">
+        <v>264</v>
+      </c>
+      <c r="B174" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="C172" s="101" t="s">
+      <c r="C174" s="101" t="s">
         <v>509</v>
       </c>
-      <c r="D172" s="125" t="s">
+      <c r="D174" s="125" t="s">
         <v>271</v>
       </c>
-      <c r="E172" s="100" t="s">
+      <c r="E174" s="100" t="s">
         <v>264</v>
       </c>
-      <c r="F172" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="G172" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="H172" s="126" t="s">
+      <c r="F174" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G174" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H174" s="126" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A173" s="104" t="s">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="B173" s="105" t="s">
+      <c r="B175" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C173" s="106" t="s">
+      <c r="C175" s="106" t="s">
         <v>511</v>
       </c>
-      <c r="D173" s="107" t="s">
+      <c r="D175" s="107" t="s">
         <v>258</v>
       </c>
-      <c r="E173" s="105" t="s">
+      <c r="E175" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="F173" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="G173" s="105"/>
-      <c r="H173" s="108" t="s">
+      <c r="F175" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G175" s="105"/>
+      <c r="H175" s="108" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A174" s="109" t="s">
-        <v>125</v>
-      </c>
-      <c r="B174" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C174" s="111" t="s">
-        <v>511</v>
-      </c>
-      <c r="D174" s="112" t="s">
-        <v>260</v>
-      </c>
-      <c r="E174" s="110" t="s">
-        <v>125</v>
-      </c>
-      <c r="F174" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G174" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H174" s="113" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A175" s="109" t="s">
-        <v>125</v>
-      </c>
-      <c r="B175" s="110" t="s">
-        <v>142</v>
-      </c>
-      <c r="C175" s="111" t="s">
-        <v>511</v>
-      </c>
-      <c r="D175" s="112" t="s">
-        <v>259</v>
-      </c>
-      <c r="E175" s="110"/>
-      <c r="F175" s="110"/>
-      <c r="G175" s="110"/>
-      <c r="H175" s="113"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="109" t="s">
         <v>125</v>
       </c>
       <c r="B176" s="110" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C176" s="111" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D176" s="112" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E176" s="110" t="s">
         <v>125</v>
@@ -10969,49 +10984,43 @@
         <v>5</v>
       </c>
       <c r="H176" s="113" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="109" t="s">
         <v>125</v>
       </c>
       <c r="B177" s="110" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C177" s="111" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D177" s="112" t="s">
-        <v>262</v>
-      </c>
-      <c r="E177" s="110" t="s">
-        <v>125</v>
-      </c>
-      <c r="F177" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G177" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H177" s="113" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+      <c r="E177" s="110"/>
+      <c r="F177" s="110"/>
+      <c r="G177" s="110"/>
+      <c r="H177" s="113"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="109" t="s">
         <v>125</v>
       </c>
       <c r="B178" s="110" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C178" s="111" t="s">
         <v>512</v>
       </c>
       <c r="D178" s="112" t="s">
-        <v>263</v>
-      </c>
-      <c r="E178" s="110"/>
+        <v>261</v>
+      </c>
+      <c r="E178" s="110" t="s">
+        <v>125</v>
+      </c>
       <c r="F178" s="110" t="s">
         <v>5</v>
       </c>
@@ -11022,29 +11031,79 @@
         <v>400</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="114" t="s">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="B179" s="115" t="s">
+      <c r="B179" s="110" t="s">
+        <v>143</v>
+      </c>
+      <c r="C179" s="111" t="s">
+        <v>512</v>
+      </c>
+      <c r="D179" s="112" t="s">
+        <v>262</v>
+      </c>
+      <c r="E179" s="110" t="s">
+        <v>125</v>
+      </c>
+      <c r="F179" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G179" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H179" s="113" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="109" t="s">
+        <v>125</v>
+      </c>
+      <c r="B180" s="110" t="s">
+        <v>142</v>
+      </c>
+      <c r="C180" s="111" t="s">
+        <v>512</v>
+      </c>
+      <c r="D180" s="112" t="s">
+        <v>263</v>
+      </c>
+      <c r="E180" s="110"/>
+      <c r="F180" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G180" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H180" s="113" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="114" t="s">
+        <v>125</v>
+      </c>
+      <c r="B181" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="C179" s="116" t="s">
+      <c r="C181" s="116" t="s">
         <v>513</v>
       </c>
-      <c r="D179" s="117" t="s">
+      <c r="D181" s="117" t="s">
         <v>278</v>
       </c>
-      <c r="E179" s="115" t="s">
+      <c r="E181" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="F179" s="115" t="s">
-        <v>5</v>
-      </c>
-      <c r="G179" s="115" t="s">
-        <v>5</v>
-      </c>
-      <c r="H179" s="118" t="s">
+      <c r="F181" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="G181" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="H181" s="118" t="s">
         <v>400</v>
       </c>
     </row>
@@ -11069,18 +11128,18 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="66" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" style="66" customWidth="1"/>
-    <col min="3" max="3" width="35.109375" style="66" customWidth="1"/>
-    <col min="4" max="4" width="4.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="66" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" style="66" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" customWidth="1"/>
     <col min="5" max="5" width="21" style="66" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" style="66" customWidth="1"/>
-    <col min="7" max="7" width="35.109375" style="66" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="66" customWidth="1"/>
+    <col min="7" max="7" width="35.140625" style="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="165" t="s">
         <v>315</v>
       </c>
@@ -11092,7 +11151,7 @@
       <c r="F1" s="166"/>
       <c r="G1" s="167"/>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
         <v>316</v>
       </c>
@@ -11112,7 +11171,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="67" t="s">
         <v>319</v>
       </c>
@@ -11128,7 +11187,7 @@
       <c r="F3" s="68"/>
       <c r="G3" s="69"/>
     </row>
-    <row r="4" spans="1:7" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="70"/>
       <c r="B4" s="71" t="s">
         <v>327</v>
@@ -11140,7 +11199,7 @@
       <c r="F4" s="71"/>
       <c r="G4" s="72"/>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="76"/>
       <c r="B5" s="76"/>
       <c r="C5" s="76"/>
@@ -11148,7 +11207,7 @@
       <c r="F5" s="76"/>
       <c r="G5" s="76"/>
     </row>
-    <row r="6" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="67" t="s">
         <v>320</v>
       </c>
@@ -11162,7 +11221,7 @@
       <c r="F6" s="68"/>
       <c r="G6" s="69"/>
     </row>
-    <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="73"/>
       <c r="B7" s="9" t="s">
         <v>328</v>
@@ -11174,7 +11233,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="74"/>
     </row>
-    <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="73"/>
       <c r="B8" s="9" t="s">
         <v>329</v>
@@ -11186,7 +11245,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="74"/>
     </row>
-    <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="73"/>
       <c r="B9" s="9" t="s">
         <v>330</v>
@@ -11198,7 +11257,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="74"/>
     </row>
-    <row r="10" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="70"/>
       <c r="B10" s="71" t="s">
         <v>331</v>
@@ -11210,7 +11269,7 @@
       <c r="F10" s="71"/>
       <c r="G10" s="72"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="76"/>
       <c r="B11" s="76"/>
       <c r="C11" s="76"/>
@@ -11218,7 +11277,7 @@
       <c r="F11" s="76"/>
       <c r="G11" s="76"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="75" t="s">
         <v>325</v>
       </c>
@@ -11228,7 +11287,7 @@
       <c r="F12" s="75"/>
       <c r="G12" s="75"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -11236,7 +11295,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -11244,7 +11303,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -11252,7 +11311,7 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -11260,7 +11319,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -11268,7 +11327,7 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -11276,7 +11335,7 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -11284,7 +11343,7 @@
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -11292,7 +11351,7 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>

--- a/documentation/DataAndAPIMatchAware.xlsx
+++ b/documentation/DataAndAPIMatchAware.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="535">
   <si>
     <t>USER</t>
   </si>
@@ -1635,6 +1635,12 @@
   </si>
   <si>
     <t>Add multiple roles to the same user and club</t>
+  </si>
+  <si>
+    <t>/club_roles/:clubRoleId</t>
+  </si>
+  <si>
+    <t>Delete a specific club role</t>
   </si>
 </sst>
 </file>
@@ -2587,6 +2593,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2595,18 +2613,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2929,7 +2935,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2953,13 +2959,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
     </row>
     <row r="2" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="88"/>
@@ -2969,13 +2975,13 @@
       <c r="E2" s="88"/>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="157" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="161"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="159"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
@@ -3100,13 +3106,13 @@
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="159" t="s">
+      <c r="A14" s="157" t="s">
         <v>290</v>
       </c>
-      <c r="B14" s="160"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="161"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="159"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
@@ -3183,13 +3189,13 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="159" t="s">
+      <c r="A21" s="157" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="160"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="160"/>
-      <c r="E21" s="161"/>
+      <c r="B21" s="158"/>
+      <c r="C21" s="158"/>
+      <c r="D21" s="158"/>
+      <c r="E21" s="159"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
@@ -3262,13 +3268,13 @@
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="159" t="s">
+      <c r="A28" s="157" t="s">
         <v>279</v>
       </c>
-      <c r="B28" s="160"/>
-      <c r="C28" s="160"/>
-      <c r="D28" s="160"/>
-      <c r="E28" s="161"/>
+      <c r="B28" s="158"/>
+      <c r="C28" s="158"/>
+      <c r="D28" s="158"/>
+      <c r="E28" s="159"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
@@ -3663,13 +3669,13 @@
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="159" t="s">
+      <c r="A61" s="157" t="s">
         <v>97</v>
       </c>
-      <c r="B61" s="160"/>
-      <c r="C61" s="160"/>
-      <c r="D61" s="160"/>
-      <c r="E61" s="161"/>
+      <c r="B61" s="158"/>
+      <c r="C61" s="158"/>
+      <c r="D61" s="158"/>
+      <c r="E61" s="159"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
@@ -4003,13 +4009,13 @@
     </row>
     <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="159" t="s">
+      <c r="A89" s="157" t="s">
         <v>96</v>
       </c>
-      <c r="B89" s="160"/>
-      <c r="C89" s="160"/>
-      <c r="D89" s="160"/>
-      <c r="E89" s="161"/>
+      <c r="B89" s="158"/>
+      <c r="C89" s="158"/>
+      <c r="D89" s="158"/>
+      <c r="E89" s="159"/>
     </row>
     <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="s">
@@ -5284,13 +5290,13 @@
     </row>
     <row r="197" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="198" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="159" t="s">
+      <c r="A198" s="157" t="s">
         <v>123</v>
       </c>
-      <c r="B198" s="160"/>
-      <c r="C198" s="160"/>
-      <c r="D198" s="160"/>
-      <c r="E198" s="161"/>
+      <c r="B198" s="158"/>
+      <c r="C198" s="158"/>
+      <c r="D198" s="158"/>
+      <c r="E198" s="159"/>
     </row>
     <row r="199" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="14" t="s">
@@ -5363,13 +5369,13 @@
     </row>
     <row r="204" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="205" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="159" t="s">
+      <c r="A205" s="157" t="s">
         <v>134</v>
       </c>
-      <c r="B205" s="160"/>
-      <c r="C205" s="160"/>
-      <c r="D205" s="160"/>
-      <c r="E205" s="161"/>
+      <c r="B205" s="158"/>
+      <c r="C205" s="158"/>
+      <c r="D205" s="158"/>
+      <c r="E205" s="159"/>
     </row>
     <row r="206" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="14" t="s">
@@ -5464,13 +5470,13 @@
     </row>
     <row r="213" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="214" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="159" t="s">
+      <c r="A214" s="157" t="s">
         <v>285</v>
       </c>
-      <c r="B214" s="160"/>
-      <c r="C214" s="160"/>
-      <c r="D214" s="160"/>
-      <c r="E214" s="161"/>
+      <c r="B214" s="158"/>
+      <c r="C214" s="158"/>
+      <c r="D214" s="158"/>
+      <c r="E214" s="159"/>
     </row>
     <row r="215" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="14" t="s">
@@ -5700,13 +5706,13 @@
     </row>
     <row r="233" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="234" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="156" t="s">
+      <c r="A234" s="160" t="s">
         <v>287</v>
       </c>
-      <c r="B234" s="157"/>
-      <c r="C234" s="157"/>
-      <c r="D234" s="157"/>
-      <c r="E234" s="158"/>
+      <c r="B234" s="161"/>
+      <c r="C234" s="161"/>
+      <c r="D234" s="161"/>
+      <c r="E234" s="162"/>
     </row>
     <row r="235" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="14" t="s">
@@ -6277,13 +6283,13 @@
     </row>
     <row r="282" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="283" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A283" s="159" t="s">
+      <c r="A283" s="157" t="s">
         <v>289</v>
       </c>
-      <c r="B283" s="160"/>
-      <c r="C283" s="160"/>
-      <c r="D283" s="160"/>
-      <c r="E283" s="161"/>
+      <c r="B283" s="158"/>
+      <c r="C283" s="158"/>
+      <c r="D283" s="158"/>
+      <c r="E283" s="159"/>
     </row>
     <row r="284" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="30" t="s">
@@ -6696,6 +6702,28 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A303:E303"/>
+    <mergeCell ref="A312:E312"/>
+    <mergeCell ref="A234:E234"/>
+    <mergeCell ref="A248:E248"/>
+    <mergeCell ref="A269:E269"/>
+    <mergeCell ref="A277:E277"/>
+    <mergeCell ref="A283:E283"/>
+    <mergeCell ref="A193:E193"/>
+    <mergeCell ref="A198:E198"/>
+    <mergeCell ref="A205:E205"/>
+    <mergeCell ref="A214:E214"/>
+    <mergeCell ref="A225:E225"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A173:E173"/>
+    <mergeCell ref="A186:E186"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="A125:E125"/>
     <mergeCell ref="A46:E46"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A14:E14"/>
@@ -6703,28 +6731,6 @@
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="A38:E38"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="A94:E94"/>
-    <mergeCell ref="A125:E125"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="A173:E173"/>
-    <mergeCell ref="A186:E186"/>
-    <mergeCell ref="A193:E193"/>
-    <mergeCell ref="A198:E198"/>
-    <mergeCell ref="A205:E205"/>
-    <mergeCell ref="A214:E214"/>
-    <mergeCell ref="A225:E225"/>
-    <mergeCell ref="A303:E303"/>
-    <mergeCell ref="A312:E312"/>
-    <mergeCell ref="A234:E234"/>
-    <mergeCell ref="A248:E248"/>
-    <mergeCell ref="A269:E269"/>
-    <mergeCell ref="A277:E277"/>
-    <mergeCell ref="A283:E283"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6738,8 +6744,8 @@
   </sheetPr>
   <dimension ref="A1:H181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K145" sqref="K145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7716,127 +7722,119 @@
         <v>515</v>
       </c>
       <c r="B41" s="142" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C41" s="143" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D41" s="144" t="s">
-        <v>532</v>
-      </c>
-      <c r="E41" s="142" t="s">
-        <v>517</v>
-      </c>
-      <c r="F41" s="142" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="142" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="145" t="s">
-        <v>411</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="E41" s="142"/>
+      <c r="F41" s="142"/>
+      <c r="G41" s="142"/>
+      <c r="H41" s="145"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="147" t="s">
         <v>515</v>
       </c>
       <c r="B42" s="142" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="143" t="s">
+        <v>531</v>
+      </c>
+      <c r="D42" s="144" t="s">
+        <v>532</v>
+      </c>
+      <c r="E42" s="142" t="s">
+        <v>517</v>
+      </c>
+      <c r="F42" s="142" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="142" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="145" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="147" t="s">
+        <v>515</v>
+      </c>
+      <c r="B43" s="142" t="s">
         <v>140</v>
       </c>
-      <c r="C42" s="143" t="s">
+      <c r="C43" s="143" t="s">
         <v>520</v>
       </c>
-      <c r="D42" s="144" t="s">
+      <c r="D43" s="144" t="s">
         <v>514</v>
       </c>
-      <c r="E42" s="142" t="s">
+      <c r="E43" s="142" t="s">
         <v>493</v>
       </c>
-      <c r="F42" s="142" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="142" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="145" t="s">
+      <c r="F43" s="142" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="142" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="145" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="148" t="s">
+    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="148" t="s">
         <v>515</v>
       </c>
-      <c r="B43" s="149" t="s">
+      <c r="B44" s="149" t="s">
         <v>140</v>
       </c>
-      <c r="C43" s="150" t="s">
+      <c r="C44" s="150" t="s">
         <v>521</v>
       </c>
-      <c r="D43" s="151" t="s">
+      <c r="D44" s="151" t="s">
         <v>418</v>
       </c>
-      <c r="E43" s="149" t="s">
+      <c r="E44" s="149" t="s">
         <v>413</v>
       </c>
-      <c r="F43" s="149" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="149" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="152" t="s">
+      <c r="F44" s="149" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="149" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="152" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="133" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="133" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="134" t="s">
+      <c r="B45" s="134" t="s">
         <v>140</v>
       </c>
-      <c r="C44" s="135" t="s">
+      <c r="C45" s="135" t="s">
         <v>419</v>
       </c>
-      <c r="D44" s="136" t="s">
+      <c r="D45" s="136" t="s">
         <v>214</v>
       </c>
-      <c r="E44" s="134" t="s">
+      <c r="E45" s="134" t="s">
         <v>425</v>
       </c>
-      <c r="F44" s="134" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="134"/>
-      <c r="H44" s="146" t="s">
+      <c r="F45" s="134" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="134"/>
+      <c r="H45" s="146" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="109" t="s">
-        <v>97</v>
-      </c>
-      <c r="B45" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C45" s="111" t="s">
-        <v>419</v>
-      </c>
-      <c r="D45" s="112" t="s">
-        <v>216</v>
-      </c>
-      <c r="E45" s="110" t="s">
-        <v>97</v>
-      </c>
-      <c r="F45" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" s="113" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -7844,57 +7842,57 @@
         <v>97</v>
       </c>
       <c r="B46" s="110" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C46" s="111" t="s">
         <v>419</v>
       </c>
       <c r="D46" s="112" t="s">
-        <v>215</v>
-      </c>
-      <c r="E46" s="110"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="113"/>
+        <v>216</v>
+      </c>
+      <c r="E46" s="110" t="s">
+        <v>97</v>
+      </c>
+      <c r="F46" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="113" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="109" t="s">
         <v>97</v>
       </c>
       <c r="B47" s="110" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C47" s="111" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D47" s="112" t="s">
-        <v>254</v>
-      </c>
-      <c r="E47" s="110" t="s">
-        <v>97</v>
-      </c>
-      <c r="F47" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="113" t="s">
-        <v>400</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="E47" s="110"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="110"/>
+      <c r="H47" s="113"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="109" t="s">
         <v>97</v>
       </c>
       <c r="B48" s="110" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C48" s="111" t="s">
         <v>420</v>
       </c>
       <c r="D48" s="112" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="E48" s="110" t="s">
         <v>97</v>
@@ -7906,7 +7904,7 @@
         <v>5</v>
       </c>
       <c r="H48" s="113" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -7914,15 +7912,17 @@
         <v>97</v>
       </c>
       <c r="B49" s="110" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C49" s="111" t="s">
         <v>420</v>
       </c>
       <c r="D49" s="112" t="s">
-        <v>218</v>
-      </c>
-      <c r="E49" s="110"/>
+        <v>217</v>
+      </c>
+      <c r="E49" s="110" t="s">
+        <v>97</v>
+      </c>
       <c r="F49" s="110" t="s">
         <v>5</v>
       </c>
@@ -7930,7 +7930,7 @@
         <v>5</v>
       </c>
       <c r="H49" s="113" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -7938,17 +7938,15 @@
         <v>97</v>
       </c>
       <c r="B50" s="110" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C50" s="111" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D50" s="112" t="s">
-        <v>220</v>
-      </c>
-      <c r="E50" s="110" t="s">
-        <v>425</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="E50" s="110"/>
       <c r="F50" s="110" t="s">
         <v>5</v>
       </c>
@@ -7967,10 +7965,10 @@
         <v>140</v>
       </c>
       <c r="C51" s="111" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D51" s="112" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E51" s="110" t="s">
         <v>425</v>
@@ -7993,10 +7991,10 @@
         <v>140</v>
       </c>
       <c r="C52" s="111" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D52" s="112" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E52" s="110" t="s">
         <v>425</v>
@@ -8011,80 +8009,80 @@
         <v>400</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="119" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="B53" s="120" t="s">
+      <c r="B53" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="C53" s="121" t="s">
+      <c r="C53" s="111" t="s">
+        <v>423</v>
+      </c>
+      <c r="D53" s="112" t="s">
+        <v>219</v>
+      </c>
+      <c r="E53" s="110" t="s">
+        <v>425</v>
+      </c>
+      <c r="F53" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H53" s="113" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="119" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" s="120" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54" s="121" t="s">
         <v>424</v>
       </c>
-      <c r="D53" s="122" t="s">
+      <c r="D54" s="122" t="s">
         <v>221</v>
       </c>
-      <c r="E53" s="120" t="s">
+      <c r="E54" s="120" t="s">
         <v>425</v>
       </c>
-      <c r="F53" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G53" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="H53" s="123" t="s">
+      <c r="F54" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="123" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="94" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="94" t="s">
         <v>207</v>
       </c>
-      <c r="B54" s="95" t="s">
+      <c r="B55" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C54" s="96" t="s">
+      <c r="C55" s="96" t="s">
         <v>208</v>
       </c>
-      <c r="D54" s="97" t="s">
+      <c r="D55" s="97" t="s">
         <v>427</v>
       </c>
-      <c r="E54" s="95" t="s">
+      <c r="E55" s="95" t="s">
         <v>426</v>
       </c>
-      <c r="F54" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="95"/>
-      <c r="H54" s="99" t="s">
+      <c r="F55" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" s="95"/>
+      <c r="H55" s="99" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="55" t="s">
-        <v>207</v>
-      </c>
-      <c r="B55" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C55" s="52" t="s">
-        <v>208</v>
-      </c>
-      <c r="D55" s="51" t="s">
-        <v>211</v>
-      </c>
-      <c r="E55" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="F55" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G55" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H55" s="60" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -8092,57 +8090,57 @@
         <v>207</v>
       </c>
       <c r="B56" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C56" s="52" t="s">
         <v>208</v>
       </c>
       <c r="D56" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="E56" s="50"/>
-      <c r="F56" s="50"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="60"/>
+        <v>211</v>
+      </c>
+      <c r="E56" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="F56" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H56" s="60" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="55" t="s">
         <v>207</v>
       </c>
       <c r="B57" s="50" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C57" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D57" s="51" t="s">
-        <v>253</v>
-      </c>
-      <c r="E57" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="F57" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="60" t="s">
-        <v>400</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="60"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="55" t="s">
         <v>207</v>
       </c>
       <c r="B58" s="50" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C58" s="52" t="s">
         <v>209</v>
       </c>
       <c r="D58" s="51" t="s">
-        <v>212</v>
+        <v>253</v>
       </c>
       <c r="E58" s="50" t="s">
         <v>207</v>
@@ -8154,81 +8152,81 @@
         <v>5</v>
       </c>
       <c r="H58" s="60" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="B59" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="D59" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="E59" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="F59" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="60" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="124" t="s">
+    <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="124" t="s">
         <v>207</v>
       </c>
-      <c r="B59" s="100" t="s">
+      <c r="B60" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C59" s="101" t="s">
+      <c r="C60" s="101" t="s">
         <v>209</v>
       </c>
-      <c r="D59" s="125" t="s">
+      <c r="D60" s="125" t="s">
         <v>213</v>
       </c>
-      <c r="E59" s="100"/>
-      <c r="F59" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="126" t="s">
+      <c r="E60" s="100"/>
+      <c r="F60" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="126" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="104" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="B60" s="105" t="s">
+      <c r="B61" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C60" s="106" t="s">
+      <c r="C61" s="106" t="s">
         <v>428</v>
       </c>
-      <c r="D60" s="107" t="s">
+      <c r="D61" s="107" t="s">
         <v>430</v>
       </c>
-      <c r="E60" s="105" t="s">
+      <c r="E61" s="105" t="s">
         <v>431</v>
       </c>
-      <c r="F60" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="105"/>
-      <c r="H60" s="108" t="s">
+      <c r="F61" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61" s="105"/>
+      <c r="H61" s="108" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="109" t="s">
-        <v>38</v>
-      </c>
-      <c r="B61" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C61" s="111" t="s">
-        <v>428</v>
-      </c>
-      <c r="D61" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="E61" s="110" t="s">
-        <v>38</v>
-      </c>
-      <c r="F61" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G61" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H61" s="113" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -8236,57 +8234,57 @@
         <v>38</v>
       </c>
       <c r="B62" s="110" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C62" s="111" t="s">
         <v>428</v>
       </c>
       <c r="D62" s="112" t="s">
-        <v>197</v>
-      </c>
-      <c r="E62" s="110"/>
-      <c r="F62" s="110"/>
-      <c r="G62" s="110"/>
-      <c r="H62" s="113"/>
+        <v>191</v>
+      </c>
+      <c r="E62" s="110" t="s">
+        <v>38</v>
+      </c>
+      <c r="F62" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="113" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="109" t="s">
         <v>38</v>
       </c>
       <c r="B63" s="110" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C63" s="111" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D63" s="112" t="s">
-        <v>274</v>
-      </c>
-      <c r="E63" s="110" t="s">
-        <v>38</v>
-      </c>
-      <c r="F63" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G63" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H63" s="113" t="s">
-        <v>400</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="E63" s="110"/>
+      <c r="F63" s="110"/>
+      <c r="G63" s="110"/>
+      <c r="H63" s="113"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="109" t="s">
         <v>38</v>
       </c>
       <c r="B64" s="110" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C64" s="111" t="s">
         <v>429</v>
       </c>
       <c r="D64" s="112" t="s">
-        <v>192</v>
+        <v>274</v>
       </c>
       <c r="E64" s="110" t="s">
         <v>38</v>
@@ -8298,7 +8296,7 @@
         <v>5</v>
       </c>
       <c r="H64" s="113" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -8306,15 +8304,17 @@
         <v>38</v>
       </c>
       <c r="B65" s="110" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C65" s="111" t="s">
         <v>429</v>
       </c>
       <c r="D65" s="112" t="s">
-        <v>193</v>
-      </c>
-      <c r="E65" s="110"/>
+        <v>192</v>
+      </c>
+      <c r="E65" s="110" t="s">
+        <v>38</v>
+      </c>
       <c r="F65" s="110" t="s">
         <v>5</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>5</v>
       </c>
       <c r="H65" s="113" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -8330,17 +8330,15 @@
         <v>38</v>
       </c>
       <c r="B66" s="110" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C66" s="111" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D66" s="112" t="s">
-        <v>433</v>
-      </c>
-      <c r="E66" s="110" t="s">
-        <v>38</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="E66" s="110"/>
       <c r="F66" s="110" t="s">
         <v>5</v>
       </c>
@@ -8359,10 +8357,10 @@
         <v>143</v>
       </c>
       <c r="C67" s="111" t="s">
-        <v>527</v>
+        <v>432</v>
       </c>
       <c r="D67" s="112" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E67" s="110" t="s">
         <v>38</v>
@@ -8385,7 +8383,7 @@
         <v>143</v>
       </c>
       <c r="C68" s="111" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D68" s="112" t="s">
         <v>434</v>
@@ -8403,138 +8401,138 @@
         <v>400</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="119" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="B69" s="120" t="s">
+      <c r="B69" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="C69" s="121" t="s">
+      <c r="C69" s="111" t="s">
+        <v>528</v>
+      </c>
+      <c r="D69" s="112" t="s">
+        <v>434</v>
+      </c>
+      <c r="E69" s="110" t="s">
+        <v>38</v>
+      </c>
+      <c r="F69" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H69" s="113" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="119" t="s">
+        <v>38</v>
+      </c>
+      <c r="B70" s="120" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" s="121" t="s">
         <v>435</v>
       </c>
-      <c r="D69" s="122" t="s">
+      <c r="D70" s="122" t="s">
         <v>436</v>
       </c>
-      <c r="E69" s="120" t="s">
+      <c r="E70" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="F69" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G69" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="H69" s="123" t="s">
+      <c r="F70" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G70" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H70" s="123" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="94" t="s">
+    <row r="71" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="B70" s="95" t="s">
+      <c r="B71" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C70" s="96" t="s">
+      <c r="C71" s="96" t="s">
         <v>441</v>
       </c>
-      <c r="D70" s="97" t="s">
+      <c r="D71" s="97" t="s">
         <v>438</v>
       </c>
-      <c r="E70" s="95" t="s">
+      <c r="E71" s="95" t="s">
         <v>437</v>
       </c>
-      <c r="F70" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="G70" s="95"/>
-      <c r="H70" s="99" t="s">
+      <c r="F71" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G71" s="95"/>
+      <c r="H71" s="99" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="B71" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C71" s="52" t="s">
-        <v>441</v>
-      </c>
-      <c r="D71" s="51" t="s">
-        <v>194</v>
-      </c>
-      <c r="E71" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="F71" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G71" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H71" s="60" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="55" t="s">
         <v>63</v>
       </c>
       <c r="B72" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C72" s="52" t="s">
         <v>441</v>
       </c>
       <c r="D72" s="51" t="s">
-        <v>198</v>
-      </c>
-      <c r="E72" s="50"/>
-      <c r="F72" s="50"/>
-      <c r="G72" s="50"/>
-      <c r="H72" s="60"/>
+        <v>194</v>
+      </c>
+      <c r="E72" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="F72" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="60" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="55" t="s">
         <v>63</v>
       </c>
       <c r="B73" s="50" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C73" s="52" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D73" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="E73" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="F73" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G73" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H73" s="60" t="s">
-        <v>400</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="E73" s="50"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="60"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="55" t="s">
         <v>63</v>
       </c>
       <c r="B74" s="50" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C74" s="52" t="s">
         <v>442</v>
       </c>
       <c r="D74" s="51" t="s">
-        <v>195</v>
+        <v>250</v>
       </c>
       <c r="E74" s="50" t="s">
         <v>63</v>
@@ -8546,81 +8544,81 @@
         <v>5</v>
       </c>
       <c r="H74" s="60" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B75" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="C75" s="52" t="s">
+        <v>442</v>
+      </c>
+      <c r="D75" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="E75" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="F75" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G75" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H75" s="60" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="124" t="s">
+    <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="B75" s="100" t="s">
+      <c r="B76" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C75" s="101" t="s">
+      <c r="C76" s="101" t="s">
         <v>442</v>
       </c>
-      <c r="D75" s="125" t="s">
+      <c r="D76" s="125" t="s">
         <v>196</v>
       </c>
-      <c r="E75" s="100"/>
-      <c r="F75" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="G75" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="H75" s="126" t="s">
+      <c r="E76" s="100"/>
+      <c r="F76" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" s="126" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="104" t="s">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="B76" s="105" t="s">
+      <c r="B77" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C76" s="106" t="s">
+      <c r="C77" s="106" t="s">
         <v>443</v>
       </c>
-      <c r="D76" s="107" t="s">
+      <c r="D77" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="E76" s="105" t="s">
+      <c r="E77" s="105" t="s">
         <v>440</v>
       </c>
-      <c r="F76" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" s="105"/>
-      <c r="H76" s="108" t="s">
+      <c r="F77" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G77" s="105"/>
+      <c r="H77" s="108" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="109" t="s">
-        <v>58</v>
-      </c>
-      <c r="B77" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C77" s="111" t="s">
-        <v>443</v>
-      </c>
-      <c r="D77" s="112" t="s">
-        <v>200</v>
-      </c>
-      <c r="E77" s="110" t="s">
-        <v>58</v>
-      </c>
-      <c r="F77" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G77" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H77" s="113" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -8628,57 +8626,57 @@
         <v>58</v>
       </c>
       <c r="B78" s="110" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C78" s="111" t="s">
         <v>443</v>
       </c>
       <c r="D78" s="112" t="s">
-        <v>199</v>
-      </c>
-      <c r="E78" s="110"/>
-      <c r="F78" s="110"/>
-      <c r="G78" s="110"/>
-      <c r="H78" s="113"/>
+        <v>200</v>
+      </c>
+      <c r="E78" s="110" t="s">
+        <v>58</v>
+      </c>
+      <c r="F78" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G78" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H78" s="113" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="109" t="s">
         <v>58</v>
       </c>
       <c r="B79" s="110" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C79" s="111" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D79" s="112" t="s">
-        <v>251</v>
-      </c>
-      <c r="E79" s="110" t="s">
-        <v>58</v>
-      </c>
-      <c r="F79" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G79" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H79" s="113" t="s">
-        <v>400</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="E79" s="110"/>
+      <c r="F79" s="110"/>
+      <c r="G79" s="110"/>
+      <c r="H79" s="113"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="109" t="s">
         <v>58</v>
       </c>
       <c r="B80" s="110" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C80" s="111" t="s">
         <v>444</v>
       </c>
       <c r="D80" s="112" t="s">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="E80" s="110" t="s">
         <v>58</v>
@@ -8690,81 +8688,81 @@
         <v>5</v>
       </c>
       <c r="H80" s="113" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="109" t="s">
+        <v>58</v>
+      </c>
+      <c r="B81" s="110" t="s">
+        <v>143</v>
+      </c>
+      <c r="C81" s="111" t="s">
+        <v>444</v>
+      </c>
+      <c r="D81" s="112" t="s">
+        <v>201</v>
+      </c>
+      <c r="E81" s="110" t="s">
+        <v>58</v>
+      </c>
+      <c r="F81" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="113" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="114" t="s">
+    <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="B81" s="115" t="s">
+      <c r="B82" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="C81" s="116" t="s">
+      <c r="C82" s="116" t="s">
         <v>444</v>
       </c>
-      <c r="D81" s="117" t="s">
+      <c r="D82" s="117" t="s">
         <v>202</v>
       </c>
-      <c r="E81" s="115"/>
-      <c r="F81" s="115" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="115" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="118" t="s">
+      <c r="E82" s="115"/>
+      <c r="F82" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="G82" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="H82" s="118" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="94" t="s">
+    <row r="83" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="94" t="s">
         <v>292</v>
       </c>
-      <c r="B82" s="95" t="s">
+      <c r="B83" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C82" s="96" t="s">
+      <c r="C83" s="96" t="s">
         <v>445</v>
       </c>
-      <c r="D82" s="127" t="s">
+      <c r="D83" s="127" t="s">
         <v>448</v>
       </c>
-      <c r="E82" s="95" t="s">
+      <c r="E83" s="95" t="s">
         <v>447</v>
       </c>
-      <c r="F82" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="G82" s="95"/>
-      <c r="H82" s="99" t="s">
+      <c r="F83" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="95"/>
+      <c r="H83" s="99" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="55" t="s">
-        <v>292</v>
-      </c>
-      <c r="B83" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C83" s="52" t="s">
-        <v>445</v>
-      </c>
-      <c r="D83" s="53" t="s">
-        <v>449</v>
-      </c>
-      <c r="E83" s="50" t="s">
-        <v>292</v>
-      </c>
-      <c r="F83" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="60" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.25">
@@ -8772,57 +8770,57 @@
         <v>292</v>
       </c>
       <c r="B84" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C84" s="52" t="s">
         <v>445</v>
       </c>
       <c r="D84" s="53" t="s">
-        <v>450</v>
-      </c>
-      <c r="E84" s="50"/>
-      <c r="F84" s="50"/>
-      <c r="G84" s="50"/>
-      <c r="H84" s="60"/>
+        <v>449</v>
+      </c>
+      <c r="E84" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="F84" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G84" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H84" s="60" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="85" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="55" t="s">
         <v>292</v>
       </c>
       <c r="B85" s="50" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C85" s="52" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D85" s="53" t="s">
-        <v>451</v>
-      </c>
-      <c r="E85" s="50" t="s">
-        <v>292</v>
-      </c>
-      <c r="F85" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G85" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H85" s="60" t="s">
-        <v>400</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="E85" s="50"/>
+      <c r="F85" s="50"/>
+      <c r="G85" s="50"/>
+      <c r="H85" s="60"/>
     </row>
     <row r="86" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="55" t="s">
         <v>292</v>
       </c>
       <c r="B86" s="50" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C86" s="52" t="s">
         <v>446</v>
       </c>
       <c r="D86" s="53" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E86" s="50" t="s">
         <v>292</v>
@@ -8834,81 +8832,81 @@
         <v>5</v>
       </c>
       <c r="H86" s="60" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="B87" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="C87" s="52" t="s">
+        <v>446</v>
+      </c>
+      <c r="D87" s="53" t="s">
+        <v>452</v>
+      </c>
+      <c r="E87" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="F87" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G87" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H87" s="60" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="128" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="124" t="s">
+    <row r="88" spans="1:8" s="128" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="124" t="s">
         <v>292</v>
       </c>
-      <c r="B87" s="100" t="s">
+      <c r="B88" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C87" s="101" t="s">
+      <c r="C88" s="101" t="s">
         <v>446</v>
       </c>
-      <c r="D87" s="102" t="s">
+      <c r="D88" s="102" t="s">
         <v>453</v>
       </c>
-      <c r="E87" s="100"/>
-      <c r="F87" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="G87" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="H87" s="126" t="s">
+      <c r="E88" s="100"/>
+      <c r="F88" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G88" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H88" s="126" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="104" t="s">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="105" t="s">
+      <c r="B89" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C88" s="106" t="s">
+      <c r="C89" s="106" t="s">
         <v>454</v>
       </c>
-      <c r="D88" s="107" t="s">
+      <c r="D89" s="107" t="s">
         <v>456</v>
       </c>
-      <c r="E88" s="105" t="s">
+      <c r="E89" s="105" t="s">
         <v>467</v>
       </c>
-      <c r="F88" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="G88" s="105"/>
-      <c r="H88" s="108" t="s">
+      <c r="F89" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="105"/>
+      <c r="H89" s="108" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B89" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C89" s="111" t="s">
-        <v>454</v>
-      </c>
-      <c r="D89" s="112" t="s">
-        <v>163</v>
-      </c>
-      <c r="E89" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="113" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -8916,57 +8914,57 @@
         <v>10</v>
       </c>
       <c r="B90" s="110" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C90" s="111" t="s">
         <v>454</v>
       </c>
       <c r="D90" s="112" t="s">
-        <v>162</v>
-      </c>
-      <c r="E90" s="110"/>
-      <c r="F90" s="110"/>
-      <c r="G90" s="110"/>
-      <c r="H90" s="113"/>
+        <v>163</v>
+      </c>
+      <c r="E90" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G90" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H90" s="113" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="109" t="s">
         <v>10</v>
       </c>
       <c r="B91" s="110" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C91" s="111" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D91" s="112" t="s">
-        <v>245</v>
-      </c>
-      <c r="E91" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="F91" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="113" t="s">
-        <v>400</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="E91" s="110"/>
+      <c r="F91" s="110"/>
+      <c r="G91" s="110"/>
+      <c r="H91" s="113"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="109" t="s">
         <v>10</v>
       </c>
       <c r="B92" s="110" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C92" s="111" t="s">
         <v>455</v>
       </c>
       <c r="D92" s="112" t="s">
-        <v>164</v>
+        <v>245</v>
       </c>
       <c r="E92" s="110" t="s">
         <v>10</v>
@@ -8978,81 +8976,81 @@
         <v>5</v>
       </c>
       <c r="H92" s="113" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93" s="110" t="s">
+        <v>143</v>
+      </c>
+      <c r="C93" s="111" t="s">
+        <v>455</v>
+      </c>
+      <c r="D93" s="112" t="s">
+        <v>164</v>
+      </c>
+      <c r="E93" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G93" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H93" s="113" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="119" t="s">
+    <row r="94" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="B93" s="120" t="s">
+      <c r="B94" s="120" t="s">
         <v>142</v>
       </c>
-      <c r="C93" s="121" t="s">
+      <c r="C94" s="121" t="s">
         <v>455</v>
       </c>
-      <c r="D93" s="122" t="s">
+      <c r="D94" s="122" t="s">
         <v>165</v>
       </c>
-      <c r="E93" s="120"/>
-      <c r="F93" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G93" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="H93" s="123" t="s">
+      <c r="E94" s="120"/>
+      <c r="F94" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="123" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="94" t="s">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="94" t="s">
         <v>166</v>
       </c>
-      <c r="B94" s="95" t="s">
+      <c r="B95" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C94" s="96" t="s">
+      <c r="C95" s="96" t="s">
         <v>457</v>
       </c>
-      <c r="D94" s="97" t="s">
+      <c r="D95" s="97" t="s">
         <v>458</v>
       </c>
-      <c r="E94" s="95" t="s">
+      <c r="E95" s="95" t="s">
         <v>459</v>
       </c>
-      <c r="F94" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="95"/>
-      <c r="H94" s="99" t="s">
+      <c r="F95" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G95" s="95"/>
+      <c r="H95" s="99" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="55" t="s">
-        <v>166</v>
-      </c>
-      <c r="B95" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C95" s="52" t="s">
-        <v>457</v>
-      </c>
-      <c r="D95" s="51" t="s">
-        <v>167</v>
-      </c>
-      <c r="E95" s="50" t="s">
-        <v>166</v>
-      </c>
-      <c r="F95" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G95" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H95" s="60" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -9060,18 +9058,26 @@
         <v>166</v>
       </c>
       <c r="B96" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C96" s="52" t="s">
         <v>457</v>
       </c>
       <c r="D96" s="51" t="s">
-        <v>273</v>
-      </c>
-      <c r="E96" s="50"/>
-      <c r="F96" s="50"/>
-      <c r="G96" s="50"/>
-      <c r="H96" s="60"/>
+        <v>167</v>
+      </c>
+      <c r="E96" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="F96" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G96" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H96" s="60" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="55" t="s">
@@ -9081,38 +9087,30 @@
         <v>142</v>
       </c>
       <c r="C97" s="52" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D97" s="51" t="s">
-        <v>461</v>
+        <v>273</v>
       </c>
       <c r="E97" s="50"/>
-      <c r="F97" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G97" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H97" s="60" t="s">
-        <v>400</v>
-      </c>
+      <c r="F97" s="50"/>
+      <c r="G97" s="50"/>
+      <c r="H97" s="60"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="55" t="s">
         <v>166</v>
       </c>
       <c r="B98" s="50" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C98" s="52" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D98" s="51" t="s">
-        <v>464</v>
-      </c>
-      <c r="E98" s="50" t="s">
-        <v>463</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="E98" s="50"/>
       <c r="F98" s="50" t="s">
         <v>5</v>
       </c>
@@ -9123,80 +9121,80 @@
         <v>400</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="124" t="s">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="B99" s="100" t="s">
+      <c r="B99" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="C99" s="101" t="s">
+      <c r="C99" s="52" t="s">
+        <v>462</v>
+      </c>
+      <c r="D99" s="51" t="s">
+        <v>464</v>
+      </c>
+      <c r="E99" s="50" t="s">
+        <v>463</v>
+      </c>
+      <c r="F99" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G99" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H99" s="60" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="124" t="s">
+        <v>166</v>
+      </c>
+      <c r="B100" s="100" t="s">
+        <v>140</v>
+      </c>
+      <c r="C100" s="101" t="s">
         <v>465</v>
       </c>
-      <c r="D99" s="125" t="s">
+      <c r="D100" s="125" t="s">
         <v>466</v>
       </c>
-      <c r="E99" s="100" t="s">
+      <c r="E100" s="100" t="s">
         <v>467</v>
       </c>
-      <c r="F99" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="G99" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="H99" s="126" t="s">
+      <c r="F100" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="126" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="104" t="s">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="B100" s="105" t="s">
+      <c r="B101" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C100" s="106" t="s">
+      <c r="C101" s="106" t="s">
         <v>468</v>
       </c>
-      <c r="D100" s="107" t="s">
+      <c r="D101" s="107" t="s">
         <v>471</v>
       </c>
-      <c r="E100" s="105" t="s">
+      <c r="E101" s="105" t="s">
         <v>470</v>
       </c>
-      <c r="F100" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="105"/>
-      <c r="H100" s="108" t="s">
+      <c r="F101" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="105"/>
+      <c r="H101" s="108" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="109" t="s">
-        <v>90</v>
-      </c>
-      <c r="B101" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C101" s="111" t="s">
-        <v>468</v>
-      </c>
-      <c r="D101" s="112" t="s">
-        <v>169</v>
-      </c>
-      <c r="E101" s="110" t="s">
-        <v>90</v>
-      </c>
-      <c r="F101" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H101" s="113" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -9204,57 +9202,57 @@
         <v>90</v>
       </c>
       <c r="B102" s="110" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C102" s="111" t="s">
         <v>468</v>
       </c>
       <c r="D102" s="112" t="s">
-        <v>168</v>
-      </c>
-      <c r="E102" s="110"/>
-      <c r="F102" s="110"/>
-      <c r="G102" s="110"/>
-      <c r="H102" s="113"/>
+        <v>169</v>
+      </c>
+      <c r="E102" s="110" t="s">
+        <v>90</v>
+      </c>
+      <c r="F102" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="113" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="109" t="s">
         <v>90</v>
       </c>
       <c r="B103" s="110" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C103" s="111" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D103" s="112" t="s">
-        <v>246</v>
-      </c>
-      <c r="E103" s="110" t="s">
-        <v>90</v>
-      </c>
-      <c r="F103" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G103" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H103" s="113" t="s">
-        <v>400</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="E103" s="110"/>
+      <c r="F103" s="110"/>
+      <c r="G103" s="110"/>
+      <c r="H103" s="113"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="109" t="s">
         <v>90</v>
       </c>
       <c r="B104" s="110" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C104" s="111" t="s">
         <v>469</v>
       </c>
       <c r="D104" s="112" t="s">
-        <v>170</v>
+        <v>246</v>
       </c>
       <c r="E104" s="110" t="s">
         <v>90</v>
@@ -9266,81 +9264,81 @@
         <v>5</v>
       </c>
       <c r="H104" s="113" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="109" t="s">
+        <v>90</v>
+      </c>
+      <c r="B105" s="110" t="s">
+        <v>143</v>
+      </c>
+      <c r="C105" s="111" t="s">
+        <v>469</v>
+      </c>
+      <c r="D105" s="112" t="s">
+        <v>170</v>
+      </c>
+      <c r="E105" s="110" t="s">
+        <v>90</v>
+      </c>
+      <c r="F105" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G105" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H105" s="113" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="119" t="s">
+    <row r="106" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="119" t="s">
         <v>90</v>
       </c>
-      <c r="B105" s="120" t="s">
+      <c r="B106" s="120" t="s">
         <v>142</v>
       </c>
-      <c r="C105" s="121" t="s">
+      <c r="C106" s="121" t="s">
         <v>469</v>
       </c>
-      <c r="D105" s="122" t="s">
+      <c r="D106" s="122" t="s">
         <v>171</v>
       </c>
-      <c r="E105" s="120"/>
-      <c r="F105" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G105" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="H105" s="123" t="s">
+      <c r="E106" s="120"/>
+      <c r="F106" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G106" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H106" s="123" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="94" t="s">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="94" t="s">
         <v>244</v>
       </c>
-      <c r="B106" s="95" t="s">
+      <c r="B107" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C106" s="96" t="s">
+      <c r="C107" s="96" t="s">
         <v>235</v>
       </c>
-      <c r="D106" s="97" t="s">
+      <c r="D107" s="97" t="s">
         <v>236</v>
       </c>
-      <c r="E106" s="95" t="s">
+      <c r="E107" s="95" t="s">
         <v>472</v>
       </c>
-      <c r="F106" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="G106" s="95"/>
-      <c r="H106" s="99" t="s">
+      <c r="F107" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G107" s="95"/>
+      <c r="H107" s="99" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="55" t="s">
-        <v>244</v>
-      </c>
-      <c r="B107" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C107" s="52" t="s">
-        <v>235</v>
-      </c>
-      <c r="D107" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="E107" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="F107" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G107" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H107" s="60" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -9348,57 +9346,57 @@
         <v>244</v>
       </c>
       <c r="B108" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C108" s="52" t="s">
         <v>235</v>
       </c>
       <c r="D108" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="E108" s="50"/>
-      <c r="F108" s="50"/>
-      <c r="G108" s="50"/>
-      <c r="H108" s="60"/>
+        <v>238</v>
+      </c>
+      <c r="E108" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="F108" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G108" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H108" s="60" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="55" t="s">
         <v>244</v>
       </c>
       <c r="B109" s="50" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C109" s="52" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D109" s="51" t="s">
-        <v>257</v>
-      </c>
-      <c r="E109" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="F109" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G109" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H109" s="60" t="s">
-        <v>400</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="E109" s="50"/>
+      <c r="F109" s="50"/>
+      <c r="G109" s="50"/>
+      <c r="H109" s="60"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="55" t="s">
         <v>244</v>
       </c>
       <c r="B110" s="50" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C110" s="52" t="s">
         <v>239</v>
       </c>
       <c r="D110" s="51" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="E110" s="50" t="s">
         <v>244</v>
@@ -9410,7 +9408,7 @@
         <v>5</v>
       </c>
       <c r="H110" s="60" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -9418,15 +9416,17 @@
         <v>244</v>
       </c>
       <c r="B111" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C111" s="52" t="s">
         <v>239</v>
       </c>
       <c r="D111" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="E111" s="50"/>
+        <v>240</v>
+      </c>
+      <c r="E111" s="50" t="s">
+        <v>244</v>
+      </c>
       <c r="F111" s="50" t="s">
         <v>5</v>
       </c>
@@ -9434,7 +9434,7 @@
         <v>5</v>
       </c>
       <c r="H111" s="60" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -9442,17 +9442,15 @@
         <v>244</v>
       </c>
       <c r="B112" s="50" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C112" s="52" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="D112" s="51" t="s">
-        <v>276</v>
-      </c>
-      <c r="E112" s="50" t="s">
-        <v>472</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="E112" s="50"/>
       <c r="F112" s="50" t="s">
         <v>5</v>
       </c>
@@ -9463,80 +9461,80 @@
         <v>400</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="124" t="s">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="55" t="s">
         <v>244</v>
       </c>
-      <c r="B113" s="100" t="s">
+      <c r="B113" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="C113" s="101" t="s">
+      <c r="C113" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="D113" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="E113" s="50" t="s">
+        <v>472</v>
+      </c>
+      <c r="F113" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G113" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H113" s="60" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="124" t="s">
+        <v>244</v>
+      </c>
+      <c r="B114" s="100" t="s">
+        <v>140</v>
+      </c>
+      <c r="C114" s="101" t="s">
         <v>242</v>
       </c>
-      <c r="D113" s="125" t="s">
+      <c r="D114" s="125" t="s">
         <v>243</v>
       </c>
-      <c r="E113" s="100" t="s">
+      <c r="E114" s="100" t="s">
         <v>472</v>
       </c>
-      <c r="F113" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="G113" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="H113" s="126" t="s">
+      <c r="F114" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G114" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H114" s="126" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="104" t="s">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="B114" s="105" t="s">
+      <c r="B115" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C114" s="106" t="s">
+      <c r="C115" s="106" t="s">
         <v>474</v>
       </c>
-      <c r="D114" s="107" t="s">
+      <c r="D115" s="107" t="s">
         <v>229</v>
       </c>
-      <c r="E114" s="105" t="s">
+      <c r="E115" s="105" t="s">
         <v>473</v>
       </c>
-      <c r="F114" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="G114" s="105"/>
-      <c r="H114" s="108" t="s">
+      <c r="F115" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G115" s="105"/>
+      <c r="H115" s="108" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="109" t="s">
-        <v>114</v>
-      </c>
-      <c r="B115" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C115" s="111" t="s">
-        <v>474</v>
-      </c>
-      <c r="D115" s="112" t="s">
-        <v>231</v>
-      </c>
-      <c r="E115" s="110" t="s">
-        <v>114</v>
-      </c>
-      <c r="F115" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G115" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H115" s="113" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -9544,57 +9542,57 @@
         <v>114</v>
       </c>
       <c r="B116" s="110" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C116" s="111" t="s">
         <v>474</v>
       </c>
       <c r="D116" s="112" t="s">
-        <v>230</v>
-      </c>
-      <c r="E116" s="110"/>
-      <c r="F116" s="110"/>
-      <c r="G116" s="110"/>
-      <c r="H116" s="113"/>
+        <v>231</v>
+      </c>
+      <c r="E116" s="110" t="s">
+        <v>114</v>
+      </c>
+      <c r="F116" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G116" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H116" s="113" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="109" t="s">
         <v>114</v>
       </c>
       <c r="B117" s="110" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C117" s="111" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D117" s="112" t="s">
-        <v>256</v>
-      </c>
-      <c r="E117" s="110" t="s">
-        <v>114</v>
-      </c>
-      <c r="F117" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G117" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H117" s="113" t="s">
-        <v>400</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="E117" s="110"/>
+      <c r="F117" s="110"/>
+      <c r="G117" s="110"/>
+      <c r="H117" s="113"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="109" t="s">
         <v>114</v>
       </c>
       <c r="B118" s="110" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C118" s="111" t="s">
         <v>475</v>
       </c>
       <c r="D118" s="112" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="E118" s="110" t="s">
         <v>114</v>
@@ -9606,7 +9604,7 @@
         <v>5</v>
       </c>
       <c r="H118" s="113" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -9614,99 +9612,99 @@
         <v>114</v>
       </c>
       <c r="B119" s="110" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C119" s="111" t="s">
         <v>475</v>
       </c>
       <c r="D119" s="112" t="s">
+        <v>232</v>
+      </c>
+      <c r="E119" s="110" t="s">
+        <v>114</v>
+      </c>
+      <c r="F119" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G119" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H119" s="113" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="109" t="s">
+        <v>114</v>
+      </c>
+      <c r="B120" s="110" t="s">
+        <v>142</v>
+      </c>
+      <c r="C120" s="111" t="s">
+        <v>475</v>
+      </c>
+      <c r="D120" s="112" t="s">
         <v>233</v>
       </c>
-      <c r="E119" s="110"/>
-      <c r="F119" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G119" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H119" s="113" t="s">
+      <c r="E120" s="110"/>
+      <c r="F120" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G120" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H120" s="113" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="119" t="s">
+    <row r="121" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="119" t="s">
         <v>114</v>
       </c>
-      <c r="B120" s="120" t="s">
+      <c r="B121" s="120" t="s">
         <v>140</v>
       </c>
-      <c r="C120" s="121" t="s">
+      <c r="C121" s="121" t="s">
         <v>476</v>
       </c>
-      <c r="D120" s="122" t="s">
+      <c r="D121" s="122" t="s">
         <v>234</v>
       </c>
-      <c r="E120" s="120" t="s">
+      <c r="E121" s="120" t="s">
         <v>473</v>
       </c>
-      <c r="F120" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G120" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="H120" s="123" t="s">
+      <c r="F121" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G121" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H121" s="123" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="94" t="s">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="B121" s="95" t="s">
+      <c r="B122" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C121" s="96" t="s">
+      <c r="C122" s="96" t="s">
         <v>479</v>
       </c>
-      <c r="D121" s="97" t="s">
+      <c r="D122" s="97" t="s">
         <v>478</v>
       </c>
-      <c r="E121" s="95" t="s">
+      <c r="E122" s="95" t="s">
         <v>477</v>
       </c>
-      <c r="F121" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="G121" s="95"/>
-      <c r="H121" s="99" t="s">
+      <c r="F122" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G122" s="95"/>
+      <c r="H122" s="99" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="B122" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C122" s="52" t="s">
-        <v>479</v>
-      </c>
-      <c r="D122" s="51" t="s">
-        <v>204</v>
-      </c>
-      <c r="E122" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="F122" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G122" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H122" s="60" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -9714,57 +9712,57 @@
         <v>103</v>
       </c>
       <c r="B123" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C123" s="52" t="s">
         <v>479</v>
       </c>
       <c r="D123" s="51" t="s">
-        <v>203</v>
-      </c>
-      <c r="E123" s="50"/>
-      <c r="F123" s="50"/>
-      <c r="G123" s="50"/>
-      <c r="H123" s="60"/>
+        <v>204</v>
+      </c>
+      <c r="E123" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="F123" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G123" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H123" s="60" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="55" t="s">
         <v>103</v>
       </c>
       <c r="B124" s="50" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C124" s="52" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D124" s="51" t="s">
-        <v>252</v>
-      </c>
-      <c r="E124" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="F124" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G124" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H124" s="60" t="s">
-        <v>400</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E124" s="50"/>
+      <c r="F124" s="50"/>
+      <c r="G124" s="50"/>
+      <c r="H124" s="60"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="55" t="s">
         <v>103</v>
       </c>
       <c r="B125" s="50" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C125" s="52" t="s">
         <v>480</v>
       </c>
       <c r="D125" s="51" t="s">
-        <v>205</v>
+        <v>252</v>
       </c>
       <c r="E125" s="50" t="s">
         <v>103</v>
@@ -9776,7 +9774,7 @@
         <v>5</v>
       </c>
       <c r="H125" s="60" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -9784,15 +9782,17 @@
         <v>103</v>
       </c>
       <c r="B126" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C126" s="52" t="s">
         <v>480</v>
       </c>
       <c r="D126" s="51" t="s">
-        <v>206</v>
-      </c>
-      <c r="E126" s="50"/>
+        <v>205</v>
+      </c>
+      <c r="E126" s="50" t="s">
+        <v>103</v>
+      </c>
       <c r="F126" s="50" t="s">
         <v>5</v>
       </c>
@@ -9800,7 +9800,7 @@
         <v>5</v>
       </c>
       <c r="H126" s="60" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -9808,17 +9808,15 @@
         <v>103</v>
       </c>
       <c r="B127" s="50" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C127" s="52" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D127" s="51" t="s">
-        <v>482</v>
-      </c>
-      <c r="E127" s="50" t="s">
-        <v>477</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="E127" s="50"/>
       <c r="F127" s="50" t="s">
         <v>5</v>
       </c>
@@ -9829,80 +9827,80 @@
         <v>400</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="124" t="s">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="B128" s="100" t="s">
+      <c r="B128" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C128" s="52" t="s">
+        <v>481</v>
+      </c>
+      <c r="D128" s="51" t="s">
+        <v>482</v>
+      </c>
+      <c r="E128" s="50" t="s">
+        <v>477</v>
+      </c>
+      <c r="F128" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G128" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H128" s="60" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="124" t="s">
+        <v>103</v>
+      </c>
+      <c r="B129" s="100" t="s">
         <v>143</v>
       </c>
-      <c r="C128" s="101" t="s">
+      <c r="C129" s="101" t="s">
         <v>483</v>
       </c>
-      <c r="D128" s="125" t="s">
+      <c r="D129" s="125" t="s">
         <v>484</v>
       </c>
-      <c r="E128" s="100" t="s">
+      <c r="E129" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="F128" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="G128" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="H128" s="126" t="s">
+      <c r="F129" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G129" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H129" s="126" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="104" t="s">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="B129" s="105" t="s">
+      <c r="B130" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C129" s="106" t="s">
+      <c r="C130" s="106" t="s">
         <v>486</v>
       </c>
-      <c r="D129" s="107" t="s">
+      <c r="D130" s="107" t="s">
         <v>488</v>
       </c>
-      <c r="E129" s="105" t="s">
+      <c r="E130" s="105" t="s">
         <v>485</v>
       </c>
-      <c r="F129" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="G129" s="105"/>
-      <c r="H129" s="108" t="s">
+      <c r="F130" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G130" s="105"/>
+      <c r="H130" s="108" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="109" t="s">
-        <v>81</v>
-      </c>
-      <c r="B130" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C130" s="111" t="s">
-        <v>486</v>
-      </c>
-      <c r="D130" s="112" t="s">
-        <v>149</v>
-      </c>
-      <c r="E130" s="110" t="s">
-        <v>81</v>
-      </c>
-      <c r="F130" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G130" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H130" s="113" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -9910,57 +9908,57 @@
         <v>81</v>
       </c>
       <c r="B131" s="110" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C131" s="111" t="s">
         <v>486</v>
       </c>
       <c r="D131" s="112" t="s">
-        <v>148</v>
-      </c>
-      <c r="E131" s="110"/>
-      <c r="F131" s="110"/>
-      <c r="G131" s="110"/>
-      <c r="H131" s="113"/>
+        <v>149</v>
+      </c>
+      <c r="E131" s="110" t="s">
+        <v>81</v>
+      </c>
+      <c r="F131" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G131" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H131" s="113" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="109" t="s">
         <v>81</v>
       </c>
       <c r="B132" s="110" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C132" s="111" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D132" s="112" t="s">
-        <v>489</v>
-      </c>
-      <c r="E132" s="110" t="s">
-        <v>81</v>
-      </c>
-      <c r="F132" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G132" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H132" s="113" t="s">
-        <v>400</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="E132" s="110"/>
+      <c r="F132" s="110"/>
+      <c r="G132" s="110"/>
+      <c r="H132" s="113"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="109" t="s">
         <v>81</v>
       </c>
       <c r="B133" s="110" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C133" s="111" t="s">
         <v>487</v>
       </c>
       <c r="D133" s="112" t="s">
-        <v>150</v>
+        <v>489</v>
       </c>
       <c r="E133" s="110" t="s">
         <v>81</v>
@@ -9972,81 +9970,81 @@
         <v>5</v>
       </c>
       <c r="H133" s="113" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="109" t="s">
+        <v>81</v>
+      </c>
+      <c r="B134" s="110" t="s">
+        <v>143</v>
+      </c>
+      <c r="C134" s="111" t="s">
+        <v>487</v>
+      </c>
+      <c r="D134" s="112" t="s">
+        <v>150</v>
+      </c>
+      <c r="E134" s="110" t="s">
+        <v>81</v>
+      </c>
+      <c r="F134" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G134" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H134" s="113" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="119" t="s">
+    <row r="135" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="119" t="s">
         <v>81</v>
       </c>
-      <c r="B134" s="120" t="s">
+      <c r="B135" s="120" t="s">
         <v>142</v>
       </c>
-      <c r="C134" s="121" t="s">
+      <c r="C135" s="121" t="s">
         <v>487</v>
       </c>
-      <c r="D134" s="122" t="s">
+      <c r="D135" s="122" t="s">
         <v>151</v>
       </c>
-      <c r="E134" s="120"/>
-      <c r="F134" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G134" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="H134" s="123" t="s">
+      <c r="E135" s="120"/>
+      <c r="F135" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G135" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H135" s="123" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="94" t="s">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="94" t="s">
         <v>176</v>
       </c>
-      <c r="B135" s="95" t="s">
+      <c r="B136" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C135" s="96" t="s">
+      <c r="C136" s="96" t="s">
         <v>177</v>
       </c>
-      <c r="D135" s="97" t="s">
+      <c r="D136" s="97" t="s">
         <v>179</v>
       </c>
-      <c r="E135" s="95" t="s">
+      <c r="E136" s="95" t="s">
         <v>490</v>
       </c>
-      <c r="F135" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="G135" s="95"/>
-      <c r="H135" s="99" t="s">
+      <c r="F136" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G136" s="95"/>
+      <c r="H136" s="99" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="B136" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C136" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="D136" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="E136" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="F136" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G136" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H136" s="60" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -10054,57 +10052,57 @@
         <v>176</v>
       </c>
       <c r="B137" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C137" s="52" t="s">
         <v>177</v>
       </c>
       <c r="D137" s="51" t="s">
-        <v>180</v>
-      </c>
-      <c r="E137" s="50"/>
-      <c r="F137" s="50"/>
-      <c r="G137" s="50"/>
-      <c r="H137" s="60"/>
+        <v>181</v>
+      </c>
+      <c r="E137" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="F137" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G137" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H137" s="60" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="55" t="s">
         <v>176</v>
       </c>
       <c r="B138" s="50" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C138" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D138" s="51" t="s">
-        <v>248</v>
-      </c>
-      <c r="E138" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="F138" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G138" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H138" s="60" t="s">
-        <v>400</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="E138" s="50"/>
+      <c r="F138" s="50"/>
+      <c r="G138" s="50"/>
+      <c r="H138" s="60"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="55" t="s">
         <v>176</v>
       </c>
       <c r="B139" s="50" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C139" s="52" t="s">
         <v>178</v>
       </c>
       <c r="D139" s="51" t="s">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="E139" s="50" t="s">
         <v>176</v>
@@ -10116,81 +10114,81 @@
         <v>5</v>
       </c>
       <c r="H139" s="60" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="B140" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="C140" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="D140" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="E140" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="F140" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G140" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H140" s="60" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="124" t="s">
+    <row r="141" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="124" t="s">
         <v>176</v>
       </c>
-      <c r="B140" s="100" t="s">
+      <c r="B141" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C140" s="101" t="s">
+      <c r="C141" s="101" t="s">
         <v>178</v>
       </c>
-      <c r="D140" s="125" t="s">
+      <c r="D141" s="125" t="s">
         <v>183</v>
       </c>
-      <c r="E140" s="100"/>
-      <c r="F140" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="G140" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="H140" s="126" t="s">
+      <c r="E141" s="100"/>
+      <c r="F141" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G141" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H141" s="126" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="104" t="s">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="B141" s="105" t="s">
+      <c r="B142" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C141" s="106" t="s">
+      <c r="C142" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="D141" s="107" t="s">
+      <c r="D142" s="107" t="s">
         <v>491</v>
       </c>
-      <c r="E141" s="105" t="s">
+      <c r="E142" s="105" t="s">
         <v>88</v>
       </c>
-      <c r="F141" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="G141" s="105"/>
-      <c r="H141" s="108" t="s">
+      <c r="F142" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G142" s="105"/>
+      <c r="H142" s="108" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="109" t="s">
-        <v>88</v>
-      </c>
-      <c r="B142" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C142" s="111" t="s">
-        <v>152</v>
-      </c>
-      <c r="D142" s="112" t="s">
-        <v>154</v>
-      </c>
-      <c r="E142" s="110" t="s">
-        <v>88</v>
-      </c>
-      <c r="F142" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G142" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H142" s="113" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -10198,57 +10196,57 @@
         <v>88</v>
       </c>
       <c r="B143" s="110" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C143" s="111" t="s">
         <v>152</v>
       </c>
       <c r="D143" s="112" t="s">
-        <v>153</v>
-      </c>
-      <c r="E143" s="110"/>
-      <c r="F143" s="110"/>
-      <c r="G143" s="110"/>
-      <c r="H143" s="113"/>
+        <v>154</v>
+      </c>
+      <c r="E143" s="110" t="s">
+        <v>88</v>
+      </c>
+      <c r="F143" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G143" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H143" s="113" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="109" t="s">
         <v>88</v>
       </c>
       <c r="B144" s="110" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C144" s="111" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D144" s="112" t="s">
-        <v>147</v>
-      </c>
-      <c r="E144" s="110" t="s">
-        <v>88</v>
-      </c>
-      <c r="F144" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G144" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H144" s="113" t="s">
-        <v>400</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="E144" s="110"/>
+      <c r="F144" s="110"/>
+      <c r="G144" s="110"/>
+      <c r="H144" s="113"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="109" t="s">
         <v>88</v>
       </c>
       <c r="B145" s="110" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C145" s="111" t="s">
         <v>155</v>
       </c>
       <c r="D145" s="112" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E145" s="110" t="s">
         <v>88</v>
@@ -10260,81 +10258,81 @@
         <v>5</v>
       </c>
       <c r="H145" s="113" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="109" t="s">
+        <v>88</v>
+      </c>
+      <c r="B146" s="110" t="s">
+        <v>143</v>
+      </c>
+      <c r="C146" s="111" t="s">
+        <v>155</v>
+      </c>
+      <c r="D146" s="112" t="s">
+        <v>156</v>
+      </c>
+      <c r="E146" s="110" t="s">
+        <v>88</v>
+      </c>
+      <c r="F146" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G146" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H146" s="113" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="119" t="s">
+    <row r="147" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="B146" s="120" t="s">
+      <c r="B147" s="120" t="s">
         <v>142</v>
       </c>
-      <c r="C146" s="121" t="s">
+      <c r="C147" s="121" t="s">
         <v>155</v>
       </c>
-      <c r="D146" s="122" t="s">
+      <c r="D147" s="122" t="s">
         <v>157</v>
       </c>
-      <c r="E146" s="120"/>
-      <c r="F146" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G146" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="H146" s="123" t="s">
+      <c r="E147" s="120"/>
+      <c r="F147" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G147" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H147" s="123" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="147" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="129" t="s">
+    <row r="148" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="129" t="s">
         <v>293</v>
       </c>
-      <c r="B147" s="130" t="s">
+      <c r="B148" s="130" t="s">
         <v>140</v>
       </c>
-      <c r="C147" s="131" t="s">
+      <c r="C148" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="D147" s="132" t="s">
+      <c r="D148" s="132" t="s">
         <v>295</v>
       </c>
-      <c r="E147" s="130" t="s">
+      <c r="E148" s="130" t="s">
         <v>492</v>
       </c>
-      <c r="F147" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="G147" s="95"/>
-      <c r="H147" s="99" t="s">
+      <c r="F148" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G148" s="95"/>
+      <c r="H148" s="99" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="61" t="s">
-        <v>293</v>
-      </c>
-      <c r="B148" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="C148" s="63" t="s">
-        <v>294</v>
-      </c>
-      <c r="D148" s="64" t="s">
-        <v>296</v>
-      </c>
-      <c r="E148" s="62" t="s">
-        <v>293</v>
-      </c>
-      <c r="F148" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G148" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H148" s="60" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="149" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.25">
@@ -10342,57 +10340,57 @@
         <v>293</v>
       </c>
       <c r="B149" s="62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C149" s="63" t="s">
         <v>294</v>
       </c>
       <c r="D149" s="64" t="s">
-        <v>297</v>
-      </c>
-      <c r="E149" s="62"/>
-      <c r="F149" s="50"/>
-      <c r="G149" s="50"/>
-      <c r="H149" s="60"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+      <c r="E149" s="62" t="s">
+        <v>293</v>
+      </c>
+      <c r="F149" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G149" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H149" s="60" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="61" t="s">
         <v>293</v>
       </c>
-      <c r="B150" s="50" t="s">
-        <v>140</v>
+      <c r="B150" s="62" t="s">
+        <v>142</v>
       </c>
       <c r="C150" s="63" t="s">
-        <v>307</v>
-      </c>
-      <c r="D150" s="53" t="s">
-        <v>308</v>
-      </c>
-      <c r="E150" s="50" t="s">
-        <v>293</v>
-      </c>
-      <c r="F150" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G150" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H150" s="60" t="s">
-        <v>400</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="D150" s="64" t="s">
+        <v>297</v>
+      </c>
+      <c r="E150" s="62"/>
+      <c r="F150" s="50"/>
+      <c r="G150" s="50"/>
+      <c r="H150" s="60"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="61" t="s">
         <v>293</v>
       </c>
       <c r="B151" s="50" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C151" s="63" t="s">
         <v>307</v>
       </c>
       <c r="D151" s="53" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E151" s="50" t="s">
         <v>293</v>
@@ -10404,7 +10402,7 @@
         <v>5</v>
       </c>
       <c r="H151" s="60" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -10412,15 +10410,17 @@
         <v>293</v>
       </c>
       <c r="B152" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C152" s="63" t="s">
         <v>307</v>
       </c>
       <c r="D152" s="53" t="s">
-        <v>310</v>
-      </c>
-      <c r="E152" s="50"/>
+        <v>309</v>
+      </c>
+      <c r="E152" s="50" t="s">
+        <v>293</v>
+      </c>
       <c r="F152" s="50" t="s">
         <v>5</v>
       </c>
@@ -10428,52 +10428,50 @@
         <v>5</v>
       </c>
       <c r="H152" s="60" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="55" t="s">
+      <c r="A153" s="61" t="s">
         <v>293</v>
       </c>
       <c r="B153" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="C153" s="52" t="s">
-        <v>299</v>
+      <c r="C153" s="63" t="s">
+        <v>307</v>
       </c>
       <c r="D153" s="53" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="E153" s="50"/>
-      <c r="F153" s="50"/>
-      <c r="G153" s="50"/>
-      <c r="H153" s="60"/>
+      <c r="F153" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G153" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H153" s="60" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="55" t="s">
         <v>293</v>
       </c>
       <c r="B154" s="50" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C154" s="52" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D154" s="53" t="s">
-        <v>300</v>
-      </c>
-      <c r="E154" s="50" t="s">
-        <v>463</v>
-      </c>
-      <c r="F154" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G154" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H154" s="60" t="s">
-        <v>400</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="E154" s="50"/>
+      <c r="F154" s="50"/>
+      <c r="G154" s="50"/>
+      <c r="H154" s="60"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="55" t="s">
@@ -10483,13 +10481,13 @@
         <v>140</v>
       </c>
       <c r="C155" s="52" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D155" s="53" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E155" s="50" t="s">
-        <v>493</v>
+        <v>463</v>
       </c>
       <c r="F155" s="50" t="s">
         <v>5</v>
@@ -10509,116 +10507,116 @@
         <v>140</v>
       </c>
       <c r="C156" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="D156" s="53" t="s">
+        <v>301</v>
+      </c>
+      <c r="E156" s="50" t="s">
+        <v>493</v>
+      </c>
+      <c r="F156" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G156" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H156" s="60" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="B157" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C157" s="52" t="s">
         <v>302</v>
       </c>
-      <c r="D156" s="53" t="s">
+      <c r="D157" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="E156" s="50" t="s">
+      <c r="E157" s="50" t="s">
         <v>303</v>
       </c>
-      <c r="F156" s="50"/>
-      <c r="G156" s="50"/>
-      <c r="H156" s="60"/>
-    </row>
-    <row r="157" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="124" t="s">
+      <c r="F157" s="50"/>
+      <c r="G157" s="50"/>
+      <c r="H157" s="60"/>
+    </row>
+    <row r="158" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="124" t="s">
         <v>293</v>
       </c>
-      <c r="B157" s="100" t="s">
+      <c r="B158" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C157" s="101" t="s">
+      <c r="C158" s="101" t="s">
         <v>311</v>
       </c>
-      <c r="D157" s="102" t="s">
+      <c r="D158" s="102" t="s">
         <v>304</v>
       </c>
-      <c r="E157" s="100"/>
-      <c r="F157" s="100"/>
-      <c r="G157" s="100"/>
-      <c r="H157" s="126"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="104" t="s">
+      <c r="E158" s="100"/>
+      <c r="F158" s="100"/>
+      <c r="G158" s="100"/>
+      <c r="H158" s="126"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B158" s="105" t="s">
+      <c r="B159" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C158" s="106" t="s">
+      <c r="C159" s="106" t="s">
         <v>496</v>
       </c>
-      <c r="D158" s="107" t="s">
+      <c r="D159" s="107" t="s">
         <v>494</v>
       </c>
-      <c r="E158" s="105" t="s">
+      <c r="E159" s="105" t="s">
         <v>493</v>
       </c>
-      <c r="F158" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="G158" s="105"/>
-      <c r="H158" s="108" t="s">
+      <c r="F159" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G159" s="105"/>
+      <c r="H159" s="108" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B159" s="110" t="s">
-        <v>142</v>
-      </c>
-      <c r="C159" s="111" t="s">
-        <v>496</v>
-      </c>
-      <c r="D159" s="112" t="s">
-        <v>495</v>
-      </c>
-      <c r="E159" s="110"/>
-      <c r="F159" s="110"/>
-      <c r="G159" s="110"/>
-      <c r="H159" s="113"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="109" t="s">
         <v>0</v>
       </c>
       <c r="B160" s="110" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C160" s="111" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D160" s="112" t="s">
-        <v>144</v>
-      </c>
-      <c r="E160" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="F160" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G160" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H160" s="113" t="s">
-        <v>400</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="E160" s="110"/>
+      <c r="F160" s="110"/>
+      <c r="G160" s="110"/>
+      <c r="H160" s="113"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="109" t="s">
         <v>0</v>
       </c>
       <c r="B161" s="110" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C161" s="111" t="s">
         <v>497</v>
       </c>
       <c r="D161" s="112" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E161" s="110" t="s">
         <v>0</v>
@@ -10630,7 +10628,7 @@
         <v>5</v>
       </c>
       <c r="H161" s="113" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -10638,15 +10636,17 @@
         <v>0</v>
       </c>
       <c r="B162" s="110" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C162" s="111" t="s">
         <v>497</v>
       </c>
       <c r="D162" s="112" t="s">
-        <v>146</v>
-      </c>
-      <c r="E162" s="110"/>
+        <v>145</v>
+      </c>
+      <c r="E162" s="110" t="s">
+        <v>0</v>
+      </c>
       <c r="F162" s="110" t="s">
         <v>5</v>
       </c>
@@ -10654,7 +10654,7 @@
         <v>5</v>
       </c>
       <c r="H162" s="113" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -10662,17 +10662,15 @@
         <v>0</v>
       </c>
       <c r="B163" s="110" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C163" s="111" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D163" s="112" t="s">
-        <v>499</v>
-      </c>
-      <c r="E163" s="110" t="s">
-        <v>493</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="E163" s="110"/>
       <c r="F163" s="110" t="s">
         <v>5</v>
       </c>
@@ -10688,16 +10686,16 @@
         <v>0</v>
       </c>
       <c r="B164" s="110" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C164" s="111" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D164" s="112" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E164" s="110" t="s">
-        <v>0</v>
+        <v>493</v>
       </c>
       <c r="F164" s="110" t="s">
         <v>5</v>
@@ -10706,7 +10704,7 @@
         <v>5</v>
       </c>
       <c r="H164" s="113" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -10717,13 +10715,13 @@
         <v>141</v>
       </c>
       <c r="C165" s="111" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D165" s="112" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E165" s="110" t="s">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="F165" s="110" t="s">
         <v>5</v>
@@ -10743,29 +10741,41 @@
         <v>141</v>
       </c>
       <c r="C166" s="111" t="s">
+        <v>502</v>
+      </c>
+      <c r="D166" s="112" t="s">
+        <v>503</v>
+      </c>
+      <c r="E166" s="110" t="s">
+        <v>504</v>
+      </c>
+      <c r="F166" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G166" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H166" s="113" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167" s="110" t="s">
+        <v>141</v>
+      </c>
+      <c r="C167" s="111" t="s">
         <v>505</v>
       </c>
-      <c r="D166" s="112" t="s">
+      <c r="D167" s="112" t="s">
         <v>506</v>
       </c>
-      <c r="E166" s="110"/>
-      <c r="F166" s="110"/>
-      <c r="G166" s="110"/>
-      <c r="H166" s="113"/>
-    </row>
-    <row r="167" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="B167" s="120"/>
-      <c r="C167" s="121" t="s">
-        <v>497</v>
-      </c>
-      <c r="D167" s="122"/>
-      <c r="E167" s="120"/>
-      <c r="F167" s="120"/>
-      <c r="G167" s="120"/>
-      <c r="H167" s="123"/>
+      <c r="E167" s="110"/>
+      <c r="F167" s="110"/>
+      <c r="G167" s="110"/>
+      <c r="H167" s="113"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="94" t="s">

--- a/documentation/DataAndAPIMatchAware.xlsx
+++ b/documentation/DataAndAPIMatchAware.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Service Definitions" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Routing!$A$1:$E$181</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Routing!$A$1:$E$182</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="537">
   <si>
     <t>USER</t>
   </si>
@@ -1641,6 +1641,12 @@
   </si>
   <si>
     <t>Delete a specific club role</t>
+  </si>
+  <si>
+    <t>/club_roles/replaceAllRoles/:userId/:clubId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replaces all current roles with those provided in the body </t>
   </si>
 </sst>
 </file>
@@ -2593,26 +2599,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2935,7 +2941,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2959,13 +2965,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="162" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
     </row>
     <row r="2" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="88"/>
@@ -2975,13 +2981,13 @@
       <c r="E2" s="88"/>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="159" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="159"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="161"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
@@ -3106,13 +3112,13 @@
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="157" t="s">
+      <c r="A14" s="159" t="s">
         <v>290</v>
       </c>
-      <c r="B14" s="158"/>
-      <c r="C14" s="158"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="159"/>
+      <c r="B14" s="160"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="161"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
@@ -3189,13 +3195,13 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="157" t="s">
+      <c r="A21" s="159" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="158"/>
-      <c r="C21" s="158"/>
-      <c r="D21" s="158"/>
-      <c r="E21" s="159"/>
+      <c r="B21" s="160"/>
+      <c r="C21" s="160"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="161"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
@@ -3268,13 +3274,13 @@
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="157" t="s">
+      <c r="A28" s="159" t="s">
         <v>279</v>
       </c>
-      <c r="B28" s="158"/>
-      <c r="C28" s="158"/>
-      <c r="D28" s="158"/>
-      <c r="E28" s="159"/>
+      <c r="B28" s="160"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="161"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
@@ -3669,13 +3675,13 @@
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="157" t="s">
+      <c r="A61" s="159" t="s">
         <v>97</v>
       </c>
-      <c r="B61" s="158"/>
-      <c r="C61" s="158"/>
-      <c r="D61" s="158"/>
-      <c r="E61" s="159"/>
+      <c r="B61" s="160"/>
+      <c r="C61" s="160"/>
+      <c r="D61" s="160"/>
+      <c r="E61" s="161"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
@@ -4009,13 +4015,13 @@
     </row>
     <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="157" t="s">
+      <c r="A89" s="159" t="s">
         <v>96</v>
       </c>
-      <c r="B89" s="158"/>
-      <c r="C89" s="158"/>
-      <c r="D89" s="158"/>
-      <c r="E89" s="159"/>
+      <c r="B89" s="160"/>
+      <c r="C89" s="160"/>
+      <c r="D89" s="160"/>
+      <c r="E89" s="161"/>
     </row>
     <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="s">
@@ -5290,13 +5296,13 @@
     </row>
     <row r="197" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="198" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="157" t="s">
+      <c r="A198" s="159" t="s">
         <v>123</v>
       </c>
-      <c r="B198" s="158"/>
-      <c r="C198" s="158"/>
-      <c r="D198" s="158"/>
-      <c r="E198" s="159"/>
+      <c r="B198" s="160"/>
+      <c r="C198" s="160"/>
+      <c r="D198" s="160"/>
+      <c r="E198" s="161"/>
     </row>
     <row r="199" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="14" t="s">
@@ -5369,13 +5375,13 @@
     </row>
     <row r="204" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="205" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="157" t="s">
+      <c r="A205" s="159" t="s">
         <v>134</v>
       </c>
-      <c r="B205" s="158"/>
-      <c r="C205" s="158"/>
-      <c r="D205" s="158"/>
-      <c r="E205" s="159"/>
+      <c r="B205" s="160"/>
+      <c r="C205" s="160"/>
+      <c r="D205" s="160"/>
+      <c r="E205" s="161"/>
     </row>
     <row r="206" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="14" t="s">
@@ -5470,13 +5476,13 @@
     </row>
     <row r="213" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="214" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="157" t="s">
+      <c r="A214" s="159" t="s">
         <v>285</v>
       </c>
-      <c r="B214" s="158"/>
-      <c r="C214" s="158"/>
-      <c r="D214" s="158"/>
-      <c r="E214" s="159"/>
+      <c r="B214" s="160"/>
+      <c r="C214" s="160"/>
+      <c r="D214" s="160"/>
+      <c r="E214" s="161"/>
     </row>
     <row r="215" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="14" t="s">
@@ -5706,13 +5712,13 @@
     </row>
     <row r="233" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="234" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="160" t="s">
+      <c r="A234" s="156" t="s">
         <v>287</v>
       </c>
-      <c r="B234" s="161"/>
-      <c r="C234" s="161"/>
-      <c r="D234" s="161"/>
-      <c r="E234" s="162"/>
+      <c r="B234" s="157"/>
+      <c r="C234" s="157"/>
+      <c r="D234" s="157"/>
+      <c r="E234" s="158"/>
     </row>
     <row r="235" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="14" t="s">
@@ -6283,13 +6289,13 @@
     </row>
     <row r="282" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="283" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A283" s="157" t="s">
+      <c r="A283" s="159" t="s">
         <v>289</v>
       </c>
-      <c r="B283" s="158"/>
-      <c r="C283" s="158"/>
-      <c r="D283" s="158"/>
-      <c r="E283" s="159"/>
+      <c r="B283" s="160"/>
+      <c r="C283" s="160"/>
+      <c r="D283" s="160"/>
+      <c r="E283" s="161"/>
     </row>
     <row r="284" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="30" t="s">
@@ -6702,6 +6708,28 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="A125:E125"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A173:E173"/>
+    <mergeCell ref="A186:E186"/>
+    <mergeCell ref="A193:E193"/>
+    <mergeCell ref="A198:E198"/>
+    <mergeCell ref="A205:E205"/>
+    <mergeCell ref="A214:E214"/>
+    <mergeCell ref="A225:E225"/>
     <mergeCell ref="A303:E303"/>
     <mergeCell ref="A312:E312"/>
     <mergeCell ref="A234:E234"/>
@@ -6709,28 +6737,6 @@
     <mergeCell ref="A269:E269"/>
     <mergeCell ref="A277:E277"/>
     <mergeCell ref="A283:E283"/>
-    <mergeCell ref="A193:E193"/>
-    <mergeCell ref="A198:E198"/>
-    <mergeCell ref="A205:E205"/>
-    <mergeCell ref="A214:E214"/>
-    <mergeCell ref="A225:E225"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="A173:E173"/>
-    <mergeCell ref="A186:E186"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="A94:E94"/>
-    <mergeCell ref="A125:E125"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6742,10 +6748,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H181"/>
+  <dimension ref="A1:H182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K145" sqref="K145"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H45" sqref="A38:H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7731,9 +7737,13 @@
         <v>534</v>
       </c>
       <c r="E41" s="142"/>
-      <c r="F41" s="142"/>
+      <c r="F41" s="142" t="s">
+        <v>5</v>
+      </c>
       <c r="G41" s="142"/>
-      <c r="H41" s="145"/>
+      <c r="H41" s="145" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="147" t="s">
@@ -7787,80 +7797,80 @@
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="148" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="147" t="s">
         <v>515</v>
       </c>
-      <c r="B44" s="149" t="s">
+      <c r="B44" s="142" t="s">
         <v>140</v>
       </c>
-      <c r="C44" s="150" t="s">
+      <c r="C44" s="143" t="s">
         <v>521</v>
       </c>
-      <c r="D44" s="151" t="s">
+      <c r="D44" s="144" t="s">
         <v>418</v>
       </c>
-      <c r="E44" s="149" t="s">
+      <c r="E44" s="142" t="s">
         <v>413</v>
       </c>
-      <c r="F44" s="149" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="149" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="152" t="s">
+      <c r="F44" s="142" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="142" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="145" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="133" t="s">
+    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="148" t="s">
+        <v>515</v>
+      </c>
+      <c r="B45" s="149" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="150" t="s">
+        <v>535</v>
+      </c>
+      <c r="D45" s="151" t="s">
+        <v>536</v>
+      </c>
+      <c r="E45" s="149" t="s">
+        <v>493</v>
+      </c>
+      <c r="F45" s="149" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="149" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="152" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="133" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="134" t="s">
+      <c r="B46" s="134" t="s">
         <v>140</v>
       </c>
-      <c r="C45" s="135" t="s">
+      <c r="C46" s="135" t="s">
         <v>419</v>
       </c>
-      <c r="D45" s="136" t="s">
+      <c r="D46" s="136" t="s">
         <v>214</v>
       </c>
-      <c r="E45" s="134" t="s">
+      <c r="E46" s="134" t="s">
         <v>425</v>
       </c>
-      <c r="F45" s="134" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="134"/>
-      <c r="H45" s="146" t="s">
+      <c r="F46" s="134" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="134"/>
+      <c r="H46" s="146" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="109" t="s">
-        <v>97</v>
-      </c>
-      <c r="B46" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C46" s="111" t="s">
-        <v>419</v>
-      </c>
-      <c r="D46" s="112" t="s">
-        <v>216</v>
-      </c>
-      <c r="E46" s="110" t="s">
-        <v>97</v>
-      </c>
-      <c r="F46" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="113" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -7868,57 +7878,57 @@
         <v>97</v>
       </c>
       <c r="B47" s="110" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C47" s="111" t="s">
         <v>419</v>
       </c>
       <c r="D47" s="112" t="s">
-        <v>215</v>
-      </c>
-      <c r="E47" s="110"/>
-      <c r="F47" s="110"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="113"/>
+        <v>216</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="113" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="109" t="s">
         <v>97</v>
       </c>
       <c r="B48" s="110" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C48" s="111" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D48" s="112" t="s">
-        <v>254</v>
-      </c>
-      <c r="E48" s="110" t="s">
-        <v>97</v>
-      </c>
-      <c r="F48" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="113" t="s">
-        <v>400</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="E48" s="110"/>
+      <c r="F48" s="110"/>
+      <c r="G48" s="110"/>
+      <c r="H48" s="113"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="109" t="s">
         <v>97</v>
       </c>
       <c r="B49" s="110" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C49" s="111" t="s">
         <v>420</v>
       </c>
       <c r="D49" s="112" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="E49" s="110" t="s">
         <v>97</v>
@@ -7930,7 +7940,7 @@
         <v>5</v>
       </c>
       <c r="H49" s="113" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -7938,15 +7948,17 @@
         <v>97</v>
       </c>
       <c r="B50" s="110" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C50" s="111" t="s">
         <v>420</v>
       </c>
       <c r="D50" s="112" t="s">
-        <v>218</v>
-      </c>
-      <c r="E50" s="110"/>
+        <v>217</v>
+      </c>
+      <c r="E50" s="110" t="s">
+        <v>97</v>
+      </c>
       <c r="F50" s="110" t="s">
         <v>5</v>
       </c>
@@ -7954,7 +7966,7 @@
         <v>5</v>
       </c>
       <c r="H50" s="113" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -7962,17 +7974,15 @@
         <v>97</v>
       </c>
       <c r="B51" s="110" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C51" s="111" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D51" s="112" t="s">
-        <v>220</v>
-      </c>
-      <c r="E51" s="110" t="s">
-        <v>425</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="E51" s="110"/>
       <c r="F51" s="110" t="s">
         <v>5</v>
       </c>
@@ -7991,10 +8001,10 @@
         <v>140</v>
       </c>
       <c r="C52" s="111" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D52" s="112" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E52" s="110" t="s">
         <v>425</v>
@@ -8017,10 +8027,10 @@
         <v>140</v>
       </c>
       <c r="C53" s="111" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D53" s="112" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E53" s="110" t="s">
         <v>425</v>
@@ -8035,80 +8045,80 @@
         <v>400</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="119" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="120" t="s">
+      <c r="B54" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="C54" s="121" t="s">
+      <c r="C54" s="111" t="s">
+        <v>423</v>
+      </c>
+      <c r="D54" s="112" t="s">
+        <v>219</v>
+      </c>
+      <c r="E54" s="110" t="s">
+        <v>425</v>
+      </c>
+      <c r="F54" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="113" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="119" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" s="120" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" s="121" t="s">
         <v>424</v>
       </c>
-      <c r="D54" s="122" t="s">
+      <c r="D55" s="122" t="s">
         <v>221</v>
       </c>
-      <c r="E54" s="120" t="s">
+      <c r="E55" s="120" t="s">
         <v>425</v>
       </c>
-      <c r="F54" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="123" t="s">
+      <c r="F55" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H55" s="123" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="94" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="94" t="s">
         <v>207</v>
       </c>
-      <c r="B55" s="95" t="s">
+      <c r="B56" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C55" s="96" t="s">
+      <c r="C56" s="96" t="s">
         <v>208</v>
       </c>
-      <c r="D55" s="97" t="s">
+      <c r="D56" s="97" t="s">
         <v>427</v>
       </c>
-      <c r="E55" s="95" t="s">
+      <c r="E56" s="95" t="s">
         <v>426</v>
       </c>
-      <c r="F55" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="G55" s="95"/>
-      <c r="H55" s="99" t="s">
+      <c r="F56" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="95"/>
+      <c r="H56" s="99" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="55" t="s">
-        <v>207</v>
-      </c>
-      <c r="B56" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C56" s="52" t="s">
-        <v>208</v>
-      </c>
-      <c r="D56" s="51" t="s">
-        <v>211</v>
-      </c>
-      <c r="E56" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="F56" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G56" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H56" s="60" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -8116,57 +8126,57 @@
         <v>207</v>
       </c>
       <c r="B57" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C57" s="52" t="s">
         <v>208</v>
       </c>
       <c r="D57" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="E57" s="50"/>
-      <c r="F57" s="50"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="60"/>
+        <v>211</v>
+      </c>
+      <c r="E57" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="F57" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="60" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="55" t="s">
         <v>207</v>
       </c>
       <c r="B58" s="50" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C58" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D58" s="51" t="s">
-        <v>253</v>
-      </c>
-      <c r="E58" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="F58" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="60" t="s">
-        <v>400</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="60"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="55" t="s">
         <v>207</v>
       </c>
       <c r="B59" s="50" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C59" s="52" t="s">
         <v>209</v>
       </c>
       <c r="D59" s="51" t="s">
-        <v>212</v>
+        <v>253</v>
       </c>
       <c r="E59" s="50" t="s">
         <v>207</v>
@@ -8178,81 +8188,81 @@
         <v>5</v>
       </c>
       <c r="H59" s="60" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="B60" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="D60" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="E60" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="F60" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="60" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="124" t="s">
+    <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="124" t="s">
         <v>207</v>
       </c>
-      <c r="B60" s="100" t="s">
+      <c r="B61" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C60" s="101" t="s">
+      <c r="C61" s="101" t="s">
         <v>209</v>
       </c>
-      <c r="D60" s="125" t="s">
+      <c r="D61" s="125" t="s">
         <v>213</v>
       </c>
-      <c r="E60" s="100"/>
-      <c r="F60" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" s="126" t="s">
+      <c r="E61" s="100"/>
+      <c r="F61" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H61" s="126" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="104" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="B61" s="105" t="s">
+      <c r="B62" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C61" s="106" t="s">
+      <c r="C62" s="106" t="s">
         <v>428</v>
       </c>
-      <c r="D61" s="107" t="s">
+      <c r="D62" s="107" t="s">
         <v>430</v>
       </c>
-      <c r="E61" s="105" t="s">
+      <c r="E62" s="105" t="s">
         <v>431</v>
       </c>
-      <c r="F61" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="G61" s="105"/>
-      <c r="H61" s="108" t="s">
+      <c r="F62" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="105"/>
+      <c r="H62" s="108" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="109" t="s">
-        <v>38</v>
-      </c>
-      <c r="B62" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C62" s="111" t="s">
-        <v>428</v>
-      </c>
-      <c r="D62" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="E62" s="110" t="s">
-        <v>38</v>
-      </c>
-      <c r="F62" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="113" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -8260,57 +8270,57 @@
         <v>38</v>
       </c>
       <c r="B63" s="110" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" s="111" t="s">
         <v>428</v>
       </c>
       <c r="D63" s="112" t="s">
-        <v>197</v>
-      </c>
-      <c r="E63" s="110"/>
-      <c r="F63" s="110"/>
-      <c r="G63" s="110"/>
-      <c r="H63" s="113"/>
+        <v>191</v>
+      </c>
+      <c r="E63" s="110" t="s">
+        <v>38</v>
+      </c>
+      <c r="F63" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H63" s="113" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="109" t="s">
         <v>38</v>
       </c>
       <c r="B64" s="110" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C64" s="111" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D64" s="112" t="s">
-        <v>274</v>
-      </c>
-      <c r="E64" s="110" t="s">
-        <v>38</v>
-      </c>
-      <c r="F64" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G64" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H64" s="113" t="s">
-        <v>400</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="E64" s="110"/>
+      <c r="F64" s="110"/>
+      <c r="G64" s="110"/>
+      <c r="H64" s="113"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="109" t="s">
         <v>38</v>
       </c>
       <c r="B65" s="110" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C65" s="111" t="s">
         <v>429</v>
       </c>
       <c r="D65" s="112" t="s">
-        <v>192</v>
+        <v>274</v>
       </c>
       <c r="E65" s="110" t="s">
         <v>38</v>
@@ -8322,7 +8332,7 @@
         <v>5</v>
       </c>
       <c r="H65" s="113" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -8330,15 +8340,17 @@
         <v>38</v>
       </c>
       <c r="B66" s="110" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C66" s="111" t="s">
         <v>429</v>
       </c>
       <c r="D66" s="112" t="s">
-        <v>193</v>
-      </c>
-      <c r="E66" s="110"/>
+        <v>192</v>
+      </c>
+      <c r="E66" s="110" t="s">
+        <v>38</v>
+      </c>
       <c r="F66" s="110" t="s">
         <v>5</v>
       </c>
@@ -8346,7 +8358,7 @@
         <v>5</v>
       </c>
       <c r="H66" s="113" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -8354,17 +8366,15 @@
         <v>38</v>
       </c>
       <c r="B67" s="110" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C67" s="111" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D67" s="112" t="s">
-        <v>433</v>
-      </c>
-      <c r="E67" s="110" t="s">
-        <v>38</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="E67" s="110"/>
       <c r="F67" s="110" t="s">
         <v>5</v>
       </c>
@@ -8383,10 +8393,10 @@
         <v>143</v>
       </c>
       <c r="C68" s="111" t="s">
-        <v>527</v>
+        <v>432</v>
       </c>
       <c r="D68" s="112" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E68" s="110" t="s">
         <v>38</v>
@@ -8409,7 +8419,7 @@
         <v>143</v>
       </c>
       <c r="C69" s="111" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D69" s="112" t="s">
         <v>434</v>
@@ -8427,138 +8437,138 @@
         <v>400</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="119" t="s">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="B70" s="120" t="s">
+      <c r="B70" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="C70" s="121" t="s">
+      <c r="C70" s="111" t="s">
+        <v>528</v>
+      </c>
+      <c r="D70" s="112" t="s">
+        <v>434</v>
+      </c>
+      <c r="E70" s="110" t="s">
+        <v>38</v>
+      </c>
+      <c r="F70" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G70" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H70" s="113" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="119" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" s="120" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" s="121" t="s">
         <v>435</v>
       </c>
-      <c r="D70" s="122" t="s">
+      <c r="D71" s="122" t="s">
         <v>436</v>
       </c>
-      <c r="E70" s="120" t="s">
+      <c r="E71" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="F70" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G70" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="H70" s="123" t="s">
+      <c r="F71" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G71" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H71" s="123" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="94" t="s">
+    <row r="72" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="B71" s="95" t="s">
+      <c r="B72" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C71" s="96" t="s">
+      <c r="C72" s="96" t="s">
         <v>441</v>
       </c>
-      <c r="D71" s="97" t="s">
+      <c r="D72" s="97" t="s">
         <v>438</v>
       </c>
-      <c r="E71" s="95" t="s">
+      <c r="E72" s="95" t="s">
         <v>437</v>
       </c>
-      <c r="F71" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="G71" s="95"/>
-      <c r="H71" s="99" t="s">
+      <c r="F72" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="95"/>
+      <c r="H72" s="99" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="B72" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C72" s="52" t="s">
-        <v>441</v>
-      </c>
-      <c r="D72" s="51" t="s">
-        <v>194</v>
-      </c>
-      <c r="E72" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="F72" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="60" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="55" t="s">
         <v>63</v>
       </c>
       <c r="B73" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C73" s="52" t="s">
         <v>441</v>
       </c>
       <c r="D73" s="51" t="s">
-        <v>198</v>
-      </c>
-      <c r="E73" s="50"/>
-      <c r="F73" s="50"/>
-      <c r="G73" s="50"/>
-      <c r="H73" s="60"/>
+        <v>194</v>
+      </c>
+      <c r="E73" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="F73" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G73" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H73" s="60" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="55" t="s">
         <v>63</v>
       </c>
       <c r="B74" s="50" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C74" s="52" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D74" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="E74" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="F74" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G74" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H74" s="60" t="s">
-        <v>400</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="E74" s="50"/>
+      <c r="F74" s="50"/>
+      <c r="G74" s="50"/>
+      <c r="H74" s="60"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="55" t="s">
         <v>63</v>
       </c>
       <c r="B75" s="50" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C75" s="52" t="s">
         <v>442</v>
       </c>
       <c r="D75" s="51" t="s">
-        <v>195</v>
+        <v>250</v>
       </c>
       <c r="E75" s="50" t="s">
         <v>63</v>
@@ -8570,81 +8580,81 @@
         <v>5</v>
       </c>
       <c r="H75" s="60" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B76" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="C76" s="52" t="s">
+        <v>442</v>
+      </c>
+      <c r="D76" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="E76" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="F76" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" s="60" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="124" t="s">
+    <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="B76" s="100" t="s">
+      <c r="B77" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C76" s="101" t="s">
+      <c r="C77" s="101" t="s">
         <v>442</v>
       </c>
-      <c r="D76" s="125" t="s">
+      <c r="D77" s="125" t="s">
         <v>196</v>
       </c>
-      <c r="E76" s="100"/>
-      <c r="F76" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="H76" s="126" t="s">
+      <c r="E77" s="100"/>
+      <c r="F77" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G77" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H77" s="126" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="104" t="s">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="B77" s="105" t="s">
+      <c r="B78" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C77" s="106" t="s">
+      <c r="C78" s="106" t="s">
         <v>443</v>
       </c>
-      <c r="D77" s="107" t="s">
+      <c r="D78" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="E77" s="105" t="s">
+      <c r="E78" s="105" t="s">
         <v>440</v>
       </c>
-      <c r="F77" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="G77" s="105"/>
-      <c r="H77" s="108" t="s">
+      <c r="F78" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G78" s="105"/>
+      <c r="H78" s="108" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="109" t="s">
-        <v>58</v>
-      </c>
-      <c r="B78" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C78" s="111" t="s">
-        <v>443</v>
-      </c>
-      <c r="D78" s="112" t="s">
-        <v>200</v>
-      </c>
-      <c r="E78" s="110" t="s">
-        <v>58</v>
-      </c>
-      <c r="F78" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G78" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H78" s="113" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -8652,57 +8662,57 @@
         <v>58</v>
       </c>
       <c r="B79" s="110" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C79" s="111" t="s">
         <v>443</v>
       </c>
       <c r="D79" s="112" t="s">
-        <v>199</v>
-      </c>
-      <c r="E79" s="110"/>
-      <c r="F79" s="110"/>
-      <c r="G79" s="110"/>
-      <c r="H79" s="113"/>
+        <v>200</v>
+      </c>
+      <c r="E79" s="110" t="s">
+        <v>58</v>
+      </c>
+      <c r="F79" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G79" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H79" s="113" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="109" t="s">
         <v>58</v>
       </c>
       <c r="B80" s="110" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C80" s="111" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D80" s="112" t="s">
-        <v>251</v>
-      </c>
-      <c r="E80" s="110" t="s">
-        <v>58</v>
-      </c>
-      <c r="F80" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G80" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H80" s="113" t="s">
-        <v>400</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="E80" s="110"/>
+      <c r="F80" s="110"/>
+      <c r="G80" s="110"/>
+      <c r="H80" s="113"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="109" t="s">
         <v>58</v>
       </c>
       <c r="B81" s="110" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C81" s="111" t="s">
         <v>444</v>
       </c>
       <c r="D81" s="112" t="s">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="E81" s="110" t="s">
         <v>58</v>
@@ -8714,81 +8724,81 @@
         <v>5</v>
       </c>
       <c r="H81" s="113" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="109" t="s">
+        <v>58</v>
+      </c>
+      <c r="B82" s="110" t="s">
+        <v>143</v>
+      </c>
+      <c r="C82" s="111" t="s">
+        <v>444</v>
+      </c>
+      <c r="D82" s="112" t="s">
+        <v>201</v>
+      </c>
+      <c r="E82" s="110" t="s">
+        <v>58</v>
+      </c>
+      <c r="F82" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G82" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H82" s="113" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="114" t="s">
+    <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="B82" s="115" t="s">
+      <c r="B83" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="C82" s="116" t="s">
+      <c r="C83" s="116" t="s">
         <v>444</v>
       </c>
-      <c r="D82" s="117" t="s">
+      <c r="D83" s="117" t="s">
         <v>202</v>
       </c>
-      <c r="E82" s="115"/>
-      <c r="F82" s="115" t="s">
-        <v>5</v>
-      </c>
-      <c r="G82" s="115" t="s">
-        <v>5</v>
-      </c>
-      <c r="H82" s="118" t="s">
+      <c r="E83" s="115"/>
+      <c r="F83" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="118" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="94" t="s">
+    <row r="84" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="94" t="s">
         <v>292</v>
       </c>
-      <c r="B83" s="95" t="s">
+      <c r="B84" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C83" s="96" t="s">
+      <c r="C84" s="96" t="s">
         <v>445</v>
       </c>
-      <c r="D83" s="127" t="s">
+      <c r="D84" s="127" t="s">
         <v>448</v>
       </c>
-      <c r="E83" s="95" t="s">
+      <c r="E84" s="95" t="s">
         <v>447</v>
       </c>
-      <c r="F83" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="95"/>
-      <c r="H83" s="99" t="s">
+      <c r="F84" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G84" s="95"/>
+      <c r="H84" s="99" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="55" t="s">
-        <v>292</v>
-      </c>
-      <c r="B84" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C84" s="52" t="s">
-        <v>445</v>
-      </c>
-      <c r="D84" s="53" t="s">
-        <v>449</v>
-      </c>
-      <c r="E84" s="50" t="s">
-        <v>292</v>
-      </c>
-      <c r="F84" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G84" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H84" s="60" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="85" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.25">
@@ -8796,57 +8806,57 @@
         <v>292</v>
       </c>
       <c r="B85" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C85" s="52" t="s">
         <v>445</v>
       </c>
       <c r="D85" s="53" t="s">
-        <v>450</v>
-      </c>
-      <c r="E85" s="50"/>
-      <c r="F85" s="50"/>
-      <c r="G85" s="50"/>
-      <c r="H85" s="60"/>
+        <v>449</v>
+      </c>
+      <c r="E85" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="F85" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G85" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H85" s="60" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="86" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="55" t="s">
         <v>292</v>
       </c>
       <c r="B86" s="50" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C86" s="52" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D86" s="53" t="s">
-        <v>451</v>
-      </c>
-      <c r="E86" s="50" t="s">
-        <v>292</v>
-      </c>
-      <c r="F86" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G86" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H86" s="60" t="s">
-        <v>400</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="E86" s="50"/>
+      <c r="F86" s="50"/>
+      <c r="G86" s="50"/>
+      <c r="H86" s="60"/>
     </row>
     <row r="87" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="55" t="s">
         <v>292</v>
       </c>
       <c r="B87" s="50" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C87" s="52" t="s">
         <v>446</v>
       </c>
       <c r="D87" s="53" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E87" s="50" t="s">
         <v>292</v>
@@ -8858,81 +8868,81 @@
         <v>5</v>
       </c>
       <c r="H87" s="60" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="B88" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="C88" s="52" t="s">
+        <v>446</v>
+      </c>
+      <c r="D88" s="53" t="s">
+        <v>452</v>
+      </c>
+      <c r="E88" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="F88" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G88" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H88" s="60" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="88" spans="1:8" s="128" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="124" t="s">
+    <row r="89" spans="1:8" s="128" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="124" t="s">
         <v>292</v>
       </c>
-      <c r="B88" s="100" t="s">
+      <c r="B89" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C88" s="101" t="s">
+      <c r="C89" s="101" t="s">
         <v>446</v>
       </c>
-      <c r="D88" s="102" t="s">
+      <c r="D89" s="102" t="s">
         <v>453</v>
       </c>
-      <c r="E88" s="100"/>
-      <c r="F88" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="G88" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="H88" s="126" t="s">
+      <c r="E89" s="100"/>
+      <c r="F89" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="126" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="104" t="s">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="105" t="s">
+      <c r="B90" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C89" s="106" t="s">
+      <c r="C90" s="106" t="s">
         <v>454</v>
       </c>
-      <c r="D89" s="107" t="s">
+      <c r="D90" s="107" t="s">
         <v>456</v>
       </c>
-      <c r="E89" s="105" t="s">
+      <c r="E90" s="105" t="s">
         <v>467</v>
       </c>
-      <c r="F89" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="105"/>
-      <c r="H89" s="108" t="s">
+      <c r="F90" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G90" s="105"/>
+      <c r="H90" s="108" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B90" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C90" s="111" t="s">
-        <v>454</v>
-      </c>
-      <c r="D90" s="112" t="s">
-        <v>163</v>
-      </c>
-      <c r="E90" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="F90" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G90" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H90" s="113" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -8940,57 +8950,57 @@
         <v>10</v>
       </c>
       <c r="B91" s="110" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C91" s="111" t="s">
         <v>454</v>
       </c>
       <c r="D91" s="112" t="s">
-        <v>162</v>
-      </c>
-      <c r="E91" s="110"/>
-      <c r="F91" s="110"/>
-      <c r="G91" s="110"/>
-      <c r="H91" s="113"/>
+        <v>163</v>
+      </c>
+      <c r="E91" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="113" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="109" t="s">
         <v>10</v>
       </c>
       <c r="B92" s="110" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C92" s="111" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D92" s="112" t="s">
-        <v>245</v>
-      </c>
-      <c r="E92" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="F92" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G92" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H92" s="113" t="s">
-        <v>400</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="E92" s="110"/>
+      <c r="F92" s="110"/>
+      <c r="G92" s="110"/>
+      <c r="H92" s="113"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="109" t="s">
         <v>10</v>
       </c>
       <c r="B93" s="110" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C93" s="111" t="s">
         <v>455</v>
       </c>
       <c r="D93" s="112" t="s">
-        <v>164</v>
+        <v>245</v>
       </c>
       <c r="E93" s="110" t="s">
         <v>10</v>
@@ -9002,81 +9012,81 @@
         <v>5</v>
       </c>
       <c r="H93" s="113" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" s="110" t="s">
+        <v>143</v>
+      </c>
+      <c r="C94" s="111" t="s">
+        <v>455</v>
+      </c>
+      <c r="D94" s="112" t="s">
+        <v>164</v>
+      </c>
+      <c r="E94" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="113" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="119" t="s">
+    <row r="95" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="120" t="s">
+      <c r="B95" s="120" t="s">
         <v>142</v>
       </c>
-      <c r="C94" s="121" t="s">
+      <c r="C95" s="121" t="s">
         <v>455</v>
       </c>
-      <c r="D94" s="122" t="s">
+      <c r="D95" s="122" t="s">
         <v>165</v>
       </c>
-      <c r="E94" s="120"/>
-      <c r="F94" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="123" t="s">
+      <c r="E95" s="120"/>
+      <c r="F95" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G95" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H95" s="123" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="94" t="s">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="94" t="s">
         <v>166</v>
       </c>
-      <c r="B95" s="95" t="s">
+      <c r="B96" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C95" s="96" t="s">
+      <c r="C96" s="96" t="s">
         <v>457</v>
       </c>
-      <c r="D95" s="97" t="s">
+      <c r="D96" s="97" t="s">
         <v>458</v>
       </c>
-      <c r="E95" s="95" t="s">
+      <c r="E96" s="95" t="s">
         <v>459</v>
       </c>
-      <c r="F95" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="G95" s="95"/>
-      <c r="H95" s="99" t="s">
+      <c r="F96" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G96" s="95"/>
+      <c r="H96" s="99" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="55" t="s">
-        <v>166</v>
-      </c>
-      <c r="B96" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C96" s="52" t="s">
-        <v>457</v>
-      </c>
-      <c r="D96" s="51" t="s">
-        <v>167</v>
-      </c>
-      <c r="E96" s="50" t="s">
-        <v>166</v>
-      </c>
-      <c r="F96" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G96" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H96" s="60" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -9084,18 +9094,26 @@
         <v>166</v>
       </c>
       <c r="B97" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C97" s="52" t="s">
         <v>457</v>
       </c>
       <c r="D97" s="51" t="s">
-        <v>273</v>
-      </c>
-      <c r="E97" s="50"/>
-      <c r="F97" s="50"/>
-      <c r="G97" s="50"/>
-      <c r="H97" s="60"/>
+        <v>167</v>
+      </c>
+      <c r="E97" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="F97" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G97" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H97" s="60" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="55" t="s">
@@ -9105,38 +9123,30 @@
         <v>142</v>
       </c>
       <c r="C98" s="52" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D98" s="51" t="s">
-        <v>461</v>
+        <v>273</v>
       </c>
       <c r="E98" s="50"/>
-      <c r="F98" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G98" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H98" s="60" t="s">
-        <v>400</v>
-      </c>
+      <c r="F98" s="50"/>
+      <c r="G98" s="50"/>
+      <c r="H98" s="60"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="55" t="s">
         <v>166</v>
       </c>
       <c r="B99" s="50" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C99" s="52" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D99" s="51" t="s">
-        <v>464</v>
-      </c>
-      <c r="E99" s="50" t="s">
-        <v>463</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="E99" s="50"/>
       <c r="F99" s="50" t="s">
         <v>5</v>
       </c>
@@ -9147,80 +9157,80 @@
         <v>400</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="124" t="s">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="B100" s="100" t="s">
+      <c r="B100" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="C100" s="101" t="s">
+      <c r="C100" s="52" t="s">
+        <v>462</v>
+      </c>
+      <c r="D100" s="51" t="s">
+        <v>464</v>
+      </c>
+      <c r="E100" s="50" t="s">
+        <v>463</v>
+      </c>
+      <c r="F100" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="60" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="124" t="s">
+        <v>166</v>
+      </c>
+      <c r="B101" s="100" t="s">
+        <v>140</v>
+      </c>
+      <c r="C101" s="101" t="s">
         <v>465</v>
       </c>
-      <c r="D100" s="125" t="s">
+      <c r="D101" s="125" t="s">
         <v>466</v>
       </c>
-      <c r="E100" s="100" t="s">
+      <c r="E101" s="100" t="s">
         <v>467</v>
       </c>
-      <c r="F100" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="126" t="s">
+      <c r="F101" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="126" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="104" t="s">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="B101" s="105" t="s">
+      <c r="B102" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C101" s="106" t="s">
+      <c r="C102" s="106" t="s">
         <v>468</v>
       </c>
-      <c r="D101" s="107" t="s">
+      <c r="D102" s="107" t="s">
         <v>471</v>
       </c>
-      <c r="E101" s="105" t="s">
+      <c r="E102" s="105" t="s">
         <v>470</v>
       </c>
-      <c r="F101" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="105"/>
-      <c r="H101" s="108" t="s">
+      <c r="F102" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="105"/>
+      <c r="H102" s="108" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="109" t="s">
-        <v>90</v>
-      </c>
-      <c r="B102" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C102" s="111" t="s">
-        <v>468</v>
-      </c>
-      <c r="D102" s="112" t="s">
-        <v>169</v>
-      </c>
-      <c r="E102" s="110" t="s">
-        <v>90</v>
-      </c>
-      <c r="F102" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="113" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -9228,57 +9238,57 @@
         <v>90</v>
       </c>
       <c r="B103" s="110" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C103" s="111" t="s">
         <v>468</v>
       </c>
       <c r="D103" s="112" t="s">
-        <v>168</v>
-      </c>
-      <c r="E103" s="110"/>
-      <c r="F103" s="110"/>
-      <c r="G103" s="110"/>
-      <c r="H103" s="113"/>
+        <v>169</v>
+      </c>
+      <c r="E103" s="110" t="s">
+        <v>90</v>
+      </c>
+      <c r="F103" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G103" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H103" s="113" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="109" t="s">
         <v>90</v>
       </c>
       <c r="B104" s="110" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C104" s="111" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D104" s="112" t="s">
-        <v>246</v>
-      </c>
-      <c r="E104" s="110" t="s">
-        <v>90</v>
-      </c>
-      <c r="F104" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G104" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H104" s="113" t="s">
-        <v>400</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="E104" s="110"/>
+      <c r="F104" s="110"/>
+      <c r="G104" s="110"/>
+      <c r="H104" s="113"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="109" t="s">
         <v>90</v>
       </c>
       <c r="B105" s="110" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C105" s="111" t="s">
         <v>469</v>
       </c>
       <c r="D105" s="112" t="s">
-        <v>170</v>
+        <v>246</v>
       </c>
       <c r="E105" s="110" t="s">
         <v>90</v>
@@ -9290,81 +9300,81 @@
         <v>5</v>
       </c>
       <c r="H105" s="113" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="109" t="s">
+        <v>90</v>
+      </c>
+      <c r="B106" s="110" t="s">
+        <v>143</v>
+      </c>
+      <c r="C106" s="111" t="s">
+        <v>469</v>
+      </c>
+      <c r="D106" s="112" t="s">
+        <v>170</v>
+      </c>
+      <c r="E106" s="110" t="s">
+        <v>90</v>
+      </c>
+      <c r="F106" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G106" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H106" s="113" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="119" t="s">
+    <row r="107" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="119" t="s">
         <v>90</v>
       </c>
-      <c r="B106" s="120" t="s">
+      <c r="B107" s="120" t="s">
         <v>142</v>
       </c>
-      <c r="C106" s="121" t="s">
+      <c r="C107" s="121" t="s">
         <v>469</v>
       </c>
-      <c r="D106" s="122" t="s">
+      <c r="D107" s="122" t="s">
         <v>171</v>
       </c>
-      <c r="E106" s="120"/>
-      <c r="F106" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G106" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="H106" s="123" t="s">
+      <c r="E107" s="120"/>
+      <c r="F107" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G107" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H107" s="123" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="94" t="s">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="94" t="s">
         <v>244</v>
       </c>
-      <c r="B107" s="95" t="s">
+      <c r="B108" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C107" s="96" t="s">
+      <c r="C108" s="96" t="s">
         <v>235</v>
       </c>
-      <c r="D107" s="97" t="s">
+      <c r="D108" s="97" t="s">
         <v>236</v>
       </c>
-      <c r="E107" s="95" t="s">
+      <c r="E108" s="95" t="s">
         <v>472</v>
       </c>
-      <c r="F107" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="G107" s="95"/>
-      <c r="H107" s="99" t="s">
+      <c r="F108" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G108" s="95"/>
+      <c r="H108" s="99" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="55" t="s">
-        <v>244</v>
-      </c>
-      <c r="B108" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C108" s="52" t="s">
-        <v>235</v>
-      </c>
-      <c r="D108" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="E108" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="F108" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G108" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H108" s="60" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -9372,57 +9382,57 @@
         <v>244</v>
       </c>
       <c r="B109" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C109" s="52" t="s">
         <v>235</v>
       </c>
       <c r="D109" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="E109" s="50"/>
-      <c r="F109" s="50"/>
-      <c r="G109" s="50"/>
-      <c r="H109" s="60"/>
+        <v>238</v>
+      </c>
+      <c r="E109" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="F109" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G109" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H109" s="60" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="55" t="s">
         <v>244</v>
       </c>
       <c r="B110" s="50" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C110" s="52" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D110" s="51" t="s">
-        <v>257</v>
-      </c>
-      <c r="E110" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="F110" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G110" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H110" s="60" t="s">
-        <v>400</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="E110" s="50"/>
+      <c r="F110" s="50"/>
+      <c r="G110" s="50"/>
+      <c r="H110" s="60"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="55" t="s">
         <v>244</v>
       </c>
       <c r="B111" s="50" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C111" s="52" t="s">
         <v>239</v>
       </c>
       <c r="D111" s="51" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="E111" s="50" t="s">
         <v>244</v>
@@ -9434,7 +9444,7 @@
         <v>5</v>
       </c>
       <c r="H111" s="60" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -9442,15 +9452,17 @@
         <v>244</v>
       </c>
       <c r="B112" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C112" s="52" t="s">
         <v>239</v>
       </c>
       <c r="D112" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="E112" s="50"/>
+        <v>240</v>
+      </c>
+      <c r="E112" s="50" t="s">
+        <v>244</v>
+      </c>
       <c r="F112" s="50" t="s">
         <v>5</v>
       </c>
@@ -9458,7 +9470,7 @@
         <v>5</v>
       </c>
       <c r="H112" s="60" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -9466,17 +9478,15 @@
         <v>244</v>
       </c>
       <c r="B113" s="50" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C113" s="52" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="D113" s="51" t="s">
-        <v>276</v>
-      </c>
-      <c r="E113" s="50" t="s">
-        <v>472</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="E113" s="50"/>
       <c r="F113" s="50" t="s">
         <v>5</v>
       </c>
@@ -9487,80 +9497,80 @@
         <v>400</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="124" t="s">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="55" t="s">
         <v>244</v>
       </c>
-      <c r="B114" s="100" t="s">
+      <c r="B114" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="C114" s="101" t="s">
+      <c r="C114" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="D114" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="E114" s="50" t="s">
+        <v>472</v>
+      </c>
+      <c r="F114" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G114" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H114" s="60" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="124" t="s">
+        <v>244</v>
+      </c>
+      <c r="B115" s="100" t="s">
+        <v>140</v>
+      </c>
+      <c r="C115" s="101" t="s">
         <v>242</v>
       </c>
-      <c r="D114" s="125" t="s">
+      <c r="D115" s="125" t="s">
         <v>243</v>
       </c>
-      <c r="E114" s="100" t="s">
+      <c r="E115" s="100" t="s">
         <v>472</v>
       </c>
-      <c r="F114" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="G114" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="H114" s="126" t="s">
+      <c r="F115" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G115" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H115" s="126" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="104" t="s">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="B115" s="105" t="s">
+      <c r="B116" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C115" s="106" t="s">
+      <c r="C116" s="106" t="s">
         <v>474</v>
       </c>
-      <c r="D115" s="107" t="s">
+      <c r="D116" s="107" t="s">
         <v>229</v>
       </c>
-      <c r="E115" s="105" t="s">
+      <c r="E116" s="105" t="s">
         <v>473</v>
       </c>
-      <c r="F115" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="G115" s="105"/>
-      <c r="H115" s="108" t="s">
+      <c r="F116" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G116" s="105"/>
+      <c r="H116" s="108" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="109" t="s">
-        <v>114</v>
-      </c>
-      <c r="B116" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C116" s="111" t="s">
-        <v>474</v>
-      </c>
-      <c r="D116" s="112" t="s">
-        <v>231</v>
-      </c>
-      <c r="E116" s="110" t="s">
-        <v>114</v>
-      </c>
-      <c r="F116" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G116" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H116" s="113" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -9568,57 +9578,57 @@
         <v>114</v>
       </c>
       <c r="B117" s="110" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C117" s="111" t="s">
         <v>474</v>
       </c>
       <c r="D117" s="112" t="s">
-        <v>230</v>
-      </c>
-      <c r="E117" s="110"/>
-      <c r="F117" s="110"/>
-      <c r="G117" s="110"/>
-      <c r="H117" s="113"/>
+        <v>231</v>
+      </c>
+      <c r="E117" s="110" t="s">
+        <v>114</v>
+      </c>
+      <c r="F117" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G117" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H117" s="113" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="109" t="s">
         <v>114</v>
       </c>
       <c r="B118" s="110" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C118" s="111" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D118" s="112" t="s">
-        <v>256</v>
-      </c>
-      <c r="E118" s="110" t="s">
-        <v>114</v>
-      </c>
-      <c r="F118" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G118" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H118" s="113" t="s">
-        <v>400</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="E118" s="110"/>
+      <c r="F118" s="110"/>
+      <c r="G118" s="110"/>
+      <c r="H118" s="113"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="109" t="s">
         <v>114</v>
       </c>
       <c r="B119" s="110" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C119" s="111" t="s">
         <v>475</v>
       </c>
       <c r="D119" s="112" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="E119" s="110" t="s">
         <v>114</v>
@@ -9630,7 +9640,7 @@
         <v>5</v>
       </c>
       <c r="H119" s="113" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -9638,99 +9648,99 @@
         <v>114</v>
       </c>
       <c r="B120" s="110" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C120" s="111" t="s">
         <v>475</v>
       </c>
       <c r="D120" s="112" t="s">
+        <v>232</v>
+      </c>
+      <c r="E120" s="110" t="s">
+        <v>114</v>
+      </c>
+      <c r="F120" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G120" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H120" s="113" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="109" t="s">
+        <v>114</v>
+      </c>
+      <c r="B121" s="110" t="s">
+        <v>142</v>
+      </c>
+      <c r="C121" s="111" t="s">
+        <v>475</v>
+      </c>
+      <c r="D121" s="112" t="s">
         <v>233</v>
       </c>
-      <c r="E120" s="110"/>
-      <c r="F120" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G120" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H120" s="113" t="s">
+      <c r="E121" s="110"/>
+      <c r="F121" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G121" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H121" s="113" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="119" t="s">
+    <row r="122" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="119" t="s">
         <v>114</v>
       </c>
-      <c r="B121" s="120" t="s">
+      <c r="B122" s="120" t="s">
         <v>140</v>
       </c>
-      <c r="C121" s="121" t="s">
+      <c r="C122" s="121" t="s">
         <v>476</v>
       </c>
-      <c r="D121" s="122" t="s">
+      <c r="D122" s="122" t="s">
         <v>234</v>
       </c>
-      <c r="E121" s="120" t="s">
+      <c r="E122" s="120" t="s">
         <v>473</v>
       </c>
-      <c r="F121" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G121" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="H121" s="123" t="s">
+      <c r="F122" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G122" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H122" s="123" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="94" t="s">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="B122" s="95" t="s">
+      <c r="B123" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C122" s="96" t="s">
+      <c r="C123" s="96" t="s">
         <v>479</v>
       </c>
-      <c r="D122" s="97" t="s">
+      <c r="D123" s="97" t="s">
         <v>478</v>
       </c>
-      <c r="E122" s="95" t="s">
+      <c r="E123" s="95" t="s">
         <v>477</v>
       </c>
-      <c r="F122" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="G122" s="95"/>
-      <c r="H122" s="99" t="s">
+      <c r="F123" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G123" s="95"/>
+      <c r="H123" s="99" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="B123" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C123" s="52" t="s">
-        <v>479</v>
-      </c>
-      <c r="D123" s="51" t="s">
-        <v>204</v>
-      </c>
-      <c r="E123" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="F123" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G123" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H123" s="60" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -9738,57 +9748,57 @@
         <v>103</v>
       </c>
       <c r="B124" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C124" s="52" t="s">
         <v>479</v>
       </c>
       <c r="D124" s="51" t="s">
-        <v>203</v>
-      </c>
-      <c r="E124" s="50"/>
-      <c r="F124" s="50"/>
-      <c r="G124" s="50"/>
-      <c r="H124" s="60"/>
+        <v>204</v>
+      </c>
+      <c r="E124" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="F124" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G124" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H124" s="60" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="55" t="s">
         <v>103</v>
       </c>
       <c r="B125" s="50" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C125" s="52" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D125" s="51" t="s">
-        <v>252</v>
-      </c>
-      <c r="E125" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="F125" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G125" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H125" s="60" t="s">
-        <v>400</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E125" s="50"/>
+      <c r="F125" s="50"/>
+      <c r="G125" s="50"/>
+      <c r="H125" s="60"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="55" t="s">
         <v>103</v>
       </c>
       <c r="B126" s="50" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C126" s="52" t="s">
         <v>480</v>
       </c>
       <c r="D126" s="51" t="s">
-        <v>205</v>
+        <v>252</v>
       </c>
       <c r="E126" s="50" t="s">
         <v>103</v>
@@ -9800,7 +9810,7 @@
         <v>5</v>
       </c>
       <c r="H126" s="60" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -9808,15 +9818,17 @@
         <v>103</v>
       </c>
       <c r="B127" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C127" s="52" t="s">
         <v>480</v>
       </c>
       <c r="D127" s="51" t="s">
-        <v>206</v>
-      </c>
-      <c r="E127" s="50"/>
+        <v>205</v>
+      </c>
+      <c r="E127" s="50" t="s">
+        <v>103</v>
+      </c>
       <c r="F127" s="50" t="s">
         <v>5</v>
       </c>
@@ -9824,7 +9836,7 @@
         <v>5</v>
       </c>
       <c r="H127" s="60" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -9832,17 +9844,15 @@
         <v>103</v>
       </c>
       <c r="B128" s="50" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C128" s="52" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D128" s="51" t="s">
-        <v>482</v>
-      </c>
-      <c r="E128" s="50" t="s">
-        <v>477</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="E128" s="50"/>
       <c r="F128" s="50" t="s">
         <v>5</v>
       </c>
@@ -9853,80 +9863,80 @@
         <v>400</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="124" t="s">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="B129" s="100" t="s">
+      <c r="B129" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C129" s="52" t="s">
+        <v>481</v>
+      </c>
+      <c r="D129" s="51" t="s">
+        <v>482</v>
+      </c>
+      <c r="E129" s="50" t="s">
+        <v>477</v>
+      </c>
+      <c r="F129" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G129" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H129" s="60" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="124" t="s">
+        <v>103</v>
+      </c>
+      <c r="B130" s="100" t="s">
         <v>143</v>
       </c>
-      <c r="C129" s="101" t="s">
+      <c r="C130" s="101" t="s">
         <v>483</v>
       </c>
-      <c r="D129" s="125" t="s">
+      <c r="D130" s="125" t="s">
         <v>484</v>
       </c>
-      <c r="E129" s="100" t="s">
+      <c r="E130" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="F129" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="G129" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="H129" s="126" t="s">
+      <c r="F130" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G130" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H130" s="126" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="104" t="s">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="B130" s="105" t="s">
+      <c r="B131" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C130" s="106" t="s">
+      <c r="C131" s="106" t="s">
         <v>486</v>
       </c>
-      <c r="D130" s="107" t="s">
+      <c r="D131" s="107" t="s">
         <v>488</v>
       </c>
-      <c r="E130" s="105" t="s">
+      <c r="E131" s="105" t="s">
         <v>485</v>
       </c>
-      <c r="F130" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="G130" s="105"/>
-      <c r="H130" s="108" t="s">
+      <c r="F131" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G131" s="105"/>
+      <c r="H131" s="108" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="109" t="s">
-        <v>81</v>
-      </c>
-      <c r="B131" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C131" s="111" t="s">
-        <v>486</v>
-      </c>
-      <c r="D131" s="112" t="s">
-        <v>149</v>
-      </c>
-      <c r="E131" s="110" t="s">
-        <v>81</v>
-      </c>
-      <c r="F131" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G131" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H131" s="113" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -9934,57 +9944,57 @@
         <v>81</v>
       </c>
       <c r="B132" s="110" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C132" s="111" t="s">
         <v>486</v>
       </c>
       <c r="D132" s="112" t="s">
-        <v>148</v>
-      </c>
-      <c r="E132" s="110"/>
-      <c r="F132" s="110"/>
-      <c r="G132" s="110"/>
-      <c r="H132" s="113"/>
+        <v>149</v>
+      </c>
+      <c r="E132" s="110" t="s">
+        <v>81</v>
+      </c>
+      <c r="F132" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G132" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H132" s="113" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="109" t="s">
         <v>81</v>
       </c>
       <c r="B133" s="110" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C133" s="111" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D133" s="112" t="s">
-        <v>489</v>
-      </c>
-      <c r="E133" s="110" t="s">
-        <v>81</v>
-      </c>
-      <c r="F133" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G133" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H133" s="113" t="s">
-        <v>400</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="E133" s="110"/>
+      <c r="F133" s="110"/>
+      <c r="G133" s="110"/>
+      <c r="H133" s="113"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="109" t="s">
         <v>81</v>
       </c>
       <c r="B134" s="110" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C134" s="111" t="s">
         <v>487</v>
       </c>
       <c r="D134" s="112" t="s">
-        <v>150</v>
+        <v>489</v>
       </c>
       <c r="E134" s="110" t="s">
         <v>81</v>
@@ -9996,81 +10006,81 @@
         <v>5</v>
       </c>
       <c r="H134" s="113" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="109" t="s">
+        <v>81</v>
+      </c>
+      <c r="B135" s="110" t="s">
+        <v>143</v>
+      </c>
+      <c r="C135" s="111" t="s">
+        <v>487</v>
+      </c>
+      <c r="D135" s="112" t="s">
+        <v>150</v>
+      </c>
+      <c r="E135" s="110" t="s">
+        <v>81</v>
+      </c>
+      <c r="F135" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G135" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H135" s="113" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="119" t="s">
+    <row r="136" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="119" t="s">
         <v>81</v>
       </c>
-      <c r="B135" s="120" t="s">
+      <c r="B136" s="120" t="s">
         <v>142</v>
       </c>
-      <c r="C135" s="121" t="s">
+      <c r="C136" s="121" t="s">
         <v>487</v>
       </c>
-      <c r="D135" s="122" t="s">
+      <c r="D136" s="122" t="s">
         <v>151</v>
       </c>
-      <c r="E135" s="120"/>
-      <c r="F135" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G135" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="H135" s="123" t="s">
+      <c r="E136" s="120"/>
+      <c r="F136" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G136" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H136" s="123" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="94" t="s">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="94" t="s">
         <v>176</v>
       </c>
-      <c r="B136" s="95" t="s">
+      <c r="B137" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C136" s="96" t="s">
+      <c r="C137" s="96" t="s">
         <v>177</v>
       </c>
-      <c r="D136" s="97" t="s">
+      <c r="D137" s="97" t="s">
         <v>179</v>
       </c>
-      <c r="E136" s="95" t="s">
+      <c r="E137" s="95" t="s">
         <v>490</v>
       </c>
-      <c r="F136" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="G136" s="95"/>
-      <c r="H136" s="99" t="s">
+      <c r="F137" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G137" s="95"/>
+      <c r="H137" s="99" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="B137" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C137" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="D137" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="E137" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="F137" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G137" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H137" s="60" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -10078,57 +10088,57 @@
         <v>176</v>
       </c>
       <c r="B138" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C138" s="52" t="s">
         <v>177</v>
       </c>
       <c r="D138" s="51" t="s">
-        <v>180</v>
-      </c>
-      <c r="E138" s="50"/>
-      <c r="F138" s="50"/>
-      <c r="G138" s="50"/>
-      <c r="H138" s="60"/>
+        <v>181</v>
+      </c>
+      <c r="E138" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="F138" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G138" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H138" s="60" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="55" t="s">
         <v>176</v>
       </c>
       <c r="B139" s="50" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C139" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D139" s="51" t="s">
-        <v>248</v>
-      </c>
-      <c r="E139" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="F139" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G139" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H139" s="60" t="s">
-        <v>400</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="E139" s="50"/>
+      <c r="F139" s="50"/>
+      <c r="G139" s="50"/>
+      <c r="H139" s="60"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="55" t="s">
         <v>176</v>
       </c>
       <c r="B140" s="50" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C140" s="52" t="s">
         <v>178</v>
       </c>
       <c r="D140" s="51" t="s">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="E140" s="50" t="s">
         <v>176</v>
@@ -10140,81 +10150,81 @@
         <v>5</v>
       </c>
       <c r="H140" s="60" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="B141" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="C141" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="D141" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="E141" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="F141" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G141" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H141" s="60" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="124" t="s">
+    <row r="142" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="124" t="s">
         <v>176</v>
       </c>
-      <c r="B141" s="100" t="s">
+      <c r="B142" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C141" s="101" t="s">
+      <c r="C142" s="101" t="s">
         <v>178</v>
       </c>
-      <c r="D141" s="125" t="s">
+      <c r="D142" s="125" t="s">
         <v>183</v>
       </c>
-      <c r="E141" s="100"/>
-      <c r="F141" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="G141" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="H141" s="126" t="s">
+      <c r="E142" s="100"/>
+      <c r="F142" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G142" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H142" s="126" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="104" t="s">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="B142" s="105" t="s">
+      <c r="B143" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C142" s="106" t="s">
+      <c r="C143" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="D142" s="107" t="s">
+      <c r="D143" s="107" t="s">
         <v>491</v>
       </c>
-      <c r="E142" s="105" t="s">
+      <c r="E143" s="105" t="s">
         <v>88</v>
       </c>
-      <c r="F142" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="G142" s="105"/>
-      <c r="H142" s="108" t="s">
+      <c r="F143" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G143" s="105"/>
+      <c r="H143" s="108" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="109" t="s">
-        <v>88</v>
-      </c>
-      <c r="B143" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C143" s="111" t="s">
-        <v>152</v>
-      </c>
-      <c r="D143" s="112" t="s">
-        <v>154</v>
-      </c>
-      <c r="E143" s="110" t="s">
-        <v>88</v>
-      </c>
-      <c r="F143" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G143" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H143" s="113" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -10222,57 +10232,57 @@
         <v>88</v>
       </c>
       <c r="B144" s="110" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C144" s="111" t="s">
         <v>152</v>
       </c>
       <c r="D144" s="112" t="s">
-        <v>153</v>
-      </c>
-      <c r="E144" s="110"/>
-      <c r="F144" s="110"/>
-      <c r="G144" s="110"/>
-      <c r="H144" s="113"/>
+        <v>154</v>
+      </c>
+      <c r="E144" s="110" t="s">
+        <v>88</v>
+      </c>
+      <c r="F144" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G144" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H144" s="113" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="109" t="s">
         <v>88</v>
       </c>
       <c r="B145" s="110" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C145" s="111" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D145" s="112" t="s">
-        <v>147</v>
-      </c>
-      <c r="E145" s="110" t="s">
-        <v>88</v>
-      </c>
-      <c r="F145" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G145" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H145" s="113" t="s">
-        <v>400</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="E145" s="110"/>
+      <c r="F145" s="110"/>
+      <c r="G145" s="110"/>
+      <c r="H145" s="113"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="109" t="s">
         <v>88</v>
       </c>
       <c r="B146" s="110" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C146" s="111" t="s">
         <v>155</v>
       </c>
       <c r="D146" s="112" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E146" s="110" t="s">
         <v>88</v>
@@ -10284,81 +10294,81 @@
         <v>5</v>
       </c>
       <c r="H146" s="113" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="109" t="s">
+        <v>88</v>
+      </c>
+      <c r="B147" s="110" t="s">
+        <v>143</v>
+      </c>
+      <c r="C147" s="111" t="s">
+        <v>155</v>
+      </c>
+      <c r="D147" s="112" t="s">
+        <v>156</v>
+      </c>
+      <c r="E147" s="110" t="s">
+        <v>88</v>
+      </c>
+      <c r="F147" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G147" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H147" s="113" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="119" t="s">
+    <row r="148" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="B147" s="120" t="s">
+      <c r="B148" s="120" t="s">
         <v>142</v>
       </c>
-      <c r="C147" s="121" t="s">
+      <c r="C148" s="121" t="s">
         <v>155</v>
       </c>
-      <c r="D147" s="122" t="s">
+      <c r="D148" s="122" t="s">
         <v>157</v>
       </c>
-      <c r="E147" s="120"/>
-      <c r="F147" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G147" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="H147" s="123" t="s">
+      <c r="E148" s="120"/>
+      <c r="F148" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G148" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H148" s="123" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="148" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="129" t="s">
+    <row r="149" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="129" t="s">
         <v>293</v>
       </c>
-      <c r="B148" s="130" t="s">
+      <c r="B149" s="130" t="s">
         <v>140</v>
       </c>
-      <c r="C148" s="131" t="s">
+      <c r="C149" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="D148" s="132" t="s">
+      <c r="D149" s="132" t="s">
         <v>295</v>
       </c>
-      <c r="E148" s="130" t="s">
+      <c r="E149" s="130" t="s">
         <v>492</v>
       </c>
-      <c r="F148" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="G148" s="95"/>
-      <c r="H148" s="99" t="s">
+      <c r="F149" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G149" s="95"/>
+      <c r="H149" s="99" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="61" t="s">
-        <v>293</v>
-      </c>
-      <c r="B149" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="C149" s="63" t="s">
-        <v>294</v>
-      </c>
-      <c r="D149" s="64" t="s">
-        <v>296</v>
-      </c>
-      <c r="E149" s="62" t="s">
-        <v>293</v>
-      </c>
-      <c r="F149" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G149" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H149" s="60" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="150" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.25">
@@ -10366,57 +10376,57 @@
         <v>293</v>
       </c>
       <c r="B150" s="62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C150" s="63" t="s">
         <v>294</v>
       </c>
       <c r="D150" s="64" t="s">
-        <v>297</v>
-      </c>
-      <c r="E150" s="62"/>
-      <c r="F150" s="50"/>
-      <c r="G150" s="50"/>
-      <c r="H150" s="60"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+      <c r="E150" s="62" t="s">
+        <v>293</v>
+      </c>
+      <c r="F150" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G150" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H150" s="60" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="61" t="s">
         <v>293</v>
       </c>
-      <c r="B151" s="50" t="s">
-        <v>140</v>
+      <c r="B151" s="62" t="s">
+        <v>142</v>
       </c>
       <c r="C151" s="63" t="s">
-        <v>307</v>
-      </c>
-      <c r="D151" s="53" t="s">
-        <v>308</v>
-      </c>
-      <c r="E151" s="50" t="s">
-        <v>293</v>
-      </c>
-      <c r="F151" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G151" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H151" s="60" t="s">
-        <v>400</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="D151" s="64" t="s">
+        <v>297</v>
+      </c>
+      <c r="E151" s="62"/>
+      <c r="F151" s="50"/>
+      <c r="G151" s="50"/>
+      <c r="H151" s="60"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="61" t="s">
         <v>293</v>
       </c>
       <c r="B152" s="50" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C152" s="63" t="s">
         <v>307</v>
       </c>
       <c r="D152" s="53" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E152" s="50" t="s">
         <v>293</v>
@@ -10428,7 +10438,7 @@
         <v>5</v>
       </c>
       <c r="H152" s="60" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -10436,15 +10446,17 @@
         <v>293</v>
       </c>
       <c r="B153" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C153" s="63" t="s">
         <v>307</v>
       </c>
       <c r="D153" s="53" t="s">
-        <v>310</v>
-      </c>
-      <c r="E153" s="50"/>
+        <v>309</v>
+      </c>
+      <c r="E153" s="50" t="s">
+        <v>293</v>
+      </c>
       <c r="F153" s="50" t="s">
         <v>5</v>
       </c>
@@ -10452,52 +10464,50 @@
         <v>5</v>
       </c>
       <c r="H153" s="60" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="55" t="s">
+      <c r="A154" s="61" t="s">
         <v>293</v>
       </c>
       <c r="B154" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="C154" s="52" t="s">
-        <v>299</v>
+      <c r="C154" s="63" t="s">
+        <v>307</v>
       </c>
       <c r="D154" s="53" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="E154" s="50"/>
-      <c r="F154" s="50"/>
-      <c r="G154" s="50"/>
-      <c r="H154" s="60"/>
+      <c r="F154" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G154" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H154" s="60" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="55" t="s">
         <v>293</v>
       </c>
       <c r="B155" s="50" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C155" s="52" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D155" s="53" t="s">
-        <v>300</v>
-      </c>
-      <c r="E155" s="50" t="s">
-        <v>463</v>
-      </c>
-      <c r="F155" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G155" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H155" s="60" t="s">
-        <v>400</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="E155" s="50"/>
+      <c r="F155" s="50"/>
+      <c r="G155" s="50"/>
+      <c r="H155" s="60"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="55" t="s">
@@ -10507,13 +10517,13 @@
         <v>140</v>
       </c>
       <c r="C156" s="52" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D156" s="53" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E156" s="50" t="s">
-        <v>493</v>
+        <v>463</v>
       </c>
       <c r="F156" s="50" t="s">
         <v>5</v>
@@ -10533,116 +10543,116 @@
         <v>140</v>
       </c>
       <c r="C157" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="D157" s="53" t="s">
+        <v>301</v>
+      </c>
+      <c r="E157" s="50" t="s">
+        <v>493</v>
+      </c>
+      <c r="F157" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G157" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H157" s="60" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="B158" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C158" s="52" t="s">
         <v>302</v>
       </c>
-      <c r="D157" s="53" t="s">
+      <c r="D158" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="E157" s="50" t="s">
+      <c r="E158" s="50" t="s">
         <v>303</v>
       </c>
-      <c r="F157" s="50"/>
-      <c r="G157" s="50"/>
-      <c r="H157" s="60"/>
-    </row>
-    <row r="158" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="124" t="s">
+      <c r="F158" s="50"/>
+      <c r="G158" s="50"/>
+      <c r="H158" s="60"/>
+    </row>
+    <row r="159" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="124" t="s">
         <v>293</v>
       </c>
-      <c r="B158" s="100" t="s">
+      <c r="B159" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C158" s="101" t="s">
+      <c r="C159" s="101" t="s">
         <v>311</v>
       </c>
-      <c r="D158" s="102" t="s">
+      <c r="D159" s="102" t="s">
         <v>304</v>
       </c>
-      <c r="E158" s="100"/>
-      <c r="F158" s="100"/>
-      <c r="G158" s="100"/>
-      <c r="H158" s="126"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="104" t="s">
+      <c r="E159" s="100"/>
+      <c r="F159" s="100"/>
+      <c r="G159" s="100"/>
+      <c r="H159" s="126"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B159" s="105" t="s">
+      <c r="B160" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C159" s="106" t="s">
+      <c r="C160" s="106" t="s">
         <v>496</v>
       </c>
-      <c r="D159" s="107" t="s">
+      <c r="D160" s="107" t="s">
         <v>494</v>
       </c>
-      <c r="E159" s="105" t="s">
+      <c r="E160" s="105" t="s">
         <v>493</v>
       </c>
-      <c r="F159" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="G159" s="105"/>
-      <c r="H159" s="108" t="s">
+      <c r="F160" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G160" s="105"/>
+      <c r="H160" s="108" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B160" s="110" t="s">
-        <v>142</v>
-      </c>
-      <c r="C160" s="111" t="s">
-        <v>496</v>
-      </c>
-      <c r="D160" s="112" t="s">
-        <v>495</v>
-      </c>
-      <c r="E160" s="110"/>
-      <c r="F160" s="110"/>
-      <c r="G160" s="110"/>
-      <c r="H160" s="113"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="109" t="s">
         <v>0</v>
       </c>
       <c r="B161" s="110" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C161" s="111" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D161" s="112" t="s">
-        <v>144</v>
-      </c>
-      <c r="E161" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="F161" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G161" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H161" s="113" t="s">
-        <v>400</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="E161" s="110"/>
+      <c r="F161" s="110"/>
+      <c r="G161" s="110"/>
+      <c r="H161" s="113"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="109" t="s">
         <v>0</v>
       </c>
       <c r="B162" s="110" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C162" s="111" t="s">
         <v>497</v>
       </c>
       <c r="D162" s="112" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E162" s="110" t="s">
         <v>0</v>
@@ -10654,7 +10664,7 @@
         <v>5</v>
       </c>
       <c r="H162" s="113" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -10662,15 +10672,17 @@
         <v>0</v>
       </c>
       <c r="B163" s="110" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C163" s="111" t="s">
         <v>497</v>
       </c>
       <c r="D163" s="112" t="s">
-        <v>146</v>
-      </c>
-      <c r="E163" s="110"/>
+        <v>145</v>
+      </c>
+      <c r="E163" s="110" t="s">
+        <v>0</v>
+      </c>
       <c r="F163" s="110" t="s">
         <v>5</v>
       </c>
@@ -10678,7 +10690,7 @@
         <v>5</v>
       </c>
       <c r="H163" s="113" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -10686,17 +10698,15 @@
         <v>0</v>
       </c>
       <c r="B164" s="110" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C164" s="111" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D164" s="112" t="s">
-        <v>499</v>
-      </c>
-      <c r="E164" s="110" t="s">
-        <v>493</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="E164" s="110"/>
       <c r="F164" s="110" t="s">
         <v>5</v>
       </c>
@@ -10712,16 +10722,16 @@
         <v>0</v>
       </c>
       <c r="B165" s="110" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C165" s="111" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D165" s="112" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E165" s="110" t="s">
-        <v>0</v>
+        <v>493</v>
       </c>
       <c r="F165" s="110" t="s">
         <v>5</v>
@@ -10730,7 +10740,7 @@
         <v>5</v>
       </c>
       <c r="H165" s="113" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -10741,13 +10751,13 @@
         <v>141</v>
       </c>
       <c r="C166" s="111" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D166" s="112" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E166" s="110" t="s">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="F166" s="110" t="s">
         <v>5</v>
@@ -10759,7 +10769,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="109" t="s">
         <v>0</v>
       </c>
@@ -10767,64 +10777,64 @@
         <v>141</v>
       </c>
       <c r="C167" s="111" t="s">
+        <v>502</v>
+      </c>
+      <c r="D167" s="112" t="s">
+        <v>503</v>
+      </c>
+      <c r="E167" s="110" t="s">
+        <v>504</v>
+      </c>
+      <c r="F167" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G167" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H167" s="113" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B168" s="110" t="s">
+        <v>141</v>
+      </c>
+      <c r="C168" s="111" t="s">
         <v>505</v>
       </c>
-      <c r="D167" s="112" t="s">
+      <c r="D168" s="112" t="s">
         <v>506</v>
       </c>
-      <c r="E167" s="110"/>
-      <c r="F167" s="110"/>
-      <c r="G167" s="110"/>
-      <c r="H167" s="113"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="94" t="s">
+      <c r="E168" s="110"/>
+      <c r="F168" s="110"/>
+      <c r="G168" s="110"/>
+      <c r="H168" s="113"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="94" t="s">
         <v>264</v>
       </c>
-      <c r="B168" s="95" t="s">
+      <c r="B169" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C168" s="96" t="s">
+      <c r="C169" s="96" t="s">
         <v>508</v>
       </c>
-      <c r="D168" s="97" t="s">
+      <c r="D169" s="97" t="s">
         <v>268</v>
       </c>
-      <c r="E168" s="95" t="s">
+      <c r="E169" s="95" t="s">
         <v>507</v>
       </c>
-      <c r="F168" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="G168" s="95"/>
-      <c r="H168" s="99" t="s">
+      <c r="F169" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G169" s="95"/>
+      <c r="H169" s="99" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="55" t="s">
-        <v>264</v>
-      </c>
-      <c r="B169" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C169" s="52" t="s">
-        <v>508</v>
-      </c>
-      <c r="D169" s="51" t="s">
-        <v>270</v>
-      </c>
-      <c r="E169" s="50" t="s">
-        <v>264</v>
-      </c>
-      <c r="F169" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G169" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H169" s="60" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -10832,57 +10842,57 @@
         <v>264</v>
       </c>
       <c r="B170" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C170" s="52" t="s">
         <v>508</v>
       </c>
       <c r="D170" s="51" t="s">
-        <v>269</v>
-      </c>
-      <c r="E170" s="50"/>
-      <c r="F170" s="50"/>
-      <c r="G170" s="50"/>
-      <c r="H170" s="60"/>
+        <v>270</v>
+      </c>
+      <c r="E170" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="F170" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G170" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H170" s="60" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="55" t="s">
         <v>264</v>
       </c>
       <c r="B171" s="50" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C171" s="52" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D171" s="51" t="s">
-        <v>265</v>
-      </c>
-      <c r="E171" s="50" t="s">
-        <v>264</v>
-      </c>
-      <c r="F171" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G171" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H171" s="60" t="s">
-        <v>400</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="E171" s="50"/>
+      <c r="F171" s="50"/>
+      <c r="G171" s="50"/>
+      <c r="H171" s="60"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="55" t="s">
         <v>264</v>
       </c>
       <c r="B172" s="50" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C172" s="52" t="s">
         <v>510</v>
       </c>
       <c r="D172" s="51" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E172" s="50" t="s">
         <v>264</v>
@@ -10894,7 +10904,7 @@
         <v>5</v>
       </c>
       <c r="H172" s="60" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -10902,99 +10912,99 @@
         <v>264</v>
       </c>
       <c r="B173" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C173" s="52" t="s">
         <v>510</v>
       </c>
       <c r="D173" s="51" t="s">
+        <v>266</v>
+      </c>
+      <c r="E173" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="F173" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G173" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H173" s="60" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="55" t="s">
+        <v>264</v>
+      </c>
+      <c r="B174" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="C174" s="52" t="s">
+        <v>510</v>
+      </c>
+      <c r="D174" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="E173" s="50"/>
-      <c r="F173" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G173" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H173" s="60" t="s">
+      <c r="E174" s="50"/>
+      <c r="F174" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G174" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H174" s="60" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="124" t="s">
+    <row r="175" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="124" t="s">
         <v>264</v>
       </c>
-      <c r="B174" s="100" t="s">
+      <c r="B175" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="C174" s="101" t="s">
+      <c r="C175" s="101" t="s">
         <v>509</v>
       </c>
-      <c r="D174" s="125" t="s">
+      <c r="D175" s="125" t="s">
         <v>271</v>
       </c>
-      <c r="E174" s="100" t="s">
+      <c r="E175" s="100" t="s">
         <v>264</v>
       </c>
-      <c r="F174" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="G174" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="H174" s="126" t="s">
+      <c r="F175" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G175" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H175" s="126" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="104" t="s">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="B175" s="105" t="s">
+      <c r="B176" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C175" s="106" t="s">
+      <c r="C176" s="106" t="s">
         <v>511</v>
       </c>
-      <c r="D175" s="107" t="s">
+      <c r="D176" s="107" t="s">
         <v>258</v>
       </c>
-      <c r="E175" s="105" t="s">
+      <c r="E176" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="F175" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="G175" s="105"/>
-      <c r="H175" s="108" t="s">
+      <c r="F176" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G176" s="105"/>
+      <c r="H176" s="108" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="109" t="s">
-        <v>125</v>
-      </c>
-      <c r="B176" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C176" s="111" t="s">
-        <v>511</v>
-      </c>
-      <c r="D176" s="112" t="s">
-        <v>260</v>
-      </c>
-      <c r="E176" s="110" t="s">
-        <v>125</v>
-      </c>
-      <c r="F176" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G176" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H176" s="113" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -11002,57 +11012,57 @@
         <v>125</v>
       </c>
       <c r="B177" s="110" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C177" s="111" t="s">
         <v>511</v>
       </c>
       <c r="D177" s="112" t="s">
-        <v>259</v>
-      </c>
-      <c r="E177" s="110"/>
-      <c r="F177" s="110"/>
-      <c r="G177" s="110"/>
-      <c r="H177" s="113"/>
+        <v>260</v>
+      </c>
+      <c r="E177" s="110" t="s">
+        <v>125</v>
+      </c>
+      <c r="F177" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G177" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H177" s="113" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="109" t="s">
         <v>125</v>
       </c>
       <c r="B178" s="110" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C178" s="111" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D178" s="112" t="s">
-        <v>261</v>
-      </c>
-      <c r="E178" s="110" t="s">
-        <v>125</v>
-      </c>
-      <c r="F178" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G178" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H178" s="113" t="s">
-        <v>400</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="E178" s="110"/>
+      <c r="F178" s="110"/>
+      <c r="G178" s="110"/>
+      <c r="H178" s="113"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="109" t="s">
         <v>125</v>
       </c>
       <c r="B179" s="110" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C179" s="111" t="s">
         <v>512</v>
       </c>
       <c r="D179" s="112" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E179" s="110" t="s">
         <v>125</v>
@@ -11064,7 +11074,7 @@
         <v>5</v>
       </c>
       <c r="H179" s="113" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -11072,48 +11082,74 @@
         <v>125</v>
       </c>
       <c r="B180" s="110" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C180" s="111" t="s">
         <v>512</v>
       </c>
       <c r="D180" s="112" t="s">
+        <v>262</v>
+      </c>
+      <c r="E180" s="110" t="s">
+        <v>125</v>
+      </c>
+      <c r="F180" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G180" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H180" s="113" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="109" t="s">
+        <v>125</v>
+      </c>
+      <c r="B181" s="110" t="s">
+        <v>142</v>
+      </c>
+      <c r="C181" s="111" t="s">
+        <v>512</v>
+      </c>
+      <c r="D181" s="112" t="s">
         <v>263</v>
       </c>
-      <c r="E180" s="110"/>
-      <c r="F180" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G180" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H180" s="113" t="s">
+      <c r="E181" s="110"/>
+      <c r="F181" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G181" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H181" s="113" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="114" t="s">
+    <row r="182" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="B181" s="115" t="s">
+      <c r="B182" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="C181" s="116" t="s">
+      <c r="C182" s="116" t="s">
         <v>513</v>
       </c>
-      <c r="D181" s="117" t="s">
+      <c r="D182" s="117" t="s">
         <v>278</v>
       </c>
-      <c r="E181" s="115" t="s">
+      <c r="E182" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="F181" s="115" t="s">
-        <v>5</v>
-      </c>
-      <c r="G181" s="115" t="s">
-        <v>5</v>
-      </c>
-      <c r="H181" s="118" t="s">
+      <c r="F182" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="G182" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="H182" s="118" t="s">
         <v>400</v>
       </c>
     </row>

--- a/documentation/DataAndAPIMatchAware.xlsx
+++ b/documentation/DataAndAPIMatchAware.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="9060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entities" sheetId="1" r:id="rId1"/>
@@ -2599,6 +2599,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2607,18 +2619,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2941,7 +2941,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2951,7 +2951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E316"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K292" sqref="K292"/>
     </sheetView>
   </sheetViews>
@@ -2965,13 +2965,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
     </row>
     <row r="2" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="88"/>
@@ -2981,13 +2981,13 @@
       <c r="E2" s="88"/>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="157" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="161"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="159"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
@@ -3112,13 +3112,13 @@
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="159" t="s">
+      <c r="A14" s="157" t="s">
         <v>290</v>
       </c>
-      <c r="B14" s="160"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="161"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="159"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
@@ -3195,13 +3195,13 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="159" t="s">
+      <c r="A21" s="157" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="160"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="160"/>
-      <c r="E21" s="161"/>
+      <c r="B21" s="158"/>
+      <c r="C21" s="158"/>
+      <c r="D21" s="158"/>
+      <c r="E21" s="159"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
@@ -3274,13 +3274,13 @@
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="159" t="s">
+      <c r="A28" s="157" t="s">
         <v>279</v>
       </c>
-      <c r="B28" s="160"/>
-      <c r="C28" s="160"/>
-      <c r="D28" s="160"/>
-      <c r="E28" s="161"/>
+      <c r="B28" s="158"/>
+      <c r="C28" s="158"/>
+      <c r="D28" s="158"/>
+      <c r="E28" s="159"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
@@ -3675,13 +3675,13 @@
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="159" t="s">
+      <c r="A61" s="157" t="s">
         <v>97</v>
       </c>
-      <c r="B61" s="160"/>
-      <c r="C61" s="160"/>
-      <c r="D61" s="160"/>
-      <c r="E61" s="161"/>
+      <c r="B61" s="158"/>
+      <c r="C61" s="158"/>
+      <c r="D61" s="158"/>
+      <c r="E61" s="159"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
@@ -4015,13 +4015,13 @@
     </row>
     <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="159" t="s">
+      <c r="A89" s="157" t="s">
         <v>96</v>
       </c>
-      <c r="B89" s="160"/>
-      <c r="C89" s="160"/>
-      <c r="D89" s="160"/>
-      <c r="E89" s="161"/>
+      <c r="B89" s="158"/>
+      <c r="C89" s="158"/>
+      <c r="D89" s="158"/>
+      <c r="E89" s="159"/>
     </row>
     <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="s">
@@ -5296,13 +5296,13 @@
     </row>
     <row r="197" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="198" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="159" t="s">
+      <c r="A198" s="157" t="s">
         <v>123</v>
       </c>
-      <c r="B198" s="160"/>
-      <c r="C198" s="160"/>
-      <c r="D198" s="160"/>
-      <c r="E198" s="161"/>
+      <c r="B198" s="158"/>
+      <c r="C198" s="158"/>
+      <c r="D198" s="158"/>
+      <c r="E198" s="159"/>
     </row>
     <row r="199" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="14" t="s">
@@ -5375,13 +5375,13 @@
     </row>
     <row r="204" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="205" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="159" t="s">
+      <c r="A205" s="157" t="s">
         <v>134</v>
       </c>
-      <c r="B205" s="160"/>
-      <c r="C205" s="160"/>
-      <c r="D205" s="160"/>
-      <c r="E205" s="161"/>
+      <c r="B205" s="158"/>
+      <c r="C205" s="158"/>
+      <c r="D205" s="158"/>
+      <c r="E205" s="159"/>
     </row>
     <row r="206" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="14" t="s">
@@ -5476,13 +5476,13 @@
     </row>
     <row r="213" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="214" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="159" t="s">
+      <c r="A214" s="157" t="s">
         <v>285</v>
       </c>
-      <c r="B214" s="160"/>
-      <c r="C214" s="160"/>
-      <c r="D214" s="160"/>
-      <c r="E214" s="161"/>
+      <c r="B214" s="158"/>
+      <c r="C214" s="158"/>
+      <c r="D214" s="158"/>
+      <c r="E214" s="159"/>
     </row>
     <row r="215" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="14" t="s">
@@ -5712,13 +5712,13 @@
     </row>
     <row r="233" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="234" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="156" t="s">
+      <c r="A234" s="160" t="s">
         <v>287</v>
       </c>
-      <c r="B234" s="157"/>
-      <c r="C234" s="157"/>
-      <c r="D234" s="157"/>
-      <c r="E234" s="158"/>
+      <c r="B234" s="161"/>
+      <c r="C234" s="161"/>
+      <c r="D234" s="161"/>
+      <c r="E234" s="162"/>
     </row>
     <row r="235" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="14" t="s">
@@ -6289,13 +6289,13 @@
     </row>
     <row r="282" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="283" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A283" s="159" t="s">
+      <c r="A283" s="157" t="s">
         <v>289</v>
       </c>
-      <c r="B283" s="160"/>
-      <c r="C283" s="160"/>
-      <c r="D283" s="160"/>
-      <c r="E283" s="161"/>
+      <c r="B283" s="158"/>
+      <c r="C283" s="158"/>
+      <c r="D283" s="158"/>
+      <c r="E283" s="159"/>
     </row>
     <row r="284" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="30" t="s">
@@ -6708,6 +6708,28 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A303:E303"/>
+    <mergeCell ref="A312:E312"/>
+    <mergeCell ref="A234:E234"/>
+    <mergeCell ref="A248:E248"/>
+    <mergeCell ref="A269:E269"/>
+    <mergeCell ref="A277:E277"/>
+    <mergeCell ref="A283:E283"/>
+    <mergeCell ref="A193:E193"/>
+    <mergeCell ref="A198:E198"/>
+    <mergeCell ref="A205:E205"/>
+    <mergeCell ref="A214:E214"/>
+    <mergeCell ref="A225:E225"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A173:E173"/>
+    <mergeCell ref="A186:E186"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="A125:E125"/>
     <mergeCell ref="A46:E46"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A14:E14"/>
@@ -6715,28 +6737,6 @@
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="A38:E38"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="A94:E94"/>
-    <mergeCell ref="A125:E125"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="A173:E173"/>
-    <mergeCell ref="A186:E186"/>
-    <mergeCell ref="A193:E193"/>
-    <mergeCell ref="A198:E198"/>
-    <mergeCell ref="A205:E205"/>
-    <mergeCell ref="A214:E214"/>
-    <mergeCell ref="A225:E225"/>
-    <mergeCell ref="A303:E303"/>
-    <mergeCell ref="A312:E312"/>
-    <mergeCell ref="A234:E234"/>
-    <mergeCell ref="A248:E248"/>
-    <mergeCell ref="A269:E269"/>
-    <mergeCell ref="A277:E277"/>
-    <mergeCell ref="A283:E283"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6750,7 +6750,7 @@
   </sheetPr>
   <dimension ref="A1:H182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A156" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H45" sqref="A38:H45"/>
     </sheetView>
   </sheetViews>
@@ -11171,7 +11171,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/documentation/DataAndAPIMatchAware.xlsx
+++ b/documentation/DataAndAPIMatchAware.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entities" sheetId="1" r:id="rId1"/>
@@ -836,9 +836,6 @@
     <t>Delete all user invites</t>
   </si>
   <si>
-    <t>Create user invites</t>
-  </si>
-  <si>
     <t>Retrieve invite by key</t>
   </si>
   <si>
@@ -1647,6 +1644,9 @@
   </si>
   <si>
     <t xml:space="preserve">Replaces all current roles with those provided in the body </t>
+  </si>
+  <si>
+    <t>Create user invites and send email</t>
   </si>
 </sst>
 </file>
@@ -2599,26 +2599,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2941,7 +2941,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2951,7 +2951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E316"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K292" sqref="K292"/>
     </sheetView>
   </sheetViews>
@@ -2965,13 +2965,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="162" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
     </row>
     <row r="2" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="88"/>
@@ -2981,13 +2981,13 @@
       <c r="E2" s="88"/>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="159" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="159"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="161"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
@@ -3112,13 +3112,13 @@
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="157" t="s">
-        <v>290</v>
-      </c>
-      <c r="B14" s="158"/>
-      <c r="C14" s="158"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="159"/>
+      <c r="A14" s="159" t="s">
+        <v>289</v>
+      </c>
+      <c r="B14" s="160"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="161"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
@@ -3195,13 +3195,13 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="157" t="s">
+      <c r="A21" s="159" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="158"/>
-      <c r="C21" s="158"/>
-      <c r="D21" s="158"/>
-      <c r="E21" s="159"/>
+      <c r="B21" s="160"/>
+      <c r="C21" s="160"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="161"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
@@ -3252,7 +3252,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>3</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>3</v>
@@ -3274,13 +3274,13 @@
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="157" t="s">
-        <v>279</v>
-      </c>
-      <c r="B28" s="158"/>
-      <c r="C28" s="158"/>
-      <c r="D28" s="158"/>
-      <c r="E28" s="159"/>
+      <c r="A28" s="159" t="s">
+        <v>278</v>
+      </c>
+      <c r="B28" s="160"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="161"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
@@ -3395,7 +3395,7 @@
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="153" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B38" s="154"/>
       <c r="C38" s="154"/>
@@ -3447,37 +3447,37 @@
         <v>5</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E41" s="21"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>361</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>362</v>
       </c>
       <c r="E42" s="21"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="32" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E43" s="21"/>
     </row>
@@ -3495,7 +3495,7 @@
     <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="153" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B46" s="154"/>
       <c r="C46" s="154"/>
@@ -3566,21 +3566,21 @@
     </row>
     <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C51" s="33"/>
       <c r="D51" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E51" s="34"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="153" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B53" s="154"/>
       <c r="C53" s="154"/>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>20</v>
@@ -3649,7 +3649,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>20</v>
@@ -3662,7 +3662,7 @@
     </row>
     <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B59" s="35" t="s">
         <v>20</v>
@@ -3675,13 +3675,13 @@
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="157" t="s">
+      <c r="A61" s="159" t="s">
         <v>97</v>
       </c>
-      <c r="B61" s="158"/>
-      <c r="C61" s="158"/>
-      <c r="D61" s="158"/>
-      <c r="E61" s="159"/>
+      <c r="B61" s="160"/>
+      <c r="C61" s="160"/>
+      <c r="D61" s="160"/>
+      <c r="E61" s="161"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
@@ -3743,14 +3743,14 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C66" s="18"/>
       <c r="D66" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E66" s="21"/>
     </row>
@@ -3842,13 +3842,13 @@
       </c>
       <c r="C74" s="18"/>
       <c r="D74" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E74" s="21"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>3</v>
@@ -3861,7 +3861,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>3</v>
@@ -3874,7 +3874,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>3</v>
@@ -3887,27 +3887,27 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C78" s="18"/>
       <c r="D78" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E78" s="21"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C79" s="18"/>
       <c r="D79" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E79" s="21"/>
     </row>
@@ -3922,7 +3922,7 @@
         <v>5</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E80" s="21"/>
     </row>
@@ -3937,7 +3937,7 @@
         <v>5</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E81" s="21"/>
     </row>
@@ -3978,14 +3978,14 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="48" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B85" s="44" t="s">
         <v>20</v>
       </c>
       <c r="C85" s="45"/>
       <c r="D85" s="44" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E85" s="49"/>
     </row>
@@ -4015,13 +4015,13 @@
     </row>
     <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="157" t="s">
+      <c r="A89" s="159" t="s">
         <v>96</v>
       </c>
-      <c r="B89" s="158"/>
-      <c r="C89" s="158"/>
-      <c r="D89" s="158"/>
-      <c r="E89" s="159"/>
+      <c r="B89" s="160"/>
+      <c r="C89" s="160"/>
+      <c r="D89" s="160"/>
+      <c r="E89" s="161"/>
     </row>
     <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="s">
@@ -4075,7 +4075,7 @@
     <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="153" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B94" s="154"/>
       <c r="C94" s="154"/>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="32" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>118</v>
@@ -4222,10 +4222,10 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="32" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
@@ -4233,10 +4233,10 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="32" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
@@ -4409,7 +4409,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="32" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>3</v>
@@ -4420,7 +4420,7 @@
     </row>
     <row r="123" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="80" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B123" s="35" t="s">
         <v>118</v>
@@ -4432,7 +4432,7 @@
     <row r="124" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="125" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="153" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B125" s="154"/>
       <c r="C125" s="154"/>
@@ -4530,7 +4530,7 @@
         <v>66</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
@@ -4571,7 +4571,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>26</v>
@@ -4595,7 +4595,7 @@
     </row>
     <row r="138" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="80" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B138" s="35" t="s">
         <v>118</v>
@@ -4607,7 +4607,7 @@
     <row r="139" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="140" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="153" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B140" s="154"/>
       <c r="C140" s="154"/>
@@ -4694,7 +4694,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>26</v>
@@ -4705,37 +4705,37 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C148" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D148" s="5" t="s">
         <v>361</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="C148" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>362</v>
       </c>
       <c r="E148" s="21"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C149" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E149" s="21"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>3</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B151" s="5" t="s">
         <v>3</v>
@@ -4757,7 +4757,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B152" s="5" t="s">
         <v>3</v>
@@ -4775,7 +4775,7 @@
       </c>
       <c r="C153" s="18"/>
       <c r="D153" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E153" s="21"/>
     </row>
@@ -4788,27 +4788,27 @@
       </c>
       <c r="C154" s="18"/>
       <c r="D154" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E154" s="21"/>
     </row>
     <row r="155" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C155" s="11"/>
       <c r="D155" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E155" s="12"/>
     </row>
     <row r="156" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="157" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="153" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B157" s="154"/>
       <c r="C157" s="154"/>
@@ -4910,21 +4910,21 @@
     </row>
     <row r="165" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="80" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B165" s="35" t="s">
         <v>3</v>
       </c>
       <c r="C165" s="59"/>
       <c r="D165" s="86" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E165" s="47"/>
     </row>
     <row r="166" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="167" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="153" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B167" s="154"/>
       <c r="C167" s="154"/>
@@ -4983,7 +4983,7 @@
         <v>130</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C171" s="33"/>
       <c r="D171" s="11"/>
@@ -4998,7 +4998,7 @@
     </row>
     <row r="173" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="153" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B173" s="154"/>
       <c r="C173" s="154"/>
@@ -5104,53 +5104,53 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C181" s="18"/>
       <c r="D181" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E181" s="21"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="32" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B182" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C182" s="51"/>
       <c r="D182" s="51" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E182" s="46"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="32" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C183" s="51"/>
       <c r="D183" s="51" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E183" s="46"/>
     </row>
     <row r="184" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B184" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C184" s="33"/>
       <c r="D184" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E184" s="34"/>
     </row>
@@ -5226,7 +5226,7 @@
     </row>
     <row r="191" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B191" s="35" t="s">
         <v>20</v>
@@ -5238,7 +5238,7 @@
     <row r="192" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="193" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="153" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B193" s="154"/>
       <c r="C193" s="154"/>
@@ -5296,13 +5296,13 @@
     </row>
     <row r="197" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="198" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="157" t="s">
+      <c r="A198" s="159" t="s">
         <v>123</v>
       </c>
-      <c r="B198" s="158"/>
-      <c r="C198" s="158"/>
-      <c r="D198" s="158"/>
-      <c r="E198" s="159"/>
+      <c r="B198" s="160"/>
+      <c r="C198" s="160"/>
+      <c r="D198" s="160"/>
+      <c r="E198" s="161"/>
     </row>
     <row r="199" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="14" t="s">
@@ -5353,7 +5353,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B202" s="5" t="s">
         <v>3</v>
@@ -5364,7 +5364,7 @@
     </row>
     <row r="203" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B203" s="11" t="s">
         <v>3</v>
@@ -5375,13 +5375,13 @@
     </row>
     <row r="204" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="205" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="157" t="s">
+      <c r="A205" s="159" t="s">
         <v>134</v>
       </c>
-      <c r="B205" s="158"/>
-      <c r="C205" s="158"/>
-      <c r="D205" s="158"/>
-      <c r="E205" s="159"/>
+      <c r="B205" s="160"/>
+      <c r="C205" s="160"/>
+      <c r="D205" s="160"/>
+      <c r="E205" s="161"/>
     </row>
     <row r="206" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="14" t="s">
@@ -5463,26 +5463,26 @@
     </row>
     <row r="212" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B212" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C212" s="59"/>
       <c r="D212" s="87" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E212" s="47"/>
     </row>
     <row r="213" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="214" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="157" t="s">
-        <v>285</v>
-      </c>
-      <c r="B214" s="158"/>
-      <c r="C214" s="158"/>
-      <c r="D214" s="158"/>
-      <c r="E214" s="159"/>
+      <c r="A214" s="159" t="s">
+        <v>284</v>
+      </c>
+      <c r="B214" s="160"/>
+      <c r="C214" s="160"/>
+      <c r="D214" s="160"/>
+      <c r="E214" s="161"/>
     </row>
     <row r="215" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="14" t="s">
@@ -5550,14 +5550,14 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B219" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C219" s="18"/>
       <c r="D219" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E219" s="21"/>
     </row>
@@ -5608,7 +5608,7 @@
     <row r="224" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="225" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="153" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B225" s="154"/>
       <c r="C225" s="154"/>
@@ -5712,13 +5712,13 @@
     </row>
     <row r="233" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="234" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="160" t="s">
-        <v>287</v>
-      </c>
-      <c r="B234" s="161"/>
-      <c r="C234" s="161"/>
-      <c r="D234" s="161"/>
-      <c r="E234" s="162"/>
+      <c r="A234" s="156" t="s">
+        <v>286</v>
+      </c>
+      <c r="B234" s="157"/>
+      <c r="C234" s="157"/>
+      <c r="D234" s="157"/>
+      <c r="E234" s="158"/>
     </row>
     <row r="235" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="14" t="s">
@@ -5830,7 +5830,7 @@
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
       <c r="D244" s="27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E244" s="6"/>
     </row>
@@ -5839,13 +5839,13 @@
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
       <c r="D245" s="27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E245" s="6"/>
     </row>
     <row r="246" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B246" s="35" t="s">
         <v>20</v>
@@ -5931,7 +5931,7 @@
         <v>18</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C253" s="18"/>
       <c r="D253" s="82">
@@ -5944,7 +5944,7 @@
         <v>24</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C254" s="18"/>
       <c r="D254" s="82">
@@ -5954,10 +5954,10 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C255" s="18"/>
       <c r="D255" s="82">
@@ -5974,7 +5974,7 @@
       </c>
       <c r="C256" s="18"/>
       <c r="D256" s="83" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E256" s="6"/>
     </row>
@@ -5983,7 +5983,7 @@
         <v>27</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C257" s="18"/>
       <c r="D257" s="82">
@@ -5996,7 +5996,7 @@
         <v>28</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C258" s="18"/>
       <c r="D258" s="82">
@@ -6009,7 +6009,7 @@
         <v>29</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C259" s="18"/>
       <c r="D259" s="82">
@@ -6022,7 +6022,7 @@
         <v>30</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C260" s="18"/>
       <c r="D260" s="82">
@@ -6035,7 +6035,7 @@
         <v>31</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C261" s="18"/>
       <c r="D261" s="82">
@@ -6048,7 +6048,7 @@
         <v>32</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C262" s="18"/>
       <c r="D262" s="82">
@@ -6058,10 +6058,10 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C263" s="18"/>
       <c r="D263" s="82">
@@ -6078,7 +6078,7 @@
       </c>
       <c r="C264" s="18"/>
       <c r="D264" s="82" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E264" s="6"/>
     </row>
@@ -6091,7 +6091,7 @@
       </c>
       <c r="C265" s="18"/>
       <c r="D265" s="83" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E265" s="6"/>
     </row>
@@ -6104,7 +6104,7 @@
       </c>
       <c r="C266" s="18"/>
       <c r="D266" s="83" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E266" s="6"/>
     </row>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="C267" s="19"/>
       <c r="D267" s="85" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E267" s="12"/>
     </row>
@@ -6130,7 +6130,7 @@
     </row>
     <row r="269" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="153" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B269" s="154"/>
       <c r="C269" s="154"/>
@@ -6186,7 +6186,7 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B273" s="5" t="s">
         <v>20</v>
@@ -6224,7 +6224,7 @@
     <row r="276" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="277" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="153" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B277" s="154"/>
       <c r="C277" s="154"/>
@@ -6263,7 +6263,7 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B280" s="5" t="s">
         <v>20</v>
@@ -6289,13 +6289,13 @@
     </row>
     <row r="282" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="283" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A283" s="157" t="s">
-        <v>289</v>
-      </c>
-      <c r="B283" s="158"/>
-      <c r="C283" s="158"/>
-      <c r="D283" s="158"/>
-      <c r="E283" s="159"/>
+      <c r="A283" s="159" t="s">
+        <v>288</v>
+      </c>
+      <c r="B283" s="160"/>
+      <c r="C283" s="160"/>
+      <c r="D283" s="160"/>
+      <c r="E283" s="161"/>
     </row>
     <row r="284" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="30" t="s">
@@ -6411,14 +6411,14 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B292" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C292" s="18"/>
       <c r="D292" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E292" s="21"/>
     </row>
@@ -6492,7 +6492,7 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B299" s="5" t="s">
         <v>118</v>
@@ -6574,7 +6574,7 @@
         <v>127</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C306" s="24" t="s">
         <v>5</v>
@@ -6630,7 +6630,7 @@
       </c>
       <c r="C310" s="59"/>
       <c r="D310" s="59" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E310" s="47"/>
     </row>
@@ -6702,12 +6702,34 @@
       </c>
       <c r="C316" s="33"/>
       <c r="D316" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E316" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="A125:E125"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A173:E173"/>
+    <mergeCell ref="A186:E186"/>
+    <mergeCell ref="A193:E193"/>
+    <mergeCell ref="A198:E198"/>
+    <mergeCell ref="A205:E205"/>
+    <mergeCell ref="A214:E214"/>
+    <mergeCell ref="A225:E225"/>
     <mergeCell ref="A303:E303"/>
     <mergeCell ref="A312:E312"/>
     <mergeCell ref="A234:E234"/>
@@ -6715,28 +6737,6 @@
     <mergeCell ref="A269:E269"/>
     <mergeCell ref="A277:E277"/>
     <mergeCell ref="A283:E283"/>
-    <mergeCell ref="A193:E193"/>
-    <mergeCell ref="A198:E198"/>
-    <mergeCell ref="A205:E205"/>
-    <mergeCell ref="A214:E214"/>
-    <mergeCell ref="A225:E225"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="A173:E173"/>
-    <mergeCell ref="A186:E186"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="A94:E94"/>
-    <mergeCell ref="A125:E125"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6750,8 +6750,8 @@
   </sheetPr>
   <dimension ref="A1:H182"/>
   <sheetViews>
-    <sheetView topLeftCell="A156" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H45" sqref="A38:H45"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D170" sqref="D170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6790,19 +6790,19 @@
         <v>139</v>
       </c>
       <c r="D2" s="92" t="s">
+        <v>389</v>
+      </c>
+      <c r="E2" s="93" t="s">
+        <v>276</v>
+      </c>
+      <c r="F2" s="93" t="s">
+        <v>396</v>
+      </c>
+      <c r="G2" s="93" t="s">
+        <v>395</v>
+      </c>
+      <c r="H2" s="93" t="s">
         <v>390</v>
-      </c>
-      <c r="E2" s="93" t="s">
-        <v>277</v>
-      </c>
-      <c r="F2" s="93" t="s">
-        <v>397</v>
-      </c>
-      <c r="G2" s="93" t="s">
-        <v>396</v>
-      </c>
-      <c r="H2" s="93" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -6813,20 +6813,20 @@
         <v>140</v>
       </c>
       <c r="C3" s="106" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D3" s="107" t="s">
         <v>184</v>
       </c>
       <c r="E3" s="105" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F3" s="105" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="105"/>
       <c r="H3" s="108" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -6837,7 +6837,7 @@
         <v>141</v>
       </c>
       <c r="C4" s="111" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D4" s="112" t="s">
         <v>186</v>
@@ -6852,7 +6852,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="113" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -6863,7 +6863,7 @@
         <v>142</v>
       </c>
       <c r="C5" s="111" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D5" s="112" t="s">
         <v>185</v>
@@ -6881,7 +6881,7 @@
         <v>140</v>
       </c>
       <c r="C6" s="111" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D6" s="112" t="s">
         <v>249</v>
@@ -6896,7 +6896,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="113" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -6907,7 +6907,7 @@
         <v>143</v>
       </c>
       <c r="C7" s="111" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D7" s="112" t="s">
         <v>187</v>
@@ -6922,7 +6922,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="113" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -6933,7 +6933,7 @@
         <v>142</v>
       </c>
       <c r="C8" s="111" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D8" s="112" t="s">
         <v>188</v>
@@ -6946,7 +6946,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="113" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -6957,13 +6957,13 @@
         <v>140</v>
       </c>
       <c r="C9" s="111" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D9" s="112" t="s">
         <v>190</v>
       </c>
       <c r="E9" s="110" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F9" s="110" t="s">
         <v>5</v>
@@ -6972,7 +6972,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="113" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6983,13 +6983,13 @@
         <v>140</v>
       </c>
       <c r="C10" s="121" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D10" s="122" t="s">
         <v>189</v>
       </c>
       <c r="E10" s="120" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F10" s="120" t="s">
         <v>5</v>
@@ -6998,7 +6998,7 @@
         <v>5</v>
       </c>
       <c r="H10" s="123" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -7009,20 +7009,20 @@
         <v>140</v>
       </c>
       <c r="C11" s="96" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D11" s="127" t="s">
+        <v>403</v>
+      </c>
+      <c r="E11" s="95" t="s">
         <v>404</v>
-      </c>
-      <c r="E11" s="95" t="s">
-        <v>405</v>
       </c>
       <c r="F11" s="95" t="s">
         <v>5</v>
       </c>
       <c r="G11" s="95"/>
       <c r="H11" s="99" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -7033,7 +7033,7 @@
         <v>141</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D12" s="53" t="s">
         <v>173</v>
@@ -7048,7 +7048,7 @@
         <v>5</v>
       </c>
       <c r="H12" s="60" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -7059,7 +7059,7 @@
         <v>142</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D13" s="53" t="s">
         <v>172</v>
@@ -7077,7 +7077,7 @@
         <v>140</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D14" s="53" t="s">
         <v>247</v>
@@ -7092,7 +7092,7 @@
         <v>5</v>
       </c>
       <c r="H14" s="60" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -7103,7 +7103,7 @@
         <v>143</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D15" s="53" t="s">
         <v>174</v>
@@ -7118,7 +7118,7 @@
         <v>5</v>
       </c>
       <c r="H15" s="60" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7129,7 +7129,7 @@
         <v>142</v>
       </c>
       <c r="C16" s="101" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D16" s="102" t="s">
         <v>175</v>
@@ -7142,7 +7142,7 @@
         <v>5</v>
       </c>
       <c r="H16" s="126" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -7153,20 +7153,20 @@
         <v>140</v>
       </c>
       <c r="C17" s="106" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D17" s="107" t="s">
         <v>223</v>
       </c>
       <c r="E17" s="105" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F17" s="105" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="105"/>
       <c r="H17" s="108" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -7177,7 +7177,7 @@
         <v>141</v>
       </c>
       <c r="C18" s="111" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D18" s="112" t="s">
         <v>225</v>
@@ -7192,7 +7192,7 @@
         <v>5</v>
       </c>
       <c r="H18" s="113" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -7203,7 +7203,7 @@
         <v>142</v>
       </c>
       <c r="C19" s="111" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D19" s="112" t="s">
         <v>224</v>
@@ -7221,7 +7221,7 @@
         <v>140</v>
       </c>
       <c r="C20" s="111" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D20" s="112" t="s">
         <v>255</v>
@@ -7236,7 +7236,7 @@
         <v>5</v>
       </c>
       <c r="H20" s="113" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -7247,7 +7247,7 @@
         <v>143</v>
       </c>
       <c r="C21" s="111" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D21" s="112" t="s">
         <v>226</v>
@@ -7262,7 +7262,7 @@
         <v>5</v>
       </c>
       <c r="H21" s="113" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -7273,7 +7273,7 @@
         <v>142</v>
       </c>
       <c r="C22" s="111" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D22" s="112" t="s">
         <v>227</v>
@@ -7286,7 +7286,7 @@
         <v>5</v>
       </c>
       <c r="H22" s="113" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -7297,13 +7297,13 @@
         <v>140</v>
       </c>
       <c r="C23" s="111" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D23" s="112" t="s">
         <v>228</v>
       </c>
       <c r="E23" s="110" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F23" s="110" t="s">
         <v>5</v>
@@ -7312,7 +7312,7 @@
         <v>5</v>
       </c>
       <c r="H23" s="113" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7323,13 +7323,13 @@
         <v>140</v>
       </c>
       <c r="C24" s="121" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D24" s="122" t="s">
         <v>228</v>
       </c>
       <c r="E24" s="120" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F24" s="120" t="s">
         <v>5</v>
@@ -7338,48 +7338,48 @@
         <v>5</v>
       </c>
       <c r="H24" s="123" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="94" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B25" s="95" t="s">
         <v>140</v>
       </c>
       <c r="C25" s="96" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D25" s="127" t="s">
+        <v>524</v>
+      </c>
+      <c r="E25" s="95" t="s">
         <v>525</v>
-      </c>
-      <c r="E25" s="95" t="s">
-        <v>526</v>
       </c>
       <c r="F25" s="95" t="s">
         <v>5</v>
       </c>
       <c r="G25" s="95"/>
       <c r="H25" s="99" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="55" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B26" s="50" t="s">
         <v>141</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D26" s="53" t="s">
         <v>159</v>
       </c>
       <c r="E26" s="50" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F26" s="50" t="s">
         <v>5</v>
@@ -7388,18 +7388,18 @@
         <v>5</v>
       </c>
       <c r="H26" s="60" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="55" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B27" s="50" t="s">
         <v>142</v>
       </c>
       <c r="C27" s="52" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D27" s="53" t="s">
         <v>158</v>
@@ -7411,19 +7411,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="55" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B28" s="50" t="s">
         <v>140</v>
       </c>
       <c r="C28" s="52" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D28" s="53" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E28" s="50" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F28" s="50" t="s">
         <v>5</v>
@@ -7432,24 +7432,24 @@
         <v>5</v>
       </c>
       <c r="H28" s="60" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="55" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B29" s="50" t="s">
         <v>143</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D29" s="53" t="s">
         <v>160</v>
       </c>
       <c r="E29" s="50" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F29" s="50" t="s">
         <v>5</v>
@@ -7458,18 +7458,18 @@
         <v>5</v>
       </c>
       <c r="H29" s="60" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="56" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B30" s="57" t="s">
         <v>142</v>
       </c>
       <c r="C30" s="58" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D30" s="98" t="s">
         <v>161</v>
@@ -7482,7 +7482,7 @@
         <v>5</v>
       </c>
       <c r="H30" s="103" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -7493,20 +7493,20 @@
         <v>140</v>
       </c>
       <c r="C31" s="135" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D31" s="136" t="s">
+        <v>411</v>
+      </c>
+      <c r="E31" s="134" t="s">
         <v>412</v>
-      </c>
-      <c r="E31" s="134" t="s">
-        <v>413</v>
       </c>
       <c r="F31" s="134" t="s">
         <v>5</v>
       </c>
       <c r="G31" s="134"/>
       <c r="H31" s="146" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -7517,7 +7517,7 @@
         <v>141</v>
       </c>
       <c r="C32" s="111" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D32" s="112" t="s">
         <v>159</v>
@@ -7532,7 +7532,7 @@
         <v>5</v>
       </c>
       <c r="H32" s="113" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -7543,7 +7543,7 @@
         <v>142</v>
       </c>
       <c r="C33" s="111" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D33" s="112" t="s">
         <v>158</v>
@@ -7561,10 +7561,10 @@
         <v>140</v>
       </c>
       <c r="C34" s="111" t="s">
+        <v>414</v>
+      </c>
+      <c r="D34" s="112" t="s">
         <v>415</v>
-      </c>
-      <c r="D34" s="112" t="s">
-        <v>416</v>
       </c>
       <c r="E34" s="110" t="s">
         <v>89</v>
@@ -7576,7 +7576,7 @@
         <v>5</v>
       </c>
       <c r="H34" s="113" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -7587,7 +7587,7 @@
         <v>143</v>
       </c>
       <c r="C35" s="111" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D35" s="112" t="s">
         <v>160</v>
@@ -7602,7 +7602,7 @@
         <v>5</v>
       </c>
       <c r="H35" s="113" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -7613,7 +7613,7 @@
         <v>142</v>
       </c>
       <c r="C36" s="121" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D36" s="122" t="s">
         <v>161</v>
@@ -7626,7 +7626,7 @@
         <v>5</v>
       </c>
       <c r="H36" s="123" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7637,13 +7637,13 @@
         <v>140</v>
       </c>
       <c r="C37" s="121" t="s">
+        <v>528</v>
+      </c>
+      <c r="D37" s="122" t="s">
         <v>529</v>
       </c>
-      <c r="D37" s="122" t="s">
-        <v>530</v>
-      </c>
       <c r="E37" s="120" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F37" s="120" t="s">
         <v>5</v>
@@ -7652,48 +7652,48 @@
         <v>5</v>
       </c>
       <c r="H37" s="123" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="137" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B38" s="138" t="s">
         <v>140</v>
       </c>
       <c r="C38" s="139" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D38" s="140" t="s">
+        <v>515</v>
+      </c>
+      <c r="E38" s="138" t="s">
         <v>516</v>
-      </c>
-      <c r="E38" s="138" t="s">
-        <v>517</v>
       </c>
       <c r="F38" s="138" t="s">
         <v>5</v>
       </c>
       <c r="G38" s="138"/>
       <c r="H38" s="141" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="147" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B39" s="142" t="s">
         <v>141</v>
       </c>
       <c r="C39" s="143" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D39" s="144" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E39" s="142" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F39" s="142" t="s">
         <v>5</v>
@@ -7702,21 +7702,21 @@
         <v>5</v>
       </c>
       <c r="H39" s="145" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="147" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B40" s="142" t="s">
         <v>142</v>
       </c>
       <c r="C40" s="143" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D40" s="144" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E40" s="142"/>
       <c r="F40" s="142"/>
@@ -7725,16 +7725,16 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="147" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B41" s="142" t="s">
         <v>142</v>
       </c>
       <c r="C41" s="143" t="s">
+        <v>532</v>
+      </c>
+      <c r="D41" s="144" t="s">
         <v>533</v>
-      </c>
-      <c r="D41" s="144" t="s">
-        <v>534</v>
       </c>
       <c r="E41" s="142"/>
       <c r="F41" s="142" t="s">
@@ -7742,24 +7742,24 @@
       </c>
       <c r="G41" s="142"/>
       <c r="H41" s="145" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="147" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B42" s="142" t="s">
         <v>141</v>
       </c>
       <c r="C42" s="143" t="s">
+        <v>530</v>
+      </c>
+      <c r="D42" s="144" t="s">
         <v>531</v>
       </c>
-      <c r="D42" s="144" t="s">
-        <v>532</v>
-      </c>
       <c r="E42" s="142" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F42" s="142" t="s">
         <v>5</v>
@@ -7768,24 +7768,24 @@
         <v>5</v>
       </c>
       <c r="H42" s="145" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="147" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B43" s="142" t="s">
         <v>140</v>
       </c>
       <c r="C43" s="143" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D43" s="144" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E43" s="142" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F43" s="142" t="s">
         <v>5</v>
@@ -7794,24 +7794,24 @@
         <v>5</v>
       </c>
       <c r="H43" s="145" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="147" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B44" s="142" t="s">
         <v>140</v>
       </c>
       <c r="C44" s="143" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D44" s="144" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E44" s="142" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F44" s="142" t="s">
         <v>5</v>
@@ -7820,24 +7820,24 @@
         <v>5</v>
       </c>
       <c r="H44" s="145" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="148" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B45" s="149" t="s">
         <v>140</v>
       </c>
       <c r="C45" s="150" t="s">
+        <v>534</v>
+      </c>
+      <c r="D45" s="151" t="s">
         <v>535</v>
       </c>
-      <c r="D45" s="151" t="s">
-        <v>536</v>
-      </c>
       <c r="E45" s="149" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F45" s="149" t="s">
         <v>5</v>
@@ -7846,7 +7846,7 @@
         <v>5</v>
       </c>
       <c r="H45" s="152" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -7857,20 +7857,20 @@
         <v>140</v>
       </c>
       <c r="C46" s="135" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D46" s="136" t="s">
         <v>214</v>
       </c>
       <c r="E46" s="134" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F46" s="134" t="s">
         <v>5</v>
       </c>
       <c r="G46" s="134"/>
       <c r="H46" s="146" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -7881,7 +7881,7 @@
         <v>141</v>
       </c>
       <c r="C47" s="111" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D47" s="112" t="s">
         <v>216</v>
@@ -7896,7 +7896,7 @@
         <v>5</v>
       </c>
       <c r="H47" s="113" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -7907,7 +7907,7 @@
         <v>142</v>
       </c>
       <c r="C48" s="111" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D48" s="112" t="s">
         <v>215</v>
@@ -7925,7 +7925,7 @@
         <v>140</v>
       </c>
       <c r="C49" s="111" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D49" s="112" t="s">
         <v>254</v>
@@ -7940,7 +7940,7 @@
         <v>5</v>
       </c>
       <c r="H49" s="113" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -7951,7 +7951,7 @@
         <v>143</v>
       </c>
       <c r="C50" s="111" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D50" s="112" t="s">
         <v>217</v>
@@ -7966,7 +7966,7 @@
         <v>5</v>
       </c>
       <c r="H50" s="113" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -7977,7 +7977,7 @@
         <v>142</v>
       </c>
       <c r="C51" s="111" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D51" s="112" t="s">
         <v>218</v>
@@ -7990,7 +7990,7 @@
         <v>5</v>
       </c>
       <c r="H51" s="113" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -8001,13 +8001,13 @@
         <v>140</v>
       </c>
       <c r="C52" s="111" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D52" s="112" t="s">
         <v>220</v>
       </c>
       <c r="E52" s="110" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F52" s="110" t="s">
         <v>5</v>
@@ -8016,7 +8016,7 @@
         <v>5</v>
       </c>
       <c r="H52" s="113" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -8027,13 +8027,13 @@
         <v>140</v>
       </c>
       <c r="C53" s="111" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D53" s="112" t="s">
         <v>222</v>
       </c>
       <c r="E53" s="110" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F53" s="110" t="s">
         <v>5</v>
@@ -8042,7 +8042,7 @@
         <v>5</v>
       </c>
       <c r="H53" s="113" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -8053,13 +8053,13 @@
         <v>140</v>
       </c>
       <c r="C54" s="111" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D54" s="112" t="s">
         <v>219</v>
       </c>
       <c r="E54" s="110" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F54" s="110" t="s">
         <v>5</v>
@@ -8068,7 +8068,7 @@
         <v>5</v>
       </c>
       <c r="H54" s="113" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8079,13 +8079,13 @@
         <v>140</v>
       </c>
       <c r="C55" s="121" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D55" s="122" t="s">
         <v>221</v>
       </c>
       <c r="E55" s="120" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F55" s="120" t="s">
         <v>5</v>
@@ -8094,7 +8094,7 @@
         <v>5</v>
       </c>
       <c r="H55" s="123" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -8108,17 +8108,17 @@
         <v>208</v>
       </c>
       <c r="D56" s="97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E56" s="95" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F56" s="95" t="s">
         <v>5</v>
       </c>
       <c r="G56" s="95"/>
       <c r="H56" s="99" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -8144,7 +8144,7 @@
         <v>5</v>
       </c>
       <c r="H57" s="60" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -8188,7 +8188,7 @@
         <v>5</v>
       </c>
       <c r="H59" s="60" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -8214,7 +8214,7 @@
         <v>5</v>
       </c>
       <c r="H60" s="60" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8238,7 +8238,7 @@
         <v>5</v>
       </c>
       <c r="H61" s="126" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -8249,20 +8249,20 @@
         <v>140</v>
       </c>
       <c r="C62" s="106" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D62" s="107" t="s">
+        <v>429</v>
+      </c>
+      <c r="E62" s="105" t="s">
         <v>430</v>
-      </c>
-      <c r="E62" s="105" t="s">
-        <v>431</v>
       </c>
       <c r="F62" s="105" t="s">
         <v>5</v>
       </c>
       <c r="G62" s="105"/>
       <c r="H62" s="108" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -8273,7 +8273,7 @@
         <v>141</v>
       </c>
       <c r="C63" s="111" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D63" s="112" t="s">
         <v>191</v>
@@ -8288,7 +8288,7 @@
         <v>5</v>
       </c>
       <c r="H63" s="113" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -8299,7 +8299,7 @@
         <v>142</v>
       </c>
       <c r="C64" s="111" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D64" s="112" t="s">
         <v>197</v>
@@ -8317,10 +8317,10 @@
         <v>140</v>
       </c>
       <c r="C65" s="111" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D65" s="112" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E65" s="110" t="s">
         <v>38</v>
@@ -8332,7 +8332,7 @@
         <v>5</v>
       </c>
       <c r="H65" s="113" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -8343,7 +8343,7 @@
         <v>143</v>
       </c>
       <c r="C66" s="111" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D66" s="112" t="s">
         <v>192</v>
@@ -8358,7 +8358,7 @@
         <v>5</v>
       </c>
       <c r="H66" s="113" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -8369,7 +8369,7 @@
         <v>142</v>
       </c>
       <c r="C67" s="111" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D67" s="112" t="s">
         <v>193</v>
@@ -8382,7 +8382,7 @@
         <v>5</v>
       </c>
       <c r="H67" s="113" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -8393,10 +8393,10 @@
         <v>143</v>
       </c>
       <c r="C68" s="111" t="s">
+        <v>431</v>
+      </c>
+      <c r="D68" s="112" t="s">
         <v>432</v>
-      </c>
-      <c r="D68" s="112" t="s">
-        <v>433</v>
       </c>
       <c r="E68" s="110" t="s">
         <v>38</v>
@@ -8408,7 +8408,7 @@
         <v>5</v>
       </c>
       <c r="H68" s="113" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -8419,10 +8419,10 @@
         <v>143</v>
       </c>
       <c r="C69" s="111" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D69" s="112" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E69" s="110" t="s">
         <v>38</v>
@@ -8434,7 +8434,7 @@
         <v>5</v>
       </c>
       <c r="H69" s="113" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -8445,10 +8445,10 @@
         <v>143</v>
       </c>
       <c r="C70" s="111" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D70" s="112" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E70" s="110" t="s">
         <v>38</v>
@@ -8460,7 +8460,7 @@
         <v>5</v>
       </c>
       <c r="H70" s="113" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8471,10 +8471,10 @@
         <v>143</v>
       </c>
       <c r="C71" s="121" t="s">
+        <v>434</v>
+      </c>
+      <c r="D71" s="122" t="s">
         <v>435</v>
-      </c>
-      <c r="D71" s="122" t="s">
-        <v>436</v>
       </c>
       <c r="E71" s="120" t="s">
         <v>38</v>
@@ -8486,7 +8486,7 @@
         <v>5</v>
       </c>
       <c r="H71" s="123" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -8497,20 +8497,20 @@
         <v>140</v>
       </c>
       <c r="C72" s="96" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D72" s="97" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E72" s="95" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F72" s="95" t="s">
         <v>5</v>
       </c>
       <c r="G72" s="95"/>
       <c r="H72" s="99" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -8521,7 +8521,7 @@
         <v>141</v>
       </c>
       <c r="C73" s="52" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D73" s="51" t="s">
         <v>194</v>
@@ -8536,7 +8536,7 @@
         <v>5</v>
       </c>
       <c r="H73" s="60" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -8547,7 +8547,7 @@
         <v>142</v>
       </c>
       <c r="C74" s="52" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D74" s="51" t="s">
         <v>198</v>
@@ -8565,7 +8565,7 @@
         <v>140</v>
       </c>
       <c r="C75" s="52" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D75" s="51" t="s">
         <v>250</v>
@@ -8580,7 +8580,7 @@
         <v>5</v>
       </c>
       <c r="H75" s="60" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -8591,7 +8591,7 @@
         <v>143</v>
       </c>
       <c r="C76" s="52" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D76" s="51" t="s">
         <v>195</v>
@@ -8606,7 +8606,7 @@
         <v>5</v>
       </c>
       <c r="H76" s="60" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8617,7 +8617,7 @@
         <v>142</v>
       </c>
       <c r="C77" s="101" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D77" s="125" t="s">
         <v>196</v>
@@ -8630,7 +8630,7 @@
         <v>5</v>
       </c>
       <c r="H77" s="126" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -8641,20 +8641,20 @@
         <v>140</v>
       </c>
       <c r="C78" s="106" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D78" s="107" t="s">
+        <v>438</v>
+      </c>
+      <c r="E78" s="105" t="s">
         <v>439</v>
-      </c>
-      <c r="E78" s="105" t="s">
-        <v>440</v>
       </c>
       <c r="F78" s="105" t="s">
         <v>5</v>
       </c>
       <c r="G78" s="105"/>
       <c r="H78" s="108" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -8665,7 +8665,7 @@
         <v>141</v>
       </c>
       <c r="C79" s="111" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D79" s="112" t="s">
         <v>200</v>
@@ -8680,7 +8680,7 @@
         <v>5</v>
       </c>
       <c r="H79" s="113" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -8691,7 +8691,7 @@
         <v>142</v>
       </c>
       <c r="C80" s="111" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D80" s="112" t="s">
         <v>199</v>
@@ -8709,7 +8709,7 @@
         <v>140</v>
       </c>
       <c r="C81" s="111" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D81" s="112" t="s">
         <v>251</v>
@@ -8724,7 +8724,7 @@
         <v>5</v>
       </c>
       <c r="H81" s="113" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -8735,7 +8735,7 @@
         <v>143</v>
       </c>
       <c r="C82" s="111" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D82" s="112" t="s">
         <v>201</v>
@@ -8750,7 +8750,7 @@
         <v>5</v>
       </c>
       <c r="H82" s="113" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8761,7 +8761,7 @@
         <v>142</v>
       </c>
       <c r="C83" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D83" s="117" t="s">
         <v>202</v>
@@ -8774,48 +8774,48 @@
         <v>5</v>
       </c>
       <c r="H83" s="118" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="94" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B84" s="95" t="s">
         <v>140</v>
       </c>
       <c r="C84" s="96" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D84" s="127" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E84" s="95" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F84" s="95" t="s">
         <v>5</v>
       </c>
       <c r="G84" s="95"/>
       <c r="H84" s="99" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="85" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="55" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B85" s="50" t="s">
         <v>141</v>
       </c>
       <c r="C85" s="52" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D85" s="53" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E85" s="50" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F85" s="50" t="s">
         <v>5</v>
@@ -8824,21 +8824,21 @@
         <v>5</v>
       </c>
       <c r="H85" s="60" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="86" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="55" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B86" s="50" t="s">
         <v>142</v>
       </c>
       <c r="C86" s="52" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D86" s="53" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E86" s="50"/>
       <c r="F86" s="50"/>
@@ -8847,19 +8847,19 @@
     </row>
     <row r="87" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="55" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B87" s="50" t="s">
         <v>140</v>
       </c>
       <c r="C87" s="52" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D87" s="53" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E87" s="50" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F87" s="50" t="s">
         <v>5</v>
@@ -8868,24 +8868,24 @@
         <v>5</v>
       </c>
       <c r="H87" s="60" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="88" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="55" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B88" s="50" t="s">
         <v>143</v>
       </c>
       <c r="C88" s="52" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D88" s="53" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E88" s="50" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F88" s="50" t="s">
         <v>5</v>
@@ -8894,21 +8894,21 @@
         <v>5</v>
       </c>
       <c r="H88" s="60" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="89" spans="1:8" s="128" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="124" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B89" s="100" t="s">
         <v>142</v>
       </c>
       <c r="C89" s="101" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D89" s="102" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E89" s="100"/>
       <c r="F89" s="100" t="s">
@@ -8918,7 +8918,7 @@
         <v>5</v>
       </c>
       <c r="H89" s="126" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -8929,20 +8929,20 @@
         <v>140</v>
       </c>
       <c r="C90" s="106" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D90" s="107" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E90" s="105" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F90" s="105" t="s">
         <v>5</v>
       </c>
       <c r="G90" s="105"/>
       <c r="H90" s="108" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -8953,7 +8953,7 @@
         <v>141</v>
       </c>
       <c r="C91" s="111" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D91" s="112" t="s">
         <v>163</v>
@@ -8968,7 +8968,7 @@
         <v>5</v>
       </c>
       <c r="H91" s="113" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -8979,7 +8979,7 @@
         <v>142</v>
       </c>
       <c r="C92" s="111" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D92" s="112" t="s">
         <v>162</v>
@@ -8997,7 +8997,7 @@
         <v>140</v>
       </c>
       <c r="C93" s="111" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D93" s="112" t="s">
         <v>245</v>
@@ -9012,7 +9012,7 @@
         <v>5</v>
       </c>
       <c r="H93" s="113" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -9023,7 +9023,7 @@
         <v>143</v>
       </c>
       <c r="C94" s="111" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D94" s="112" t="s">
         <v>164</v>
@@ -9038,7 +9038,7 @@
         <v>5</v>
       </c>
       <c r="H94" s="113" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9049,7 +9049,7 @@
         <v>142</v>
       </c>
       <c r="C95" s="121" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D95" s="122" t="s">
         <v>165</v>
@@ -9062,7 +9062,7 @@
         <v>5</v>
       </c>
       <c r="H95" s="123" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -9073,20 +9073,20 @@
         <v>140</v>
       </c>
       <c r="C96" s="96" t="s">
+        <v>456</v>
+      </c>
+      <c r="D96" s="97" t="s">
         <v>457</v>
       </c>
-      <c r="D96" s="97" t="s">
+      <c r="E96" s="95" t="s">
         <v>458</v>
-      </c>
-      <c r="E96" s="95" t="s">
-        <v>459</v>
       </c>
       <c r="F96" s="95" t="s">
         <v>5</v>
       </c>
       <c r="G96" s="95"/>
       <c r="H96" s="99" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -9097,7 +9097,7 @@
         <v>141</v>
       </c>
       <c r="C97" s="52" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D97" s="51" t="s">
         <v>167</v>
@@ -9112,7 +9112,7 @@
         <v>5</v>
       </c>
       <c r="H97" s="60" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -9123,10 +9123,10 @@
         <v>142</v>
       </c>
       <c r="C98" s="52" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D98" s="51" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E98" s="50"/>
       <c r="F98" s="50"/>
@@ -9141,10 +9141,10 @@
         <v>142</v>
       </c>
       <c r="C99" s="52" t="s">
+        <v>459</v>
+      </c>
+      <c r="D99" s="51" t="s">
         <v>460</v>
-      </c>
-      <c r="D99" s="51" t="s">
-        <v>461</v>
       </c>
       <c r="E99" s="50"/>
       <c r="F99" s="50" t="s">
@@ -9154,7 +9154,7 @@
         <v>5</v>
       </c>
       <c r="H99" s="60" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -9165,14 +9165,14 @@
         <v>140</v>
       </c>
       <c r="C100" s="52" t="s">
+        <v>461</v>
+      </c>
+      <c r="D100" s="51" t="s">
+        <v>463</v>
+      </c>
+      <c r="E100" s="50" t="s">
         <v>462</v>
       </c>
-      <c r="D100" s="51" t="s">
-        <v>464</v>
-      </c>
-      <c r="E100" s="50" t="s">
-        <v>463</v>
-      </c>
       <c r="F100" s="50" t="s">
         <v>5</v>
       </c>
@@ -9180,7 +9180,7 @@
         <v>5</v>
       </c>
       <c r="H100" s="60" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9191,14 +9191,14 @@
         <v>140</v>
       </c>
       <c r="C101" s="101" t="s">
+        <v>464</v>
+      </c>
+      <c r="D101" s="125" t="s">
         <v>465</v>
       </c>
-      <c r="D101" s="125" t="s">
+      <c r="E101" s="100" t="s">
         <v>466</v>
       </c>
-      <c r="E101" s="100" t="s">
-        <v>467</v>
-      </c>
       <c r="F101" s="100" t="s">
         <v>5</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>5</v>
       </c>
       <c r="H101" s="126" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -9217,20 +9217,20 @@
         <v>140</v>
       </c>
       <c r="C102" s="106" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D102" s="107" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E102" s="105" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F102" s="105" t="s">
         <v>5</v>
       </c>
       <c r="G102" s="105"/>
       <c r="H102" s="108" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -9241,7 +9241,7 @@
         <v>141</v>
       </c>
       <c r="C103" s="111" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D103" s="112" t="s">
         <v>169</v>
@@ -9256,7 +9256,7 @@
         <v>5</v>
       </c>
       <c r="H103" s="113" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -9267,7 +9267,7 @@
         <v>142</v>
       </c>
       <c r="C104" s="111" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D104" s="112" t="s">
         <v>168</v>
@@ -9285,7 +9285,7 @@
         <v>140</v>
       </c>
       <c r="C105" s="111" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D105" s="112" t="s">
         <v>246</v>
@@ -9300,7 +9300,7 @@
         <v>5</v>
       </c>
       <c r="H105" s="113" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -9311,7 +9311,7 @@
         <v>143</v>
       </c>
       <c r="C106" s="111" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D106" s="112" t="s">
         <v>170</v>
@@ -9326,7 +9326,7 @@
         <v>5</v>
       </c>
       <c r="H106" s="113" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9337,7 +9337,7 @@
         <v>142</v>
       </c>
       <c r="C107" s="121" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D107" s="122" t="s">
         <v>171</v>
@@ -9350,7 +9350,7 @@
         <v>5</v>
       </c>
       <c r="H107" s="123" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -9367,14 +9367,14 @@
         <v>236</v>
       </c>
       <c r="E108" s="95" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F108" s="95" t="s">
         <v>5</v>
       </c>
       <c r="G108" s="95"/>
       <c r="H108" s="99" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -9400,7 +9400,7 @@
         <v>5</v>
       </c>
       <c r="H109" s="60" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -9444,7 +9444,7 @@
         <v>5</v>
       </c>
       <c r="H111" s="60" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -9470,7 +9470,7 @@
         <v>5</v>
       </c>
       <c r="H112" s="60" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -9494,7 +9494,7 @@
         <v>5</v>
       </c>
       <c r="H113" s="60" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -9505,13 +9505,13 @@
         <v>140</v>
       </c>
       <c r="C114" s="52" t="s">
+        <v>274</v>
+      </c>
+      <c r="D114" s="51" t="s">
         <v>275</v>
       </c>
-      <c r="D114" s="51" t="s">
-        <v>276</v>
-      </c>
       <c r="E114" s="50" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F114" s="50" t="s">
         <v>5</v>
@@ -9520,7 +9520,7 @@
         <v>5</v>
       </c>
       <c r="H114" s="60" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9537,7 +9537,7 @@
         <v>243</v>
       </c>
       <c r="E115" s="100" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F115" s="100" t="s">
         <v>5</v>
@@ -9546,7 +9546,7 @@
         <v>5</v>
       </c>
       <c r="H115" s="126" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -9557,20 +9557,20 @@
         <v>140</v>
       </c>
       <c r="C116" s="106" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D116" s="107" t="s">
         <v>229</v>
       </c>
       <c r="E116" s="105" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F116" s="105" t="s">
         <v>5</v>
       </c>
       <c r="G116" s="105"/>
       <c r="H116" s="108" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -9581,7 +9581,7 @@
         <v>141</v>
       </c>
       <c r="C117" s="111" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D117" s="112" t="s">
         <v>231</v>
@@ -9596,7 +9596,7 @@
         <v>5</v>
       </c>
       <c r="H117" s="113" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -9607,7 +9607,7 @@
         <v>142</v>
       </c>
       <c r="C118" s="111" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D118" s="112" t="s">
         <v>230</v>
@@ -9625,7 +9625,7 @@
         <v>140</v>
       </c>
       <c r="C119" s="111" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D119" s="112" t="s">
         <v>256</v>
@@ -9640,7 +9640,7 @@
         <v>5</v>
       </c>
       <c r="H119" s="113" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -9651,7 +9651,7 @@
         <v>143</v>
       </c>
       <c r="C120" s="111" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D120" s="112" t="s">
         <v>232</v>
@@ -9666,7 +9666,7 @@
         <v>5</v>
       </c>
       <c r="H120" s="113" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -9677,7 +9677,7 @@
         <v>142</v>
       </c>
       <c r="C121" s="111" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D121" s="112" t="s">
         <v>233</v>
@@ -9690,7 +9690,7 @@
         <v>5</v>
       </c>
       <c r="H121" s="113" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9701,13 +9701,13 @@
         <v>140</v>
       </c>
       <c r="C122" s="121" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D122" s="122" t="s">
         <v>234</v>
       </c>
       <c r="E122" s="120" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F122" s="120" t="s">
         <v>5</v>
@@ -9716,7 +9716,7 @@
         <v>5</v>
       </c>
       <c r="H122" s="123" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -9727,20 +9727,20 @@
         <v>140</v>
       </c>
       <c r="C123" s="96" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D123" s="97" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E123" s="95" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F123" s="95" t="s">
         <v>5</v>
       </c>
       <c r="G123" s="95"/>
       <c r="H123" s="99" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -9751,7 +9751,7 @@
         <v>141</v>
       </c>
       <c r="C124" s="52" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D124" s="51" t="s">
         <v>204</v>
@@ -9766,7 +9766,7 @@
         <v>5</v>
       </c>
       <c r="H124" s="60" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -9777,7 +9777,7 @@
         <v>142</v>
       </c>
       <c r="C125" s="52" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D125" s="51" t="s">
         <v>203</v>
@@ -9795,7 +9795,7 @@
         <v>140</v>
       </c>
       <c r="C126" s="52" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D126" s="51" t="s">
         <v>252</v>
@@ -9810,7 +9810,7 @@
         <v>5</v>
       </c>
       <c r="H126" s="60" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -9821,7 +9821,7 @@
         <v>143</v>
       </c>
       <c r="C127" s="52" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D127" s="51" t="s">
         <v>205</v>
@@ -9836,7 +9836,7 @@
         <v>5</v>
       </c>
       <c r="H127" s="60" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -9847,7 +9847,7 @@
         <v>142</v>
       </c>
       <c r="C128" s="52" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D128" s="51" t="s">
         <v>206</v>
@@ -9860,7 +9860,7 @@
         <v>5</v>
       </c>
       <c r="H128" s="60" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -9871,13 +9871,13 @@
         <v>140</v>
       </c>
       <c r="C129" s="52" t="s">
+        <v>480</v>
+      </c>
+      <c r="D129" s="51" t="s">
         <v>481</v>
       </c>
-      <c r="D129" s="51" t="s">
-        <v>482</v>
-      </c>
       <c r="E129" s="50" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F129" s="50" t="s">
         <v>5</v>
@@ -9886,7 +9886,7 @@
         <v>5</v>
       </c>
       <c r="H129" s="60" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9897,10 +9897,10 @@
         <v>143</v>
       </c>
       <c r="C130" s="101" t="s">
+        <v>482</v>
+      </c>
+      <c r="D130" s="125" t="s">
         <v>483</v>
-      </c>
-      <c r="D130" s="125" t="s">
-        <v>484</v>
       </c>
       <c r="E130" s="100" t="s">
         <v>103</v>
@@ -9912,7 +9912,7 @@
         <v>5</v>
       </c>
       <c r="H130" s="126" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -9923,20 +9923,20 @@
         <v>140</v>
       </c>
       <c r="C131" s="106" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D131" s="107" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E131" s="105" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F131" s="105" t="s">
         <v>5</v>
       </c>
       <c r="G131" s="105"/>
       <c r="H131" s="108" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -9947,7 +9947,7 @@
         <v>141</v>
       </c>
       <c r="C132" s="111" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D132" s="112" t="s">
         <v>149</v>
@@ -9962,7 +9962,7 @@
         <v>5</v>
       </c>
       <c r="H132" s="113" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -9973,7 +9973,7 @@
         <v>142</v>
       </c>
       <c r="C133" s="111" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D133" s="112" t="s">
         <v>148</v>
@@ -9991,10 +9991,10 @@
         <v>140</v>
       </c>
       <c r="C134" s="111" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D134" s="112" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E134" s="110" t="s">
         <v>81</v>
@@ -10006,7 +10006,7 @@
         <v>5</v>
       </c>
       <c r="H134" s="113" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -10017,7 +10017,7 @@
         <v>143</v>
       </c>
       <c r="C135" s="111" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D135" s="112" t="s">
         <v>150</v>
@@ -10032,7 +10032,7 @@
         <v>5</v>
       </c>
       <c r="H135" s="113" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10043,7 +10043,7 @@
         <v>142</v>
       </c>
       <c r="C136" s="121" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D136" s="122" t="s">
         <v>151</v>
@@ -10056,7 +10056,7 @@
         <v>5</v>
       </c>
       <c r="H136" s="123" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -10073,14 +10073,14 @@
         <v>179</v>
       </c>
       <c r="E137" s="95" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F137" s="95" t="s">
         <v>5</v>
       </c>
       <c r="G137" s="95"/>
       <c r="H137" s="99" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -10106,7 +10106,7 @@
         <v>5</v>
       </c>
       <c r="H138" s="60" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -10150,7 +10150,7 @@
         <v>5</v>
       </c>
       <c r="H140" s="60" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -10176,7 +10176,7 @@
         <v>5</v>
       </c>
       <c r="H141" s="60" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10200,7 +10200,7 @@
         <v>5</v>
       </c>
       <c r="H142" s="126" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -10214,7 +10214,7 @@
         <v>152</v>
       </c>
       <c r="D143" s="107" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E143" s="105" t="s">
         <v>88</v>
@@ -10224,7 +10224,7 @@
       </c>
       <c r="G143" s="105"/>
       <c r="H143" s="108" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -10250,7 +10250,7 @@
         <v>5</v>
       </c>
       <c r="H144" s="113" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -10294,7 +10294,7 @@
         <v>5</v>
       </c>
       <c r="H146" s="113" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -10320,7 +10320,7 @@
         <v>5</v>
       </c>
       <c r="H147" s="113" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10344,48 +10344,48 @@
         <v>5</v>
       </c>
       <c r="H148" s="123" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="149" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="129" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B149" s="130" t="s">
         <v>140</v>
       </c>
       <c r="C149" s="131" t="s">
+        <v>293</v>
+      </c>
+      <c r="D149" s="132" t="s">
         <v>294</v>
       </c>
-      <c r="D149" s="132" t="s">
-        <v>295</v>
-      </c>
       <c r="E149" s="130" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F149" s="95" t="s">
         <v>5</v>
       </c>
       <c r="G149" s="95"/>
       <c r="H149" s="99" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="150" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="61" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B150" s="62" t="s">
         <v>141</v>
       </c>
       <c r="C150" s="63" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D150" s="64" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E150" s="62" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F150" s="50" t="s">
         <v>5</v>
@@ -10394,21 +10394,21 @@
         <v>5</v>
       </c>
       <c r="H150" s="60" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="151" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="61" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B151" s="62" t="s">
         <v>142</v>
       </c>
       <c r="C151" s="63" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D151" s="64" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E151" s="62"/>
       <c r="F151" s="50"/>
@@ -10417,19 +10417,19 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="61" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B152" s="50" t="s">
         <v>140</v>
       </c>
       <c r="C152" s="63" t="s">
+        <v>306</v>
+      </c>
+      <c r="D152" s="53" t="s">
         <v>307</v>
       </c>
-      <c r="D152" s="53" t="s">
-        <v>308</v>
-      </c>
       <c r="E152" s="50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F152" s="50" t="s">
         <v>5</v>
@@ -10438,24 +10438,24 @@
         <v>5</v>
       </c>
       <c r="H152" s="60" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="61" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B153" s="50" t="s">
         <v>143</v>
       </c>
       <c r="C153" s="63" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D153" s="53" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E153" s="50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F153" s="50" t="s">
         <v>5</v>
@@ -10464,21 +10464,21 @@
         <v>5</v>
       </c>
       <c r="H153" s="60" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="61" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B154" s="50" t="s">
         <v>142</v>
       </c>
       <c r="C154" s="63" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D154" s="53" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E154" s="50"/>
       <c r="F154" s="50" t="s">
@@ -10488,21 +10488,21 @@
         <v>5</v>
       </c>
       <c r="H154" s="60" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B155" s="50" t="s">
         <v>142</v>
       </c>
       <c r="C155" s="52" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D155" s="53" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E155" s="50"/>
       <c r="F155" s="50"/>
@@ -10511,19 +10511,19 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B156" s="50" t="s">
         <v>140</v>
       </c>
       <c r="C156" s="52" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D156" s="53" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E156" s="50" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F156" s="50" t="s">
         <v>5</v>
@@ -10532,24 +10532,24 @@
         <v>5</v>
       </c>
       <c r="H156" s="60" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B157" s="50" t="s">
         <v>140</v>
       </c>
       <c r="C157" s="52" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D157" s="53" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E157" s="50" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F157" s="50" t="s">
         <v>5</v>
@@ -10558,24 +10558,24 @@
         <v>5</v>
       </c>
       <c r="H157" s="60" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B158" s="50" t="s">
         <v>140</v>
       </c>
       <c r="C158" s="52" t="s">
+        <v>301</v>
+      </c>
+      <c r="D158" s="53" t="s">
+        <v>271</v>
+      </c>
+      <c r="E158" s="50" t="s">
         <v>302</v>
-      </c>
-      <c r="D158" s="53" t="s">
-        <v>272</v>
-      </c>
-      <c r="E158" s="50" t="s">
-        <v>303</v>
       </c>
       <c r="F158" s="50"/>
       <c r="G158" s="50"/>
@@ -10583,16 +10583,16 @@
     </row>
     <row r="159" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="124" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B159" s="100" t="s">
         <v>142</v>
       </c>
       <c r="C159" s="101" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D159" s="102" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E159" s="100"/>
       <c r="F159" s="100"/>
@@ -10607,20 +10607,20 @@
         <v>140</v>
       </c>
       <c r="C160" s="106" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D160" s="107" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E160" s="105" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F160" s="105" t="s">
         <v>5</v>
       </c>
       <c r="G160" s="105"/>
       <c r="H160" s="108" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -10631,10 +10631,10 @@
         <v>142</v>
       </c>
       <c r="C161" s="111" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D161" s="112" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E161" s="110"/>
       <c r="F161" s="110"/>
@@ -10649,7 +10649,7 @@
         <v>140</v>
       </c>
       <c r="C162" s="111" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D162" s="112" t="s">
         <v>144</v>
@@ -10664,7 +10664,7 @@
         <v>5</v>
       </c>
       <c r="H162" s="113" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -10675,7 +10675,7 @@
         <v>143</v>
       </c>
       <c r="C163" s="111" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D163" s="112" t="s">
         <v>145</v>
@@ -10690,7 +10690,7 @@
         <v>5</v>
       </c>
       <c r="H163" s="113" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -10701,7 +10701,7 @@
         <v>142</v>
       </c>
       <c r="C164" s="111" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D164" s="112" t="s">
         <v>146</v>
@@ -10714,7 +10714,7 @@
         <v>5</v>
       </c>
       <c r="H164" s="113" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -10725,13 +10725,13 @@
         <v>140</v>
       </c>
       <c r="C165" s="111" t="s">
+        <v>497</v>
+      </c>
+      <c r="D165" s="112" t="s">
         <v>498</v>
       </c>
-      <c r="D165" s="112" t="s">
-        <v>499</v>
-      </c>
       <c r="E165" s="110" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F165" s="110" t="s">
         <v>5</v>
@@ -10740,7 +10740,7 @@
         <v>5</v>
       </c>
       <c r="H165" s="113" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -10751,10 +10751,10 @@
         <v>141</v>
       </c>
       <c r="C166" s="111" t="s">
+        <v>499</v>
+      </c>
+      <c r="D166" s="112" t="s">
         <v>500</v>
-      </c>
-      <c r="D166" s="112" t="s">
-        <v>501</v>
       </c>
       <c r="E166" s="110" t="s">
         <v>0</v>
@@ -10766,7 +10766,7 @@
         <v>5</v>
       </c>
       <c r="H166" s="113" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -10777,14 +10777,14 @@
         <v>141</v>
       </c>
       <c r="C167" s="111" t="s">
+        <v>501</v>
+      </c>
+      <c r="D167" s="112" t="s">
         <v>502</v>
       </c>
-      <c r="D167" s="112" t="s">
+      <c r="E167" s="110" t="s">
         <v>503</v>
       </c>
-      <c r="E167" s="110" t="s">
-        <v>504</v>
-      </c>
       <c r="F167" s="110" t="s">
         <v>5</v>
       </c>
@@ -10792,7 +10792,7 @@
         <v>5</v>
       </c>
       <c r="H167" s="113" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10803,10 +10803,10 @@
         <v>141</v>
       </c>
       <c r="C168" s="111" t="s">
+        <v>504</v>
+      </c>
+      <c r="D168" s="112" t="s">
         <v>505</v>
-      </c>
-      <c r="D168" s="112" t="s">
-        <v>506</v>
       </c>
       <c r="E168" s="110"/>
       <c r="F168" s="110"/>
@@ -10821,20 +10821,20 @@
         <v>140</v>
       </c>
       <c r="C169" s="96" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D169" s="97" t="s">
         <v>268</v>
       </c>
       <c r="E169" s="95" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F169" s="95" t="s">
         <v>5</v>
       </c>
       <c r="G169" s="95"/>
       <c r="H169" s="99" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -10845,10 +10845,10 @@
         <v>141</v>
       </c>
       <c r="C170" s="52" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D170" s="51" t="s">
-        <v>270</v>
+        <v>536</v>
       </c>
       <c r="E170" s="50" t="s">
         <v>264</v>
@@ -10860,7 +10860,7 @@
         <v>5</v>
       </c>
       <c r="H170" s="60" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -10871,7 +10871,7 @@
         <v>142</v>
       </c>
       <c r="C171" s="52" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D171" s="51" t="s">
         <v>269</v>
@@ -10889,7 +10889,7 @@
         <v>140</v>
       </c>
       <c r="C172" s="52" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D172" s="51" t="s">
         <v>265</v>
@@ -10904,7 +10904,7 @@
         <v>5</v>
       </c>
       <c r="H172" s="60" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -10915,7 +10915,7 @@
         <v>143</v>
       </c>
       <c r="C173" s="52" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D173" s="51" t="s">
         <v>266</v>
@@ -10930,7 +10930,7 @@
         <v>5</v>
       </c>
       <c r="H173" s="60" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -10941,7 +10941,7 @@
         <v>142</v>
       </c>
       <c r="C174" s="52" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D174" s="51" t="s">
         <v>267</v>
@@ -10954,7 +10954,7 @@
         <v>5</v>
       </c>
       <c r="H174" s="60" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10965,10 +10965,10 @@
         <v>140</v>
       </c>
       <c r="C175" s="101" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D175" s="125" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E175" s="100" t="s">
         <v>264</v>
@@ -10980,7 +10980,7 @@
         <v>5</v>
       </c>
       <c r="H175" s="126" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -10991,7 +10991,7 @@
         <v>140</v>
       </c>
       <c r="C176" s="106" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D176" s="107" t="s">
         <v>258</v>
@@ -11004,7 +11004,7 @@
       </c>
       <c r="G176" s="105"/>
       <c r="H176" s="108" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -11015,7 +11015,7 @@
         <v>141</v>
       </c>
       <c r="C177" s="111" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D177" s="112" t="s">
         <v>260</v>
@@ -11030,7 +11030,7 @@
         <v>5</v>
       </c>
       <c r="H177" s="113" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -11041,7 +11041,7 @@
         <v>142</v>
       </c>
       <c r="C178" s="111" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D178" s="112" t="s">
         <v>259</v>
@@ -11059,7 +11059,7 @@
         <v>140</v>
       </c>
       <c r="C179" s="111" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D179" s="112" t="s">
         <v>261</v>
@@ -11074,7 +11074,7 @@
         <v>5</v>
       </c>
       <c r="H179" s="113" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -11085,7 +11085,7 @@
         <v>143</v>
       </c>
       <c r="C180" s="111" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D180" s="112" t="s">
         <v>262</v>
@@ -11100,7 +11100,7 @@
         <v>5</v>
       </c>
       <c r="H180" s="113" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -11111,7 +11111,7 @@
         <v>142</v>
       </c>
       <c r="C181" s="111" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D181" s="112" t="s">
         <v>263</v>
@@ -11124,7 +11124,7 @@
         <v>5</v>
       </c>
       <c r="H181" s="113" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11135,10 +11135,10 @@
         <v>140</v>
       </c>
       <c r="C182" s="116" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D182" s="117" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E182" s="115" t="s">
         <v>125</v>
@@ -11150,7 +11150,7 @@
         <v>5</v>
       </c>
       <c r="H182" s="118" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -11187,48 +11187,48 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="165" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B1" s="166"/>
       <c r="C1" s="167"/>
       <c r="E1" s="165" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F1" s="166"/>
       <c r="G1" s="167"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
+        <v>315</v>
+      </c>
+      <c r="B2" s="78" t="s">
         <v>316</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="C2" s="79" t="s">
         <v>317</v>
       </c>
-      <c r="C2" s="79" t="s">
-        <v>318</v>
-      </c>
       <c r="E2" s="77" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F2" s="78" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G2" s="79" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="67" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B3" s="68" t="s">
+        <v>320</v>
+      </c>
+      <c r="C3" s="69" t="s">
         <v>321</v>
       </c>
-      <c r="C3" s="69" t="s">
-        <v>322</v>
-      </c>
       <c r="E3" s="67" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F3" s="68"/>
       <c r="G3" s="69"/>
@@ -11236,10 +11236,10 @@
     <row r="4" spans="1:7" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="70"/>
       <c r="B4" s="71" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E4" s="70"/>
       <c r="F4" s="71"/>
@@ -11255,13 +11255,13 @@
     </row>
     <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="67" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C6" s="69" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E6" s="67"/>
       <c r="F6" s="68"/>
@@ -11270,10 +11270,10 @@
     <row r="7" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="73"/>
       <c r="B7" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E7" s="73"/>
       <c r="F7" s="9"/>
@@ -11282,10 +11282,10 @@
     <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="73"/>
       <c r="B8" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C8" s="74" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E8" s="73"/>
       <c r="F8" s="9"/>
@@ -11294,10 +11294,10 @@
     <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="73"/>
       <c r="B9" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C9" s="74" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E9" s="73"/>
       <c r="F9" s="9"/>
@@ -11306,10 +11306,10 @@
     <row r="10" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="70"/>
       <c r="B10" s="71" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C10" s="72" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E10" s="70"/>
       <c r="F10" s="71"/>
@@ -11325,7 +11325,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="75" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B12" s="75"/>
       <c r="C12" s="75"/>

--- a/documentation/DataAndAPIMatchAware.xlsx
+++ b/documentation/DataAndAPIMatchAware.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Service Definitions" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Routing!$A$1:$E$182</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Routing!$A$1:$E$183</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="539">
   <si>
     <t>USER</t>
   </si>
@@ -1647,6 +1647,12 @@
   </si>
   <si>
     <t>Create user invites and send email</t>
+  </si>
+  <si>
+    <t>/user_invites/deleteByKey/:inviteKey</t>
+  </si>
+  <si>
+    <t>Delete invite by key</t>
   </si>
 </sst>
 </file>
@@ -2599,6 +2605,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2607,18 +2625,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2941,7 +2947,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2965,13 +2971,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
     </row>
     <row r="2" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="88"/>
@@ -2981,13 +2987,13 @@
       <c r="E2" s="88"/>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="157" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="161"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="159"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
@@ -3112,13 +3118,13 @@
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="159" t="s">
+      <c r="A14" s="157" t="s">
         <v>289</v>
       </c>
-      <c r="B14" s="160"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="161"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="159"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
@@ -3195,13 +3201,13 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="159" t="s">
+      <c r="A21" s="157" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="160"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="160"/>
-      <c r="E21" s="161"/>
+      <c r="B21" s="158"/>
+      <c r="C21" s="158"/>
+      <c r="D21" s="158"/>
+      <c r="E21" s="159"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
@@ -3274,13 +3280,13 @@
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="159" t="s">
+      <c r="A28" s="157" t="s">
         <v>278</v>
       </c>
-      <c r="B28" s="160"/>
-      <c r="C28" s="160"/>
-      <c r="D28" s="160"/>
-      <c r="E28" s="161"/>
+      <c r="B28" s="158"/>
+      <c r="C28" s="158"/>
+      <c r="D28" s="158"/>
+      <c r="E28" s="159"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
@@ -3675,13 +3681,13 @@
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="159" t="s">
+      <c r="A61" s="157" t="s">
         <v>97</v>
       </c>
-      <c r="B61" s="160"/>
-      <c r="C61" s="160"/>
-      <c r="D61" s="160"/>
-      <c r="E61" s="161"/>
+      <c r="B61" s="158"/>
+      <c r="C61" s="158"/>
+      <c r="D61" s="158"/>
+      <c r="E61" s="159"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
@@ -4015,13 +4021,13 @@
     </row>
     <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="159" t="s">
+      <c r="A89" s="157" t="s">
         <v>96</v>
       </c>
-      <c r="B89" s="160"/>
-      <c r="C89" s="160"/>
-      <c r="D89" s="160"/>
-      <c r="E89" s="161"/>
+      <c r="B89" s="158"/>
+      <c r="C89" s="158"/>
+      <c r="D89" s="158"/>
+      <c r="E89" s="159"/>
     </row>
     <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="s">
@@ -5296,13 +5302,13 @@
     </row>
     <row r="197" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="198" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="159" t="s">
+      <c r="A198" s="157" t="s">
         <v>123</v>
       </c>
-      <c r="B198" s="160"/>
-      <c r="C198" s="160"/>
-      <c r="D198" s="160"/>
-      <c r="E198" s="161"/>
+      <c r="B198" s="158"/>
+      <c r="C198" s="158"/>
+      <c r="D198" s="158"/>
+      <c r="E198" s="159"/>
     </row>
     <row r="199" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="14" t="s">
@@ -5375,13 +5381,13 @@
     </row>
     <row r="204" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="205" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="159" t="s">
+      <c r="A205" s="157" t="s">
         <v>134</v>
       </c>
-      <c r="B205" s="160"/>
-      <c r="C205" s="160"/>
-      <c r="D205" s="160"/>
-      <c r="E205" s="161"/>
+      <c r="B205" s="158"/>
+      <c r="C205" s="158"/>
+      <c r="D205" s="158"/>
+      <c r="E205" s="159"/>
     </row>
     <row r="206" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="14" t="s">
@@ -5476,13 +5482,13 @@
     </row>
     <row r="213" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="214" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="159" t="s">
+      <c r="A214" s="157" t="s">
         <v>284</v>
       </c>
-      <c r="B214" s="160"/>
-      <c r="C214" s="160"/>
-      <c r="D214" s="160"/>
-      <c r="E214" s="161"/>
+      <c r="B214" s="158"/>
+      <c r="C214" s="158"/>
+      <c r="D214" s="158"/>
+      <c r="E214" s="159"/>
     </row>
     <row r="215" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="14" t="s">
@@ -5712,13 +5718,13 @@
     </row>
     <row r="233" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="234" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="156" t="s">
+      <c r="A234" s="160" t="s">
         <v>286</v>
       </c>
-      <c r="B234" s="157"/>
-      <c r="C234" s="157"/>
-      <c r="D234" s="157"/>
-      <c r="E234" s="158"/>
+      <c r="B234" s="161"/>
+      <c r="C234" s="161"/>
+      <c r="D234" s="161"/>
+      <c r="E234" s="162"/>
     </row>
     <row r="235" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="14" t="s">
@@ -6289,13 +6295,13 @@
     </row>
     <row r="282" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="283" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A283" s="159" t="s">
+      <c r="A283" s="157" t="s">
         <v>288</v>
       </c>
-      <c r="B283" s="160"/>
-      <c r="C283" s="160"/>
-      <c r="D283" s="160"/>
-      <c r="E283" s="161"/>
+      <c r="B283" s="158"/>
+      <c r="C283" s="158"/>
+      <c r="D283" s="158"/>
+      <c r="E283" s="159"/>
     </row>
     <row r="284" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="30" t="s">
@@ -6708,6 +6714,28 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A303:E303"/>
+    <mergeCell ref="A312:E312"/>
+    <mergeCell ref="A234:E234"/>
+    <mergeCell ref="A248:E248"/>
+    <mergeCell ref="A269:E269"/>
+    <mergeCell ref="A277:E277"/>
+    <mergeCell ref="A283:E283"/>
+    <mergeCell ref="A193:E193"/>
+    <mergeCell ref="A198:E198"/>
+    <mergeCell ref="A205:E205"/>
+    <mergeCell ref="A214:E214"/>
+    <mergeCell ref="A225:E225"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A173:E173"/>
+    <mergeCell ref="A186:E186"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="A125:E125"/>
     <mergeCell ref="A46:E46"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A14:E14"/>
@@ -6715,28 +6743,6 @@
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="A38:E38"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="A94:E94"/>
-    <mergeCell ref="A125:E125"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="A173:E173"/>
-    <mergeCell ref="A186:E186"/>
-    <mergeCell ref="A193:E193"/>
-    <mergeCell ref="A198:E198"/>
-    <mergeCell ref="A205:E205"/>
-    <mergeCell ref="A214:E214"/>
-    <mergeCell ref="A225:E225"/>
-    <mergeCell ref="A303:E303"/>
-    <mergeCell ref="A312:E312"/>
-    <mergeCell ref="A234:E234"/>
-    <mergeCell ref="A248:E248"/>
-    <mergeCell ref="A269:E269"/>
-    <mergeCell ref="A277:E277"/>
-    <mergeCell ref="A283:E283"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6748,10 +6754,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H182"/>
+  <dimension ref="A1:H183"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A156" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D170" sqref="D170"/>
+      <selection activeCell="J177" sqref="J177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10957,7 +10963,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="124" t="s">
         <v>264</v>
       </c>
@@ -10983,54 +10989,54 @@
         <v>399</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="104" t="s">
+    <row r="176" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="124" t="s">
+        <v>264</v>
+      </c>
+      <c r="B176" s="100" t="s">
+        <v>142</v>
+      </c>
+      <c r="C176" s="101" t="s">
+        <v>537</v>
+      </c>
+      <c r="D176" s="125" t="s">
+        <v>538</v>
+      </c>
+      <c r="E176" s="100" t="s">
+        <v>264</v>
+      </c>
+      <c r="F176" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G176" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H176" s="126" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="B176" s="105" t="s">
+      <c r="B177" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C176" s="106" t="s">
+      <c r="C177" s="106" t="s">
         <v>510</v>
       </c>
-      <c r="D176" s="107" t="s">
+      <c r="D177" s="107" t="s">
         <v>258</v>
       </c>
-      <c r="E176" s="105" t="s">
+      <c r="E177" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="F176" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="G176" s="105"/>
-      <c r="H176" s="108" t="s">
+      <c r="F177" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G177" s="105"/>
+      <c r="H177" s="108" t="s">
         <v>392</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="109" t="s">
-        <v>125</v>
-      </c>
-      <c r="B177" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C177" s="111" t="s">
-        <v>510</v>
-      </c>
-      <c r="D177" s="112" t="s">
-        <v>260</v>
-      </c>
-      <c r="E177" s="110" t="s">
-        <v>125</v>
-      </c>
-      <c r="F177" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G177" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H177" s="113" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -11038,57 +11044,57 @@
         <v>125</v>
       </c>
       <c r="B178" s="110" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C178" s="111" t="s">
         <v>510</v>
       </c>
       <c r="D178" s="112" t="s">
-        <v>259</v>
-      </c>
-      <c r="E178" s="110"/>
-      <c r="F178" s="110"/>
-      <c r="G178" s="110"/>
-      <c r="H178" s="113"/>
+        <v>260</v>
+      </c>
+      <c r="E178" s="110" t="s">
+        <v>125</v>
+      </c>
+      <c r="F178" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G178" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H178" s="113" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="109" t="s">
         <v>125</v>
       </c>
       <c r="B179" s="110" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C179" s="111" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D179" s="112" t="s">
-        <v>261</v>
-      </c>
-      <c r="E179" s="110" t="s">
-        <v>125</v>
-      </c>
-      <c r="F179" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G179" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H179" s="113" t="s">
-        <v>399</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="E179" s="110"/>
+      <c r="F179" s="110"/>
+      <c r="G179" s="110"/>
+      <c r="H179" s="113"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="109" t="s">
         <v>125</v>
       </c>
       <c r="B180" s="110" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C180" s="111" t="s">
         <v>511</v>
       </c>
       <c r="D180" s="112" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E180" s="110" t="s">
         <v>125</v>
@@ -11100,7 +11106,7 @@
         <v>5</v>
       </c>
       <c r="H180" s="113" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -11108,48 +11114,74 @@
         <v>125</v>
       </c>
       <c r="B181" s="110" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C181" s="111" t="s">
         <v>511</v>
       </c>
       <c r="D181" s="112" t="s">
+        <v>262</v>
+      </c>
+      <c r="E181" s="110" t="s">
+        <v>125</v>
+      </c>
+      <c r="F181" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G181" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H181" s="113" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="109" t="s">
+        <v>125</v>
+      </c>
+      <c r="B182" s="110" t="s">
+        <v>142</v>
+      </c>
+      <c r="C182" s="111" t="s">
+        <v>511</v>
+      </c>
+      <c r="D182" s="112" t="s">
         <v>263</v>
       </c>
-      <c r="E181" s="110"/>
-      <c r="F181" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G181" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H181" s="113" t="s">
+      <c r="E182" s="110"/>
+      <c r="F182" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G182" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H182" s="113" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="114" t="s">
+    <row r="183" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="B182" s="115" t="s">
+      <c r="B183" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="C182" s="116" t="s">
+      <c r="C183" s="116" t="s">
         <v>512</v>
       </c>
-      <c r="D182" s="117" t="s">
+      <c r="D183" s="117" t="s">
         <v>277</v>
       </c>
-      <c r="E182" s="115" t="s">
+      <c r="E183" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="F182" s="115" t="s">
-        <v>5</v>
-      </c>
-      <c r="G182" s="115" t="s">
-        <v>5</v>
-      </c>
-      <c r="H182" s="118" t="s">
+      <c r="F183" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="G183" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="H183" s="118" t="s">
         <v>399</v>
       </c>
     </row>

--- a/documentation/DataAndAPIMatchAware.xlsx
+++ b/documentation/DataAndAPIMatchAware.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Service Definitions" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Routing!$A$1:$E$185</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Routing!$A$1:$E$187</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="547">
   <si>
     <t>USER</t>
   </si>
@@ -1342,9 +1342,6 @@
     <t>/facilities/openFacility/:facilityId</t>
   </si>
   <si>
-    <t>Open this facility and all of its fields</t>
-  </si>
-  <si>
     <t>[FIELD]</t>
   </si>
   <si>
@@ -1670,6 +1667,21 @@
   </si>
   <si>
     <t>/teams/:teamId</t>
+  </si>
+  <si>
+    <t>/closures/openFieldOnly/:fieldId/:closureId</t>
+  </si>
+  <si>
+    <t>Copy closure that applies to facility, set end time to current, and swap it in the field</t>
+  </si>
+  <si>
+    <t>/facilities/reopenFields/:facilityId</t>
+  </si>
+  <si>
+    <t>Open this closed facility and all of its fields</t>
+  </si>
+  <si>
+    <t>Open all closed fields in this partially opened facility</t>
   </si>
 </sst>
 </file>
@@ -2974,7 +2986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E316"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K292" sqref="K292"/>
     </sheetView>
   </sheetViews>
@@ -6771,10 +6783,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H185"/>
+  <dimension ref="A1:H187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C144" sqref="C144"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6782,7 +6794,7 @@
     <col min="1" max="1" width="17.33203125" style="54" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.109375" style="54" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.109375" style="54" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.33203125" style="54" bestFit="1" customWidth="1"/>
@@ -7366,19 +7378,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="94" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B25" s="95" t="s">
         <v>140</v>
       </c>
       <c r="C25" s="96" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D25" s="127" t="s">
+        <v>521</v>
+      </c>
+      <c r="E25" s="95" t="s">
         <v>522</v>
-      </c>
-      <c r="E25" s="95" t="s">
-        <v>523</v>
       </c>
       <c r="F25" s="95" t="s">
         <v>5</v>
@@ -7390,19 +7402,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="55" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B26" s="50" t="s">
         <v>141</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D26" s="53" t="s">
         <v>157</v>
       </c>
       <c r="E26" s="50" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F26" s="50" t="s">
         <v>5</v>
@@ -7416,13 +7428,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="55" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B27" s="50" t="s">
         <v>142</v>
       </c>
       <c r="C27" s="52" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D27" s="53" t="s">
         <v>156</v>
@@ -7434,19 +7446,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="55" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B28" s="50" t="s">
         <v>140</v>
       </c>
       <c r="C28" s="52" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D28" s="53" t="s">
         <v>413</v>
       </c>
       <c r="E28" s="50" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F28" s="50" t="s">
         <v>5</v>
@@ -7460,19 +7472,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="55" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B29" s="50" t="s">
         <v>143</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D29" s="53" t="s">
         <v>158</v>
       </c>
       <c r="E29" s="50" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F29" s="50" t="s">
         <v>5</v>
@@ -7484,78 +7496,78 @@
         <v>408</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="56" t="s">
-        <v>519</v>
-      </c>
-      <c r="B30" s="57" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="55" t="s">
+        <v>518</v>
+      </c>
+      <c r="B30" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="C30" s="58" t="s">
-        <v>521</v>
-      </c>
-      <c r="D30" s="98" t="s">
+      <c r="C30" s="52" t="s">
+        <v>520</v>
+      </c>
+      <c r="D30" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="103" t="s">
+      <c r="E30" s="50"/>
+      <c r="F30" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="60" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="133" t="s">
+    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="56" t="s">
+        <v>518</v>
+      </c>
+      <c r="B31" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="58" t="s">
+        <v>542</v>
+      </c>
+      <c r="D31" s="98" t="s">
+        <v>543</v>
+      </c>
+      <c r="E31" s="57" t="s">
+        <v>518</v>
+      </c>
+      <c r="F31" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="103" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="134" t="s">
+      <c r="B32" s="134" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="135" t="s">
+      <c r="C32" s="135" t="s">
         <v>411</v>
       </c>
-      <c r="D31" s="136" t="s">
+      <c r="D32" s="136" t="s">
         <v>409</v>
       </c>
-      <c r="E31" s="134" t="s">
+      <c r="E32" s="134" t="s">
         <v>410</v>
       </c>
-      <c r="F31" s="134" t="s">
-        <v>5</v>
-      </c>
-      <c r="G31" s="134"/>
-      <c r="H31" s="146" t="s">
+      <c r="F32" s="134" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="134"/>
+      <c r="H32" s="146" t="s">
         <v>390</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="109" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C32" s="111" t="s">
-        <v>411</v>
-      </c>
-      <c r="D32" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="E32" s="110" t="s">
-        <v>89</v>
-      </c>
-      <c r="F32" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="113" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -7563,57 +7575,57 @@
         <v>89</v>
       </c>
       <c r="B33" s="110" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C33" s="111" t="s">
         <v>411</v>
       </c>
       <c r="D33" s="112" t="s">
-        <v>156</v>
-      </c>
-      <c r="E33" s="110"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="110"/>
-      <c r="H33" s="113"/>
+        <v>157</v>
+      </c>
+      <c r="E33" s="110" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="113" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="109" t="s">
         <v>89</v>
       </c>
       <c r="B34" s="110" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C34" s="111" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D34" s="112" t="s">
-        <v>413</v>
-      </c>
-      <c r="E34" s="110" t="s">
-        <v>89</v>
-      </c>
-      <c r="F34" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G34" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="113" t="s">
-        <v>397</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="E34" s="110"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="113"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="109" t="s">
         <v>89</v>
       </c>
       <c r="B35" s="110" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C35" s="111" t="s">
         <v>412</v>
       </c>
       <c r="D35" s="112" t="s">
-        <v>158</v>
+        <v>413</v>
       </c>
       <c r="E35" s="110" t="s">
         <v>89</v>
@@ -7625,49 +7637,49 @@
         <v>5</v>
       </c>
       <c r="H35" s="113" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="109" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="110" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="111" t="s">
+        <v>412</v>
+      </c>
+      <c r="D36" s="112" t="s">
+        <v>158</v>
+      </c>
+      <c r="E36" s="110" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" s="113" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="119" t="s">
-        <v>89</v>
-      </c>
-      <c r="B36" s="120" t="s">
-        <v>142</v>
-      </c>
-      <c r="C36" s="121" t="s">
-        <v>412</v>
-      </c>
-      <c r="D36" s="122" t="s">
-        <v>159</v>
-      </c>
-      <c r="E36" s="120"/>
-      <c r="F36" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G36" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="H36" s="123" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="119" t="s">
         <v>89</v>
       </c>
       <c r="B37" s="120" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C37" s="121" t="s">
-        <v>526</v>
+        <v>412</v>
       </c>
       <c r="D37" s="122" t="s">
-        <v>527</v>
-      </c>
-      <c r="E37" s="120" t="s">
-        <v>490</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="E37" s="120"/>
       <c r="F37" s="120" t="s">
         <v>5</v>
       </c>
@@ -7678,137 +7690,137 @@
         <v>397</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="137" t="s">
+    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="119" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="120" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="121" t="s">
+        <v>525</v>
+      </c>
+      <c r="D38" s="122" t="s">
+        <v>526</v>
+      </c>
+      <c r="E38" s="120" t="s">
+        <v>489</v>
+      </c>
+      <c r="F38" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H38" s="123" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="137" t="s">
+        <v>511</v>
+      </c>
+      <c r="B39" s="138" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="139" t="s">
+        <v>515</v>
+      </c>
+      <c r="D39" s="140" t="s">
         <v>512</v>
       </c>
-      <c r="B38" s="138" t="s">
-        <v>140</v>
-      </c>
-      <c r="C38" s="139" t="s">
-        <v>516</v>
-      </c>
-      <c r="D38" s="140" t="s">
+      <c r="E39" s="138" t="s">
         <v>513</v>
       </c>
-      <c r="E38" s="138" t="s">
-        <v>514</v>
-      </c>
-      <c r="F38" s="138" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" s="138"/>
-      <c r="H38" s="141" t="s">
+      <c r="F39" s="138" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="138"/>
+      <c r="H39" s="141" t="s">
         <v>390</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="147" t="s">
-        <v>512</v>
-      </c>
-      <c r="B39" s="142" t="s">
-        <v>141</v>
-      </c>
-      <c r="C39" s="143" t="s">
-        <v>516</v>
-      </c>
-      <c r="D39" s="144" t="s">
-        <v>515</v>
-      </c>
-      <c r="E39" s="142" t="s">
-        <v>512</v>
-      </c>
-      <c r="F39" s="142" t="s">
-        <v>5</v>
-      </c>
-      <c r="G39" s="142" t="s">
-        <v>5</v>
-      </c>
-      <c r="H39" s="145" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="147" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B40" s="142" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C40" s="143" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D40" s="144" t="s">
-        <v>414</v>
-      </c>
-      <c r="E40" s="142"/>
-      <c r="F40" s="142"/>
-      <c r="G40" s="142"/>
-      <c r="H40" s="145"/>
+        <v>514</v>
+      </c>
+      <c r="E40" s="142" t="s">
+        <v>511</v>
+      </c>
+      <c r="F40" s="142" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="142" t="s">
+        <v>5</v>
+      </c>
+      <c r="H40" s="145" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="147" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B41" s="142" t="s">
         <v>142</v>
       </c>
       <c r="C41" s="143" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="D41" s="144" t="s">
-        <v>531</v>
+        <v>414</v>
       </c>
       <c r="E41" s="142"/>
-      <c r="F41" s="142" t="s">
-        <v>5</v>
-      </c>
+      <c r="F41" s="142"/>
       <c r="G41" s="142"/>
-      <c r="H41" s="145" t="s">
-        <v>390</v>
-      </c>
+      <c r="H41" s="145"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="147" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B42" s="142" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C42" s="143" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D42" s="144" t="s">
-        <v>529</v>
-      </c>
-      <c r="E42" s="142" t="s">
-        <v>514</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="E42" s="142"/>
       <c r="F42" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="142" t="s">
-        <v>5</v>
-      </c>
+      <c r="G42" s="142"/>
       <c r="H42" s="145" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="147" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B43" s="142" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C43" s="143" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="D43" s="144" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="E43" s="142" t="s">
-        <v>490</v>
+        <v>513</v>
       </c>
       <c r="F43" s="142" t="s">
         <v>5</v>
@@ -7817,24 +7829,24 @@
         <v>5</v>
       </c>
       <c r="H43" s="145" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="147" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B44" s="142" t="s">
         <v>140</v>
       </c>
       <c r="C44" s="143" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D44" s="144" t="s">
-        <v>415</v>
+        <v>510</v>
       </c>
       <c r="E44" s="142" t="s">
-        <v>410</v>
+        <v>489</v>
       </c>
       <c r="F44" s="142" t="s">
         <v>5</v>
@@ -7846,80 +7858,80 @@
         <v>397</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="148" t="s">
-        <v>512</v>
-      </c>
-      <c r="B45" s="149" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="147" t="s">
+        <v>511</v>
+      </c>
+      <c r="B45" s="142" t="s">
         <v>140</v>
       </c>
-      <c r="C45" s="150" t="s">
+      <c r="C45" s="143" t="s">
+        <v>517</v>
+      </c>
+      <c r="D45" s="144" t="s">
+        <v>415</v>
+      </c>
+      <c r="E45" s="142" t="s">
+        <v>410</v>
+      </c>
+      <c r="F45" s="142" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="142" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="145" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="148" t="s">
+        <v>511</v>
+      </c>
+      <c r="B46" s="149" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="150" t="s">
+        <v>531</v>
+      </c>
+      <c r="D46" s="151" t="s">
         <v>532</v>
       </c>
-      <c r="D45" s="151" t="s">
-        <v>533</v>
-      </c>
-      <c r="E45" s="149" t="s">
-        <v>490</v>
-      </c>
-      <c r="F45" s="149" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="149" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" s="152" t="s">
+      <c r="E46" s="149" t="s">
+        <v>489</v>
+      </c>
+      <c r="F46" s="149" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="149" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="152" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="133" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="133" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="134" t="s">
+      <c r="B47" s="134" t="s">
         <v>140</v>
       </c>
-      <c r="C46" s="135" t="s">
+      <c r="C47" s="135" t="s">
         <v>416</v>
       </c>
-      <c r="D46" s="136" t="s">
+      <c r="D47" s="136" t="s">
         <v>212</v>
       </c>
-      <c r="E46" s="134" t="s">
+      <c r="E47" s="134" t="s">
         <v>422</v>
       </c>
-      <c r="F46" s="134" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="134"/>
-      <c r="H46" s="146" t="s">
+      <c r="F47" s="134" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="134"/>
+      <c r="H47" s="146" t="s">
         <v>390</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="109" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C47" s="111" t="s">
-        <v>416</v>
-      </c>
-      <c r="D47" s="112" t="s">
-        <v>214</v>
-      </c>
-      <c r="E47" s="110" t="s">
-        <v>97</v>
-      </c>
-      <c r="F47" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="113" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -7927,57 +7939,57 @@
         <v>97</v>
       </c>
       <c r="B48" s="110" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C48" s="111" t="s">
         <v>416</v>
       </c>
       <c r="D48" s="112" t="s">
-        <v>213</v>
-      </c>
-      <c r="E48" s="110"/>
-      <c r="F48" s="110"/>
-      <c r="G48" s="110"/>
-      <c r="H48" s="113"/>
+        <v>214</v>
+      </c>
+      <c r="E48" s="110" t="s">
+        <v>97</v>
+      </c>
+      <c r="F48" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="113" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="109" t="s">
         <v>97</v>
       </c>
       <c r="B49" s="110" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C49" s="111" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D49" s="112" t="s">
-        <v>252</v>
-      </c>
-      <c r="E49" s="110" t="s">
-        <v>97</v>
-      </c>
-      <c r="F49" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="113" t="s">
-        <v>397</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="E49" s="110"/>
+      <c r="F49" s="110"/>
+      <c r="G49" s="110"/>
+      <c r="H49" s="113"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="109" t="s">
         <v>97</v>
       </c>
       <c r="B50" s="110" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C50" s="111" t="s">
         <v>417</v>
       </c>
       <c r="D50" s="112" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="E50" s="110" t="s">
         <v>97</v>
@@ -7989,7 +8001,7 @@
         <v>5</v>
       </c>
       <c r="H50" s="113" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -7997,15 +8009,17 @@
         <v>97</v>
       </c>
       <c r="B51" s="110" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C51" s="111" t="s">
         <v>417</v>
       </c>
       <c r="D51" s="112" t="s">
-        <v>216</v>
-      </c>
-      <c r="E51" s="110"/>
+        <v>215</v>
+      </c>
+      <c r="E51" s="110" t="s">
+        <v>97</v>
+      </c>
       <c r="F51" s="110" t="s">
         <v>5</v>
       </c>
@@ -8013,7 +8027,7 @@
         <v>5</v>
       </c>
       <c r="H51" s="113" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -8021,17 +8035,15 @@
         <v>97</v>
       </c>
       <c r="B52" s="110" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C52" s="111" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D52" s="112" t="s">
-        <v>218</v>
-      </c>
-      <c r="E52" s="110" t="s">
-        <v>422</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="E52" s="110"/>
       <c r="F52" s="110" t="s">
         <v>5</v>
       </c>
@@ -8050,10 +8062,10 @@
         <v>140</v>
       </c>
       <c r="C53" s="111" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D53" s="112" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E53" s="110" t="s">
         <v>422</v>
@@ -8076,10 +8088,10 @@
         <v>140</v>
       </c>
       <c r="C54" s="111" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D54" s="112" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E54" s="110" t="s">
         <v>422</v>
@@ -8094,80 +8106,80 @@
         <v>397</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="119" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="B55" s="120" t="s">
+      <c r="B55" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="C55" s="121" t="s">
+      <c r="C55" s="111" t="s">
+        <v>420</v>
+      </c>
+      <c r="D55" s="112" t="s">
+        <v>217</v>
+      </c>
+      <c r="E55" s="110" t="s">
+        <v>422</v>
+      </c>
+      <c r="F55" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H55" s="113" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="119" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" s="120" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" s="121" t="s">
         <v>421</v>
       </c>
-      <c r="D55" s="122" t="s">
+      <c r="D56" s="122" t="s">
         <v>219</v>
       </c>
-      <c r="E55" s="120" t="s">
+      <c r="E56" s="120" t="s">
         <v>422</v>
       </c>
-      <c r="F55" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G55" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="H55" s="123" t="s">
+      <c r="F56" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H56" s="123" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="94" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="94" t="s">
         <v>205</v>
       </c>
-      <c r="B56" s="95" t="s">
+      <c r="B57" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C56" s="96" t="s">
+      <c r="C57" s="96" t="s">
         <v>206</v>
       </c>
-      <c r="D56" s="97" t="s">
+      <c r="D57" s="97" t="s">
         <v>424</v>
       </c>
-      <c r="E56" s="95" t="s">
+      <c r="E57" s="95" t="s">
         <v>423</v>
       </c>
-      <c r="F56" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="G56" s="95"/>
-      <c r="H56" s="99" t="s">
+      <c r="F57" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="95"/>
+      <c r="H57" s="99" t="s">
         <v>390</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="55" t="s">
-        <v>205</v>
-      </c>
-      <c r="B57" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C57" s="52" t="s">
-        <v>206</v>
-      </c>
-      <c r="D57" s="51" t="s">
-        <v>209</v>
-      </c>
-      <c r="E57" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="F57" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="60" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -8175,57 +8187,57 @@
         <v>205</v>
       </c>
       <c r="B58" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C58" s="52" t="s">
         <v>206</v>
       </c>
       <c r="D58" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="E58" s="50"/>
-      <c r="F58" s="50"/>
-      <c r="G58" s="50"/>
-      <c r="H58" s="60"/>
+        <v>209</v>
+      </c>
+      <c r="E58" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="F58" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="60" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="55" t="s">
         <v>205</v>
       </c>
       <c r="B59" s="50" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C59" s="52" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D59" s="51" t="s">
-        <v>251</v>
-      </c>
-      <c r="E59" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="F59" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="60" t="s">
-        <v>397</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="60"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="55" t="s">
         <v>205</v>
       </c>
       <c r="B60" s="50" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C60" s="52" t="s">
         <v>207</v>
       </c>
       <c r="D60" s="51" t="s">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="E60" s="50" t="s">
         <v>205</v>
@@ -8237,81 +8249,81 @@
         <v>5</v>
       </c>
       <c r="H60" s="60" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="B61" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="D61" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="E61" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="F61" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H61" s="60" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="124" t="s">
+    <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="124" t="s">
         <v>205</v>
       </c>
-      <c r="B61" s="100" t="s">
+      <c r="B62" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C61" s="101" t="s">
+      <c r="C62" s="101" t="s">
         <v>207</v>
       </c>
-      <c r="D61" s="125" t="s">
+      <c r="D62" s="125" t="s">
         <v>211</v>
       </c>
-      <c r="E61" s="100"/>
-      <c r="F61" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="G61" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="H61" s="126" t="s">
+      <c r="E62" s="100"/>
+      <c r="F62" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="126" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="104" t="s">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="B62" s="105" t="s">
+      <c r="B63" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C62" s="106" t="s">
+      <c r="C63" s="106" t="s">
         <v>425</v>
       </c>
-      <c r="D62" s="107" t="s">
+      <c r="D63" s="107" t="s">
         <v>427</v>
       </c>
-      <c r="E62" s="105" t="s">
+      <c r="E63" s="105" t="s">
         <v>428</v>
       </c>
-      <c r="F62" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="105"/>
-      <c r="H62" s="108" t="s">
+      <c r="F63" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" s="105"/>
+      <c r="H63" s="108" t="s">
         <v>390</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="109" t="s">
-        <v>38</v>
-      </c>
-      <c r="B63" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C63" s="111" t="s">
-        <v>425</v>
-      </c>
-      <c r="D63" s="112" t="s">
-        <v>189</v>
-      </c>
-      <c r="E63" s="110" t="s">
-        <v>38</v>
-      </c>
-      <c r="F63" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G63" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H63" s="113" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -8319,57 +8331,57 @@
         <v>38</v>
       </c>
       <c r="B64" s="110" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C64" s="111" t="s">
         <v>425</v>
       </c>
       <c r="D64" s="112" t="s">
-        <v>195</v>
-      </c>
-      <c r="E64" s="110"/>
-      <c r="F64" s="110"/>
-      <c r="G64" s="110"/>
-      <c r="H64" s="113"/>
+        <v>189</v>
+      </c>
+      <c r="E64" s="110" t="s">
+        <v>38</v>
+      </c>
+      <c r="F64" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G64" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H64" s="113" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="109" t="s">
         <v>38</v>
       </c>
       <c r="B65" s="110" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C65" s="111" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D65" s="112" t="s">
-        <v>271</v>
-      </c>
-      <c r="E65" s="110" t="s">
-        <v>38</v>
-      </c>
-      <c r="F65" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G65" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H65" s="113" t="s">
-        <v>397</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="E65" s="110"/>
+      <c r="F65" s="110"/>
+      <c r="G65" s="110"/>
+      <c r="H65" s="113"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="109" t="s">
         <v>38</v>
       </c>
       <c r="B66" s="110" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C66" s="111" t="s">
         <v>426</v>
       </c>
       <c r="D66" s="112" t="s">
-        <v>190</v>
+        <v>271</v>
       </c>
       <c r="E66" s="110" t="s">
         <v>38</v>
@@ -8381,7 +8393,7 @@
         <v>5</v>
       </c>
       <c r="H66" s="113" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -8389,15 +8401,17 @@
         <v>38</v>
       </c>
       <c r="B67" s="110" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C67" s="111" t="s">
         <v>426</v>
       </c>
       <c r="D67" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="E67" s="110"/>
+        <v>190</v>
+      </c>
+      <c r="E67" s="110" t="s">
+        <v>38</v>
+      </c>
       <c r="F67" s="110" t="s">
         <v>5</v>
       </c>
@@ -8405,7 +8419,7 @@
         <v>5</v>
       </c>
       <c r="H67" s="113" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -8413,17 +8427,15 @@
         <v>38</v>
       </c>
       <c r="B68" s="110" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C68" s="111" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D68" s="112" t="s">
-        <v>430</v>
-      </c>
-      <c r="E68" s="110" t="s">
-        <v>38</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="E68" s="110"/>
       <c r="F68" s="110" t="s">
         <v>5</v>
       </c>
@@ -8442,10 +8454,10 @@
         <v>143</v>
       </c>
       <c r="C69" s="111" t="s">
-        <v>524</v>
+        <v>429</v>
       </c>
       <c r="D69" s="112" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E69" s="110" t="s">
         <v>38</v>
@@ -8468,7 +8480,7 @@
         <v>143</v>
       </c>
       <c r="C70" s="111" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D70" s="112" t="s">
         <v>431</v>
@@ -8486,112 +8498,120 @@
         <v>397</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="119" t="s">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="B71" s="120" t="s">
+      <c r="B71" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="C71" s="121" t="s">
+      <c r="C71" s="111" t="s">
+        <v>524</v>
+      </c>
+      <c r="D71" s="112" t="s">
+        <v>431</v>
+      </c>
+      <c r="E71" s="110" t="s">
+        <v>38</v>
+      </c>
+      <c r="F71" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G71" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H71" s="113" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="119" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" s="120" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" s="121" t="s">
         <v>432</v>
       </c>
-      <c r="D71" s="122" t="s">
+      <c r="D72" s="122" t="s">
+        <v>545</v>
+      </c>
+      <c r="E72" s="120" t="s">
+        <v>38</v>
+      </c>
+      <c r="F72" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="123" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="119" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" s="120" t="s">
+        <v>143</v>
+      </c>
+      <c r="C73" s="121" t="s">
+        <v>544</v>
+      </c>
+      <c r="D73" s="122" t="s">
+        <v>546</v>
+      </c>
+      <c r="E73" s="120" t="s">
+        <v>38</v>
+      </c>
+      <c r="F73" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G73" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H73" s="123" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="94" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74" s="95" t="s">
+        <v>140</v>
+      </c>
+      <c r="C74" s="96" t="s">
+        <v>437</v>
+      </c>
+      <c r="D74" s="97" t="s">
+        <v>434</v>
+      </c>
+      <c r="E74" s="95" t="s">
         <v>433</v>
       </c>
-      <c r="E71" s="120" t="s">
-        <v>38</v>
-      </c>
-      <c r="F71" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G71" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="H71" s="123" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="94" t="s">
-        <v>63</v>
-      </c>
-      <c r="B72" s="95" t="s">
-        <v>140</v>
-      </c>
-      <c r="C72" s="96" t="s">
-        <v>438</v>
-      </c>
-      <c r="D72" s="97" t="s">
-        <v>435</v>
-      </c>
-      <c r="E72" s="95" t="s">
-        <v>434</v>
-      </c>
-      <c r="F72" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="95"/>
-      <c r="H72" s="99" t="s">
+      <c r="F74" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G74" s="95"/>
+      <c r="H74" s="99" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="B73" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C73" s="52" t="s">
-        <v>438</v>
-      </c>
-      <c r="D73" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="E73" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="F73" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G73" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H73" s="60" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="B74" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="C74" s="52" t="s">
-        <v>438</v>
-      </c>
-      <c r="D74" s="51" t="s">
-        <v>196</v>
-      </c>
-      <c r="E74" s="50"/>
-      <c r="F74" s="50"/>
-      <c r="G74" s="50"/>
-      <c r="H74" s="60"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="55" t="s">
         <v>63</v>
       </c>
       <c r="B75" s="50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C75" s="52" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D75" s="51" t="s">
-        <v>248</v>
+        <v>192</v>
       </c>
       <c r="E75" s="50" t="s">
         <v>63</v>
@@ -8603,7 +8623,7 @@
         <v>5</v>
       </c>
       <c r="H75" s="60" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -8611,131 +8631,131 @@
         <v>63</v>
       </c>
       <c r="B76" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="C76" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="D76" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="E76" s="50"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="60"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B77" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C77" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="D77" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="E77" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="F77" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G77" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H77" s="60" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B78" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="C76" s="52" t="s">
+      <c r="C78" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="D78" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="E78" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="F78" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G78" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H78" s="60" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="124" t="s">
+        <v>63</v>
+      </c>
+      <c r="B79" s="100" t="s">
+        <v>142</v>
+      </c>
+      <c r="C79" s="101" t="s">
+        <v>438</v>
+      </c>
+      <c r="D79" s="125" t="s">
+        <v>194</v>
+      </c>
+      <c r="E79" s="100"/>
+      <c r="F79" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G79" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H79" s="126" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="104" t="s">
+        <v>58</v>
+      </c>
+      <c r="B80" s="105" t="s">
+        <v>140</v>
+      </c>
+      <c r="C80" s="106" t="s">
         <v>439</v>
       </c>
-      <c r="D76" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="E76" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="F76" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H76" s="60" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="124" t="s">
-        <v>63</v>
-      </c>
-      <c r="B77" s="100" t="s">
-        <v>142</v>
-      </c>
-      <c r="C77" s="101" t="s">
-        <v>439</v>
-      </c>
-      <c r="D77" s="125" t="s">
-        <v>194</v>
-      </c>
-      <c r="E77" s="100"/>
-      <c r="F77" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="G77" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="H77" s="126" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="104" t="s">
-        <v>58</v>
-      </c>
-      <c r="B78" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="C78" s="106" t="s">
-        <v>440</v>
-      </c>
-      <c r="D78" s="107" t="s">
+      <c r="D80" s="107" t="s">
+        <v>435</v>
+      </c>
+      <c r="E80" s="105" t="s">
         <v>436</v>
       </c>
-      <c r="E78" s="105" t="s">
-        <v>437</v>
-      </c>
-      <c r="F78" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="G78" s="105"/>
-      <c r="H78" s="108" t="s">
+      <c r="F80" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G80" s="105"/>
+      <c r="H80" s="108" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="109" t="s">
-        <v>58</v>
-      </c>
-      <c r="B79" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C79" s="111" t="s">
-        <v>440</v>
-      </c>
-      <c r="D79" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="E79" s="110" t="s">
-        <v>58</v>
-      </c>
-      <c r="F79" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G79" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H79" s="113" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="109" t="s">
-        <v>58</v>
-      </c>
-      <c r="B80" s="110" t="s">
-        <v>142</v>
-      </c>
-      <c r="C80" s="111" t="s">
-        <v>440</v>
-      </c>
-      <c r="D80" s="112" t="s">
-        <v>197</v>
-      </c>
-      <c r="E80" s="110"/>
-      <c r="F80" s="110"/>
-      <c r="G80" s="110"/>
-      <c r="H80" s="113"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="109" t="s">
         <v>58</v>
       </c>
       <c r="B81" s="110" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C81" s="111" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D81" s="112" t="s">
-        <v>249</v>
+        <v>198</v>
       </c>
       <c r="E81" s="110" t="s">
         <v>58</v>
@@ -8747,7 +8767,7 @@
         <v>5</v>
       </c>
       <c r="H81" s="113" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -8755,131 +8775,131 @@
         <v>58</v>
       </c>
       <c r="B82" s="110" t="s">
+        <v>142</v>
+      </c>
+      <c r="C82" s="111" t="s">
+        <v>439</v>
+      </c>
+      <c r="D82" s="112" t="s">
+        <v>197</v>
+      </c>
+      <c r="E82" s="110"/>
+      <c r="F82" s="110"/>
+      <c r="G82" s="110"/>
+      <c r="H82" s="113"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="109" t="s">
+        <v>58</v>
+      </c>
+      <c r="B83" s="110" t="s">
+        <v>140</v>
+      </c>
+      <c r="C83" s="111" t="s">
+        <v>440</v>
+      </c>
+      <c r="D83" s="112" t="s">
+        <v>249</v>
+      </c>
+      <c r="E83" s="110" t="s">
+        <v>58</v>
+      </c>
+      <c r="F83" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="113" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="109" t="s">
+        <v>58</v>
+      </c>
+      <c r="B84" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="C82" s="111" t="s">
+      <c r="C84" s="111" t="s">
+        <v>440</v>
+      </c>
+      <c r="D84" s="112" t="s">
+        <v>199</v>
+      </c>
+      <c r="E84" s="110" t="s">
+        <v>58</v>
+      </c>
+      <c r="F84" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G84" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H84" s="113" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="114" t="s">
+        <v>58</v>
+      </c>
+      <c r="B85" s="115" t="s">
+        <v>142</v>
+      </c>
+      <c r="C85" s="116" t="s">
+        <v>440</v>
+      </c>
+      <c r="D85" s="117" t="s">
+        <v>200</v>
+      </c>
+      <c r="E85" s="115"/>
+      <c r="F85" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="G85" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="H85" s="118" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="94" t="s">
+        <v>289</v>
+      </c>
+      <c r="B86" s="95" t="s">
+        <v>140</v>
+      </c>
+      <c r="C86" s="96" t="s">
         <v>441</v>
       </c>
-      <c r="D82" s="112" t="s">
-        <v>199</v>
-      </c>
-      <c r="E82" s="110" t="s">
-        <v>58</v>
-      </c>
-      <c r="F82" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G82" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H82" s="113" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="114" t="s">
-        <v>58</v>
-      </c>
-      <c r="B83" s="115" t="s">
-        <v>142</v>
-      </c>
-      <c r="C83" s="116" t="s">
-        <v>441</v>
-      </c>
-      <c r="D83" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="E83" s="115"/>
-      <c r="F83" s="115" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="115" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="118" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="94" t="s">
-        <v>289</v>
-      </c>
-      <c r="B84" s="95" t="s">
-        <v>140</v>
-      </c>
-      <c r="C84" s="96" t="s">
-        <v>442</v>
-      </c>
-      <c r="D84" s="127" t="s">
-        <v>445</v>
-      </c>
-      <c r="E84" s="95" t="s">
+      <c r="D86" s="127" t="s">
         <v>444</v>
       </c>
-      <c r="F84" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="G84" s="95"/>
-      <c r="H84" s="99" t="s">
+      <c r="E86" s="95" t="s">
+        <v>443</v>
+      </c>
+      <c r="F86" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G86" s="95"/>
+      <c r="H86" s="99" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="B85" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C85" s="52" t="s">
-        <v>442</v>
-      </c>
-      <c r="D85" s="53" t="s">
-        <v>446</v>
-      </c>
-      <c r="E85" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="F85" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G85" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H85" s="60" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="B86" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="C86" s="52" t="s">
-        <v>442</v>
-      </c>
-      <c r="D86" s="53" t="s">
-        <v>447</v>
-      </c>
-      <c r="E86" s="50"/>
-      <c r="F86" s="50"/>
-      <c r="G86" s="50"/>
-      <c r="H86" s="60"/>
     </row>
     <row r="87" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="55" t="s">
         <v>289</v>
       </c>
       <c r="B87" s="50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C87" s="52" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D87" s="53" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E87" s="50" t="s">
         <v>289</v>
@@ -8891,7 +8911,7 @@
         <v>5</v>
       </c>
       <c r="H87" s="60" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="88" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.3">
@@ -8899,131 +8919,131 @@
         <v>289</v>
       </c>
       <c r="B88" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="C88" s="52" t="s">
+        <v>441</v>
+      </c>
+      <c r="D88" s="53" t="s">
+        <v>446</v>
+      </c>
+      <c r="E88" s="50"/>
+      <c r="F88" s="50"/>
+      <c r="G88" s="50"/>
+      <c r="H88" s="60"/>
+    </row>
+    <row r="89" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="B89" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C89" s="52" t="s">
+        <v>442</v>
+      </c>
+      <c r="D89" s="53" t="s">
+        <v>447</v>
+      </c>
+      <c r="E89" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="F89" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="60" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="B90" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="C88" s="52" t="s">
-        <v>443</v>
-      </c>
-      <c r="D88" s="53" t="s">
+      <c r="C90" s="52" t="s">
+        <v>442</v>
+      </c>
+      <c r="D90" s="53" t="s">
+        <v>448</v>
+      </c>
+      <c r="E90" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="F90" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G90" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H90" s="60" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="128" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="124" t="s">
+        <v>289</v>
+      </c>
+      <c r="B91" s="100" t="s">
+        <v>142</v>
+      </c>
+      <c r="C91" s="101" t="s">
+        <v>442</v>
+      </c>
+      <c r="D91" s="102" t="s">
         <v>449</v>
       </c>
-      <c r="E88" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="F88" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G88" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H88" s="60" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" s="128" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="124" t="s">
-        <v>289</v>
-      </c>
-      <c r="B89" s="100" t="s">
-        <v>142</v>
-      </c>
-      <c r="C89" s="101" t="s">
-        <v>443</v>
-      </c>
-      <c r="D89" s="102" t="s">
+      <c r="E91" s="100"/>
+      <c r="F91" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="126" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" s="105" t="s">
+        <v>140</v>
+      </c>
+      <c r="C92" s="106" t="s">
         <v>450</v>
       </c>
-      <c r="E89" s="100"/>
-      <c r="F89" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="126" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="B90" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="C90" s="106" t="s">
-        <v>451</v>
-      </c>
-      <c r="D90" s="107" t="s">
-        <v>453</v>
-      </c>
-      <c r="E90" s="105" t="s">
-        <v>464</v>
-      </c>
-      <c r="F90" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="G90" s="105"/>
-      <c r="H90" s="108" t="s">
+      <c r="D92" s="107" t="s">
+        <v>452</v>
+      </c>
+      <c r="E92" s="105" t="s">
+        <v>463</v>
+      </c>
+      <c r="F92" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G92" s="105"/>
+      <c r="H92" s="108" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B91" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C91" s="111" t="s">
-        <v>451</v>
-      </c>
-      <c r="D91" s="112" t="s">
-        <v>161</v>
-      </c>
-      <c r="E91" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="F91" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="113" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B92" s="110" t="s">
-        <v>142</v>
-      </c>
-      <c r="C92" s="111" t="s">
-        <v>451</v>
-      </c>
-      <c r="D92" s="112" t="s">
-        <v>160</v>
-      </c>
-      <c r="E92" s="110"/>
-      <c r="F92" s="110"/>
-      <c r="G92" s="110"/>
-      <c r="H92" s="113"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="109" t="s">
         <v>10</v>
       </c>
       <c r="B93" s="110" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C93" s="111" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D93" s="112" t="s">
-        <v>243</v>
+        <v>161</v>
       </c>
       <c r="E93" s="110" t="s">
         <v>10</v>
@@ -9035,7 +9055,7 @@
         <v>5</v>
       </c>
       <c r="H93" s="113" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
@@ -9043,133 +9063,135 @@
         <v>10</v>
       </c>
       <c r="B94" s="110" t="s">
+        <v>142</v>
+      </c>
+      <c r="C94" s="111" t="s">
+        <v>450</v>
+      </c>
+      <c r="D94" s="112" t="s">
+        <v>160</v>
+      </c>
+      <c r="E94" s="110"/>
+      <c r="F94" s="110"/>
+      <c r="G94" s="110"/>
+      <c r="H94" s="113"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" s="110" t="s">
+        <v>140</v>
+      </c>
+      <c r="C95" s="111" t="s">
+        <v>451</v>
+      </c>
+      <c r="D95" s="112" t="s">
+        <v>243</v>
+      </c>
+      <c r="E95" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G95" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H95" s="113" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="C94" s="111" t="s">
-        <v>452</v>
-      </c>
-      <c r="D94" s="112" t="s">
+      <c r="C96" s="111" t="s">
+        <v>451</v>
+      </c>
+      <c r="D96" s="112" t="s">
         <v>162</v>
       </c>
-      <c r="E94" s="110" t="s">
+      <c r="E96" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="F94" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="113" t="s">
+      <c r="F96" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G96" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H96" s="113" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="119" t="s">
+    <row r="97" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="B95" s="120" t="s">
+      <c r="B97" s="120" t="s">
         <v>142</v>
       </c>
-      <c r="C95" s="121" t="s">
-        <v>452</v>
-      </c>
-      <c r="D95" s="122" t="s">
+      <c r="C97" s="121" t="s">
+        <v>451</v>
+      </c>
+      <c r="D97" s="122" t="s">
         <v>163</v>
       </c>
-      <c r="E95" s="120"/>
-      <c r="F95" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G95" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="H95" s="123" t="s">
+      <c r="E97" s="120"/>
+      <c r="F97" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G97" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H97" s="123" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="94" t="s">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="94" t="s">
         <v>164</v>
       </c>
-      <c r="B96" s="95" t="s">
+      <c r="B98" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C96" s="96" t="s">
+      <c r="C98" s="96" t="s">
+        <v>453</v>
+      </c>
+      <c r="D98" s="97" t="s">
         <v>454</v>
       </c>
-      <c r="D96" s="97" t="s">
+      <c r="E98" s="95" t="s">
         <v>455</v>
       </c>
-      <c r="E96" s="95" t="s">
-        <v>456</v>
-      </c>
-      <c r="F96" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="G96" s="95"/>
-      <c r="H96" s="99" t="s">
+      <c r="F98" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G98" s="95"/>
+      <c r="H98" s="99" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="55" t="s">
-        <v>164</v>
-      </c>
-      <c r="B97" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C97" s="52" t="s">
-        <v>454</v>
-      </c>
-      <c r="D97" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="E97" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="F97" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G97" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H97" s="60" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="55" t="s">
-        <v>164</v>
-      </c>
-      <c r="B98" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="C98" s="52" t="s">
-        <v>454</v>
-      </c>
-      <c r="D98" s="51" t="s">
-        <v>270</v>
-      </c>
-      <c r="E98" s="50"/>
-      <c r="F98" s="50"/>
-      <c r="G98" s="50"/>
-      <c r="H98" s="60"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="55" t="s">
         <v>164</v>
       </c>
       <c r="B99" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C99" s="52" t="s">
-        <v>537</v>
+        <v>453</v>
       </c>
       <c r="D99" s="51" t="s">
-        <v>538</v>
-      </c>
-      <c r="E99" s="50"/>
+        <v>165</v>
+      </c>
+      <c r="E99" s="50" t="s">
+        <v>164</v>
+      </c>
       <c r="F99" s="50" t="s">
         <v>5</v>
       </c>
@@ -9177,7 +9199,7 @@
         <v>5</v>
       </c>
       <c r="H99" s="60" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
@@ -9188,38 +9210,30 @@
         <v>142</v>
       </c>
       <c r="C100" s="52" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D100" s="51" t="s">
-        <v>458</v>
+        <v>270</v>
       </c>
       <c r="E100" s="50"/>
-      <c r="F100" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="60" t="s">
-        <v>397</v>
-      </c>
+      <c r="F100" s="50"/>
+      <c r="G100" s="50"/>
+      <c r="H100" s="60"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="55" t="s">
         <v>164</v>
       </c>
       <c r="B101" s="50" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C101" s="52" t="s">
-        <v>459</v>
+        <v>536</v>
       </c>
       <c r="D101" s="51" t="s">
-        <v>461</v>
-      </c>
-      <c r="E101" s="50" t="s">
-        <v>460</v>
-      </c>
+        <v>537</v>
+      </c>
+      <c r="E101" s="50"/>
       <c r="F101" s="50" t="s">
         <v>5</v>
       </c>
@@ -9230,112 +9244,118 @@
         <v>397</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="124" t="s">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="B102" s="100" t="s">
+      <c r="B102" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="C102" s="52" t="s">
+        <v>456</v>
+      </c>
+      <c r="D102" s="51" t="s">
+        <v>457</v>
+      </c>
+      <c r="E102" s="50"/>
+      <c r="F102" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="60" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="B103" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="C102" s="101" t="s">
+      <c r="C103" s="52" t="s">
+        <v>458</v>
+      </c>
+      <c r="D103" s="51" t="s">
+        <v>460</v>
+      </c>
+      <c r="E103" s="50" t="s">
+        <v>459</v>
+      </c>
+      <c r="F103" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G103" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H103" s="60" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="124" t="s">
+        <v>164</v>
+      </c>
+      <c r="B104" s="100" t="s">
+        <v>140</v>
+      </c>
+      <c r="C104" s="101" t="s">
+        <v>461</v>
+      </c>
+      <c r="D104" s="125" t="s">
         <v>462</v>
       </c>
-      <c r="D102" s="125" t="s">
+      <c r="E104" s="100" t="s">
         <v>463</v>
       </c>
-      <c r="E102" s="100" t="s">
+      <c r="F104" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G104" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H104" s="126" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="104" t="s">
+        <v>90</v>
+      </c>
+      <c r="B105" s="105" t="s">
+        <v>140</v>
+      </c>
+      <c r="C105" s="106" t="s">
         <v>464</v>
       </c>
-      <c r="F102" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="126" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="104" t="s">
-        <v>90</v>
-      </c>
-      <c r="B103" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="C103" s="106" t="s">
-        <v>465</v>
-      </c>
-      <c r="D103" s="107" t="s">
-        <v>468</v>
-      </c>
-      <c r="E103" s="105" t="s">
+      <c r="D105" s="107" t="s">
         <v>467</v>
       </c>
-      <c r="F103" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="G103" s="105"/>
-      <c r="H103" s="108" t="s">
+      <c r="E105" s="105" t="s">
+        <v>466</v>
+      </c>
+      <c r="F105" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G105" s="105"/>
+      <c r="H105" s="108" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="109" t="s">
-        <v>90</v>
-      </c>
-      <c r="B104" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C104" s="111" t="s">
-        <v>465</v>
-      </c>
-      <c r="D104" s="112" t="s">
-        <v>167</v>
-      </c>
-      <c r="E104" s="110" t="s">
-        <v>90</v>
-      </c>
-      <c r="F104" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G104" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H104" s="113" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="109" t="s">
-        <v>90</v>
-      </c>
-      <c r="B105" s="110" t="s">
-        <v>142</v>
-      </c>
-      <c r="C105" s="111" t="s">
-        <v>465</v>
-      </c>
-      <c r="D105" s="112" t="s">
-        <v>166</v>
-      </c>
-      <c r="E105" s="110"/>
-      <c r="F105" s="110"/>
-      <c r="G105" s="110"/>
-      <c r="H105" s="113"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="109" t="s">
         <v>90</v>
       </c>
       <c r="B106" s="110" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C106" s="111" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D106" s="112" t="s">
-        <v>244</v>
+        <v>167</v>
       </c>
       <c r="E106" s="110" t="s">
         <v>90</v>
@@ -9347,7 +9367,7 @@
         <v>5</v>
       </c>
       <c r="H106" s="113" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
@@ -9355,131 +9375,131 @@
         <v>90</v>
       </c>
       <c r="B107" s="110" t="s">
+        <v>142</v>
+      </c>
+      <c r="C107" s="111" t="s">
+        <v>464</v>
+      </c>
+      <c r="D107" s="112" t="s">
+        <v>166</v>
+      </c>
+      <c r="E107" s="110"/>
+      <c r="F107" s="110"/>
+      <c r="G107" s="110"/>
+      <c r="H107" s="113"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="109" t="s">
+        <v>90</v>
+      </c>
+      <c r="B108" s="110" t="s">
+        <v>140</v>
+      </c>
+      <c r="C108" s="111" t="s">
+        <v>465</v>
+      </c>
+      <c r="D108" s="112" t="s">
+        <v>244</v>
+      </c>
+      <c r="E108" s="110" t="s">
+        <v>90</v>
+      </c>
+      <c r="F108" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G108" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H108" s="113" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="109" t="s">
+        <v>90</v>
+      </c>
+      <c r="B109" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="C107" s="111" t="s">
-        <v>466</v>
-      </c>
-      <c r="D107" s="112" t="s">
+      <c r="C109" s="111" t="s">
+        <v>465</v>
+      </c>
+      <c r="D109" s="112" t="s">
         <v>168</v>
       </c>
-      <c r="E107" s="110" t="s">
+      <c r="E109" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="F107" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G107" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H107" s="113" t="s">
+      <c r="F109" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G109" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H109" s="113" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="119" t="s">
+    <row r="110" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="119" t="s">
         <v>90</v>
       </c>
-      <c r="B108" s="120" t="s">
+      <c r="B110" s="120" t="s">
         <v>142</v>
       </c>
-      <c r="C108" s="121" t="s">
-        <v>466</v>
-      </c>
-      <c r="D108" s="122" t="s">
+      <c r="C110" s="121" t="s">
+        <v>465</v>
+      </c>
+      <c r="D110" s="122" t="s">
         <v>169</v>
       </c>
-      <c r="E108" s="120"/>
-      <c r="F108" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G108" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="H108" s="123" t="s">
+      <c r="E110" s="120"/>
+      <c r="F110" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G110" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H110" s="123" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="94" t="s">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="94" t="s">
         <v>242</v>
       </c>
-      <c r="B109" s="95" t="s">
+      <c r="B111" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C109" s="96" t="s">
+      <c r="C111" s="96" t="s">
         <v>233</v>
       </c>
-      <c r="D109" s="97" t="s">
+      <c r="D111" s="97" t="s">
         <v>234</v>
       </c>
-      <c r="E109" s="95" t="s">
-        <v>469</v>
-      </c>
-      <c r="F109" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="G109" s="95"/>
-      <c r="H109" s="99" t="s">
+      <c r="E111" s="95" t="s">
+        <v>468</v>
+      </c>
+      <c r="F111" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G111" s="95"/>
+      <c r="H111" s="99" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="55" t="s">
-        <v>242</v>
-      </c>
-      <c r="B110" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C110" s="52" t="s">
-        <v>233</v>
-      </c>
-      <c r="D110" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="E110" s="50" t="s">
-        <v>242</v>
-      </c>
-      <c r="F110" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G110" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H110" s="60" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="55" t="s">
-        <v>242</v>
-      </c>
-      <c r="B111" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="C111" s="52" t="s">
-        <v>233</v>
-      </c>
-      <c r="D111" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="E111" s="50"/>
-      <c r="F111" s="50"/>
-      <c r="G111" s="50"/>
-      <c r="H111" s="60"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="55" t="s">
         <v>242</v>
       </c>
       <c r="B112" s="50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C112" s="52" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D112" s="51" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="E112" s="50" t="s">
         <v>242</v>
@@ -9491,7 +9511,7 @@
         <v>5</v>
       </c>
       <c r="H112" s="60" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
@@ -9499,41 +9519,35 @@
         <v>242</v>
       </c>
       <c r="B113" s="50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C113" s="52" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D113" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="E113" s="50" t="s">
-        <v>242</v>
-      </c>
-      <c r="F113" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G113" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H113" s="60" t="s">
-        <v>408</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="E113" s="50"/>
+      <c r="F113" s="50"/>
+      <c r="G113" s="50"/>
+      <c r="H113" s="60"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="55" t="s">
         <v>242</v>
       </c>
       <c r="B114" s="50" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C114" s="52" t="s">
         <v>237</v>
       </c>
       <c r="D114" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="E114" s="50"/>
+        <v>255</v>
+      </c>
+      <c r="E114" s="50" t="s">
+        <v>242</v>
+      </c>
       <c r="F114" s="50" t="s">
         <v>5</v>
       </c>
@@ -9549,133 +9563,139 @@
         <v>242</v>
       </c>
       <c r="B115" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="C115" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="D115" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="E115" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="F115" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G115" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H115" s="60" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="B116" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="C116" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="D116" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="E116" s="50"/>
+      <c r="F116" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G116" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H116" s="60" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="B117" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="C115" s="52" t="s">
+      <c r="C117" s="52" t="s">
         <v>272</v>
       </c>
-      <c r="D115" s="51" t="s">
+      <c r="D117" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="E115" s="50" t="s">
+      <c r="E117" s="50" t="s">
+        <v>468</v>
+      </c>
+      <c r="F117" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G117" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H117" s="60" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="124" t="s">
+        <v>242</v>
+      </c>
+      <c r="B118" s="100" t="s">
+        <v>140</v>
+      </c>
+      <c r="C118" s="101" t="s">
+        <v>240</v>
+      </c>
+      <c r="D118" s="125" t="s">
+        <v>241</v>
+      </c>
+      <c r="E118" s="100" t="s">
+        <v>468</v>
+      </c>
+      <c r="F118" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G118" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H118" s="126" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="104" t="s">
+        <v>114</v>
+      </c>
+      <c r="B119" s="105" t="s">
+        <v>140</v>
+      </c>
+      <c r="C119" s="106" t="s">
+        <v>470</v>
+      </c>
+      <c r="D119" s="107" t="s">
+        <v>227</v>
+      </c>
+      <c r="E119" s="105" t="s">
         <v>469</v>
       </c>
-      <c r="F115" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G115" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H115" s="60" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="124" t="s">
-        <v>242</v>
-      </c>
-      <c r="B116" s="100" t="s">
-        <v>140</v>
-      </c>
-      <c r="C116" s="101" t="s">
-        <v>240</v>
-      </c>
-      <c r="D116" s="125" t="s">
-        <v>241</v>
-      </c>
-      <c r="E116" s="100" t="s">
-        <v>469</v>
-      </c>
-      <c r="F116" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="G116" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="H116" s="126" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="104" t="s">
-        <v>114</v>
-      </c>
-      <c r="B117" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="C117" s="106" t="s">
-        <v>471</v>
-      </c>
-      <c r="D117" s="107" t="s">
-        <v>227</v>
-      </c>
-      <c r="E117" s="105" t="s">
-        <v>470</v>
-      </c>
-      <c r="F117" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="G117" s="105"/>
-      <c r="H117" s="108" t="s">
+      <c r="F119" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G119" s="105"/>
+      <c r="H119" s="108" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="109" t="s">
-        <v>114</v>
-      </c>
-      <c r="B118" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C118" s="111" t="s">
-        <v>471</v>
-      </c>
-      <c r="D118" s="112" t="s">
-        <v>229</v>
-      </c>
-      <c r="E118" s="110" t="s">
-        <v>114</v>
-      </c>
-      <c r="F118" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G118" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H118" s="113" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="109" t="s">
-        <v>114</v>
-      </c>
-      <c r="B119" s="110" t="s">
-        <v>142</v>
-      </c>
-      <c r="C119" s="111" t="s">
-        <v>471</v>
-      </c>
-      <c r="D119" s="112" t="s">
-        <v>228</v>
-      </c>
-      <c r="E119" s="110"/>
-      <c r="F119" s="110"/>
-      <c r="G119" s="110"/>
-      <c r="H119" s="113"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="109" t="s">
         <v>114</v>
       </c>
       <c r="B120" s="110" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C120" s="111" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D120" s="112" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="E120" s="110" t="s">
         <v>114</v>
@@ -9687,7 +9707,7 @@
         <v>5</v>
       </c>
       <c r="H120" s="113" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
@@ -9695,41 +9715,35 @@
         <v>114</v>
       </c>
       <c r="B121" s="110" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C121" s="111" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D121" s="112" t="s">
-        <v>230</v>
-      </c>
-      <c r="E121" s="110" t="s">
-        <v>114</v>
-      </c>
-      <c r="F121" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G121" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H121" s="113" t="s">
-        <v>408</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="E121" s="110"/>
+      <c r="F121" s="110"/>
+      <c r="G121" s="110"/>
+      <c r="H121" s="113"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="109" t="s">
         <v>114</v>
       </c>
       <c r="B122" s="110" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C122" s="111" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D122" s="112" t="s">
-        <v>231</v>
-      </c>
-      <c r="E122" s="110"/>
+        <v>254</v>
+      </c>
+      <c r="E122" s="110" t="s">
+        <v>114</v>
+      </c>
       <c r="F122" s="110" t="s">
         <v>5</v>
       </c>
@@ -9740,112 +9754,118 @@
         <v>397</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="119" t="s">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="B123" s="120" t="s">
+      <c r="B123" s="110" t="s">
+        <v>143</v>
+      </c>
+      <c r="C123" s="111" t="s">
+        <v>471</v>
+      </c>
+      <c r="D123" s="112" t="s">
+        <v>230</v>
+      </c>
+      <c r="E123" s="110" t="s">
+        <v>114</v>
+      </c>
+      <c r="F123" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G123" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H123" s="113" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" s="109" t="s">
+        <v>114</v>
+      </c>
+      <c r="B124" s="110" t="s">
+        <v>142</v>
+      </c>
+      <c r="C124" s="111" t="s">
+        <v>471</v>
+      </c>
+      <c r="D124" s="112" t="s">
+        <v>231</v>
+      </c>
+      <c r="E124" s="110"/>
+      <c r="F124" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G124" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H124" s="113" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="119" t="s">
+        <v>114</v>
+      </c>
+      <c r="B125" s="120" t="s">
         <v>140</v>
       </c>
-      <c r="C123" s="121" t="s">
+      <c r="C125" s="121" t="s">
+        <v>472</v>
+      </c>
+      <c r="D125" s="122" t="s">
+        <v>232</v>
+      </c>
+      <c r="E125" s="120" t="s">
+        <v>469</v>
+      </c>
+      <c r="F125" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G125" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H125" s="123" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="B126" s="95" t="s">
+        <v>140</v>
+      </c>
+      <c r="C126" s="96" t="s">
+        <v>475</v>
+      </c>
+      <c r="D126" s="97" t="s">
+        <v>474</v>
+      </c>
+      <c r="E126" s="95" t="s">
         <v>473</v>
       </c>
-      <c r="D123" s="122" t="s">
-        <v>232</v>
-      </c>
-      <c r="E123" s="120" t="s">
-        <v>470</v>
-      </c>
-      <c r="F123" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G123" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="H123" s="123" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="94" t="s">
-        <v>103</v>
-      </c>
-      <c r="B124" s="95" t="s">
-        <v>140</v>
-      </c>
-      <c r="C124" s="96" t="s">
-        <v>476</v>
-      </c>
-      <c r="D124" s="97" t="s">
-        <v>475</v>
-      </c>
-      <c r="E124" s="95" t="s">
-        <v>474</v>
-      </c>
-      <c r="F124" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="G124" s="95"/>
-      <c r="H124" s="99" t="s">
+      <c r="F126" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G126" s="95"/>
+      <c r="H126" s="99" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="B125" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C125" s="52" t="s">
-        <v>476</v>
-      </c>
-      <c r="D125" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E125" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="F125" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G125" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H125" s="60" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="B126" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="C126" s="52" t="s">
-        <v>476</v>
-      </c>
-      <c r="D126" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="E126" s="50"/>
-      <c r="F126" s="50"/>
-      <c r="G126" s="50"/>
-      <c r="H126" s="60"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="55" t="s">
         <v>103</v>
       </c>
       <c r="B127" s="50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C127" s="52" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D127" s="51" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="E127" s="50" t="s">
         <v>103</v>
@@ -9857,7 +9877,7 @@
         <v>5</v>
       </c>
       <c r="H127" s="60" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
@@ -9865,41 +9885,35 @@
         <v>103</v>
       </c>
       <c r="B128" s="50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C128" s="52" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D128" s="51" t="s">
-        <v>203</v>
-      </c>
-      <c r="E128" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="F128" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G128" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H128" s="60" t="s">
-        <v>408</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="E128" s="50"/>
+      <c r="F128" s="50"/>
+      <c r="G128" s="50"/>
+      <c r="H128" s="60"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="55" t="s">
         <v>103</v>
       </c>
       <c r="B129" s="50" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C129" s="52" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D129" s="51" t="s">
-        <v>204</v>
-      </c>
-      <c r="E129" s="50"/>
+        <v>250</v>
+      </c>
+      <c r="E129" s="50" t="s">
+        <v>103</v>
+      </c>
       <c r="F129" s="50" t="s">
         <v>5</v>
       </c>
@@ -9915,133 +9929,139 @@
         <v>103</v>
       </c>
       <c r="B130" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="C130" s="52" t="s">
+        <v>476</v>
+      </c>
+      <c r="D130" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="E130" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="F130" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G130" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H130" s="60" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B131" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="C131" s="52" t="s">
+        <v>476</v>
+      </c>
+      <c r="D131" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="E131" s="50"/>
+      <c r="F131" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G131" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H131" s="60" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B132" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="C130" s="52" t="s">
+      <c r="C132" s="52" t="s">
+        <v>477</v>
+      </c>
+      <c r="D132" s="51" t="s">
         <v>478</v>
       </c>
-      <c r="D130" s="51" t="s">
+      <c r="E132" s="50" t="s">
+        <v>473</v>
+      </c>
+      <c r="F132" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G132" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H132" s="60" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="124" t="s">
+        <v>103</v>
+      </c>
+      <c r="B133" s="100" t="s">
+        <v>143</v>
+      </c>
+      <c r="C133" s="101" t="s">
         <v>479</v>
       </c>
-      <c r="E130" s="50" t="s">
-        <v>474</v>
-      </c>
-      <c r="F130" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G130" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H130" s="60" t="s">
+      <c r="D133" s="125" t="s">
+        <v>480</v>
+      </c>
+      <c r="E133" s="100" t="s">
+        <v>103</v>
+      </c>
+      <c r="F133" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G133" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H133" s="126" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="124" t="s">
-        <v>103</v>
-      </c>
-      <c r="B131" s="100" t="s">
-        <v>143</v>
-      </c>
-      <c r="C131" s="101" t="s">
-        <v>480</v>
-      </c>
-      <c r="D131" s="125" t="s">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" s="104" t="s">
+        <v>81</v>
+      </c>
+      <c r="B134" s="105" t="s">
+        <v>140</v>
+      </c>
+      <c r="C134" s="106" t="s">
+        <v>482</v>
+      </c>
+      <c r="D134" s="107" t="s">
+        <v>484</v>
+      </c>
+      <c r="E134" s="105" t="s">
         <v>481</v>
       </c>
-      <c r="E131" s="100" t="s">
-        <v>103</v>
-      </c>
-      <c r="F131" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="G131" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="H131" s="126" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132" s="104" t="s">
-        <v>81</v>
-      </c>
-      <c r="B132" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="C132" s="106" t="s">
-        <v>483</v>
-      </c>
-      <c r="D132" s="107" t="s">
-        <v>485</v>
-      </c>
-      <c r="E132" s="105" t="s">
-        <v>482</v>
-      </c>
-      <c r="F132" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="G132" s="105"/>
-      <c r="H132" s="108" t="s">
+      <c r="F134" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G134" s="105"/>
+      <c r="H134" s="108" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" s="109" t="s">
-        <v>81</v>
-      </c>
-      <c r="B133" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C133" s="111" t="s">
-        <v>483</v>
-      </c>
-      <c r="D133" s="112" t="s">
-        <v>149</v>
-      </c>
-      <c r="E133" s="110" t="s">
-        <v>81</v>
-      </c>
-      <c r="F133" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G133" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H133" s="113" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="109" t="s">
-        <v>81</v>
-      </c>
-      <c r="B134" s="110" t="s">
-        <v>142</v>
-      </c>
-      <c r="C134" s="111" t="s">
-        <v>483</v>
-      </c>
-      <c r="D134" s="112" t="s">
-        <v>148</v>
-      </c>
-      <c r="E134" s="110"/>
-      <c r="F134" s="110"/>
-      <c r="G134" s="110"/>
-      <c r="H134" s="113"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="109" t="s">
         <v>81</v>
       </c>
       <c r="B135" s="110" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C135" s="111" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D135" s="112" t="s">
-        <v>486</v>
+        <v>149</v>
       </c>
       <c r="E135" s="110" t="s">
         <v>81</v>
@@ -10053,7 +10073,7 @@
         <v>5</v>
       </c>
       <c r="H135" s="113" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
@@ -10061,131 +10081,131 @@
         <v>81</v>
       </c>
       <c r="B136" s="110" t="s">
+        <v>142</v>
+      </c>
+      <c r="C136" s="111" t="s">
+        <v>482</v>
+      </c>
+      <c r="D136" s="112" t="s">
+        <v>148</v>
+      </c>
+      <c r="E136" s="110"/>
+      <c r="F136" s="110"/>
+      <c r="G136" s="110"/>
+      <c r="H136" s="113"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" s="109" t="s">
+        <v>81</v>
+      </c>
+      <c r="B137" s="110" t="s">
+        <v>140</v>
+      </c>
+      <c r="C137" s="111" t="s">
+        <v>483</v>
+      </c>
+      <c r="D137" s="112" t="s">
+        <v>485</v>
+      </c>
+      <c r="E137" s="110" t="s">
+        <v>81</v>
+      </c>
+      <c r="F137" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G137" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H137" s="113" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" s="109" t="s">
+        <v>81</v>
+      </c>
+      <c r="B138" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="C136" s="111" t="s">
-        <v>484</v>
-      </c>
-      <c r="D136" s="112" t="s">
+      <c r="C138" s="111" t="s">
+        <v>483</v>
+      </c>
+      <c r="D138" s="112" t="s">
         <v>150</v>
       </c>
-      <c r="E136" s="110" t="s">
+      <c r="E138" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="F136" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G136" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H136" s="113" t="s">
+      <c r="F138" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G138" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H138" s="113" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="119" t="s">
+    <row r="139" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="119" t="s">
         <v>81</v>
       </c>
-      <c r="B137" s="120" t="s">
+      <c r="B139" s="120" t="s">
         <v>142</v>
       </c>
-      <c r="C137" s="121" t="s">
-        <v>484</v>
-      </c>
-      <c r="D137" s="122" t="s">
+      <c r="C139" s="121" t="s">
+        <v>483</v>
+      </c>
+      <c r="D139" s="122" t="s">
         <v>151</v>
       </c>
-      <c r="E137" s="120"/>
-      <c r="F137" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G137" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="H137" s="123" t="s">
+      <c r="E139" s="120"/>
+      <c r="F139" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G139" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H139" s="123" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138" s="94" t="s">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" s="94" t="s">
         <v>174</v>
       </c>
-      <c r="B138" s="95" t="s">
+      <c r="B140" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C138" s="96" t="s">
+      <c r="C140" s="96" t="s">
         <v>175</v>
       </c>
-      <c r="D138" s="97" t="s">
+      <c r="D140" s="97" t="s">
         <v>177</v>
       </c>
-      <c r="E138" s="95" t="s">
-        <v>487</v>
-      </c>
-      <c r="F138" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="G138" s="95"/>
-      <c r="H138" s="99" t="s">
+      <c r="E140" s="95" t="s">
+        <v>486</v>
+      </c>
+      <c r="F140" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G140" s="95"/>
+      <c r="H140" s="99" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" s="55" t="s">
-        <v>174</v>
-      </c>
-      <c r="B139" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C139" s="52" t="s">
-        <v>175</v>
-      </c>
-      <c r="D139" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="E139" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="F139" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G139" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H139" s="60" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" s="55" t="s">
-        <v>174</v>
-      </c>
-      <c r="B140" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="C140" s="52" t="s">
-        <v>175</v>
-      </c>
-      <c r="D140" s="51" t="s">
-        <v>178</v>
-      </c>
-      <c r="E140" s="50"/>
-      <c r="F140" s="50"/>
-      <c r="G140" s="50"/>
-      <c r="H140" s="60"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="55" t="s">
         <v>174</v>
       </c>
       <c r="B141" s="50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C141" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D141" s="51" t="s">
-        <v>246</v>
+        <v>179</v>
       </c>
       <c r="E141" s="50" t="s">
         <v>174</v>
@@ -10197,7 +10217,7 @@
         <v>5</v>
       </c>
       <c r="H141" s="60" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
@@ -10205,131 +10225,131 @@
         <v>174</v>
       </c>
       <c r="B142" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="C142" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="D142" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="E142" s="50"/>
+      <c r="F142" s="50"/>
+      <c r="G142" s="50"/>
+      <c r="H142" s="60"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="B143" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C143" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="D143" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="E143" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="F143" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G143" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H143" s="60" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="B144" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="C142" s="52" t="s">
+      <c r="C144" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="D142" s="51" t="s">
+      <c r="D144" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="E142" s="50" t="s">
+      <c r="E144" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="F142" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G142" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H142" s="60" t="s">
+      <c r="F144" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G144" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H144" s="60" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="124" t="s">
+    <row r="145" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="124" t="s">
         <v>174</v>
       </c>
-      <c r="B143" s="100" t="s">
+      <c r="B145" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C143" s="101" t="s">
+      <c r="C145" s="101" t="s">
         <v>176</v>
       </c>
-      <c r="D143" s="125" t="s">
+      <c r="D145" s="125" t="s">
         <v>181</v>
       </c>
-      <c r="E143" s="100"/>
-      <c r="F143" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="G143" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="H143" s="126" t="s">
+      <c r="E145" s="100"/>
+      <c r="F145" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G145" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H145" s="126" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A144" s="104" t="s">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="B144" s="105" t="s">
+      <c r="B146" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C144" s="106" t="s">
-        <v>541</v>
-      </c>
-      <c r="D144" s="107" t="s">
-        <v>488</v>
-      </c>
-      <c r="E144" s="105" t="s">
+      <c r="C146" s="106" t="s">
+        <v>540</v>
+      </c>
+      <c r="D146" s="107" t="s">
+        <v>487</v>
+      </c>
+      <c r="E146" s="105" t="s">
         <v>88</v>
       </c>
-      <c r="F144" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="G144" s="105"/>
-      <c r="H144" s="108" t="s">
+      <c r="F146" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G146" s="105"/>
+      <c r="H146" s="108" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" s="109" t="s">
-        <v>88</v>
-      </c>
-      <c r="B145" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C145" s="111" t="s">
-        <v>541</v>
-      </c>
-      <c r="D145" s="112" t="s">
-        <v>153</v>
-      </c>
-      <c r="E145" s="110" t="s">
-        <v>88</v>
-      </c>
-      <c r="F145" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G145" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H145" s="113" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="109" t="s">
-        <v>88</v>
-      </c>
-      <c r="B146" s="110" t="s">
-        <v>142</v>
-      </c>
-      <c r="C146" s="111" t="s">
-        <v>541</v>
-      </c>
-      <c r="D146" s="112" t="s">
-        <v>152</v>
-      </c>
-      <c r="E146" s="110"/>
-      <c r="F146" s="110"/>
-      <c r="G146" s="110"/>
-      <c r="H146" s="113"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="109" t="s">
         <v>88</v>
       </c>
       <c r="B147" s="110" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C147" s="111" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D147" s="112" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E147" s="110" t="s">
         <v>88</v>
@@ -10341,7 +10361,7 @@
         <v>5</v>
       </c>
       <c r="H147" s="113" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
@@ -10349,157 +10369,157 @@
         <v>88</v>
       </c>
       <c r="B148" s="110" t="s">
+        <v>142</v>
+      </c>
+      <c r="C148" s="111" t="s">
+        <v>540</v>
+      </c>
+      <c r="D148" s="112" t="s">
+        <v>152</v>
+      </c>
+      <c r="E148" s="110"/>
+      <c r="F148" s="110"/>
+      <c r="G148" s="110"/>
+      <c r="H148" s="113"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" s="109" t="s">
+        <v>88</v>
+      </c>
+      <c r="B149" s="110" t="s">
+        <v>140</v>
+      </c>
+      <c r="C149" s="111" t="s">
+        <v>541</v>
+      </c>
+      <c r="D149" s="112" t="s">
+        <v>147</v>
+      </c>
+      <c r="E149" s="110" t="s">
+        <v>88</v>
+      </c>
+      <c r="F149" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G149" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H149" s="113" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" s="109" t="s">
+        <v>88</v>
+      </c>
+      <c r="B150" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="C148" s="111" t="s">
-        <v>542</v>
-      </c>
-      <c r="D148" s="112" t="s">
+      <c r="C150" s="111" t="s">
+        <v>541</v>
+      </c>
+      <c r="D150" s="112" t="s">
         <v>154</v>
       </c>
-      <c r="E148" s="110" t="s">
+      <c r="E150" s="110" t="s">
         <v>88</v>
       </c>
-      <c r="F148" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G148" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H148" s="113" t="s">
+      <c r="F150" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G150" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H150" s="113" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A149" s="119" t="s">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="B149" s="120" t="s">
+      <c r="B151" s="120" t="s">
         <v>142</v>
       </c>
-      <c r="C149" s="121" t="s">
-        <v>542</v>
-      </c>
-      <c r="D149" s="122" t="s">
+      <c r="C151" s="121" t="s">
+        <v>541</v>
+      </c>
+      <c r="D151" s="122" t="s">
         <v>155</v>
       </c>
-      <c r="E149" s="120"/>
-      <c r="F149" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G149" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="H149" s="123" t="s">
+      <c r="E151" s="120"/>
+      <c r="F151" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G151" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H151" s="123" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="119" t="s">
+    <row r="152" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="B150" s="120" t="s">
+      <c r="B152" s="120" t="s">
         <v>140</v>
       </c>
-      <c r="C150" s="121" t="s">
+      <c r="C152" s="121" t="s">
+        <v>538</v>
+      </c>
+      <c r="D152" s="122" t="s">
         <v>539</v>
       </c>
-      <c r="D150" s="122" t="s">
-        <v>540</v>
-      </c>
-      <c r="E150" s="120" t="s">
+      <c r="E152" s="120" t="s">
         <v>88</v>
       </c>
-      <c r="F150" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="G150" s="120"/>
-      <c r="H150" s="123" t="s">
+      <c r="F152" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G152" s="120"/>
+      <c r="H152" s="123" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="151" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="129" t="s">
+    <row r="153" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="B151" s="130" t="s">
+      <c r="B153" s="130" t="s">
         <v>140</v>
       </c>
-      <c r="C151" s="131" t="s">
+      <c r="C153" s="131" t="s">
         <v>291</v>
       </c>
-      <c r="D151" s="132" t="s">
+      <c r="D153" s="132" t="s">
         <v>292</v>
       </c>
-      <c r="E151" s="130" t="s">
-        <v>489</v>
-      </c>
-      <c r="F151" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="G151" s="95"/>
-      <c r="H151" s="99" t="s">
+      <c r="E153" s="130" t="s">
+        <v>488</v>
+      </c>
+      <c r="F153" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G153" s="95"/>
+      <c r="H153" s="99" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="152" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="61" t="s">
-        <v>290</v>
-      </c>
-      <c r="B152" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="C152" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="D152" s="64" t="s">
-        <v>293</v>
-      </c>
-      <c r="E152" s="62" t="s">
-        <v>290</v>
-      </c>
-      <c r="F152" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G152" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H152" s="60" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="61" t="s">
-        <v>290</v>
-      </c>
-      <c r="B153" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="C153" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="D153" s="64" t="s">
-        <v>294</v>
-      </c>
-      <c r="E153" s="62"/>
-      <c r="F153" s="50"/>
-      <c r="G153" s="50"/>
-      <c r="H153" s="60"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="61" t="s">
         <v>290</v>
       </c>
-      <c r="B154" s="50" t="s">
-        <v>140</v>
+      <c r="B154" s="62" t="s">
+        <v>141</v>
       </c>
       <c r="C154" s="63" t="s">
-        <v>304</v>
-      </c>
-      <c r="D154" s="53" t="s">
-        <v>305</v>
-      </c>
-      <c r="E154" s="50" t="s">
+        <v>291</v>
+      </c>
+      <c r="D154" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="E154" s="62" t="s">
         <v>290</v>
       </c>
       <c r="F154" s="50" t="s">
@@ -10509,49 +10529,43 @@
         <v>5</v>
       </c>
       <c r="H154" s="60" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="61" t="s">
         <v>290</v>
       </c>
-      <c r="B155" s="50" t="s">
-        <v>143</v>
+      <c r="B155" s="62" t="s">
+        <v>142</v>
       </c>
       <c r="C155" s="63" t="s">
-        <v>304</v>
-      </c>
-      <c r="D155" s="53" t="s">
-        <v>306</v>
-      </c>
-      <c r="E155" s="50" t="s">
-        <v>290</v>
-      </c>
-      <c r="F155" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G155" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H155" s="60" t="s">
-        <v>408</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="D155" s="64" t="s">
+        <v>294</v>
+      </c>
+      <c r="E155" s="62"/>
+      <c r="F155" s="50"/>
+      <c r="G155" s="50"/>
+      <c r="H155" s="60"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="61" t="s">
         <v>290</v>
       </c>
       <c r="B156" s="50" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C156" s="63" t="s">
         <v>304</v>
       </c>
       <c r="D156" s="53" t="s">
-        <v>307</v>
-      </c>
-      <c r="E156" s="50"/>
+        <v>305</v>
+      </c>
+      <c r="E156" s="50" t="s">
+        <v>290</v>
+      </c>
       <c r="F156" s="50" t="s">
         <v>5</v>
       </c>
@@ -10563,39 +10577,45 @@
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A157" s="55" t="s">
+      <c r="A157" s="61" t="s">
         <v>290</v>
       </c>
       <c r="B157" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="C157" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="D157" s="53" t="s">
+        <v>306</v>
+      </c>
+      <c r="E157" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="F157" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G157" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H157" s="60" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" s="61" t="s">
+        <v>290</v>
+      </c>
+      <c r="B158" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="C157" s="52" t="s">
-        <v>296</v>
-      </c>
-      <c r="D157" s="53" t="s">
-        <v>295</v>
-      </c>
-      <c r="E157" s="50"/>
-      <c r="F157" s="50"/>
-      <c r="G157" s="50"/>
-      <c r="H157" s="60"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A158" s="55" t="s">
-        <v>290</v>
-      </c>
-      <c r="B158" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="C158" s="52" t="s">
-        <v>303</v>
+      <c r="C158" s="63" t="s">
+        <v>304</v>
       </c>
       <c r="D158" s="53" t="s">
-        <v>297</v>
-      </c>
-      <c r="E158" s="50" t="s">
-        <v>460</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="E158" s="50"/>
       <c r="F158" s="50" t="s">
         <v>5</v>
       </c>
@@ -10611,26 +10631,18 @@
         <v>290</v>
       </c>
       <c r="B159" s="50" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C159" s="52" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D159" s="53" t="s">
-        <v>298</v>
-      </c>
-      <c r="E159" s="50" t="s">
-        <v>490</v>
-      </c>
-      <c r="F159" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G159" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H159" s="60" t="s">
-        <v>397</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="E159" s="50"/>
+      <c r="F159" s="50"/>
+      <c r="G159" s="50"/>
+      <c r="H159" s="60"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="55" t="s">
@@ -10640,102 +10652,110 @@
         <v>140</v>
       </c>
       <c r="C160" s="52" t="s">
+        <v>303</v>
+      </c>
+      <c r="D160" s="53" t="s">
+        <v>297</v>
+      </c>
+      <c r="E160" s="50" t="s">
+        <v>459</v>
+      </c>
+      <c r="F160" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G160" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H160" s="60" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="B161" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C161" s="52" t="s">
+        <v>302</v>
+      </c>
+      <c r="D161" s="53" t="s">
+        <v>298</v>
+      </c>
+      <c r="E161" s="50" t="s">
+        <v>489</v>
+      </c>
+      <c r="F161" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G161" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H161" s="60" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="B162" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C162" s="52" t="s">
         <v>299</v>
       </c>
-      <c r="D160" s="53" t="s">
+      <c r="D162" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="E160" s="50" t="s">
+      <c r="E162" s="50" t="s">
         <v>300</v>
       </c>
-      <c r="F160" s="50"/>
-      <c r="G160" s="50"/>
-      <c r="H160" s="60"/>
-    </row>
-    <row r="161" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="124" t="s">
+      <c r="F162" s="50"/>
+      <c r="G162" s="50"/>
+      <c r="H162" s="60"/>
+    </row>
+    <row r="163" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="124" t="s">
         <v>290</v>
       </c>
-      <c r="B161" s="100" t="s">
+      <c r="B163" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C161" s="101" t="s">
+      <c r="C163" s="101" t="s">
         <v>308</v>
       </c>
-      <c r="D161" s="102" t="s">
+      <c r="D163" s="102" t="s">
         <v>301</v>
       </c>
-      <c r="E161" s="100"/>
-      <c r="F161" s="100"/>
-      <c r="G161" s="100"/>
-      <c r="H161" s="126"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A162" s="104" t="s">
+      <c r="E163" s="100"/>
+      <c r="F163" s="100"/>
+      <c r="G163" s="100"/>
+      <c r="H163" s="126"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B162" s="105" t="s">
+      <c r="B164" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C162" s="106" t="s">
-        <v>493</v>
-      </c>
-      <c r="D162" s="107" t="s">
-        <v>491</v>
-      </c>
-      <c r="E162" s="105" t="s">
+      <c r="C164" s="106" t="s">
+        <v>492</v>
+      </c>
+      <c r="D164" s="107" t="s">
         <v>490</v>
       </c>
-      <c r="F162" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="G162" s="105"/>
-      <c r="H162" s="108" t="s">
+      <c r="E164" s="105" t="s">
+        <v>489</v>
+      </c>
+      <c r="F164" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G164" s="105"/>
+      <c r="H164" s="108" t="s">
         <v>390</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A163" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B163" s="110" t="s">
-        <v>142</v>
-      </c>
-      <c r="C163" s="111" t="s">
-        <v>493</v>
-      </c>
-      <c r="D163" s="112" t="s">
-        <v>492</v>
-      </c>
-      <c r="E163" s="110"/>
-      <c r="F163" s="110"/>
-      <c r="G163" s="110"/>
-      <c r="H163" s="113"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A164" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B164" s="110" t="s">
-        <v>140</v>
-      </c>
-      <c r="C164" s="111" t="s">
-        <v>494</v>
-      </c>
-      <c r="D164" s="112" t="s">
-        <v>144</v>
-      </c>
-      <c r="E164" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="F164" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G164" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H164" s="113" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
@@ -10743,41 +10763,35 @@
         <v>0</v>
       </c>
       <c r="B165" s="110" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C165" s="111" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D165" s="112" t="s">
-        <v>145</v>
-      </c>
-      <c r="E165" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="F165" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G165" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="H165" s="113" t="s">
-        <v>408</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="E165" s="110"/>
+      <c r="F165" s="110"/>
+      <c r="G165" s="110"/>
+      <c r="H165" s="113"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="109" t="s">
         <v>0</v>
       </c>
       <c r="B166" s="110" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C166" s="111" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D166" s="112" t="s">
-        <v>146</v>
-      </c>
-      <c r="E166" s="110"/>
+        <v>144</v>
+      </c>
+      <c r="E166" s="110" t="s">
+        <v>0</v>
+      </c>
       <c r="F166" s="110" t="s">
         <v>5</v>
       </c>
@@ -10793,16 +10807,16 @@
         <v>0</v>
       </c>
       <c r="B167" s="110" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C167" s="111" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D167" s="112" t="s">
-        <v>496</v>
+        <v>145</v>
       </c>
       <c r="E167" s="110" t="s">
-        <v>490</v>
+        <v>0</v>
       </c>
       <c r="F167" s="110" t="s">
         <v>5</v>
@@ -10811,7 +10825,7 @@
         <v>5</v>
       </c>
       <c r="H167" s="113" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
@@ -10819,17 +10833,15 @@
         <v>0</v>
       </c>
       <c r="B168" s="110" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C168" s="111" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D168" s="112" t="s">
-        <v>498</v>
-      </c>
-      <c r="E168" s="110" t="s">
-        <v>0</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="E168" s="110"/>
       <c r="F168" s="110" t="s">
         <v>5</v>
       </c>
@@ -10837,7 +10849,7 @@
         <v>5</v>
       </c>
       <c r="H168" s="113" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
@@ -10845,16 +10857,16 @@
         <v>0</v>
       </c>
       <c r="B169" s="110" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C169" s="111" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D169" s="112" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E169" s="110" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="F169" s="110" t="s">
         <v>5</v>
@@ -10863,10 +10875,10 @@
         <v>5</v>
       </c>
       <c r="H169" s="113" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="109" t="s">
         <v>0</v>
       </c>
@@ -10874,96 +10886,104 @@
         <v>141</v>
       </c>
       <c r="C170" s="111" t="s">
+        <v>496</v>
+      </c>
+      <c r="D170" s="112" t="s">
+        <v>497</v>
+      </c>
+      <c r="E170" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="F170" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G170" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H170" s="113" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B171" s="110" t="s">
+        <v>141</v>
+      </c>
+      <c r="C171" s="111" t="s">
+        <v>498</v>
+      </c>
+      <c r="D171" s="112" t="s">
+        <v>499</v>
+      </c>
+      <c r="E171" s="110" t="s">
+        <v>500</v>
+      </c>
+      <c r="F171" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G171" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H171" s="113" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B172" s="110" t="s">
+        <v>141</v>
+      </c>
+      <c r="C172" s="111" t="s">
+        <v>501</v>
+      </c>
+      <c r="D172" s="112" t="s">
         <v>502</v>
       </c>
-      <c r="D170" s="112" t="s">
+      <c r="E172" s="110"/>
+      <c r="F172" s="110"/>
+      <c r="G172" s="110"/>
+      <c r="H172" s="113"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173" s="94" t="s">
+        <v>262</v>
+      </c>
+      <c r="B173" s="95" t="s">
+        <v>140</v>
+      </c>
+      <c r="C173" s="96" t="s">
+        <v>504</v>
+      </c>
+      <c r="D173" s="97" t="s">
+        <v>266</v>
+      </c>
+      <c r="E173" s="95" t="s">
         <v>503</v>
       </c>
-      <c r="E170" s="110"/>
-      <c r="F170" s="110"/>
-      <c r="G170" s="110"/>
-      <c r="H170" s="113"/>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A171" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="B171" s="95" t="s">
-        <v>140</v>
-      </c>
-      <c r="C171" s="96" t="s">
-        <v>505</v>
-      </c>
-      <c r="D171" s="97" t="s">
-        <v>266</v>
-      </c>
-      <c r="E171" s="95" t="s">
-        <v>504</v>
-      </c>
-      <c r="F171" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="G171" s="95"/>
-      <c r="H171" s="99" t="s">
+      <c r="F173" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G173" s="95"/>
+      <c r="H173" s="99" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A172" s="55" t="s">
-        <v>262</v>
-      </c>
-      <c r="B172" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C172" s="52" t="s">
-        <v>505</v>
-      </c>
-      <c r="D172" s="51" t="s">
-        <v>534</v>
-      </c>
-      <c r="E172" s="50" t="s">
-        <v>262</v>
-      </c>
-      <c r="F172" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G172" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H172" s="60" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A173" s="55" t="s">
-        <v>262</v>
-      </c>
-      <c r="B173" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="C173" s="52" t="s">
-        <v>505</v>
-      </c>
-      <c r="D173" s="51" t="s">
-        <v>267</v>
-      </c>
-      <c r="E173" s="50"/>
-      <c r="F173" s="50"/>
-      <c r="G173" s="50"/>
-      <c r="H173" s="60"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="55" t="s">
         <v>262</v>
       </c>
       <c r="B174" s="50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C174" s="52" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D174" s="51" t="s">
-        <v>263</v>
+        <v>533</v>
       </c>
       <c r="E174" s="50" t="s">
         <v>262</v>
@@ -10975,7 +10995,7 @@
         <v>5</v>
       </c>
       <c r="H174" s="60" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
@@ -10983,41 +11003,35 @@
         <v>262</v>
       </c>
       <c r="B175" s="50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C175" s="52" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D175" s="51" t="s">
-        <v>264</v>
-      </c>
-      <c r="E175" s="50" t="s">
-        <v>262</v>
-      </c>
-      <c r="F175" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G175" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H175" s="60" t="s">
-        <v>408</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="E175" s="50"/>
+      <c r="F175" s="50"/>
+      <c r="G175" s="50"/>
+      <c r="H175" s="60"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="55" t="s">
         <v>262</v>
       </c>
       <c r="B176" s="50" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C176" s="52" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D176" s="51" t="s">
-        <v>265</v>
-      </c>
-      <c r="E176" s="50"/>
+        <v>263</v>
+      </c>
+      <c r="E176" s="50" t="s">
+        <v>262</v>
+      </c>
       <c r="F176" s="50" t="s">
         <v>5</v>
       </c>
@@ -11029,137 +11043,143 @@
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A177" s="124" t="s">
+      <c r="A177" s="55" t="s">
         <v>262</v>
       </c>
-      <c r="B177" s="100" t="s">
+      <c r="B177" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="C177" s="52" t="s">
+        <v>506</v>
+      </c>
+      <c r="D177" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="E177" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="F177" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G177" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H177" s="60" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A178" s="55" t="s">
+        <v>262</v>
+      </c>
+      <c r="B178" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="C178" s="52" t="s">
+        <v>506</v>
+      </c>
+      <c r="D178" s="51" t="s">
+        <v>265</v>
+      </c>
+      <c r="E178" s="50"/>
+      <c r="F178" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G178" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H178" s="60" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179" s="124" t="s">
+        <v>262</v>
+      </c>
+      <c r="B179" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="C177" s="101" t="s">
-        <v>506</v>
-      </c>
-      <c r="D177" s="125" t="s">
+      <c r="C179" s="101" t="s">
+        <v>505</v>
+      </c>
+      <c r="D179" s="125" t="s">
         <v>268</v>
       </c>
-      <c r="E177" s="100" t="s">
+      <c r="E179" s="100" t="s">
         <v>262</v>
       </c>
-      <c r="F177" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="G177" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="H177" s="126" t="s">
+      <c r="F179" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G179" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H179" s="126" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="124" t="s">
+    <row r="180" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="124" t="s">
         <v>262</v>
    